--- a/doc/caste_system.xlsx
+++ b/doc/caste_system.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/349dfb9748b30a92/Asztali gép/ataliasflame/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/349dfb9748b30a92/Asztali gép/ataliasflame_2.0/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2281" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FC37CEB-4CB8-40B3-8562-D14E1E0963D3}"/>
+  <xr:revisionPtr revIDLastSave="2285" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D44E54C4-0E36-4DC5-BC70-5437CAEEAAE3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
   </bookViews>
@@ -773,7 +773,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-arimaspo</t>
+arimaspi</t>
         </r>
       </text>
     </comment>
@@ -1874,7 +1874,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1890,12 +1890,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2011,7 +2005,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2020,8 +2014,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -2042,21 +2034,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2455,7 +2444,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2773,55 +2762,55 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" s="9" t="s">
+      <c r="K8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3630,7 +3619,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D679E03F-D306-402E-AB27-0886D4533EB3}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4290,28 +4281,28 @@
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="11">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0</v>
-      </c>
-      <c r="G2" s="12">
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
         <v>0.05</v>
       </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="16">
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4319,28 +4310,28 @@
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="21">
-        <v>0</v>
-      </c>
-      <c r="C3" s="21">
-        <v>0</v>
-      </c>
-      <c r="D3" s="21">
+      <c r="B3" s="19">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0</v>
+      </c>
+      <c r="D3" s="19">
         <v>0.01</v>
       </c>
-      <c r="E3" s="21">
-        <v>0</v>
-      </c>
-      <c r="F3" s="21">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="16">
+      <c r="E3" s="19">
+        <v>0</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4348,28 +4339,28 @@
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="19">
         <v>0.03</v>
       </c>
-      <c r="C4" s="21">
-        <v>0</v>
-      </c>
-      <c r="D4" s="21">
-        <v>0</v>
-      </c>
-      <c r="E4" s="21">
-        <v>0</v>
-      </c>
-      <c r="F4" s="21">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="16">
+      <c r="C4" s="19">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4377,28 +4368,28 @@
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="21">
-        <v>0</v>
-      </c>
-      <c r="C5" s="21">
-        <v>0</v>
-      </c>
-      <c r="D5" s="21">
-        <v>0</v>
-      </c>
-      <c r="E5" s="21">
-        <v>0</v>
-      </c>
-      <c r="F5" s="21">
+      <c r="B5" s="19">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
         <v>0.02</v>
       </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="16">
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4406,28 +4397,28 @@
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="21">
-        <v>0</v>
-      </c>
-      <c r="C6" s="21">
+      <c r="B6" s="19">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19">
         <v>0.03</v>
       </c>
-      <c r="D6" s="21">
-        <v>0</v>
-      </c>
-      <c r="E6" s="21">
-        <v>0</v>
-      </c>
-      <c r="F6" s="21">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="16">
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
         <v>0</v>
       </c>
     </row>
@@ -4435,57 +4426,57 @@
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="11">
-        <v>0</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
         <v>0.01</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="12">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
         <v>0.05</v>
       </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16">
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
         <v>0.1</v>
       </c>
     </row>
@@ -4499,9 +4490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47799533-6B34-4949-9561-D6B03DB6E4FC}">
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M2:M9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4572,7 +4561,7 @@
       <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -4631,16 +4620,16 @@
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="21">
-        <v>0</v>
-      </c>
-      <c r="C2" s="21">
+      <c r="B2" s="19">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19">
         <v>0.01</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="19">
         <v>0.02</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="19">
         <v>0</v>
       </c>
       <c r="F2" s="5">
@@ -4664,7 +4653,7 @@
       <c r="L2" s="5">
         <v>40</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2">
         <v>5</v>
       </c>
       <c r="N2" s="3">
@@ -4724,16 +4713,16 @@
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="19">
         <v>0.02</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="19">
         <v>0.01</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="19">
         <v>0.01</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="19">
         <v>0</v>
       </c>
       <c r="F3" s="5">
@@ -4757,7 +4746,7 @@
       <c r="L3" s="5">
         <v>45</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3">
         <v>5</v>
       </c>
       <c r="N3" s="3">
@@ -4817,16 +4806,16 @@
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="21">
-        <v>0</v>
-      </c>
-      <c r="C4" s="21">
-        <v>0</v>
-      </c>
-      <c r="D4" s="21">
-        <v>0</v>
-      </c>
-      <c r="E4" s="21">
+      <c r="B4" s="19">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
         <v>0.1</v>
       </c>
       <c r="F4" s="5">
@@ -4850,7 +4839,7 @@
       <c r="L4" s="5">
         <v>45</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4">
         <v>5</v>
       </c>
       <c r="N4" s="3">
@@ -4910,16 +4899,16 @@
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="19">
         <v>0.01</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="19">
         <v>0.01</v>
       </c>
-      <c r="D5" s="21">
-        <v>0</v>
-      </c>
-      <c r="E5" s="21">
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19">
         <v>0</v>
       </c>
       <c r="F5" s="5">
@@ -4943,7 +4932,7 @@
       <c r="L5" s="5">
         <v>45</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5">
         <v>5</v>
       </c>
       <c r="N5" s="3">
@@ -5003,16 +4992,16 @@
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="21">
-        <v>0</v>
-      </c>
-      <c r="C6" s="21">
-        <v>0</v>
-      </c>
-      <c r="D6" s="21">
-        <v>0</v>
-      </c>
-      <c r="E6" s="21">
+      <c r="B6" s="19">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
         <v>0</v>
       </c>
       <c r="F6" s="5">
@@ -5036,7 +5025,7 @@
       <c r="L6" s="5">
         <v>100</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6">
         <v>2</v>
       </c>
       <c r="N6" s="3">
@@ -5096,16 +5085,16 @@
       <c r="A7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="12">
-        <v>0</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
         <v>0</v>
       </c>
       <c r="F7" s="5">
@@ -5189,16 +5178,16 @@
       <c r="A8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="12">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
         <v>0</v>
       </c>
       <c r="F8" s="5">
@@ -5282,92 +5271,92 @@
       <c r="A9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="12">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
         <v>0</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="17">
-        <v>0</v>
-      </c>
-      <c r="H9" s="18">
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
         <v>1</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="16">
         <v>5</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="16">
         <v>15</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="16">
         <v>20</v>
       </c>
       <c r="L9" s="7">
         <v>25</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="16">
         <v>1</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="16">
         <v>2</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="16">
         <v>5</v>
       </c>
       <c r="P9" s="7">
         <v>10</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="16">
         <v>2</v>
       </c>
-      <c r="R9" s="18">
+      <c r="R9" s="16">
         <v>12</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="16">
         <v>40</v>
       </c>
       <c r="T9" s="7">
         <v>100</v>
       </c>
-      <c r="U9" s="18">
+      <c r="U9" s="16">
         <v>1</v>
       </c>
-      <c r="V9" s="18">
+      <c r="V9" s="16">
         <v>3</v>
       </c>
-      <c r="W9" s="18">
+      <c r="W9" s="16">
         <v>10</v>
       </c>
       <c r="X9" s="7">
         <v>25</v>
       </c>
-      <c r="Y9" s="18">
+      <c r="Y9" s="16">
         <v>1</v>
       </c>
-      <c r="Z9" s="18">
+      <c r="Z9" s="16">
         <v>2</v>
       </c>
-      <c r="AA9" s="18">
+      <c r="AA9" s="16">
         <v>5</v>
       </c>
       <c r="AB9" s="7">
         <v>25</v>
       </c>
-      <c r="AC9" s="19">
+      <c r="AC9" s="17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="AD9" s="18">
+      <c r="AD9" s="16">
         <v>100</v>
       </c>
     </row>
@@ -5508,7 +5497,7 @@
       <c r="A3" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>100</v>
       </c>
     </row>
@@ -5516,7 +5505,7 @@
       <c r="A4" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>0</v>
       </c>
     </row>
@@ -5524,7 +5513,7 @@
       <c r="A5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>0</v>
       </c>
     </row>
@@ -5538,3760 +5527,3758 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8DF294-C85C-47A3-9A81-4E26EFDC10EC}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.77734375" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.21875" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.44140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.88671875" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.77734375" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" style="22"/>
-    <col min="21" max="21" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.109375" style="22" customWidth="1"/>
-    <col min="23" max="23" width="5.77734375" style="22" customWidth="1"/>
-    <col min="24" max="24" width="4.77734375" style="22" customWidth="1"/>
-    <col min="25" max="25" width="9" style="22" customWidth="1"/>
-    <col min="26" max="26" width="5" style="22" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" style="22" customWidth="1"/>
-    <col min="28" max="28" width="7.88671875" style="22" customWidth="1"/>
-    <col min="29" max="29" width="6.109375" style="22" customWidth="1"/>
-    <col min="30" max="30" width="5.77734375" style="22" customWidth="1"/>
-    <col min="31" max="31" width="4.77734375" style="22" customWidth="1"/>
-    <col min="32" max="32" width="9" style="22" customWidth="1"/>
-    <col min="33" max="33" width="5" style="22" customWidth="1"/>
-    <col min="34" max="34" width="8.88671875" style="22" customWidth="1"/>
-    <col min="35" max="35" width="7.88671875" style="22" customWidth="1"/>
-    <col min="36" max="36" width="6.109375" style="22" customWidth="1"/>
-    <col min="37" max="37" width="5.77734375" style="22" customWidth="1"/>
-    <col min="38" max="38" width="4.77734375" style="22" customWidth="1"/>
-    <col min="39" max="39" width="9" style="22" customWidth="1"/>
-    <col min="40" max="40" width="5" style="22" customWidth="1"/>
-    <col min="41" max="41" width="8.88671875" style="22" customWidth="1"/>
-    <col min="42" max="42" width="7.88671875" style="22" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.77734375" style="22" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.77734375" style="22" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="5" style="22" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.88671875" style="22"/>
-    <col min="49" max="49" width="7.88671875" style="22" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5.77734375" style="22" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="4.77734375" style="22" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="5" style="22" bestFit="1" customWidth="1"/>
-    <col min="55" max="16384" width="8.88671875" style="22"/>
+    <col min="1" max="1" width="12.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" style="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" style="20"/>
+    <col min="21" max="21" width="9" style="20" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.109375" style="20" customWidth="1"/>
+    <col min="23" max="23" width="5.77734375" style="20" customWidth="1"/>
+    <col min="24" max="24" width="4.77734375" style="20" customWidth="1"/>
+    <col min="25" max="25" width="9" style="20" customWidth="1"/>
+    <col min="26" max="26" width="5" style="20" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" style="20" customWidth="1"/>
+    <col min="28" max="28" width="7.88671875" style="20" customWidth="1"/>
+    <col min="29" max="29" width="6.109375" style="20" customWidth="1"/>
+    <col min="30" max="30" width="5.77734375" style="20" customWidth="1"/>
+    <col min="31" max="31" width="4.77734375" style="20" customWidth="1"/>
+    <col min="32" max="32" width="9" style="20" customWidth="1"/>
+    <col min="33" max="33" width="5" style="20" customWidth="1"/>
+    <col min="34" max="34" width="8.88671875" style="20" customWidth="1"/>
+    <col min="35" max="35" width="7.88671875" style="20" customWidth="1"/>
+    <col min="36" max="36" width="6.109375" style="20" customWidth="1"/>
+    <col min="37" max="37" width="5.77734375" style="20" customWidth="1"/>
+    <col min="38" max="38" width="4.77734375" style="20" customWidth="1"/>
+    <col min="39" max="39" width="9" style="20" customWidth="1"/>
+    <col min="40" max="40" width="5" style="20" customWidth="1"/>
+    <col min="41" max="41" width="8.88671875" style="20" customWidth="1"/>
+    <col min="42" max="42" width="7.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="6.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9" style="20" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5" style="20" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.88671875" style="20"/>
+    <col min="49" max="49" width="7.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="4.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9" style="20" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="5" style="20" bestFit="1" customWidth="1"/>
+    <col min="55" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A1" s="26"/>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="22" t="s">
+      <c r="O1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AB1" s="35" t="s">
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AB1" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AI1" s="35" t="s">
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AI1" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AP1" s="35" t="s">
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AP1" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AW1" s="36" t="s">
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AW1" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="33"/>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="29">
-        <v>0</v>
-      </c>
-      <c r="C2" s="30">
+      <c r="B2" s="27">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
         <v>0.01</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="28">
         <v>0.02</v>
       </c>
-      <c r="E2" s="31">
-        <v>0</v>
-      </c>
-      <c r="F2" s="30">
-        <v>0</v>
-      </c>
-      <c r="G2" s="30">
+      <c r="E2" s="29">
+        <v>0</v>
+      </c>
+      <c r="F2" s="28">
+        <v>0</v>
+      </c>
+      <c r="G2" s="28">
         <v>-0.3</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="28">
         <v>-0.15</v>
       </c>
-      <c r="I2" s="30">
-        <v>0</v>
-      </c>
-      <c r="J2" s="30">
+      <c r="I2" s="28">
+        <v>0</v>
+      </c>
+      <c r="J2" s="28">
         <v>-0.3</v>
       </c>
-      <c r="K2" s="29">
-        <v>0</v>
-      </c>
-      <c r="L2" s="30">
+      <c r="K2" s="27">
+        <v>0</v>
+      </c>
+      <c r="L2" s="28">
         <v>0.03</v>
       </c>
-      <c r="M2" s="30">
-        <v>0</v>
-      </c>
-      <c r="N2" s="31">
-        <v>0</v>
-      </c>
-      <c r="O2" s="28">
+      <c r="M2" s="28">
+        <v>0</v>
+      </c>
+      <c r="N2" s="29">
+        <v>0</v>
+      </c>
+      <c r="O2" s="26">
         <v>1</v>
       </c>
-      <c r="P2" s="22">
+      <c r="P2" s="20">
         <v>5</v>
       </c>
-      <c r="Q2" s="22">
+      <c r="Q2" s="20">
         <v>20</v>
       </c>
-      <c r="R2" s="22">
+      <c r="R2" s="20">
         <v>50</v>
       </c>
-      <c r="S2" s="26">
+      <c r="S2" s="24">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="27">
         <v>0.02</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="28">
         <v>0.01</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="28">
         <v>0.01</v>
       </c>
-      <c r="E3" s="31">
-        <v>0</v>
-      </c>
-      <c r="F3" s="30">
-        <v>0</v>
-      </c>
-      <c r="G3" s="30">
+      <c r="E3" s="29">
+        <v>0</v>
+      </c>
+      <c r="F3" s="28">
+        <v>0</v>
+      </c>
+      <c r="G3" s="28">
         <v>0.2</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="28">
         <v>0.1</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="28">
         <v>0.1</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="28">
         <v>0.5</v>
       </c>
-      <c r="K3" s="29">
-        <v>0</v>
-      </c>
-      <c r="L3" s="30">
-        <v>0</v>
-      </c>
-      <c r="M3" s="30">
-        <v>0</v>
-      </c>
-      <c r="N3" s="31">
+      <c r="K3" s="27">
+        <v>0</v>
+      </c>
+      <c r="L3" s="28">
+        <v>0</v>
+      </c>
+      <c r="M3" s="28">
+        <v>0</v>
+      </c>
+      <c r="N3" s="29">
         <v>0.03</v>
       </c>
-      <c r="O3" s="28">
+      <c r="O3" s="26">
         <v>1</v>
       </c>
-      <c r="P3" s="22">
+      <c r="P3" s="20">
         <v>5</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="20">
         <v>20</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="20">
         <v>50</v>
       </c>
-      <c r="S3" s="26">
+      <c r="S3" s="24">
         <v>100</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="U3" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="V3" s="24" t="s">
+      <c r="V3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="24" t="s">
+      <c r="W3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="X3" s="24" t="s">
+      <c r="X3" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="Y3" s="24" t="s">
+      <c r="Y3" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="Z3" s="24" t="s">
+      <c r="Z3" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AB3" s="24" t="s">
+      <c r="AB3" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AC3" s="24" t="s">
+      <c r="AC3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AD3" s="24" t="s">
+      <c r="AD3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AE3" s="24" t="s">
+      <c r="AE3" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AF3" s="24" t="s">
+      <c r="AF3" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AG3" s="24" t="s">
+      <c r="AG3" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AI3" s="24" t="s">
+      <c r="AI3" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AJ3" s="24" t="s">
+      <c r="AJ3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AK3" s="24" t="s">
+      <c r="AK3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AL3" s="24" t="s">
+      <c r="AL3" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AM3" s="24" t="s">
+      <c r="AM3" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AN3" s="24" t="s">
+      <c r="AN3" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AP3" s="24" t="s">
+      <c r="AP3" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AQ3" s="24" t="s">
+      <c r="AQ3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AR3" s="24" t="s">
+      <c r="AR3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AS3" s="24" t="s">
+      <c r="AS3" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AT3" s="24" t="s">
+      <c r="AT3" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AU3" s="24" t="s">
+      <c r="AU3" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AW3" s="24" t="s">
+      <c r="AW3" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AX3" s="24" t="s">
+      <c r="AX3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AY3" s="24" t="s">
+      <c r="AY3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AZ3" s="24" t="s">
+      <c r="AZ3" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="BA3" s="24" t="s">
+      <c r="BA3" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="BB3" s="24" t="s">
+      <c r="BB3" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="29">
-        <v>0</v>
-      </c>
-      <c r="C4" s="30">
-        <v>0</v>
-      </c>
-      <c r="D4" s="30">
-        <v>0</v>
-      </c>
-      <c r="E4" s="31">
+      <c r="B4" s="27">
+        <v>0</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0</v>
+      </c>
+      <c r="E4" s="29">
         <v>0.1</v>
       </c>
-      <c r="F4" s="30">
-        <v>0</v>
-      </c>
-      <c r="G4" s="30">
+      <c r="F4" s="28">
+        <v>0</v>
+      </c>
+      <c r="G4" s="28">
         <v>-0.1</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="28">
         <v>-0.05</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="28">
         <v>-0.01</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="28">
         <v>-0.1</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="27">
         <v>0.01</v>
       </c>
-      <c r="L4" s="30">
-        <v>0</v>
-      </c>
-      <c r="M4" s="30">
-        <v>0</v>
-      </c>
-      <c r="N4" s="31">
-        <v>0</v>
-      </c>
-      <c r="O4" s="28">
+      <c r="L4" s="28">
+        <v>0</v>
+      </c>
+      <c r="M4" s="28">
+        <v>0</v>
+      </c>
+      <c r="N4" s="29">
+        <v>0</v>
+      </c>
+      <c r="O4" s="26">
         <v>1</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="20">
         <v>5</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="20">
         <v>20</v>
       </c>
-      <c r="R4" s="22">
+      <c r="R4" s="20">
         <v>50</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="24">
         <v>100</v>
       </c>
-      <c r="U4" s="24" t="s">
+      <c r="U4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="24">
+      <c r="V4" s="22">
         <f>ROUND($B$8*(1+$O$2*(1+F2+K2)*B2+$O$3*(1+F3+K3)*B3+$O$4*(1+F4+K4)*B4+$O$5*(1+F5+K5)*B5+$O$6*(1+F6+K6)*B6),0)</f>
         <v>82</v>
       </c>
-      <c r="W4" s="24">
+      <c r="W4" s="22">
         <f>ROUND($B$9*(1+$O$2*(1+F2+K2)*C2+$O$3*(1+F3+K3)*C3+$O$4*(1+F4+K4)*C4+$O$5*(1+F5+K5)*C5+$O$6*(1+F6+K6)*C6),0)</f>
         <v>21</v>
       </c>
-      <c r="X4" s="24">
+      <c r="X4" s="22">
         <f>ROUND($B$12*(1+Y4),0)</f>
         <v>5</v>
       </c>
-      <c r="Y4" s="24">
+      <c r="Y4" s="22">
         <f>ROUND($B$11+$O$2*(1+F2+K2)*D2+$O$3*(1+F3+K3)*D3+$O$4*(1+F4+K4)*D4+$O$5*(1+F5+K5)*D5+$O$6*(1+F6+K6)*D6,2)</f>
         <v>0.03</v>
       </c>
-      <c r="Z4" s="24">
+      <c r="Z4" s="22">
         <f>ROUND($B$10*(1+$O$2*(1+F2+K2)*E2+$O$3*(1+F3+K3)*E3+$O$4*(1+F4+K4)*E4+$O$5*(1+F5+K5)*E5+$O$6*(1+F6+K6)*E6),0)</f>
         <v>110</v>
       </c>
-      <c r="AB4" s="24" t="s">
+      <c r="AB4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AC4" s="25">
+      <c r="AC4" s="23">
         <f>ROUND($B$8*(1+$O$2*(1+G2+K2)*B2+ROUND($O$3*(1+G3+K3),0)*B3+$O$4*(1+G4+K4)*B4+$O$5*(1+G5+K5)*B5+$O$6*(1+G6+K6)*B6),0)</f>
         <v>82</v>
       </c>
-      <c r="AD4" s="24">
+      <c r="AD4" s="22">
         <f>ROUND($B$9*(1+$O$2*(1+G2+K2)*C2+$O$3*(1+G3+K3)*C3+$O$4*(1+G4+K4)*C4+$O$5*(1+G5+K5)*C5+$O$6*(1+G6+K6)*C6),0)</f>
         <v>21</v>
       </c>
-      <c r="AE4" s="24">
+      <c r="AE4" s="22">
         <f>ROUND($B$12*(1+AF4),0)</f>
         <v>5</v>
       </c>
-      <c r="AF4" s="24">
+      <c r="AF4" s="22">
         <f>ROUND($B$11+$O$2*(1+G2+K2)*D2+$O$3*(1+G3+K3)*D3+$O$4*(1+G4+K4)*D4+$O$5*(1+G5+K5)*D5+$O$6*(1+G6+K6)*D6,2)</f>
         <v>0.03</v>
       </c>
-      <c r="AG4" s="25">
+      <c r="AG4" s="23">
         <f>ROUND($B$10*(1+$O$2*(1+G2+K2)*E2+$O$3*(1+G3+K3)*E3+ROUND($O$4*(1+G4+K4),0)*E4+$O$5*(1+G5+K5)*E5+$O$6*(1+G6+K6)*E6),0)</f>
         <v>110</v>
       </c>
-      <c r="AI4" s="24" t="s">
+      <c r="AI4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AJ4" s="25">
+      <c r="AJ4" s="23">
         <f>ROUND($B$8*(1+$O$2*(1+H2+K2)*B2+ROUND($O$3*(1+H3+K3),0)*B3+$O$4*(1+H4+K4)*B4+$O$5*(1+H5+K5)*B5+$O$6*(1+H6+K6)*B6),0)</f>
         <v>82</v>
       </c>
-      <c r="AK4" s="24">
+      <c r="AK4" s="22">
         <f>ROUND($B$9*(1+$O$2*(1+H2+K2)*C2+$O$3*(1+H3+K3)*C3+$O$4*(1+H4+K4)*C4+$O$5*(1+H5+K5)*C5+$O$6*(1+H6+K6)*C6),0)</f>
         <v>21</v>
       </c>
-      <c r="AL4" s="24">
+      <c r="AL4" s="22">
         <f>ROUND($B$12*(1+AM4),0)</f>
         <v>5</v>
       </c>
-      <c r="AM4" s="24">
+      <c r="AM4" s="22">
         <f>ROUND($B$11+$O$2*(1+H2+K2)*D2+$O$3*(1+H3+K3)*D3+$O$4*(1+H4+K4)*D4+$O$5*(1+H5+K5)*D5+$O$6*(1+H6+K6)*D6,2)</f>
         <v>0.03</v>
       </c>
-      <c r="AN4" s="25">
+      <c r="AN4" s="23">
         <f>ROUND($B$10*(1+$O$2*(1+H2+K2)*E2+$O$3*(1+H3+K3)*E3+ROUND($O$4*(1+H4+K4),0)*E4+$O$5*(1+H5+K5)*E5+$O$6*(1+H6+K6)*E6),0)</f>
         <v>110</v>
       </c>
-      <c r="AP4" s="24" t="s">
+      <c r="AP4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AQ4" s="25">
+      <c r="AQ4" s="23">
         <f>ROUND($B$8*(1+$O$2*(1+I2+K2)*B2+ROUND($O$3*(1+I3+K3),0)*B3+$O$4*(1+I4+K4)*B4+$O$5*(1+I5+K5)*B5+$O$6*(1+I6+K6)*B6),0)</f>
         <v>82</v>
       </c>
-      <c r="AR4" s="24">
+      <c r="AR4" s="22">
         <f>ROUND($B$9*(1+$O$2*(1+I2+K2)*C2+$O$3*(1+I3+K3)*C3+$O$4*(1+I4+K4)*C4+$O$5*(1+I5+K5)*C5+$O$6*(1+I6+K6)*C6),0)</f>
         <v>21</v>
       </c>
-      <c r="AS4" s="24">
+      <c r="AS4" s="22">
         <f>ROUND($B$12*(1+AT4),0)</f>
         <v>5</v>
       </c>
-      <c r="AT4" s="24">
+      <c r="AT4" s="22">
         <f>ROUND($B$11+$O$2*(1+I2+K2)*D2+$O$3*(1+I3+K3)*D3+$O$4*(1+I4+K4)*D4+$O$5*(1+I5+K5)*D5+$O$6*(1+I6+K6)*D6,2)</f>
         <v>0.03</v>
       </c>
-      <c r="AU4" s="25">
+      <c r="AU4" s="23">
         <f>ROUND($B$10*(1+$O$2*(1+I2+K2)*E2+$O$3*(1+I3+K3)*E3+ROUND($O$4*(1+I4+K4),0)*E4+$O$5*(1+I5+K5)*E5+$O$6*(1+I6+K6)*E6),0)</f>
         <v>110</v>
       </c>
-      <c r="AW4" s="24" t="s">
+      <c r="AW4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AX4" s="25">
+      <c r="AX4" s="23">
         <f>ROUND($B$8*(1+$O$2*(1+J2+K2)*B2+ROUND($O$3*(1+J3+K3),0)*B3+$O$4*(1+J4+K4)*B4+$O$5*(1+J5+K5)*B5+$O$6*(1+J6+K6)*B6),0)</f>
         <v>84</v>
       </c>
-      <c r="AY4" s="24">
+      <c r="AY4" s="22">
         <f>ROUND($B$9*(1+$O$2*(1+J2+K2)*C2+$O$3*(1+J3+K3)*C3+$O$4*(1+J4+K4)*C4+$O$5*(1+J5+K5)*C5+$O$6*(1+J6+K6)*C6),0)</f>
         <v>21</v>
       </c>
-      <c r="AZ4" s="24">
+      <c r="AZ4" s="22">
         <f>ROUND($B$12*(1+BA4),0)</f>
         <v>5</v>
       </c>
-      <c r="BA4" s="25">
+      <c r="BA4" s="23">
         <f>ROUND($B$11+ROUND($O$2*(1+J2+K2),0)*D2+$O$3*(1+J3+K3)*D3+$O$4*(1+J4+K4)*D4+$O$5*(1+J5+K5)*D5+$O$6*(1+J6+K6)*D6,2)</f>
         <v>0.04</v>
       </c>
-      <c r="BB4" s="25">
+      <c r="BB4" s="23">
         <f>ROUND($B$10*(1+$O$2*(1+J2+K2)*E2+$O$3*(1+J3+K3)*E3+ROUND($O$4*(1+J4+K4),0)*E4+$O$5*(1+J5+K5)*E5+$O$6*(1+J6+K6)*E6),0)</f>
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="27">
         <v>0.01</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="28">
         <v>0.01</v>
       </c>
-      <c r="D5" s="30">
-        <v>0</v>
-      </c>
-      <c r="E5" s="31">
-        <v>0</v>
-      </c>
-      <c r="F5" s="30">
-        <v>0</v>
-      </c>
-      <c r="G5" s="30">
-        <v>0</v>
-      </c>
-      <c r="H5" s="30">
-        <v>0</v>
-      </c>
-      <c r="I5" s="30">
-        <v>0</v>
-      </c>
-      <c r="J5" s="30">
+      <c r="D5" s="28">
+        <v>0</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0</v>
+      </c>
+      <c r="F5" s="28">
+        <v>0</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0</v>
+      </c>
+      <c r="H5" s="28">
+        <v>0</v>
+      </c>
+      <c r="I5" s="28">
+        <v>0</v>
+      </c>
+      <c r="J5" s="28">
         <v>-0.05</v>
       </c>
-      <c r="K5" s="29">
-        <v>0</v>
-      </c>
-      <c r="L5" s="30">
-        <v>0</v>
-      </c>
-      <c r="M5" s="30">
-        <v>0</v>
-      </c>
-      <c r="N5" s="31">
-        <v>0</v>
-      </c>
-      <c r="O5" s="28">
+      <c r="K5" s="27">
+        <v>0</v>
+      </c>
+      <c r="L5" s="28">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28">
+        <v>0</v>
+      </c>
+      <c r="N5" s="29">
+        <v>0</v>
+      </c>
+      <c r="O5" s="26">
         <v>1</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="20">
         <v>5</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="20">
         <v>20</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="20">
         <v>50</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="24">
         <v>100</v>
       </c>
-      <c r="U5" s="24" t="s">
+      <c r="U5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="24">
+      <c r="V5" s="22">
         <f>ROUND($B$8*(1+$O$2*(1+F2+L2)*B2+$O$3*(1+F3+L3)*B3+$O$4*(1+F4+L4)*B4+$O$5*(1+F5+L5)*B5+$O$6*(1+F6+L6)*B6),0)</f>
         <v>82</v>
       </c>
-      <c r="W5" s="24">
+      <c r="W5" s="22">
         <f>ROUND($B$9*(1+$O$2*(1+F2+L2)*C2+$O$3*(1+F3+L3)*C3+$O$4*(1+F4+L4)*C4+$O$5*(1+F5+L5)*C5+$O$6*(1+F6+L6)*C6),0)</f>
         <v>21</v>
       </c>
-      <c r="X5" s="24">
+      <c r="X5" s="22">
         <f>ROUND($B$12*(1+Y5),0)</f>
         <v>5</v>
       </c>
-      <c r="Y5" s="24">
+      <c r="Y5" s="22">
         <f>ROUND($B$11+$O$2*(1+F2+L2)*D2+$O$3*(1+F3+L3)*D3+$O$4*(1+F4+L4)*D4+$O$5*(1+F5+L5)*D5+$O$6*(1+F6+L6)*D6,2)</f>
         <v>0.03</v>
       </c>
-      <c r="Z5" s="24">
+      <c r="Z5" s="22">
         <f>ROUND($B$10*(1+$O$2*(1+F2+L2)*E2+$O$3*(1+F3+L3)*E3+$O$4*(1+F4+L4)*E4+$O$5*(1+F5+L5)*E5+$O$6*(1+F6+L6)*E6),0)</f>
         <v>110</v>
       </c>
-      <c r="AB5" s="24" t="s">
+      <c r="AB5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AC5" s="25">
+      <c r="AC5" s="23">
         <f>ROUND($B$8*(1+$O$2*(1+G2+L2)*B2+ROUND($O$3*(1+G3+L3),0)*B3+$O$4*(1+G4+L4)*B4+$O$5*(1+G5+L5)*B5+$O$6*(1+G6+L6)*B6),0)</f>
         <v>82</v>
       </c>
-      <c r="AD5" s="24">
+      <c r="AD5" s="22">
         <f>ROUND($B$9*(1+$O$2*(1+G2+L2)*C2+$O$3*(1+G3+L3)*C3+$O$4*(1+G4+L4)*C4+$O$5*(1+G5+L5)*C5+$O$6*(1+G6+L6)*C6),0)</f>
         <v>21</v>
       </c>
-      <c r="AE5" s="24">
+      <c r="AE5" s="22">
         <f t="shared" ref="AE5:AE6" si="0">ROUND($B$12*(1+AF5),0)</f>
         <v>5</v>
       </c>
-      <c r="AF5" s="24">
+      <c r="AF5" s="22">
         <f>ROUND($B$11+$O$2*(1+G2+L2)*D2+$O$3*(1+G3+L3)*D3+$O$4*(1+G4+L4)*D4+$O$5*(1+G5+L5)*D5+$O$6*(1+G6+L6)*D6,2)</f>
         <v>0.03</v>
       </c>
-      <c r="AG5" s="25">
+      <c r="AG5" s="23">
         <f>ROUND($B$10*(1+$O$2*(1+G2+L2)*E2+$O$3*(1+G3+L3)*E3+ROUND($O$4*(1+G4+L4),0)*E4+$O$5*(1+G5+L5)*E5+$O$6*(1+G6+L6)*E6),0)</f>
         <v>110</v>
       </c>
-      <c r="AI5" s="24" t="s">
+      <c r="AI5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AJ5" s="25">
+      <c r="AJ5" s="23">
         <f>ROUND($B$8*(1+$O$2*(1+H2+L2)*B2+ROUND($O$3*(1+H3+L3),0)*B3+$O$4*(1+H4+L4)*B4+$O$5*(1+H5+L5)*B5+$O$6*(1+H6+L6)*B6),0)</f>
         <v>82</v>
       </c>
-      <c r="AK5" s="24">
+      <c r="AK5" s="22">
         <f>ROUND($B$9*(1+$O$2*(1+H2+L2)*C2+$O$3*(1+H3+L3)*C3+$O$4*(1+H4+L4)*C4+$O$5*(1+H5+L5)*C5+$O$6*(1+H6+L6)*C6),0)</f>
         <v>21</v>
       </c>
-      <c r="AL5" s="24">
+      <c r="AL5" s="22">
         <f t="shared" ref="AL5:AL7" si="1">ROUND($B$12*(1+AM5),0)</f>
         <v>5</v>
       </c>
-      <c r="AM5" s="24">
+      <c r="AM5" s="22">
         <f>ROUND($B$11+$O$2*(1+H2+L2)*D2+$O$3*(1+H3+L3)*D3+$O$4*(1+H4+L4)*D4+$O$5*(1+H5+L5)*D5+$O$6*(1+H6+L6)*D6,2)</f>
         <v>0.03</v>
       </c>
-      <c r="AN5" s="25">
+      <c r="AN5" s="23">
         <f>ROUND($B$10*(1+$O$2*(1+H2+L2)*E2+$O$3*(1+H3+L3)*E3+ROUND($O$4*(1+H4+L4),0)*E4+$O$5*(1+H5+L5)*E5+$O$6*(1+H6+L6)*E6),0)</f>
         <v>110</v>
       </c>
-      <c r="AP5" s="24" t="s">
+      <c r="AP5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AQ5" s="25">
+      <c r="AQ5" s="23">
         <f>ROUND($B$8*(1+$O$2*(1+I2+L2)*B2+ROUND($O$3*(1+I3+L3),0)*B3+$O$4*(1+I4+L4)*B4+$O$5*(1+I5+L5)*B5+$O$6*(1+I6+L6)*B6),0)</f>
         <v>82</v>
       </c>
-      <c r="AR5" s="24">
+      <c r="AR5" s="22">
         <f>ROUND($B$9*(1+$O$2*(1+I2+L2)*C2+$O$3*(1+I3+L3)*C3+$O$4*(1+I4+L4)*C4+$O$5*(1+I5+L5)*C5+$O$6*(1+I6+L6)*C6),0)</f>
         <v>21</v>
       </c>
-      <c r="AS5" s="24">
+      <c r="AS5" s="22">
         <f t="shared" ref="AS5:AS7" si="2">ROUND($B$12*(1+AT5),0)</f>
         <v>5</v>
       </c>
-      <c r="AT5" s="24">
+      <c r="AT5" s="22">
         <f>ROUND($B$11+$O$2*(1+I2+L2)*D2+$O$3*(1+I3+L3)*D3+$O$4*(1+I4+L4)*D4+$O$5*(1+I5+L5)*D5+$O$6*(1+I6+L6)*D6,2)</f>
         <v>0.03</v>
       </c>
-      <c r="AU5" s="25">
+      <c r="AU5" s="23">
         <f>ROUND($B$10*(1+$O$2*(1+I2+L2)*E2+$O$3*(1+I3+L3)*E3+ROUND($O$4*(1+I4+L4),0)*E4+$O$5*(1+I5+L5)*E5+$O$6*(1+I6+L6)*E6),0)</f>
         <v>110</v>
       </c>
-      <c r="AW5" s="24" t="s">
+      <c r="AW5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AX5" s="25">
+      <c r="AX5" s="23">
         <f>ROUND($B$8*(1+$O$2*(1+J2+L2)*B2+ROUND($O$3*(1+J3+L3),0)*B3+$O$4*(1+J4+L4)*B4+$O$5*(1+J5+L5)*B5+$O$6*(1+J6+L6)*B6),0)</f>
         <v>84</v>
       </c>
-      <c r="AY5" s="24">
+      <c r="AY5" s="22">
         <f>ROUND($B$9*(1+$O$2*(1+J2+L2)*C2+$O$3*(1+J3+L3)*C3+$O$4*(1+J4+L4)*C4+$O$5*(1+J5+L5)*C5+$O$6*(1+J6+L6)*C6),0)</f>
         <v>21</v>
       </c>
-      <c r="AZ5" s="24">
+      <c r="AZ5" s="22">
         <f t="shared" ref="AZ5:AZ7" si="3">ROUND($B$12*(1+BA5),0)</f>
         <v>5</v>
       </c>
-      <c r="BA5" s="25">
+      <c r="BA5" s="23">
         <f>ROUND($B$11+ROUND($O$2*(1+J2+L2),0)*D2+$O$3*(1+J3+L3)*D3+$O$4*(1+J4+L4)*D4+$O$5*(1+J5+L5)*D5+$O$6*(1+J6+L6)*D6,2)</f>
         <v>0.04</v>
       </c>
-      <c r="BB5" s="25">
+      <c r="BB5" s="23">
         <f>ROUND($B$10*(1+$O$2*(1+J2+L2)*E2+$O$3*(1+J3+L3)*E3+ROUND($O$4*(1+J4+L4),0)*E4+$O$5*(1+J5+L5)*E5+$O$6*(1+J6+L6)*E6),0)</f>
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="29">
-        <v>0</v>
-      </c>
-      <c r="C6" s="30">
-        <v>0</v>
-      </c>
-      <c r="D6" s="30">
-        <v>0</v>
-      </c>
-      <c r="E6" s="31">
-        <v>0</v>
-      </c>
-      <c r="F6" s="30">
-        <v>0</v>
-      </c>
-      <c r="G6" s="30">
+      <c r="B6" s="27">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0</v>
+      </c>
+      <c r="F6" s="28">
+        <v>0</v>
+      </c>
+      <c r="G6" s="28">
         <v>0.02</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="28">
         <v>0.01</v>
       </c>
-      <c r="I6" s="30">
-        <v>0</v>
-      </c>
-      <c r="J6" s="30">
-        <v>0</v>
-      </c>
-      <c r="K6" s="29">
-        <v>0</v>
-      </c>
-      <c r="L6" s="30">
-        <v>0</v>
-      </c>
-      <c r="M6" s="30">
+      <c r="I6" s="28">
+        <v>0</v>
+      </c>
+      <c r="J6" s="28">
+        <v>0</v>
+      </c>
+      <c r="K6" s="27">
+        <v>0</v>
+      </c>
+      <c r="L6" s="28">
+        <v>0</v>
+      </c>
+      <c r="M6" s="28">
         <v>0.02</v>
       </c>
-      <c r="N6" s="31">
-        <v>0</v>
-      </c>
-      <c r="O6" s="28">
+      <c r="N6" s="29">
+        <v>0</v>
+      </c>
+      <c r="O6" s="26">
         <v>1</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="20">
         <v>2</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="20">
         <v>7</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="20">
         <v>20</v>
       </c>
-      <c r="S6" s="26">
+      <c r="S6" s="24">
         <v>40</v>
       </c>
-      <c r="U6" s="24" t="s">
+      <c r="U6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="24">
+      <c r="V6" s="22">
         <f>ROUND($B$8*(1+$O$2*(1+F2+M2)*B2+$O$3*(1+F3+M3)*B3+$O$4*(1+F4+M4)*B4+$O$5*(1+F5+M5)*B5+$O$6*(1+F6+M6)*B6),0)</f>
         <v>82</v>
       </c>
-      <c r="W6" s="24">
+      <c r="W6" s="22">
         <f>ROUND($B$9*(1+$O$2*(1+F2+M2)*C2+$O$3*(1+F3+M3)*C3+$O$4*(1+F4+M4)*C4+$O$5*(1+F5+M5)*C5+$O$6*(1+F6+M6)*C6),0)</f>
         <v>21</v>
       </c>
-      <c r="X6" s="24">
+      <c r="X6" s="22">
         <f t="shared" ref="X6" si="4">ROUND($B$12*(1+Y6),0)</f>
         <v>5</v>
       </c>
-      <c r="Y6" s="24">
+      <c r="Y6" s="22">
         <f>ROUND($B$11+$O$2*(1+F2+M2)*D2+$O$3*(1+F3+M3)*D3+$O$4*(1+F4+M4)*D4+$O$5*(1+F5+M5)*D5+$O$6*(1+F6+M6)*D6,2)</f>
         <v>0.03</v>
       </c>
-      <c r="Z6" s="24">
+      <c r="Z6" s="22">
         <f>ROUND($B$10*(1+$O$2*(1+F2+M2)*E2+$O$3*(1+F3+M3)*E3+$O$4*(1+F4+M4)*E4+$O$5*(1+F5+M5)*E5+$O$6*(1+F6+M6)*E6),0)</f>
         <v>110</v>
       </c>
-      <c r="AB6" s="24" t="s">
+      <c r="AB6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AC6" s="25">
+      <c r="AC6" s="23">
         <f>ROUND($B$8*(1+$O$2*(1+G2+M2)*B2+ROUND($O$3*(1+G3+M3),0)*B3+$O$4*(1+G4+M4)*B4+$O$5*(1+G5+M5)*B5+$O$6*(1+G6+M6)*B6),0)</f>
         <v>82</v>
       </c>
-      <c r="AD6" s="24">
+      <c r="AD6" s="22">
         <f>ROUND($B$9*(1+$O$2*(1+G2+M2)*C2+$O$3*(1+G3+M3)*C3+$O$4*(1+G4+M4)*C4+$O$5*(1+G5+M5)*C5+$O$6*(1+G6+M6)*C6),0)</f>
         <v>21</v>
       </c>
-      <c r="AE6" s="24">
+      <c r="AE6" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AF6" s="24">
+      <c r="AF6" s="22">
         <f>ROUND($B$11+$O$2*(1+G2+M2)*D2+$O$3*(1+G3+M3)*D3+$O$4*(1+G4+M4)*D4+$O$5*(1+G5+M5)*D5+$O$6*(1+G6+M6)*D6,2)</f>
         <v>0.03</v>
       </c>
-      <c r="AG6" s="25">
+      <c r="AG6" s="23">
         <f>ROUND($B$10*(1+$O$2*(1+G2+M2)*E2+$O$3*(1+G3+M3)*E3+ROUND($O$4*(1+G4+M4),0)*E4+$O$5*(1+G5+M5)*E5+$O$6*(1+G6+M6)*E6),0)</f>
         <v>110</v>
       </c>
-      <c r="AI6" s="24" t="s">
+      <c r="AI6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AJ6" s="25">
+      <c r="AJ6" s="23">
         <f>ROUND($B$8*(1+$O$2*(1+H2+M2)*B2+ROUND($O$3*(1+H3+M3),0)*B3+$O$4*(1+H4+M4)*B4+$O$5*(1+H5+M5)*B5+$O$6*(1+H6+M6)*B6),0)</f>
         <v>82</v>
       </c>
-      <c r="AK6" s="24">
+      <c r="AK6" s="22">
         <f>ROUND($B$9*(1+$O$2*(1+H2+M2)*C2+$O$3*(1+H3+M3)*C3+$O$4*(1+H4+M4)*C4+$O$5*(1+H5+M5)*C5+$O$6*(1+H6+M6)*C6),0)</f>
         <v>21</v>
       </c>
-      <c r="AL6" s="24">
+      <c r="AL6" s="22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AM6" s="24">
+      <c r="AM6" s="22">
         <f>ROUND($B$11+$O$2*(1+H2+M2)*D2+$O$3*(1+H3+M3)*D3+$O$4*(1+H4+M4)*D4+$O$5*(1+H5+M5)*D5+$O$6*(1+H6+M6)*D6,2)</f>
         <v>0.03</v>
       </c>
-      <c r="AN6" s="25">
+      <c r="AN6" s="23">
         <f>ROUND($B$10*(1+$O$2*(1+H2+M2)*E2+$O$3*(1+H3+M3)*E3+ROUND($O$4*(1+H4+M4),0)*E4+$O$5*(1+H5+M5)*E5+$O$6*(1+H6+M6)*E6),0)</f>
         <v>110</v>
       </c>
-      <c r="AP6" s="24" t="s">
+      <c r="AP6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AQ6" s="25">
+      <c r="AQ6" s="23">
         <f>ROUND($B$8*(1+$O$2*(1+I2+M2)*B2+ROUND($O$3*(1+I3+M3),0)*B3+$O$4*(1+I4+M4)*B4+$O$5*(1+I5+M5)*B5+$O$6*(1+I6+M6)*B6),0)</f>
         <v>82</v>
       </c>
-      <c r="AR6" s="24">
+      <c r="AR6" s="22">
         <f>ROUND($B$9*(1+$O$2*(1+I2+M2)*C2+$O$3*(1+I3+M3)*C3+$O$4*(1+I4+M4)*C4+$O$5*(1+I5+M5)*C5+$O$6*(1+I6+M6)*C6),0)</f>
         <v>21</v>
       </c>
-      <c r="AS6" s="24">
+      <c r="AS6" s="22">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="AT6" s="24">
+      <c r="AT6" s="22">
         <f>ROUND($B$11+$O$2*(1+I2+M2)*D2+$O$3*(1+I3+M3)*D3+$O$4*(1+I4+M4)*D4+$O$5*(1+I5+M5)*D5+$O$6*(1+I6+M6)*D6,2)</f>
         <v>0.03</v>
       </c>
-      <c r="AU6" s="25">
+      <c r="AU6" s="23">
         <f>ROUND($B$10*(1+$O$2*(1+I2+M2)*E2+$O$3*(1+I3+M3)*E3+ROUND($O$4*(1+I4+M4),0)*E4+$O$5*(1+I5+M5)*E5+$O$6*(1+I6+M6)*E6),0)</f>
         <v>110</v>
       </c>
-      <c r="AW6" s="24" t="s">
+      <c r="AW6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AX6" s="25">
+      <c r="AX6" s="23">
         <f>ROUND($B$8*(1+$O$2*(1+J2+M2)*B2+ROUND($O$3*(1+J3+M3),0)*B3+$O$4*(1+J4+M4)*B4+$O$5*(1+J5+M5)*B5+$O$6*(1+J6+M6)*B6),0)</f>
         <v>84</v>
       </c>
-      <c r="AY6" s="24">
+      <c r="AY6" s="22">
         <f>ROUND($B$9*(1+$O$2*(1+J2+M2)*C2+$O$3*(1+J3+M3)*C3+$O$4*(1+J4+M4)*C4+$O$5*(1+J5+M5)*C5+$O$6*(1+J6+M6)*C6),0)</f>
         <v>21</v>
       </c>
-      <c r="AZ6" s="24">
+      <c r="AZ6" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="BA6" s="25">
+      <c r="BA6" s="23">
         <f>ROUND($B$11+ROUND($O$2*(1+J2+M2),0)*D2+$O$3*(1+J3+M3)*D3+$O$4*(1+J4+M4)*D4+$O$5*(1+J5+M5)*D5+$O$6*(1+J6+M6)*D6,2)</f>
         <v>0.04</v>
       </c>
-      <c r="BB6" s="25">
+      <c r="BB6" s="23">
         <f>ROUND($B$10*(1+$O$2*(1+J2+M2)*E2+$O$3*(1+J3+M3)*E3+ROUND($O$4*(1+J4+M4),0)*E4+$O$5*(1+J5+M5)*E5+$O$6*(1+J6+M6)*E6),0)</f>
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="U7" s="24" t="s">
+      <c r="U7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="V7" s="24">
+      <c r="V7" s="22">
         <f>ROUND($B$8*(1+$O$2*(1+F2+N2)*B2+$O$3*(1+F3+N3)*B3+$O$4*(1+F4+N4)*B4+$O$5*(1+F5+N5)*B5+$O$6*(1+F6+N6)*B6),0)</f>
         <v>82</v>
       </c>
-      <c r="W7" s="24">
+      <c r="W7" s="22">
         <f>ROUND($B$9*(1+$O$2*(1+F2+N2)*C2+$O$3*(1+F3+N3)*C3+$O$4*(1+F4+N4)*C4+$O$5*(1+F5+N5)*C5+$O$6*(1+F6+N6)*C6),0)</f>
         <v>21</v>
       </c>
-      <c r="X7" s="24">
+      <c r="X7" s="22">
         <f>ROUND($B$12*(1+Y7),0)</f>
         <v>5</v>
       </c>
-      <c r="Y7" s="24">
+      <c r="Y7" s="22">
         <f>ROUND($B$11+$O$2*(1+F2+N2)*D2+$O$3*(1+F3+N3)*D3+$O$4*(1+F4+N4)*D4+$O$5*(1+F5+N5)*D5+$O$6*(1+F6+N6)*D6,2)</f>
         <v>0.03</v>
       </c>
-      <c r="Z7" s="24">
+      <c r="Z7" s="22">
         <f>ROUND($B$10*(1+$O$2*(1+F2+N2)*E2+$O$3*(1+F3+N3)*E3+$O$4*(1+F4+N4)*E4+$O$5*(1+F5+N5)*E5+$O$6*(1+F6+N6)*E6),0)</f>
         <v>110</v>
       </c>
-      <c r="AB7" s="24" t="s">
+      <c r="AB7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AC7" s="25">
+      <c r="AC7" s="23">
         <f>ROUND($B$8*(1+$O$2*(1+G2+N2)*B2+ROUND($O$3*(1+G3+N3),0)*B3+$O$4*(1+G4+N4)*B4+$O$5*(1+G5+N5)*B5+$O$6*(1+G6+N6)*B6),0)</f>
         <v>82</v>
       </c>
-      <c r="AD7" s="24">
+      <c r="AD7" s="22">
         <f>ROUND($B$9*(1+$O$2*(1+G2+N2)*C2+$O$3*(1+G3+N3)*C3+$O$4*(1+G4+N4)*C4+$O$5*(1+G5+N5)*C5+$O$6*(1+G6+N6)*C6),0)</f>
         <v>21</v>
       </c>
-      <c r="AE7" s="24">
+      <c r="AE7" s="22">
         <f>ROUND($B$12*(1+AF7),0)</f>
         <v>5</v>
       </c>
-      <c r="AF7" s="24">
+      <c r="AF7" s="22">
         <f>ROUND($B$11+$O$2*(1+G2+N2)*D2+$O$3*(1+G3+N3)*D3+$O$4*(1+G4+N4)*D4+$O$5*(1+G5+N5)*D5+$O$6*(1+G6+N6)*D6,2)</f>
         <v>0.03</v>
       </c>
-      <c r="AG7" s="25">
+      <c r="AG7" s="23">
         <f>ROUND($B$10*(1+$O$2*(1+G2+N2)*E2+$O$3*(1+G3+N3)*E3+ROUND($O$4*(1+G4+N4),0)*E4+$O$5*(1+G5+N5)*E5+$O$6*(1+G6+N6)*E6),0)</f>
         <v>110</v>
       </c>
-      <c r="AI7" s="24" t="s">
+      <c r="AI7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AJ7" s="25">
+      <c r="AJ7" s="23">
         <f>ROUND($B$8*(1+$O$2*(1+H2+N2)*B2+ROUND($O$3*(1+H3+N3),0)*B3+$O$4*(1+H4+N4)*B4+$O$5*(1+H5+N5)*B5+$O$6*(1+H6+N6)*B6),0)</f>
         <v>82</v>
       </c>
-      <c r="AK7" s="24">
+      <c r="AK7" s="22">
         <f>ROUND($B$9*(1+$O$2*(1+H2+N2)*C2+$O$3*(1+H3+N3)*C3+$O$4*(1+H4+N4)*C4+$O$5*(1+H5+N5)*C5+$O$6*(1+H6+N6)*C6),0)</f>
         <v>21</v>
       </c>
-      <c r="AL7" s="24">
+      <c r="AL7" s="22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AM7" s="24">
+      <c r="AM7" s="22">
         <f>ROUND($B$11+$O$2*(1+H2+N2)*D2+$O$3*(1+H3+N3)*D3+$O$4*(1+H4+N4)*D4+$O$5*(1+H5+N5)*D5+$O$6*(1+H6+N6)*D6,2)</f>
         <v>0.03</v>
       </c>
-      <c r="AN7" s="25">
+      <c r="AN7" s="23">
         <f>ROUND($B$10*(1+$O$2*(1+H2+N2)*E2+$O$3*(1+H3+N3)*E3+ROUND($O$4*(1+H4+N4),0)*E4+$O$5*(1+H5+N5)*E5+$O$6*(1+H6+N6)*E6),0)</f>
         <v>110</v>
       </c>
-      <c r="AP7" s="24" t="s">
+      <c r="AP7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AQ7" s="25">
+      <c r="AQ7" s="23">
         <f>ROUND($B$8*(1+$O$2*(1+I2+N2)*B2+ROUND($O$3*(1+I3+N3),0)*B3+$O$4*(1+I4+N4)*B4+$O$5*(1+I5+N5)*B5+$O$6*(1+I6+N6)*B6),0)</f>
         <v>82</v>
       </c>
-      <c r="AR7" s="24">
+      <c r="AR7" s="22">
         <f>ROUND($B$9*(1+$O$2*(1+I2+N2)*C2+$O$3*(1+I3+N3)*C3+$O$4*(1+I4+N4)*C4+$O$5*(1+I5+N5)*C5+$O$6*(1+I6+N6)*C6),0)</f>
         <v>21</v>
       </c>
-      <c r="AS7" s="24">
+      <c r="AS7" s="22">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="AT7" s="24">
+      <c r="AT7" s="22">
         <f>ROUND($B$11+$O$2*(1+I2+N2)*D2+$O$3*(1+I3+N3)*D3+$O$4*(1+I4+N4)*D4+$O$5*(1+I5+N5)*D5+$O$6*(1+I6+N6)*D6,2)</f>
         <v>0.03</v>
       </c>
-      <c r="AU7" s="25">
+      <c r="AU7" s="23">
         <f>ROUND($B$10*(1+$O$2*(1+I2+N2)*E2+$O$3*(1+I3+N3)*E3+ROUND($O$4*(1+I4+N4),0)*E4+$O$5*(1+I5+N5)*E5+$O$6*(1+I6+N6)*E6),0)</f>
         <v>110</v>
       </c>
-      <c r="AW7" s="24" t="s">
+      <c r="AW7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AX7" s="25">
+      <c r="AX7" s="23">
         <f>ROUND($B$8*(1+$O$2*(1+J2+N2)*B2+ROUND($O$3*(1+J3+N3),0)*B3+$O$4*(1+J4+N4)*B4+$O$5*(1+J5+N5)*B5+$O$6*(1+J6+N6)*B6),0)</f>
         <v>84</v>
       </c>
-      <c r="AY7" s="24">
+      <c r="AY7" s="22">
         <f>ROUND($B$9*(1+$O$2*(1+J2+N2)*C2+$O$3*(1+J3+N3)*C3+$O$4*(1+J4+N4)*C4+$O$5*(1+J5+N5)*C5+$O$6*(1+J6+N6)*C6),0)</f>
         <v>21</v>
       </c>
-      <c r="AZ7" s="24">
+      <c r="AZ7" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="BA7" s="25">
+      <c r="BA7" s="23">
         <f>ROUND($B$11+ROUND($O$2*(1+J2+N2),0)*D2+$O$3*(1+J3+N3)*D3+$O$4*(1+J4+N4)*D4+$O$5*(1+J5+N5)*D5+$O$6*(1+J6+N6)*D6,2)</f>
         <v>0.04</v>
       </c>
-      <c r="BB7" s="25">
+      <c r="BB7" s="23">
         <f>ROUND($B$10*(1+$O$2*(1+J2+N2)*E2+$O$3*(1+J3+N3)*E3+ROUND($O$4*(1+J4+N4),0)*E4+$O$5*(1+J5+N5)*E5+$O$6*(1+J6+N6)*E6),0)</f>
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="25">
         <v>80</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="25">
         <v>20</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="U9" s="24" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="U9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="V9" s="24" t="s">
+      <c r="V9" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="W9" s="24" t="s">
+      <c r="W9" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="X9" s="24" t="s">
+      <c r="X9" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="Y9" s="24" t="s">
+      <c r="Y9" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="Z9" s="24" t="s">
+      <c r="Z9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AB9" s="24" t="s">
+      <c r="AB9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AC9" s="24" t="s">
+      <c r="AC9" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AD9" s="24" t="s">
+      <c r="AD9" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AE9" s="24" t="s">
+      <c r="AE9" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AF9" s="24" t="s">
+      <c r="AF9" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AG9" s="24" t="s">
+      <c r="AG9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AI9" s="24" t="s">
+      <c r="AI9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AJ9" s="24" t="s">
+      <c r="AJ9" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AK9" s="24" t="s">
+      <c r="AK9" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AL9" s="24" t="s">
+      <c r="AL9" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AM9" s="24" t="s">
+      <c r="AM9" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AN9" s="24" t="s">
+      <c r="AN9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AP9" s="24" t="s">
+      <c r="AP9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AQ9" s="24" t="s">
+      <c r="AQ9" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AR9" s="24" t="s">
+      <c r="AR9" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AS9" s="24" t="s">
+      <c r="AS9" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AT9" s="24" t="s">
+      <c r="AT9" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AU9" s="24" t="s">
+      <c r="AU9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AW9" s="24" t="s">
+      <c r="AW9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AX9" s="24" t="s">
+      <c r="AX9" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AY9" s="24" t="s">
+      <c r="AY9" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AZ9" s="24" t="s">
+      <c r="AZ9" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="BA9" s="24" t="s">
+      <c r="BA9" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="BB9" s="24" t="s">
+      <c r="BB9" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="25">
         <v>100</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="U10" s="24" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="U10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="24">
+      <c r="V10" s="22">
         <f>ROUND($B$8*(1+$P$2*(1+F2+K2)*B2+$P$3*(1+F3+K3)*B3+$P$4*(1+F4+K4)*B4+$P$5*(1+F5+K5)*B5+$P$6*(1+F6+K6)*B6),0)</f>
         <v>92</v>
       </c>
-      <c r="W10" s="24">
+      <c r="W10" s="22">
         <f>ROUND($B$9*(1+$P$2*(1+F2+K2)*C2+$P$3*(1+F3+K3)*C3+$P$4*(1+F4+K4)*C4+$P$5*(1+F5+K5)*C5+$P$6*(1+F6+K6)*C6),0)</f>
         <v>23</v>
       </c>
-      <c r="X10" s="24">
+      <c r="X10" s="22">
         <f>ROUND($B$12*(1+Y10),0)</f>
         <v>6</v>
       </c>
-      <c r="Y10" s="24">
+      <c r="Y10" s="22">
         <f>ROUND($B$11+$P$2*(1+F2+K2)*D2+$P$3*(1+F3+K3)*D3+$P$4*(1+F4+K4)*D4+$P$5*(1+F5+K5)*D5+$P$6*(1+F6+K6)*D6,2)</f>
         <v>0.15</v>
       </c>
-      <c r="Z10" s="25">
+      <c r="Z10" s="23">
         <f>ROUND($B$10*(1+$P$2*(1+F2+K2)*E2+$P$3*(1+F3+K3)*E3+ROUND($P$4*(1+F4+K4),0)*E4+$P$5*(1+F5+K5)*E5+$P$6*(1+F6+K6)*E6),0)</f>
         <v>150</v>
       </c>
-      <c r="AB10" s="24" t="s">
+      <c r="AB10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AC10" s="24">
+      <c r="AC10" s="22">
         <f>ROUND($B$8*(1+$P$2*(1+G2+K2)*B2+$P$3*(1+G3+K3)*B3+$P$4*(1+G4+K4)*B4+$P$5*(1+G5+K5)*B5+$P$6*(1+G6+K6)*B6),0)</f>
         <v>94</v>
       </c>
-      <c r="AD10" s="24">
+      <c r="AD10" s="22">
         <f>ROUND($B$9*(1+$P$2*(1+G2+K2)*C2+$P$3*(1+G3+K3)*C3+$P$4*(1+G4+K4)*C4+$P$5*(1+G5+K5)*C5+$P$6*(1+G6+K6)*C6),0)</f>
         <v>23</v>
       </c>
-      <c r="AE10" s="24">
+      <c r="AE10" s="22">
         <f>ROUND($B$12*(1+AF10),0)</f>
         <v>6</v>
       </c>
-      <c r="AF10" s="25">
+      <c r="AF10" s="23">
         <f>ROUND($B$11+ROUND($P$2*(1+G2+K2),0)*D2+$P$3*(1+G3+K3)*D3+$P$4*(1+G4+K4)*D4+$P$5*(1+G5+K5)*D5+$P$6*(1+G6+K6)*D6,2)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="AG10" s="25">
+      <c r="AG10" s="23">
         <f>ROUND($B$10*(1+$P$2*(1+G2+K2)*E2+$P$3*(1+G3+K3)*E3+ROUND($P$4*(1+G4+K4),0)*E4+$P$5*(1+G5+K5)*E5+$P$6*(1+G6+K6)*E6),0)</f>
         <v>150</v>
       </c>
-      <c r="AI10" s="24" t="s">
+      <c r="AI10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AJ10" s="25">
+      <c r="AJ10" s="23">
         <f>ROUND($B$8*(1+$P$2*(1+H2+K2)*B2+ROUND($P$3*(1+H3+K3),0)*B3+$P$4*(1+H4+K4)*B4+$P$5*(1+H5+K5)*B5+$P$6*(1+H6+K6)*B6),0)</f>
         <v>94</v>
       </c>
-      <c r="AK10" s="24">
+      <c r="AK10" s="22">
         <f>ROUND($B$9*(1+$P$2*(1+H2+K2)*C2+$P$3*(1+H3+K3)*C3+$P$4*(1+H4+K4)*C4+$P$5*(1+H5+K5)*C5+$P$6*(1+H6+K6)*C6),0)</f>
         <v>23</v>
       </c>
-      <c r="AL10" s="24">
+      <c r="AL10" s="22">
         <f t="shared" ref="AL10:AL13" si="5">ROUND($B$12*(1+AM10),0)</f>
         <v>6</v>
       </c>
-      <c r="AM10" s="25">
+      <c r="AM10" s="23">
         <f>ROUND($B$11+ROUND($P$2*(1+H2+K2),0)*D2+$P$3*(1+H3+K3)*D3+$P$4*(1+H4+K4)*D4+$P$5*(1+H5+K5)*D5+$P$6*(1+H6+K6)*D6,2)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="AN10" s="25">
+      <c r="AN10" s="23">
         <f>ROUND($B$10*(1+$P$2*(1+H2+K2)*E2+$P$3*(1+H3+K3)*E3+ROUND($P$4*(1+H4+K4),0)*E4+$P$5*(1+H5+K5)*E5+$P$6*(1+H6+K6)*E6),0)</f>
         <v>150</v>
       </c>
-      <c r="AP10" s="24" t="s">
+      <c r="AP10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AQ10" s="25">
+      <c r="AQ10" s="23">
         <f>ROUND($B$8*(1+$P$2*(1+I2+K2)*B2+ROUND($P$3*(1+I3+K3),0)*B3+$P$4*(1+I4+K4)*B4+$P$5*(1+I5+K5)*B5+$P$6*(1+I6+K6)*B6),0)</f>
         <v>94</v>
       </c>
-      <c r="AR10" s="24">
+      <c r="AR10" s="22">
         <f>ROUND($B$9*(1+$P$2*(1+I2+K2)*C2+$P$3*(1+I3+K3)*C3+$P$4*(1+I4+K4)*C4+$P$5*(1+I5+K5)*C5+$P$6*(1+I6+K6)*C6),0)</f>
         <v>23</v>
       </c>
-      <c r="AS10" s="24">
+      <c r="AS10" s="22">
         <f t="shared" ref="AS10:AS13" si="6">ROUND($B$12*(1+AT10),0)</f>
         <v>6</v>
       </c>
-      <c r="AT10" s="25">
+      <c r="AT10" s="23">
         <f>ROUND($B$11+ROUND($P$2*(1+I2+K2),0)*D2+$P$3*(1+I3+K3)*D3+$P$4*(1+I4+K4)*D4+$P$5*(1+I5+K5)*D5+$P$6*(1+I6+K6)*D6,2)</f>
         <v>0.16</v>
       </c>
-      <c r="AU10" s="25">
+      <c r="AU10" s="23">
         <f>ROUND($B$10*(1+$P$2*(1+I2+K2)*E2+$P$3*(1+I3+K3)*E3+ROUND($P$4*(1+I4+K4),0)*E4+$P$5*(1+I5+K5)*E5+$P$6*(1+I6+K6)*E6),0)</f>
         <v>150</v>
       </c>
-      <c r="AW10" s="24" t="s">
+      <c r="AW10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AX10" s="25">
+      <c r="AX10" s="23">
         <f>ROUND($B$8*(1+$P$2*(1+J2+K2)*B2+ROUND($P$3*(1+J3+K3),0)*B3+$P$4*(1+J4+K4)*B4+$P$5*(1+J5+K5)*B5+$P$6*(1+J6+K6)*B6),0)</f>
         <v>97</v>
       </c>
-      <c r="AY10" s="24">
+      <c r="AY10" s="22">
         <f>ROUND($B$9*(1+$P$2*(1+J2+K2)*C2+$P$3*(1+J3+K3)*C3+$P$4*(1+J4+K4)*C4+$P$5*(1+J5+K5)*C5+$P$6*(1+J6+K6)*C6),0)</f>
         <v>23</v>
       </c>
-      <c r="AZ10" s="24">
+      <c r="AZ10" s="22">
         <f t="shared" ref="AZ10:AZ13" si="7">ROUND($B$12*(1+BA10),0)</f>
         <v>6</v>
       </c>
-      <c r="BA10" s="25">
+      <c r="BA10" s="23">
         <f>ROUND($B$11+ROUND($P$2*(1+J2+K2),0)*D2+$P$3*(1+J3+K3)*D3+$P$4*(1+J4+K4)*D4+$P$5*(1+J5+K5)*D5+$P$6*(1+J6+K6)*D6,2)</f>
         <v>0.16</v>
       </c>
-      <c r="BB10" s="25">
+      <c r="BB10" s="23">
         <f>ROUND($B$10*(1+$P$2*(1+J2+K2)*E2+$P$3*(1+J3+K3)*E3+ROUND($P$4*(1+J4+K4),0)*E4+$P$5*(1+J5+K5)*E5+$P$6*(1+J6+K6)*E6),0)</f>
         <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="27">
-        <v>0</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="U11" s="24" t="s">
+      <c r="B11" s="25">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="U11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="24">
+      <c r="V11" s="22">
         <f>ROUND($B$8*(1+$P$2*(1+F2+L2)*B2+$P$3*(1+F3+L3)*B3+$P$4*(1+F4+L4)*B4+$P$5*(1+F5+L5)*B5+$P$6*(1+F6+L6)*B6),0)</f>
         <v>92</v>
       </c>
-      <c r="W11" s="24">
+      <c r="W11" s="22">
         <f>ROUND($B$9*(1+$P$2*(1+F2+L2)*C2+$P$3*(1+F3+L3)*C3+$P$4*(1+F4+L4)*C4+$P$5*(1+F5+L5)*C5+$P$6*(1+F6+L6)*C6),0)</f>
         <v>23</v>
       </c>
-      <c r="X11" s="24">
-        <f t="shared" ref="X10:X13" si="8">ROUND($B$12*(1+Y11),0)</f>
+      <c r="X11" s="22">
+        <f t="shared" ref="X11:X13" si="8">ROUND($B$12*(1+Y11),0)</f>
         <v>6</v>
       </c>
-      <c r="Y11" s="24">
+      <c r="Y11" s="22">
         <f>ROUND($B$11+$P$2*(1+F2+L2)*D2+$P$3*(1+F3+L3)*D3+$P$4*(1+F4+L4)*D4+$P$5*(1+F5+L5)*D5+$P$6*(1+F6+L6)*D6,2)</f>
         <v>0.15</v>
       </c>
-      <c r="Z11" s="24">
+      <c r="Z11" s="22">
         <f>ROUND($B$10*(1+$P$2*(1+F2+L2)*E2+$P$3*(1+F3+L3)*E3+$P$4*(1+F4+L4)*E4+$P$5*(1+F5+L5)*E5+$P$6*(1+F6+L6)*E6),0)</f>
         <v>150</v>
       </c>
-      <c r="AB11" s="24" t="s">
+      <c r="AB11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AC11" s="24">
+      <c r="AC11" s="22">
         <f>ROUND($B$8*(1+$P$2*(1+G2+L2)*B2+$P$3*(1+G3+L3)*B3+$P$4*(1+G4+L4)*B4+$P$5*(1+G5+L5)*B5+$P$6*(1+G6+L6)*B6),0)</f>
         <v>94</v>
       </c>
-      <c r="AD11" s="24">
+      <c r="AD11" s="22">
         <f>ROUND($B$9*(1+$P$2*(1+G2+L2)*C2+$P$3*(1+G3+L3)*C3+$P$4*(1+G4+L4)*C4+$P$5*(1+G5+L5)*C5+$P$6*(1+G6+L6)*C6),0)</f>
         <v>23</v>
       </c>
-      <c r="AE11" s="24">
+      <c r="AE11" s="22">
         <f t="shared" ref="AE11:AE13" si="9">ROUND($B$12*(1+AF11),0)</f>
         <v>6</v>
       </c>
-      <c r="AF11" s="25">
+      <c r="AF11" s="23">
         <f>ROUND($B$11+ROUND($P$2*(1+G2+L2),0)*D2+$P$3*(1+G3+L3)*D3+$P$4*(1+G4+L4)*D4+$P$5*(1+G5+L5)*D5+$P$6*(1+G6+L6)*D6,2)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="AG11" s="25">
+      <c r="AG11" s="23">
         <f>ROUND($B$10*(1+$P$2*(1+G2+L2)*E2+$P$3*(1+G3+L3)*E3+ROUND($P$4*(1+G4+L4),0)*E4+$P$5*(1+G5+L5)*E5+$P$6*(1+G6+L6)*E6),0)</f>
         <v>150</v>
       </c>
-      <c r="AI11" s="24" t="s">
+      <c r="AI11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AJ11" s="25">
+      <c r="AJ11" s="23">
         <f>ROUND($B$8*(1+$P$2*(1+H2+L2)*B2+ROUND($P$3*(1+H3+L3),0)*B3+$P$4*(1+H4+L4)*B4+$P$5*(1+H5+L5)*B5+$P$6*(1+H6+L6)*B6),0)</f>
         <v>94</v>
       </c>
-      <c r="AK11" s="24">
+      <c r="AK11" s="22">
         <f>ROUND($B$9*(1+$P$2*(1+H2+L2)*C2+$P$3*(1+H3+L3)*C3+$P$4*(1+H4+L4)*C4+$P$5*(1+H5+L5)*C5+$P$6*(1+H6+L6)*C6),0)</f>
         <v>23</v>
       </c>
-      <c r="AL11" s="24">
+      <c r="AL11" s="22">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AM11" s="25">
+      <c r="AM11" s="23">
         <f>ROUND($B$11+ROUND($P$2*(1+H2+L2),0)*D2+$P$3*(1+H3+L3)*D3+$P$4*(1+H4+L4)*D4+$P$5*(1+H5+L5)*D5+$P$6*(1+H6+L6)*D6,2)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="AN11" s="25">
+      <c r="AN11" s="23">
         <f>ROUND($B$10*(1+$P$2*(1+H2+L2)*E2+$P$3*(1+H3+L3)*E3+ROUND($P$4*(1+H4+L4),0)*E4+$P$5*(1+H5+L5)*E5+$P$6*(1+H6+L6)*E6),0)</f>
         <v>150</v>
       </c>
-      <c r="AP11" s="24" t="s">
+      <c r="AP11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AQ11" s="25">
+      <c r="AQ11" s="23">
         <f>ROUND($B$8*(1+$P$2*(1+I2+L2)*B2+ROUND($P$3*(1+I3+L3),0)*B3+$P$4*(1+I4+L4)*B4+$P$5*(1+I5+L5)*B5+$P$6*(1+I6+L6)*B6),0)</f>
         <v>94</v>
       </c>
-      <c r="AR11" s="24">
+      <c r="AR11" s="22">
         <f>ROUND($B$9*(1+$P$2*(1+I2+L2)*C2+$P$3*(1+I3+L3)*C3+$P$4*(1+I4+L4)*C4+$P$5*(1+I5+L5)*C5+$P$6*(1+I6+L6)*C6),0)</f>
         <v>23</v>
       </c>
-      <c r="AS11" s="24">
+      <c r="AS11" s="22">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="AT11" s="25">
+      <c r="AT11" s="23">
         <f>ROUND($B$11+ROUND($P$2*(1+I2+L2),0)*D2+$P$3*(1+I3+L3)*D3+$P$4*(1+I4+L4)*D4+$P$5*(1+I5+L5)*D5+$P$6*(1+I6+L6)*D6,2)</f>
         <v>0.16</v>
       </c>
-      <c r="AU11" s="25">
+      <c r="AU11" s="23">
         <f>ROUND($B$10*(1+$P$2*(1+I2+L2)*E2+$P$3*(1+I3+L3)*E3+ROUND($P$4*(1+I4+L4),0)*E4+$P$5*(1+I5+L5)*E5+$P$6*(1+I6+L6)*E6),0)</f>
         <v>150</v>
       </c>
-      <c r="AW11" s="24" t="s">
+      <c r="AW11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AX11" s="25">
+      <c r="AX11" s="23">
         <f>ROUND($B$8*(1+$P$2*(1+J2+L2)*B2+ROUND($P$3*(1+J3+L3),0)*B3+$P$4*(1+J4+L4)*B4+$P$5*(1+J5+L5)*B5+$P$6*(1+J6+L6)*B6),0)</f>
         <v>97</v>
       </c>
-      <c r="AY11" s="24">
+      <c r="AY11" s="22">
         <f>ROUND($B$9*(1+$P$2*(1+J2+L2)*C2+$P$3*(1+J3+L3)*C3+$P$4*(1+J4+L4)*C4+$P$5*(1+J5+L5)*C5+$P$6*(1+J6+L6)*C6),0)</f>
         <v>23</v>
       </c>
-      <c r="AZ11" s="24">
+      <c r="AZ11" s="22">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="BA11" s="25">
+      <c r="BA11" s="23">
         <f>ROUND($B$11+ROUND($P$2*(1+J2+L2),0)*D2+$P$3*(1+J3+L3)*D3+$P$4*(1+J4+L4)*D4+$P$5*(1+J5+L5)*D5+$P$6*(1+J6+L6)*D6,2)</f>
         <v>0.16</v>
       </c>
-      <c r="BB11" s="25">
+      <c r="BB11" s="23">
         <f>ROUND($B$10*(1+$P$2*(1+J2+L2)*E2+$P$3*(1+J3+L3)*E3+ROUND($P$4*(1+J4+L4),0)*E4+$P$5*(1+J5+L5)*E5+$P$6*(1+J6+L6)*E6),0)</f>
         <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="25">
         <v>5</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="U12" s="24" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="U12" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="24">
+      <c r="V12" s="22">
         <f>ROUND($B$8*(1+$P$2*(1+F2+M2)*B2+$P$3*(1+F3+M3)*B3+$P$4*(1+F4+M4)*B4+$P$5*(1+F5+M5)*B5+$P$6*(1+F6+M6)*B6),0)</f>
         <v>92</v>
       </c>
-      <c r="W12" s="24">
+      <c r="W12" s="22">
         <f>ROUND($B$9*(1+$P$2*(1+F2+M2)*C2+$P$3*(1+F3+M3)*C3+$P$4*(1+F4+M4)*C4+$P$5*(1+F5+M5)*C5+$P$6*(1+F6+M6)*C6),0)</f>
         <v>23</v>
       </c>
-      <c r="X12" s="24">
+      <c r="X12" s="22">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="Y12" s="24">
+      <c r="Y12" s="22">
         <f>ROUND($B$11+$P$2*(1+F2+M2)*D2+$P$3*(1+F3+M3)*D3+$P$4*(1+F4+M4)*D4+$P$5*(1+F5+M5)*D5+$P$6*(1+F6+M6)*D6,2)</f>
         <v>0.15</v>
       </c>
-      <c r="Z12" s="24">
+      <c r="Z12" s="22">
         <f>ROUND($B$10*(1+$P$2*(1+F2+M2)*E2+$P$3*(1+F3+M3)*E3+$P$4*(1+F4+M4)*E4+$P$5*(1+F5+M5)*E5+$P$6*(1+F6+M6)*E6),0)</f>
         <v>150</v>
       </c>
-      <c r="AB12" s="24" t="s">
+      <c r="AB12" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AC12" s="24">
+      <c r="AC12" s="22">
         <f>ROUND($B$8*(1+$P$2*(1+G2+M2)*B2+$P$3*(1+G3+M3)*B3+$P$4*(1+G4+M4)*B4+$P$5*(1+G5+M5)*B5+$P$6*(1+G6+M6)*B6),0)</f>
         <v>94</v>
       </c>
-      <c r="AD12" s="24">
+      <c r="AD12" s="22">
         <f>ROUND($B$9*(1+$P$2*(1+G2+M2)*C2+$P$3*(1+G3+M3)*C3+$P$4*(1+G4+M4)*C4+$P$5*(1+G5+M5)*C5+$P$6*(1+G6+M6)*C6),0)</f>
         <v>23</v>
       </c>
-      <c r="AE12" s="24">
+      <c r="AE12" s="22">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="AF12" s="25">
+      <c r="AF12" s="23">
         <f>ROUND($B$11+ROUND($P$2*(1+G2+M2),0)*D2+$P$3*(1+G3+M3)*D3+$P$4*(1+G4+M4)*D4+$P$5*(1+G5+M5)*D5+$P$6*(1+G6+M6)*D6,2)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="AG12" s="25">
+      <c r="AG12" s="23">
         <f>ROUND($B$10*(1+$P$2*(1+G2+M2)*E2+$P$3*(1+G3+M3)*E3+ROUND($P$4*(1+G4+M4),0)*E4+$P$5*(1+G5+M5)*E5+$P$6*(1+G6+M6)*E6),0)</f>
         <v>150</v>
       </c>
-      <c r="AI12" s="24" t="s">
+      <c r="AI12" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AJ12" s="25">
+      <c r="AJ12" s="23">
         <f>ROUND($B$8*(1+$P$2*(1+H2+M2)*B2+ROUND($P$3*(1+H3+M3),0)*B3+$P$4*(1+H4+M4)*B4+$P$5*(1+H5+M5)*B5+$P$6*(1+H6+M6)*B6),0)</f>
         <v>94</v>
       </c>
-      <c r="AK12" s="24">
+      <c r="AK12" s="22">
         <f>ROUND($B$9*(1+$P$2*(1+H2+M2)*C2+$P$3*(1+H3+M3)*C3+$P$4*(1+H4+M4)*C4+$P$5*(1+H5+M5)*C5+$P$6*(1+H6+M6)*C6),0)</f>
         <v>23</v>
       </c>
-      <c r="AL12" s="24">
+      <c r="AL12" s="22">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AM12" s="25">
+      <c r="AM12" s="23">
         <f>ROUND($B$11+ROUND($P$2*(1+H2+M2),0)*D2+$P$3*(1+H3+M3)*D3+$P$4*(1+H4+M4)*D4+$P$5*(1+H5+M5)*D5+$P$6*(1+H6+M6)*D6,2)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="AN12" s="25">
+      <c r="AN12" s="23">
         <f>ROUND($B$10*(1+$P$2*(1+H2+M2)*E2+$P$3*(1+H3+M3)*E3+ROUND($P$4*(1+H4+M4),0)*E4+$P$5*(1+H5+M5)*E5+$P$6*(1+H6+M6)*E6),0)</f>
         <v>150</v>
       </c>
-      <c r="AP12" s="24" t="s">
+      <c r="AP12" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AQ12" s="25">
+      <c r="AQ12" s="23">
         <f>ROUND($B$8*(1+$P$2*(1+I2+M2)*B2+ROUND($P$3*(1+I3+M3),0)*B3+$P$4*(1+I4+M4)*B4+$P$5*(1+I5+M5)*B5+$P$6*(1+I6+M6)*B6),0)</f>
         <v>94</v>
       </c>
-      <c r="AR12" s="24">
+      <c r="AR12" s="22">
         <f>ROUND($B$9*(1+$P$2*(1+I2+M2)*C2+$P$3*(1+I3+M3)*C3+$P$4*(1+I4+M4)*C4+$P$5*(1+I5+M5)*C5+$P$6*(1+I6+M6)*C6),0)</f>
         <v>23</v>
       </c>
-      <c r="AS12" s="24">
+      <c r="AS12" s="22">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="AT12" s="25">
+      <c r="AT12" s="23">
         <f>ROUND($B$11+ROUND($P$2*(1+I2+M2),0)*D2+$P$3*(1+I3+M3)*D3+$P$4*(1+I4+M4)*D4+$P$5*(1+I5+M5)*D5+$P$6*(1+I6+M6)*D6,2)</f>
         <v>0.16</v>
       </c>
-      <c r="AU12" s="25">
+      <c r="AU12" s="23">
         <f>ROUND($B$10*(1+$P$2*(1+I2+M2)*E2+$P$3*(1+I3+M3)*E3+ROUND($P$4*(1+I4+M4),0)*E4+$P$5*(1+I5+M5)*E5+$P$6*(1+I6+M6)*E6),0)</f>
         <v>150</v>
       </c>
-      <c r="AW12" s="24" t="s">
+      <c r="AW12" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AX12" s="25">
+      <c r="AX12" s="23">
         <f>ROUND($B$8*(1+$P$2*(1+J2+L2)*B2+ROUND($P$3*(1+J3+L3),0)*B3+$P$4*(1+J4+L4)*B4+$P$5*(1+J5+L5)*B5+$P$6*(1+J6+L6)*B6),0)</f>
         <v>97</v>
       </c>
-      <c r="AY12" s="24">
+      <c r="AY12" s="22">
         <f>ROUND($B$9*(1+$P$2*(1+J2+M2)*C2+$P$3*(1+J3+M3)*C3+$P$4*(1+J4+M4)*C4+$P$5*(1+J5+M5)*C5+$P$6*(1+J6+M6)*C6),0)</f>
         <v>23</v>
       </c>
-      <c r="AZ12" s="24">
+      <c r="AZ12" s="22">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="BA12" s="25">
+      <c r="BA12" s="23">
         <f>ROUND($B$11+ROUND($P$2*(1+J2+M2),0)*D2+$P$3*(1+J3+M3)*D3+$P$4*(1+J4+M4)*D4+$P$5*(1+J5+M5)*D5+$P$6*(1+J6+M6)*D6,2)</f>
         <v>0.16</v>
       </c>
-      <c r="BB12" s="25">
+      <c r="BB12" s="23">
         <f>ROUND($B$10*(1+$P$2*(1+J2+M2)*E2+$P$3*(1+J3+M3)*E3+ROUND($P$4*(1+J4+M4),0)*E4+$P$5*(1+J5+M5)*E5+$P$6*(1+J6+M6)*E6),0)</f>
         <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="U13" s="24" t="s">
+      <c r="U13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="24">
+      <c r="V13" s="22">
         <f>ROUND($B$8*(1+$P$2*(1+F2+N2)*B2+$P$3*(1+F3+N3)*B3+$P$4*(1+F4+N4)*B4+$P$5*(1+F5+N5)*B5+$P$6*(1+F6+N6)*B6),0)</f>
         <v>92</v>
       </c>
-      <c r="W13" s="24">
+      <c r="W13" s="22">
         <f>ROUND($B$9*(1+$P$2*(1+F2+N2)*C2+$P$3*(1+F3+N3)*C3+$P$4*(1+F4+N4)*C4+$P$5*(1+F5+N5)*C5+$P$6*(1+F6+N6)*C6),0)</f>
         <v>23</v>
       </c>
-      <c r="X13" s="24">
+      <c r="X13" s="22">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="Y13" s="24">
+      <c r="Y13" s="22">
         <f>ROUND($B$11+$P$2*(1+F2+N2)*D2+$P$3*(1+F3+N3)*D3+$P$4*(1+F4+N4)*D4+$P$5*(1+F5+N5)*D5+$P$6*(1+F6+N6)*D6,2)</f>
         <v>0.15</v>
       </c>
-      <c r="Z13" s="24">
+      <c r="Z13" s="22">
         <f>ROUND($B$10*(1+$P$2*(1+F2+N2)*E2+$P$3*(1+F3+N3)*E3+$P$4*(1+F4+N4)*E4+$P$5*(1+F5+N5)*E5+$P$6*(1+F6+N6)*E6),0)</f>
         <v>150</v>
       </c>
-      <c r="AB13" s="24" t="s">
+      <c r="AB13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AC13" s="24">
+      <c r="AC13" s="22">
         <f>ROUND($B$8*(1+$P$2*(1+G2+N2)*B2+$P$3*(1+G3+N3)*B3+$P$4*(1+G4+N4)*B4+$P$5*(1+G5+N5)*B5+$P$6*(1+G6+N6)*B6),0)</f>
         <v>94</v>
       </c>
-      <c r="AD13" s="24">
+      <c r="AD13" s="22">
         <f>ROUND($B$9*(1+$P$2*(1+G2+N2)*C2+$P$3*(1+G3+N3)*C3+$P$4*(1+G4+N4)*C4+$P$5*(1+G5+N5)*C5+$P$6*(1+G6+N6)*C6),0)</f>
         <v>23</v>
       </c>
-      <c r="AE13" s="24">
+      <c r="AE13" s="22">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="AF13" s="25">
+      <c r="AF13" s="23">
         <f>ROUND($B$11+ROUND($P$2*(1+G2+N2),0)*D2+$P$3*(1+G3+N3)*D3+$P$4*(1+G4+N4)*D4+$P$5*(1+G5+N5)*D5+$P$6*(1+G6+N6)*D6,2)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="AG13" s="25">
+      <c r="AG13" s="23">
         <f>ROUND($B$10*(1+$P$2*(1+G2+N2)*E2+$P$3*(1+G3+N3)*E3+ROUND($P$4*(1+G4+N4),0)*E4+$P$5*(1+G5+N5)*E5+$P$6*(1+G6+N6)*E6),0)</f>
         <v>150</v>
       </c>
-      <c r="AI13" s="24" t="s">
+      <c r="AI13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AJ13" s="25">
+      <c r="AJ13" s="23">
         <f>ROUND($B$8*(1+$P$2*(1+H2+N2)*B2+ROUND($P$3*(1+H3+N3),0)*B3+$P$4*(1+H4+N4)*B4+$P$5*(1+H5+N5)*B5+$P$6*(1+H6+N6)*B6),0)</f>
         <v>94</v>
       </c>
-      <c r="AK13" s="24">
+      <c r="AK13" s="22">
         <f>ROUND($B$9*(1+$P$2*(1+H2+N2)*C2+$P$3*(1+H3+N3)*C3+$P$4*(1+H4+N4)*C4+$P$5*(1+H5+N5)*C5+$P$6*(1+H6+N6)*C6),0)</f>
         <v>23</v>
       </c>
-      <c r="AL13" s="24">
+      <c r="AL13" s="22">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AM13" s="25">
+      <c r="AM13" s="23">
         <f>ROUND($B$11+ROUND($P$2*(1+H2+N2),0)*D2+$P$3*(1+H3+N3)*D3+$P$4*(1+H4+N4)*D4+$P$5*(1+H5+N5)*D5+$P$6*(1+H6+N6)*D6,2)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="AN13" s="25">
+      <c r="AN13" s="23">
         <f>ROUND($B$10*(1+$P$2*(1+H2+N2)*E2+$P$3*(1+H3+N3)*E3+ROUND($P$4*(1+H4+N4),0)*E4+$P$5*(1+H5+N5)*E5+$P$6*(1+H6+N6)*E6),0)</f>
         <v>150</v>
       </c>
-      <c r="AP13" s="24" t="s">
+      <c r="AP13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AQ13" s="25">
+      <c r="AQ13" s="23">
         <f>ROUND($B$8*(1+$P$2*(1+I2+N2)*B2+ROUND($P$3*(1+I3+N3),0)*B3+$P$4*(1+I4+N4)*B4+$P$5*(1+I5+N5)*B5+$P$6*(1+I6+N6)*B6),0)</f>
         <v>94</v>
       </c>
-      <c r="AR13" s="24">
+      <c r="AR13" s="22">
         <f>ROUND($B$9*(1+$P$2*(1+I2+N2)*C2+$P$3*(1+I3+N3)*C3+$P$4*(1+I4+N4)*C4+$P$5*(1+I5+N5)*C5+$P$6*(1+I6+N6)*C6),0)</f>
         <v>23</v>
       </c>
-      <c r="AS13" s="24">
+      <c r="AS13" s="22">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="AT13" s="25">
+      <c r="AT13" s="23">
         <f>ROUND($B$11+ROUND($P$2*(1+I2+N2),0)*D2+$P$3*(1+I3+N3)*D3+$P$4*(1+I4+N4)*D4+$P$5*(1+I5+N5)*D5+$P$6*(1+I6+N6)*D6,2)</f>
         <v>0.16</v>
       </c>
-      <c r="AU13" s="25">
+      <c r="AU13" s="23">
         <f>ROUND($B$10*(1+$P$2*(1+I2+N2)*E2+$P$3*(1+I3+N3)*E3+ROUND($P$4*(1+I4+N4),0)*E4+$P$5*(1+I5+N5)*E5+$P$6*(1+I6+N6)*E6),0)</f>
         <v>150</v>
       </c>
-      <c r="AW13" s="24" t="s">
+      <c r="AW13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AX13" s="25">
+      <c r="AX13" s="23">
         <f>ROUND($B$8*(1+$P$2*(1+J2+N2)*B2+ROUND($P$3*(1+J3+N3),0)*B3+$P$4*(1+J4+N4)*B4+$P$5*(1+J5+N5)*B5+$P$6*(1+J6+N6)*B6),0)</f>
         <v>97</v>
       </c>
-      <c r="AY13" s="24">
+      <c r="AY13" s="22">
         <f>ROUND($B$9*(1+$P$2*(1+J2+N2)*C2+$P$3*(1+J3+N3)*C3+$P$4*(1+J4+N4)*C4+$P$5*(1+J5+N5)*C5+$P$6*(1+J6+N6)*C6),0)</f>
         <v>23</v>
       </c>
-      <c r="AZ13" s="24">
+      <c r="AZ13" s="22">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="BA13" s="25">
+      <c r="BA13" s="23">
         <f>ROUND($B$11+ROUND($P$2*(1+J2+N2),0)*D2+$P$3*(1+J3+N3)*D3+$P$4*(1+J4+N4)*D4+$P$5*(1+J5+N5)*D5+$P$6*(1+J6+N6)*D6,2)</f>
         <v>0.16</v>
       </c>
-      <c r="BB13" s="25">
+      <c r="BB13" s="23">
         <f>ROUND($B$10*(1+$P$2*(1+J2+N2)*E2+$P$3*(1+J3+N3)*E3+ROUND($P$4*(1+J4+N4),0)*E4+$P$5*(1+J5+N5)*E5+$P$6*(1+J6+N6)*E6),0)</f>
         <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="U15" s="24" t="s">
+      <c r="U15" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="V15" s="24" t="s">
+      <c r="V15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="W15" s="24" t="s">
+      <c r="W15" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="X15" s="24" t="s">
+      <c r="X15" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="Y15" s="24" t="s">
+      <c r="Y15" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="Z15" s="24" t="s">
+      <c r="Z15" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AB15" s="24" t="s">
+      <c r="AB15" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AC15" s="24" t="s">
+      <c r="AC15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AD15" s="24" t="s">
+      <c r="AD15" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AE15" s="24" t="s">
+      <c r="AE15" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AF15" s="24" t="s">
+      <c r="AF15" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AG15" s="24" t="s">
+      <c r="AG15" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AI15" s="24" t="s">
+      <c r="AI15" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AJ15" s="24" t="s">
+      <c r="AJ15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AK15" s="24" t="s">
+      <c r="AK15" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AL15" s="24" t="s">
+      <c r="AL15" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AM15" s="24" t="s">
+      <c r="AM15" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AN15" s="24" t="s">
+      <c r="AN15" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AP15" s="24" t="s">
+      <c r="AP15" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AQ15" s="24" t="s">
+      <c r="AQ15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AR15" s="24" t="s">
+      <c r="AR15" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AS15" s="24" t="s">
+      <c r="AS15" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AT15" s="24" t="s">
+      <c r="AT15" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AU15" s="24" t="s">
+      <c r="AU15" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AW15" s="24" t="s">
+      <c r="AW15" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AX15" s="24" t="s">
+      <c r="AX15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AY15" s="24" t="s">
+      <c r="AY15" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AZ15" s="24" t="s">
+      <c r="AZ15" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="BA15" s="24" t="s">
+      <c r="BA15" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="BB15" s="24" t="s">
+      <c r="BB15" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="U16" s="24" t="s">
+      <c r="U16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="24">
+      <c r="V16" s="22">
         <f>ROUND($B$8*(1+$Q$2*(1+F2+K2)*B2+$Q$3*(1+F3+K3)*B3+$Q$4*(1+F4+K4)*B4+$Q$5*(1+F5+K5)*B5+$Q$6*(1+F6+K6)*B6),0)</f>
         <v>128</v>
       </c>
-      <c r="W16" s="24">
+      <c r="W16" s="22">
         <f>ROUND($B$9*(1+$Q$2*(1+F2+K2)*C2+$Q$3*(1+F3+K3)*C3+$Q$4*(1+F4+K4)*C4+$Q$5*(1+F5+K5)*C5+$Q$6*(1+F6+K6)*C6),0)</f>
         <v>32</v>
       </c>
-      <c r="X16" s="24">
+      <c r="X16" s="22">
         <f>ROUND($B$12*(1+Y16),0)</f>
         <v>8</v>
       </c>
-      <c r="Y16" s="24">
+      <c r="Y16" s="22">
         <f>ROUND($B$11+$Q$2*(1+F2+K2)*D2+$Q$3*(1+F3+K3)*D3+$Q$4*(1+F4+K4)*D4+$Q$5*(1+F5+K5)*D5+$Q$6*(1+F6+K6)*D6,2)</f>
         <v>0.6</v>
       </c>
-      <c r="Z16" s="25">
+      <c r="Z16" s="23">
         <f>ROUND($B$10*(1+$Q$2*(1+F2+K2)*E2+$Q$3*(1+F3+K3)*E3+ROUND($Q$4*(1+F4+K4),0)*E4+$Q$5*(1+F5+K5)*E5+$Q$6*(1+F6+K6)*E6),0)</f>
         <v>300</v>
       </c>
-      <c r="AB16" s="24" t="s">
+      <c r="AB16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AC16" s="24">
+      <c r="AC16" s="22">
         <f>ROUND($B$8*(1+$Q$2*(1+G2+K2)*B2+$Q$3*(1+G3+K3)*B3+$Q$4*(1+G4+K4)*B4+$Q$5*(1+G5+K5)*B5+$Q$6*(1+G6+K6)*B6),0)</f>
         <v>134</v>
       </c>
-      <c r="AD16" s="24">
+      <c r="AD16" s="22">
         <f>ROUND($B$9*(1+$Q$2*(1+G2+K2)*C2+$Q$3*(1+G3+K3)*C3+$Q$4*(1+G4+K4)*C4+$Q$5*(1+G5+K5)*C5+$Q$6*(1+G6+K6)*C6),0)</f>
         <v>32</v>
       </c>
-      <c r="AE16" s="24">
+      <c r="AE16" s="22">
         <f>ROUND($B$12*(1+AF16),0)</f>
         <v>8</v>
       </c>
-      <c r="AF16" s="24">
+      <c r="AF16" s="22">
         <f>ROUND($B$11+$Q$2*(1+G2+K2)*D2+$Q$3*(1+G3+K3)*D3+$Q$4*(1+G4+K4)*D4+$Q$5*(1+G5+K5)*D5+$Q$6*(1+G6+K6)*D6,2)</f>
         <v>0.52</v>
       </c>
-      <c r="AG16" s="25">
+      <c r="AG16" s="23">
         <f>ROUND($B$10*(1+$Q$2*(1+G2+K2)*E2+$Q$3*(1+G3+K3)*E3+ROUND($Q$4*(1+G4+K4),0)*E4+$Q$5*(1+G5+K5)*E5+$Q$6*(1+G6+K6)*E6),0)</f>
         <v>280</v>
       </c>
-      <c r="AI16" s="24" t="s">
+      <c r="AI16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AJ16" s="24">
+      <c r="AJ16" s="22">
         <f>ROUND($B$8*(1+$Q$2*(1+H2+K2)*B2+$Q$3*(1+H3+K3)*B3+$Q$4*(1+H4+K4)*B4+$Q$5*(1+H5+K5)*B5+$Q$6*(1+H6+K6)*B6),0)</f>
         <v>131</v>
       </c>
-      <c r="AK16" s="24">
+      <c r="AK16" s="22">
         <f>ROUND($B$9*(1+$Q$2*(1+H2+K2)*C2+$Q$3*(1+H3+K3)*C3+$Q$4*(1+H4+K4)*C4+$Q$5*(1+H5+K5)*C5+$Q$6*(1+H6+K6)*C6),0)</f>
         <v>32</v>
       </c>
-      <c r="AL16" s="24">
+      <c r="AL16" s="22">
         <f t="shared" ref="AL16:AL19" si="10">ROUND($B$12*(1+AM16),0)</f>
         <v>8</v>
       </c>
-      <c r="AM16" s="24">
+      <c r="AM16" s="22">
         <f>ROUND($B$11+$Q$2*(1+H2+K2)*D2+$Q$3*(1+H3+K3)*D3+$Q$4*(1+H4+K4)*D4+$Q$5*(1+H5+K5)*D5+$Q$6*(1+H6+K6)*D6,2)</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="AN16" s="25">
+      <c r="AN16" s="23">
         <f>ROUND($B$10*(1+$Q$2*(1+H2+K2)*E2+$Q$3*(1+H3+K3)*E3+ROUND($Q$4*(1+H4+K4),0)*E4+$Q$5*(1+H5+K5)*E5+$Q$6*(1+H6+K6)*E6),0)</f>
         <v>290</v>
       </c>
-      <c r="AP16" s="24" t="s">
+      <c r="AP16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AQ16" s="24">
+      <c r="AQ16" s="22">
         <f>ROUND($B$8*(1+$Q$2*(1+I2+K2)*B2+$Q$3*(1+I3+K3)*B3+$Q$4*(1+I4+K4)*B4+$Q$5*(1+I5+K5)*B5+$Q$6*(1+I6+K6)*B6),0)</f>
         <v>131</v>
       </c>
-      <c r="AR16" s="24">
+      <c r="AR16" s="22">
         <f>ROUND($B$9*(1+$Q$2*(1+I2+K2)*C2+$Q$3*(1+I3+K3)*C3+$Q$4*(1+I4+K4)*C4+$Q$5*(1+I5+K5)*C5+$Q$6*(1+I6+K6)*C6),0)</f>
         <v>32</v>
       </c>
-      <c r="AS16" s="24">
+      <c r="AS16" s="22">
         <f t="shared" ref="AS16:AS19" si="11">ROUND($B$12*(1+AT16),0)</f>
         <v>8</v>
       </c>
-      <c r="AT16" s="24">
+      <c r="AT16" s="22">
         <f>ROUND($B$11+$Q$2*(1+I2+K2)*D2+$Q$3*(1+I3+K3)*D3+$Q$4*(1+I4+K4)*D4+$Q$5*(1+I5+K5)*D5+$Q$6*(1+I6+K6)*D6,2)</f>
         <v>0.62</v>
       </c>
-      <c r="AU16" s="25">
+      <c r="AU16" s="23">
         <f>ROUND($B$10*(1+$Q$2*(1+I2+K2)*E2+$Q$3*(1+I3+K3)*E3+ROUND($Q$4*(1+I4+K4),0)*E4+$Q$5*(1+I5+K5)*E5+$Q$6*(1+I6+K6)*E6),0)</f>
         <v>300</v>
       </c>
-      <c r="AW16" s="24" t="s">
+      <c r="AW16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AX16" s="24">
+      <c r="AX16" s="22">
         <f>ROUND($B$8*(1+$Q$2*(1+J2+K2)*B2+$Q$3*(1+J3+K3)*B3+$Q$4*(1+J4+K4)*B4+$Q$5*(1+J5+K5)*B5+$Q$6*(1+J6+K6)*B6),0)</f>
         <v>143</v>
       </c>
-      <c r="AY16" s="24">
+      <c r="AY16" s="22">
         <f>ROUND($B$9*(1+$Q$2*(1+J2+K2)*C2+$Q$3*(1+J3+K3)*C3+$Q$4*(1+J4+K4)*C4+$Q$5*(1+J5+K5)*C5+$Q$6*(1+J6+K6)*C6),0)</f>
         <v>33</v>
       </c>
-      <c r="AZ16" s="24">
+      <c r="AZ16" s="22">
         <f t="shared" ref="AZ16:AZ19" si="12">ROUND($B$12*(1+BA16),0)</f>
         <v>8</v>
       </c>
-      <c r="BA16" s="24">
+      <c r="BA16" s="22">
         <f>ROUND($B$11+$Q$2*(1+J2+K2)*D2+$Q$3*(1+J3+K3)*D3+$Q$4*(1+J4+K4)*D4+$Q$5*(1+J5+K5)*D5+$Q$6*(1+J6+K6)*D6,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="BB16" s="25">
+      <c r="BB16" s="23">
         <f>ROUND($B$10*(1+$Q$2*(1+J2+K2)*E2+$Q$3*(1+J3+K3)*E3+ROUND($Q$4*(1+J4+K4),0)*E4+$Q$5*(1+J5+K5)*E5+$Q$6*(1+J6+K6)*E6),0)</f>
         <v>280</v>
       </c>
     </row>
     <row r="17" spans="21:54" x14ac:dyDescent="0.2">
-      <c r="U17" s="24" t="s">
+      <c r="U17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="V17" s="24">
+      <c r="V17" s="22">
         <f>ROUND($B$8*(1+$Q$2*(1+F2+L2)*B2+$Q$3*(1+F3+L3)*B3+$Q$4*(1+F4+L4)*B4+$Q$5*(1+F5+L5)*B5+$Q$6*(1+F6+L6)*B6),0)</f>
         <v>128</v>
       </c>
-      <c r="W17" s="24">
+      <c r="W17" s="22">
         <f>ROUND($B$9*(1+$Q$2*(1+F2+L2)*C2+$Q$3*(1+F3+L3)*C3+$Q$4*(1+F4+L4)*C4+$Q$5*(1+F5+L5)*C5+$Q$6*(1+F6+L6)*C6),0)</f>
         <v>32</v>
       </c>
-      <c r="X17" s="24">
+      <c r="X17" s="22">
         <f t="shared" ref="X17:X19" si="13">ROUND($B$12*(1+Y17),0)</f>
         <v>8</v>
       </c>
-      <c r="Y17" s="25">
+      <c r="Y17" s="23">
         <f>ROUND($B$11+ROUND($Q$2*(1+F2+L2),0)*D2+$Q$3*(1+F3+L3)*D3+$Q$4*(1+F4+L4)*D4+$Q$5*(1+F5+L5)*D5+$Q$6*(1+F6+L6)*D6,2)</f>
         <v>0.62</v>
       </c>
-      <c r="Z17" s="24">
+      <c r="Z17" s="22">
         <f>ROUND($B$10*(1+$Q$2*(1+F2+L2)*E2+$Q$3*(1+F3+L3)*E3+$Q$4*(1+F4+L4)*E4+$Q$5*(1+F5+L5)*E5+$Q$6*(1+F6+L6)*E6),0)</f>
         <v>300</v>
       </c>
-      <c r="AB17" s="24" t="s">
+      <c r="AB17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AC17" s="24">
+      <c r="AC17" s="22">
         <f>ROUND($B$8*(1+$Q$2*(1+G2+L2)*B2+$Q$3*(1+G3+L3)*B3+$Q$4*(1+G4+L4)*B4+$Q$5*(1+G5+L5)*B5+$Q$6*(1+G6+L6)*B6),0)</f>
         <v>134</v>
       </c>
-      <c r="AD17" s="24">
+      <c r="AD17" s="22">
         <f>ROUND($B$9*(1+$Q$2*(1+G2+L2)*C2+$Q$3*(1+G3+L3)*C3+$Q$4*(1+G4+L4)*C4+$Q$5*(1+G5+L5)*C5+$Q$6*(1+G6+L6)*C6),0)</f>
         <v>32</v>
       </c>
-      <c r="AE17" s="24">
+      <c r="AE17" s="22">
         <f t="shared" ref="AE17:AE19" si="14">ROUND($B$12*(1+AF17),0)</f>
         <v>8</v>
       </c>
-      <c r="AF17" s="25">
+      <c r="AF17" s="23">
         <f>ROUND($B$11+ROUND($Q$2*(1+G2+L2),0)*D2+$Q$3*(1+G3+L3)*D3+$Q$4*(1+G4+L4)*D4+$Q$5*(1+G5+L5)*D5+$Q$6*(1+G6+L6)*D6,2)</f>
         <v>0.54</v>
       </c>
-      <c r="AG17" s="24">
+      <c r="AG17" s="22">
         <f>ROUND($B$10*(1+$Q$2*(1+G2+L2)*E2+$Q$3*(1+G3+L3)*E3+$Q$4*(1+G4+L4)*E4+$Q$5*(1+G5+L5)*E5+$Q$6*(1+G6+L6)*E6),0)</f>
         <v>280</v>
       </c>
-      <c r="AI17" s="24" t="s">
+      <c r="AI17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AJ17" s="24">
+      <c r="AJ17" s="22">
         <f>ROUND($B$8*(1+$Q$2*(1+H2+L2)*B2+$Q$3*(1+H3+L3)*B3+$Q$4*(1+H4+L4)*B4+$Q$5*(1+H5+L5)*B5+$Q$6*(1+H6+L6)*B6),0)</f>
         <v>131</v>
       </c>
-      <c r="AK17" s="24">
+      <c r="AK17" s="22">
         <f>ROUND($B$9*(1+$Q$2*(1+H2+L2)*C2+$Q$3*(1+H3+L3)*C3+$Q$4*(1+H4+L4)*C4+$Q$5*(1+H5+L5)*C5+$Q$6*(1+H6+L6)*C6),0)</f>
         <v>32</v>
       </c>
-      <c r="AL17" s="24">
+      <c r="AL17" s="22">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="AM17" s="25">
+      <c r="AM17" s="23">
         <f>ROUND($B$11+ROUND($Q$2*(1+H2+L2),0)*D2+$Q$3*(1+H3+L3)*D3+$Q$4*(1+H4+L4)*D4+$Q$5*(1+H5+L5)*D5+$Q$6*(1+H6+L6)*D6,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="AN17" s="32">
+      <c r="AN17" s="30">
         <f>ROUND($B$10*(1+$Q$2*(1+H2+L2)*E2+$Q$3*(1+H3+L3)*E3+$Q$4*(1+H4+L4)*E4+$Q$5*(1+H5+L5)*E5+$Q$6*(1+H6+L6)*E6),0)</f>
         <v>290</v>
       </c>
-      <c r="AP17" s="24" t="s">
+      <c r="AP17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AQ17" s="24">
+      <c r="AQ17" s="22">
         <f>ROUND($B$8*(1+$Q$2*(1+I2+L2)*B2+$Q$3*(1+I3+L3)*B3+$Q$4*(1+I4+L4)*B4+$Q$5*(1+I5+L5)*B5+$Q$6*(1+I6+L6)*B6),0)</f>
         <v>131</v>
       </c>
-      <c r="AR17" s="24">
+      <c r="AR17" s="22">
         <f>ROUND($B$9*(1+$Q$2*(1+I2+L2)*C2+$Q$3*(1+I3+L3)*C3+$Q$4*(1+I4+L4)*C4+$Q$5*(1+I5+L5)*C5+$Q$6*(1+I6+L6)*C6),0)</f>
         <v>33</v>
       </c>
-      <c r="AS17" s="24">
+      <c r="AS17" s="22">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="AT17" s="25">
+      <c r="AT17" s="23">
         <f>ROUND($B$11+ROUND($Q$2*(1+I2+L2),0)*D2+$Q$3*(1+I3+L3)*D3+$Q$4*(1+I4+L4)*D4+$Q$5*(1+I5+L5)*D5+$Q$6*(1+I6+L6)*D6,2)</f>
         <v>0.64</v>
       </c>
-      <c r="AU17" s="25">
+      <c r="AU17" s="23">
         <f>ROUND($B$10*(1+$Q$2*(1+I2+L2)*E2+$Q$3*(1+I3+L3)*E3+ROUND($Q$4*(1+I4+L4),0)*E4+$Q$5*(1+I5+L5)*E5+$Q$6*(1+I6+L6)*E6),0)</f>
         <v>300</v>
       </c>
-      <c r="AW17" s="24" t="s">
+      <c r="AW17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AX17" s="24">
+      <c r="AX17" s="22">
         <f>ROUND($B$8*(1+$Q$2*(1+J2+L2)*B2+$Q$3*(1+J3+L3)*B3+$Q$4*(1+J4+L4)*B4+$Q$5*(1+J5+L5)*B5+$Q$6*(1+J6+L6)*B6),0)</f>
         <v>143</v>
       </c>
-      <c r="AY17" s="24">
+      <c r="AY17" s="22">
         <f>ROUND($B$9*(1+$Q$2*(1+J2+L2)*C2+$Q$3*(1+J3+L3)*C3+$Q$4*(1+J4+L4)*C4+$Q$5*(1+J5+L5)*C5+$Q$6*(1+J6+L6)*C6),0)</f>
         <v>33</v>
       </c>
-      <c r="AZ17" s="24">
+      <c r="AZ17" s="22">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="BA17" s="25">
+      <c r="BA17" s="23">
         <f>ROUND($B$11+ROUND($Q$2*(1+J2+L2),0)*D2+$Q$3*(1+J3+L3)*D3+$Q$4*(1+J4+L4)*D4+$Q$5*(1+J5+L5)*D5+$Q$6*(1+J6+L6)*D6,2)</f>
         <v>0.6</v>
       </c>
-      <c r="BB17" s="25">
+      <c r="BB17" s="23">
         <f>ROUND($B$10*(1+$Q$2*(1+J2+L2)*E2+$Q$3*(1+J3+L3)*E3+ROUND($Q$4*(1+J4+L4),0)*E4+$Q$5*(1+J5+L5)*E5+$Q$6*(1+J6+L6)*E6),0)</f>
         <v>280</v>
       </c>
     </row>
     <row r="18" spans="21:54" x14ac:dyDescent="0.2">
-      <c r="U18" s="24" t="s">
+      <c r="U18" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="V18" s="24">
+      <c r="V18" s="22">
         <f>ROUND($B$8*(1+$Q$2*(1+F2+M2)*B2+$Q$3*(1+F3+M3)*B3+$Q$4*(1+F4+M4)*B4+$Q$5*(1+F5+M5)*B5+$Q$6*(1+F6+M6)*B6),0)</f>
         <v>128</v>
       </c>
-      <c r="W18" s="24">
+      <c r="W18" s="22">
         <f>ROUND($B$9*(1+$Q$2*(1+F2+M2)*C2+$Q$3*(1+F3+M3)*C3+$Q$4*(1+F4+M4)*C4+$Q$5*(1+F5+M5)*C5+$Q$6*(1+F6+M6)*C6),0)</f>
         <v>32</v>
       </c>
-      <c r="X18" s="24">
+      <c r="X18" s="22">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="Y18" s="24">
+      <c r="Y18" s="22">
         <f>ROUND($B$11+$Q$2*(1+F2+M2)*D2+$Q$3*(1+F3+M3)*D3+$Q$4*(1+F4+M4)*D4+$Q$5*(1+F5+M5)*D5+$Q$6*(1+F6+M6)*D6,2)</f>
         <v>0.6</v>
       </c>
-      <c r="Z18" s="24">
+      <c r="Z18" s="22">
         <f>ROUND($B$10*(1+$Q$2*(1+F2+M2)*E2+$Q$3*(1+F3+M3)*E3+$Q$4*(1+F4+M4)*E4+$Q$5*(1+F5+M5)*E5+$Q$6*(1+F6+M6)*E6),0)</f>
         <v>300</v>
       </c>
-      <c r="AB18" s="24" t="s">
+      <c r="AB18" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AC18" s="24">
+      <c r="AC18" s="22">
         <f>ROUND($B$8*(1+$Q$2*(1+G2+M2)*B2+$Q$3*(1+G3+M3)*B3+$Q$4*(1+G4+M4)*B4+$Q$5*(1+G5+M5)*B5+$Q$6*(1+G6+M6)*B6),0)</f>
         <v>134</v>
       </c>
-      <c r="AD18" s="24">
+      <c r="AD18" s="22">
         <f>ROUND($B$9*(1+$Q$2*(1+G2+M2)*C2+$Q$3*(1+G3+M3)*C3+$Q$4*(1+G4+M4)*C4+$Q$5*(1+G5+M5)*C5+$Q$6*(1+G6+M6)*C6),0)</f>
         <v>32</v>
       </c>
-      <c r="AE18" s="24">
+      <c r="AE18" s="22">
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="AF18" s="24">
+      <c r="AF18" s="22">
         <f>ROUND($B$11+$Q$2*(1+G2+M2)*D2+$Q$3*(1+G3+M3)*D3+$Q$4*(1+G4+M4)*D4+$Q$5*(1+G5+M5)*D5+$Q$6*(1+G6+M6)*D6,2)</f>
         <v>0.52</v>
       </c>
-      <c r="AG18" s="24">
+      <c r="AG18" s="22">
         <f>ROUND($B$10*(1+$Q$2*(1+G2+M2)*E2+$Q$3*(1+G3+M3)*E3+$Q$4*(1+G4+M4)*E4+$Q$5*(1+G5+M5)*E5+$Q$6*(1+G6+M6)*E6),0)</f>
         <v>280</v>
       </c>
-      <c r="AI18" s="24" t="s">
+      <c r="AI18" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AJ18" s="24">
+      <c r="AJ18" s="22">
         <f>ROUND($B$8*(1+$Q$2*(1+H2+M2)*B2+$Q$3*(1+H3+M3)*B3+$Q$4*(1+H4+M4)*B4+$Q$5*(1+H5+M5)*B5+$Q$6*(1+H6+M6)*B6),0)</f>
         <v>131</v>
       </c>
-      <c r="AK18" s="24">
+      <c r="AK18" s="22">
         <f>ROUND($B$9*(1+$Q$2*(1+H2+M2)*C2+$Q$3*(1+H3+M3)*C3+$Q$4*(1+H4+M4)*C4+$Q$5*(1+H5+M5)*C5+$Q$6*(1+H6+M6)*C6),0)</f>
         <v>32</v>
       </c>
-      <c r="AL18" s="24">
+      <c r="AL18" s="22">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="AM18" s="24">
+      <c r="AM18" s="22">
         <f>ROUND($B$11+$Q$2*(1+H2+M2)*D2+$Q$3*(1+H3+M3)*D3+$Q$4*(1+H4+M4)*D4+$Q$5*(1+H5+M5)*D5+$Q$6*(1+H6+M6)*D6,2)</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="AN18" s="24">
+      <c r="AN18" s="22">
         <f>ROUND($B$10*(1+$Q$2*(1+H2+M2)*E2+$Q$3*(1+H3+M3)*E3+$Q$4*(1+H4+M4)*E4+$Q$5*(1+H5+M5)*E5+$Q$6*(1+H6+M6)*E6),0)</f>
         <v>290</v>
       </c>
-      <c r="AP18" s="24" t="s">
+      <c r="AP18" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AQ18" s="24">
+      <c r="AQ18" s="22">
         <f>ROUND($B$8*(1+$Q$2*(1+I2+M2)*B2+$Q$3*(1+I3+M3)*B3+$Q$4*(1+I4+M4)*B4+$Q$5*(1+I5+M5)*B5+$Q$6*(1+I6+M6)*B6),0)</f>
         <v>131</v>
       </c>
-      <c r="AR18" s="24">
+      <c r="AR18" s="22">
         <f>ROUND($B$9*(1+$Q$2*(1+I2+M2)*C2+$Q$3*(1+I3+M3)*C3+$Q$4*(1+I4+M4)*C4+$Q$5*(1+I5+M5)*C5+$Q$6*(1+I6+M6)*C6),0)</f>
         <v>32</v>
       </c>
-      <c r="AS18" s="24">
+      <c r="AS18" s="22">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="AT18" s="24">
+      <c r="AT18" s="22">
         <f>ROUND($B$11+$Q$2*(1+I2+M2)*D2+$Q$3*(1+I3+M3)*D3+$Q$4*(1+I4+M4)*D4+$Q$5*(1+I5+M5)*D5+$Q$6*(1+I6+M6)*D6,2)</f>
         <v>0.62</v>
       </c>
-      <c r="AU18" s="25">
+      <c r="AU18" s="23">
         <f>ROUND($B$10*(1+$Q$2*(1+I2+M2)*E2+$Q$3*(1+I3+M3)*E3+ROUND($Q$4*(1+I4+M4),0)*E4+$Q$5*(1+I5+M5)*E5+$Q$6*(1+I6+M6)*E6),0)</f>
         <v>300</v>
       </c>
-      <c r="AW18" s="24" t="s">
+      <c r="AW18" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AX18" s="24">
+      <c r="AX18" s="22">
         <f>ROUND($B$8*(1+$Q$2*(1+J2+M2)*B2+$Q$3*(1+J3+M3)*B3+$Q$4*(1+J4+M4)*B4+$Q$5*(1+J5+M5)*B5+$Q$6*(1+J6+M6)*B6),0)</f>
         <v>143</v>
       </c>
-      <c r="AY18" s="24">
+      <c r="AY18" s="22">
         <f>ROUND($B$9*(1+$Q$2*(1+J2+M2)*C2+$Q$3*(1+J3+M3)*C3+$Q$4*(1+J4+M4)*C4+$Q$5*(1+J5+M5)*C5+$Q$6*(1+J6+M6)*C6),0)</f>
         <v>33</v>
       </c>
-      <c r="AZ18" s="24">
+      <c r="AZ18" s="22">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="BA18" s="24">
+      <c r="BA18" s="22">
         <f>ROUND($B$11+$Q$2*(1+J2+M2)*D2+$Q$3*(1+J3+M3)*D3+$Q$4*(1+J4+M4)*D4+$Q$5*(1+J5+M5)*D5+$Q$6*(1+J6+M6)*D6,2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="BB18" s="25">
+      <c r="BB18" s="23">
         <f>ROUND($B$10*(1+$Q$2*(1+J2+M2)*E2+$Q$3*(1+J3+M3)*E3+ROUND($Q$4*(1+J4+M4),0)*E4+$Q$5*(1+J5+M5)*E5+$Q$6*(1+J6+M6)*E6),0)</f>
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="21:54" x14ac:dyDescent="0.2">
-      <c r="U19" s="24" t="s">
+      <c r="U19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="V19" s="25">
+      <c r="V19" s="23">
         <f>ROUND($B$8*(1+$Q$2*(1+F2+N2)*B2+ROUND($Q$3*(1+F3+N3),0)*B3+$Q$4*(1+F4+N4)*B4+$Q$5*(1+F5+N5)*B5+$Q$6*(1+F6+N6)*B6),0)</f>
         <v>130</v>
       </c>
-      <c r="W19" s="24">
+      <c r="W19" s="22">
         <f>ROUND($B$9*(1+$Q$2*(1+F2+N2)*C2+$Q$3*(1+F3+N3)*C3+$Q$4*(1+F4+N4)*C4+$Q$5*(1+F5+N5)*C5+$Q$6*(1+F6+N6)*C6),0)</f>
         <v>32</v>
       </c>
-      <c r="X19" s="24">
+      <c r="X19" s="22">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="Y19" s="24">
+      <c r="Y19" s="22">
         <f>ROUND($B$11+$Q$2*(1+F2+N2)*D2+$Q$3*(1+F3+N3)*D3+$Q$4*(1+F4+N4)*D4+$Q$5*(1+F5+N5)*D5+$Q$6*(1+F6+N6)*D6,2)</f>
         <v>0.61</v>
       </c>
-      <c r="Z19" s="24">
+      <c r="Z19" s="22">
         <f>ROUND($B$10*(1+$Q$2*(1+F2+N2)*E2+$Q$3*(1+F3+N3)*E3+$Q$4*(1+F4+N4)*E4+$Q$5*(1+F5+N5)*E5+$Q$6*(1+F6+N6)*E6),0)</f>
         <v>300</v>
       </c>
-      <c r="AB19" s="24" t="s">
+      <c r="AB19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AC19" s="25">
+      <c r="AC19" s="23">
         <f>ROUND($B$8*(1+$Q$2*(1+G2+N2)*B2+ROUND($Q$3*(1+G3+N3),0)*B3+$Q$4*(1+G4+N4)*B4+$Q$5*(1+G5+N5)*B5+$Q$6*(1+G6+N6)*B6),0)</f>
         <v>136</v>
       </c>
-      <c r="AD19" s="24">
+      <c r="AD19" s="22">
         <f>ROUND($B$9*(1+$Q$2*(1+G2+N2)*C2+$Q$3*(1+G3+N3)*C3+$Q$4*(1+G4+N4)*C4+$Q$5*(1+G5+N5)*C5+$Q$6*(1+G6+N6)*C6),0)</f>
         <v>32</v>
       </c>
-      <c r="AE19" s="24">
+      <c r="AE19" s="22">
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="AF19" s="24">
+      <c r="AF19" s="22">
         <f>ROUND($B$11+$Q$2*(1+G2+N2)*D2+$Q$3*(1+G3+N3)*D3+$Q$4*(1+G4+N4)*D4+$Q$5*(1+G5+N5)*D5+$Q$6*(1+G6+N6)*D6,2)</f>
         <v>0.53</v>
       </c>
-      <c r="AG19" s="24">
+      <c r="AG19" s="22">
         <f>ROUND($B$10*(1+$Q$2*(1+G2+N2)*E2+$Q$3*(1+G3+N3)*E3+$Q$4*(1+G4+N4)*E4+$Q$5*(1+G5+N5)*E5+$Q$6*(1+G6+N6)*E6),0)</f>
         <v>280</v>
       </c>
-      <c r="AI19" s="24" t="s">
+      <c r="AI19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AJ19" s="25">
+      <c r="AJ19" s="23">
         <f>ROUND($B$8*(1+$Q$2*(1+H2+N2)*B2+ROUND($Q$3*(1+H3+N3),0)*B3+$Q$4*(1+H4+N4)*B4+$Q$5*(1+H5+N5)*B5+$Q$6*(1+H6+N6)*B6),0)</f>
         <v>133</v>
       </c>
-      <c r="AK19" s="24">
+      <c r="AK19" s="22">
         <f>ROUND($B$9*(1+$Q$2*(1+H2+N2)*C2+$Q$3*(1+H3+N3)*C3+$Q$4*(1+H4+N4)*C4+$Q$5*(1+H5+N5)*C5+$Q$6*(1+H6+N6)*C6),0)</f>
         <v>32</v>
       </c>
-      <c r="AL19" s="24">
+      <c r="AL19" s="22">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="AM19" s="24">
+      <c r="AM19" s="22">
         <f>ROUND($B$11+$Q$2*(1+H2+N2)*D2+$Q$3*(1+H3+N3)*D3+$Q$4*(1+H4+N4)*D4+$Q$5*(1+H5+N5)*D5+$Q$6*(1+H6+N6)*D6,2)</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AN19" s="24">
+      <c r="AN19" s="22">
         <f>ROUND($B$10*(1+$Q$2*(1+H2+N2)*E2+$Q$3*(1+H3+N3)*E3+$Q$4*(1+H4+N4)*E4+$Q$5*(1+H5+N5)*E5+$Q$6*(1+H6+N6)*E6),0)</f>
         <v>290</v>
       </c>
-      <c r="AP19" s="24" t="s">
+      <c r="AP19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AQ19" s="25">
+      <c r="AQ19" s="23">
         <f>ROUND($B$8*(1+$Q$2*(1+I2+N2)*B2+ROUND($Q$3*(1+I3+N3),0)*B3+$Q$4*(1+I4+N4)*B4+$Q$5*(1+I5+N5)*B5+$Q$6*(1+I6+N6)*B6),0)</f>
         <v>133</v>
       </c>
-      <c r="AR19" s="24">
+      <c r="AR19" s="22">
         <f>ROUND($B$9*(1+$Q$2*(1+I2+N2)*C2+$Q$3*(1+I3+N3)*C3+$Q$4*(1+I4+N4)*C4+$Q$5*(1+I5+N5)*C5+$Q$6*(1+I6+N6)*C6),0)</f>
         <v>33</v>
       </c>
-      <c r="AS19" s="24">
+      <c r="AS19" s="22">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="AT19" s="24">
+      <c r="AT19" s="22">
         <f>ROUND($B$11+$Q$2*(1+I2+N2)*D2+$Q$3*(1+I3+N3)*D3+$Q$4*(1+I4+N4)*D4+$Q$5*(1+I5+N5)*D5+$Q$6*(1+I6+N6)*D6,2)</f>
         <v>0.63</v>
       </c>
-      <c r="AU19" s="25">
+      <c r="AU19" s="23">
         <f>ROUND($B$10*(1+$Q$2*(1+I2+N2)*E2+$Q$3*(1+I3+N3)*E3+ROUND($Q$4*(1+I4+N4),0)*E4+$Q$5*(1+I5+N5)*E5+$Q$6*(1+I6+N6)*E6),0)</f>
         <v>300</v>
       </c>
-      <c r="AW19" s="24" t="s">
+      <c r="AW19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AX19" s="25">
+      <c r="AX19" s="23">
         <f>ROUND($B$8*(1+$Q$2*(1+J2+N2)*B2+ROUND($Q$3*(1+J3+N3),0)*B3+$Q$4*(1+J4+N4)*B4+$Q$5*(1+J5+N5)*B5+$Q$6*(1+J6+N6)*B6),0)</f>
         <v>145</v>
       </c>
-      <c r="AY19" s="24">
+      <c r="AY19" s="22">
         <f>ROUND($B$9*(1+$Q$2*(1+J2+N2)*C2+$Q$3*(1+J3+N3)*C3+$Q$4*(1+J4+N4)*C4+$Q$5*(1+J5+N5)*C5+$Q$6*(1+J6+N6)*C6),0)</f>
         <v>33</v>
       </c>
-      <c r="AZ19" s="24">
+      <c r="AZ19" s="22">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="BA19" s="24">
+      <c r="BA19" s="22">
         <f>ROUND($B$11+$Q$2*(1+J2+N2)*D2+$Q$3*(1+J3+N3)*D3+$Q$4*(1+J4+N4)*D4+$Q$5*(1+J5+N5)*D5+$Q$6*(1+J6+N6)*D6,2)</f>
         <v>0.59</v>
       </c>
-      <c r="BB19" s="25">
+      <c r="BB19" s="23">
         <f>ROUND($B$10*(1+$Q$2*(1+J2+N2)*E2+$Q$3*(1+J3+N3)*E3+ROUND($Q$4*(1+J4+N4),0)*E4+$Q$5*(1+J5+N5)*E5+$Q$6*(1+J6+N6)*E6),0)</f>
         <v>280</v>
       </c>
     </row>
     <row r="21" spans="21:54" x14ac:dyDescent="0.2">
-      <c r="U21" s="24" t="s">
+      <c r="U21" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="V21" s="24" t="s">
+      <c r="V21" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="W21" s="24" t="s">
+      <c r="W21" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="X21" s="24" t="s">
+      <c r="X21" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="Y21" s="24" t="s">
+      <c r="Y21" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="Z21" s="24" t="s">
+      <c r="Z21" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AB21" s="24" t="s">
+      <c r="AB21" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AC21" s="24" t="s">
+      <c r="AC21" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AD21" s="24" t="s">
+      <c r="AD21" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AE21" s="24" t="s">
+      <c r="AE21" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AF21" s="24" t="s">
+      <c r="AF21" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AG21" s="24" t="s">
+      <c r="AG21" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AI21" s="24" t="s">
+      <c r="AI21" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AJ21" s="24" t="s">
+      <c r="AJ21" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AK21" s="24" t="s">
+      <c r="AK21" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AL21" s="24" t="s">
+      <c r="AL21" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AM21" s="24" t="s">
+      <c r="AM21" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AN21" s="24" t="s">
+      <c r="AN21" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AP21" s="24" t="s">
+      <c r="AP21" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AQ21" s="24" t="s">
+      <c r="AQ21" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AR21" s="24" t="s">
+      <c r="AR21" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AS21" s="24" t="s">
+      <c r="AS21" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AT21" s="24" t="s">
+      <c r="AT21" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AU21" s="24" t="s">
+      <c r="AU21" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AW21" s="24" t="s">
+      <c r="AW21" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AX21" s="24" t="s">
+      <c r="AX21" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AY21" s="24" t="s">
+      <c r="AY21" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AZ21" s="24" t="s">
+      <c r="AZ21" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="BA21" s="24" t="s">
+      <c r="BA21" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="BB21" s="24" t="s">
+      <c r="BB21" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="21:54" x14ac:dyDescent="0.2">
-      <c r="U22" s="24" t="s">
+      <c r="U22" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="24">
+      <c r="V22" s="22">
         <f>ROUND($B$8*(1+$R$2*(1+F2+K2)*B2+$R$3*(1+F3+K3)*B3+$R$4*(1+F4+K4)*B4+$R$5*(1+F5+K5)*B5+$R$6*(1+F6+K6)*B6),0)</f>
         <v>200</v>
       </c>
-      <c r="W22" s="24">
+      <c r="W22" s="22">
         <f>ROUND($B$9*(1+$R$2*(1+F2+K2)*C2+$R$3*(1+F3+K3)*C3+$R$4*(1+F4+K4)*C4+$R$5*(1+F5+K5)*C5+$R$6*(1+F6+K6)*C6),0)</f>
         <v>50</v>
       </c>
-      <c r="X22" s="24">
+      <c r="X22" s="22">
         <f t="shared" ref="X22:X25" si="15">ROUND($B$12*(1+Y22),0)</f>
         <v>13</v>
       </c>
-      <c r="Y22" s="24">
+      <c r="Y22" s="22">
         <f>ROUND($B$11+$R$2*(1+F2+K2)*D2+$R$3*(1+F3+K3)*D3+$R$4*(1+F4+K4)*D4+$R$5*(1+F5+K5)*D5+$R$6*(1+F6+K6)*D6,2)</f>
         <v>1.5</v>
       </c>
-      <c r="Z22" s="25">
+      <c r="Z22" s="23">
         <f>ROUND($B$10*(1+$R$2*(1+F2+K2)*E2+$R$3*(1+F3+K3)*E3+ROUND($R$4*(1+F4+K4),0)*E4+$R$5*(1+F5+K5)*E5+$R$6*(1+F6+K6)*E6),0)</f>
         <v>610</v>
       </c>
-      <c r="AB22" s="24" t="s">
+      <c r="AB22" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AC22" s="24">
+      <c r="AC22" s="22">
         <f>ROUND($B$8*(1+$R$2*(1+G2+K2)*B2+$R$3*(1+G3+K3)*B3+$R$4*(1+G4+K4)*B4+$R$5*(1+G5+K5)*B5+$R$6*(1+G6+K6)*B6),0)</f>
         <v>216</v>
       </c>
-      <c r="AD22" s="24">
+      <c r="AD22" s="22">
         <f>ROUND($B$9*(1+$R$2*(1+G2+K2)*C2+$R$3*(1+G3+K3)*C3+$R$4*(1+G4+K4)*C4+$R$5*(1+G5+K5)*C5+$R$6*(1+G6+K6)*C6),0)</f>
         <v>49</v>
       </c>
-      <c r="AE22" s="24">
+      <c r="AE22" s="22">
         <f t="shared" ref="AE22:AE25" si="16">ROUND($B$12*(1+AF22),0)</f>
         <v>12</v>
       </c>
-      <c r="AF22" s="24">
+      <c r="AF22" s="22">
         <f>ROUND($B$11+$R$2*(1+G2+K2)*D2+$R$3*(1+G3+K3)*D3+$R$4*(1+G4+K4)*D4+$R$5*(1+G5+K5)*D5+$R$6*(1+G6+K6)*D6,2)</f>
         <v>1.3</v>
       </c>
-      <c r="AG22" s="25">
+      <c r="AG22" s="23">
         <f>ROUND($B$10*(1+$R$2*(1+G2+K2)*E2+$R$3*(1+G3+K3)*E3+ROUND($R$4*(1+G4+K4),0)*E4+$R$5*(1+G5+K5)*E5+$R$6*(1+G6+K6)*E6),0)</f>
         <v>560</v>
       </c>
-      <c r="AI22" s="24" t="s">
+      <c r="AI22" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AJ22" s="24">
+      <c r="AJ22" s="22">
         <f>ROUND($B$8*(1+$R$2*(1+H2+K2)*B2+$R$3*(1+H3+K3)*B3+$R$4*(1+H4+K4)*B4+$R$5*(1+H5+K5)*B5+$R$6*(1+H6+K6)*B6),0)</f>
         <v>208</v>
       </c>
-      <c r="AK22" s="24">
+      <c r="AK22" s="22">
         <f>ROUND($B$9*(1+$R$2*(1+H2+K2)*C2+$R$3*(1+H3+K3)*C3+$R$4*(1+H4+K4)*C4+$R$5*(1+H5+K5)*C5+$R$6*(1+H6+K6)*C6),0)</f>
         <v>50</v>
       </c>
-      <c r="AL22" s="24">
+      <c r="AL22" s="22">
         <f t="shared" ref="AL22:AL25" si="17">ROUND($B$12*(1+AM22),0)</f>
         <v>12</v>
       </c>
-      <c r="AM22" s="25">
+      <c r="AM22" s="23">
         <f>ROUND($B$11+ROUND($R$2*(1+H2+K2),0)*D2+$R$3*(1+H3+K3)*D3+$R$4*(1+H4+K4)*D4+$R$5*(1+H5+K5)*D5+$R$6*(1+H6+K6)*D6,2)</f>
         <v>1.41</v>
       </c>
-      <c r="AN22" s="25">
+      <c r="AN22" s="23">
         <f>ROUND($B$10*(1+$R$2*(1+H2+K2)*E2+$R$3*(1+H3+K3)*E3+ROUND($R$4*(1+H4+K4),0)*E4+$R$5*(1+H5+K5)*E5+$R$6*(1+H6+K6)*E6),0)</f>
         <v>580</v>
       </c>
-      <c r="AP22" s="24" t="s">
+      <c r="AP22" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AQ22" s="24">
+      <c r="AQ22" s="22">
         <f>ROUND($B$8*(1+$R$2*(1+I2+K2)*B2+$R$3*(1+I3+K3)*B3+$R$4*(1+I4+K4)*B4+$R$5*(1+I5+K5)*B5+$R$6*(1+I6+K6)*B6),0)</f>
         <v>208</v>
       </c>
-      <c r="AR22" s="24">
+      <c r="AR22" s="22">
         <f>ROUND($B$9*(1+$R$2*(1+I2+K2)*C2+$R$3*(1+I3+K3)*C3+$R$4*(1+I4+K4)*C4+$R$5*(1+I5+K5)*C5+$R$6*(1+I6+K6)*C6),0)</f>
         <v>51</v>
       </c>
-      <c r="AS22" s="24">
+      <c r="AS22" s="22">
         <f t="shared" ref="AS22:AS25" si="18">ROUND($B$12*(1+AT22),0)</f>
         <v>13</v>
       </c>
-      <c r="AT22" s="25">
+      <c r="AT22" s="23">
         <f>ROUND($B$11+ROUND($R$2*(1+I2+K2),0)*D2+$R$3*(1+I3+K3)*D3+$R$4*(1+I4+K4)*D4+$R$5*(1+I5+K5)*D5+$R$6*(1+I6+K6)*D6,2)</f>
         <v>1.55</v>
       </c>
-      <c r="AU22" s="25">
+      <c r="AU22" s="23">
         <f>ROUND($B$10*(1+$R$2*(1+I2+K2)*E2+$R$3*(1+I3+K3)*E3+ROUND($R$4*(1+I4+K4),0)*E4+$R$5*(1+I5+K5)*E5+$R$6*(1+I6+K6)*E6),0)</f>
         <v>600</v>
       </c>
-      <c r="AW22" s="24" t="s">
+      <c r="AW22" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AX22" s="24">
+      <c r="AX22" s="22">
         <f>ROUND($B$8*(1+$R$2*(1+J2+K2)*B2+$R$3*(1+J3+K3)*B3+$R$4*(1+J4+K4)*B4+$R$5*(1+J5+K5)*B5+$R$6*(1+J6+K6)*B6),0)</f>
         <v>238</v>
       </c>
-      <c r="AY22" s="24">
+      <c r="AY22" s="22">
         <f>ROUND($B$9*(1+$R$2*(1+J2+K2)*C2+$R$3*(1+J3+K3)*C3+$R$4*(1+J4+K4)*C4+$R$5*(1+J5+K5)*C5+$R$6*(1+J6+K6)*C6),0)</f>
         <v>52</v>
       </c>
-      <c r="AZ22" s="24">
+      <c r="AZ22" s="22">
         <f t="shared" ref="AZ22:AZ25" si="19">ROUND($B$12*(1+BA22),0)</f>
         <v>12</v>
       </c>
-      <c r="BA22" s="25">
+      <c r="BA22" s="23">
         <f>ROUND($B$11+ROUND($R$2*(1+J2+K2),0)*D2+$R$3*(1+J3+K3)*D3+$R$4*(1+J4+K4)*D4+$R$5*(1+J5+K5)*D5+$R$6*(1+J6+K6)*D6,2)</f>
         <v>1.45</v>
       </c>
-      <c r="BB22" s="25">
+      <c r="BB22" s="23">
         <f>ROUND($B$10*(1+$R$2*(1+J2+K2)*E2+$R$3*(1+J3+K3)*E3+ROUND($R$4*(1+J4+K4),0)*E4+$R$5*(1+J5+K5)*E5+$R$6*(1+J6+K6)*E6),0)</f>
         <v>560</v>
       </c>
     </row>
     <row r="23" spans="21:54" x14ac:dyDescent="0.2">
-      <c r="U23" s="24" t="s">
+      <c r="U23" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="24">
+      <c r="V23" s="22">
         <f>ROUND($B$8*(1+$R$2*(1+F2+L2)*B2+$R$3*(1+F3+L3)*B3+$R$4*(1+F4+L4)*B4+$R$5*(1+F5+L5)*B5+$R$6*(1+F6+L6)*B6),0)</f>
         <v>200</v>
       </c>
-      <c r="W23" s="24">
+      <c r="W23" s="22">
         <f>ROUND($B$9*(1+$R$2*(1+F2+L2)*C2+$R$3*(1+F3+L3)*C3+$R$4*(1+F4+L4)*C4+$R$5*(1+F5+L5)*C5+$R$6*(1+F6+L6)*C6),0)</f>
         <v>50</v>
       </c>
-      <c r="X23" s="24">
+      <c r="X23" s="22">
         <f t="shared" si="15"/>
         <v>13</v>
       </c>
-      <c r="Y23" s="25">
+      <c r="Y23" s="23">
         <f>ROUND($B$11+ROUND($R$2*(1+F2+L2),0)*D2+$R$3*(1+F3+L3)*D3+$R$4*(1+F4+L4)*D4+$R$5*(1+F5+L5)*D5+$R$6*(1+F6+L6)*D6,2)</f>
         <v>1.54</v>
       </c>
-      <c r="Z23" s="24">
+      <c r="Z23" s="22">
         <f>ROUND($B$10*(1+$R$2*(1+F2+L2)*E2+$R$3*(1+F3+L3)*E3+$R$4*(1+F4+L4)*E4+$R$5*(1+F5+L5)*E5+$R$6*(1+F6+L6)*E6),0)</f>
         <v>600</v>
       </c>
-      <c r="AB23" s="24" t="s">
+      <c r="AB23" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AC23" s="24">
+      <c r="AC23" s="22">
         <f>ROUND($B$8*(1+$R$2*(1+G2+L2)*B2+$R$3*(1+G3+L3)*B3+$R$4*(1+G4+L4)*B4+$R$5*(1+G5+L5)*B5+$R$6*(1+G6+L6)*B6),0)</f>
         <v>216</v>
       </c>
-      <c r="AD23" s="24">
+      <c r="AD23" s="22">
         <f>ROUND($B$9*(1+$R$2*(1+G2+L2)*C2+$R$3*(1+G3+L3)*C3+$R$4*(1+G4+L4)*C4+$R$5*(1+G5+L5)*C5+$R$6*(1+G6+L6)*C6),0)</f>
         <v>49</v>
       </c>
-      <c r="AE23" s="24">
+      <c r="AE23" s="22">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AF23" s="25">
+      <c r="AF23" s="23">
         <f>ROUND($B$11+ROUND($R$2*(1+G2+L2),0)*D2+$R$3*(1+G3+L3)*D3+$R$4*(1+G4+L4)*D4+$R$5*(1+G5+L5)*D5+$R$6*(1+G6+L6)*D6,2)</f>
         <v>1.34</v>
       </c>
-      <c r="AG23" s="24">
+      <c r="AG23" s="22">
         <f>ROUND($B$10*(1+$R$2*(1+G2+L2)*E2+$R$3*(1+G3+L3)*E3+$R$4*(1+G4+L4)*E4+$R$5*(1+G5+L5)*E5+$R$6*(1+G6+L6)*E6),0)</f>
         <v>550</v>
       </c>
-      <c r="AI23" s="24" t="s">
+      <c r="AI23" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AJ23" s="24">
+      <c r="AJ23" s="22">
         <f>ROUND($B$8*(1+$R$2*(1+H2+L2)*B2+$R$3*(1+H3+L3)*B3+$R$4*(1+H4+L4)*B4+$R$5*(1+H5+L5)*B5+$R$6*(1+H6+L6)*B6),0)</f>
         <v>208</v>
       </c>
-      <c r="AK23" s="24">
+      <c r="AK23" s="22">
         <f>ROUND($B$9*(1+$R$2*(1+H2+L2)*C2+$R$3*(1+H3+L3)*C3+$R$4*(1+H4+L4)*C4+$R$5*(1+H5+L5)*C5+$R$6*(1+H6+L6)*C6),0)</f>
         <v>50</v>
       </c>
-      <c r="AL23" s="24">
+      <c r="AL23" s="22">
         <f t="shared" si="17"/>
         <v>12</v>
       </c>
-      <c r="AM23" s="25">
+      <c r="AM23" s="23">
         <f>ROUND($B$11+ROUND($R$2*(1+H2+L2),0)*D2+$R$3*(1+H3+L3)*D3+$R$4*(1+H4+L4)*D4+$R$5*(1+H5+L5)*D5+$R$6*(1+H6+L6)*D6,2)</f>
         <v>1.43</v>
       </c>
-      <c r="AN23" s="25">
+      <c r="AN23" s="23">
         <f>ROUND($B$10*(1+$R$2*(1+H2+L2)*E2+$R$3*(1+H3+L3)*E3+ROUND($R$4*(1+H4+L4),0)*E4+$R$5*(1+H5+L5)*E5+$R$6*(1+H6+L6)*E6),0)</f>
         <v>580</v>
       </c>
-      <c r="AP23" s="24" t="s">
+      <c r="AP23" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AQ23" s="24">
+      <c r="AQ23" s="22">
         <f>ROUND($B$8*(1+$R$2*(1+I2+L2)*B2+$R$3*(1+I3+L3)*B3+$R$4*(1+I4+L4)*B4+$R$5*(1+I5+L5)*B5+$R$6*(1+I6+L6)*B6),0)</f>
         <v>208</v>
       </c>
-      <c r="AR23" s="24">
+      <c r="AR23" s="22">
         <f>ROUND($B$9*(1+$R$2*(1+I2+L2)*C2+$R$3*(1+I3+L3)*C3+$R$4*(1+I4+L4)*C4+$R$5*(1+I5+L5)*C5+$R$6*(1+I6+L6)*C6),0)</f>
         <v>51</v>
       </c>
-      <c r="AS23" s="24">
+      <c r="AS23" s="22">
         <f t="shared" si="18"/>
         <v>13</v>
       </c>
-      <c r="AT23" s="25">
+      <c r="AT23" s="23">
         <f>ROUND($B$11+ROUND($R$2*(1+I2+L2),0)*D2+$R$3*(1+I3+L3)*D3+$R$4*(1+I4+L4)*D4+$R$5*(1+I5+L5)*D5+$R$6*(1+I6+L6)*D6,2)</f>
         <v>1.59</v>
       </c>
-      <c r="AU23" s="25">
+      <c r="AU23" s="23">
         <f>ROUND($B$10*(1+$R$2*(1+I2+L2)*E2+$R$3*(1+I3+L3)*E3+ROUND($R$4*(1+I4+L4),0)*E4+$R$5*(1+I5+L5)*E5+$R$6*(1+I6+L6)*E6),0)</f>
         <v>600</v>
       </c>
-      <c r="AW23" s="24" t="s">
+      <c r="AW23" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AX23" s="24">
+      <c r="AX23" s="22">
         <f>ROUND($B$8*(1+$R$2*(1+J2+L2)*B2+$R$3*(1+J3+L3)*B3+$R$4*(1+J4+L4)*B4+$R$5*(1+J5+L5)*B5+$R$6*(1+J6+L6)*B6),0)</f>
         <v>238</v>
       </c>
-      <c r="AY23" s="24">
+      <c r="AY23" s="22">
         <f>ROUND($B$9*(1+$R$2*(1+J2+L2)*C2+$R$3*(1+J3+L3)*C3+$R$4*(1+J4+L4)*C4+$R$5*(1+J5+L5)*C5+$R$6*(1+J6+L6)*C6),0)</f>
         <v>52</v>
       </c>
-      <c r="AZ23" s="24">
+      <c r="AZ23" s="22">
         <f t="shared" si="19"/>
         <v>12</v>
       </c>
-      <c r="BA23" s="25">
+      <c r="BA23" s="23">
         <f>ROUND($B$11+ROUND($R$2*(1+J2+L2),0)*D2+$R$3*(1+J3+L3)*D3+$R$4*(1+J4+L4)*D4+$R$5*(1+J5+L5)*D5+$R$6*(1+J6+L6)*D6,2)</f>
         <v>1.49</v>
       </c>
-      <c r="BB23" s="25">
+      <c r="BB23" s="23">
         <f>ROUND($B$10*(1+$R$2*(1+J2+L2)*E2+$R$3*(1+J3+L3)*E3+ROUND($R$4*(1+J4+L4),0)*E4+$R$5*(1+J5+L5)*E5+$R$6*(1+J6+L6)*E6),0)</f>
         <v>550</v>
       </c>
     </row>
     <row r="24" spans="21:54" x14ac:dyDescent="0.2">
-      <c r="U24" s="24" t="s">
+      <c r="U24" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="V24" s="24">
+      <c r="V24" s="22">
         <f>ROUND($B$8*(1+$R$2*(1+F2+M2)*B2+$R$3*(1+F3+M3)*B3+$R$4*(1+F4+M4)*B4+$R$5*(1+F5+M5)*B5+$R$6*(1+F6+M6)*B6),0)</f>
         <v>200</v>
       </c>
-      <c r="W24" s="24">
+      <c r="W24" s="22">
         <f>ROUND($B$9*(1+$R$2*(1+F2+M2)*C2+$R$3*(1+F3+M3)*C3+$R$4*(1+F4+M4)*C4+$R$5*(1+F5+M5)*C5+$R$6*(1+F6+M6)*C6),0)</f>
         <v>50</v>
       </c>
-      <c r="X24" s="24">
+      <c r="X24" s="22">
         <f t="shared" si="15"/>
         <v>13</v>
       </c>
-      <c r="Y24" s="24">
+      <c r="Y24" s="22">
         <f>ROUND($B$11+$R$2*(1+F2+M2)*D2+$R$3*(1+F3+M3)*D3+$R$4*(1+F4+M4)*D4+$R$5*(1+F5+M5)*D5+$R$6*(1+F6+M6)*D6,2)</f>
         <v>1.5</v>
       </c>
-      <c r="Z24" s="24">
+      <c r="Z24" s="22">
         <f>ROUND($B$10*(1+$R$2*(1+F2+M2)*E2+$R$3*(1+F3+M3)*E3+$R$4*(1+F4+M4)*E4+$R$5*(1+F5+M5)*E5+$R$6*(1+F6+M6)*E6),0)</f>
         <v>600</v>
       </c>
-      <c r="AB24" s="24" t="s">
+      <c r="AB24" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AC24" s="24">
+      <c r="AC24" s="22">
         <f>ROUND($B$8*(1+$R$2*(1+G2+M2)*B2+$R$3*(1+G3+M3)*B3+$R$4*(1+G4+M4)*B4+$R$5*(1+G5+M5)*B5+$R$6*(1+G6+M6)*B6),0)</f>
         <v>216</v>
       </c>
-      <c r="AD24" s="24">
+      <c r="AD24" s="22">
         <f>ROUND($B$9*(1+$R$2*(1+G2+M2)*C2+$R$3*(1+G3+M3)*C3+$R$4*(1+G4+M4)*C4+$R$5*(1+G5+M5)*C5+$R$6*(1+G6+M6)*C6),0)</f>
         <v>49</v>
       </c>
-      <c r="AE24" s="24">
+      <c r="AE24" s="22">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AF24" s="24">
+      <c r="AF24" s="22">
         <f>ROUND($B$11+$R$2*(1+G2+M2)*D2+$R$3*(1+G3+M3)*D3+$R$4*(1+G4+M4)*D4+$R$5*(1+G5+M5)*D5+$R$6*(1+G6+M6)*D6,2)</f>
         <v>1.3</v>
       </c>
-      <c r="AG24" s="24">
+      <c r="AG24" s="22">
         <f>ROUND($B$10*(1+$R$2*(1+G2+M2)*E2+$R$3*(1+G3+M3)*E3+$R$4*(1+G4+M4)*E4+$R$5*(1+G5+M5)*E5+$R$6*(1+G6+M6)*E6),0)</f>
         <v>550</v>
       </c>
-      <c r="AI24" s="24" t="s">
+      <c r="AI24" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AJ24" s="24">
+      <c r="AJ24" s="22">
         <f>ROUND($B$8*(1+$R$2*(1+H2+M2)*B2+$R$3*(1+H3+M3)*B3+$R$4*(1+H4+M4)*B4+$R$5*(1+H5+M5)*B5+$R$6*(1+H6+M6)*B6),0)</f>
         <v>208</v>
       </c>
-      <c r="AK24" s="24">
+      <c r="AK24" s="22">
         <f>ROUND($B$9*(1+$R$2*(1+H2+M2)*C2+$R$3*(1+H3+M3)*C3+$R$4*(1+H4+M4)*C4+$R$5*(1+H5+M5)*C5+$R$6*(1+H6+M6)*C6),0)</f>
         <v>50</v>
       </c>
-      <c r="AL24" s="24">
+      <c r="AL24" s="22">
         <f t="shared" si="17"/>
         <v>12</v>
       </c>
-      <c r="AM24" s="25">
+      <c r="AM24" s="23">
         <f>ROUND($B$11+ROUND($R$2*(1+H2+M2),0)*D2+$R$3*(1+H3+M3)*D3+$R$4*(1+H4+M4)*D4+$R$5*(1+H5+M5)*D5+$R$6*(1+H6+M6)*D6,2)</f>
         <v>1.41</v>
       </c>
-      <c r="AN24" s="25">
+      <c r="AN24" s="23">
         <f>ROUND($B$10*(1+$R$2*(1+H2+M2)*E2+$R$3*(1+H3+M3)*E3+ROUND($R$4*(1+H4+M4),0)*E4+$R$5*(1+H5+M5)*E5+$R$6*(1+H6+M6)*E6),0)</f>
         <v>580</v>
       </c>
-      <c r="AP24" s="24" t="s">
+      <c r="AP24" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AQ24" s="24">
+      <c r="AQ24" s="22">
         <f>ROUND($B$8*(1+$R$2*(1+I2+M2)*B2+$R$3*(1+I3+M3)*B3+$R$4*(1+I4+M4)*B4+$R$5*(1+I5+M5)*B5+$R$6*(1+I6+M6)*B6),0)</f>
         <v>208</v>
       </c>
-      <c r="AR24" s="24">
+      <c r="AR24" s="22">
         <f>ROUND($B$9*(1+$R$2*(1+I2+M2)*C2+$R$3*(1+I3+M3)*C3+$R$4*(1+I4+M4)*C4+$R$5*(1+I5+M5)*C5+$R$6*(1+I6+M6)*C6),0)</f>
         <v>51</v>
       </c>
-      <c r="AS24" s="24">
+      <c r="AS24" s="22">
         <f t="shared" si="18"/>
         <v>13</v>
       </c>
-      <c r="AT24" s="25">
+      <c r="AT24" s="23">
         <f>ROUND($B$11+ROUND($R$2*(1+I2+M2),0)*D2+$R$3*(1+I3+M3)*D3+$R$4*(1+I4+M4)*D4+$R$5*(1+I5+M5)*D5+$R$6*(1+I6+M6)*D6,2)</f>
         <v>1.55</v>
       </c>
-      <c r="AU24" s="25">
+      <c r="AU24" s="23">
         <f>ROUND($B$10*(1+$R$2*(1+I2+M2)*E2+$R$3*(1+I3+M3)*E3+ROUND($R$4*(1+I4+M4),0)*E4+$R$5*(1+I5+M5)*E5+$R$6*(1+I6+M6)*E6),0)</f>
         <v>600</v>
       </c>
-      <c r="AW24" s="24" t="s">
+      <c r="AW24" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AX24" s="24">
+      <c r="AX24" s="22">
         <f>ROUND($B$8*(1+$R$2*(1+J2+M2)*B2+$R$3*(1+J3+M3)*B3+$R$4*(1+J4+M4)*B4+$R$5*(1+J5+M5)*B5+$R$6*(1+J6+M6)*B6),0)</f>
         <v>238</v>
       </c>
-      <c r="AY24" s="24">
+      <c r="AY24" s="22">
         <f>ROUND($B$9*(1+$R$2*(1+J2+M2)*C2+$R$3*(1+J3+M3)*C3+$R$4*(1+J4+M4)*C4+$R$5*(1+J5+M5)*C5+$R$6*(1+J6+M6)*C6),0)</f>
         <v>52</v>
       </c>
-      <c r="AZ24" s="24">
+      <c r="AZ24" s="22">
         <f t="shared" si="19"/>
         <v>12</v>
       </c>
-      <c r="BA24" s="25">
+      <c r="BA24" s="23">
         <f>ROUND($B$11+ROUND($R$2*(1+J2+M2),0)*D2+$R$3*(1+J3+M3)*D3+$R$4*(1+J4+M4)*D4+$R$5*(1+J5+M5)*D5+$R$6*(1+J6+M6)*D6,2)</f>
         <v>1.45</v>
       </c>
-      <c r="BB24" s="25">
+      <c r="BB24" s="23">
         <f>ROUND($B$10*(1+$R$2*(1+J2+M2)*E2+$R$3*(1+J3+M3)*E3+ROUND($R$4*(1+J4+M4),0)*E4+$R$5*(1+J5+M5)*E5+$R$6*(1+J6+M6)*E6),0)</f>
         <v>550</v>
       </c>
     </row>
     <row r="25" spans="21:54" x14ac:dyDescent="0.2">
-      <c r="U25" s="24" t="s">
+      <c r="U25" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="V25" s="25">
+      <c r="V25" s="23">
         <f>ROUND($B$8*(1+$R$2*(1+F2+N2)*B2+ROUND($R$3*(1+F3+N3),0)*B3+$R$4*(1+F4+N4)*B4+$R$5*(1+F5+N5)*B5+$R$6*(1+F6+N6)*B6),0)</f>
         <v>203</v>
       </c>
-      <c r="W25" s="24">
+      <c r="W25" s="22">
         <f>ROUND($B$9*(1+$R$2*(1+F2+N2)*C2+$R$3*(1+F3+N3)*C3+$R$4*(1+F4+N4)*C4+$R$5*(1+F5+N5)*C5+$R$6*(1+F6+N6)*C6),0)</f>
         <v>50</v>
       </c>
-      <c r="X25" s="24">
+      <c r="X25" s="22">
         <f t="shared" si="15"/>
         <v>13</v>
       </c>
-      <c r="Y25" s="24">
+      <c r="Y25" s="22">
         <f>ROUND($B$11+$R$2*(1+F2+N2)*D2+$R$3*(1+F3+N3)*D3+$R$4*(1+F4+N4)*D4+$R$5*(1+F5+N5)*D5+$R$6*(1+F6+N6)*D6,2)</f>
         <v>1.52</v>
       </c>
-      <c r="Z25" s="24">
+      <c r="Z25" s="22">
         <f>ROUND($B$10*(1+$R$2*(1+F2+N2)*E2+$R$3*(1+F3+N3)*E3+$R$4*(1+F4+N4)*E4+$R$5*(1+F5+N5)*E5+$R$6*(1+F6+N6)*E6),0)</f>
         <v>600</v>
       </c>
-      <c r="AB25" s="24" t="s">
+      <c r="AB25" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AC25" s="25">
+      <c r="AC25" s="23">
         <f>ROUND($B$8*(1+$R$2*(1+G2+N2)*B2+ROUND($R$3*(1+G3+N3),0)*B3+$R$4*(1+G4+N4)*B4+$R$5*(1+G5+N5)*B5+$R$6*(1+G6+N6)*B6),0)</f>
         <v>219</v>
       </c>
-      <c r="AD25" s="24">
+      <c r="AD25" s="22">
         <f>ROUND($B$9*(1+$R$2*(1+G2+N2)*C2+$R$3*(1+G3+N3)*C3+$R$4*(1+G4+N4)*C4+$R$5*(1+G5+N5)*C5+$R$6*(1+G6+N6)*C6),0)</f>
         <v>49</v>
       </c>
-      <c r="AE25" s="24">
+      <c r="AE25" s="22">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AF25" s="24">
+      <c r="AF25" s="22">
         <f>ROUND($B$11+$R$2*(1+G2+N2)*D2+$R$3*(1+G3+N3)*D3+$R$4*(1+G4+N4)*D4+$R$5*(1+G5+N5)*D5+$R$6*(1+G6+N6)*D6,2)</f>
         <v>1.32</v>
       </c>
-      <c r="AG25" s="24">
+      <c r="AG25" s="22">
         <f>ROUND($B$10*(1+$R$2*(1+G2+N2)*E2+$R$3*(1+G3+N3)*E3+$R$4*(1+G4+N4)*E4+$R$5*(1+G5+N5)*E5+$R$6*(1+G6+N6)*E6),0)</f>
         <v>550</v>
       </c>
-      <c r="AI25" s="24" t="s">
+      <c r="AI25" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AJ25" s="25">
+      <c r="AJ25" s="23">
         <f>ROUND($B$8*(1+$R$2*(1+H2+N2)*B2+ROUND($R$3*(1+H3+N3),0)*B3+$R$4*(1+H4+N4)*B4+$R$5*(1+H5+N5)*B5+$R$6*(1+H6+N6)*B6),0)</f>
         <v>211</v>
       </c>
-      <c r="AK25" s="24">
+      <c r="AK25" s="22">
         <f>ROUND($B$9*(1+$R$2*(1+H2+N2)*C2+$R$3*(1+H3+N3)*C3+$R$4*(1+H4+N4)*C4+$R$5*(1+H5+N5)*C5+$R$6*(1+H6+N6)*C6),0)</f>
         <v>50</v>
       </c>
-      <c r="AL25" s="24">
+      <c r="AL25" s="22">
         <f t="shared" si="17"/>
         <v>12</v>
       </c>
-      <c r="AM25" s="25">
+      <c r="AM25" s="23">
         <f>ROUND($B$11+ROUND($R$2*(1+H2+N2),0)*D2+$R$3*(1+H3+N3)*D3+$R$4*(1+H4+N4)*D4+$R$5*(1+H5+N5)*D5+$R$6*(1+H6+N6)*D6,2)</f>
         <v>1.43</v>
       </c>
-      <c r="AN25" s="25">
+      <c r="AN25" s="23">
         <f>ROUND($B$10*(1+$R$2*(1+H2+N2)*E2+$R$3*(1+H3+N3)*E3+ROUND($R$4*(1+H4+N4),0)*E4+$R$5*(1+H5+N5)*E5+$R$6*(1+H6+N6)*E6),0)</f>
         <v>580</v>
       </c>
-      <c r="AP25" s="24" t="s">
+      <c r="AP25" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AQ25" s="25">
+      <c r="AQ25" s="23">
         <f>ROUND($B$8*(1+$R$2*(1+I2+N2)*B2+ROUND($R$3*(1+I3+N3),0)*B3+$R$4*(1+I4+N4)*B4+$R$5*(1+I5+N5)*B5+$R$6*(1+I6+N6)*B6),0)</f>
         <v>211</v>
       </c>
-      <c r="AR25" s="24">
+      <c r="AR25" s="22">
         <f>ROUND($B$9*(1+$R$2*(1+I2+N2)*C2+$R$3*(1+I3+N3)*C3+$R$4*(1+I4+N4)*C4+$R$5*(1+I5+N5)*C5+$R$6*(1+I6+N6)*C6),0)</f>
         <v>51</v>
       </c>
-      <c r="AS25" s="24">
+      <c r="AS25" s="22">
         <f t="shared" si="18"/>
         <v>13</v>
       </c>
-      <c r="AT25" s="25">
+      <c r="AT25" s="23">
         <f>ROUND($B$11+ROUND($R$2*(1+I2+N2),0)*D2+$R$3*(1+I3+N3)*D3+$R$4*(1+I4+N4)*D4+$R$5*(1+I5+N5)*D5+$R$6*(1+I6+N6)*D6,2)</f>
         <v>1.57</v>
       </c>
-      <c r="AU25" s="25">
+      <c r="AU25" s="23">
         <f>ROUND($B$10*(1+$R$2*(1+I2+N2)*E2+$R$3*(1+I3+N3)*E3+ROUND($R$4*(1+I4+N4),0)*E4+$R$5*(1+I5+N5)*E5+$R$6*(1+I6+N6)*E6),0)</f>
         <v>600</v>
       </c>
-      <c r="AW25" s="24" t="s">
+      <c r="AW25" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AX25" s="25">
+      <c r="AX25" s="23">
         <f>ROUND($B$8*(1+$R$2*(1+J2+N2)*B2+ROUND($R$3*(1+J3+N3),0)*B3+$R$4*(1+J4+N4)*B4+ROUND($R$5*(1+J5+N5),0)*B5+$R$6*(1+J6+N6)*B6),0)</f>
         <v>242</v>
       </c>
-      <c r="AY25" s="24">
+      <c r="AY25" s="22">
         <f>ROUND($B$9*(1+$R$2*(1+J2+N2)*C2+$R$3*(1+J3+N3)*C3+$R$4*(1+J4+N4)*C4+$R$5*(1+J5+N5)*C5+$R$6*(1+J6+N6)*C6),0)</f>
         <v>52</v>
       </c>
-      <c r="AZ25" s="24">
+      <c r="AZ25" s="22">
         <f t="shared" si="19"/>
         <v>12</v>
       </c>
-      <c r="BA25" s="25">
+      <c r="BA25" s="23">
         <f>ROUND($B$11+ROUND($R$2*(1+J2+N2),0)*D2+$R$3*(1+J3+N3)*D3+$R$4*(1+J4+N4)*D4+$R$5*(1+J5+N5)*D5+$R$6*(1+J6+N6)*D6,2)</f>
         <v>1.47</v>
       </c>
-      <c r="BB25" s="25">
+      <c r="BB25" s="23">
         <f>ROUND($B$10*(1+$R$2*(1+J2+N2)*E2+$R$3*(1+J3+N3)*E3+ROUND($R$4*(1+J4+N4),0)*E4+$R$5*(1+J5+N5)*E5+$R$6*(1+J6+N6)*E6),0)</f>
         <v>550</v>
       </c>
     </row>
     <row r="27" spans="21:54" x14ac:dyDescent="0.2">
-      <c r="U27" s="24" t="s">
+      <c r="U27" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="V27" s="24" t="s">
+      <c r="V27" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="W27" s="24" t="s">
+      <c r="W27" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="X27" s="24" t="s">
+      <c r="X27" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="Y27" s="24" t="s">
+      <c r="Y27" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="Z27" s="24" t="s">
+      <c r="Z27" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AB27" s="24" t="s">
+      <c r="AB27" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AC27" s="24" t="s">
+      <c r="AC27" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AD27" s="24" t="s">
+      <c r="AD27" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AE27" s="24" t="s">
+      <c r="AE27" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AF27" s="24" t="s">
+      <c r="AF27" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AG27" s="24" t="s">
+      <c r="AG27" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AI27" s="24" t="s">
+      <c r="AI27" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AJ27" s="24" t="s">
+      <c r="AJ27" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AK27" s="24" t="s">
+      <c r="AK27" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AL27" s="24" t="s">
+      <c r="AL27" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AM27" s="24" t="s">
+      <c r="AM27" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AN27" s="24" t="s">
+      <c r="AN27" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AP27" s="24" t="s">
+      <c r="AP27" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AQ27" s="24" t="s">
+      <c r="AQ27" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AR27" s="24" t="s">
+      <c r="AR27" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AS27" s="24" t="s">
+      <c r="AS27" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AT27" s="24" t="s">
+      <c r="AT27" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AU27" s="24" t="s">
+      <c r="AU27" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AW27" s="24" t="s">
+      <c r="AW27" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AX27" s="24" t="s">
+      <c r="AX27" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AY27" s="24" t="s">
+      <c r="AY27" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AZ27" s="24" t="s">
+      <c r="AZ27" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="BA27" s="24" t="s">
+      <c r="BA27" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="BB27" s="24" t="s">
+      <c r="BB27" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="21:54" x14ac:dyDescent="0.2">
-      <c r="U28" s="24" t="s">
+      <c r="U28" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="34">
+      <c r="V28" s="32">
         <f>ROUND($B$8*(1+$S$2*(1+F2+K2)*B2+$S$3*(1+F3+K3)*B3+$S$4*(1+F4+K4)*B4+$S$5*(1+F5+K5)*B5+$S$6*(1+F6+K6)*B6),0)</f>
         <v>320</v>
       </c>
-      <c r="W28" s="24">
+      <c r="W28" s="22">
         <f>ROUND($B$9*(1+$S$2*(1+F2+K2)*C2+$S$3*(1+F3+K3)*C3+$S$4*(1+F4+K4)*C4+$S$5*(1+F5+K5)*C5+$S$6*(1+F6+K6)*C6),0)</f>
         <v>80</v>
       </c>
-      <c r="X28" s="24">
+      <c r="X28" s="22">
         <f>ROUND($B$12*(1+Y28),0)</f>
         <v>20</v>
       </c>
-      <c r="Y28" s="24">
+      <c r="Y28" s="22">
         <f>ROUND($B$11+$S$2*(1+F2+K2)*D2+$S$3*(1+F3+K3)*D3+$S$4*(1+F4+K4)*D4+$S$5*(1+F5+K5)*D5+$S$6*(1+F6+K6)*D6,2)</f>
         <v>3</v>
       </c>
-      <c r="Z28" s="33">
+      <c r="Z28" s="31">
         <f>ROUND($B$10*(1+$S$2*(1+F2+K2)*E2+$S$3*(1+F3+K3)*E3+$S$4*(1+F4+K4)*E4+$S$5*(1+F5+K5)*E5+$S$6*(1+F6+K6)*E6),0)</f>
         <v>1110</v>
       </c>
-      <c r="AB28" s="24" t="s">
+      <c r="AB28" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AC28" s="24">
+      <c r="AC28" s="22">
         <f>ROUND($B$8*(1+$S$2*(1+G2+K2)*B2+$S$3*(1+G3+K3)*B3+$S$4*(1+G4+K4)*B4+$S$5*(1+G5+K5)*B5+$S$6*(1+G6+K6)*B6),0)</f>
         <v>352</v>
       </c>
-      <c r="AD28" s="34">
+      <c r="AD28" s="32">
         <f>ROUND($B$9*(1+$S$2*(1+G2+K2)*C2+$S$3*(1+G3+K3)*C3+$S$4*(1+G4+K4)*C4+$S$5*(1+G5+K5)*C5+$S$6*(1+G6+K6)*C6),0)</f>
         <v>78</v>
       </c>
-      <c r="AE28" s="34">
+      <c r="AE28" s="32">
         <f t="shared" ref="AE28:AE30" si="20">ROUND($B$12*(1+AF28),0)</f>
         <v>18</v>
       </c>
-      <c r="AF28" s="34">
+      <c r="AF28" s="32">
         <f>ROUND($B$11+$S$2*(1+G2+K2)*D2+$S$3*(1+G3+K3)*D3+$S$4*(1+G4+K4)*D4+$S$5*(1+G5+K5)*D5+$S$6*(1+G6+K6)*D6,2)</f>
         <v>2.6</v>
       </c>
-      <c r="AG28" s="24">
+      <c r="AG28" s="22">
         <f>ROUND($B$10*(1+$S$2*(1+G2+K2)*E2+$S$3*(1+G3+K3)*E3+$S$4*(1+G4+K4)*E4+$S$5*(1+G5+K5)*E5+$S$6*(1+G6+K6)*E6),0)</f>
         <v>1010</v>
       </c>
-      <c r="AI28" s="24" t="s">
+      <c r="AI28" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AJ28" s="24">
+      <c r="AJ28" s="22">
         <f>ROUND($B$8*(1+$S$2*(1+H2+K2)*B2+$S$3*(1+H3+K3)*B3+$S$4*(1+H4+K4)*B4+$S$5*(1+H5+K5)*B5+$S$6*(1+H6+K6)*B6),0)</f>
         <v>336</v>
       </c>
-      <c r="AK28" s="24">
+      <c r="AK28" s="22">
         <f>ROUND($B$9*(1+$S$2*(1+H2+K2)*C2+$S$3*(1+H3+K3)*C3+$S$4*(1+H4+K4)*C4+$S$5*(1+H5+K5)*C5+$S$6*(1+H6+K6)*C6),0)</f>
         <v>79</v>
       </c>
-      <c r="AL28" s="24">
+      <c r="AL28" s="22">
         <f t="shared" ref="AL28:AL31" si="21">ROUND($B$12*(1+AM28),0)</f>
         <v>19</v>
       </c>
-      <c r="AM28" s="24">
+      <c r="AM28" s="22">
         <f>ROUND($B$11+$S$2*(1+H2+K2)*D2+$S$3*(1+H3+K3)*D3+$S$4*(1+H4+K4)*D4+$S$5*(1+H5+K5)*D5+$S$6*(1+H6+K6)*D6,2)</f>
         <v>2.8</v>
       </c>
-      <c r="AN28" s="24">
+      <c r="AN28" s="22">
         <f>ROUND($B$10*(1+$S$2*(1+H2+K2)*E2+$S$3*(1+H3+K3)*E3+$S$4*(1+H4+K4)*E4+$S$5*(1+H5+K5)*E5+$S$6*(1+H6+K6)*E6),0)</f>
         <v>1060</v>
       </c>
-      <c r="AP28" s="24" t="s">
+      <c r="AP28" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AQ28" s="24">
+      <c r="AQ28" s="22">
         <f>ROUND($B$8*(1+$S$2*(1+I2+K2)*B2+$S$3*(1+I3+K3)*B3+$S$4*(1+I4+K4)*B4+$S$5*(1+I5+K5)*B5+$S$6*(1+I6+K6)*B6),0)</f>
         <v>336</v>
       </c>
-      <c r="AR28" s="24">
+      <c r="AR28" s="22">
         <f>ROUND($B$9*(1+$S$2*(1+I2+K2)*C2+$S$3*(1+I3+K3)*C3+$S$4*(1+I4+K4)*C4+$S$5*(1+I5+K5)*C5+$S$6*(1+I6+K6)*C6),0)</f>
         <v>82</v>
       </c>
-      <c r="AS28" s="33">
+      <c r="AS28" s="31">
         <f t="shared" ref="AS28:AS31" si="22">ROUND($B$12*(1+AT28),0)</f>
         <v>21</v>
       </c>
-      <c r="AT28" s="24">
+      <c r="AT28" s="22">
         <f>ROUND($B$11+$S$2*(1+I2+K2)*D2+$S$3*(1+I3+K3)*D3+$S$4*(1+I4+K4)*D4+$S$5*(1+I5+K5)*D5+$S$6*(1+I6+K6)*D6,2)</f>
         <v>3.1</v>
       </c>
-      <c r="AU28" s="24">
+      <c r="AU28" s="22">
         <f>ROUND($B$10*(1+$S$2*(1+I2+K2)*E2+$S$3*(1+I3+K3)*E3+$S$4*(1+I4+K4)*E4+$S$5*(1+I5+K5)*E5+$S$6*(1+I6+K6)*E6),0)</f>
         <v>1100</v>
       </c>
-      <c r="AW28" s="24" t="s">
+      <c r="AW28" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AX28" s="24">
+      <c r="AX28" s="22">
         <f>ROUND($B$8*(1+$S$2*(1+J2+K2)*B2+$S$3*(1+J3+K3)*B3+$S$4*(1+J4+K4)*B4+$S$5*(1+J5+K5)*B5+$S$6*(1+J6+K6)*B6),0)</f>
         <v>396</v>
       </c>
-      <c r="AY28" s="24">
+      <c r="AY28" s="22">
         <f>ROUND($B$9*(1+$S$2*(1+J2+K2)*C2+$S$3*(1+J3+K3)*C3+$S$4*(1+J4+K4)*C4+$S$5*(1+J5+K5)*C5+$S$6*(1+J6+K6)*C6),0)</f>
         <v>83</v>
       </c>
-      <c r="AZ28" s="24">
+      <c r="AZ28" s="22">
         <f t="shared" ref="AZ28:AZ31" si="23">ROUND($B$12*(1+BA28),0)</f>
         <v>20</v>
       </c>
-      <c r="BA28" s="24">
+      <c r="BA28" s="22">
         <f>ROUND($B$11+$S$2*(1+J2+K2)*D2+$S$3*(1+J3+K3)*D3+$S$4*(1+J4+K4)*D4+$S$5*(1+J5+K5)*D5+$S$6*(1+J6+K6)*D6,2)</f>
         <v>2.9</v>
       </c>
-      <c r="BB28" s="24">
+      <c r="BB28" s="22">
         <f>ROUND($B$10*(1+$S$2*(1+J2+K2)*E2+$S$3*(1+J3+K3)*E3+$S$4*(1+J4+K4)*E4+$S$5*(1+J5+K5)*E5+$S$6*(1+J6+K6)*E6),0)</f>
         <v>1010</v>
       </c>
     </row>
     <row r="29" spans="21:54" x14ac:dyDescent="0.2">
-      <c r="U29" s="24" t="s">
+      <c r="U29" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="V29" s="34">
+      <c r="V29" s="32">
         <f>ROUND($B$8*(1+$S$2*(1+F2+L2)*B2+$S$3*(1+F3+L3)*B3+$S$4*(1+F4+L4)*B4+$S$5*(1+F5+L5)*B5+$S$6*(1+F6+L6)*B6),0)</f>
         <v>320</v>
       </c>
-      <c r="W29" s="24">
+      <c r="W29" s="22">
         <f>ROUND($B$9*(1+$S$2*(1+F2+L2)*C2+$S$3*(1+F3+L3)*C3+$S$4*(1+F4+L4)*C4+$S$5*(1+F5+L5)*C5+$S$6*(1+F6+L6)*C6),0)</f>
         <v>81</v>
       </c>
-      <c r="X29" s="24">
+      <c r="X29" s="22">
         <f t="shared" ref="X29:X31" si="24">ROUND($B$12*(1+Y29),0)</f>
         <v>20</v>
       </c>
-      <c r="Y29" s="24">
+      <c r="Y29" s="22">
         <f>ROUND($B$11+$S$2*(1+F2+L2)*D2+$S$3*(1+F3+L3)*D3+$S$4*(1+F4+L4)*D4+$S$5*(1+F5+L5)*D5+$S$6*(1+F6+L6)*D6,2)</f>
         <v>3.06</v>
       </c>
-      <c r="Z29" s="24">
+      <c r="Z29" s="22">
         <f>ROUND($B$10*(1+$S$2*(1+F2+L2)*E2+$S$3*(1+F3+L3)*E3+$S$4*(1+F4+L4)*E4+$S$5*(1+F5+L5)*E5+$S$6*(1+F6+L6)*E6),0)</f>
         <v>1100</v>
       </c>
-      <c r="AB29" s="24" t="s">
+      <c r="AB29" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AC29" s="24">
+      <c r="AC29" s="22">
         <f>ROUND($B$8*(1+$S$2*(1+G2+L2)*B2+$S$3*(1+G3+L3)*B3+$S$4*(1+G4+L4)*B4+$S$5*(1+G5+L5)*B5+$S$6*(1+G6+L6)*B6),0)</f>
         <v>352</v>
       </c>
-      <c r="AD29" s="24">
+      <c r="AD29" s="22">
         <f>ROUND($B$9*(1+$S$2*(1+G2+L2)*C2+$S$3*(1+G3+L3)*C3+$S$4*(1+G4+L4)*C4+$S$5*(1+G5+L5)*C5+$S$6*(1+G6+L6)*C6),0)</f>
         <v>79</v>
       </c>
-      <c r="AE29" s="34">
+      <c r="AE29" s="32">
         <f t="shared" si="20"/>
         <v>18</v>
       </c>
-      <c r="AF29" s="24">
+      <c r="AF29" s="22">
         <f>ROUND($B$11+$S$2*(1+G2+L2)*D2+$S$3*(1+G3+L3)*D3+$S$4*(1+G4+L4)*D4+$S$5*(1+G5+L5)*D5+$S$6*(1+G6+L6)*D6,2)</f>
         <v>2.66</v>
       </c>
-      <c r="AG29" s="34">
+      <c r="AG29" s="32">
         <f>ROUND($B$10*(1+$S$2*(1+G2+L2)*E2+$S$3*(1+G3+L3)*E3+$S$4*(1+G4+L4)*E4+$S$5*(1+G5+L5)*E5+$S$6*(1+G6+L6)*E6),0)</f>
         <v>1000</v>
       </c>
-      <c r="AI29" s="24" t="s">
+      <c r="AI29" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AJ29" s="24">
+      <c r="AJ29" s="22">
         <f>ROUND($B$8*(1+$S$2*(1+H2+L2)*B2+$S$3*(1+H3+L3)*B3+$S$4*(1+H4+L4)*B4+$S$5*(1+H5+L5)*B5+$S$6*(1+H6+L6)*B6),0)</f>
         <v>336</v>
       </c>
-      <c r="AK29" s="24">
+      <c r="AK29" s="22">
         <f>ROUND($B$9*(1+$S$2*(1+H2+L2)*C2+$S$3*(1+H3+L3)*C3+$S$4*(1+H4+L4)*C4+$S$5*(1+H5+L5)*C5+$S$6*(1+H6+L6)*C6),0)</f>
         <v>80</v>
       </c>
-      <c r="AL29" s="24">
+      <c r="AL29" s="22">
         <f t="shared" si="21"/>
         <v>19</v>
       </c>
-      <c r="AM29" s="24">
+      <c r="AM29" s="22">
         <f>ROUND($B$11+$S$2*(1+H2+L2)*D2+$S$3*(1+H3+L3)*D3+$S$4*(1+H4+L4)*D4+$S$5*(1+H5+L5)*D5+$S$6*(1+H6+L6)*D6,2)</f>
         <v>2.86</v>
       </c>
-      <c r="AN29" s="24">
+      <c r="AN29" s="22">
         <f>ROUND($B$10*(1+$S$2*(1+H2+L2)*E2+$S$3*(1+H3+L3)*E3+$S$4*(1+H4+L4)*E4+$S$5*(1+H5+L5)*E5+$S$6*(1+H6+L6)*E6),0)</f>
         <v>1050</v>
       </c>
-      <c r="AP29" s="24" t="s">
+      <c r="AP29" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AQ29" s="24">
+      <c r="AQ29" s="22">
         <f>ROUND($B$8*(1+$S$2*(1+I2+L2)*B2+$S$3*(1+I3+L3)*B3+$S$4*(1+I4+L4)*B4+$S$5*(1+I5+L5)*B5+$S$6*(1+I6+L6)*B6),0)</f>
         <v>336</v>
       </c>
-      <c r="AR29" s="24">
+      <c r="AR29" s="22">
         <f>ROUND($B$9*(1+$S$2*(1+I2+L2)*C2+$S$3*(1+I3+L3)*C3+$S$4*(1+I4+L4)*C4+$S$5*(1+I5+L5)*C5+$S$6*(1+I6+L6)*C6),0)</f>
         <v>83</v>
       </c>
-      <c r="AS29" s="33">
+      <c r="AS29" s="31">
         <f t="shared" si="22"/>
         <v>21</v>
       </c>
-      <c r="AT29" s="33">
+      <c r="AT29" s="31">
         <f>ROUND($B$11+$S$2*(1+I2+L2)*D2+$S$3*(1+I3+L3)*D3+$S$4*(1+I4+L4)*D4+$S$5*(1+I5+L5)*D5+$S$6*(1+I6+L6)*D6,2)</f>
         <v>3.16</v>
       </c>
-      <c r="AU29" s="24">
+      <c r="AU29" s="22">
         <f>ROUND($B$10*(1+$S$2*(1+I2+L2)*E2+$S$3*(1+I3+L3)*E3+$S$4*(1+I4+L4)*E4+$S$5*(1+I5+L5)*E5+$S$6*(1+I6+L6)*E6),0)</f>
         <v>1090</v>
       </c>
-      <c r="AW29" s="24" t="s">
+      <c r="AW29" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AX29" s="24">
+      <c r="AX29" s="22">
         <f>ROUND($B$8*(1+$S$2*(1+J2+L2)*B2+$S$3*(1+J3+L3)*B3+$S$4*(1+J4+L4)*B4+$S$5*(1+J5+L5)*B5+$S$6*(1+J6+L6)*B6),0)</f>
         <v>396</v>
       </c>
-      <c r="AY29" s="33">
+      <c r="AY29" s="31">
         <f>ROUND($B$9*(1+$S$2*(1+J2+L2)*C2+$S$3*(1+J3+L3)*C3+$S$4*(1+J4+L4)*C4+$S$5*(1+J5+L5)*C5+$S$6*(1+J6+L6)*C6),0)</f>
         <v>84</v>
       </c>
-      <c r="AZ29" s="24">
+      <c r="AZ29" s="22">
         <f t="shared" si="23"/>
         <v>20</v>
       </c>
-      <c r="BA29" s="24">
+      <c r="BA29" s="22">
         <f>ROUND($B$11+$S$2*(1+J2+L2)*D2+$S$3*(1+J3+L3)*D3+$S$4*(1+J4+L4)*D4+$S$5*(1+J5+L5)*D5+$S$6*(1+J6+L6)*D6,2)</f>
         <v>2.96</v>
       </c>
-      <c r="BB29" s="34">
+      <c r="BB29" s="32">
         <f>ROUND($B$10*(1+$S$2*(1+J2+L2)*E2+$S$3*(1+J3+L3)*E3+$S$4*(1+J4+L4)*E4+$S$5*(1+J5+L5)*E5+$S$6*(1+J6+L6)*E6),0)</f>
         <v>1000</v>
       </c>
     </row>
     <row r="30" spans="21:54" x14ac:dyDescent="0.2">
-      <c r="U30" s="24" t="s">
+      <c r="U30" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="V30" s="34">
+      <c r="V30" s="32">
         <f>ROUND($B$8*(1+$S$2*(1+F2+M2)*B2+$S$3*(1+F3+M3)*B3+$S$4*(1+F4+M4)*B4+$S$5*(1+F5+M5)*B5+$S$6*(1+F6+M6)*B6),0)</f>
         <v>320</v>
       </c>
-      <c r="W30" s="24">
+      <c r="W30" s="22">
         <f>ROUND($B$9*(1+$S$2*(1+F2+M2)*C2+$S$3*(1+F3+M3)*C3+$S$4*(1+F4+M4)*C4+$S$5*(1+F5+M5)*C5+$S$6*(1+F6+M6)*C6),0)</f>
         <v>80</v>
       </c>
-      <c r="X30" s="24">
+      <c r="X30" s="22">
         <f t="shared" si="24"/>
         <v>20</v>
       </c>
-      <c r="Y30" s="24">
+      <c r="Y30" s="22">
         <f>ROUND($B$11+$S$2*(1+F2+M2)*D2+$S$3*(1+F3+M3)*D3+$S$4*(1+F4+M4)*D4+$S$5*(1+F5+M5)*D5+$S$6*(1+F6+M6)*D6,2)</f>
         <v>3</v>
       </c>
-      <c r="Z30" s="24">
+      <c r="Z30" s="22">
         <f>ROUND($B$10*(1+$S$2*(1+F2+M2)*E2+$S$3*(1+F3+M3)*E3+$S$4*(1+F4+M4)*E4+$S$5*(1+F5+M5)*E5+$S$6*(1+F6+M6)*E6),0)</f>
         <v>1100</v>
       </c>
-      <c r="AB30" s="24" t="s">
+      <c r="AB30" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AC30" s="24">
+      <c r="AC30" s="22">
         <f>ROUND($B$8*(1+$S$2*(1+G2+M2)*B2+$S$3*(1+G3+M3)*B3+$S$4*(1+G4+M4)*B4+$S$5*(1+G5+M5)*B5+$S$6*(1+G6+M6)*B6),0)</f>
         <v>352</v>
       </c>
-      <c r="AD30" s="34">
+      <c r="AD30" s="32">
         <f>ROUND($B$9*(1+$S$2*(1+G2+M2)*C2+$S$3*(1+G3+M3)*C3+$S$4*(1+G4+M4)*C4+$S$5*(1+G5+M5)*C5+$S$6*(1+G6+M6)*C6),0)</f>
         <v>78</v>
       </c>
-      <c r="AE30" s="34">
+      <c r="AE30" s="32">
         <f t="shared" si="20"/>
         <v>18</v>
       </c>
-      <c r="AF30" s="34">
+      <c r="AF30" s="32">
         <f>ROUND($B$11+$S$2*(1+G2+M2)*D2+$S$3*(1+G3+M3)*D3+$S$4*(1+G4+M4)*D4+$S$5*(1+G5+M5)*D5+$S$6*(1+G6+M6)*D6,2)</f>
         <v>2.6</v>
       </c>
-      <c r="AG30" s="34">
+      <c r="AG30" s="32">
         <f>ROUND($B$10*(1+$S$2*(1+G2+M2)*E2+$S$3*(1+G3+M3)*E3+$S$4*(1+G4+M4)*E4+$S$5*(1+G5+M5)*E5+$S$6*(1+G6+M6)*E6),0)</f>
         <v>1000</v>
       </c>
-      <c r="AI30" s="24" t="s">
+      <c r="AI30" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AJ30" s="24">
+      <c r="AJ30" s="22">
         <f>ROUND($B$8*(1+$S$2*(1+H2+M2)*B2+$S$3*(1+H3+M3)*B3+$S$4*(1+H4+M4)*B4+$S$5*(1+H5+M5)*B5+$S$6*(1+H6+M6)*B6),0)</f>
         <v>336</v>
       </c>
-      <c r="AK30" s="24">
+      <c r="AK30" s="22">
         <f>ROUND($B$9*(1+$S$2*(1+H2+M2)*C2+$S$3*(1+H3+M3)*C3+$S$4*(1+H4+M4)*C4+$S$5*(1+H5+M5)*C5+$S$6*(1+H6+M6)*C6),0)</f>
         <v>79</v>
       </c>
-      <c r="AL30" s="24">
+      <c r="AL30" s="22">
         <f t="shared" si="21"/>
         <v>19</v>
       </c>
-      <c r="AM30" s="24">
+      <c r="AM30" s="22">
         <f>ROUND($B$11+$S$2*(1+H2+M2)*D2+$S$3*(1+H3+M3)*D3+$S$4*(1+H4+M4)*D4+$S$5*(1+H5+M5)*D5+$S$6*(1+H6+M6)*D6,2)</f>
         <v>2.8</v>
       </c>
-      <c r="AN30" s="24">
+      <c r="AN30" s="22">
         <f>ROUND($B$10*(1+$S$2*(1+H2+M2)*E2+$S$3*(1+H3+M3)*E3+$S$4*(1+H4+M4)*E4+$S$5*(1+H5+M5)*E5+$S$6*(1+H6+M6)*E6),0)</f>
         <v>1050</v>
       </c>
-      <c r="AP30" s="24" t="s">
+      <c r="AP30" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AQ30" s="24">
+      <c r="AQ30" s="22">
         <f>ROUND($B$8*(1+$S$2*(1+I2+M2)*B2+$S$3*(1+I3+M3)*B3+$S$4*(1+I4+M4)*B4+$S$5*(1+I5+M5)*B5+$S$6*(1+I6+M6)*B6),0)</f>
         <v>336</v>
       </c>
-      <c r="AR30" s="24">
+      <c r="AR30" s="22">
         <f>ROUND($B$9*(1+$S$2*(1+I2+M2)*C2+$S$3*(1+I3+M3)*C3+$S$4*(1+I4+M4)*C4+$S$5*(1+I5+M5)*C5+$S$6*(1+I6+M6)*C6),0)</f>
         <v>82</v>
       </c>
-      <c r="AS30" s="33">
+      <c r="AS30" s="31">
         <f t="shared" si="22"/>
         <v>21</v>
       </c>
-      <c r="AT30" s="24">
+      <c r="AT30" s="22">
         <f>ROUND($B$11+$S$2*(1+I2+M2)*D2+$S$3*(1+I3+M3)*D3+$S$4*(1+I4+M4)*D4+$S$5*(1+I5+M5)*D5+$S$6*(1+I6+M6)*D6,2)</f>
         <v>3.1</v>
       </c>
-      <c r="AU30" s="24">
+      <c r="AU30" s="22">
         <f>ROUND($B$10*(1+$S$2*(1+I2+M2)*E2+$S$3*(1+I3+M3)*E3+$S$4*(1+I4+M4)*E4+$S$5*(1+I5+M5)*E5+$S$6*(1+I6+M6)*E6),0)</f>
         <v>1090</v>
       </c>
-      <c r="AW30" s="24" t="s">
+      <c r="AW30" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AX30" s="24">
+      <c r="AX30" s="22">
         <f>ROUND($B$8*(1+$S$2*(1+J2+M2)*B2+$S$3*(1+J3+M3)*B3+$S$4*(1+J4+M4)*B4+$S$5*(1+J5+M5)*B5+$S$6*(1+J6+M6)*B6),0)</f>
         <v>396</v>
       </c>
-      <c r="AY30" s="24">
+      <c r="AY30" s="22">
         <f>ROUND($B$9*(1+$S$2*(1+J2+M2)*C2+$S$3*(1+J3+M3)*C3+$S$4*(1+J4+M4)*C4+$S$5*(1+J5+M5)*C5+$S$6*(1+J6+M6)*C6),0)</f>
         <v>83</v>
       </c>
-      <c r="AZ30" s="24">
+      <c r="AZ30" s="22">
         <f t="shared" si="23"/>
         <v>20</v>
       </c>
-      <c r="BA30" s="24">
+      <c r="BA30" s="22">
         <f>ROUND($B$11+$S$2*(1+J2+M2)*D2+$S$3*(1+J3+M3)*D3+$S$4*(1+J4+M4)*D4+$S$5*(1+J5+M5)*D5+$S$6*(1+J6+M6)*D6,2)</f>
         <v>2.9</v>
       </c>
-      <c r="BB30" s="34">
+      <c r="BB30" s="32">
         <f>ROUND($B$10*(1+$S$2*(1+J2+M2)*E2+$S$3*(1+J3+M3)*E3+$S$4*(1+J4+M4)*E4+$S$5*(1+J5+M5)*E5+$S$6*(1+J6+M6)*E6),0)</f>
         <v>1000</v>
       </c>
     </row>
     <row r="31" spans="21:54" x14ac:dyDescent="0.2">
-      <c r="U31" s="24" t="s">
+      <c r="U31" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="V31" s="24">
+      <c r="V31" s="22">
         <f>ROUND($B$8*(1+$S$2*(1+F2+N2)*B2+$S$3*(1+F3+N3)*B3+$S$4*(1+F4+N4)*B4+$S$5*(1+F5+N5)*B5+$S$6*(1+F6+N6)*B6),0)</f>
         <v>325</v>
       </c>
-      <c r="W31" s="24">
+      <c r="W31" s="22">
         <f>ROUND($B$9*(1+$S$2*(1+F2+N2)*C2+$S$3*(1+F3+N3)*C3+$S$4*(1+F4+N4)*C4+$S$5*(1+F5+N5)*C5+$S$6*(1+F6+N6)*C6),0)</f>
         <v>81</v>
       </c>
-      <c r="X31" s="24">
+      <c r="X31" s="22">
         <f t="shared" si="24"/>
         <v>20</v>
       </c>
-      <c r="Y31" s="24">
+      <c r="Y31" s="22">
         <f>ROUND($B$11+$S$2*(1+F2+N2)*D2+$S$3*(1+F3+N3)*D3+$S$4*(1+F4+N4)*D4+$S$5*(1+F5+N5)*D5+$S$6*(1+F6+N6)*D6,2)</f>
         <v>3.03</v>
       </c>
-      <c r="Z31" s="24">
+      <c r="Z31" s="22">
         <f>ROUND($B$10*(1+$S$2*(1+F2+N2)*E2+$S$3*(1+F3+N3)*E3+$S$4*(1+F4+N4)*E4+$S$5*(1+F5+N5)*E5+$S$6*(1+F6+N6)*E6),0)</f>
         <v>1100</v>
       </c>
-      <c r="AB31" s="24" t="s">
+      <c r="AB31" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AC31" s="24">
+      <c r="AC31" s="22">
         <f>ROUND($B$8*(1+$S$2*(1+G2+N2)*B2+$S$3*(1+G3+N3)*B3+$S$4*(1+G4+N4)*B4+$S$5*(1+G5+N5)*B5+$S$6*(1+G6+N6)*B6),0)</f>
         <v>357</v>
       </c>
-      <c r="AD31" s="24">
+      <c r="AD31" s="22">
         <f>ROUND($B$9*(1+$S$2*(1+G2+N2)*C2+$S$3*(1+G3+N3)*C3+$S$4*(1+G4+N4)*C4+$S$5*(1+G5+N5)*C5+$S$6*(1+G6+N6)*C6),0)</f>
         <v>79</v>
       </c>
-      <c r="AE31" s="34">
+      <c r="AE31" s="32">
         <f>ROUND($B$12*(1+AF31),0)</f>
         <v>18</v>
       </c>
-      <c r="AF31" s="24">
+      <c r="AF31" s="22">
         <f>ROUND($B$11+$S$2*(1+G2+N2)*D2+$S$3*(1+G3+N3)*D3+$S$4*(1+G4+N4)*D4+$S$5*(1+G5+N5)*D5+$S$6*(1+G6+N6)*D6,2)</f>
         <v>2.63</v>
       </c>
-      <c r="AG31" s="34">
+      <c r="AG31" s="32">
         <f>ROUND($B$10*(1+$S$2*(1+G2+N2)*E2+$S$3*(1+G3+N3)*E3+$S$4*(1+G4+N4)*E4+$S$5*(1+G5+N5)*E5+$S$6*(1+G6+N6)*E6),0)</f>
         <v>1000</v>
       </c>
-      <c r="AI31" s="24" t="s">
+      <c r="AI31" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AJ31" s="24">
+      <c r="AJ31" s="22">
         <f>ROUND($B$8*(1+$S$2*(1+H2+N2)*B2+$S$3*(1+H3+N3)*B3+$S$4*(1+H4+N4)*B4+$S$5*(1+H5+N5)*B5+$S$6*(1+H6+N6)*B6),0)</f>
         <v>341</v>
       </c>
-      <c r="AK31" s="24">
+      <c r="AK31" s="22">
         <f>ROUND($B$9*(1+$S$2*(1+H2+N2)*C2+$S$3*(1+H3+N3)*C3+$S$4*(1+H4+N4)*C4+$S$5*(1+H5+N5)*C5+$S$6*(1+H6+N6)*C6),0)</f>
         <v>80</v>
       </c>
-      <c r="AL31" s="24">
+      <c r="AL31" s="22">
         <f t="shared" si="21"/>
         <v>19</v>
       </c>
-      <c r="AM31" s="24">
+      <c r="AM31" s="22">
         <f>ROUND($B$11+$S$2*(1+H2+N2)*D2+$S$3*(1+H3+N3)*D3+$S$4*(1+H4+N4)*D4+$S$5*(1+H5+N5)*D5+$S$6*(1+H6+N6)*D6,2)</f>
         <v>2.83</v>
       </c>
-      <c r="AN31" s="24">
+      <c r="AN31" s="22">
         <f>ROUND($B$10*(1+$S$2*(1+H2+N2)*E2+$S$3*(1+H3+N3)*E3+$S$4*(1+H4+N4)*E4+$S$5*(1+H5+N5)*E5+$S$6*(1+H6+N6)*E6),0)</f>
         <v>1050</v>
       </c>
-      <c r="AP31" s="24" t="s">
+      <c r="AP31" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AQ31" s="24">
+      <c r="AQ31" s="22">
         <f>ROUND($B$8*(1+$S$2*(1+I2+N2)*B2+$S$3*(1+I3+N3)*B3+$S$4*(1+I4+N4)*B4+$S$5*(1+I5+N5)*B5+$S$6*(1+I6+N6)*B6),0)</f>
         <v>341</v>
       </c>
-      <c r="AR31" s="24">
+      <c r="AR31" s="22">
         <f>ROUND($B$9*(1+$S$2*(1+I2+N2)*C2+$S$3*(1+I3+N3)*C3+$S$4*(1+I4+N4)*C4+$S$5*(1+I5+N5)*C5+$S$6*(1+I6+N6)*C6),0)</f>
         <v>83</v>
       </c>
-      <c r="AS31" s="33">
+      <c r="AS31" s="31">
         <f t="shared" si="22"/>
         <v>21</v>
       </c>
-      <c r="AT31" s="24">
+      <c r="AT31" s="22">
         <f>ROUND($B$11+$S$2*(1+I2+N2)*D2+$S$3*(1+I3+N3)*D3+$S$4*(1+I4+N4)*D4+$S$5*(1+I5+N5)*D5+$S$6*(1+I6+N6)*D6,2)</f>
         <v>3.13</v>
       </c>
-      <c r="AU31" s="24">
+      <c r="AU31" s="22">
         <f>ROUND($B$10*(1+$S$2*(1+I2+N2)*E2+$S$3*(1+I3+N3)*E3+$S$4*(1+I4+N4)*E4+$S$5*(1+I5+N5)*E5+$S$6*(1+I6+N6)*E6),0)</f>
         <v>1090</v>
       </c>
-      <c r="AW31" s="24" t="s">
+      <c r="AW31" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AX31" s="33">
+      <c r="AX31" s="31">
         <f>ROUND($B$8*(1+$S$2*(1+J2+N2)*B2+$S$3*(1+J3+N3)*B3+$S$4*(1+J4+N4)*B4+$S$5*(1+J5+N5)*B5+$S$6*(1+J6+N6)*B6),0)</f>
         <v>401</v>
       </c>
-      <c r="AY31" s="33">
+      <c r="AY31" s="31">
         <f>ROUND($B$9*(1+$S$2*(1+J2+N2)*C2+$S$3*(1+J3+N3)*C3+$S$4*(1+J4+N4)*C4+$S$5*(1+J5+N5)*C5+$S$6*(1+J6+N6)*C6),0)</f>
         <v>84</v>
       </c>
-      <c r="AZ31" s="24">
+      <c r="AZ31" s="22">
         <f t="shared" si="23"/>
         <v>20</v>
       </c>
-      <c r="BA31" s="24">
+      <c r="BA31" s="22">
         <f>ROUND($B$11+$S$2*(1+J2+N2)*D2+$S$3*(1+J3+N3)*D3+$S$4*(1+J4+N4)*D4+$S$5*(1+J5+N5)*D5+$S$6*(1+J6+N6)*D6,2)</f>
         <v>2.93</v>
       </c>
-      <c r="BB31" s="34">
+      <c r="BB31" s="32">
         <f>ROUND($B$10*(1+$S$2*(1+J2+N2)*E2+$S$3*(1+J3+N3)*E3+$S$4*(1+J4+N4)*E4+$S$5*(1+J5+N5)*E5+$S$6*(1+J6+N6)*E6),0)</f>
         <v>1000</v>
       </c>
     </row>
     <row r="37" spans="15:26" x14ac:dyDescent="0.2">
-      <c r="U37" s="24" t="s">
+      <c r="U37" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
     </row>
     <row r="38" spans="15:26" x14ac:dyDescent="0.2">
-      <c r="O38" s="22">
+      <c r="O38" s="20">
         <v>5</v>
       </c>
-      <c r="P38" s="22">
+      <c r="P38" s="20">
         <v>5</v>
       </c>
-      <c r="Q38" s="22">
+      <c r="Q38" s="20">
         <v>5</v>
       </c>
-      <c r="R38" s="22">
+      <c r="R38" s="20">
         <v>5</v>
       </c>
-      <c r="S38" s="22">
+      <c r="S38" s="20">
         <v>5</v>
       </c>
-      <c r="U38" s="24" t="s">
+      <c r="U38" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="V38" s="24">
+      <c r="V38" s="22">
         <f>ROUND($B$8*(1+O38*(1+$F$2+$N$2)*$B$2+O39*(1+$F$3+$N$3)*$B$3+O40*(1+$F$4+$N$4)*$B$4+O41*(1+$F$5+$N$5)*$B$5+O42*(1+$F$6+$N$6)*$B$6),0)</f>
         <v>82</v>
       </c>
-      <c r="W38" s="24">
+      <c r="W38" s="22">
         <f t="shared" ref="W38:Z38" si="25">ROUND($B$8*(1+P38*(1+$F$2+$N$2)*$B$2+P39*(1+$F$3+$N$3)*$B$3+P40*(1+$F$4+$N$4)*$B$4+P41*(1+$F$5+$N$5)*$B$5+P42*(1+$F$6+$N$6)*$B$6),0)</f>
         <v>89</v>
       </c>
-      <c r="X38" s="24">
+      <c r="X38" s="22">
         <f t="shared" si="25"/>
         <v>89</v>
       </c>
-      <c r="Y38" s="24">
+      <c r="Y38" s="22">
         <f t="shared" si="25"/>
         <v>92</v>
       </c>
-      <c r="Z38" s="24">
+      <c r="Z38" s="22">
         <f t="shared" si="25"/>
         <v>92</v>
       </c>
     </row>
     <row r="39" spans="15:26" x14ac:dyDescent="0.2">
-      <c r="O39" s="22">
+      <c r="O39" s="20">
         <v>1</v>
       </c>
-      <c r="P39" s="22">
+      <c r="P39" s="20">
         <v>5</v>
       </c>
-      <c r="Q39" s="22">
+      <c r="Q39" s="20">
         <v>5</v>
       </c>
-      <c r="R39" s="22">
+      <c r="R39" s="20">
         <v>5</v>
       </c>
-      <c r="S39" s="22">
+      <c r="S39" s="20">
         <v>5</v>
       </c>
-      <c r="U39" s="24" t="s">
+      <c r="U39" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="V39" s="24">
+      <c r="V39" s="22">
         <f>ROUND($B$9*(1+O38*(1+$F$2+$N$2)*$C$2+O39*(1+$F$3+$N$3)*$C$3+O40*(1+$F$4+$N$4)*$C$4+O41*(1+$F$5+$N$5)*$C$5+O42*(1+$F$6+$N$6)*$C$6),0)</f>
         <v>21</v>
       </c>
-      <c r="W39" s="24">
-        <f t="shared" ref="W39:Z39" si="26">ROUND($B$9*(1+P38*(1+$F$2+$N$2)*$C$2+P39*(1+$F$3+$N$3)*$C$3+P40*(1+$F$4+$N$4)*$C$4+P41*(1+$F$5+$N$5)*$C$5+P42*(1+$F$6+$N$6)*$C$6),0)</f>
+      <c r="W39" s="22">
+        <f t="shared" ref="W39:Y39" si="26">ROUND($B$9*(1+P38*(1+$F$2+$N$2)*$C$2+P39*(1+$F$3+$N$3)*$C$3+P40*(1+$F$4+$N$4)*$C$4+P41*(1+$F$5+$N$5)*$C$5+P42*(1+$F$6+$N$6)*$C$6),0)</f>
         <v>22</v>
       </c>
-      <c r="X39" s="24">
+      <c r="X39" s="22">
         <f t="shared" si="26"/>
         <v>22</v>
       </c>
-      <c r="Y39" s="24">
+      <c r="Y39" s="22">
         <f t="shared" si="26"/>
         <v>23</v>
       </c>
-      <c r="Z39" s="24">
+      <c r="Z39" s="22">
         <f>ROUND($B$9*(1+S38*(1+$F$2+$N$2)*$C$2+S39*(1+$F$3+$N$3)*$C$3+S40*(1+$F$4+$N$4)*$C$4+S41*(1+$F$5+$N$5)*$C$5+S42*(1+$F$6+$N$6)*$C$6),0)</f>
         <v>23</v>
       </c>
     </row>
     <row r="40" spans="15:26" x14ac:dyDescent="0.2">
-      <c r="O40" s="22">
+      <c r="O40" s="20">
         <v>1</v>
       </c>
-      <c r="P40" s="22">
+      <c r="P40" s="20">
         <v>1</v>
       </c>
-      <c r="Q40" s="22">
+      <c r="Q40" s="20">
         <v>5</v>
       </c>
-      <c r="R40" s="22">
+      <c r="R40" s="20">
         <v>5</v>
       </c>
-      <c r="S40" s="22">
+      <c r="S40" s="20">
         <v>5</v>
       </c>
-      <c r="U40" s="24" t="s">
+      <c r="U40" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="V40" s="24">
+      <c r="V40" s="22">
         <f>ROUND($B$12*(1+V41),0)</f>
         <v>6</v>
       </c>
-      <c r="W40" s="24">
+      <c r="W40" s="22">
         <f t="shared" ref="W40:Z40" si="27">ROUND($B$12*(1+W41),0)</f>
         <v>6</v>
       </c>
-      <c r="X40" s="24">
+      <c r="X40" s="22">
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
-      <c r="Y40" s="24">
+      <c r="Y40" s="22">
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
-      <c r="Z40" s="24">
+      <c r="Z40" s="22">
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="15:26" x14ac:dyDescent="0.2">
-      <c r="O41" s="22">
+      <c r="O41" s="20">
         <v>1</v>
       </c>
-      <c r="P41" s="22">
+      <c r="P41" s="20">
         <v>1</v>
       </c>
-      <c r="Q41" s="22">
+      <c r="Q41" s="20">
         <v>1</v>
       </c>
-      <c r="R41" s="22">
+      <c r="R41" s="20">
         <v>5</v>
       </c>
-      <c r="S41" s="22">
+      <c r="S41" s="20">
         <v>5</v>
       </c>
-      <c r="U41" s="24" t="s">
+      <c r="U41" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="V41" s="24">
+      <c r="V41" s="22">
         <f>ROUND($B$11+O38*(1+$F$2+$N$2)*$D$2+O39*(1+$F$3+$N$3)*$D$3+O40*(1+$F$4+$N$4)*$D$4+O41*(1+$F$5+$N$5)*$D$5+O42*(1+$F$6+$N$6)*$D$6,2)</f>
         <v>0.11</v>
       </c>
-      <c r="W41" s="24">
+      <c r="W41" s="22">
         <f t="shared" ref="W41:Z41" si="28">ROUND($B$11+P38*(1+$F$2+$N$2)*$D$2+P39*(1+$F$3+$N$3)*$D$3+P40*(1+$F$4+$N$4)*$D$4+P41*(1+$F$5+$N$5)*$D$5+P42*(1+$F$6+$N$6)*$D$6,2)</f>
         <v>0.15</v>
       </c>
-      <c r="X41" s="24">
+      <c r="X41" s="22">
         <f t="shared" si="28"/>
         <v>0.15</v>
       </c>
-      <c r="Y41" s="24">
+      <c r="Y41" s="22">
         <f t="shared" si="28"/>
         <v>0.15</v>
       </c>
-      <c r="Z41" s="24">
+      <c r="Z41" s="22">
         <f t="shared" si="28"/>
         <v>0.15</v>
       </c>
     </row>
     <row r="42" spans="15:26" x14ac:dyDescent="0.2">
-      <c r="O42" s="22">
+      <c r="O42" s="20">
         <v>1</v>
       </c>
-      <c r="P42" s="22">
+      <c r="P42" s="20">
         <v>1</v>
       </c>
-      <c r="Q42" s="22">
+      <c r="Q42" s="20">
         <v>1</v>
       </c>
-      <c r="R42" s="22">
+      <c r="R42" s="20">
         <v>1</v>
       </c>
-      <c r="S42" s="22">
+      <c r="S42" s="20">
         <v>2</v>
       </c>
-      <c r="U42" s="24" t="s">
+      <c r="U42" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V42" s="24">
+      <c r="V42" s="22">
         <f>ROUND($B$10*(1+O38*(1+$F$2+$N$2)*$E$2+O39*(1+$F$3+$N$3)*$E$3+O40*(1+$F$4+$N$4)*$E$4+O41*(1+$F$5+$N$5)*$E$5+O42*(1+$F$6+$N$6)*$E$6),0)</f>
         <v>110</v>
       </c>
-      <c r="W42" s="24">
+      <c r="W42" s="22">
         <f t="shared" ref="W42:Z42" si="29">ROUND($B$10*(1+P38*(1+$F$2+$N$2)*$E$2+P39*(1+$F$3+$N$3)*$E$3+P40*(1+$F$4+$N$4)*$E$4+P41*(1+$F$5+$N$5)*$E$5+P42*(1+$F$6+$N$6)*$E$6),0)</f>
         <v>110</v>
       </c>
-      <c r="X42" s="24">
+      <c r="X42" s="22">
         <f t="shared" si="29"/>
         <v>150</v>
       </c>
-      <c r="Y42" s="24">
+      <c r="Y42" s="22">
         <f t="shared" si="29"/>
         <v>150</v>
       </c>
-      <c r="Z42" s="24">
+      <c r="Z42" s="22">
         <f t="shared" si="29"/>
         <v>150</v>
       </c>
     </row>
     <row r="44" spans="15:26" x14ac:dyDescent="0.2">
-      <c r="U44" s="24" t="s">
+      <c r="U44" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="V44" s="24"/>
-      <c r="W44" s="24"/>
-      <c r="X44" s="24"/>
-      <c r="Y44" s="24"/>
-      <c r="Z44" s="24"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
     </row>
     <row r="45" spans="15:26" x14ac:dyDescent="0.2">
-      <c r="O45" s="22">
+      <c r="O45" s="20">
         <v>1</v>
       </c>
-      <c r="P45" s="22">
+      <c r="P45" s="20">
         <v>1</v>
       </c>
-      <c r="Q45" s="22">
+      <c r="Q45" s="20">
         <v>4</v>
       </c>
-      <c r="R45" s="22">
+      <c r="R45" s="20">
         <v>5</v>
       </c>
-      <c r="S45" s="22">
+      <c r="S45" s="20">
         <v>5</v>
       </c>
-      <c r="U45" s="24" t="s">
+      <c r="U45" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="V45" s="24">
+      <c r="V45" s="22">
         <f>ROUND($B$8*(1+O45*(1+$F$2+$N$2)*$B$2+O46*(1+$F$3+$N$3)*$B$3+O47*(1+$F$4+$N$4)*$B$4+O48*(1+$F$5+$N$5)*$B$5+O49*(1+$F$6+$N$6)*$B$6),0)</f>
         <v>87</v>
       </c>
-      <c r="W45" s="24">
+      <c r="W45" s="22">
         <f t="shared" ref="W45" si="30">ROUND($B$8*(1+P45*(1+$F$2+$N$2)*$B$2+P46*(1+$F$3+$N$3)*$B$3+P47*(1+$F$4+$N$4)*$B$4+P48*(1+$F$5+$N$5)*$B$5+P49*(1+$F$6+$N$6)*$B$6),0)</f>
         <v>92</v>
       </c>
-      <c r="X45" s="24">
+      <c r="X45" s="22">
         <f t="shared" ref="X45" si="31">ROUND($B$8*(1+Q45*(1+$F$2+$N$2)*$B$2+Q46*(1+$F$3+$N$3)*$B$3+Q47*(1+$F$4+$N$4)*$B$4+Q48*(1+$F$5+$N$5)*$B$5+Q49*(1+$F$6+$N$6)*$B$6),0)</f>
         <v>92</v>
       </c>
-      <c r="Y45" s="24">
+      <c r="Y45" s="22">
         <f t="shared" ref="Y45" si="32">ROUND($B$8*(1+R45*(1+$F$2+$N$2)*$B$2+R46*(1+$F$3+$N$3)*$B$3+R47*(1+$F$4+$N$4)*$B$4+R48*(1+$F$5+$N$5)*$B$5+R49*(1+$F$6+$N$6)*$B$6),0)</f>
         <v>92</v>
       </c>
-      <c r="Z45" s="24">
+      <c r="Z45" s="22">
         <f t="shared" ref="Z45" si="33">ROUND($B$8*(1+S45*(1+$F$2+$N$2)*$B$2+S46*(1+$F$3+$N$3)*$B$3+S47*(1+$F$4+$N$4)*$B$4+S48*(1+$F$5+$N$5)*$B$5+S49*(1+$F$6+$N$6)*$B$6),0)</f>
         <v>92</v>
       </c>
     </row>
     <row r="46" spans="15:26" x14ac:dyDescent="0.2">
-      <c r="O46" s="22">
+      <c r="O46" s="20">
         <v>3</v>
       </c>
-      <c r="P46" s="22">
+      <c r="P46" s="20">
         <v>5</v>
       </c>
-      <c r="Q46" s="22">
+      <c r="Q46" s="20">
         <v>5</v>
       </c>
-      <c r="R46" s="22">
+      <c r="R46" s="20">
         <v>5</v>
       </c>
-      <c r="S46" s="22">
+      <c r="S46" s="20">
         <v>5</v>
       </c>
-      <c r="U46" s="24" t="s">
+      <c r="U46" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="V46" s="24">
+      <c r="V46" s="22">
         <f>ROUND($B$9*(1+O45*(1+$F$2+$N$2)*$C$2+O46*(1+$F$3+$N$3)*$C$3+O47*(1+$F$4+$N$4)*$C$4+O48*(1+$F$5+$N$5)*$C$5+O49*(1+$F$6+$N$6)*$C$6),0)</f>
         <v>21</v>
       </c>
-      <c r="W46" s="24">
+      <c r="W46" s="22">
         <f t="shared" ref="W46" si="34">ROUND($B$9*(1+P45*(1+$F$2+$N$2)*$C$2+P46*(1+$F$3+$N$3)*$C$3+P47*(1+$F$4+$N$4)*$C$4+P48*(1+$F$5+$N$5)*$C$5+P49*(1+$F$6+$N$6)*$C$6),0)</f>
         <v>22</v>
       </c>
-      <c r="X46" s="24">
+      <c r="X46" s="22">
         <f t="shared" ref="X46" si="35">ROUND($B$9*(1+Q45*(1+$F$2+$N$2)*$C$2+Q46*(1+$F$3+$N$3)*$C$3+Q47*(1+$F$4+$N$4)*$C$4+Q48*(1+$F$5+$N$5)*$C$5+Q49*(1+$F$6+$N$6)*$C$6),0)</f>
         <v>23</v>
       </c>
-      <c r="Y46" s="24">
+      <c r="Y46" s="22">
         <f t="shared" ref="Y46" si="36">ROUND($B$9*(1+R45*(1+$F$2+$N$2)*$C$2+R46*(1+$F$3+$N$3)*$C$3+R47*(1+$F$4+$N$4)*$C$4+R48*(1+$F$5+$N$5)*$C$5+R49*(1+$F$6+$N$6)*$C$6),0)</f>
         <v>23</v>
       </c>
-      <c r="Z46" s="24">
+      <c r="Z46" s="22">
         <f>ROUND($B$9*(1+S45*(1+$F$2+$N$2)*$C$2+S46*(1+$F$3+$N$3)*$C$3+S47*(1+$F$4+$N$4)*$C$4+S48*(1+$F$5+$N$5)*$C$5+S49*(1+$F$6+$N$6)*$C$6),0)</f>
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="15:26" x14ac:dyDescent="0.2">
-      <c r="O47" s="22">
+      <c r="O47" s="20">
         <v>2</v>
       </c>
-      <c r="P47" s="22">
+      <c r="P47" s="20">
         <v>3</v>
       </c>
-      <c r="Q47" s="22">
+      <c r="Q47" s="20">
         <v>5</v>
       </c>
-      <c r="R47" s="22">
+      <c r="R47" s="20">
         <v>5</v>
       </c>
-      <c r="S47" s="22">
+      <c r="S47" s="20">
         <v>5</v>
       </c>
-      <c r="U47" s="24" t="s">
+      <c r="U47" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="V47" s="24">
+      <c r="V47" s="22">
         <f>ROUND($B$12*(1+V48),0)</f>
         <v>5</v>
       </c>
-      <c r="W47" s="24">
+      <c r="W47" s="22">
         <f t="shared" ref="W47" si="37">ROUND($B$12*(1+W48),0)</f>
         <v>5</v>
       </c>
-      <c r="X47" s="24">
+      <c r="X47" s="22">
         <f t="shared" ref="X47" si="38">ROUND($B$12*(1+X48),0)</f>
         <v>6</v>
       </c>
-      <c r="Y47" s="24">
+      <c r="Y47" s="22">
         <f t="shared" ref="Y47" si="39">ROUND($B$12*(1+Y48),0)</f>
         <v>6</v>
       </c>
-      <c r="Z47" s="24">
+      <c r="Z47" s="22">
         <f t="shared" ref="Z47" si="40">ROUND($B$12*(1+Z48),0)</f>
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="15:26" x14ac:dyDescent="0.2">
-      <c r="O48" s="22">
+      <c r="O48" s="20">
         <v>3</v>
       </c>
-      <c r="P48" s="22">
+      <c r="P48" s="20">
         <v>5</v>
       </c>
-      <c r="Q48" s="22">
+      <c r="Q48" s="20">
         <v>5</v>
       </c>
-      <c r="R48" s="22">
+      <c r="R48" s="20">
         <v>5</v>
       </c>
-      <c r="S48" s="22">
+      <c r="S48" s="20">
         <v>5</v>
       </c>
-      <c r="U48" s="24" t="s">
+      <c r="U48" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="V48" s="24">
+      <c r="V48" s="22">
         <f>ROUND($B$11+O45*(1+$F$2+$N$2)*$D$2+O46*(1+$F$3+$N$3)*$D$3+O47*(1+$F$4+$N$4)*$D$4+O48*(1+$F$5+$N$5)*$D$5+O49*(1+$F$6+$N$6)*$D$6,2)</f>
         <v>0.05</v>
       </c>
-      <c r="W48" s="24">
+      <c r="W48" s="22">
         <f t="shared" ref="W48" si="41">ROUND($B$11+P45*(1+$F$2+$N$2)*$D$2+P46*(1+$F$3+$N$3)*$D$3+P47*(1+$F$4+$N$4)*$D$4+P48*(1+$F$5+$N$5)*$D$5+P49*(1+$F$6+$N$6)*$D$6,2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="X48" s="24">
+      <c r="X48" s="22">
         <f t="shared" ref="X48" si="42">ROUND($B$11+Q45*(1+$F$2+$N$2)*$D$2+Q46*(1+$F$3+$N$3)*$D$3+Q47*(1+$F$4+$N$4)*$D$4+Q48*(1+$F$5+$N$5)*$D$5+Q49*(1+$F$6+$N$6)*$D$6,2)</f>
         <v>0.13</v>
       </c>
-      <c r="Y48" s="24">
+      <c r="Y48" s="22">
         <f t="shared" ref="Y48" si="43">ROUND($B$11+R45*(1+$F$2+$N$2)*$D$2+R46*(1+$F$3+$N$3)*$D$3+R47*(1+$F$4+$N$4)*$D$4+R48*(1+$F$5+$N$5)*$D$5+R49*(1+$F$6+$N$6)*$D$6,2)</f>
         <v>0.15</v>
       </c>
-      <c r="Z48" s="24">
+      <c r="Z48" s="22">
         <f t="shared" ref="Z48" si="44">ROUND($B$11+S45*(1+$F$2+$N$2)*$D$2+S46*(1+$F$3+$N$3)*$D$3+S47*(1+$F$4+$N$4)*$D$4+S48*(1+$F$5+$N$5)*$D$5+S49*(1+$F$6+$N$6)*$D$6,2)</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="49" spans="15:26" x14ac:dyDescent="0.2">
-      <c r="O49" s="22">
+      <c r="O49" s="20">
         <v>1</v>
       </c>
-      <c r="P49" s="22">
+      <c r="P49" s="20">
         <v>1</v>
       </c>
-      <c r="Q49" s="22">
+      <c r="Q49" s="20">
         <v>1</v>
       </c>
-      <c r="R49" s="22">
+      <c r="R49" s="20">
         <v>2</v>
       </c>
-      <c r="S49" s="22">
+      <c r="S49" s="20">
         <v>2</v>
       </c>
-      <c r="U49" s="24" t="s">
+      <c r="U49" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="V49" s="24">
+      <c r="V49" s="22">
         <f>ROUND($B$10*(1+O45*(1+$F$2+$N$2)*$E$2+O46*(1+$F$3+$N$3)*$E$3+O47*(1+$F$4+$N$4)*$E$4+O48*(1+$F$5+$N$5)*$E$5+O49*(1+$F$6+$N$6)*$E$6),0)</f>
         <v>120</v>
       </c>
-      <c r="W49" s="24">
+      <c r="W49" s="22">
         <f t="shared" ref="W49" si="45">ROUND($B$10*(1+P45*(1+$F$2+$N$2)*$E$2+P46*(1+$F$3+$N$3)*$E$3+P47*(1+$F$4+$N$4)*$E$4+P48*(1+$F$5+$N$5)*$E$5+P49*(1+$F$6+$N$6)*$E$6),0)</f>
         <v>130</v>
       </c>
-      <c r="X49" s="24">
+      <c r="X49" s="22">
         <f t="shared" ref="X49" si="46">ROUND($B$10*(1+Q45*(1+$F$2+$N$2)*$E$2+Q46*(1+$F$3+$N$3)*$E$3+Q47*(1+$F$4+$N$4)*$E$4+Q48*(1+$F$5+$N$5)*$E$5+Q49*(1+$F$6+$N$6)*$E$6),0)</f>
         <v>150</v>
       </c>
-      <c r="Y49" s="24">
+      <c r="Y49" s="22">
         <f t="shared" ref="Y49" si="47">ROUND($B$10*(1+R45*(1+$F$2+$N$2)*$E$2+R46*(1+$F$3+$N$3)*$E$3+R47*(1+$F$4+$N$4)*$E$4+R48*(1+$F$5+$N$5)*$E$5+R49*(1+$F$6+$N$6)*$E$6),0)</f>
         <v>150</v>
       </c>
-      <c r="Z49" s="24">
+      <c r="Z49" s="22">
         <f t="shared" ref="Z49" si="48">ROUND($B$10*(1+S45*(1+$F$2+$N$2)*$E$2+S46*(1+$F$3+$N$3)*$E$3+S47*(1+$F$4+$N$4)*$E$4+S48*(1+$F$5+$N$5)*$E$5+S49*(1+$F$6+$N$6)*$E$6),0)</f>
         <v>150</v>
       </c>

--- a/doc/caste_system.xlsx
+++ b/doc/caste_system.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/349dfb9748b30a92/Asztali gép/ataliasflame_2.0/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2994" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{629547AE-38BA-4985-82D2-2671EAF1F6D6}"/>
+  <xr:revisionPtr revIDLastSave="3120" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB6E6382-5F31-4752-BCE9-58702A0BBA31}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
   </bookViews>
   <sheets>
     <sheet name="caste list" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,31 @@
     <author>Mikló Attila</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{78271437-06AD-4FA1-9A52-939A4B175A43}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{3C6D7914-9ECF-4C54-97EA-A97734447BA7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mikló Attila:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+unspecialized</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{78271437-06AD-4FA1-9A52-939A4B175A43}">
       <text>
         <r>
           <rPr>
@@ -71,7 +95,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{7D096874-F439-4A5D-946D-DBD464B95DD0}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{5F3CB805-931A-4350-B6D0-041B7D7E5B9E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mikló Attila:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+magician</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{7D096874-F439-4A5D-946D-DBD464B95DD0}">
       <text>
         <r>
           <rPr>
@@ -95,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{38194860-923D-4148-A97E-A818B9AA2646}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{38194860-923D-4148-A97E-A818B9AA2646}">
       <text>
         <r>
           <rPr>
@@ -119,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{D1466D25-BCCE-4BF1-B2E8-D45A5998F7B5}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{D1466D25-BCCE-4BF1-B2E8-D45A5998F7B5}">
       <text>
         <r>
           <rPr>
@@ -143,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{E196D7E0-8288-4797-B736-7A79201C9F0D}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{E196D7E0-8288-4797-B736-7A79201C9F0D}">
       <text>
         <r>
           <rPr>
@@ -167,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{40CFFF93-F61F-4BEA-84F8-E4E701A68F86}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{40CFFF93-F61F-4BEA-84F8-E4E701A68F86}">
       <text>
         <r>
           <rPr>
@@ -191,7 +239,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{7C9B282B-EA35-4971-AAFB-23837FA7AAEF}">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{CDC031F3-CBAF-46AE-929F-AEA4F11DA89C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mikló Attila:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+warrior</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{7C9B282B-EA35-4971-AAFB-23837FA7AAEF}">
       <text>
         <r>
           <rPr>
@@ -215,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{9BD77CCB-3A24-4AE4-B43E-FBE10BC16D53}">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{9BD77CCB-3A24-4AE4-B43E-FBE10BC16D53}">
       <text>
         <r>
           <rPr>
@@ -239,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{91B43E26-B33C-454E-BEAD-29F8407C2340}">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{91B43E26-B33C-454E-BEAD-29F8407C2340}">
       <text>
         <r>
           <rPr>
@@ -263,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{1C8E939D-3AF5-4371-97F4-0ED5A6A4C16C}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{1C8E939D-3AF5-4371-97F4-0ED5A6A4C16C}">
       <text>
         <r>
           <rPr>
@@ -287,7 +359,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{DF9BB6E1-A51E-4924-B0C7-8E424E30F2D3}">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{ADADEC99-8F35-4F4E-98C5-D5F6F25285C2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mikló Attila:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+wanderer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{DF9BB6E1-A51E-4924-B0C7-8E424E30F2D3}">
       <text>
         <r>
           <rPr>
@@ -311,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{C321B913-EB30-43DE-87D1-B295FECC6FC2}">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{C321B913-EB30-43DE-87D1-B295FECC6FC2}">
       <text>
         <r>
           <rPr>
@@ -335,7 +431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{59B1B662-5259-41F0-8FD8-4361C6875AF5}">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{59B1B662-5259-41F0-8FD8-4361C6875AF5}">
       <text>
         <r>
           <rPr>
@@ -359,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{318FA5FA-0DB7-4219-B1E0-0004BC31B0C7}">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{318FA5FA-0DB7-4219-B1E0-0004BC31B0C7}">
       <text>
         <r>
           <rPr>
@@ -383,7 +479,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{F12B9F38-E667-4D3F-8C03-DBDC2EC579AE}">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{CEDF0E1C-FAE7-4EA7-8F0F-A62697734D2C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mikló Attila:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nature dweller</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{F12B9F38-E667-4D3F-8C03-DBDC2EC579AE}">
       <text>
         <r>
           <rPr>
@@ -407,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{540767F7-80F6-47BC-B78E-2594ED20CC2E}">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{540767F7-80F6-47BC-B78E-2594ED20CC2E}">
       <text>
         <r>
           <rPr>
@@ -431,7 +551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{94CF7A54-37EB-4378-B6EA-8AD39E6CDFCC}">
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{94CF7A54-37EB-4378-B6EA-8AD39E6CDFCC}">
       <text>
         <r>
           <rPr>
@@ -455,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{181AD8F3-0232-426B-B8FB-7408DFB3721F}">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{181AD8F3-0232-426B-B8FB-7408DFB3721F}">
       <text>
         <r>
           <rPr>
@@ -479,7 +599,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{B046AC2F-09DE-420E-9685-9DD89EC21152}">
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{682B2CAC-DCE6-4EB3-A127-38375F25FC2D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mikló Attila:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+cleric</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{B046AC2F-09DE-420E-9685-9DD89EC21152}">
       <text>
         <r>
           <rPr>
@@ -503,7 +647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{222C7712-FC3E-44F8-A634-812001C75FE4}">
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{222C7712-FC3E-44F8-A634-812001C75FE4}">
       <text>
         <r>
           <rPr>
@@ -527,7 +671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{2834CA0C-6517-405B-97C4-6C7320890086}">
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{2834CA0C-6517-405B-97C4-6C7320890086}">
       <text>
         <r>
           <rPr>
@@ -551,7 +695,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{C8E97A63-84F4-41D0-BECE-2F8E77BEE634}">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{C8E97A63-84F4-41D0-BECE-2F8E77BEE634}">
       <text>
         <r>
           <rPr>
@@ -1562,7 +1706,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="84">
   <si>
     <t>csavargó</t>
   </si>
@@ -1803,12 +1947,24 @@
   <si>
     <t>Arimaszpó</t>
   </si>
+  <si>
+    <t>specializálatlan</t>
+  </si>
+  <si>
+    <t>vándor</t>
+  </si>
+  <si>
+    <t>természet lakó</t>
+  </si>
+  <si>
+    <t>klerikus</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1876,14 +2032,6 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1917,7 +2065,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2011,12 +2159,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2057,11 +2214,51 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -2381,88 +2578,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E471BE-CB76-416C-8A0D-8BCD59B0033A}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>33</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>35</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
@@ -2488,10 +2688,10 @@
       <c r="J2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="M2" t="s">
@@ -2506,16 +2706,19 @@
       <c r="P2" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>39</v>
+      <c r="B3" s="33" t="s">
+        <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>39</v>
@@ -2527,7 +2730,7 @@
         <v>39</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>40</v>
@@ -2539,12 +2742,12 @@
         <v>40</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M3" s="5" t="s">
@@ -2557,19 +2760,20 @@
         <v>39</v>
       </c>
       <c r="P3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="R3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="39"/>
+      <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="C4" s="5" t="s">
         <v>39</v>
       </c>
@@ -2580,7 +2784,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>40</v>
@@ -2592,12 +2796,12 @@
         <v>40</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M4" s="5" t="s">
@@ -2610,19 +2814,20 @@
         <v>39</v>
       </c>
       <c r="P4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="R4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
+      <c r="B5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="C5" s="5" t="s">
         <v>39</v>
       </c>
@@ -2633,7 +2838,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>40</v>
@@ -2645,12 +2850,12 @@
         <v>40</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="5" t="s">
@@ -2663,19 +2868,20 @@
         <v>39</v>
       </c>
       <c r="P5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="R5" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="39"/>
+      <c r="B6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="C6" s="5" t="s">
         <v>39</v>
       </c>
@@ -2686,7 +2892,7 @@
         <v>39</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>40</v>
@@ -2698,12 +2904,12 @@
         <v>40</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M6" s="5" t="s">
@@ -2716,19 +2922,20 @@
         <v>39</v>
       </c>
       <c r="P6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="R6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="40"/>
+      <c r="B7" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="C7" s="5" t="s">
         <v>39</v>
       </c>
@@ -2739,7 +2946,7 @@
         <v>39</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>40</v>
@@ -2751,12 +2958,12 @@
         <v>40</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M7" s="5" t="s">
@@ -2769,18 +2976,21 @@
         <v>39</v>
       </c>
       <c r="P7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="R7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>39</v>
+      <c r="B8" s="35" t="s">
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
@@ -2804,12 +3014,12 @@
         <v>39</v>
       </c>
       <c r="J8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>39</v>
       </c>
       <c r="M8" t="s">
@@ -2824,176 +3034,182 @@
       <c r="P8" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="Q8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="42"/>
+      <c r="B9" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="33" t="s">
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" s="32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="L9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="42"/>
+      <c r="B10" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="33" t="s">
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="L10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="43"/>
+      <c r="B11" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="33" t="s">
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q11" s="32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="L11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="C12" s="3" t="s">
         <v>39</v>
       </c>
@@ -3016,12 +3232,12 @@
         <v>39</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="M12" s="3" t="s">
@@ -3036,17 +3252,18 @@
       <c r="P12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="Q12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="45"/>
+      <c r="B13" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="C13" s="5" t="s">
         <v>39</v>
       </c>
@@ -3069,12 +3286,12 @@
         <v>39</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M13" s="5" t="s">
@@ -3089,17 +3306,18 @@
       <c r="P13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Q13" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="Q13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="45"/>
+      <c r="B14" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="C14" s="5" t="s">
         <v>39</v>
       </c>
@@ -3122,12 +3340,12 @@
         <v>39</v>
       </c>
       <c r="J14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M14" s="5" t="s">
@@ -3142,17 +3360,18 @@
       <c r="P14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Q14" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="Q14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="46"/>
+      <c r="B15" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
@@ -3175,12 +3394,12 @@
         <v>39</v>
       </c>
       <c r="J15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M15" s="5" t="s">
@@ -3195,17 +3414,20 @@
       <c r="P15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="Q15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
@@ -3230,10 +3452,10 @@
       <c r="J16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L16" s="3" t="s">
+      <c r="K16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -3248,17 +3470,18 @@
       <c r="P16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="Q16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="45"/>
+      <c r="B17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>39</v>
       </c>
@@ -3283,10 +3506,10 @@
       <c r="J17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" s="5" t="s">
+      <c r="K17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M17" s="5" t="s">
@@ -3301,17 +3524,18 @@
       <c r="P17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Q17" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="Q17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="45"/>
+      <c r="B18" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
@@ -3336,10 +3560,10 @@
       <c r="J18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="5" t="s">
+      <c r="K18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M18" s="5" t="s">
@@ -3354,17 +3578,18 @@
       <c r="P18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Q18" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="Q18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="46"/>
+      <c r="B19" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="C19" s="5" t="s">
         <v>39</v>
       </c>
@@ -3389,10 +3614,10 @@
       <c r="J19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="5" t="s">
+      <c r="K19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M19" s="5" t="s">
@@ -3407,17 +3632,20 @@
       <c r="P19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Q19" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="Q19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="C20" s="5" t="s">
         <v>39</v>
       </c>
@@ -3434,18 +3662,18 @@
         <v>39</v>
       </c>
       <c r="H20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="J20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="5" t="s">
+      <c r="K20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M20" s="5" t="s">
@@ -3460,17 +3688,18 @@
       <c r="P20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Q20" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="Q20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="39"/>
+      <c r="B21" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="C21" s="5" t="s">
         <v>39</v>
       </c>
@@ -3487,18 +3716,18 @@
         <v>39</v>
       </c>
       <c r="H21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="J21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="5" t="s">
+      <c r="K21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M21" s="5" t="s">
@@ -3513,17 +3742,18 @@
       <c r="P21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Q21" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="Q21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="39"/>
+      <c r="B22" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="C22" s="5" t="s">
         <v>39</v>
       </c>
@@ -3540,18 +3770,18 @@
         <v>39</v>
       </c>
       <c r="H22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="J22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L22" s="5" t="s">
+      <c r="K22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M22" s="5" t="s">
@@ -3566,17 +3796,18 @@
       <c r="P22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Q22" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="Q22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="40"/>
+      <c r="B23" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="C23" s="5" t="s">
         <v>39</v>
       </c>
@@ -3593,18 +3824,18 @@
         <v>39</v>
       </c>
       <c r="H23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="J23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L23" s="5" t="s">
+      <c r="K23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M23" s="5" t="s">
@@ -3619,11 +3850,21 @@
       <c r="P23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="Q23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" s="4" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -4079,46 +4320,46 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="33">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9">
         <v>5</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9">
         <v>5</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9">
         <v>5</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9">
         <v>5</v>
       </c>
-      <c r="N9" s="33">
+      <c r="N9">
         <v>-1</v>
       </c>
       <c r="O9" s="5">
@@ -4290,7 +4531,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="17">
@@ -4435,7 +4676,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="17">
@@ -4576,13 +4817,13 @@
       <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q1" s="3" t="s">
@@ -4668,13 +4909,13 @@
       <c r="M2">
         <v>5</v>
       </c>
-      <c r="N2" s="33">
+      <c r="N2">
         <v>20</v>
       </c>
-      <c r="O2" s="33">
+      <c r="O2">
         <v>50</v>
       </c>
-      <c r="P2" s="32">
+      <c r="P2" s="1">
         <v>100</v>
       </c>
       <c r="Q2" s="3">
@@ -4761,13 +5002,13 @@
       <c r="M3">
         <v>5</v>
       </c>
-      <c r="N3" s="33">
+      <c r="N3">
         <v>20</v>
       </c>
-      <c r="O3" s="33">
+      <c r="O3">
         <v>50</v>
       </c>
-      <c r="P3" s="32">
+      <c r="P3" s="1">
         <v>100</v>
       </c>
       <c r="Q3" s="3">
@@ -4854,13 +5095,13 @@
       <c r="M4">
         <v>5</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4">
         <v>20</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4">
         <v>50</v>
       </c>
-      <c r="P4" s="32">
+      <c r="P4" s="1">
         <v>100</v>
       </c>
       <c r="Q4" s="3">
@@ -4947,13 +5188,13 @@
       <c r="M5">
         <v>5</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5">
         <v>20</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5">
         <v>50</v>
       </c>
-      <c r="P5" s="32">
+      <c r="P5" s="1">
         <v>100</v>
       </c>
       <c r="Q5" s="3">
@@ -5040,13 +5281,13 @@
       <c r="M6">
         <v>2</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6">
         <v>7</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6">
         <v>20</v>
       </c>
-      <c r="P6" s="32">
+      <c r="P6" s="1">
         <v>40</v>
       </c>
       <c r="Q6" s="3">
@@ -6560,8 +6801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8DF294-C85C-47A3-9A81-4E26EFDC10EC}">
   <dimension ref="A1:BK54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="BF40" sqref="BF40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BF29" sqref="BF29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -6615,13 +6856,13 @@
     <col min="48" max="48" width="9" style="18" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="5" style="18" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="8.88671875" style="18"/>
-    <col min="51" max="51" width="7.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="6.109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="4.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="9" style="35" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="8.88671875" style="35"/>
+    <col min="51" max="51" width="7.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="6.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="4.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9" style="18" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="5" style="18" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="8.88671875" style="18"/>
     <col min="58" max="58" width="7.88671875" style="18" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="6.109375" style="18" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="5.77734375" style="18" bestFit="1" customWidth="1"/>
@@ -7067,7 +7308,6 @@
         <f>ROUND($B$10*(1+$Q$2*(1+F2+L2)*E2+$Q$3*(1+F3+L3)*E3+$Q$4*(1+F4+L4)*E4+$Q$5*(1+F5+L5)*E5+$Q$6*(1+F6+L6)*E6),0)</f>
         <v>110</v>
       </c>
-      <c r="AC4" s="35"/>
       <c r="AD4" s="20" t="s">
         <v>32</v>
       </c>
@@ -7091,7 +7331,6 @@
         <f>ROUND($B$10*(1+$Q$2*(1+G2+L2)*E2+$Q$3*(1+G3+L3)*E3+ROUND($Q$4*(1+G4+L4),0)*E4+$Q$5*(1+G5+L5)*E5+$Q$6*(1+G6+L6)*E6),0)</f>
         <v>110</v>
       </c>
-      <c r="AJ4" s="35"/>
       <c r="AK4" s="20" t="s">
         <v>32</v>
       </c>
@@ -7115,7 +7354,6 @@
         <f>ROUND($B$10*(1+$Q$2*(1+H2+L2)*E2+$Q$3*(1+H3+L3)*E3+ROUND($Q$4*(1+H4+L4),0)*E4+$Q$5*(1+H5+L5)*E5+$Q$6*(1+H6+L6)*E6),0)</f>
         <v>110</v>
       </c>
-      <c r="AQ4" s="35"/>
       <c r="AR4" s="20" t="s">
         <v>32</v>
       </c>
@@ -7139,7 +7377,6 @@
         <f>ROUND($B$10*(1+$Q$2*(1+I2+L2)*E2+$Q$3*(1+I3+L3)*E3+ROUND($Q$4*(1+I4+L4),0)*E4+$Q$5*(1+I5+L5)*E5+$Q$6*(1+I6+L6)*E6),0)</f>
         <v>110</v>
       </c>
-      <c r="AX4" s="35"/>
       <c r="AY4" s="20" t="s">
         <v>32</v>
       </c>
@@ -8084,7 +8321,6 @@
         <f>ROUND($B$10*(1+$R$2*(1+F2+L2)*E2+$R$3*(1+F3+L3)*E3+ROUND($R$4*(1+F4+L4),0)*E4+$R$5*(1+F5+L5)*E5+$R$6*(1+F6+L6)*E6),0)</f>
         <v>150</v>
       </c>
-      <c r="AC11" s="35"/>
       <c r="AD11" s="20" t="s">
         <v>32</v>
       </c>
@@ -8108,7 +8344,6 @@
         <f>ROUND($B$10*(1+$R$2*(1+G2+L2)*E2+$R$3*(1+G3+L3)*E3+ROUND($R$4*(1+G4+L4),0)*E4+$R$5*(1+G5+L5)*E5+$R$6*(1+G6+L6)*E6),0)</f>
         <v>150</v>
       </c>
-      <c r="AJ11" s="35"/>
       <c r="AK11" s="20" t="s">
         <v>32</v>
       </c>
@@ -8132,7 +8367,6 @@
         <f>ROUND($B$10*(1+$R$2*(1+H2+L2)*E2+$R$3*(1+H3+L3)*E3+ROUND($R$4*(1+H4+L4),0)*E4+$R$5*(1+H5+L5)*E5+$R$6*(1+H6+L6)*E6),0)</f>
         <v>150</v>
       </c>
-      <c r="AQ11" s="35"/>
       <c r="AR11" s="20" t="s">
         <v>32</v>
       </c>
@@ -8156,7 +8390,6 @@
         <f>ROUND($B$10*(1+$R$2*(1+I2+L2)*E2+$R$3*(1+I3+L3)*E3+ROUND($R$4*(1+I4+L4),0)*E4+$R$5*(1+I5+L5)*E5+$R$6*(1+I6+L6)*E6),0)</f>
         <v>150</v>
       </c>
-      <c r="AX11" s="35"/>
       <c r="AY11" s="20" t="s">
         <v>32</v>
       </c>
@@ -8919,7 +9152,6 @@
         <f>ROUND($B$10*(1+$S$2*(1+F2+L2)*E2+$S$3*(1+F3+L3)*E3+ROUND($S$4*(1+F4+L4),0)*E4+$S$5*(1+F5+L5)*E5+$S$6*(1+F6+L6)*E6),0)</f>
         <v>300</v>
       </c>
-      <c r="AC18" s="35"/>
       <c r="AD18" s="20" t="s">
         <v>32</v>
       </c>
@@ -8943,7 +9175,6 @@
         <f>ROUND($B$10*(1+$S$2*(1+G2+L2)*E2+$S$3*(1+G3+L3)*E3+ROUND($S$4*(1+G4+L4),0)*E4+$S$5*(1+G5+L5)*E5+$S$6*(1+G6+L6)*E6),0)</f>
         <v>280</v>
       </c>
-      <c r="AJ18" s="35"/>
       <c r="AK18" s="20" t="s">
         <v>32</v>
       </c>
@@ -8967,7 +9198,6 @@
         <f>ROUND($B$10*(1+$S$2*(1+H2+L2)*E2+$S$3*(1+H3+L3)*E3+ROUND($S$4*(1+H4+L4),0)*E4+$S$5*(1+H5+L5)*E5+$S$6*(1+H6+L6)*E6),0)</f>
         <v>290</v>
       </c>
-      <c r="AQ18" s="35"/>
       <c r="AR18" s="20" t="s">
         <v>32</v>
       </c>
@@ -8991,7 +9221,6 @@
         <f>ROUND($B$10*(1+$S$2*(1+I2+L2)*E2+$S$3*(1+I3+L3)*E3+ROUND($S$4*(1+I4+L4),0)*E4+$S$5*(1+I5+L5)*E5+$S$6*(1+I6+L6)*E6),0)</f>
         <v>300</v>
       </c>
-      <c r="AX18" s="35"/>
       <c r="AY18" s="20" t="s">
         <v>32</v>
       </c>
@@ -9733,7 +9962,6 @@
         <f>ROUND($B$10*(1+$T$2*(1+F2+L2)*E2+$T$3*(1+F3+L3)*E3+ROUND($T$4*(1+F4+L4),0)*E4+$T$5*(1+F5+L5)*E5+$T$6*(1+F6+L6)*E6),0)</f>
         <v>600</v>
       </c>
-      <c r="AC25" s="35"/>
       <c r="AD25" s="20" t="s">
         <v>32</v>
       </c>
@@ -9757,7 +9985,6 @@
         <f>ROUND($B$10*(1+$T$2*(1+G2+L2)*E2+$T$3*(1+G3+L3)*E3+ROUND($T$4*(1+G4+L4),0)*E4+$T$5*(1+G5+L5)*E5+$T$6*(1+G6+L6)*E6),0)</f>
         <v>550</v>
       </c>
-      <c r="AJ25" s="35"/>
       <c r="AK25" s="20" t="s">
         <v>32</v>
       </c>
@@ -9781,7 +10008,6 @@
         <f>ROUND($B$10*(1+$T$2*(1+H2+L2)*E2+$T$3*(1+H3+L3)*E3+ROUND($T$4*(1+H4+L4),0)*E4+$T$5*(1+H5+L5)*E5+$T$6*(1+H6+L6)*E6),0)</f>
         <v>580</v>
       </c>
-      <c r="AQ25" s="35"/>
       <c r="AR25" s="20" t="s">
         <v>32</v>
       </c>
@@ -9805,35 +10031,34 @@
         <f>ROUND($B$10*(1+$T$2*(1+I2+L2)*E2+$T$3*(1+I3+L3)*E3+ROUND($T$4*(1+I4+L4),0)*E4+$T$5*(1+I5+L5)*E5+$T$6*(1+I6+L6)*E6),0)</f>
         <v>600</v>
       </c>
-      <c r="AX25" s="35"/>
       <c r="AY25" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="AZ25" s="36">
-        <f>ROUND($B$8*(1+$T$2*(1+J2+L2)*B2+ROUNDDOWN($T$3*(1+J3+L3),0)*B3+$T$4*(1+J4+L4)*B4+$T$5*(1+J5+L5)*B5+$T$6*(1+J6+L6)*B6),0)</f>
-        <v>205</v>
-      </c>
-      <c r="BA25" s="36">
-        <f>ROUND($B$9*(1+ROUNDDOWN($T$2*(1+J2+L2),0)*C2+$T$3*(1+J3+L3)*C3+$T$4*(1+J4+L4)*C4+$T$5*(1+J5+L5)*C5+$T$6*(1+J6+L6)*C6),0)</f>
-        <v>51</v>
+      <c r="AZ25" s="21">
+        <f>ROUND($B$8*(1+$T$2*(1+J2+L2)*B2+ROUND($T$3*(1+J3+L3),0)*B3+$T$4*(1+J4+L4)*B4+ROUND($T$5*(1+J5+L5),0)*B5+$T$6*(1+J6+L6)*B6),0)</f>
+        <v>207</v>
+      </c>
+      <c r="BA25" s="20">
+        <f>ROUND($B$9*(1+$T$2*(1+J2+L2)*C2+$T$3*(1+J3+L3)*C3+$T$4*(1+J4+L4)*C4+$T$5*(1+J5+L5)*C5+$T$6*(1+J6+L6)*C6),0)</f>
+        <v>52</v>
       </c>
       <c r="BB25" s="20">
         <f t="shared" ref="BB25:BB29" si="22">ROUND($B$12*(1+BC25),0)</f>
         <v>13</v>
       </c>
-      <c r="BC25" s="36">
-        <f>ROUND($B$11+ROUNDDOWN($T$2*(1+J2+L2),0)*D2+ROUNDDOWN($T$3*(1+J3+L3),0)*D3+$T$4*(1+J4+L4)*D4+$T$5*(1+J5+L5)*D5+$T$6*(1+J6+L6)*D6,2)</f>
-        <v>1.56</v>
-      </c>
-      <c r="BD25" s="36">
-        <f>ROUND($B$10*(1+$T$2*(1+J2+L2)*E2+$T$3*(1+J3+L3)*E3+ROUNDDOWN($T$4*(1+J4+L4),0)*E4+$T$5*(1+J5+L5)*E5+$T$6*(1+J6+L6)*E6),0)</f>
-        <v>620</v>
+      <c r="BC25" s="21">
+        <f>ROUND($B$11+ROUND($T$2*(1+J2+L2),0)*D2+$T$3*(1+J3+L3)*D3+$T$4*(1+J4+L4)*D4+$T$5*(1+J5+L5)*D5+$T$6*(1+J6+L6)*D6,2)</f>
+        <v>1.59</v>
+      </c>
+      <c r="BD25" s="21">
+        <f>ROUND($B$10*(1+$T$2*(1+J2+L2)*E2+$T$3*(1+J3+L3)*E3+ROUND($T$4*(1+J4+L4),0)*E4+$T$5*(1+J5+L5)*E5+$T$6*(1+J6+L6)*E6),0)</f>
+        <v>630</v>
       </c>
       <c r="BF25" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="BG25" s="20">
-        <f>ROUND($B$8*(1+$T$2*(1+K2+L2)*B2+$T$3*(1+K3+L3)*B3+$T$4*(1+K4+L4)*B4+$T$5*(1+K5+L5)*B5+$T$6*(1+K6+L6)*B6),0)</f>
+      <c r="BG25" s="21">
+        <f>ROUND($B$8*(1+$T$2*(1+K2+L2)*B2+ROUND($T$3*(1+K3+L3),0)*B3+$T$4*(1+K4+L4)*B4+ROUND($T$5*(1+K5+L5),0)*B5+$T$6*(1+K6+L6)*B6),0)</f>
         <v>238</v>
       </c>
       <c r="BH25" s="20">
@@ -9949,31 +10174,31 @@
       <c r="AY26" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AZ26" s="36">
-        <f>ROUND($B$8*(1+$T$2*(1+J2+M2)*B2+ROUNDDOWN($T$3*(1+J3+M3),0)*B3+$T$4*(1+J4+M4)*B4+$T$5*(1+J5+M5)*B5+$T$6*(1+J6+M6)*B6),0)</f>
-        <v>205</v>
-      </c>
-      <c r="BA26" s="36">
-        <f>ROUND($B$9*(1+ROUNDDOWN($T$2*(1+J2+M2),0)*C2+$T$3*(1+J3+M3)*C3+$T$4*(1+J4+M4)*C4+$T$5*(1+J5+M5)*C5+$T$6*(1+J6+M6)*C6),0)</f>
-        <v>51</v>
+      <c r="AZ26" s="21">
+        <f>ROUND($B$8*(1+$T$2*(1+J2+M2)*B2+ROUND($T$3*(1+J3+M3),0)*B3+$T$4*(1+J4+M4)*B4+ROUND($T$5*(1+J5+M5),0)*B5+$T$6*(1+J6+M6)*B6),0)</f>
+        <v>207</v>
+      </c>
+      <c r="BA26" s="20">
+        <f>ROUND($B$9*(1+$T$2*(1+J2+M2)*C2+$T$3*(1+J3+M3)*C3+$T$4*(1+J4+M4)*C4+$T$5*(1+J5+M5)*C5+$T$6*(1+J6+M6)*C6),0)</f>
+        <v>52</v>
       </c>
       <c r="BB26" s="20">
         <f t="shared" si="22"/>
         <v>13</v>
       </c>
-      <c r="BC26" s="36">
-        <f>ROUND($B$11+ROUNDDOWN($T$2*(1+J2+M2),0)*D2+ROUNDDOWN($T$3*(1+J3+M3),0)*D3+$T$4*(1+J4+M4)*D4+$T$5*(1+J5+M5)*D5+$T$6*(1+J6+M6)*D6,2)</f>
-        <v>1.56</v>
-      </c>
-      <c r="BD26" s="36">
-        <f>ROUND($B$10*(1+$T$2*(1+J2+M2)*E2+$T$3*(1+J3+M3)*E3+ROUNDDOWN($T$4*(1+J4+M4),0)*E4+$T$5*(1+J5+M5)*E5+$T$6*(1+J6+M6)*E6),0)</f>
+      <c r="BC26" s="21">
+        <f>ROUND($B$11+ROUND($T$2*(1+J2+M2),0)*D2+$T$3*(1+J3+M3)*D3+$T$4*(1+J4+M4)*D4+$T$5*(1+J5+M5)*D5+$T$6*(1+J6+M6)*D6,2)</f>
+        <v>1.59</v>
+      </c>
+      <c r="BD26" s="21">
+        <f>ROUND($B$10*(1+$T$2*(1+J2+M2)*E2+$T$3*(1+J3+M3)*E3+ROUND($T$4*(1+J4+M4),0)*E4+$T$5*(1+J5+M5)*E5+$T$6*(1+J6+M6)*E6),0)</f>
         <v>630</v>
       </c>
       <c r="BF26" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="BG26" s="20">
-        <f>ROUND($B$8*(1+$T$2*(1+K2+M2)*B2+$T$3*(1+K3+M3)*B3+$T$4*(1+K4+M4)*B4+$T$5*(1+K5+M5)*B5+$T$6*(1+K6+M6)*B6),0)</f>
+      <c r="BG26" s="21">
+        <f>ROUND($B$8*(1+$T$2*(1+K2+M2)*B2+ROUND($T$3*(1+K3+M3),0)*B3+$T$4*(1+K4+M4)*B4+ROUND($T$5*(1+K5+M5),0)*B5+$T$6*(1+K6+M6)*B6),0)</f>
         <v>238</v>
       </c>
       <c r="BH26" s="20">
@@ -10089,31 +10314,31 @@
       <c r="AY27" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AZ27" s="36">
-        <f>ROUND($B$8*(1+$T$2*(1+J2+N2)*B2+ROUNDDOWN($T$3*(1+J3+N3),0)*B3+$T$4*(1+J4+N4)*B4+$T$5*(1+J5+N5)*B5+$T$6*(1+J6+N6)*B6),0)</f>
-        <v>205</v>
-      </c>
-      <c r="BA27" s="36">
-        <f>ROUND($B$9*(1+ROUNDDOWN($T$2*(1+J2+N2),0)*C2+$T$3*(1+J3+N3)*C3+$T$4*(1+J4+N4)*C4+$T$5*(1+J5+N5)*C5+$T$6*(1+J6+N6)*C6),0)</f>
+      <c r="AZ27" s="21">
+        <f>ROUND($B$8*(1+$T$2*(1+J2+N2)*B2+ROUND($T$3*(1+J3+N3),0)*B3+$T$4*(1+J4+N4)*B4+ROUND($T$5*(1+J5+N5),0)*B5+$T$6*(1+J6+N6)*B6),0)</f>
+        <v>207</v>
+      </c>
+      <c r="BA27" s="20">
+        <f>ROUND($B$9*(1+$T$2*(1+J2+N2)*C2+$T$3*(1+J3+N3)*C3+$T$4*(1+J4+N4)*C4+$T$5*(1+J5+N5)*C5+$T$6*(1+J6+N6)*C6),0)</f>
         <v>52</v>
       </c>
       <c r="BB27" s="20">
         <f t="shared" si="22"/>
         <v>13</v>
       </c>
-      <c r="BC27" s="36">
-        <f>ROUND($B$11+ROUNDDOWN($T$2*(1+J2+N2),0)*D2+ROUNDDOWN($T$3*(1+J3+N3),0)*D3+$T$4*(1+J4+N4)*D4+$T$5*(1+J5+N5)*D5+$T$6*(1+J6+N6)*D6,2)</f>
-        <v>1.6</v>
-      </c>
-      <c r="BD27" s="36">
-        <f>ROUND($B$10*(1+$T$2*(1+J2+N2)*E2+$T$3*(1+J3+N3)*E3+ROUNDDOWN($T$4*(1+J4+N4),0)*E4+$T$5*(1+J5+N5)*E5+$T$6*(1+J6+N6)*E6),0)</f>
-        <v>620</v>
+      <c r="BC27" s="21">
+        <f>ROUND($B$11+ROUND($T$2*(1+J2+N2),0)*D2+$T$3*(1+J3+N3)*D3+$T$4*(1+J4+N4)*D4+$T$5*(1+J5+N5)*D5+$T$6*(1+J6+N6)*D6,2)</f>
+        <v>1.61</v>
+      </c>
+      <c r="BD27" s="21">
+        <f>ROUND($B$10*(1+$T$2*(1+J2+N2)*E2+$T$3*(1+J3+N3)*E3+ROUND($T$4*(1+J4+N4),0)*E4+$T$5*(1+J5+N5)*E5+$T$6*(1+J6+N6)*E6),0)</f>
+        <v>630</v>
       </c>
       <c r="BF27" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="BG27" s="20">
-        <f>ROUND($B$8*(1+$T$2*(1+K2+N2)*B2+$T$3*(1+K3+N3)*B3+$T$4*(1+K4+N4)*B4+$T$5*(1+K5+N5)*B5+$T$6*(1+K6+N6)*B6),0)</f>
+      <c r="BG27" s="21">
+        <f>ROUND($B$8*(1+$T$2*(1+K2+N2)*B2+ROUND($T$3*(1+K3+N3),0)*B3+$T$4*(1+K4+N4)*B4+ROUND($T$5*(1+K5+N5),0)*B5+$T$6*(1+K6+N6)*B6),0)</f>
         <v>238</v>
       </c>
       <c r="BH27" s="20">
@@ -10229,31 +10454,31 @@
       <c r="AY28" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AZ28" s="36">
-        <f>ROUND($B$8*(1+$T$2*(1+J2+O2)*B2+ROUNDDOWN($T$3*(1+J3+O3),0)*B3+$T$4*(1+J4+O4)*B4+$T$5*(1+J5+O5)*B5+$T$6*(1+J6+O6)*B6),0)</f>
-        <v>205</v>
-      </c>
-      <c r="BA28" s="36">
-        <f>ROUND($B$9*(1+ROUNDDOWN($T$2*(1+J2+O2),0)*C2+$T$3*(1+J3+O3)*C3+$T$4*(1+J4+O4)*C4+$T$5*(1+J5+O5)*C5+$T$6*(1+J6+O6)*C6),0)</f>
-        <v>51</v>
+      <c r="AZ28" s="21">
+        <f>ROUND($B$8*(1+$T$2*(1+J2+O2)*B2+ROUND($T$3*(1+J3+O3),0)*B3+$T$4*(1+J4+O4)*B4+ROUND($T$5*(1+J5+O5),0)*B5+$T$6*(1+J6+O6)*B6),0)</f>
+        <v>207</v>
+      </c>
+      <c r="BA28" s="20">
+        <f>ROUND($B$9*(1+$T$2*(1+J2+O2)*C2+$T$3*(1+J3+O3)*C3+$T$4*(1+J4+O4)*C4+$T$5*(1+J5+O5)*C5+$T$6*(1+J6+O6)*C6),0)</f>
+        <v>52</v>
       </c>
       <c r="BB28" s="20">
         <f t="shared" si="22"/>
         <v>13</v>
       </c>
-      <c r="BC28" s="36">
-        <f>ROUND($B$11+ROUNDDOWN($T$2*(1+J2+O2),0)*D2+ROUNDDOWN($T$3*(1+J3+O3),0)*D3+$T$4*(1+J4+O4)*D4+$T$5*(1+J5+O5)*D5+$T$6*(1+J6+O6)*D6,2)</f>
-        <v>1.56</v>
-      </c>
-      <c r="BD28" s="36">
-        <f>ROUND($B$10*(1+$T$2*(1+J2+O2)*E2+$T$3*(1+J3+O3)*E3+ROUNDDOWN($T$4*(1+J4+O4),0)*E4+$T$5*(1+J5+O5)*E5+$T$6*(1+J6+O6)*E6),0)</f>
-        <v>620</v>
+      <c r="BC28" s="21">
+        <f>ROUND($B$11+ROUND($T$2*(1+J2+O2),0)*D2+$T$3*(1+J3+O3)*D3+$T$4*(1+J4+O4)*D4+$T$5*(1+J5+O5)*D5+$T$6*(1+J6+O6)*D6,2)</f>
+        <v>1.59</v>
+      </c>
+      <c r="BD28" s="21">
+        <f>ROUND($B$10*(1+$T$2*(1+J2+O2)*E2+$T$3*(1+J3+O3)*E3+ROUND($T$4*(1+J4+O4),0)*E4+$T$5*(1+J5+O5)*E5+$T$6*(1+J6+O6)*E6),0)</f>
+        <v>630</v>
       </c>
       <c r="BF28" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="BG28" s="20">
-        <f>ROUND($B$8*(1+$T$2*(1+K2+O2)*B2+$T$3*(1+K3+O3)*B3+$T$4*(1+K4+O4)*B4+$T$5*(1+K5+O5)*B5+$T$6*(1+K6+O6)*B6),0)</f>
+      <c r="BG28" s="21">
+        <f>ROUND($B$8*(1+$T$2*(1+K2+O2)*B2+ROUND($T$3*(1+K3+O3),0)*B3+$T$4*(1+K4+O4)*B4+ROUND($T$5*(1+K5+O5),0)*B5+$T$6*(1+K6+O6)*B6),0)</f>
         <v>238</v>
       </c>
       <c r="BH28" s="20">
@@ -10369,25 +10594,25 @@
       <c r="AY29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AZ29" s="36">
-        <f>ROUND($B$8*(1+$T$2*(1+J2+P2)*B2+ROUNDDOWN($T$3*(1+J3+P3),0)*B3+$T$4*(1+J4+P4)*B4+$T$5*(1+J5+P5)*B5+$T$6*(1+J6+P6)*B6),0)</f>
-        <v>208</v>
-      </c>
-      <c r="BA29" s="36">
-        <f>ROUND($B$9*(1+ROUNDDOWN($T$2*(1+J2+P2),0)*C2+$T$3*(1+J3+P3)*C3+$T$4*(1+J4+P4)*C4+$T$5*(1+J5+P5)*C5+$T$6*(1+J6+P6)*C6),0)</f>
+      <c r="AZ29" s="21">
+        <f>ROUND($B$8*(1+$T$2*(1+J2+P2)*B2+ROUND($T$3*(1+J3+P3),0)*B3+$T$4*(1+J4+P4)*B4+ROUND($T$5*(1+J5+P5),0)*B5+$T$6*(1+J6+P6)*B6),0)</f>
+        <v>209</v>
+      </c>
+      <c r="BA29" s="20">
+        <f>ROUND($B$9*(1+$T$2*(1+J2+P2)*C2+$T$3*(1+J3+P3)*C3+$T$4*(1+J4+P4)*C4+$T$5*(1+J5+P5)*C5+$T$6*(1+J6+P6)*C6),0)</f>
         <v>52</v>
       </c>
       <c r="BB29" s="20">
         <f t="shared" si="22"/>
         <v>13</v>
       </c>
-      <c r="BC29" s="36">
-        <f>ROUND($B$11+ROUNDDOWN($T$2*(1+J2+P2),0)*D2+ROUNDDOWN($T$3*(1+J3+P3),0)*D3+$T$4*(1+J4+P4)*D4+$T$5*(1+J5+P5)*D5+$T$6*(1+J6+P6)*D6,2)</f>
-        <v>1.58</v>
-      </c>
-      <c r="BD29" s="36">
-        <f>ROUND($B$10*(1+$T$2*(1+J2+P2)*E2+$T$3*(1+J3+P3)*E3+ROUNDDOWN($T$4*(1+J4+P4),0)*E4+$T$5*(1+J5+P5)*E5+$T$6*(1+J6+P6)*E6),0)</f>
-        <v>620</v>
+      <c r="BC29" s="21">
+        <f>ROUND($B$11+ROUND($T$2*(1+J2+P2),0)*D2+$T$3*(1+J3+P3)*D3+$T$4*(1+J4+P4)*D4+$T$5*(1+J5+P5)*D5+$T$6*(1+J6+P6)*D6,2)</f>
+        <v>1.6</v>
+      </c>
+      <c r="BD29" s="21">
+        <f>ROUND($B$10*(1+$T$2*(1+J2+P2)*E2+$T$3*(1+J3+P3)*E3+ROUND($T$4*(1+J4+P4),0)*E4+$T$5*(1+J5+P5)*E5+$T$6*(1+J6+P6)*E6),0)</f>
+        <v>630</v>
       </c>
       <c r="BF29" s="20" t="s">
         <v>36</v>
@@ -10547,7 +10772,6 @@
         <f>ROUND($B$10*(1+$U$2*(1+F2+L2)*E2+$U$3*(1+F3+L3)*E3+$U$4*(1+F4+L4)*E4+$U$5*(1+F5+L5)*E5+$U$6*(1+F6+L6)*E6),0)</f>
         <v>1100</v>
       </c>
-      <c r="AC32" s="35"/>
       <c r="AD32" s="20" t="s">
         <v>32</v>
       </c>
@@ -10571,7 +10795,6 @@
         <f>ROUND($B$10*(1+$U$2*(1+G2+L2)*E2+$U$3*(1+G3+L3)*E3+$U$4*(1+G4+L4)*E4+$U$5*(1+G5+L5)*E5+$U$6*(1+G6+L6)*E6),0)</f>
         <v>1000</v>
       </c>
-      <c r="AJ32" s="35"/>
       <c r="AK32" s="20" t="s">
         <v>32</v>
       </c>
@@ -10595,7 +10818,6 @@
         <f>ROUND($B$10*(1+$U$2*(1+H2+L2)*E2+$U$3*(1+H3+L3)*E3+$U$4*(1+H4+L4)*E4+$U$5*(1+H5+L5)*E5+$U$6*(1+H6+L6)*E6),0)</f>
         <v>1050</v>
       </c>
-      <c r="AQ32" s="35"/>
       <c r="AR32" s="20" t="s">
         <v>32</v>
       </c>
@@ -10619,7 +10841,6 @@
         <f>ROUND($B$10*(1+$U$2*(1+I2+L2)*E2+$U$3*(1+I3+L3)*E3+$U$4*(1+I4+L4)*E4+$U$5*(1+I5+L5)*E5+$U$6*(1+I6+L6)*E6),0)</f>
         <v>1090</v>
       </c>
-      <c r="AX32" s="35"/>
       <c r="AY32" s="20" t="s">
         <v>32</v>
       </c>

--- a/doc/caste_system.xlsx
+++ b/doc/caste_system.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/349dfb9748b30a92/Asztali gép/ataliasflame_2.0/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3326" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC41C551-48E2-45A6-814F-CAD97E5C04B9}"/>
+  <xr:revisionPtr revIDLastSave="3353" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A55BE310-870A-49C8-A2B0-99EA6CE4ABB0}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="12744" yWindow="10956" windowWidth="2388" windowHeight="564" activeTab="7" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
   </bookViews>
   <sheets>
     <sheet name="caste list" sheetId="1" r:id="rId1"/>
@@ -1699,6 +1699,64 @@
           </rPr>
           <t xml:space="preserve">
 magic</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Mikló Attila</author>
+  </authors>
+  <commentList>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{79C556D0-7010-4305-9BDB-E919A439FE16}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mikló Attila:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+dagger +1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{0259C8DD-5A70-4A6D-81DD-88341699A6CF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mikló Attila:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+dagger +5</t>
         </r>
       </text>
     </comment>
@@ -1898,9 +1956,6 @@
     <t>realmax</t>
   </si>
   <si>
-    <t>pusztakezes sebzés</t>
-  </si>
-  <si>
     <t>sebzés szorzó</t>
   </si>
   <si>
@@ -1962,6 +2017,9 @@
   </si>
   <si>
     <t>-&gt;</t>
+  </si>
+  <si>
+    <t>élterő</t>
   </si>
 </sst>
 </file>
@@ -2177,7 +2235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2232,6 +2290,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2653,7 +2713,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>0</v>
@@ -2708,7 +2768,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="30" t="s">
@@ -2764,7 +2824,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="30" t="s">
         <v>2</v>
       </c>
@@ -2818,7 +2878,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="30" t="s">
         <v>3</v>
       </c>
@@ -2872,7 +2932,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -2926,7 +2986,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="31" t="s">
         <v>4</v>
       </c>
@@ -2980,7 +3040,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="32" t="s">
@@ -3036,7 +3096,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="32" t="s">
         <v>6</v>
       </c>
@@ -3090,7 +3150,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="32" t="s">
         <v>7</v>
       </c>
@@ -3144,7 +3204,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="29" t="s">
         <v>8</v>
       </c>
@@ -3198,8 +3258,8 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
-        <v>81</v>
+      <c r="A12" s="41" t="s">
+        <v>80</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>9</v>
@@ -3254,7 +3314,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="30" t="s">
         <v>10</v>
       </c>
@@ -3308,7 +3368,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="30" t="s">
         <v>11</v>
       </c>
@@ -3362,7 +3422,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="31" t="s">
         <v>12</v>
       </c>
@@ -3416,8 +3476,8 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
-        <v>82</v>
+      <c r="A16" s="41" t="s">
+        <v>81</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>13</v>
@@ -3472,7 +3532,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="30" t="s">
         <v>14</v>
       </c>
@@ -3526,7 +3586,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="30" t="s">
         <v>15</v>
       </c>
@@ -3580,7 +3640,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="31" t="s">
         <v>16</v>
       </c>
@@ -3634,8 +3694,8 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
-        <v>83</v>
+      <c r="A20" s="38" t="s">
+        <v>82</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>17</v>
@@ -3690,7 +3750,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="30" t="s">
         <v>18</v>
       </c>
@@ -3744,7 +3804,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="30" t="s">
         <v>19</v>
       </c>
@@ -3798,7 +3858,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="38"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="31" t="s">
         <v>20</v>
       </c>
@@ -5779,7 +5839,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5980,13 +6040,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
-        <v>78</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -5997,7 +6057,7 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -6796,11 +6856,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8DF294-C85C-47A3-9A81-4E26EFDC10EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8DF294-C85C-47A3-9A81-4E26EFDC10EC}">
   <dimension ref="A1:BK54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BF29" sqref="BF29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -6932,54 +6992,54 @@
       <c r="U1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AD1" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AD1" s="42" t="s">
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AK1" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AK1" s="42" t="s">
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AR1" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AR1" s="42" t="s">
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AY1" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ1" s="44"/>
+      <c r="BA1" s="44"/>
+      <c r="BB1" s="44"/>
+      <c r="BC1" s="44"/>
+      <c r="BD1" s="44"/>
+      <c r="BF1" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="42"/>
-      <c r="AY1" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ1" s="42"/>
-      <c r="BA1" s="42"/>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="42"/>
-      <c r="BD1" s="42"/>
-      <c r="BF1" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG1" s="42"/>
-      <c r="BH1" s="42"/>
-      <c r="BI1" s="42"/>
-      <c r="BJ1" s="42"/>
-      <c r="BK1" s="42"/>
+      <c r="BG1" s="44"/>
+      <c r="BH1" s="44"/>
+      <c r="BI1" s="44"/>
+      <c r="BJ1" s="44"/>
+      <c r="BK1" s="44"/>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
@@ -7111,7 +7171,7 @@
         <v>100</v>
       </c>
       <c r="W3" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X3" s="18" t="s">
         <v>43</v>
@@ -7123,13 +7183,13 @@
         <v>54</v>
       </c>
       <c r="AA3" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB3" s="18" t="s">
         <v>55</v>
       </c>
       <c r="AD3" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AE3" s="18" t="s">
         <v>43</v>
@@ -7141,13 +7201,13 @@
         <v>54</v>
       </c>
       <c r="AH3" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI3" s="18" t="s">
         <v>55</v>
       </c>
       <c r="AK3" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AL3" s="18" t="s">
         <v>43</v>
@@ -7159,13 +7219,13 @@
         <v>54</v>
       </c>
       <c r="AO3" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AP3" s="18" t="s">
         <v>55</v>
       </c>
       <c r="AR3" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AS3" s="18" t="s">
         <v>43</v>
@@ -7177,13 +7237,13 @@
         <v>54</v>
       </c>
       <c r="AV3" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AW3" s="18" t="s">
         <v>55</v>
       </c>
       <c r="AY3" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AZ3" s="18" t="s">
         <v>43</v>
@@ -7195,13 +7255,13 @@
         <v>54</v>
       </c>
       <c r="BC3" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BD3" s="18" t="s">
         <v>55</v>
       </c>
       <c r="BF3" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BG3" s="18" t="s">
         <v>43</v>
@@ -7213,7 +7273,7 @@
         <v>54</v>
       </c>
       <c r="BJ3" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BK3" s="18" t="s">
         <v>55</v>
@@ -7292,7 +7352,7 @@
       </c>
       <c r="Y4" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+F2+L2)*C2+$Q$3*(1+F3+L3)*C3+$Q$4*(1+F4+L4)*C4+$Q$5*(1+F5+L5)*C5+$Q$6*(1+F6+L6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z4" s="18">
         <f>ROUND($B$12*(1+AA4),0)</f>
@@ -7315,7 +7375,7 @@
       </c>
       <c r="AF4" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+G2+L2)*C2+$Q$3*(1+G3+L3)*C3+$Q$4*(1+G4+L4)*C4+$Q$5*(1+G5+L5)*C5+$Q$6*(1+G6+L6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG4" s="18">
         <f>ROUND($B$12*(1+AH4),0)</f>
@@ -7338,7 +7398,7 @@
       </c>
       <c r="AM4" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+H2+L2)*C2+$Q$3*(1+H3+L3)*C3+$Q$4*(1+H4+L4)*C4+$Q$5*(1+H5+L5)*C5+$Q$6*(1+H6+L6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN4" s="18">
         <f>ROUND($B$12*(1+AO4),0)</f>
@@ -7361,7 +7421,7 @@
       </c>
       <c r="AT4" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+I2+L2)*C2+$Q$3*(1+I3+L3)*C3+$Q$4*(1+I4+L4)*C4+$Q$5*(1+I5+L5)*C5+$Q$6*(1+I6+L6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU4" s="18">
         <f>ROUND($B$12*(1+AV4),0)</f>
@@ -7384,7 +7444,7 @@
       </c>
       <c r="BA4" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+J2+L2)*C2+$Q$3*(1+J3+L3)*C3+$Q$4*(1+J4+L4)*C4+$Q$5*(1+J5+L5)*C5+$Q$6*(1+J6+L6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB4" s="18">
         <f>ROUND($B$12*(1+BC4),0)</f>
@@ -7407,7 +7467,7 @@
       </c>
       <c r="BH4" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+K2+L2)*C2+$Q$3*(1+K3+L3)*C3+$Q$4*(1+K4+L4)*C4+$Q$5*(1+K5+L5)*C5+$Q$6*(1+K6+L6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BI4" s="18">
         <f>ROUND($B$12*(1+BJ4),0)</f>
@@ -7495,7 +7555,7 @@
       </c>
       <c r="Y5" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+F2+M2)*C2+$Q$3*(1+F3+M3)*C3+$Q$4*(1+F4+M4)*C4+$Q$5*(1+F5+M5)*C5+$Q$6*(1+F6+M6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z5" s="18">
         <f>ROUND($B$12*(1+AA5),0)</f>
@@ -7518,7 +7578,7 @@
       </c>
       <c r="AF5" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+G2+M2)*C2+$Q$3*(1+G3+M3)*C3+$Q$4*(1+G4+M4)*C4+$Q$5*(1+G5+M5)*C5+$Q$6*(1+G6+M6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG5" s="18">
         <f>ROUND($B$12*(1+AH5),0)</f>
@@ -7541,7 +7601,7 @@
       </c>
       <c r="AM5" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+H2+M2)*C2+$Q$3*(1+H3+M3)*C3+$Q$4*(1+H4+M4)*C4+$Q$5*(1+H5+M5)*C5+$Q$6*(1+H6+M6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN5" s="18">
         <f>ROUND($B$12*(1+AO5),0)</f>
@@ -7564,7 +7624,7 @@
       </c>
       <c r="AT5" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+I2+M2)*C2+$Q$3*(1+I3+M3)*C3+$Q$4*(1+I4+M4)*C4+$Q$5*(1+I5+M5)*C5+$Q$6*(1+I6+M6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU5" s="18">
         <f>ROUND($B$12*(1+AV5),0)</f>
@@ -7587,7 +7647,7 @@
       </c>
       <c r="BA5" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+J2+M2)*C2+$Q$3*(1+J3+M3)*C3+$Q$4*(1+J4+M4)*C4+$Q$5*(1+J5+M5)*C5+$Q$6*(1+J6+M6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB5" s="18">
         <f>ROUND($B$12*(1+BC5),0)</f>
@@ -7610,7 +7670,7 @@
       </c>
       <c r="BH5" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+K2+M2)*C2+$Q$3*(1+K3+M3)*C3+$Q$4*(1+K4+M4)*C4+$Q$5*(1+K5+M5)*C5+$Q$6*(1+K6+M6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BI5" s="18">
         <f>ROUND($B$12*(1+BJ5),0)</f>
@@ -7698,7 +7758,7 @@
       </c>
       <c r="Y6" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+F2+N2)*C2+$Q$3*(1+F3+N3)*C3+$Q$4*(1+F4+N4)*C4+$Q$5*(1+F5+N5)*C5+$Q$6*(1+F6+N6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z6" s="18">
         <f>ROUND($B$12*(1+AA6),0)</f>
@@ -7721,7 +7781,7 @@
       </c>
       <c r="AF6" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+G2+N2)*C2+$Q$3*(1+G3+N3)*C3+$Q$4*(1+G4+N4)*C4+$Q$5*(1+G5+N5)*C5+$Q$6*(1+G6+N6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG6" s="18">
         <f t="shared" ref="AG6:AG7" si="0">ROUND($B$12*(1+AH6),0)</f>
@@ -7744,7 +7804,7 @@
       </c>
       <c r="AM6" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+H2+N2)*C2+$Q$3*(1+H3+N3)*C3+$Q$4*(1+H4+N4)*C4+$Q$5*(1+H5+N5)*C5+$Q$6*(1+H6+N6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN6" s="18">
         <f t="shared" ref="AN6:AN8" si="1">ROUND($B$12*(1+AO6),0)</f>
@@ -7767,7 +7827,7 @@
       </c>
       <c r="AT6" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+I2+N2)*C2+$Q$3*(1+I3+N3)*C3+$Q$4*(1+I4+N4)*C4+$Q$5*(1+I5+N5)*C5+$Q$6*(1+I6+N6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU6" s="18">
         <f t="shared" ref="AU6:AU8" si="2">ROUND($B$12*(1+AV6),0)</f>
@@ -7790,7 +7850,7 @@
       </c>
       <c r="BA6" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+J2+N2)*C2+$Q$3*(1+J3+N3)*C3+$Q$4*(1+J4+N4)*C4+$Q$5*(1+J5+N5)*C5+$Q$6*(1+J6+N6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB6" s="18">
         <f t="shared" ref="BB6:BB8" si="3">ROUND($B$12*(1+BC6),0)</f>
@@ -7813,7 +7873,7 @@
       </c>
       <c r="BH6" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+K2+N2)*C2+$Q$3*(1+K3+N3)*C3+$Q$4*(1+K4+N4)*C4+$Q$5*(1+K5+N5)*C5+$Q$6*(1+K6+N6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BI6" s="18">
         <f t="shared" ref="BI6:BI8" si="4">ROUND($B$12*(1+BJ6),0)</f>
@@ -7838,7 +7898,7 @@
       </c>
       <c r="Y7" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+F2+O2)*C2+$Q$3*(1+F3+O3)*C3+$Q$4*(1+F4+O4)*C4+$Q$5*(1+F5+O5)*C5+$Q$6*(1+F6+O6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z7" s="18">
         <f t="shared" ref="Z7" si="5">ROUND($B$12*(1+AA7),0)</f>
@@ -7861,7 +7921,7 @@
       </c>
       <c r="AF7" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+G2+O2)*C2+$Q$3*(1+G3+O3)*C3+$Q$4*(1+G4+O4)*C4+$Q$5*(1+G5+O5)*C5+$Q$6*(1+G6+O6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG7" s="18">
         <f t="shared" si="0"/>
@@ -7884,7 +7944,7 @@
       </c>
       <c r="AM7" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+H2+O2)*C2+$Q$3*(1+H3+O3)*C3+$Q$4*(1+H4+O4)*C4+$Q$5*(1+H5+O5)*C5+$Q$6*(1+H6+O6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN7" s="18">
         <f t="shared" si="1"/>
@@ -7907,7 +7967,7 @@
       </c>
       <c r="AT7" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+I2+O2)*C2+$Q$3*(1+I3+O3)*C3+$Q$4*(1+I4+O4)*C4+$Q$5*(1+I5+O5)*C5+$Q$6*(1+I6+O6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU7" s="18">
         <f t="shared" si="2"/>
@@ -7930,7 +7990,7 @@
       </c>
       <c r="BA7" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+J2+O2)*C2+$Q$3*(1+J3+O3)*C3+$Q$4*(1+J4+O4)*C4+$Q$5*(1+J5+O5)*C5+$Q$6*(1+J6+O6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB7" s="18">
         <f t="shared" si="3"/>
@@ -7953,7 +8013,7 @@
       </c>
       <c r="BH7" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+K2+O2)*C2+$Q$3*(1+K3+O3)*C3+$Q$4*(1+K4+O4)*C4+$Q$5*(1+K5+O5)*C5+$Q$6*(1+K6+O6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BI7" s="18">
         <f t="shared" si="4"/>
@@ -7970,7 +8030,7 @@
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B8" s="21">
         <v>80</v>
@@ -7998,7 +8058,7 @@
       </c>
       <c r="Y8" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+F2+P2)*C2+$Q$3*(1+F3+P3)*C3+$Q$4*(1+F4+P4)*C4+$Q$5*(1+F5+P5)*C5+$Q$6*(1+F6+P6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z8" s="18">
         <f>ROUND($B$12*(1+AA8),0)</f>
@@ -8021,7 +8081,7 @@
       </c>
       <c r="AF8" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+G2+P2)*C2+$Q$3*(1+G3+P3)*C3+$Q$4*(1+G4+P4)*C4+$Q$5*(1+G5+P5)*C5+$Q$6*(1+G6+P6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG8" s="18">
         <f>ROUND($B$12*(1+AH8),0)</f>
@@ -8044,7 +8104,7 @@
       </c>
       <c r="AM8" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+H2+P2)*C2+$Q$3*(1+H3+P3)*C3+$Q$4*(1+H4+P4)*C4+$Q$5*(1+H5+P5)*C5+$Q$6*(1+H6+P6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN8" s="18">
         <f t="shared" si="1"/>
@@ -8067,7 +8127,7 @@
       </c>
       <c r="AT8" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+I2+P2)*C2+$Q$3*(1+I3+P3)*C3+$Q$4*(1+I4+P4)*C4+$Q$5*(1+I5+P5)*C5+$Q$6*(1+I6+P6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU8" s="18">
         <f t="shared" si="2"/>
@@ -8090,7 +8150,7 @@
       </c>
       <c r="BA8" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+J2+P2)*C2+$Q$3*(1+J3+P3)*C3+$Q$4*(1+J4+P4)*C4+$Q$5*(1+J5+P5)*C5+$Q$6*(1+J6+P6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB8" s="18">
         <f t="shared" si="3"/>
@@ -8113,7 +8173,7 @@
       </c>
       <c r="BH8" s="18">
         <f>ROUND($B$9*(1+$Q$2*(1+K2+P2)*C2+$Q$3*(1+K3+P3)*C3+$Q$4*(1+K4+P4)*C4+$Q$5*(1+K5+P5)*C5+$Q$6*(1+K6+P6)*C6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BI8" s="18">
         <f t="shared" si="4"/>
@@ -8130,10 +8190,11 @@
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B9" s="21">
-        <v>20</v>
+        <f>20+1</f>
+        <v>21</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -8152,7 +8213,7 @@
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B10" s="21">
         <v>100</v>
@@ -8172,7 +8233,7 @@
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
       <c r="W10" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X10" s="18" t="s">
         <v>43</v>
@@ -8184,13 +8245,13 @@
         <v>54</v>
       </c>
       <c r="AA10" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB10" s="18" t="s">
         <v>55</v>
       </c>
       <c r="AD10" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AE10" s="18" t="s">
         <v>43</v>
@@ -8202,13 +8263,13 @@
         <v>54</v>
       </c>
       <c r="AH10" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI10" s="18" t="s">
         <v>55</v>
       </c>
       <c r="AK10" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AL10" s="18" t="s">
         <v>43</v>
@@ -8220,13 +8281,13 @@
         <v>54</v>
       </c>
       <c r="AO10" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AP10" s="18" t="s">
         <v>55</v>
       </c>
       <c r="AR10" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AS10" s="18" t="s">
         <v>43</v>
@@ -8238,13 +8299,13 @@
         <v>54</v>
       </c>
       <c r="AV10" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AW10" s="18" t="s">
         <v>55</v>
       </c>
       <c r="AY10" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AZ10" s="18" t="s">
         <v>43</v>
@@ -8256,13 +8317,13 @@
         <v>54</v>
       </c>
       <c r="BC10" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BD10" s="18" t="s">
         <v>55</v>
       </c>
       <c r="BF10" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BG10" s="18" t="s">
         <v>43</v>
@@ -8274,7 +8335,7 @@
         <v>54</v>
       </c>
       <c r="BJ10" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BK10" s="18" t="s">
         <v>55</v>
@@ -8282,7 +8343,7 @@
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B11" s="21">
         <v>0</v>
@@ -8305,7 +8366,7 @@
       </c>
       <c r="Y11" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+F2+L2)*C2+$R$3*(1+F3+L3)*C3+$R$4*(1+F4+L4)*C4+$R$5*(1+F5+L5)*C5+$R$6*(1+F6+L6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z11" s="18">
         <f>ROUND($B$12*(1+AA11),0)</f>
@@ -8328,7 +8389,7 @@
       </c>
       <c r="AF11" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+G2+L2)*C2+$R$3*(1+G3+L3)*C3+$R$4*(1+G4+L4)*C4+$R$5*(1+G5+L5)*C5+$R$6*(1+G6+L6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG11" s="18">
         <f>ROUND($B$12*(1+AH11),0)</f>
@@ -8351,7 +8412,7 @@
       </c>
       <c r="AM11" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+H2+L2)*C2+$R$3*(1+H3+L3)*C3+$R$4*(1+H4+L4)*C4+$R$5*(1+H5+L5)*C5+$R$6*(1+H6+L6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN11" s="18">
         <f t="shared" ref="AN11:AN15" si="6">ROUND($B$12*(1+AO11),0)</f>
@@ -8374,7 +8435,7 @@
       </c>
       <c r="AT11" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+I2+L2)*C2+$R$3*(1+I3+L3)*C3+$R$4*(1+I4+L4)*C4+$R$5*(1+I5+L5)*C5+$R$6*(1+I6+L6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU11" s="18">
         <f t="shared" ref="AU11:AU15" si="7">ROUND($B$12*(1+AV11),0)</f>
@@ -8397,7 +8458,7 @@
       </c>
       <c r="BA11" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+J2+L2)*C2+$R$3*(1+J3+L3)*C3+$R$4*(1+J4+L4)*C4+$R$5*(1+J5+L5)*C5+$R$6*(1+J6+L6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB11" s="18">
         <f t="shared" ref="BB11:BB15" si="8">ROUND($B$12*(1+BC11),0)</f>
@@ -8420,7 +8481,7 @@
       </c>
       <c r="BH11" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+K2+L2)*C2+$R$3*(1+K3+L3)*C3+$R$4*(1+K4+L4)*C4+$R$5*(1+K5+L5)*C5+$R$6*(1+K6+L6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BI11" s="18">
         <f t="shared" ref="BI11:BI15" si="9">ROUND($B$12*(1+BJ11),0)</f>
@@ -8437,9 +8498,10 @@
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B12" s="21">
+        <f>0+5</f>
         <v>5</v>
       </c>
       <c r="C12" s="17"/>
@@ -8460,7 +8522,7 @@
       </c>
       <c r="Y12" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+F2+M2)*C2+$R$3*(1+F3+M3)*C3+$R$4*(1+F4+M4)*C4+$R$5*(1+F5+M5)*C5+$R$6*(1+F6+M6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z12" s="18">
         <f>ROUND($B$12*(1+AA12),0)</f>
@@ -8483,7 +8545,7 @@
       </c>
       <c r="AF12" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+G2+M2)*C2+$R$3*(1+G3+M3)*C3+$R$4*(1+G4+M4)*C4+$R$5*(1+G5+M5)*C5+$R$6*(1+G6+M6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG12" s="18">
         <f>ROUND($B$12*(1+AH12),0)</f>
@@ -8506,7 +8568,7 @@
       </c>
       <c r="AM12" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+H2+M2)*C2+$R$3*(1+H3+M3)*C3+$R$4*(1+H4+M4)*C4+$R$5*(1+H5+M5)*C5+$R$6*(1+H6+M6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN12" s="18">
         <f t="shared" si="6"/>
@@ -8529,7 +8591,7 @@
       </c>
       <c r="AT12" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+I2+M2)*C2+$R$3*(1+I3+M3)*C3+$R$4*(1+I4+M4)*C4+$R$5*(1+I5+M5)*C5+$R$6*(1+I6+M6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU12" s="18">
         <f t="shared" si="7"/>
@@ -8552,7 +8614,7 @@
       </c>
       <c r="BA12" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+J2+M2)*C2+$R$3*(1+J3+M3)*C3+$R$4*(1+J4+M4)*C4+$R$5*(1+J5+M5)*C5+$R$6*(1+J6+M6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB12" s="18">
         <f t="shared" si="8"/>
@@ -8575,7 +8637,7 @@
       </c>
       <c r="BH12" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+K2+M2)*C2+$R$3*(1+K3+M3)*C3+$R$4*(1+K4+M4)*C4+$R$5*(1+K5+M5)*C5+$R$6*(1+K6+M6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BI12" s="18">
         <f t="shared" si="9"/>
@@ -8601,7 +8663,7 @@
       </c>
       <c r="Y13" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+F2+N2)*C2+$R$3*(1+F3+N3)*C3+$R$4*(1+F4+N4)*C4+$R$5*(1+F5+N5)*C5+$R$6*(1+F6+N6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z13" s="18">
         <f t="shared" ref="Z13:Z15" si="10">ROUND($B$12*(1+AA13),0)</f>
@@ -8624,7 +8686,7 @@
       </c>
       <c r="AF13" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+G2+N2)*C2+$R$3*(1+G3+N3)*C3+$R$4*(1+G4+N4)*C4+$R$5*(1+G5+N5)*C5+$R$6*(1+G6+N6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG13" s="18">
         <f t="shared" ref="AG13:AG15" si="11">ROUND($B$12*(1+AH13),0)</f>
@@ -8647,7 +8709,7 @@
       </c>
       <c r="AM13" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+H2+N2)*C2+$R$3*(1+H3+N3)*C3+$R$4*(1+H4+N4)*C4+$R$5*(1+H5+N5)*C5+$R$6*(1+H6+N6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN13" s="18">
         <f t="shared" si="6"/>
@@ -8670,7 +8732,7 @@
       </c>
       <c r="AT13" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+I2+N2)*C2+$R$3*(1+I3+N3)*C3+$R$4*(1+I4+N4)*C4+$R$5*(1+I5+N5)*C5+$R$6*(1+I6+N6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU13" s="18">
         <f t="shared" si="7"/>
@@ -8693,7 +8755,7 @@
       </c>
       <c r="BA13" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+J2+N2)*C2+$R$3*(1+J3+N3)*C3+$R$4*(1+J4+N4)*C4+$R$5*(1+J5+N5)*C5+$R$6*(1+J6+N6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB13" s="18">
         <f t="shared" si="8"/>
@@ -8716,7 +8778,7 @@
       </c>
       <c r="BH13" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+K2+N2)*C2+$R$3*(1+K3+N3)*C3+$R$4*(1+K4+N4)*C4+$R$5*(1+K5+N5)*C5+$R$6*(1+K6+N6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BI13" s="18">
         <f t="shared" si="9"/>
@@ -8742,7 +8804,7 @@
       </c>
       <c r="Y14" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+F2+O2)*C2+$R$3*(1+F3+O3)*C3+$R$4*(1+F4+O4)*C4+$R$5*(1+F5+O5)*C5+$R$6*(1+F6+O6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z14" s="18">
         <f t="shared" si="10"/>
@@ -8765,7 +8827,7 @@
       </c>
       <c r="AF14" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+G2+O2)*C2+$R$3*(1+G3+O3)*C3+$R$4*(1+G4+O4)*C4+$R$5*(1+G5+O5)*C5+$R$6*(1+G6+O6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG14" s="18">
         <f t="shared" si="11"/>
@@ -8788,7 +8850,7 @@
       </c>
       <c r="AM14" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+H2+O2)*C2+$R$3*(1+H3+O3)*C3+$R$4*(1+H4+O4)*C4+$R$5*(1+H5+O5)*C5+$R$6*(1+H6+O6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN14" s="18">
         <f t="shared" si="6"/>
@@ -8811,7 +8873,7 @@
       </c>
       <c r="AT14" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+I2+O2)*C2+$R$3*(1+I3+O3)*C3+$R$4*(1+I4+O4)*C4+$R$5*(1+I5+O5)*C5+$R$6*(1+I6+O6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU14" s="18">
         <f t="shared" si="7"/>
@@ -8834,7 +8896,7 @@
       </c>
       <c r="BA14" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+J2+O2)*C2+$R$3*(1+J3+O3)*C3+$R$4*(1+J4+O4)*C4+$R$5*(1+J5+O5)*C5+$R$6*(1+J6+O6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB14" s="18">
         <f t="shared" si="8"/>
@@ -8857,7 +8919,7 @@
       </c>
       <c r="BH14" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+K2+O2)*C2+$R$3*(1+K3+O3)*C3+$R$4*(1+K4+O4)*C4+$R$5*(1+K5+O5)*C5+$R$6*(1+K6+O6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BI14" s="18">
         <f t="shared" si="9"/>
@@ -8883,7 +8945,7 @@
       </c>
       <c r="Y15" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+F2+P2)*C2+$R$3*(1+F3+P3)*C3+$R$4*(1+F4+P4)*C4+$R$5*(1+F5+P5)*C5+$R$6*(1+F6+P6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z15" s="18">
         <f t="shared" si="10"/>
@@ -8906,7 +8968,7 @@
       </c>
       <c r="AF15" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+G2+P2)*C2+$R$3*(1+G3+P3)*C3+$R$4*(1+G4+P4)*C4+$R$5*(1+G5+P5)*C5+$R$6*(1+G6+P6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG15" s="18">
         <f t="shared" si="11"/>
@@ -8929,7 +8991,7 @@
       </c>
       <c r="AM15" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+H2+P2)*C2+$R$3*(1+H3+P3)*C3+$R$4*(1+H4+P4)*C4+$R$5*(1+H5+P5)*C5+$R$6*(1+H6+P6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN15" s="18">
         <f t="shared" si="6"/>
@@ -8952,7 +9014,7 @@
       </c>
       <c r="AT15" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+I2+P2)*C2+$R$3*(1+I3+P3)*C3+$R$4*(1+I4+P4)*C4+$R$5*(1+I5+P5)*C5+$R$6*(1+I6+P6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU15" s="18">
         <f t="shared" si="7"/>
@@ -8975,7 +9037,7 @@
       </c>
       <c r="BA15" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+J2+P2)*C2+$R$3*(1+J3+P3)*C3+$R$4*(1+J4+P4)*C4+$R$5*(1+J5+P5)*C5+$R$6*(1+J6+P6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB15" s="18">
         <f t="shared" si="8"/>
@@ -8998,7 +9060,7 @@
       </c>
       <c r="BH15" s="18">
         <f>ROUND($B$9*(1+$R$2*(1+K2+P2)*C2+$R$3*(1+K3+P3)*C3+$R$4*(1+K4+P4)*C4+$R$5*(1+K5+P5)*C5+$R$6*(1+K6+P6)*C6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BI15" s="18">
         <f t="shared" si="9"/>
@@ -9018,7 +9080,7 @@
     </row>
     <row r="17" spans="23:63" x14ac:dyDescent="0.2">
       <c r="W17" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X17" s="18" t="s">
         <v>43</v>
@@ -9030,13 +9092,13 @@
         <v>54</v>
       </c>
       <c r="AA17" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB17" s="18" t="s">
         <v>55</v>
       </c>
       <c r="AD17" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AE17" s="18" t="s">
         <v>43</v>
@@ -9048,13 +9110,13 @@
         <v>54</v>
       </c>
       <c r="AH17" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI17" s="18" t="s">
         <v>55</v>
       </c>
       <c r="AK17" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AL17" s="18" t="s">
         <v>43</v>
@@ -9066,13 +9128,13 @@
         <v>54</v>
       </c>
       <c r="AO17" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AP17" s="18" t="s">
         <v>55</v>
       </c>
       <c r="AR17" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AS17" s="18" t="s">
         <v>43</v>
@@ -9084,13 +9146,13 @@
         <v>54</v>
       </c>
       <c r="AV17" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AW17" s="18" t="s">
         <v>55</v>
       </c>
       <c r="AY17" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AZ17" s="18" t="s">
         <v>43</v>
@@ -9102,13 +9164,13 @@
         <v>54</v>
       </c>
       <c r="BC17" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BD17" s="18" t="s">
         <v>55</v>
       </c>
       <c r="BF17" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BG17" s="18" t="s">
         <v>43</v>
@@ -9120,7 +9182,7 @@
         <v>54</v>
       </c>
       <c r="BJ17" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BK17" s="18" t="s">
         <v>55</v>
@@ -9136,7 +9198,7 @@
       </c>
       <c r="Y18" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+F2+L2)*C2+$S$3*(1+F3+L3)*C3+$S$4*(1+F4+L4)*C4+$S$5*(1+F5+L5)*C5+$S$6*(1+F6+L6)*C6),0)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z18" s="18">
         <f>ROUND($B$12*(1+AA18),0)</f>
@@ -9159,7 +9221,7 @@
       </c>
       <c r="AF18" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+G2+L2)*C2+$S$3*(1+G3+L3)*C3+$S$4*(1+G4+L4)*C4+$S$5*(1+G5+L5)*C5+$S$6*(1+G6+L6)*C6),0)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG18" s="18">
         <f>ROUND($B$12*(1+AH18),0)</f>
@@ -9182,7 +9244,7 @@
       </c>
       <c r="AM18" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+H2+L2)*C2+$S$3*(1+H3+L3)*C3+$S$4*(1+H4+L4)*C4+$S$5*(1+H5+L5)*C5+$S$6*(1+H6+L6)*C6),0)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AN18" s="18">
         <f t="shared" ref="AN18:AN22" si="12">ROUND($B$12*(1+AO18),0)</f>
@@ -9205,7 +9267,7 @@
       </c>
       <c r="AT18" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+I2+L2)*C2+$S$3*(1+I3+L3)*C3+$S$4*(1+I4+L4)*C4+$S$5*(1+I5+L5)*C5+$S$6*(1+I6+L6)*C6),0)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AU18" s="18">
         <f t="shared" ref="AU18:AU22" si="13">ROUND($B$12*(1+AV18),0)</f>
@@ -9228,7 +9290,7 @@
       </c>
       <c r="BA18" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+J2+L2)*C2+$S$3*(1+J3+L3)*C3+$S$4*(1+J4+L4)*C4+$S$5*(1+J5+L5)*C5+$S$6*(1+J6+L6)*C6),0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BB18" s="18">
         <f t="shared" ref="BB18:BB22" si="14">ROUND($B$12*(1+BC18),0)</f>
@@ -9251,7 +9313,7 @@
       </c>
       <c r="BH18" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+K2+L2)*C2+$S$3*(1+K3+L3)*C3+$S$4*(1+K4+L4)*C4+$S$5*(1+K5+L5)*C5+$S$6*(1+K6+L6)*C6),0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BI18" s="18">
         <f t="shared" ref="BI18:BI22" si="15">ROUND($B$12*(1+BJ18),0)</f>
@@ -9276,7 +9338,7 @@
       </c>
       <c r="Y19" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+F2+M2)*C2+$S$3*(1+F3+M3)*C3+$S$4*(1+F4+M4)*C4+$S$5*(1+F5+M5)*C5+$S$6*(1+F6+M6)*C6),0)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z19" s="18">
         <f>ROUND($B$12*(1+AA19),0)</f>
@@ -9299,7 +9361,7 @@
       </c>
       <c r="AF19" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+G2+M2)*C2+$S$3*(1+G3+M3)*C3+$S$4*(1+G4+M4)*C4+$S$5*(1+G5+M5)*C5+$S$6*(1+G6+M6)*C6),0)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG19" s="18">
         <f>ROUND($B$12*(1+AH19),0)</f>
@@ -9322,7 +9384,7 @@
       </c>
       <c r="AM19" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+H2+M2)*C2+$S$3*(1+H3+M3)*C3+$S$4*(1+H4+M4)*C4+$S$5*(1+H5+M5)*C5+$S$6*(1+H6+M6)*C6),0)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AN19" s="18">
         <f t="shared" si="12"/>
@@ -9345,7 +9407,7 @@
       </c>
       <c r="AT19" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+I2+M2)*C2+$S$3*(1+I3+M3)*C3+$S$4*(1+I4+M4)*C4+$S$5*(1+I5+M5)*C5+$S$6*(1+I6+M6)*C6),0)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AU19" s="18">
         <f t="shared" si="13"/>
@@ -9368,7 +9430,7 @@
       </c>
       <c r="BA19" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+J2+M2)*C2+$S$3*(1+J3+M3)*C3+$S$4*(1+J4+M4)*C4+$S$5*(1+J5+M5)*C5+$S$6*(1+J6+M6)*C6),0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BB19" s="18">
         <f t="shared" si="14"/>
@@ -9391,7 +9453,7 @@
       </c>
       <c r="BH19" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+K2+M2)*C2+$S$3*(1+K3+M3)*C3+$S$4*(1+K4+M4)*C4+$S$5*(1+K5+M5)*C5+$S$6*(1+K6+M6)*C6),0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BI19" s="18">
         <f t="shared" si="15"/>
@@ -9416,7 +9478,7 @@
       </c>
       <c r="Y20" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+F2+N2)*C2+$S$3*(1+F3+N3)*C3+$S$4*(1+F4+N4)*C4+$S$5*(1+F5+N5)*C5+$S$6*(1+F6+N6)*C6),0)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z20" s="18">
         <f t="shared" ref="Z20:Z22" si="16">ROUND($B$12*(1+AA20),0)</f>
@@ -9439,7 +9501,7 @@
       </c>
       <c r="AF20" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+G2+N2)*C2+$S$3*(1+G3+N3)*C3+$S$4*(1+G4+N4)*C4+$S$5*(1+G5+N5)*C5+$S$6*(1+G6+N6)*C6),0)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG20" s="18">
         <f t="shared" ref="AG20:AG22" si="17">ROUND($B$12*(1+AH20),0)</f>
@@ -9462,7 +9524,7 @@
       </c>
       <c r="AM20" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+H2+N2)*C2+$S$3*(1+H3+N3)*C3+$S$4*(1+H4+N4)*C4+$S$5*(1+H5+N5)*C5+$S$6*(1+H6+N6)*C6),0)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AN20" s="18">
         <f t="shared" si="12"/>
@@ -9485,7 +9547,7 @@
       </c>
       <c r="AT20" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+I2+N2)*C2+$S$3*(1+I3+N3)*C3+$S$4*(1+I4+N4)*C4+$S$5*(1+I5+N5)*C5+$S$6*(1+I6+N6)*C6),0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AU20" s="18">
         <f t="shared" si="13"/>
@@ -9508,7 +9570,7 @@
       </c>
       <c r="BA20" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+J2+N2)*C2+$S$3*(1+J3+N3)*C3+$S$4*(1+J4+N4)*C4+$S$5*(1+J5+N5)*C5+$S$6*(1+J6+N6)*C6),0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BB20" s="18">
         <f t="shared" si="14"/>
@@ -9531,7 +9593,7 @@
       </c>
       <c r="BH20" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+K2+N2)*C2+$S$3*(1+K3+N3)*C3+$S$4*(1+K4+N4)*C4+$S$5*(1+K5+N5)*C5+$S$6*(1+K6+N6)*C6),0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BI20" s="18">
         <f t="shared" si="15"/>
@@ -9556,7 +9618,7 @@
       </c>
       <c r="Y21" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+F2+O2)*C2+$S$3*(1+F3+O3)*C3+$S$4*(1+F4+O4)*C4+$S$5*(1+F5+O5)*C5+$S$6*(1+F6+O6)*C6),0)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z21" s="18">
         <f t="shared" si="16"/>
@@ -9579,7 +9641,7 @@
       </c>
       <c r="AF21" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+G2+O2)*C2+$S$3*(1+G3+O3)*C3+$S$4*(1+G4+O4)*C4+$S$5*(1+G5+O5)*C5+$S$6*(1+G6+O6)*C6),0)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG21" s="18">
         <f t="shared" si="17"/>
@@ -9602,7 +9664,7 @@
       </c>
       <c r="AM21" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+H2+O2)*C2+$S$3*(1+H3+O3)*C3+$S$4*(1+H4+O4)*C4+$S$5*(1+H5+O5)*C5+$S$6*(1+H6+O6)*C6),0)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AN21" s="18">
         <f t="shared" si="12"/>
@@ -9625,7 +9687,7 @@
       </c>
       <c r="AT21" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+I2+O2)*C2+$S$3*(1+I3+O3)*C3+$S$4*(1+I4+O4)*C4+$S$5*(1+I5+O5)*C5+$S$6*(1+I6+O6)*C6),0)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AU21" s="18">
         <f t="shared" si="13"/>
@@ -9648,7 +9710,7 @@
       </c>
       <c r="BA21" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+J2+O2)*C2+$S$3*(1+J3+O3)*C3+$S$4*(1+J4+O4)*C4+$S$5*(1+J5+O5)*C5+$S$6*(1+J6+O6)*C6),0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BB21" s="18">
         <f t="shared" si="14"/>
@@ -9671,7 +9733,7 @@
       </c>
       <c r="BH21" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+K2+O2)*C2+$S$3*(1+K3+O3)*C3+$S$4*(1+K4+O4)*C4+$S$5*(1+K5+O5)*C5+$S$6*(1+K6+O6)*C6),0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BI21" s="18">
         <f t="shared" si="15"/>
@@ -9696,7 +9758,7 @@
       </c>
       <c r="Y22" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+F2+P2)*C2+$S$3*(1+F3+P3)*C3+$S$4*(1+F4+P4)*C4+$S$5*(1+F5+P5)*C5+$S$6*(1+F6+P6)*C6),0)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z22" s="18">
         <f t="shared" si="16"/>
@@ -9719,7 +9781,7 @@
       </c>
       <c r="AF22" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+G2+P2)*C2+$S$3*(1+G3+P3)*C3+$S$4*(1+G4+P4)*C4+$S$5*(1+G5+P5)*C5+$S$6*(1+G6+P6)*C6),0)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG22" s="18">
         <f t="shared" si="17"/>
@@ -9742,7 +9804,7 @@
       </c>
       <c r="AM22" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+H2+P2)*C2+$S$3*(1+H3+P3)*C3+$S$4*(1+H4+P4)*C4+$S$5*(1+H5+P5)*C5+$S$6*(1+H6+P6)*C6),0)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AN22" s="18">
         <f t="shared" si="12"/>
@@ -9765,7 +9827,7 @@
       </c>
       <c r="AT22" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+I2+P2)*C2+$S$3*(1+I3+P3)*C3+$S$4*(1+I4+P4)*C4+$S$5*(1+I5+P5)*C5+$S$6*(1+I6+P6)*C6),0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AU22" s="18">
         <f t="shared" si="13"/>
@@ -9788,7 +9850,7 @@
       </c>
       <c r="BA22" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+J2+P2)*C2+$S$3*(1+J3+P3)*C3+$S$4*(1+J4+P4)*C4+$S$5*(1+J5+P5)*C5+$S$6*(1+J6+P6)*C6),0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BB22" s="18">
         <f t="shared" si="14"/>
@@ -9811,7 +9873,7 @@
       </c>
       <c r="BH22" s="18">
         <f>ROUND($B$9*(1+$S$2*(1+K2+P2)*C2+$S$3*(1+K3+P3)*C3+$S$4*(1+K4+P4)*C4+$S$5*(1+K5+P5)*C5+$S$6*(1+K6+P6)*C6),0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BI22" s="18">
         <f t="shared" si="15"/>
@@ -9828,7 +9890,7 @@
     </row>
     <row r="24" spans="23:63" x14ac:dyDescent="0.2">
       <c r="W24" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X24" s="18" t="s">
         <v>43</v>
@@ -9840,13 +9902,13 @@
         <v>54</v>
       </c>
       <c r="AA24" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB24" s="18" t="s">
         <v>55</v>
       </c>
       <c r="AD24" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE24" s="18" t="s">
         <v>43</v>
@@ -9858,13 +9920,13 @@
         <v>54</v>
       </c>
       <c r="AH24" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI24" s="18" t="s">
         <v>55</v>
       </c>
       <c r="AK24" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL24" s="18" t="s">
         <v>43</v>
@@ -9876,13 +9938,13 @@
         <v>54</v>
       </c>
       <c r="AO24" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AP24" s="18" t="s">
         <v>55</v>
       </c>
       <c r="AR24" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AS24" s="18" t="s">
         <v>43</v>
@@ -9894,13 +9956,13 @@
         <v>54</v>
       </c>
       <c r="AV24" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AW24" s="18" t="s">
         <v>55</v>
       </c>
       <c r="AY24" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AZ24" s="18" t="s">
         <v>43</v>
@@ -9912,13 +9974,13 @@
         <v>54</v>
       </c>
       <c r="BC24" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BD24" s="18" t="s">
         <v>55</v>
       </c>
       <c r="BF24" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BG24" s="18" t="s">
         <v>43</v>
@@ -9930,7 +9992,7 @@
         <v>54</v>
       </c>
       <c r="BJ24" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BK24" s="18" t="s">
         <v>55</v>
@@ -9946,7 +10008,7 @@
       </c>
       <c r="Y25" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+F2+L2)*C2+$T$3*(1+F3+L3)*C3+$T$4*(1+F4+L4)*C4+$T$5*(1+F5+L5)*C5+$T$6*(1+F6+L6)*C6),0)</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Z25" s="18">
         <f t="shared" ref="Z25:Z29" si="18">ROUND($B$12*(1+AA25),0)</f>
@@ -9969,7 +10031,7 @@
       </c>
       <c r="AF25" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+G2+L2)*C2+$T$3*(1+G3+L3)*C3+$T$4*(1+G4+L4)*C4+$T$5*(1+G5+L5)*C5+$T$6*(1+G6+L6)*C6),0)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AG25" s="18">
         <f t="shared" ref="AG25:AG29" si="19">ROUND($B$12*(1+AH25),0)</f>
@@ -9992,7 +10054,7 @@
       </c>
       <c r="AM25" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+H2+L2)*C2+$T$3*(1+H3+L3)*C3+$T$4*(1+H4+L4)*C4+$T$5*(1+H5+L5)*C5+$T$6*(1+H6+L6)*C6),0)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AN25" s="18">
         <f t="shared" ref="AN25:AN29" si="20">ROUND($B$12*(1+AO25),0)</f>
@@ -10015,7 +10077,7 @@
       </c>
       <c r="AT25" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+I2+L2)*C2+$T$3*(1+I3+L3)*C3+$T$4*(1+I4+L4)*C4+$T$5*(1+I5+L5)*C5+$T$6*(1+I6+L6)*C6),0)</f>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AU25" s="18">
         <f t="shared" ref="AU25:AU29" si="21">ROUND($B$12*(1+AV25),0)</f>
@@ -10038,7 +10100,7 @@
       </c>
       <c r="BA25" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+J2+L2)*C2+$T$3*(1+J3+L3)*C3+$T$4*(1+J4+L4)*C4+$T$5*(1+J5+L5)*C5+$T$6*(1+J6+L6)*C6),0)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="BB25" s="18">
         <f t="shared" ref="BB25:BB29" si="22">ROUND($B$12*(1+BC25),0)</f>
@@ -10061,7 +10123,7 @@
       </c>
       <c r="BH25" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+K2+L2)*C2+$T$3*(1+K3+L3)*C3+$T$4*(1+K4+L4)*C4+$T$5*(1+K5+L5)*C5+$T$6*(1+K6+L6)*C6),0)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="BI25" s="18">
         <f t="shared" ref="BI25:BI29" si="23">ROUND($B$12*(1+BJ25),0)</f>
@@ -10086,7 +10148,7 @@
       </c>
       <c r="Y26" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+F2+M2)*C2+$T$3*(1+F3+M3)*C3+$T$4*(1+F4+M4)*C4+$T$5*(1+F5+M5)*C5+$T$6*(1+F6+M6)*C6),0)</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Z26" s="18">
         <f t="shared" si="18"/>
@@ -10109,7 +10171,7 @@
       </c>
       <c r="AF26" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+G2+M2)*C2+$T$3*(1+G3+M3)*C3+$T$4*(1+G4+M4)*C4+$T$5*(1+G5+M5)*C5+$T$6*(1+G6+M6)*C6),0)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AG26" s="18">
         <f t="shared" si="19"/>
@@ -10132,7 +10194,7 @@
       </c>
       <c r="AM26" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+H2+M2)*C2+$T$3*(1+H3+M3)*C3+$T$4*(1+H4+M4)*C4+$T$5*(1+H5+M5)*C5+$T$6*(1+H6+M6)*C6),0)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AN26" s="18">
         <f t="shared" si="20"/>
@@ -10155,7 +10217,7 @@
       </c>
       <c r="AT26" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+I2+M2)*C2+$T$3*(1+I3+M3)*C3+$T$4*(1+I4+M4)*C4+$T$5*(1+I5+M5)*C5+$T$6*(1+I6+M6)*C6),0)</f>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AU26" s="18">
         <f t="shared" si="21"/>
@@ -10178,7 +10240,7 @@
       </c>
       <c r="BA26" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+J2+M2)*C2+$T$3*(1+J3+M3)*C3+$T$4*(1+J4+M4)*C4+$T$5*(1+J5+M5)*C5+$T$6*(1+J6+M6)*C6),0)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="BB26" s="18">
         <f t="shared" si="22"/>
@@ -10201,7 +10263,7 @@
       </c>
       <c r="BH26" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+K2+M2)*C2+$T$3*(1+K3+M3)*C3+$T$4*(1+K4+M4)*C4+$T$5*(1+K5+M5)*C5+$T$6*(1+K6+M6)*C6),0)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="BI26" s="18">
         <f t="shared" si="23"/>
@@ -10226,7 +10288,7 @@
       </c>
       <c r="Y27" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+F2+N2)*C2+$T$3*(1+F3+N3)*C3+$T$4*(1+F4+N4)*C4+$T$5*(1+F5+N5)*C5+$T$6*(1+F6+N6)*C6),0)</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Z27" s="18">
         <f t="shared" si="18"/>
@@ -10249,7 +10311,7 @@
       </c>
       <c r="AF27" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+G2+N2)*C2+$T$3*(1+G3+N3)*C3+$T$4*(1+G4+N4)*C4+$T$5*(1+G5+N5)*C5+$T$6*(1+G6+N6)*C6),0)</f>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG27" s="18">
         <f t="shared" si="19"/>
@@ -10272,7 +10334,7 @@
       </c>
       <c r="AM27" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+H2+N2)*C2+$T$3*(1+H3+N3)*C3+$T$4*(1+H4+N4)*C4+$T$5*(1+H5+N5)*C5+$T$6*(1+H6+N6)*C6),0)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AN27" s="18">
         <f t="shared" si="20"/>
@@ -10295,7 +10357,7 @@
       </c>
       <c r="AT27" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+I2+N2)*C2+$T$3*(1+I3+N3)*C3+$T$4*(1+I4+N4)*C4+$T$5*(1+I5+N5)*C5+$T$6*(1+I6+N6)*C6),0)</f>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AU27" s="18">
         <f t="shared" si="21"/>
@@ -10318,7 +10380,7 @@
       </c>
       <c r="BA27" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+J2+N2)*C2+$T$3*(1+J3+N3)*C3+$T$4*(1+J4+N4)*C4+$T$5*(1+J5+N5)*C5+$T$6*(1+J6+N6)*C6),0)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="BB27" s="18">
         <f t="shared" si="22"/>
@@ -10341,7 +10403,7 @@
       </c>
       <c r="BH27" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+K2+N2)*C2+$T$3*(1+K3+N3)*C3+$T$4*(1+K4+N4)*C4+$T$5*(1+K5+N5)*C5+$T$6*(1+K6+N6)*C6),0)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="BI27" s="18">
         <f t="shared" si="23"/>
@@ -10366,7 +10428,7 @@
       </c>
       <c r="Y28" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+F2+O2)*C2+$T$3*(1+F3+O3)*C3+$T$4*(1+F4+O4)*C4+$T$5*(1+F5+O5)*C5+$T$6*(1+F6+O6)*C6),0)</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Z28" s="18">
         <f t="shared" si="18"/>
@@ -10389,7 +10451,7 @@
       </c>
       <c r="AF28" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+G2+O2)*C2+$T$3*(1+G3+O3)*C3+$T$4*(1+G4+O4)*C4+$T$5*(1+G5+O5)*C5+$T$6*(1+G6+O6)*C6),0)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AG28" s="18">
         <f t="shared" si="19"/>
@@ -10412,7 +10474,7 @@
       </c>
       <c r="AM28" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+H2+O2)*C2+$T$3*(1+H3+O3)*C3+$T$4*(1+H4+O4)*C4+$T$5*(1+H5+O5)*C5+$T$6*(1+H6+O6)*C6),0)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AN28" s="18">
         <f t="shared" si="20"/>
@@ -10435,7 +10497,7 @@
       </c>
       <c r="AT28" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+I2+O2)*C2+$T$3*(1+I3+O3)*C3+$T$4*(1+I4+O4)*C4+$T$5*(1+I5+O5)*C5+$T$6*(1+I6+O6)*C6),0)</f>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AU28" s="18">
         <f t="shared" si="21"/>
@@ -10458,7 +10520,7 @@
       </c>
       <c r="BA28" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+J2+O2)*C2+$T$3*(1+J3+O3)*C3+$T$4*(1+J4+O4)*C4+$T$5*(1+J5+O5)*C5+$T$6*(1+J6+O6)*C6),0)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="BB28" s="18">
         <f t="shared" si="22"/>
@@ -10481,7 +10543,7 @@
       </c>
       <c r="BH28" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+K2+O2)*C2+$T$3*(1+K3+O3)*C3+$T$4*(1+K4+O4)*C4+$T$5*(1+K5+O5)*C5+$T$6*(1+K6+O6)*C6),0)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="BI28" s="18">
         <f t="shared" si="23"/>
@@ -10506,7 +10568,7 @@
       </c>
       <c r="Y29" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+F2+P2)*C2+$T$3*(1+F3+P3)*C3+$T$4*(1+F4+P4)*C4+$T$5*(1+F5+P5)*C5+$T$6*(1+F6+P6)*C6),0)</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Z29" s="18">
         <f t="shared" si="18"/>
@@ -10529,7 +10591,7 @@
       </c>
       <c r="AF29" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+G2+P2)*C2+$T$3*(1+G3+P3)*C3+$T$4*(1+G4+P4)*C4+$T$5*(1+G5+P5)*C5+$T$6*(1+G6+P6)*C6),0)</f>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG29" s="18">
         <f t="shared" si="19"/>
@@ -10552,7 +10614,7 @@
       </c>
       <c r="AM29" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+H2+P2)*C2+$T$3*(1+H3+P3)*C3+$T$4*(1+H4+P4)*C4+$T$5*(1+H5+P5)*C5+$T$6*(1+H6+P6)*C6),0)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AN29" s="18">
         <f t="shared" si="20"/>
@@ -10575,7 +10637,7 @@
       </c>
       <c r="AT29" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+I2+P2)*C2+$T$3*(1+I3+P3)*C3+$T$4*(1+I4+P4)*C4+$T$5*(1+I5+P5)*C5+$T$6*(1+I6+P6)*C6),0)</f>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AU29" s="18">
         <f t="shared" si="21"/>
@@ -10598,7 +10660,7 @@
       </c>
       <c r="BA29" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+J2+P2)*C2+$T$3*(1+J3+P3)*C3+$T$4*(1+J4+P4)*C4+$T$5*(1+J5+P5)*C5+$T$6*(1+J6+P6)*C6),0)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="BB29" s="18">
         <f t="shared" si="22"/>
@@ -10621,7 +10683,7 @@
       </c>
       <c r="BH29" s="18">
         <f>ROUND($B$9*(1+$T$2*(1+K2+P2)*C2+$T$3*(1+K3+P3)*C3+$T$4*(1+K4+P4)*C4+$T$5*(1+K5+P5)*C5+$T$6*(1+K6+P6)*C6),0)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="BI29" s="18">
         <f t="shared" si="23"/>
@@ -10638,7 +10700,7 @@
     </row>
     <row r="31" spans="23:63" x14ac:dyDescent="0.2">
       <c r="W31" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X31" s="18" t="s">
         <v>43</v>
@@ -10650,13 +10712,13 @@
         <v>54</v>
       </c>
       <c r="AA31" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB31" s="18" t="s">
         <v>55</v>
       </c>
       <c r="AD31" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE31" s="18" t="s">
         <v>43</v>
@@ -10668,13 +10730,13 @@
         <v>54</v>
       </c>
       <c r="AH31" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI31" s="18" t="s">
         <v>55</v>
       </c>
       <c r="AK31" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AL31" s="18" t="s">
         <v>43</v>
@@ -10686,13 +10748,13 @@
         <v>54</v>
       </c>
       <c r="AO31" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AP31" s="18" t="s">
         <v>55</v>
       </c>
       <c r="AR31" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AS31" s="18" t="s">
         <v>43</v>
@@ -10704,13 +10766,13 @@
         <v>54</v>
       </c>
       <c r="AV31" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AW31" s="18" t="s">
         <v>55</v>
       </c>
       <c r="AY31" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ31" s="18" t="s">
         <v>43</v>
@@ -10722,13 +10784,13 @@
         <v>54</v>
       </c>
       <c r="BC31" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BD31" s="18" t="s">
         <v>55</v>
       </c>
       <c r="BF31" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BG31" s="18" t="s">
         <v>43</v>
@@ -10740,7 +10802,7 @@
         <v>54</v>
       </c>
       <c r="BJ31" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BK31" s="18" t="s">
         <v>55</v>
@@ -10756,7 +10818,7 @@
       </c>
       <c r="Y32" s="18">
         <f>ROUND($B$9*(1+$U$2*(1+F2+L2)*C2+$U$3*(1+F3+L3)*C3+$U$4*(1+F4+L4)*C4+$U$5*(1+F5+L5)*C5+$U$6*(1+F6+L6)*C6),0)</f>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Z32" s="18">
         <f>ROUND($B$12*(1+AA32),0)</f>
@@ -10779,7 +10841,7 @@
       </c>
       <c r="AF32" s="28">
         <f>ROUND($B$9*(1+$U$2*(1+G2+L2)*C2+$U$3*(1+G3+L3)*C3+$U$4*(1+G4+L4)*C4+$U$5*(1+G5+L5)*C5+$U$6*(1+G6+L6)*C6),0)</f>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AG32" s="28">
         <f t="shared" ref="AG32:AG35" si="24">ROUND($B$12*(1+AH32),0)</f>
@@ -10802,7 +10864,7 @@
       </c>
       <c r="AM32" s="18">
         <f>ROUND($B$9*(1+$U$2*(1+H2+L2)*C2+$U$3*(1+H3+L3)*C3+$U$4*(1+H4+L4)*C4+$U$5*(1+H5+L5)*C5+$U$6*(1+H6+L6)*C6),0)</f>
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AN32" s="18">
         <f t="shared" ref="AN32:AN36" si="25">ROUND($B$12*(1+AO32),0)</f>
@@ -10825,7 +10887,7 @@
       </c>
       <c r="AT32" s="18">
         <f>ROUND($B$9*(1+$U$2*(1+I2+L2)*C2+$U$3*(1+I3+L3)*C3+$U$4*(1+I4+L4)*C4+$U$5*(1+I5+L5)*C5+$U$6*(1+I6+L6)*C6),0)</f>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AU32" s="27">
         <f t="shared" ref="AU32:AU36" si="26">ROUND($B$12*(1+AV32),0)</f>
@@ -10848,7 +10910,7 @@
       </c>
       <c r="BA32" s="18">
         <f>ROUND($B$9*(1+$U$2*(1+J2+L2)*C2+$U$3*(1+J3+L3)*C3+$U$4*(1+J4+L4)*C4+$U$5*(1+J5+L5)*C5+$U$6*(1+J6+L6)*C6),0)</f>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="BB32" s="27">
         <f t="shared" ref="BB32:BB36" si="27">ROUND($B$12*(1+BC32),0)</f>
@@ -10871,7 +10933,7 @@
       </c>
       <c r="BH32" s="18">
         <f>ROUND($B$9*(1+$U$2*(1+K2+L2)*C2+$U$3*(1+K3+L3)*C3+$U$4*(1+K4+L4)*C4+$U$5*(1+K5+L5)*C5+$U$6*(1+K6+L6)*C6),0)</f>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="BI32" s="18">
         <f t="shared" ref="BI32:BI36" si="28">ROUND($B$12*(1+BJ32),0)</f>
@@ -10896,7 +10958,7 @@
       </c>
       <c r="Y33" s="18">
         <f>ROUND($B$9*(1+$U$2*(1+F2+M2)*C2+$U$3*(1+F3+M3)*C3+$U$4*(1+F4+M4)*C4+$U$5*(1+F5+M5)*C5+$U$6*(1+F6+M6)*C6),0)</f>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Z33" s="18">
         <f>ROUND($B$12*(1+AA33),0)</f>
@@ -10919,7 +10981,7 @@
       </c>
       <c r="AF33" s="28">
         <f>ROUND($B$9*(1+$U$2*(1+G2+M2)*C2+$U$3*(1+G3+M3)*C3+$U$4*(1+G4+M4)*C4+$U$5*(1+G5+M5)*C5+$U$6*(1+G6+M6)*C6),0)</f>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AG33" s="28">
         <f t="shared" si="24"/>
@@ -10942,7 +11004,7 @@
       </c>
       <c r="AM33" s="18">
         <f>ROUND($B$9*(1+$U$2*(1+H2+M2)*C2+$U$3*(1+H3+M3)*C3+$U$4*(1+H4+M4)*C4+$U$5*(1+H5+M5)*C5+$U$6*(1+H6+M6)*C6),0)</f>
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AN33" s="18">
         <f t="shared" si="25"/>
@@ -10965,7 +11027,7 @@
       </c>
       <c r="AT33" s="18">
         <f>ROUND($B$9*(1+$U$2*(1+I2+M2)*C2+$U$3*(1+I3+M3)*C3+$U$4*(1+I4+M4)*C4+$U$5*(1+I5+M5)*C5+$U$6*(1+I6+M6)*C6),0)</f>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AU33" s="27">
         <f t="shared" si="26"/>
@@ -10988,7 +11050,7 @@
       </c>
       <c r="BA33" s="18">
         <f>ROUND($B$9*(1+$U$2*(1+J2+M2)*C2+$U$3*(1+J3+M3)*C3+$U$4*(1+J4+M4)*C4+$U$5*(1+J5+M5)*C5+$U$6*(1+J6+M6)*C6),0)</f>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="BB33" s="27">
         <f t="shared" si="27"/>
@@ -11011,7 +11073,7 @@
       </c>
       <c r="BH33" s="18">
         <f>ROUND($B$9*(1+$U$2*(1+K2+M2)*C2+$U$3*(1+K3+M3)*C3+$U$4*(1+K4+M4)*C4+$U$5*(1+K5+M5)*C5+$U$6*(1+K6+M6)*C6),0)</f>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="BI33" s="18">
         <f t="shared" si="28"/>
@@ -11036,7 +11098,7 @@
       </c>
       <c r="Y34" s="18">
         <f>ROUND($B$9*(1+$U$2*(1+F2+N2)*C2+$U$3*(1+F3+N3)*C3+$U$4*(1+F4+N4)*C4+$U$5*(1+F5+N5)*C5+$U$6*(1+F6+N6)*C6),0)</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Z34" s="18">
         <f t="shared" ref="Z34:Z36" si="29">ROUND($B$12*(1+AA34),0)</f>
@@ -11059,7 +11121,7 @@
       </c>
       <c r="AF34" s="18">
         <f>ROUND($B$9*(1+$U$2*(1+G2+N2)*C2+$U$3*(1+G3+N3)*C3+$U$4*(1+G4+N4)*C4+$U$5*(1+G5+N5)*C5+$U$6*(1+G6+N6)*C6),0)</f>
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AG34" s="28">
         <f t="shared" si="24"/>
@@ -11082,7 +11144,7 @@
       </c>
       <c r="AM34" s="18">
         <f>ROUND($B$9*(1+$U$2*(1+H2+N2)*C2+$U$3*(1+H3+N3)*C3+$U$4*(1+H4+N4)*C4+$U$5*(1+H5+N5)*C5+$U$6*(1+H6+N6)*C6),0)</f>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AN34" s="18">
         <f t="shared" si="25"/>
@@ -11105,7 +11167,7 @@
       </c>
       <c r="AT34" s="18">
         <f>ROUND($B$9*(1+$U$2*(1+I2+N2)*C2+$U$3*(1+I3+N3)*C3+$U$4*(1+I4+N4)*C4+$U$5*(1+I5+N5)*C5+$U$6*(1+I6+N6)*C6),0)</f>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AU34" s="27">
         <f t="shared" si="26"/>
@@ -11128,7 +11190,7 @@
       </c>
       <c r="BA34" s="27">
         <f>ROUND($B$9*(1+$U$2*(1+J2+N2)*C2+$U$3*(1+J3+N3)*C3+$U$4*(1+J4+N4)*C4+$U$5*(1+J5+N5)*C5+$U$6*(1+J6+N6)*C6),0)</f>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="BB34" s="27">
         <f t="shared" si="27"/>
@@ -11151,7 +11213,7 @@
       </c>
       <c r="BH34" s="27">
         <f>ROUND($B$9*(1+$U$2*(1+K2+N2)*C2+$U$3*(1+K3+N3)*C3+$U$4*(1+K4+N4)*C4+$U$5*(1+K5+N5)*C5+$U$6*(1+K6+N6)*C6),0)</f>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="BI34" s="18">
         <f t="shared" si="28"/>
@@ -11176,7 +11238,7 @@
       </c>
       <c r="Y35" s="18">
         <f>ROUND($B$9*(1+$U$2*(1+F2+O2)*C2+$U$3*(1+F3+O3)*C3+$U$4*(1+F4+O4)*C4+$U$5*(1+F5+O5)*C5+$U$6*(1+F6+O6)*C6),0)</f>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Z35" s="18">
         <f t="shared" si="29"/>
@@ -11199,7 +11261,7 @@
       </c>
       <c r="AF35" s="28">
         <f>ROUND($B$9*(1+$U$2*(1+G2+O2)*C2+$U$3*(1+G3+O3)*C3+$U$4*(1+G4+O4)*C4+$U$5*(1+G5+O5)*C5+$U$6*(1+G6+O6)*C6),0)</f>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AG35" s="28">
         <f t="shared" si="24"/>
@@ -11222,7 +11284,7 @@
       </c>
       <c r="AM35" s="18">
         <f>ROUND($B$9*(1+$U$2*(1+H2+O2)*C2+$U$3*(1+H3+O3)*C3+$U$4*(1+H4+O4)*C4+$U$5*(1+H5+O5)*C5+$U$6*(1+H6+O6)*C6),0)</f>
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AN35" s="18">
         <f t="shared" si="25"/>
@@ -11245,7 +11307,7 @@
       </c>
       <c r="AT35" s="18">
         <f>ROUND($B$9*(1+$U$2*(1+I2+O2)*C2+$U$3*(1+I3+O3)*C3+$U$4*(1+I4+O4)*C4+$U$5*(1+I5+O5)*C5+$U$6*(1+I6+O6)*C6),0)</f>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AU35" s="27">
         <f t="shared" si="26"/>
@@ -11268,7 +11330,7 @@
       </c>
       <c r="BA35" s="18">
         <f>ROUND($B$9*(1+$U$2*(1+J2+O2)*C2+$U$3*(1+J3+O3)*C3+$U$4*(1+J4+O4)*C4+$U$5*(1+J5+O5)*C5+$U$6*(1+J6+O6)*C6),0)</f>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="BB35" s="27">
         <f t="shared" si="27"/>
@@ -11291,7 +11353,7 @@
       </c>
       <c r="BH35" s="18">
         <f>ROUND($B$9*(1+$U$2*(1+K2+O2)*C2+$U$3*(1+K3+O3)*C3+$U$4*(1+K4+O4)*C4+$U$5*(1+K5+O5)*C5+$U$6*(1+K6+O6)*C6),0)</f>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="BI35" s="18">
         <f t="shared" si="28"/>
@@ -11316,7 +11378,7 @@
       </c>
       <c r="Y36" s="18">
         <f>ROUND($B$9*(1+$U$2*(1+F2+P2)*C2+$U$3*(1+F3+P3)*C3+$U$4*(1+F4+P4)*C4+$U$5*(1+F5+P5)*C5+$U$6*(1+F6+P6)*C6),0)</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Z36" s="18">
         <f t="shared" si="29"/>
@@ -11339,7 +11401,7 @@
       </c>
       <c r="AF36" s="18">
         <f>ROUND($B$9*(1+$U$2*(1+G2+P2)*C2+$U$3*(1+G3+P3)*C3+$U$4*(1+G4+P4)*C4+$U$5*(1+G5+P5)*C5+$U$6*(1+G6+P6)*C6),0)</f>
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AG36" s="28">
         <f>ROUND($B$12*(1+AH36),0)</f>
@@ -11362,7 +11424,7 @@
       </c>
       <c r="AM36" s="18">
         <f>ROUND($B$9*(1+$U$2*(1+H2+P2)*C2+$U$3*(1+H3+P3)*C3+$U$4*(1+H4+P4)*C4+$U$5*(1+H5+P5)*C5+$U$6*(1+H6+P6)*C6),0)</f>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AN36" s="18">
         <f t="shared" si="25"/>
@@ -11385,7 +11447,7 @@
       </c>
       <c r="AT36" s="18">
         <f>ROUND($B$9*(1+$U$2*(1+I2+P2)*C2+$U$3*(1+I3+P3)*C3+$U$4*(1+I4+P4)*C4+$U$5*(1+I5+P5)*C5+$U$6*(1+I6+P6)*C6),0)</f>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AU36" s="27">
         <f t="shared" si="26"/>
@@ -11408,7 +11470,7 @@
       </c>
       <c r="BA36" s="27">
         <f>ROUND($B$9*(1+$U$2*(1+J2+P2)*C2+$U$3*(1+J3+P3)*C3+$U$4*(1+J4+P4)*C4+$U$5*(1+J5+P5)*C5+$U$6*(1+J6+P6)*C6),0)</f>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="BB36" s="27">
         <f t="shared" si="27"/>
@@ -11431,7 +11493,7 @@
       </c>
       <c r="BH36" s="27">
         <f>ROUND($B$9*(1+$U$2*(1+K2+P2)*C2+$U$3*(1+K3+P3)*C3+$U$4*(1+K4+P4)*C4+$U$5*(1+K5+P5)*C5+$U$6*(1+K6+P6)*C6),0)</f>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="BI36" s="18">
         <f t="shared" si="28"/>
@@ -11570,23 +11632,23 @@
       </c>
       <c r="X44" s="18">
         <f>ROUND($B$9*(1+Q38*(1+$F$2+$P$2)*$C$2+Q39*(1+$F$3+$P$3)*$C$3+Q40*(1+$F$4+$P$4)*$C$4+Q41*(1+$F$5+$P$5)*$C$5+Q42*(1+$F$6+$P$6)*$C$6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y44" s="18">
         <f>ROUND($B$9*(1+R38*(1+$F$2+$P$2)*$C$2+R39*(1+$F$3+$P$3)*$C$3+R40*(1+$F$4+$P$4)*$C$4+R41*(1+$F$5+$P$5)*$C$5+R42*(1+$F$6+$P$6)*$C$6),0)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z44" s="18">
         <f>ROUND($B$9*(1+S38*(1+$F$2+$P$2)*$C$2+S39*(1+$F$3+$P$3)*$C$3+S40*(1+$F$4+$P$4)*$C$4+S41*(1+$F$5+$P$5)*$C$5+S42*(1+$F$6+$P$6)*$C$6),0)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA44" s="18">
         <f>ROUND($B$9*(1+T38*(1+$F$2+$P$2)*$C$2+T39*(1+$F$3+$P$3)*$C$3+T40*(1+$F$4+$P$4)*$C$4+T41*(1+$F$5+$P$5)*$C$5+T42*(1+$F$6+$P$6)*$C$6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB44" s="18">
         <f>ROUND($B$9*(1+U38*(1+$F$2+$P$2)*$C$2+U39*(1+$F$3+$P$3)*$C$3+U40*(1+$F$4+$P$4)*$C$4+U41*(1+$F$5+$P$5)*$C$5+U42*(1+$F$6+$P$6)*$C$6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="17:63" x14ac:dyDescent="0.2">
@@ -11646,7 +11708,7 @@
         <v>5</v>
       </c>
       <c r="W46" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X46" s="18">
         <f>ROUND($B$11+Q38*(1+$F$2+$P$2)*$D$2+Q39*(1+$F$3+$P$3)*$D$3+Q40*(1+$F$4+$P$4)*$D$4+Q41*(1+$F$5+$P$5)*$D$5+Q42*(1+$F$6+$P$6)*$D$6,2)</f>
@@ -11782,23 +11844,23 @@
       </c>
       <c r="X51" s="18">
         <f>ROUND($B$9*(1+Q45*(1+$F$2+$P$2)*$C$2+Q46*(1+$F$3+$P$3)*$C$3+Q47*(1+$F$4+$P$4)*$C$4+Q48*(1+$F$5+$P$5)*$C$5+Q49*(1+$F$6+$P$6)*$C$6),0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y51" s="18">
         <f>ROUND($B$9*(1+R45*(1+$F$2+$P$2)*$C$2+R46*(1+$F$3+$P$3)*$C$3+R47*(1+$F$4+$P$4)*$C$4+R48*(1+$F$5+$P$5)*$C$5+R49*(1+$F$6+$P$6)*$C$6),0)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z51" s="18">
         <f>ROUND($B$9*(1+S45*(1+$F$2+$P$2)*$C$2+S46*(1+$F$3+$P$3)*$C$3+S47*(1+$F$4+$P$4)*$C$4+S48*(1+$F$5+$P$5)*$C$5+S49*(1+$F$6+$P$6)*$C$6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA51" s="18">
         <f>ROUND($B$9*(1+T45*(1+$F$2+$P$2)*$C$2+T46*(1+$F$3+$P$3)*$C$3+T47*(1+$F$4+$P$4)*$C$4+T48*(1+$F$5+$P$5)*$C$5+T49*(1+$F$6+$P$6)*$C$6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB51" s="18">
         <f>ROUND($B$9*(1+U45*(1+$F$2+$P$2)*$C$2+U46*(1+$F$3+$P$3)*$C$3+U47*(1+$F$4+$P$4)*$C$4+U48*(1+$F$5+$P$5)*$C$5+U49*(1+$F$6+$P$6)*$C$6),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="17:28" x14ac:dyDescent="0.2">
@@ -11828,7 +11890,7 @@
     </row>
     <row r="53" spans="17:28" x14ac:dyDescent="0.2">
       <c r="W53" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X53" s="18">
         <f>ROUND($B$11+Q45*(1+$F$2+$P$2)*$D$2+Q46*(1+$F$3+$P$3)*$D$3+Q47*(1+$F$4+$P$4)*$D$4+Q48*(1+$F$5+$P$5)*$D$5+Q49*(1+$F$6+$P$6)*$D$6,2)</f>
@@ -11887,6 +11949,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11894,8 +11957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD573711-C846-40DC-8629-19A685998D3E}">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11920,63 +11983,63 @@
         <v>0</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T1" t="s">
         <v>6</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="36" t="s">
         <v>8</v>
       </c>
     </row>
@@ -12035,13 +12098,16 @@
       <c r="R2">
         <v>19</v>
       </c>
+      <c r="S2">
+        <v>20</v>
+      </c>
       <c r="T2">
         <v>20</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="36">
         <v>50</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="36">
         <v>100</v>
       </c>
     </row>
@@ -12100,13 +12166,16 @@
       <c r="R3">
         <v>19</v>
       </c>
+      <c r="S3">
+        <v>20</v>
+      </c>
       <c r="T3">
         <v>20</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="36">
         <v>50</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="36">
         <v>100</v>
       </c>
     </row>
@@ -12165,13 +12234,16 @@
       <c r="R4">
         <v>20</v>
       </c>
+      <c r="S4">
+        <v>20</v>
+      </c>
       <c r="T4">
         <v>20</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="36">
         <v>50</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="36">
         <v>100</v>
       </c>
     </row>
@@ -12230,13 +12302,16 @@
       <c r="R5">
         <v>19</v>
       </c>
+      <c r="S5">
+        <v>20</v>
+      </c>
       <c r="T5">
         <v>20</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="36">
         <v>50</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="36">
         <v>100</v>
       </c>
     </row>
@@ -12295,14 +12370,16 @@
       <c r="R6" s="34">
         <v>3</v>
       </c>
-      <c r="S6" s="34"/>
+      <c r="S6" s="34">
+        <v>5</v>
+      </c>
       <c r="T6" s="34">
         <v>7</v>
       </c>
-      <c r="U6" s="34">
+      <c r="U6" s="37">
         <v>20</v>
       </c>
-      <c r="V6" s="34">
+      <c r="V6" s="37">
         <v>40</v>
       </c>
     </row>
@@ -12377,17 +12454,17 @@
       </c>
       <c r="S7">
         <f t="shared" ref="S7" si="11">SUM(S2:S6)</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="T7">
         <f t="shared" ref="T7" si="12">SUM(T2:T6)</f>
         <v>87</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="36">
         <f t="shared" ref="U7" si="13">SUM(U2:U6)</f>
         <v>220</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="36">
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
@@ -12397,49 +12474,49 @@
         <v>0</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>10</v>
@@ -12844,43 +12921,43 @@
         <v>0</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M19" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N19" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O19" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>14</v>

--- a/doc/caste_system.xlsx
+++ b/doc/caste_system.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/349dfb9748b30a92/Asztali gép/ataliasflame_2.0/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3353" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A55BE310-870A-49C8-A2B0-99EA6CE4ABB0}"/>
+  <xr:revisionPtr revIDLastSave="3377" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F2553E8-0FC2-4529-AF81-FD0C01569190}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
   </bookViews>
   <sheets>
     <sheet name="caste list" sheetId="1" r:id="rId1"/>
@@ -2235,7 +2235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2312,6 +2312,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5838,8 +5841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E471D10E-602D-4E12-A93B-97B72309BCF6}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6125,7 +6128,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="45">
         <v>10</v>
       </c>
       <c r="B11">
@@ -6859,7 +6862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8DF294-C85C-47A3-9A81-4E26EFDC10EC}">
   <dimension ref="A1:BK54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/doc/caste_system.xlsx
+++ b/doc/caste_system.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/349dfb9748b30a92/Asztali gép/ataliasflame_2.0/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3377" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F2553E8-0FC2-4529-AF81-FD0C01569190}"/>
+  <xr:revisionPtr revIDLastSave="3550" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14B023E6-03DC-442E-9B76-F1BA3DB1AD35}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
   </bookViews>
   <sheets>
     <sheet name="caste list" sheetId="1" r:id="rId1"/>
@@ -1765,7 +1765,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="85">
   <si>
     <t>csavargó</t>
   </si>
@@ -2235,7 +2235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2292,6 +2292,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2313,9 +2316,8 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -2332,10 +2334,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2771,7 +2769,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="30" t="s">
@@ -2827,7 +2825,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="30" t="s">
         <v>2</v>
       </c>
@@ -2881,7 +2879,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="30" t="s">
         <v>3</v>
       </c>
@@ -2935,7 +2933,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -2989,7 +2987,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="31" t="s">
         <v>4</v>
       </c>
@@ -3043,7 +3041,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="32" t="s">
@@ -3099,7 +3097,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="32" t="s">
         <v>6</v>
       </c>
@@ -3153,7 +3151,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="32" t="s">
         <v>7</v>
       </c>
@@ -3207,7 +3205,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="29" t="s">
         <v>8</v>
       </c>
@@ -3261,7 +3259,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B12" s="32" t="s">
@@ -3317,7 +3315,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="30" t="s">
         <v>10</v>
       </c>
@@ -3371,7 +3369,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="30" t="s">
         <v>11</v>
       </c>
@@ -3425,7 +3423,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="31" t="s">
         <v>12</v>
       </c>
@@ -3479,7 +3477,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>81</v>
       </c>
       <c r="B16" s="32" t="s">
@@ -3535,7 +3533,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="30" t="s">
         <v>14</v>
       </c>
@@ -3589,7 +3587,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="30" t="s">
         <v>15</v>
       </c>
@@ -3643,7 +3641,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="31" t="s">
         <v>16</v>
       </c>
@@ -3697,7 +3695,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="39" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -3753,7 +3751,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="30" t="s">
         <v>18</v>
       </c>
@@ -3807,7 +3805,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="30" t="s">
         <v>19</v>
       </c>
@@ -3861,7 +3859,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="31" t="s">
         <v>20</v>
       </c>
@@ -5841,7 +5839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E471D10E-602D-4E12-A93B-97B72309BCF6}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -6128,7 +6126,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="45">
+      <c r="A11" s="38">
         <v>10</v>
       </c>
       <c r="B11">
@@ -6863,7 +6861,7 @@
   <dimension ref="A1:BK54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="BK12" sqref="BK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -6995,54 +6993,54 @@
       <c r="U1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="W1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AD1" s="44" t="s">
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AD1" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AK1" s="44" t="s">
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AK1" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AR1" s="44" t="s">
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AR1" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AY1" s="44" t="s">
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="45"/>
+      <c r="AV1" s="45"/>
+      <c r="AW1" s="45"/>
+      <c r="AY1" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="AZ1" s="44"/>
-      <c r="BA1" s="44"/>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44"/>
-      <c r="BD1" s="44"/>
-      <c r="BF1" s="44" t="s">
+      <c r="AZ1" s="45"/>
+      <c r="BA1" s="45"/>
+      <c r="BB1" s="45"/>
+      <c r="BC1" s="45"/>
+      <c r="BD1" s="45"/>
+      <c r="BF1" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="BG1" s="44"/>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="44"/>
-      <c r="BJ1" s="44"/>
-      <c r="BK1" s="44"/>
+      <c r="BG1" s="45"/>
+      <c r="BH1" s="45"/>
+      <c r="BI1" s="45"/>
+      <c r="BJ1" s="45"/>
+      <c r="BK1" s="45"/>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
@@ -11958,10 +11956,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD573711-C846-40DC-8629-19A685998D3E}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:AV25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11977,11 +11976,13 @@
     <col min="18" max="18" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="46" width="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -12039,14 +12040,92 @@
       <c r="T1" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="V1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="W1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="AV1" s="36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -12107,14 +12186,92 @@
       <c r="T2">
         <v>20</v>
       </c>
-      <c r="U2" s="36">
+      <c r="U2">
+        <v>21</v>
+      </c>
+      <c r="V2">
+        <v>22</v>
+      </c>
+      <c r="W2">
+        <v>23</v>
+      </c>
+      <c r="X2">
+        <v>24</v>
+      </c>
+      <c r="Y2">
+        <v>25</v>
+      </c>
+      <c r="Z2">
+        <v>27</v>
+      </c>
+      <c r="AA2">
+        <v>28</v>
+      </c>
+      <c r="AB2">
+        <v>29</v>
+      </c>
+      <c r="AC2">
+        <v>30</v>
+      </c>
+      <c r="AD2">
+        <v>31</v>
+      </c>
+      <c r="AE2">
+        <v>33</v>
+      </c>
+      <c r="AF2">
+        <v>34</v>
+      </c>
+      <c r="AG2">
+        <v>35</v>
+      </c>
+      <c r="AH2">
+        <v>36</v>
+      </c>
+      <c r="AI2">
+        <v>37</v>
+      </c>
+      <c r="AJ2">
+        <v>39</v>
+      </c>
+      <c r="AK2">
+        <v>40</v>
+      </c>
+      <c r="AL2">
+        <v>41</v>
+      </c>
+      <c r="AM2">
+        <v>42</v>
+      </c>
+      <c r="AN2">
+        <v>43</v>
+      </c>
+      <c r="AO2">
+        <v>45</v>
+      </c>
+      <c r="AP2">
+        <v>46</v>
+      </c>
+      <c r="AQ2">
+        <v>47</v>
+      </c>
+      <c r="AR2">
+        <v>48</v>
+      </c>
+      <c r="AS2">
+        <v>49</v>
+      </c>
+      <c r="AT2">
         <v>50</v>
       </c>
-      <c r="V2" s="36">
+      <c r="AU2" s="46">
+        <v>50</v>
+      </c>
+      <c r="AV2" s="36">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -12175,14 +12332,92 @@
       <c r="T3">
         <v>20</v>
       </c>
-      <c r="U3" s="36">
+      <c r="U3">
+        <v>21</v>
+      </c>
+      <c r="V3">
+        <v>22</v>
+      </c>
+      <c r="W3">
+        <v>23</v>
+      </c>
+      <c r="X3">
+        <v>25</v>
+      </c>
+      <c r="Y3">
+        <v>26</v>
+      </c>
+      <c r="Z3">
+        <v>27</v>
+      </c>
+      <c r="AA3">
+        <v>28</v>
+      </c>
+      <c r="AB3">
+        <v>29</v>
+      </c>
+      <c r="AC3">
+        <v>30</v>
+      </c>
+      <c r="AD3">
+        <v>32</v>
+      </c>
+      <c r="AE3">
+        <v>33</v>
+      </c>
+      <c r="AF3">
+        <v>34</v>
+      </c>
+      <c r="AG3">
+        <v>35</v>
+      </c>
+      <c r="AH3">
+        <v>36</v>
+      </c>
+      <c r="AI3">
+        <v>38</v>
+      </c>
+      <c r="AJ3">
+        <v>39</v>
+      </c>
+      <c r="AK3">
+        <v>40</v>
+      </c>
+      <c r="AL3">
+        <v>41</v>
+      </c>
+      <c r="AM3">
+        <v>42</v>
+      </c>
+      <c r="AN3">
+        <v>44</v>
+      </c>
+      <c r="AO3">
+        <v>45</v>
+      </c>
+      <c r="AP3">
+        <v>46</v>
+      </c>
+      <c r="AQ3">
+        <v>47</v>
+      </c>
+      <c r="AR3">
+        <v>48</v>
+      </c>
+      <c r="AS3">
+        <v>49</v>
+      </c>
+      <c r="AT3">
         <v>50</v>
       </c>
-      <c r="V3" s="36">
+      <c r="AU3" s="46">
+        <v>50</v>
+      </c>
+      <c r="AV3" s="36">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -12243,14 +12478,92 @@
       <c r="T4">
         <v>20</v>
       </c>
-      <c r="U4" s="36">
+      <c r="U4">
+        <v>21</v>
+      </c>
+      <c r="V4">
+        <v>22</v>
+      </c>
+      <c r="W4">
+        <v>24</v>
+      </c>
+      <c r="X4">
+        <v>25</v>
+      </c>
+      <c r="Y4">
+        <v>26</v>
+      </c>
+      <c r="Z4">
+        <v>27</v>
+      </c>
+      <c r="AA4">
+        <v>28</v>
+      </c>
+      <c r="AB4">
+        <v>30</v>
+      </c>
+      <c r="AC4">
+        <v>31</v>
+      </c>
+      <c r="AD4">
+        <v>32</v>
+      </c>
+      <c r="AE4">
+        <v>33</v>
+      </c>
+      <c r="AF4">
+        <v>34</v>
+      </c>
+      <c r="AG4">
+        <v>35</v>
+      </c>
+      <c r="AH4">
+        <v>37</v>
+      </c>
+      <c r="AI4">
+        <v>38</v>
+      </c>
+      <c r="AJ4">
+        <v>39</v>
+      </c>
+      <c r="AK4">
+        <v>40</v>
+      </c>
+      <c r="AL4">
+        <v>41</v>
+      </c>
+      <c r="AM4">
+        <v>43</v>
+      </c>
+      <c r="AN4">
+        <v>44</v>
+      </c>
+      <c r="AO4">
+        <v>45</v>
+      </c>
+      <c r="AP4">
+        <v>46</v>
+      </c>
+      <c r="AQ4">
+        <v>47</v>
+      </c>
+      <c r="AR4">
+        <v>48</v>
+      </c>
+      <c r="AS4">
+        <v>49</v>
+      </c>
+      <c r="AT4">
         <v>50</v>
       </c>
-      <c r="V4" s="36">
+      <c r="AU4" s="46">
+        <v>50</v>
+      </c>
+      <c r="AV4" s="36">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -12311,14 +12624,92 @@
       <c r="T5">
         <v>20</v>
       </c>
-      <c r="U5" s="36">
+      <c r="U5">
+        <v>20</v>
+      </c>
+      <c r="V5">
+        <v>22</v>
+      </c>
+      <c r="W5">
+        <v>23</v>
+      </c>
+      <c r="X5">
+        <v>24</v>
+      </c>
+      <c r="Y5">
+        <v>25</v>
+      </c>
+      <c r="Z5">
+        <v>26</v>
+      </c>
+      <c r="AA5">
+        <v>28</v>
+      </c>
+      <c r="AB5">
+        <v>29</v>
+      </c>
+      <c r="AC5">
+        <v>30</v>
+      </c>
+      <c r="AD5">
+        <v>31</v>
+      </c>
+      <c r="AE5">
+        <v>32</v>
+      </c>
+      <c r="AF5">
+        <v>34</v>
+      </c>
+      <c r="AG5">
+        <v>35</v>
+      </c>
+      <c r="AH5">
+        <v>36</v>
+      </c>
+      <c r="AI5">
+        <v>37</v>
+      </c>
+      <c r="AJ5">
+        <v>38</v>
+      </c>
+      <c r="AK5">
+        <v>40</v>
+      </c>
+      <c r="AL5">
+        <v>41</v>
+      </c>
+      <c r="AM5">
+        <v>42</v>
+      </c>
+      <c r="AN5">
+        <v>43</v>
+      </c>
+      <c r="AO5">
+        <v>44</v>
+      </c>
+      <c r="AP5">
+        <v>45</v>
+      </c>
+      <c r="AQ5">
+        <v>47</v>
+      </c>
+      <c r="AR5">
+        <v>48</v>
+      </c>
+      <c r="AS5">
+        <v>49</v>
+      </c>
+      <c r="AT5">
         <v>50</v>
       </c>
-      <c r="V5" s="36">
+      <c r="AU5" s="46">
+        <v>50</v>
+      </c>
+      <c r="AV5" s="36">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>49</v>
       </c>
@@ -12379,20 +12770,98 @@
       <c r="T6" s="34">
         <v>7</v>
       </c>
-      <c r="U6" s="37">
+      <c r="U6" s="34">
+        <v>7</v>
+      </c>
+      <c r="V6" s="34">
+        <v>7</v>
+      </c>
+      <c r="W6" s="34">
+        <v>7</v>
+      </c>
+      <c r="X6" s="34">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="34">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="34">
+        <v>8</v>
+      </c>
+      <c r="AA6" s="34">
+        <v>8</v>
+      </c>
+      <c r="AB6" s="34">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="34">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="34">
+        <v>9</v>
+      </c>
+      <c r="AE6" s="34">
+        <v>9</v>
+      </c>
+      <c r="AF6" s="34">
+        <v>9</v>
+      </c>
+      <c r="AG6" s="34">
+        <v>10</v>
+      </c>
+      <c r="AH6" s="34">
+        <v>10</v>
+      </c>
+      <c r="AI6" s="34">
+        <v>10</v>
+      </c>
+      <c r="AJ6" s="34">
+        <v>10</v>
+      </c>
+      <c r="AK6" s="34">
+        <v>10</v>
+      </c>
+      <c r="AL6" s="34">
+        <v>11</v>
+      </c>
+      <c r="AM6" s="34">
+        <v>11</v>
+      </c>
+      <c r="AN6" s="34">
+        <v>11</v>
+      </c>
+      <c r="AO6" s="34">
+        <v>11</v>
+      </c>
+      <c r="AP6" s="34">
+        <v>12</v>
+      </c>
+      <c r="AQ6" s="34">
+        <v>12</v>
+      </c>
+      <c r="AR6" s="34">
+        <v>13</v>
+      </c>
+      <c r="AS6" s="34">
+        <v>14</v>
+      </c>
+      <c r="AT6" s="34">
+        <v>15</v>
+      </c>
+      <c r="AU6" s="47">
         <v>20</v>
       </c>
-      <c r="V6" s="37">
+      <c r="AV6" s="37">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B7">
         <f>SUM(B2:B6)</f>
         <v>5</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:V7" si="0">SUM(C2:C6)</f>
+        <f t="shared" ref="C7:AV7" si="0">SUM(C2:C6)</f>
         <v>10</v>
       </c>
       <c r="D7">
@@ -12460,19 +12929,123 @@
         <v>85</v>
       </c>
       <c r="T7">
-        <f t="shared" ref="T7" si="12">SUM(T2:T6)</f>
+        <f t="shared" ref="T7:U7" si="12">SUM(T2:T6)</f>
         <v>87</v>
       </c>
-      <c r="U7" s="36">
-        <f t="shared" ref="U7" si="13">SUM(U2:U6)</f>
+      <c r="U7">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="V7">
+        <f t="shared" ref="V7:Y7" si="13">SUM(V2:V6)</f>
+        <v>95</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="13"/>
+        <v>105</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="13"/>
+        <v>110</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" ref="Z7:AD7" si="14">SUM(Z2:Z6)</f>
+        <v>115</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="14"/>
+        <v>120</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="14"/>
+        <v>125</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="14"/>
+        <v>130</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="14"/>
+        <v>135</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" ref="AE7:AI7" si="15">SUM(AE2:AE6)</f>
+        <v>140</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="15"/>
+        <v>145</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="15"/>
+        <v>150</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="15"/>
+        <v>155</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="15"/>
+        <v>160</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" ref="AJ7:AN7" si="16">SUM(AJ2:AJ6)</f>
+        <v>165</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="16"/>
+        <v>170</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="16"/>
+        <v>175</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="16"/>
+        <v>180</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="16"/>
+        <v>185</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" ref="AO7:AT7" si="17">SUM(AO2:AO6)</f>
+        <v>190</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="17"/>
+        <v>195</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="17"/>
+        <v>200</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="17"/>
+        <v>205</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" ref="AS7" si="18">SUM(AS2:AS6)</f>
+        <v>210</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" si="17"/>
+        <v>215</v>
+      </c>
+      <c r="AU7" s="46">
+        <f t="shared" ref="AU7" si="19">SUM(AU2:AU6)</f>
         <v>220</v>
       </c>
-      <c r="V7" s="36">
+      <c r="AV7" s="36">
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -12531,7 +13104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -12593,7 +13166,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -12655,7 +13228,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -12717,7 +13290,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -12779,7 +13352,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>49</v>
       </c>
@@ -12841,81 +13414,81 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B16">
         <f>SUM(B11:B15)</f>
         <v>5</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16" si="14">SUM(C11:C15)</f>
+        <f t="shared" ref="C16" si="20">SUM(C11:C15)</f>
         <v>10</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16" si="15">SUM(D11:D15)</f>
+        <f t="shared" ref="D16" si="21">SUM(D11:D15)</f>
         <v>15</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16" si="16">SUM(E11:E15)</f>
+        <f t="shared" ref="E16" si="22">SUM(E11:E15)</f>
         <v>20</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16" si="17">SUM(F11:F15)</f>
+        <f t="shared" ref="F16" si="23">SUM(F11:F15)</f>
         <v>21</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16" si="18">SUM(G11:G15)</f>
+        <f t="shared" ref="G16" si="24">SUM(G11:G15)</f>
         <v>25</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16" si="19">SUM(H11:H15)</f>
+        <f t="shared" ref="H16" si="25">SUM(H11:H15)</f>
         <v>30</v>
       </c>
       <c r="I16">
-        <f t="shared" ref="I16" si="20">SUM(I11:I15)</f>
+        <f t="shared" ref="I16" si="26">SUM(I11:I15)</f>
         <v>35</v>
       </c>
       <c r="J16">
-        <f t="shared" ref="J16" si="21">SUM(J11:J15)</f>
+        <f t="shared" ref="J16" si="27">SUM(J11:J15)</f>
         <v>40</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16" si="22">SUM(K11:K15)</f>
+        <f t="shared" ref="K16" si="28">SUM(K11:K15)</f>
         <v>45</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16" si="23">SUM(L11:L15)</f>
+        <f t="shared" ref="L16" si="29">SUM(L11:L15)</f>
         <v>50</v>
       </c>
       <c r="M16">
-        <f t="shared" ref="M16" si="24">SUM(M11:M15)</f>
+        <f t="shared" ref="M16" si="30">SUM(M11:M15)</f>
         <v>55</v>
       </c>
       <c r="N16">
-        <f t="shared" ref="N16" si="25">SUM(N11:N15)</f>
+        <f t="shared" ref="N16" si="31">SUM(N11:N15)</f>
         <v>60</v>
       </c>
       <c r="O16">
-        <f t="shared" ref="O16" si="26">SUM(O11:O15)</f>
+        <f t="shared" ref="O16" si="32">SUM(O11:O15)</f>
         <v>65</v>
       </c>
       <c r="P16">
-        <f t="shared" ref="P16" si="27">SUM(P11:P15)</f>
+        <f t="shared" ref="P16" si="33">SUM(P11:P15)</f>
         <v>70</v>
       </c>
       <c r="Q16">
-        <f t="shared" ref="Q16" si="28">SUM(Q11:Q15)</f>
+        <f t="shared" ref="Q16" si="34">SUM(Q11:Q15)</f>
         <v>75</v>
       </c>
       <c r="R16">
-        <f t="shared" ref="R16" si="29">SUM(R11:R15)</f>
+        <f t="shared" ref="R16" si="35">SUM(R11:R15)</f>
         <v>79</v>
       </c>
       <c r="S16" s="3">
-        <f t="shared" ref="S16" si="30">SUM(S11:S15)</f>
+        <f t="shared" ref="S16" si="36">SUM(S11:S15)</f>
         <v>187</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" ref="T16" si="31">SUM(T11:T15)</f>
+        <f t="shared" ref="T16" si="37">SUM(T11:T15)</f>
         <v>365</v>
       </c>
     </row>
@@ -13258,67 +13831,67 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25" si="32">SUM(C20:C24)</f>
+        <f t="shared" ref="C25" si="38">SUM(C20:C24)</f>
         <v>10</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25" si="33">SUM(D20:D24)</f>
+        <f t="shared" ref="D25" si="39">SUM(D20:D24)</f>
         <v>15</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25" si="34">SUM(E20:E24)</f>
+        <f t="shared" ref="E25" si="40">SUM(E20:E24)</f>
         <v>17</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25" si="35">SUM(F20:F24)</f>
+        <f t="shared" ref="F25" si="41">SUM(F20:F24)</f>
         <v>20</v>
       </c>
       <c r="G25">
-        <f t="shared" ref="G25" si="36">SUM(G20:G24)</f>
+        <f t="shared" ref="G25" si="42">SUM(G20:G24)</f>
         <v>25</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25" si="37">SUM(H20:H24)</f>
+        <f t="shared" ref="H25" si="43">SUM(H20:H24)</f>
         <v>30</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25" si="38">SUM(I20:I24)</f>
+        <f t="shared" ref="I25" si="44">SUM(I20:I24)</f>
         <v>35</v>
       </c>
       <c r="J25">
-        <f t="shared" ref="J25" si="39">SUM(J20:J24)</f>
+        <f t="shared" ref="J25" si="45">SUM(J20:J24)</f>
         <v>40</v>
       </c>
       <c r="K25">
-        <f t="shared" ref="K25" si="40">SUM(K20:K24)</f>
+        <f t="shared" ref="K25" si="46">SUM(K20:K24)</f>
         <v>45</v>
       </c>
       <c r="L25">
-        <f t="shared" ref="L25" si="41">SUM(L20:L24)</f>
+        <f t="shared" ref="L25" si="47">SUM(L20:L24)</f>
         <v>50</v>
       </c>
       <c r="M25">
-        <f t="shared" ref="M25" si="42">SUM(M20:M24)</f>
+        <f t="shared" ref="M25" si="48">SUM(M20:M24)</f>
         <v>55</v>
       </c>
       <c r="N25">
-        <f t="shared" ref="N25" si="43">SUM(N20:N24)</f>
+        <f t="shared" ref="N25" si="49">SUM(N20:N24)</f>
         <v>60</v>
       </c>
       <c r="O25">
-        <f t="shared" ref="O25" si="44">SUM(O20:O24)</f>
+        <f t="shared" ref="O25" si="50">SUM(O20:O24)</f>
         <v>65</v>
       </c>
       <c r="P25">
-        <f t="shared" ref="P25" si="45">SUM(P20:P24)</f>
+        <f t="shared" ref="P25" si="51">SUM(P20:P24)</f>
         <v>67</v>
       </c>
       <c r="Q25" s="3">
-        <f t="shared" ref="Q25" si="46">SUM(Q20:Q24)</f>
+        <f t="shared" ref="Q25" si="52">SUM(Q20:Q24)</f>
         <v>160</v>
       </c>
       <c r="R25" s="3">
-        <f t="shared" ref="R25" si="47">SUM(R20:R24)</f>
+        <f t="shared" ref="R25" si="53">SUM(R20:R24)</f>
         <v>295</v>
       </c>
     </row>

--- a/doc/caste_system.xlsx
+++ b/doc/caste_system.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/349dfb9748b30a92/Asztali gép/ataliasflame_2.0/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3550" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14B023E6-03DC-442E-9B76-F1BA3DB1AD35}"/>
+  <xr:revisionPtr revIDLastSave="3917" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{490079F2-63C5-411E-BA65-10341C0919C1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
   </bookViews>
@@ -1765,7 +1765,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="85">
   <si>
     <t>csavargó</t>
   </si>
@@ -2235,7 +2235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2290,8 +2290,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2316,6 +2314,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -2334,6 +2335,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2769,7 +2774,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="30" t="s">
@@ -2825,7 +2830,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="30" t="s">
         <v>2</v>
       </c>
@@ -2879,7 +2884,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="30" t="s">
         <v>3</v>
       </c>
@@ -2933,7 +2938,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -2987,7 +2992,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="31" t="s">
         <v>4</v>
       </c>
@@ -3041,7 +3046,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="32" t="s">
@@ -3097,7 +3102,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="32" t="s">
         <v>6</v>
       </c>
@@ -3151,7 +3156,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="32" t="s">
         <v>7</v>
       </c>
@@ -3205,7 +3210,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="29" t="s">
         <v>8</v>
       </c>
@@ -3259,7 +3264,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="40" t="s">
         <v>80</v>
       </c>
       <c r="B12" s="32" t="s">
@@ -3315,7 +3320,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="30" t="s">
         <v>10</v>
       </c>
@@ -3369,7 +3374,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="30" t="s">
         <v>11</v>
       </c>
@@ -3423,7 +3428,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="31" t="s">
         <v>12</v>
       </c>
@@ -3477,7 +3482,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="40" t="s">
         <v>81</v>
       </c>
       <c r="B16" s="32" t="s">
@@ -3533,7 +3538,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="30" t="s">
         <v>14</v>
       </c>
@@ -3587,7 +3592,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="30" t="s">
         <v>15</v>
       </c>
@@ -3641,7 +3646,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="31" t="s">
         <v>16</v>
       </c>
@@ -3695,7 +3700,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="37" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="30" t="s">
@@ -3751,7 +3756,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="30" t="s">
         <v>18</v>
       </c>
@@ -3805,7 +3810,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="30" t="s">
         <v>19</v>
       </c>
@@ -3859,7 +3864,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="31" t="s">
         <v>20</v>
       </c>
@@ -6126,7 +6131,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="38">
+      <c r="A11" s="36">
         <v>10</v>
       </c>
       <c r="B11">
@@ -6860,7 +6865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8DF294-C85C-47A3-9A81-4E26EFDC10EC}">
   <dimension ref="A1:BK54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="BK12" sqref="BK12"/>
     </sheetView>
   </sheetViews>
@@ -6993,54 +6998,54 @@
       <c r="U1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="45" t="s">
+      <c r="W1" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AD1" s="45" t="s">
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AD1" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AK1" s="45" t="s">
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AK1" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AR1" s="45" t="s">
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AR1" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="45"/>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="45"/>
-      <c r="AY1" s="45" t="s">
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="43"/>
+      <c r="AY1" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="45"/>
-      <c r="BB1" s="45"/>
-      <c r="BC1" s="45"/>
-      <c r="BD1" s="45"/>
-      <c r="BF1" s="45" t="s">
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="43"/>
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="43"/>
+      <c r="BF1" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="BG1" s="45"/>
-      <c r="BH1" s="45"/>
-      <c r="BI1" s="45"/>
-      <c r="BJ1" s="45"/>
-      <c r="BK1" s="45"/>
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="43"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="43"/>
+      <c r="BK1" s="43"/>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
@@ -11956,11 +11961,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD573711-C846-40DC-8629-19A685998D3E}">
-  <dimension ref="A1:AV25"/>
+  <dimension ref="A1:CM25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U11" sqref="U11"/>
+      <pane xSplit="1" topLeftCell="CD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CO11" sqref="CO11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11979,10 +11984,11 @@
     <col min="21" max="22" width="3" bestFit="1" customWidth="1"/>
     <col min="23" max="46" width="4" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="48" max="90" width="4" style="45" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="4.77734375" style="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:91" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -12118,14 +12124,143 @@
       <c r="AT1" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="AU1" s="46" t="s">
+      <c r="AU1" t="s">
         <v>7</v>
       </c>
-      <c r="AV1" s="36" t="s">
+      <c r="AV1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BK1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BN1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BO1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BP1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BQ1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BR1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BU1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BV1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BW1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BX1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="BZ1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="CA1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="CB1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="CC1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="CD1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="CE1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="CF1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="CI1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="CJ1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="CK1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="CL1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="CM1" s="45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -12264,14 +12399,143 @@
       <c r="AT2">
         <v>50</v>
       </c>
-      <c r="AU2" s="46">
+      <c r="AU2">
         <v>50</v>
       </c>
-      <c r="AV2" s="36">
+      <c r="AV2" s="45">
+        <v>51</v>
+      </c>
+      <c r="AW2" s="45">
+        <v>52</v>
+      </c>
+      <c r="AX2" s="45">
+        <v>54</v>
+      </c>
+      <c r="AY2" s="45">
+        <v>55</v>
+      </c>
+      <c r="AZ2" s="45">
+        <v>56</v>
+      </c>
+      <c r="BA2" s="45">
+        <v>57</v>
+      </c>
+      <c r="BB2" s="45">
+        <v>58</v>
+      </c>
+      <c r="BC2" s="45">
+        <v>59</v>
+      </c>
+      <c r="BD2" s="45">
+        <v>61</v>
+      </c>
+      <c r="BE2" s="45">
+        <v>62</v>
+      </c>
+      <c r="BF2" s="45">
+        <v>63</v>
+      </c>
+      <c r="BG2" s="45">
+        <v>64</v>
+      </c>
+      <c r="BH2" s="45">
+        <v>65</v>
+      </c>
+      <c r="BI2" s="45">
+        <v>67</v>
+      </c>
+      <c r="BJ2" s="45">
+        <v>68</v>
+      </c>
+      <c r="BK2" s="45">
+        <v>69</v>
+      </c>
+      <c r="BL2" s="45">
+        <v>70</v>
+      </c>
+      <c r="BM2" s="45">
+        <v>71</v>
+      </c>
+      <c r="BN2" s="45">
+        <v>72</v>
+      </c>
+      <c r="BO2" s="45">
+        <v>73</v>
+      </c>
+      <c r="BP2" s="45">
+        <v>75</v>
+      </c>
+      <c r="BQ2" s="45">
+        <v>76</v>
+      </c>
+      <c r="BR2" s="45">
+        <v>77</v>
+      </c>
+      <c r="BS2" s="45">
+        <v>78</v>
+      </c>
+      <c r="BT2" s="45">
+        <v>79</v>
+      </c>
+      <c r="BU2" s="45">
+        <v>81</v>
+      </c>
+      <c r="BV2" s="45">
+        <v>82</v>
+      </c>
+      <c r="BW2" s="45">
+        <v>83</v>
+      </c>
+      <c r="BX2" s="45">
+        <v>84</v>
+      </c>
+      <c r="BY2" s="45">
+        <v>85</v>
+      </c>
+      <c r="BZ2" s="45">
+        <v>87</v>
+      </c>
+      <c r="CA2" s="45">
+        <v>88</v>
+      </c>
+      <c r="CB2" s="45">
+        <v>89</v>
+      </c>
+      <c r="CC2" s="45">
+        <v>90</v>
+      </c>
+      <c r="CD2" s="45">
+        <v>91</v>
+      </c>
+      <c r="CE2" s="45">
+        <v>92</v>
+      </c>
+      <c r="CF2" s="45">
+        <v>93</v>
+      </c>
+      <c r="CG2" s="45">
+        <v>94</v>
+      </c>
+      <c r="CH2" s="45">
+        <v>95</v>
+      </c>
+      <c r="CI2" s="45">
+        <v>96</v>
+      </c>
+      <c r="CJ2" s="45">
+        <v>97</v>
+      </c>
+      <c r="CK2" s="45">
+        <v>98</v>
+      </c>
+      <c r="CL2" s="45">
+        <v>99</v>
+      </c>
+      <c r="CM2" s="45">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -12410,14 +12674,143 @@
       <c r="AT3">
         <v>50</v>
       </c>
-      <c r="AU3" s="46">
+      <c r="AU3">
         <v>50</v>
       </c>
-      <c r="AV3" s="36">
+      <c r="AV3" s="45">
+        <v>51</v>
+      </c>
+      <c r="AW3" s="45">
+        <v>53</v>
+      </c>
+      <c r="AX3" s="45">
+        <v>54</v>
+      </c>
+      <c r="AY3" s="45">
+        <v>55</v>
+      </c>
+      <c r="AZ3" s="45">
+        <v>56</v>
+      </c>
+      <c r="BA3" s="45">
+        <v>57</v>
+      </c>
+      <c r="BB3" s="45">
+        <v>59</v>
+      </c>
+      <c r="BC3" s="45">
+        <v>60</v>
+      </c>
+      <c r="BD3" s="45">
+        <v>61</v>
+      </c>
+      <c r="BE3" s="45">
+        <v>62</v>
+      </c>
+      <c r="BF3" s="45">
+        <v>63</v>
+      </c>
+      <c r="BG3" s="45">
+        <v>65</v>
+      </c>
+      <c r="BH3" s="45">
+        <v>66</v>
+      </c>
+      <c r="BI3" s="45">
+        <v>67</v>
+      </c>
+      <c r="BJ3" s="45">
+        <v>68</v>
+      </c>
+      <c r="BK3" s="45">
+        <v>69</v>
+      </c>
+      <c r="BL3" s="45">
+        <v>70</v>
+      </c>
+      <c r="BM3" s="45">
+        <v>71</v>
+      </c>
+      <c r="BN3" s="45">
+        <v>73</v>
+      </c>
+      <c r="BO3" s="45">
+        <v>74</v>
+      </c>
+      <c r="BP3" s="45">
+        <v>75</v>
+      </c>
+      <c r="BQ3" s="45">
+        <v>76</v>
+      </c>
+      <c r="BR3" s="45">
+        <v>77</v>
+      </c>
+      <c r="BS3" s="45">
+        <v>78</v>
+      </c>
+      <c r="BT3" s="45">
+        <v>80</v>
+      </c>
+      <c r="BU3" s="45">
+        <v>81</v>
+      </c>
+      <c r="BV3" s="45">
+        <v>82</v>
+      </c>
+      <c r="BW3" s="45">
+        <v>83</v>
+      </c>
+      <c r="BX3" s="45">
+        <v>84</v>
+      </c>
+      <c r="BY3" s="45">
+        <v>86</v>
+      </c>
+      <c r="BZ3" s="45">
+        <v>87</v>
+      </c>
+      <c r="CA3" s="45">
+        <v>88</v>
+      </c>
+      <c r="CB3" s="45">
+        <v>89</v>
+      </c>
+      <c r="CC3" s="45">
+        <v>90</v>
+      </c>
+      <c r="CD3" s="45">
+        <v>91</v>
+      </c>
+      <c r="CE3" s="45">
+        <v>92</v>
+      </c>
+      <c r="CF3" s="45">
+        <v>93</v>
+      </c>
+      <c r="CG3" s="45">
+        <v>94</v>
+      </c>
+      <c r="CH3" s="45">
+        <v>95</v>
+      </c>
+      <c r="CI3" s="45">
+        <v>96</v>
+      </c>
+      <c r="CJ3" s="45">
+        <v>97</v>
+      </c>
+      <c r="CK3" s="45">
+        <v>98</v>
+      </c>
+      <c r="CL3" s="45">
+        <v>99</v>
+      </c>
+      <c r="CM3" s="45">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -12556,14 +12949,143 @@
       <c r="AT4">
         <v>50</v>
       </c>
-      <c r="AU4" s="46">
+      <c r="AU4">
         <v>50</v>
       </c>
-      <c r="AV4" s="36">
+      <c r="AV4" s="45">
+        <v>52</v>
+      </c>
+      <c r="AW4" s="45">
+        <v>53</v>
+      </c>
+      <c r="AX4" s="45">
+        <v>54</v>
+      </c>
+      <c r="AY4" s="45">
+        <v>55</v>
+      </c>
+      <c r="AZ4" s="45">
+        <v>56</v>
+      </c>
+      <c r="BA4" s="45">
+        <v>58</v>
+      </c>
+      <c r="BB4" s="45">
+        <v>59</v>
+      </c>
+      <c r="BC4" s="45">
+        <v>60</v>
+      </c>
+      <c r="BD4" s="45">
+        <v>61</v>
+      </c>
+      <c r="BE4" s="45">
+        <v>62</v>
+      </c>
+      <c r="BF4" s="45">
+        <v>64</v>
+      </c>
+      <c r="BG4" s="45">
+        <v>65</v>
+      </c>
+      <c r="BH4" s="45">
+        <v>66</v>
+      </c>
+      <c r="BI4" s="45">
+        <v>67</v>
+      </c>
+      <c r="BJ4" s="45">
+        <v>68</v>
+      </c>
+      <c r="BK4" s="45">
+        <v>69</v>
+      </c>
+      <c r="BL4" s="45">
+        <v>70</v>
+      </c>
+      <c r="BM4" s="45">
+        <v>72</v>
+      </c>
+      <c r="BN4" s="45">
+        <v>73</v>
+      </c>
+      <c r="BO4" s="45">
+        <v>74</v>
+      </c>
+      <c r="BP4" s="45">
+        <v>75</v>
+      </c>
+      <c r="BQ4" s="45">
+        <v>76</v>
+      </c>
+      <c r="BR4" s="45">
+        <v>77</v>
+      </c>
+      <c r="BS4" s="45">
+        <v>79</v>
+      </c>
+      <c r="BT4" s="45">
+        <v>80</v>
+      </c>
+      <c r="BU4" s="45">
+        <v>81</v>
+      </c>
+      <c r="BV4" s="45">
+        <v>82</v>
+      </c>
+      <c r="BW4" s="45">
+        <v>83</v>
+      </c>
+      <c r="BX4" s="45">
+        <v>85</v>
+      </c>
+      <c r="BY4" s="45">
+        <v>86</v>
+      </c>
+      <c r="BZ4" s="45">
+        <v>87</v>
+      </c>
+      <c r="CA4" s="45">
+        <v>88</v>
+      </c>
+      <c r="CB4" s="45">
+        <v>89</v>
+      </c>
+      <c r="CC4" s="45">
+        <v>90</v>
+      </c>
+      <c r="CD4" s="45">
+        <v>91</v>
+      </c>
+      <c r="CE4" s="45">
+        <v>92</v>
+      </c>
+      <c r="CF4" s="45">
+        <v>93</v>
+      </c>
+      <c r="CG4" s="45">
+        <v>94</v>
+      </c>
+      <c r="CH4" s="45">
+        <v>95</v>
+      </c>
+      <c r="CI4" s="45">
+        <v>96</v>
+      </c>
+      <c r="CJ4" s="45">
+        <v>97</v>
+      </c>
+      <c r="CK4" s="45">
+        <v>98</v>
+      </c>
+      <c r="CL4" s="45">
+        <v>99</v>
+      </c>
+      <c r="CM4" s="45">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -12702,14 +13224,143 @@
       <c r="AT5">
         <v>50</v>
       </c>
-      <c r="AU5" s="46">
+      <c r="AU5">
         <v>50</v>
       </c>
-      <c r="AV5" s="36">
+      <c r="AV5" s="45">
+        <v>51</v>
+      </c>
+      <c r="AW5" s="45">
+        <v>52</v>
+      </c>
+      <c r="AX5" s="45">
+        <v>53</v>
+      </c>
+      <c r="AY5" s="45">
+        <v>55</v>
+      </c>
+      <c r="AZ5" s="45">
+        <v>56</v>
+      </c>
+      <c r="BA5" s="45">
+        <v>57</v>
+      </c>
+      <c r="BB5" s="45">
+        <v>58</v>
+      </c>
+      <c r="BC5" s="45">
+        <v>59</v>
+      </c>
+      <c r="BD5" s="45">
+        <v>60</v>
+      </c>
+      <c r="BE5" s="45">
+        <v>62</v>
+      </c>
+      <c r="BF5" s="45">
+        <v>63</v>
+      </c>
+      <c r="BG5" s="45">
+        <v>64</v>
+      </c>
+      <c r="BH5" s="45">
+        <v>65</v>
+      </c>
+      <c r="BI5" s="45">
+        <v>66</v>
+      </c>
+      <c r="BJ5" s="45">
+        <v>68</v>
+      </c>
+      <c r="BK5" s="45">
+        <v>69</v>
+      </c>
+      <c r="BL5" s="45">
+        <v>70</v>
+      </c>
+      <c r="BM5" s="45">
+        <v>71</v>
+      </c>
+      <c r="BN5" s="45">
+        <v>72</v>
+      </c>
+      <c r="BO5" s="45">
+        <v>73</v>
+      </c>
+      <c r="BP5" s="45">
+        <v>74</v>
+      </c>
+      <c r="BQ5" s="45">
+        <v>76</v>
+      </c>
+      <c r="BR5" s="45">
+        <v>77</v>
+      </c>
+      <c r="BS5" s="45">
+        <v>78</v>
+      </c>
+      <c r="BT5" s="45">
+        <v>79</v>
+      </c>
+      <c r="BU5" s="45">
+        <v>80</v>
+      </c>
+      <c r="BV5" s="45">
+        <v>82</v>
+      </c>
+      <c r="BW5" s="45">
+        <v>83</v>
+      </c>
+      <c r="BX5" s="45">
+        <v>84</v>
+      </c>
+      <c r="BY5" s="45">
+        <v>85</v>
+      </c>
+      <c r="BZ5" s="45">
+        <v>86</v>
+      </c>
+      <c r="CA5" s="45">
+        <v>88</v>
+      </c>
+      <c r="CB5" s="45">
+        <v>89</v>
+      </c>
+      <c r="CC5" s="45">
+        <v>90</v>
+      </c>
+      <c r="CD5" s="45">
+        <v>91</v>
+      </c>
+      <c r="CE5" s="45">
+        <v>92</v>
+      </c>
+      <c r="CF5" s="45">
+        <v>93</v>
+      </c>
+      <c r="CG5" s="45">
+        <v>94</v>
+      </c>
+      <c r="CH5" s="45">
+        <v>95</v>
+      </c>
+      <c r="CI5" s="45">
+        <v>96</v>
+      </c>
+      <c r="CJ5" s="45">
+        <v>97</v>
+      </c>
+      <c r="CK5" s="45">
+        <v>98</v>
+      </c>
+      <c r="CL5" s="45">
+        <v>99</v>
+      </c>
+      <c r="CM5" s="45">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>49</v>
       </c>
@@ -12848,20 +13499,149 @@
       <c r="AT6" s="34">
         <v>15</v>
       </c>
-      <c r="AU6" s="47">
+      <c r="AU6" s="34">
         <v>20</v>
       </c>
-      <c r="AV6" s="37">
+      <c r="AV6" s="46">
+        <v>20</v>
+      </c>
+      <c r="AW6" s="46">
+        <v>20</v>
+      </c>
+      <c r="AX6" s="46">
+        <v>20</v>
+      </c>
+      <c r="AY6" s="46">
+        <v>20</v>
+      </c>
+      <c r="AZ6" s="46">
+        <v>21</v>
+      </c>
+      <c r="BA6" s="46">
+        <v>21</v>
+      </c>
+      <c r="BB6" s="46">
+        <v>21</v>
+      </c>
+      <c r="BC6" s="46">
+        <v>22</v>
+      </c>
+      <c r="BD6" s="46">
+        <v>22</v>
+      </c>
+      <c r="BE6" s="46">
+        <v>22</v>
+      </c>
+      <c r="BF6" s="46">
+        <v>22</v>
+      </c>
+      <c r="BG6" s="46">
+        <v>22</v>
+      </c>
+      <c r="BH6" s="46">
+        <v>23</v>
+      </c>
+      <c r="BI6" s="46">
+        <v>23</v>
+      </c>
+      <c r="BJ6" s="46">
+        <v>23</v>
+      </c>
+      <c r="BK6" s="46">
+        <v>24</v>
+      </c>
+      <c r="BL6" s="46">
+        <v>25</v>
+      </c>
+      <c r="BM6" s="46">
+        <v>25</v>
+      </c>
+      <c r="BN6" s="46">
+        <v>25</v>
+      </c>
+      <c r="BO6" s="46">
+        <v>26</v>
+      </c>
+      <c r="BP6" s="46">
+        <v>26</v>
+      </c>
+      <c r="BQ6" s="46">
+        <v>26</v>
+      </c>
+      <c r="BR6" s="46">
+        <v>27</v>
+      </c>
+      <c r="BS6" s="46">
+        <v>27</v>
+      </c>
+      <c r="BT6" s="46">
+        <v>27</v>
+      </c>
+      <c r="BU6" s="46">
+        <v>27</v>
+      </c>
+      <c r="BV6" s="46">
+        <v>27</v>
+      </c>
+      <c r="BW6" s="46">
+        <v>28</v>
+      </c>
+      <c r="BX6" s="46">
+        <v>28</v>
+      </c>
+      <c r="BY6" s="46">
+        <v>28</v>
+      </c>
+      <c r="BZ6" s="46">
+        <v>28</v>
+      </c>
+      <c r="CA6" s="46">
+        <v>28</v>
+      </c>
+      <c r="CB6" s="46">
+        <v>29</v>
+      </c>
+      <c r="CC6" s="46">
+        <v>30</v>
+      </c>
+      <c r="CD6" s="46">
+        <v>31</v>
+      </c>
+      <c r="CE6" s="46">
+        <v>32</v>
+      </c>
+      <c r="CF6" s="46">
+        <v>33</v>
+      </c>
+      <c r="CG6" s="46">
+        <v>34</v>
+      </c>
+      <c r="CH6" s="46">
+        <v>35</v>
+      </c>
+      <c r="CI6" s="46">
+        <v>36</v>
+      </c>
+      <c r="CJ6" s="46">
+        <v>37</v>
+      </c>
+      <c r="CK6" s="46">
+        <v>38</v>
+      </c>
+      <c r="CL6" s="46">
+        <v>39</v>
+      </c>
+      <c r="CM6" s="46">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:91" x14ac:dyDescent="0.3">
       <c r="B7">
         <f>SUM(B2:B6)</f>
         <v>5</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:AV7" si="0">SUM(C2:C6)</f>
+        <f t="shared" ref="C7:CM7" si="0">SUM(C2:C6)</f>
         <v>10</v>
       </c>
       <c r="D7">
@@ -13036,16 +13816,188 @@
         <f t="shared" si="17"/>
         <v>215</v>
       </c>
-      <c r="AU7" s="46">
-        <f t="shared" ref="AU7" si="19">SUM(AU2:AU6)</f>
+      <c r="AU7">
+        <f t="shared" ref="AU7:CL7" si="19">SUM(AU2:AU6)</f>
         <v>220</v>
       </c>
-      <c r="AV7" s="36">
+      <c r="AV7" s="45">
+        <f t="shared" si="19"/>
+        <v>225</v>
+      </c>
+      <c r="AW7" s="45">
+        <f t="shared" si="19"/>
+        <v>230</v>
+      </c>
+      <c r="AX7" s="45">
+        <f t="shared" si="19"/>
+        <v>235</v>
+      </c>
+      <c r="AY7" s="45">
+        <f t="shared" si="19"/>
+        <v>240</v>
+      </c>
+      <c r="AZ7" s="45">
+        <f t="shared" si="19"/>
+        <v>245</v>
+      </c>
+      <c r="BA7" s="45">
+        <f t="shared" si="19"/>
+        <v>250</v>
+      </c>
+      <c r="BB7" s="45">
+        <f t="shared" si="19"/>
+        <v>255</v>
+      </c>
+      <c r="BC7" s="45">
+        <f t="shared" si="19"/>
+        <v>260</v>
+      </c>
+      <c r="BD7" s="45">
+        <f t="shared" si="19"/>
+        <v>265</v>
+      </c>
+      <c r="BE7" s="45">
+        <f t="shared" si="19"/>
+        <v>270</v>
+      </c>
+      <c r="BF7" s="45">
+        <f t="shared" si="19"/>
+        <v>275</v>
+      </c>
+      <c r="BG7" s="45">
+        <f t="shared" si="19"/>
+        <v>280</v>
+      </c>
+      <c r="BH7" s="45">
+        <f t="shared" si="19"/>
+        <v>285</v>
+      </c>
+      <c r="BI7" s="45">
+        <f t="shared" si="19"/>
+        <v>290</v>
+      </c>
+      <c r="BJ7" s="45">
+        <f t="shared" si="19"/>
+        <v>295</v>
+      </c>
+      <c r="BK7" s="45">
+        <f t="shared" si="19"/>
+        <v>300</v>
+      </c>
+      <c r="BL7" s="45">
+        <f t="shared" si="19"/>
+        <v>305</v>
+      </c>
+      <c r="BM7" s="45">
+        <f t="shared" si="19"/>
+        <v>310</v>
+      </c>
+      <c r="BN7" s="45">
+        <f t="shared" si="19"/>
+        <v>315</v>
+      </c>
+      <c r="BO7" s="45">
+        <f t="shared" si="19"/>
+        <v>320</v>
+      </c>
+      <c r="BP7" s="45">
+        <f t="shared" si="19"/>
+        <v>325</v>
+      </c>
+      <c r="BQ7" s="45">
+        <f t="shared" si="19"/>
+        <v>330</v>
+      </c>
+      <c r="BR7" s="45">
+        <f t="shared" si="19"/>
+        <v>335</v>
+      </c>
+      <c r="BS7" s="45">
+        <f t="shared" si="19"/>
+        <v>340</v>
+      </c>
+      <c r="BT7" s="45">
+        <f t="shared" si="19"/>
+        <v>345</v>
+      </c>
+      <c r="BU7" s="45">
+        <f t="shared" si="19"/>
+        <v>350</v>
+      </c>
+      <c r="BV7" s="45">
+        <f t="shared" si="19"/>
+        <v>355</v>
+      </c>
+      <c r="BW7" s="45">
+        <f t="shared" si="19"/>
+        <v>360</v>
+      </c>
+      <c r="BX7" s="45">
+        <f t="shared" si="19"/>
+        <v>365</v>
+      </c>
+      <c r="BY7" s="45">
+        <f t="shared" si="19"/>
+        <v>370</v>
+      </c>
+      <c r="BZ7" s="45">
+        <f t="shared" si="19"/>
+        <v>375</v>
+      </c>
+      <c r="CA7" s="45">
+        <f t="shared" si="19"/>
+        <v>380</v>
+      </c>
+      <c r="CB7" s="45">
+        <f t="shared" si="19"/>
+        <v>385</v>
+      </c>
+      <c r="CC7" s="45">
+        <f t="shared" si="19"/>
+        <v>390</v>
+      </c>
+      <c r="CD7" s="45">
+        <f t="shared" si="19"/>
+        <v>395</v>
+      </c>
+      <c r="CE7" s="45">
+        <f t="shared" si="19"/>
+        <v>400</v>
+      </c>
+      <c r="CF7" s="45">
+        <f t="shared" si="19"/>
+        <v>405</v>
+      </c>
+      <c r="CG7" s="45">
+        <f t="shared" si="19"/>
+        <v>410</v>
+      </c>
+      <c r="CH7" s="45">
+        <f t="shared" si="19"/>
+        <v>415</v>
+      </c>
+      <c r="CI7" s="45">
+        <f t="shared" si="19"/>
+        <v>420</v>
+      </c>
+      <c r="CJ7" s="45">
+        <f t="shared" si="19"/>
+        <v>425</v>
+      </c>
+      <c r="CK7" s="45">
+        <f t="shared" si="19"/>
+        <v>430</v>
+      </c>
+      <c r="CL7" s="45">
+        <f t="shared" si="19"/>
+        <v>435</v>
+      </c>
+      <c r="CM7" s="45">
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:91" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -13104,7 +14056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -13166,7 +14118,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -13228,7 +14180,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -13290,7 +14242,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -13352,7 +14304,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>49</v>
       </c>
@@ -13414,7 +14366,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:91" x14ac:dyDescent="0.3">
       <c r="B16">
         <f>SUM(B11:B15)</f>
         <v>5</v>

--- a/doc/caste_system.xlsx
+++ b/doc/caste_system.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/349dfb9748b30a92/Asztali gép/ataliasflame_2.0/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4780" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7C144FC-589F-44BA-B051-0A404695075F}"/>
+  <xr:revisionPtr revIDLastSave="5214" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFF9D3CF-2612-49BB-8F44-FB68397D59B7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
   </bookViews>
@@ -116,7 +116,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-magician</t>
+sorcerer</t>
         </r>
       </text>
     </comment>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="85">
   <si>
     <t>csavargó</t>
   </si>
@@ -1810,6 +1810,9 @@
   <si>
     <t>élterő</t>
   </si>
+  <si>
+    <t>bölcs???</t>
+  </si>
 </sst>
 </file>
 
@@ -2009,7 +2012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2086,6 +2089,25 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -2102,6 +2124,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2404,7 +2430,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2537,22 +2563,22 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="C3" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="44" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -2567,46 +2593,46 @@
       <c r="J3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="3" t="s">
+      <c r="K3" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="44" t="s">
         <v>39</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="45" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="C4" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="44" t="s">
         <v>39</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -2621,33 +2647,33 @@
       <c r="J4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="3" t="s">
+      <c r="K4" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="44" t="s">
         <v>39</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="45" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
@@ -2701,7 +2727,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="27" t="s">
         <v>21</v>
       </c>
@@ -2755,7 +2781,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="28" t="s">
         <v>4</v>
       </c>
@@ -3698,7 +3724,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4314,7 +4340,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4571,7 +4597,7 @@
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:M9"/>
+      <selection activeCell="H2" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4627,10 +4653,10 @@
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="44" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -5181,16 +5207,16 @@
       <c r="L7" s="2">
         <v>100</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="44">
         <v>1</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="44">
         <v>6</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="44">
         <v>13</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="45">
         <v>25</v>
       </c>
       <c r="Q7">
@@ -5271,16 +5297,16 @@
       <c r="L8" s="2">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="44">
         <v>1</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="44">
         <v>5</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="44">
         <v>12</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="45">
         <v>25</v>
       </c>
       <c r="Q8">
@@ -5361,16 +5387,16 @@
       <c r="L9" s="4">
         <v>25</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="46">
         <v>1</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="46">
         <v>2</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="46">
         <v>5</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="47">
         <v>10</v>
       </c>
       <c r="Q9" s="31">
@@ -11694,11 +11720,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD573711-C846-40DC-8629-19A685998D3E}">
-  <dimension ref="A1:CW34"/>
+  <dimension ref="A1:CW46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A11" sqref="A11"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11708,13 +11734,15 @@
     <col min="3" max="5" width="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="20" width="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="24" max="47" width="4" bestFit="1" customWidth="1"/>
     <col min="48" max="50" width="4" customWidth="1"/>
-    <col min="51" max="51" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="94" width="4" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="54" max="94" width="4" bestFit="1" customWidth="1"/>
     <col min="95" max="100" width="4" customWidth="1"/>
     <col min="101" max="101" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -11733,7 +11761,7 @@
         <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G1" s="32" t="s">
         <v>82</v>
@@ -11778,7 +11806,7 @@
         <v>82</v>
       </c>
       <c r="U1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V1" s="32" t="s">
         <v>82</v>
@@ -11867,158 +11895,14 @@
       <c r="AX1" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="AY1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AZ1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BD1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BI1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BJ1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BK1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BL1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BM1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BN1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BO1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BP1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BQ1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BR1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BT1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BU1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BV1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BW1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BX1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BY1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="BZ1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="CA1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="CB1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="CC1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="CD1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="CE1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="CH1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="CI1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="CJ1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="CK1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="CL1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="CM1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="CN1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="CO1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="CP1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="CQ1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="CR1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="CS1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="CT1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="CU1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="CV1" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>8</v>
+      <c r="AY1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ1" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.3">
@@ -12032,298 +11916,151 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="U2">
         <v>6</v>
       </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
-      <c r="J2">
+      <c r="V2">
         <v>7</v>
       </c>
-      <c r="K2">
+      <c r="W2">
+        <v>7</v>
+      </c>
+      <c r="X2">
+        <v>7</v>
+      </c>
+      <c r="Y2">
+        <v>7</v>
+      </c>
+      <c r="Z2">
+        <v>8</v>
+      </c>
+      <c r="AA2">
+        <v>8</v>
+      </c>
+      <c r="AB2">
+        <v>8</v>
+      </c>
+      <c r="AC2">
         <v>9</v>
       </c>
-      <c r="L2">
+      <c r="AD2">
         <v>10</v>
       </c>
-      <c r="M2">
+      <c r="AE2">
+        <v>10</v>
+      </c>
+      <c r="AF2">
+        <v>10</v>
+      </c>
+      <c r="AG2">
         <v>11</v>
       </c>
-      <c r="N2">
+      <c r="AH2">
+        <v>11</v>
+      </c>
+      <c r="AI2">
+        <v>11</v>
+      </c>
+      <c r="AJ2">
         <v>12</v>
       </c>
-      <c r="O2">
+      <c r="AK2">
+        <v>12</v>
+      </c>
+      <c r="AL2">
+        <v>13</v>
+      </c>
+      <c r="AM2">
+        <v>13</v>
+      </c>
+      <c r="AN2">
         <v>14</v>
       </c>
-      <c r="P2">
+      <c r="AO2">
+        <v>14</v>
+      </c>
+      <c r="AP2">
+        <v>14</v>
+      </c>
+      <c r="AQ2">
         <v>15</v>
       </c>
-      <c r="Q2">
+      <c r="AR2">
         <v>16</v>
       </c>
-      <c r="R2">
+      <c r="AS2">
+        <v>16</v>
+      </c>
+      <c r="AT2">
+        <v>16</v>
+      </c>
+      <c r="AU2">
+        <v>16</v>
+      </c>
+      <c r="AV2">
         <v>17</v>
       </c>
-      <c r="S2">
+      <c r="AW2">
+        <v>17</v>
+      </c>
+      <c r="AX2">
+        <v>17</v>
+      </c>
+      <c r="AY2">
         <v>18</v>
       </c>
-      <c r="T2">
-        <v>19</v>
-      </c>
-      <c r="U2">
-        <v>20</v>
-      </c>
-      <c r="V2">
-        <v>21</v>
-      </c>
-      <c r="W2">
-        <v>22</v>
-      </c>
-      <c r="X2">
-        <v>23</v>
-      </c>
-      <c r="Y2">
-        <v>24</v>
-      </c>
-      <c r="Z2">
-        <v>25</v>
-      </c>
-      <c r="AA2">
-        <v>26</v>
-      </c>
-      <c r="AB2">
-        <v>27</v>
-      </c>
-      <c r="AC2">
-        <v>28</v>
-      </c>
-      <c r="AD2">
-        <v>29</v>
-      </c>
-      <c r="AE2">
-        <v>30</v>
-      </c>
-      <c r="AF2">
-        <v>31</v>
-      </c>
-      <c r="AG2">
-        <v>32</v>
-      </c>
-      <c r="AH2">
-        <v>33</v>
-      </c>
-      <c r="AI2">
-        <v>34</v>
-      </c>
-      <c r="AJ2">
-        <v>35</v>
-      </c>
-      <c r="AK2">
-        <v>36</v>
-      </c>
-      <c r="AL2">
-        <v>37</v>
-      </c>
-      <c r="AM2">
-        <v>38</v>
-      </c>
-      <c r="AN2">
-        <v>39</v>
-      </c>
-      <c r="AO2">
+      <c r="AZ2" s="3">
         <v>40</v>
-      </c>
-      <c r="AP2">
-        <v>41</v>
-      </c>
-      <c r="AQ2">
-        <v>42</v>
-      </c>
-      <c r="AR2">
-        <v>43</v>
-      </c>
-      <c r="AS2">
-        <v>44</v>
-      </c>
-      <c r="AT2">
-        <v>45</v>
-      </c>
-      <c r="AU2">
-        <v>46</v>
-      </c>
-      <c r="AV2">
-        <v>47</v>
-      </c>
-      <c r="AW2">
-        <v>48</v>
-      </c>
-      <c r="AX2">
-        <v>49</v>
-      </c>
-      <c r="AY2">
-        <v>50</v>
-      </c>
-      <c r="AZ2">
-        <v>51</v>
-      </c>
-      <c r="BA2">
-        <v>52</v>
-      </c>
-      <c r="BB2">
-        <v>53</v>
-      </c>
-      <c r="BC2">
-        <v>54</v>
-      </c>
-      <c r="BD2">
-        <v>55</v>
-      </c>
-      <c r="BE2">
-        <v>56</v>
-      </c>
-      <c r="BF2">
-        <v>57</v>
-      </c>
-      <c r="BG2">
-        <v>58</v>
-      </c>
-      <c r="BH2">
-        <v>59</v>
-      </c>
-      <c r="BI2">
-        <v>60</v>
-      </c>
-      <c r="BJ2">
-        <v>61</v>
-      </c>
-      <c r="BK2">
-        <v>62</v>
-      </c>
-      <c r="BL2">
-        <v>63</v>
-      </c>
-      <c r="BM2">
-        <v>64</v>
-      </c>
-      <c r="BN2">
-        <v>65</v>
-      </c>
-      <c r="BO2">
-        <v>66</v>
-      </c>
-      <c r="BP2">
-        <v>67</v>
-      </c>
-      <c r="BQ2">
-        <v>68</v>
-      </c>
-      <c r="BR2">
-        <v>69</v>
-      </c>
-      <c r="BS2">
-        <v>70</v>
-      </c>
-      <c r="BT2">
-        <v>71</v>
-      </c>
-      <c r="BU2">
-        <v>72</v>
-      </c>
-      <c r="BV2">
-        <v>73</v>
-      </c>
-      <c r="BW2">
-        <v>74</v>
-      </c>
-      <c r="BX2">
-        <v>75</v>
-      </c>
-      <c r="BY2">
-        <v>76</v>
-      </c>
-      <c r="BZ2">
-        <v>77</v>
-      </c>
-      <c r="CA2">
-        <v>78</v>
-      </c>
-      <c r="CB2">
-        <v>79</v>
-      </c>
-      <c r="CC2">
-        <v>80</v>
-      </c>
-      <c r="CD2">
-        <v>81</v>
-      </c>
-      <c r="CE2">
-        <v>82</v>
-      </c>
-      <c r="CF2">
-        <v>83</v>
-      </c>
-      <c r="CG2">
-        <v>84</v>
-      </c>
-      <c r="CH2">
-        <v>85</v>
-      </c>
-      <c r="CI2">
-        <v>86</v>
-      </c>
-      <c r="CJ2">
-        <v>87</v>
-      </c>
-      <c r="CK2">
-        <v>88</v>
-      </c>
-      <c r="CL2">
-        <v>89</v>
-      </c>
-      <c r="CM2">
-        <v>90</v>
-      </c>
-      <c r="CN2">
-        <v>91</v>
-      </c>
-      <c r="CO2">
-        <v>92</v>
-      </c>
-      <c r="CP2">
-        <v>93</v>
-      </c>
-      <c r="CQ2">
-        <v>94</v>
-      </c>
-      <c r="CR2">
-        <v>95</v>
-      </c>
-      <c r="CS2">
-        <v>96</v>
-      </c>
-      <c r="CT2">
-        <v>97</v>
-      </c>
-      <c r="CU2">
-        <v>98</v>
-      </c>
-      <c r="CV2">
-        <v>99</v>
-      </c>
-      <c r="CW2">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:101" x14ac:dyDescent="0.3">
@@ -12334,301 +12071,154 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
+      <c r="J3">
         <v>6</v>
       </c>
-      <c r="H3">
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
         <v>8</v>
       </c>
-      <c r="I3">
+      <c r="N3">
+        <v>8</v>
+      </c>
+      <c r="O3">
+        <v>9</v>
+      </c>
+      <c r="P3">
+        <v>9</v>
+      </c>
+      <c r="Q3">
         <v>10</v>
       </c>
-      <c r="J3">
+      <c r="R3">
         <v>11</v>
       </c>
-      <c r="K3">
+      <c r="S3">
         <v>12</v>
       </c>
-      <c r="L3">
+      <c r="T3">
+        <v>12</v>
+      </c>
+      <c r="U3">
+        <v>12</v>
+      </c>
+      <c r="V3">
+        <v>12</v>
+      </c>
+      <c r="W3">
         <v>13</v>
       </c>
-      <c r="M3">
+      <c r="X3">
+        <v>13</v>
+      </c>
+      <c r="Y3">
         <v>14</v>
       </c>
-      <c r="N3">
+      <c r="Z3">
+        <v>14</v>
+      </c>
+      <c r="AA3">
         <v>15</v>
       </c>
-      <c r="O3">
+      <c r="AB3">
         <v>16</v>
       </c>
-      <c r="P3">
+      <c r="AC3">
+        <v>16</v>
+      </c>
+      <c r="AD3">
+        <v>16</v>
+      </c>
+      <c r="AE3">
         <v>17</v>
       </c>
-      <c r="Q3">
+      <c r="AF3">
+        <v>17</v>
+      </c>
+      <c r="AG3">
         <v>18</v>
       </c>
-      <c r="R3">
+      <c r="AH3">
+        <v>18</v>
+      </c>
+      <c r="AI3">
         <v>19</v>
       </c>
-      <c r="S3">
+      <c r="AJ3">
+        <v>19</v>
+      </c>
+      <c r="AK3">
         <v>20</v>
       </c>
-      <c r="T3">
+      <c r="AL3">
         <v>20</v>
       </c>
-      <c r="U3">
+      <c r="AM3">
         <v>20</v>
       </c>
-      <c r="V3">
+      <c r="AN3">
         <v>21</v>
       </c>
-      <c r="W3">
+      <c r="AO3">
+        <v>21</v>
+      </c>
+      <c r="AP3">
         <v>22</v>
       </c>
-      <c r="X3">
+      <c r="AQ3">
+        <v>22</v>
+      </c>
+      <c r="AR3">
+        <v>22</v>
+      </c>
+      <c r="AS3">
+        <v>22</v>
+      </c>
+      <c r="AT3">
         <v>23</v>
       </c>
-      <c r="Y3">
+      <c r="AU3">
+        <v>23</v>
+      </c>
+      <c r="AV3">
         <v>24</v>
       </c>
-      <c r="Z3">
+      <c r="AW3">
+        <v>24</v>
+      </c>
+      <c r="AX3">
         <v>25</v>
       </c>
-      <c r="AA3">
-        <v>26</v>
-      </c>
-      <c r="AB3">
-        <v>27</v>
-      </c>
-      <c r="AC3">
-        <v>28</v>
-      </c>
-      <c r="AD3">
-        <v>29</v>
-      </c>
-      <c r="AE3">
-        <v>30</v>
-      </c>
-      <c r="AF3">
-        <v>31</v>
-      </c>
-      <c r="AG3">
-        <v>32</v>
-      </c>
-      <c r="AH3">
-        <v>33</v>
-      </c>
-      <c r="AI3">
-        <v>34</v>
-      </c>
-      <c r="AJ3">
-        <v>35</v>
-      </c>
-      <c r="AK3">
-        <v>36</v>
-      </c>
-      <c r="AL3">
-        <v>37</v>
-      </c>
-      <c r="AM3">
-        <v>38</v>
-      </c>
-      <c r="AN3">
-        <v>39</v>
-      </c>
-      <c r="AO3">
-        <v>40</v>
-      </c>
-      <c r="AP3">
-        <v>41</v>
-      </c>
-      <c r="AQ3">
-        <v>42</v>
-      </c>
-      <c r="AR3">
-        <v>43</v>
-      </c>
-      <c r="AS3">
-        <v>44</v>
-      </c>
-      <c r="AT3">
+      <c r="AY3">
+        <v>25</v>
+      </c>
+      <c r="AZ3" s="3">
         <v>45</v>
-      </c>
-      <c r="AU3">
-        <v>46</v>
-      </c>
-      <c r="AV3">
-        <v>47</v>
-      </c>
-      <c r="AW3">
-        <v>48</v>
-      </c>
-      <c r="AX3">
-        <v>49</v>
-      </c>
-      <c r="AY3">
-        <v>50</v>
-      </c>
-      <c r="AZ3">
-        <v>51</v>
-      </c>
-      <c r="BA3">
-        <v>52</v>
-      </c>
-      <c r="BB3">
-        <v>53</v>
-      </c>
-      <c r="BC3">
-        <v>54</v>
-      </c>
-      <c r="BD3">
-        <v>55</v>
-      </c>
-      <c r="BE3">
-        <v>56</v>
-      </c>
-      <c r="BF3">
-        <v>57</v>
-      </c>
-      <c r="BG3">
-        <v>58</v>
-      </c>
-      <c r="BH3">
-        <v>59</v>
-      </c>
-      <c r="BI3">
-        <v>60</v>
-      </c>
-      <c r="BJ3">
-        <v>61</v>
-      </c>
-      <c r="BK3">
-        <v>62</v>
-      </c>
-      <c r="BL3">
-        <v>63</v>
-      </c>
-      <c r="BM3">
-        <v>64</v>
-      </c>
-      <c r="BN3">
-        <v>65</v>
-      </c>
-      <c r="BO3">
-        <v>66</v>
-      </c>
-      <c r="BP3">
-        <v>67</v>
-      </c>
-      <c r="BQ3">
-        <v>68</v>
-      </c>
-      <c r="BR3">
-        <v>69</v>
-      </c>
-      <c r="BS3">
-        <v>70</v>
-      </c>
-      <c r="BT3">
-        <v>71</v>
-      </c>
-      <c r="BU3">
-        <v>72</v>
-      </c>
-      <c r="BV3">
-        <v>73</v>
-      </c>
-      <c r="BW3">
-        <v>74</v>
-      </c>
-      <c r="BX3">
-        <v>75</v>
-      </c>
-      <c r="BY3">
-        <v>76</v>
-      </c>
-      <c r="BZ3">
-        <v>77</v>
-      </c>
-      <c r="CA3">
-        <v>78</v>
-      </c>
-      <c r="CB3">
-        <v>79</v>
-      </c>
-      <c r="CC3">
-        <v>80</v>
-      </c>
-      <c r="CD3">
-        <v>81</v>
-      </c>
-      <c r="CE3">
-        <v>82</v>
-      </c>
-      <c r="CF3">
-        <v>83</v>
-      </c>
-      <c r="CG3">
-        <v>84</v>
-      </c>
-      <c r="CH3">
-        <v>85</v>
-      </c>
-      <c r="CI3">
-        <v>86</v>
-      </c>
-      <c r="CJ3">
-        <v>87</v>
-      </c>
-      <c r="CK3">
-        <v>88</v>
-      </c>
-      <c r="CL3">
-        <v>89</v>
-      </c>
-      <c r="CM3">
-        <v>90</v>
-      </c>
-      <c r="CN3">
-        <v>91</v>
-      </c>
-      <c r="CO3">
-        <v>92</v>
-      </c>
-      <c r="CP3">
-        <v>93</v>
-      </c>
-      <c r="CQ3">
-        <v>94</v>
-      </c>
-      <c r="CR3">
-        <v>95</v>
-      </c>
-      <c r="CS3">
-        <v>96</v>
-      </c>
-      <c r="CT3">
-        <v>97</v>
-      </c>
-      <c r="CU3">
-        <v>98</v>
-      </c>
-      <c r="CV3">
-        <v>99</v>
-      </c>
-      <c r="CW3">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:101" x14ac:dyDescent="0.3">
@@ -12642,298 +12232,151 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="P4">
         <v>5</v>
       </c>
-      <c r="G4">
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>6</v>
+      </c>
+      <c r="S4">
         <v>7</v>
       </c>
-      <c r="H4">
+      <c r="T4">
         <v>7</v>
       </c>
-      <c r="I4">
+      <c r="U4">
         <v>7</v>
       </c>
-      <c r="J4">
+      <c r="V4">
         <v>8</v>
       </c>
-      <c r="K4">
+      <c r="W4">
+        <v>8</v>
+      </c>
+      <c r="X4">
         <v>9</v>
       </c>
-      <c r="L4">
+      <c r="Y4">
+        <v>9</v>
+      </c>
+      <c r="Z4">
         <v>10</v>
       </c>
-      <c r="M4">
+      <c r="AA4">
+        <v>10</v>
+      </c>
+      <c r="AB4">
+        <v>11</v>
+      </c>
+      <c r="AC4">
+        <v>11</v>
+      </c>
+      <c r="AD4">
         <v>12</v>
       </c>
-      <c r="N4">
+      <c r="AE4">
+        <v>12</v>
+      </c>
+      <c r="AF4">
         <v>13</v>
       </c>
-      <c r="O4">
+      <c r="AG4">
+        <v>13</v>
+      </c>
+      <c r="AH4">
         <v>14</v>
       </c>
-      <c r="P4">
+      <c r="AI4">
+        <v>14</v>
+      </c>
+      <c r="AJ4">
+        <v>14</v>
+      </c>
+      <c r="AK4">
         <v>15</v>
       </c>
-      <c r="Q4">
+      <c r="AL4">
+        <v>15</v>
+      </c>
+      <c r="AM4">
+        <v>16</v>
+      </c>
+      <c r="AN4">
+        <v>16</v>
+      </c>
+      <c r="AO4">
+        <v>16</v>
+      </c>
+      <c r="AP4">
         <v>17</v>
       </c>
-      <c r="R4">
+      <c r="AQ4">
+        <v>17</v>
+      </c>
+      <c r="AR4">
+        <v>17</v>
+      </c>
+      <c r="AS4">
         <v>18</v>
       </c>
-      <c r="S4">
+      <c r="AT4">
+        <v>18</v>
+      </c>
+      <c r="AU4">
         <v>19</v>
       </c>
-      <c r="T4">
+      <c r="AV4">
+        <v>19</v>
+      </c>
+      <c r="AW4">
+        <v>19</v>
+      </c>
+      <c r="AX4">
         <v>20</v>
       </c>
-      <c r="U4">
+      <c r="AY4">
         <v>20</v>
       </c>
-      <c r="V4">
-        <v>21</v>
-      </c>
-      <c r="W4">
-        <v>22</v>
-      </c>
-      <c r="X4">
-        <v>23</v>
-      </c>
-      <c r="Y4">
-        <v>24</v>
-      </c>
-      <c r="Z4">
-        <v>25</v>
-      </c>
-      <c r="AA4">
-        <v>26</v>
-      </c>
-      <c r="AB4">
-        <v>27</v>
-      </c>
-      <c r="AC4">
-        <v>28</v>
-      </c>
-      <c r="AD4">
-        <v>29</v>
-      </c>
-      <c r="AE4">
-        <v>30</v>
-      </c>
-      <c r="AF4">
-        <v>31</v>
-      </c>
-      <c r="AG4">
-        <v>32</v>
-      </c>
-      <c r="AH4">
-        <v>33</v>
-      </c>
-      <c r="AI4">
-        <v>34</v>
-      </c>
-      <c r="AJ4">
-        <v>35</v>
-      </c>
-      <c r="AK4">
-        <v>36</v>
-      </c>
-      <c r="AL4">
-        <v>37</v>
-      </c>
-      <c r="AM4">
-        <v>38</v>
-      </c>
-      <c r="AN4">
-        <v>39</v>
-      </c>
-      <c r="AO4">
-        <v>40</v>
-      </c>
-      <c r="AP4">
-        <v>41</v>
-      </c>
-      <c r="AQ4">
-        <v>42</v>
-      </c>
-      <c r="AR4">
-        <v>43</v>
-      </c>
-      <c r="AS4">
-        <v>44</v>
-      </c>
-      <c r="AT4">
+      <c r="AZ4" s="3">
         <v>45</v>
-      </c>
-      <c r="AU4">
-        <v>46</v>
-      </c>
-      <c r="AV4">
-        <v>47</v>
-      </c>
-      <c r="AW4">
-        <v>48</v>
-      </c>
-      <c r="AX4">
-        <v>49</v>
-      </c>
-      <c r="AY4">
-        <v>50</v>
-      </c>
-      <c r="AZ4">
-        <v>51</v>
-      </c>
-      <c r="BA4">
-        <v>52</v>
-      </c>
-      <c r="BB4">
-        <v>53</v>
-      </c>
-      <c r="BC4">
-        <v>54</v>
-      </c>
-      <c r="BD4">
-        <v>55</v>
-      </c>
-      <c r="BE4">
-        <v>56</v>
-      </c>
-      <c r="BF4">
-        <v>57</v>
-      </c>
-      <c r="BG4">
-        <v>58</v>
-      </c>
-      <c r="BH4">
-        <v>59</v>
-      </c>
-      <c r="BI4">
-        <v>60</v>
-      </c>
-      <c r="BJ4">
-        <v>61</v>
-      </c>
-      <c r="BK4">
-        <v>62</v>
-      </c>
-      <c r="BL4">
-        <v>63</v>
-      </c>
-      <c r="BM4">
-        <v>64</v>
-      </c>
-      <c r="BN4">
-        <v>65</v>
-      </c>
-      <c r="BO4">
-        <v>66</v>
-      </c>
-      <c r="BP4">
-        <v>67</v>
-      </c>
-      <c r="BQ4">
-        <v>68</v>
-      </c>
-      <c r="BR4">
-        <v>69</v>
-      </c>
-      <c r="BS4">
-        <v>70</v>
-      </c>
-      <c r="BT4">
-        <v>71</v>
-      </c>
-      <c r="BU4">
-        <v>72</v>
-      </c>
-      <c r="BV4">
-        <v>73</v>
-      </c>
-      <c r="BW4">
-        <v>74</v>
-      </c>
-      <c r="BX4">
-        <v>75</v>
-      </c>
-      <c r="BY4">
-        <v>76</v>
-      </c>
-      <c r="BZ4">
-        <v>77</v>
-      </c>
-      <c r="CA4">
-        <v>78</v>
-      </c>
-      <c r="CB4">
-        <v>79</v>
-      </c>
-      <c r="CC4">
-        <v>80</v>
-      </c>
-      <c r="CD4">
-        <v>81</v>
-      </c>
-      <c r="CE4">
-        <v>82</v>
-      </c>
-      <c r="CF4">
-        <v>83</v>
-      </c>
-      <c r="CG4">
-        <v>84</v>
-      </c>
-      <c r="CH4">
-        <v>85</v>
-      </c>
-      <c r="CI4">
-        <v>86</v>
-      </c>
-      <c r="CJ4">
-        <v>87</v>
-      </c>
-      <c r="CK4">
-        <v>88</v>
-      </c>
-      <c r="CL4">
-        <v>89</v>
-      </c>
-      <c r="CM4">
-        <v>90</v>
-      </c>
-      <c r="CN4">
-        <v>91</v>
-      </c>
-      <c r="CO4">
-        <v>92</v>
-      </c>
-      <c r="CP4">
-        <v>93</v>
-      </c>
-      <c r="CQ4">
-        <v>94</v>
-      </c>
-      <c r="CR4">
-        <v>95</v>
-      </c>
-      <c r="CS4">
-        <v>96</v>
-      </c>
-      <c r="CT4">
-        <v>97</v>
-      </c>
-      <c r="CU4">
-        <v>98</v>
-      </c>
-      <c r="CV4">
-        <v>99</v>
-      </c>
-      <c r="CW4">
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:101" x14ac:dyDescent="0.3">
@@ -12944,301 +12387,154 @@
         <v>1</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
+      <c r="J5">
         <v>6</v>
       </c>
-      <c r="H5">
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5">
         <v>8</v>
       </c>
-      <c r="I5">
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <v>9</v>
+      </c>
+      <c r="Q5">
+        <v>9</v>
+      </c>
+      <c r="R5">
+        <v>9</v>
+      </c>
+      <c r="S5">
+        <v>9</v>
+      </c>
+      <c r="T5">
         <v>10</v>
       </c>
-      <c r="J5">
+      <c r="U5">
+        <v>10</v>
+      </c>
+      <c r="V5">
+        <v>10</v>
+      </c>
+      <c r="W5">
+        <v>10</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Y5">
         <v>11</v>
       </c>
-      <c r="K5">
+      <c r="Z5">
+        <v>11</v>
+      </c>
+      <c r="AA5">
         <v>12</v>
       </c>
-      <c r="L5">
+      <c r="AB5">
+        <v>12</v>
+      </c>
+      <c r="AC5">
         <v>13</v>
       </c>
-      <c r="M5">
+      <c r="AD5">
+        <v>13</v>
+      </c>
+      <c r="AE5">
         <v>14</v>
       </c>
-      <c r="N5">
+      <c r="AF5">
+        <v>14</v>
+      </c>
+      <c r="AG5">
+        <v>14</v>
+      </c>
+      <c r="AH5">
         <v>15</v>
       </c>
-      <c r="O5">
+      <c r="AI5">
         <v>16</v>
       </c>
-      <c r="P5">
+      <c r="AJ5">
+        <v>16</v>
+      </c>
+      <c r="AK5">
+        <v>16</v>
+      </c>
+      <c r="AL5">
         <v>17</v>
       </c>
-      <c r="Q5">
+      <c r="AM5">
+        <v>17</v>
+      </c>
+      <c r="AN5">
+        <v>17</v>
+      </c>
+      <c r="AO5">
         <v>18</v>
       </c>
-      <c r="R5">
+      <c r="AP5">
+        <v>18</v>
+      </c>
+      <c r="AQ5">
         <v>19</v>
       </c>
-      <c r="S5">
+      <c r="AR5">
+        <v>19</v>
+      </c>
+      <c r="AS5">
+        <v>19</v>
+      </c>
+      <c r="AT5">
         <v>20</v>
       </c>
-      <c r="T5">
+      <c r="AU5">
         <v>20</v>
       </c>
-      <c r="U5">
+      <c r="AV5">
         <v>20</v>
       </c>
-      <c r="V5">
+      <c r="AW5">
         <v>21</v>
       </c>
-      <c r="W5">
+      <c r="AX5">
+        <v>21</v>
+      </c>
+      <c r="AY5">
         <v>22</v>
       </c>
-      <c r="X5">
-        <v>23</v>
-      </c>
-      <c r="Y5">
-        <v>24</v>
-      </c>
-      <c r="Z5">
-        <v>25</v>
-      </c>
-      <c r="AA5">
-        <v>26</v>
-      </c>
-      <c r="AB5">
-        <v>27</v>
-      </c>
-      <c r="AC5">
-        <v>28</v>
-      </c>
-      <c r="AD5">
-        <v>29</v>
-      </c>
-      <c r="AE5">
-        <v>30</v>
-      </c>
-      <c r="AF5">
-        <v>31</v>
-      </c>
-      <c r="AG5">
-        <v>32</v>
-      </c>
-      <c r="AH5">
-        <v>33</v>
-      </c>
-      <c r="AI5">
-        <v>34</v>
-      </c>
-      <c r="AJ5">
-        <v>35</v>
-      </c>
-      <c r="AK5">
-        <v>36</v>
-      </c>
-      <c r="AL5">
-        <v>37</v>
-      </c>
-      <c r="AM5">
-        <v>38</v>
-      </c>
-      <c r="AN5">
-        <v>39</v>
-      </c>
-      <c r="AO5">
-        <v>40</v>
-      </c>
-      <c r="AP5">
-        <v>41</v>
-      </c>
-      <c r="AQ5">
-        <v>42</v>
-      </c>
-      <c r="AR5">
-        <v>43</v>
-      </c>
-      <c r="AS5">
-        <v>44</v>
-      </c>
-      <c r="AT5">
+      <c r="AZ5" s="3">
         <v>45</v>
-      </c>
-      <c r="AU5">
-        <v>46</v>
-      </c>
-      <c r="AV5">
-        <v>47</v>
-      </c>
-      <c r="AW5">
-        <v>48</v>
-      </c>
-      <c r="AX5">
-        <v>49</v>
-      </c>
-      <c r="AY5">
-        <v>50</v>
-      </c>
-      <c r="AZ5">
-        <v>51</v>
-      </c>
-      <c r="BA5">
-        <v>52</v>
-      </c>
-      <c r="BB5">
-        <v>53</v>
-      </c>
-      <c r="BC5">
-        <v>54</v>
-      </c>
-      <c r="BD5">
-        <v>55</v>
-      </c>
-      <c r="BE5">
-        <v>56</v>
-      </c>
-      <c r="BF5">
-        <v>57</v>
-      </c>
-      <c r="BG5">
-        <v>58</v>
-      </c>
-      <c r="BH5">
-        <v>59</v>
-      </c>
-      <c r="BI5">
-        <v>60</v>
-      </c>
-      <c r="BJ5">
-        <v>61</v>
-      </c>
-      <c r="BK5">
-        <v>62</v>
-      </c>
-      <c r="BL5">
-        <v>63</v>
-      </c>
-      <c r="BM5">
-        <v>64</v>
-      </c>
-      <c r="BN5">
-        <v>65</v>
-      </c>
-      <c r="BO5">
-        <v>66</v>
-      </c>
-      <c r="BP5">
-        <v>67</v>
-      </c>
-      <c r="BQ5">
-        <v>68</v>
-      </c>
-      <c r="BR5">
-        <v>69</v>
-      </c>
-      <c r="BS5">
-        <v>70</v>
-      </c>
-      <c r="BT5">
-        <v>71</v>
-      </c>
-      <c r="BU5">
-        <v>72</v>
-      </c>
-      <c r="BV5">
-        <v>73</v>
-      </c>
-      <c r="BW5">
-        <v>74</v>
-      </c>
-      <c r="BX5">
-        <v>75</v>
-      </c>
-      <c r="BY5">
-        <v>76</v>
-      </c>
-      <c r="BZ5">
-        <v>77</v>
-      </c>
-      <c r="CA5">
-        <v>78</v>
-      </c>
-      <c r="CB5">
-        <v>79</v>
-      </c>
-      <c r="CC5">
-        <v>80</v>
-      </c>
-      <c r="CD5">
-        <v>81</v>
-      </c>
-      <c r="CE5">
-        <v>82</v>
-      </c>
-      <c r="CF5">
-        <v>83</v>
-      </c>
-      <c r="CG5">
-        <v>84</v>
-      </c>
-      <c r="CH5">
-        <v>85</v>
-      </c>
-      <c r="CI5">
-        <v>86</v>
-      </c>
-      <c r="CJ5">
-        <v>87</v>
-      </c>
-      <c r="CK5">
-        <v>88</v>
-      </c>
-      <c r="CL5">
-        <v>89</v>
-      </c>
-      <c r="CM5">
-        <v>90</v>
-      </c>
-      <c r="CN5">
-        <v>91</v>
-      </c>
-      <c r="CO5">
-        <v>92</v>
-      </c>
-      <c r="CP5">
-        <v>93</v>
-      </c>
-      <c r="CQ5">
-        <v>94</v>
-      </c>
-      <c r="CR5">
-        <v>95</v>
-      </c>
-      <c r="CS5">
-        <v>96</v>
-      </c>
-      <c r="CT5">
-        <v>97</v>
-      </c>
-      <c r="CU5">
-        <v>98</v>
-      </c>
-      <c r="CV5">
-        <v>99</v>
-      </c>
-      <c r="CW5">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:101" x14ac:dyDescent="0.3">
@@ -13249,301 +12545,154 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="R6">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="S6">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="T6">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="U6">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="V6">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="W6">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="X6">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="Y6">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="Z6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AA6">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AB6">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="AC6">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AD6">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AE6">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AF6">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="AG6">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AH6">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="AI6">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AJ6">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="AK6">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="AL6">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="AM6">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="AN6">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="AO6">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AP6">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AQ6">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AR6">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="AS6">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="AT6">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="AU6">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="AV6">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="AW6">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="AX6">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="AY6">
-        <v>20</v>
-      </c>
-      <c r="AZ6">
-        <v>21</v>
-      </c>
-      <c r="BA6">
-        <v>21</v>
-      </c>
-      <c r="BB6">
-        <v>22</v>
-      </c>
-      <c r="BC6">
-        <v>22</v>
-      </c>
-      <c r="BD6">
-        <v>22</v>
-      </c>
-      <c r="BE6">
-        <v>23</v>
-      </c>
-      <c r="BF6">
-        <v>23</v>
-      </c>
-      <c r="BG6">
-        <v>23</v>
-      </c>
-      <c r="BH6">
-        <v>24</v>
-      </c>
-      <c r="BI6">
-        <v>24</v>
-      </c>
-      <c r="BJ6">
-        <v>25</v>
-      </c>
-      <c r="BK6">
-        <v>25</v>
-      </c>
-      <c r="BL6">
-        <v>26</v>
-      </c>
-      <c r="BM6">
-        <v>26</v>
-      </c>
-      <c r="BN6">
-        <v>27</v>
-      </c>
-      <c r="BO6">
-        <v>27</v>
-      </c>
-      <c r="BP6">
-        <v>28</v>
-      </c>
-      <c r="BQ6">
-        <v>28</v>
-      </c>
-      <c r="BR6">
-        <v>29</v>
-      </c>
-      <c r="BS6">
-        <v>29</v>
-      </c>
-      <c r="BT6">
-        <v>30</v>
-      </c>
-      <c r="BU6">
-        <v>30</v>
-      </c>
-      <c r="BV6">
-        <v>31</v>
-      </c>
-      <c r="BW6">
-        <v>31</v>
-      </c>
-      <c r="BX6">
-        <v>32</v>
-      </c>
-      <c r="BY6">
-        <v>32</v>
-      </c>
-      <c r="BZ6">
-        <v>32</v>
-      </c>
-      <c r="CA6">
-        <v>33</v>
-      </c>
-      <c r="CB6">
-        <v>33</v>
-      </c>
-      <c r="CC6">
-        <v>33</v>
-      </c>
-      <c r="CD6">
-        <v>34</v>
-      </c>
-      <c r="CE6">
-        <v>34</v>
-      </c>
-      <c r="CF6">
-        <v>35</v>
-      </c>
-      <c r="CG6">
-        <v>35</v>
-      </c>
-      <c r="CH6">
-        <v>35</v>
-      </c>
-      <c r="CI6">
-        <v>36</v>
-      </c>
-      <c r="CJ6">
-        <v>37</v>
-      </c>
-      <c r="CK6">
-        <v>37</v>
-      </c>
-      <c r="CL6">
-        <v>37</v>
-      </c>
-      <c r="CM6">
-        <v>38</v>
-      </c>
-      <c r="CN6">
-        <v>38</v>
-      </c>
-      <c r="CO6">
-        <v>38</v>
-      </c>
-      <c r="CP6">
-        <v>38</v>
-      </c>
-      <c r="CQ6">
-        <v>39</v>
-      </c>
-      <c r="CR6">
-        <v>39</v>
-      </c>
-      <c r="CS6">
-        <v>39</v>
-      </c>
-      <c r="CT6">
-        <v>39</v>
-      </c>
-      <c r="CU6">
-        <v>40</v>
-      </c>
-      <c r="CV6">
-        <v>40</v>
-      </c>
-      <c r="CW6">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="AZ6" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:101" x14ac:dyDescent="0.3">
@@ -13554,301 +12703,154 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="S7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="T7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="U7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="V7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="W7">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="X7">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="Y7">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="Z7">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AA7">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AB7">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AC7">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="AD7">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="AE7">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="AF7">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="AG7">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="AH7">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="AI7">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="AJ7">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="AK7">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="AL7">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="AM7">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="AN7">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="AO7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AP7">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="AQ7">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="AR7">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="AS7">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="AT7">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AU7">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="AV7">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="AW7">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="AX7">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="AY7">
-        <v>13</v>
-      </c>
-      <c r="AZ7">
-        <v>13</v>
-      </c>
-      <c r="BA7">
-        <v>13</v>
-      </c>
-      <c r="BB7">
-        <v>13</v>
-      </c>
-      <c r="BC7">
-        <v>13</v>
-      </c>
-      <c r="BD7">
-        <v>14</v>
-      </c>
-      <c r="BE7">
-        <v>14</v>
-      </c>
-      <c r="BF7">
-        <v>14</v>
-      </c>
-      <c r="BG7">
-        <v>14</v>
-      </c>
-      <c r="BH7">
-        <v>14</v>
-      </c>
-      <c r="BI7">
-        <v>15</v>
-      </c>
-      <c r="BJ7">
-        <v>15</v>
-      </c>
-      <c r="BK7">
-        <v>15</v>
-      </c>
-      <c r="BL7">
-        <v>15</v>
-      </c>
-      <c r="BM7">
-        <v>16</v>
-      </c>
-      <c r="BN7">
-        <v>16</v>
-      </c>
-      <c r="BO7">
-        <v>16</v>
-      </c>
-      <c r="BP7">
-        <v>16</v>
-      </c>
-      <c r="BQ7">
-        <v>17</v>
-      </c>
-      <c r="BR7">
-        <v>17</v>
-      </c>
-      <c r="BS7">
-        <v>17</v>
-      </c>
-      <c r="BT7">
-        <v>17</v>
-      </c>
-      <c r="BU7">
-        <v>18</v>
-      </c>
-      <c r="BV7">
-        <v>18</v>
-      </c>
-      <c r="BW7">
-        <v>18</v>
-      </c>
-      <c r="BX7">
-        <v>18</v>
-      </c>
-      <c r="BY7">
-        <v>19</v>
-      </c>
-      <c r="BZ7">
-        <v>19</v>
-      </c>
-      <c r="CA7">
-        <v>19</v>
-      </c>
-      <c r="CB7">
-        <v>20</v>
-      </c>
-      <c r="CC7">
-        <v>20</v>
-      </c>
-      <c r="CD7">
-        <v>20</v>
-      </c>
-      <c r="CE7">
-        <v>20</v>
-      </c>
-      <c r="CF7">
-        <v>20</v>
-      </c>
-      <c r="CG7">
-        <v>21</v>
-      </c>
-      <c r="CH7">
-        <v>21</v>
-      </c>
-      <c r="CI7">
-        <v>21</v>
-      </c>
-      <c r="CJ7">
-        <v>21</v>
-      </c>
-      <c r="CK7">
-        <v>22</v>
-      </c>
-      <c r="CL7">
-        <v>22</v>
-      </c>
-      <c r="CM7">
-        <v>22</v>
-      </c>
-      <c r="CN7">
-        <v>23</v>
-      </c>
-      <c r="CO7">
-        <v>23</v>
-      </c>
-      <c r="CP7">
-        <v>23</v>
-      </c>
-      <c r="CQ7">
-        <v>23</v>
-      </c>
-      <c r="CR7">
-        <v>24</v>
-      </c>
-      <c r="CS7">
-        <v>24</v>
-      </c>
-      <c r="CT7">
-        <v>24</v>
-      </c>
-      <c r="CU7">
-        <v>24</v>
-      </c>
-      <c r="CV7">
-        <v>25</v>
-      </c>
-      <c r="CW7">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="AZ7" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:101" x14ac:dyDescent="0.3">
@@ -13859,301 +12861,154 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="P8">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="R8">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="T8">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="U8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V8">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="W8">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="X8">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="Y8">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Z8">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="AA8">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AB8">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AC8">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="AD8">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AE8">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AF8">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="AG8">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="AH8">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="AI8">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="AJ8">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="AK8">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="AL8">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="AM8">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="AN8">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="AO8">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AP8">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="AQ8">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="AR8">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="AS8">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="AT8">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AU8">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="AV8">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="AW8">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="AX8">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="AY8">
-        <v>12</v>
-      </c>
-      <c r="AZ8">
-        <v>12</v>
-      </c>
-      <c r="BA8">
-        <v>13</v>
-      </c>
-      <c r="BB8">
-        <v>13</v>
-      </c>
-      <c r="BC8">
-        <v>14</v>
-      </c>
-      <c r="BD8">
-        <v>14</v>
-      </c>
-      <c r="BE8">
-        <v>14</v>
-      </c>
-      <c r="BF8">
-        <v>14</v>
-      </c>
-      <c r="BG8">
-        <v>15</v>
-      </c>
-      <c r="BH8">
-        <v>15</v>
-      </c>
-      <c r="BI8">
-        <v>15</v>
-      </c>
-      <c r="BJ8">
-        <v>15</v>
-      </c>
-      <c r="BK8">
-        <v>16</v>
-      </c>
-      <c r="BL8">
-        <v>16</v>
-      </c>
-      <c r="BM8">
-        <v>16</v>
-      </c>
-      <c r="BN8">
-        <v>16</v>
-      </c>
-      <c r="BO8">
-        <v>17</v>
-      </c>
-      <c r="BP8">
-        <v>17</v>
-      </c>
-      <c r="BQ8">
-        <v>17</v>
-      </c>
-      <c r="BR8">
-        <v>17</v>
-      </c>
-      <c r="BS8">
-        <v>18</v>
-      </c>
-      <c r="BT8">
-        <v>18</v>
-      </c>
-      <c r="BU8">
-        <v>18</v>
-      </c>
-      <c r="BV8">
-        <v>18</v>
-      </c>
-      <c r="BW8">
-        <v>19</v>
-      </c>
-      <c r="BX8">
-        <v>19</v>
-      </c>
-      <c r="BY8">
-        <v>19</v>
-      </c>
-      <c r="BZ8">
-        <v>20</v>
-      </c>
-      <c r="CA8">
-        <v>20</v>
-      </c>
-      <c r="CB8">
-        <v>20</v>
-      </c>
-      <c r="CC8">
-        <v>20</v>
-      </c>
-      <c r="CD8">
-        <v>20</v>
-      </c>
-      <c r="CE8">
-        <v>21</v>
-      </c>
-      <c r="CF8">
-        <v>21</v>
-      </c>
-      <c r="CG8">
-        <v>21</v>
-      </c>
-      <c r="CH8">
-        <v>22</v>
-      </c>
-      <c r="CI8">
-        <v>22</v>
-      </c>
-      <c r="CJ8">
-        <v>22</v>
-      </c>
-      <c r="CK8">
-        <v>22</v>
-      </c>
-      <c r="CL8">
-        <v>23</v>
-      </c>
-      <c r="CM8">
-        <v>23</v>
-      </c>
-      <c r="CN8">
-        <v>23</v>
-      </c>
-      <c r="CO8">
-        <v>23</v>
-      </c>
-      <c r="CP8">
-        <v>24</v>
-      </c>
-      <c r="CQ8">
-        <v>24</v>
-      </c>
-      <c r="CR8">
-        <v>24</v>
-      </c>
-      <c r="CS8">
-        <v>24</v>
-      </c>
-      <c r="CT8">
-        <v>25</v>
-      </c>
-      <c r="CU8">
-        <v>25</v>
-      </c>
-      <c r="CV8">
-        <v>25</v>
-      </c>
-      <c r="CW8">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="AZ8" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:101" x14ac:dyDescent="0.3">
@@ -14188,277 +13043,130 @@
         <v>1</v>
       </c>
       <c r="K9" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O9" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P9" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R9" s="31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S9" s="31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T9" s="31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U9" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V9" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W9" s="31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X9" s="31">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Y9" s="31">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Z9" s="31">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA9" s="31">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB9" s="31">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AC9" s="31">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AD9" s="31">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE9" s="31">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AF9" s="31">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AG9" s="31">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AH9" s="31">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AI9" s="31">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ9" s="31">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AK9" s="31">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AL9" s="31">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AM9" s="31">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AN9" s="31">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AO9" s="31">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AP9" s="31">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AQ9" s="31">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AR9" s="31">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AS9" s="31">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AT9" s="31">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AU9" s="31">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AV9" s="31">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AW9" s="31">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AX9" s="31">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AY9" s="31">
-        <v>5</v>
-      </c>
-      <c r="AZ9" s="31">
-        <v>5</v>
-      </c>
-      <c r="BA9" s="31">
-        <v>5</v>
-      </c>
-      <c r="BB9" s="31">
-        <v>5</v>
-      </c>
-      <c r="BC9" s="31">
-        <v>5</v>
-      </c>
-      <c r="BD9" s="31">
-        <v>5</v>
-      </c>
-      <c r="BE9" s="31">
-        <v>5</v>
-      </c>
-      <c r="BF9" s="31">
-        <v>6</v>
-      </c>
-      <c r="BG9" s="31">
-        <v>6</v>
-      </c>
-      <c r="BH9" s="31">
-        <v>6</v>
-      </c>
-      <c r="BI9" s="31">
-        <v>6</v>
-      </c>
-      <c r="BJ9" s="31">
-        <v>6</v>
-      </c>
-      <c r="BK9" s="31">
-        <v>6</v>
-      </c>
-      <c r="BL9" s="31">
-        <v>6</v>
-      </c>
-      <c r="BM9" s="31">
-        <v>6</v>
-      </c>
-      <c r="BN9" s="31">
-        <v>6</v>
-      </c>
-      <c r="BO9" s="31">
-        <v>6</v>
-      </c>
-      <c r="BP9" s="31">
-        <v>6</v>
-      </c>
-      <c r="BQ9" s="31">
-        <v>6</v>
-      </c>
-      <c r="BR9" s="31">
-        <v>6</v>
-      </c>
-      <c r="BS9" s="31">
-        <v>6</v>
-      </c>
-      <c r="BT9" s="31">
-        <v>6</v>
-      </c>
-      <c r="BU9" s="31">
-        <v>6</v>
-      </c>
-      <c r="BV9" s="31">
-        <v>6</v>
-      </c>
-      <c r="BW9" s="31">
-        <v>6</v>
-      </c>
-      <c r="BX9" s="31">
-        <v>6</v>
-      </c>
-      <c r="BY9" s="31">
-        <v>6</v>
-      </c>
-      <c r="BZ9" s="31">
-        <v>6</v>
-      </c>
-      <c r="CA9" s="31">
-        <v>6</v>
-      </c>
-      <c r="CB9" s="31">
-        <v>6</v>
-      </c>
-      <c r="CC9" s="31">
-        <v>7</v>
-      </c>
-      <c r="CD9" s="31">
-        <v>7</v>
-      </c>
-      <c r="CE9" s="31">
-        <v>7</v>
-      </c>
-      <c r="CF9" s="31">
-        <v>7</v>
-      </c>
-      <c r="CG9" s="31">
-        <v>7</v>
-      </c>
-      <c r="CH9" s="31">
-        <v>7</v>
-      </c>
-      <c r="CI9" s="31">
-        <v>7</v>
-      </c>
-      <c r="CJ9" s="31">
-        <v>7</v>
-      </c>
-      <c r="CK9" s="31">
-        <v>7</v>
-      </c>
-      <c r="CL9" s="31">
-        <v>7</v>
-      </c>
-      <c r="CM9" s="31">
-        <v>7</v>
-      </c>
-      <c r="CN9" s="31">
-        <v>7</v>
-      </c>
-      <c r="CO9" s="31">
-        <v>8</v>
-      </c>
-      <c r="CP9" s="31">
-        <v>8</v>
-      </c>
-      <c r="CQ9" s="31">
-        <v>8</v>
-      </c>
-      <c r="CR9" s="31">
-        <v>8</v>
-      </c>
-      <c r="CS9" s="31">
-        <v>9</v>
-      </c>
-      <c r="CT9" s="31">
-        <v>9</v>
-      </c>
-      <c r="CU9" s="31">
-        <v>9</v>
-      </c>
-      <c r="CV9" s="31">
-        <v>9</v>
-      </c>
-      <c r="CW9" s="31">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="AZ9" s="10">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:101" x14ac:dyDescent="0.3">
@@ -14467,7 +13175,7 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:BR10" si="0">SUM(C2:C9)</f>
+        <f t="shared" ref="C10:AZ10" si="0">SUM(C2:C9)</f>
         <v>10</v>
       </c>
       <c r="D10">
@@ -14531,19 +13239,19 @@
         <v>85</v>
       </c>
       <c r="S10">
-        <f t="shared" ref="S10" si="1">SUM(S2:S9)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="T10">
-        <f t="shared" ref="T10" si="2">SUM(T2:T9)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="U10">
-        <f t="shared" ref="U10" si="3">SUM(U2:U9)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="V10">
-        <f t="shared" ref="V10" si="4">SUM(V2:V9)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="W10">
@@ -14647,219 +13355,23 @@
         <v>230</v>
       </c>
       <c r="AV10">
-        <f t="shared" ref="AV10" si="5">SUM(AV2:AV9)</f>
+        <f t="shared" si="0"/>
         <v>235</v>
       </c>
       <c r="AW10">
-        <f t="shared" ref="AW10" si="6">SUM(AW2:AW9)</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="AX10">
-        <f t="shared" ref="AX10" si="7">SUM(AX2:AX9)</f>
+        <f t="shared" si="0"/>
         <v>245</v>
       </c>
       <c r="AY10">
-        <f t="shared" ref="AY10" si="8">SUM(AY2:AY9)</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="AZ10">
+      <c r="AZ10" s="3">
         <f t="shared" si="0"/>
-        <v>255</v>
-      </c>
-      <c r="BA10">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="BB10">
-        <f t="shared" si="0"/>
-        <v>265</v>
-      </c>
-      <c r="BC10">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="BD10">
-        <f t="shared" si="0"/>
-        <v>275</v>
-      </c>
-      <c r="BE10">
-        <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-      <c r="BF10">
-        <f t="shared" si="0"/>
-        <v>285</v>
-      </c>
-      <c r="BG10">
-        <f t="shared" si="0"/>
-        <v>290</v>
-      </c>
-      <c r="BH10">
-        <f t="shared" si="0"/>
-        <v>295</v>
-      </c>
-      <c r="BI10">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="BJ10">
-        <f t="shared" si="0"/>
-        <v>305</v>
-      </c>
-      <c r="BK10">
-        <f t="shared" si="0"/>
-        <v>310</v>
-      </c>
-      <c r="BL10">
-        <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-      <c r="BM10">
-        <f t="shared" si="0"/>
-        <v>320</v>
-      </c>
-      <c r="BN10">
-        <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="BO10">
-        <f t="shared" si="0"/>
-        <v>330</v>
-      </c>
-      <c r="BP10">
-        <f t="shared" si="0"/>
-        <v>335</v>
-      </c>
-      <c r="BQ10">
-        <f t="shared" si="0"/>
-        <v>340</v>
-      </c>
-      <c r="BR10">
-        <f t="shared" si="0"/>
-        <v>345</v>
-      </c>
-      <c r="BS10">
-        <f t="shared" ref="BS10:CP10" si="9">SUM(BS2:BS9)</f>
-        <v>350</v>
-      </c>
-      <c r="BT10">
-        <f t="shared" si="9"/>
-        <v>355</v>
-      </c>
-      <c r="BU10">
-        <f t="shared" si="9"/>
-        <v>360</v>
-      </c>
-      <c r="BV10">
-        <f t="shared" si="9"/>
-        <v>365</v>
-      </c>
-      <c r="BW10">
-        <f t="shared" si="9"/>
-        <v>370</v>
-      </c>
-      <c r="BX10">
-        <f t="shared" si="9"/>
-        <v>375</v>
-      </c>
-      <c r="BY10">
-        <f t="shared" si="9"/>
-        <v>380</v>
-      </c>
-      <c r="BZ10">
-        <f t="shared" si="9"/>
-        <v>385</v>
-      </c>
-      <c r="CA10">
-        <f t="shared" si="9"/>
-        <v>390</v>
-      </c>
-      <c r="CB10">
-        <f t="shared" si="9"/>
-        <v>395</v>
-      </c>
-      <c r="CC10">
-        <f t="shared" si="9"/>
-        <v>400</v>
-      </c>
-      <c r="CD10">
-        <f t="shared" si="9"/>
-        <v>405</v>
-      </c>
-      <c r="CE10">
-        <f t="shared" si="9"/>
-        <v>410</v>
-      </c>
-      <c r="CF10">
-        <f t="shared" si="9"/>
-        <v>415</v>
-      </c>
-      <c r="CG10">
-        <f t="shared" si="9"/>
-        <v>420</v>
-      </c>
-      <c r="CH10">
-        <f t="shared" si="9"/>
-        <v>425</v>
-      </c>
-      <c r="CI10">
-        <f t="shared" si="9"/>
-        <v>430</v>
-      </c>
-      <c r="CJ10">
-        <f t="shared" si="9"/>
-        <v>435</v>
-      </c>
-      <c r="CK10">
-        <f t="shared" si="9"/>
-        <v>440</v>
-      </c>
-      <c r="CL10">
-        <f t="shared" si="9"/>
-        <v>445</v>
-      </c>
-      <c r="CM10">
-        <f t="shared" si="9"/>
-        <v>450</v>
-      </c>
-      <c r="CN10">
-        <f t="shared" si="9"/>
-        <v>455</v>
-      </c>
-      <c r="CO10">
-        <f t="shared" si="9"/>
-        <v>460</v>
-      </c>
-      <c r="CP10">
-        <f t="shared" si="9"/>
-        <v>465</v>
-      </c>
-      <c r="CQ10">
-        <f t="shared" ref="CQ10" si="10">SUM(CQ2:CQ9)</f>
-        <v>470</v>
-      </c>
-      <c r="CR10">
-        <f t="shared" ref="CR10" si="11">SUM(CR2:CR9)</f>
-        <v>475</v>
-      </c>
-      <c r="CS10">
-        <f t="shared" ref="CS10" si="12">SUM(CS2:CS9)</f>
-        <v>480</v>
-      </c>
-      <c r="CT10">
-        <f t="shared" ref="CT10" si="13">SUM(CT2:CT9)</f>
-        <v>485</v>
-      </c>
-      <c r="CU10">
-        <f t="shared" ref="CU10" si="14">SUM(CU2:CU9)</f>
-        <v>490</v>
-      </c>
-      <c r="CV10">
-        <f t="shared" ref="CV10" si="15">SUM(CV2:CV9)</f>
-        <v>495</v>
-      </c>
-      <c r="CW10">
-        <f t="shared" ref="CW10" si="16">SUM(CW2:CW9)</f>
         <v>500</v>
       </c>
     </row>
@@ -14877,7 +13389,7 @@
         <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G13" s="32" t="s">
         <v>82</v>
@@ -14921,14 +13433,248 @@
       <c r="T13" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="U13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>12</v>
+      <c r="U13" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="W13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="X13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BP13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BQ13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BT13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BV13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BW13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BX13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BY13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BZ13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="CA13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="CB13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="CC13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="CD13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="CH13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="CI13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="CJ13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="CK13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="CL13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="CM13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="CN13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="CO13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="CP13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="CQ13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="CR13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="CS13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="CT13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="CU13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="CV13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:101" x14ac:dyDescent="0.3">
@@ -14948,58 +13694,292 @@
         <v>4</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>6</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O14">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P14">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="R14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="S14">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="T14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="U14">
-        <v>16</v>
-      </c>
-      <c r="V14" s="3">
+        <v>20</v>
+      </c>
+      <c r="V14">
+        <v>21</v>
+      </c>
+      <c r="W14">
+        <v>22</v>
+      </c>
+      <c r="X14">
+        <v>23</v>
+      </c>
+      <c r="Y14">
+        <v>24</v>
+      </c>
+      <c r="Z14">
+        <v>25</v>
+      </c>
+      <c r="AA14">
+        <v>26</v>
+      </c>
+      <c r="AB14">
+        <v>27</v>
+      </c>
+      <c r="AC14">
+        <v>28</v>
+      </c>
+      <c r="AD14">
+        <v>29</v>
+      </c>
+      <c r="AE14">
+        <v>30</v>
+      </c>
+      <c r="AF14">
+        <v>31</v>
+      </c>
+      <c r="AG14">
+        <v>32</v>
+      </c>
+      <c r="AH14">
+        <v>33</v>
+      </c>
+      <c r="AI14">
+        <v>34</v>
+      </c>
+      <c r="AJ14">
         <v>35</v>
       </c>
-      <c r="W14" s="3">
+      <c r="AK14">
+        <v>36</v>
+      </c>
+      <c r="AL14">
+        <v>37</v>
+      </c>
+      <c r="AM14">
+        <v>38</v>
+      </c>
+      <c r="AN14">
+        <v>39</v>
+      </c>
+      <c r="AO14">
+        <v>40</v>
+      </c>
+      <c r="AP14">
+        <v>41</v>
+      </c>
+      <c r="AQ14">
+        <v>42</v>
+      </c>
+      <c r="AR14">
+        <v>43</v>
+      </c>
+      <c r="AS14">
+        <v>44</v>
+      </c>
+      <c r="AT14">
+        <v>45</v>
+      </c>
+      <c r="AU14">
+        <v>46</v>
+      </c>
+      <c r="AV14">
+        <v>47</v>
+      </c>
+      <c r="AW14">
+        <v>48</v>
+      </c>
+      <c r="AX14">
+        <v>49</v>
+      </c>
+      <c r="AY14">
+        <v>50</v>
+      </c>
+      <c r="AZ14">
+        <v>51</v>
+      </c>
+      <c r="BA14">
+        <v>52</v>
+      </c>
+      <c r="BB14">
+        <v>53</v>
+      </c>
+      <c r="BC14">
+        <v>54</v>
+      </c>
+      <c r="BD14">
+        <v>55</v>
+      </c>
+      <c r="BE14">
+        <v>56</v>
+      </c>
+      <c r="BF14">
+        <v>57</v>
+      </c>
+      <c r="BG14">
+        <v>58</v>
+      </c>
+      <c r="BH14">
+        <v>59</v>
+      </c>
+      <c r="BI14">
+        <v>60</v>
+      </c>
+      <c r="BJ14">
+        <v>61</v>
+      </c>
+      <c r="BK14">
+        <v>62</v>
+      </c>
+      <c r="BL14">
+        <v>63</v>
+      </c>
+      <c r="BM14">
+        <v>64</v>
+      </c>
+      <c r="BN14">
+        <v>65</v>
+      </c>
+      <c r="BO14">
+        <v>66</v>
+      </c>
+      <c r="BP14">
+        <v>67</v>
+      </c>
+      <c r="BQ14">
+        <v>68</v>
+      </c>
+      <c r="BR14">
+        <v>69</v>
+      </c>
+      <c r="BS14">
+        <v>70</v>
+      </c>
+      <c r="BT14">
+        <v>71</v>
+      </c>
+      <c r="BU14">
+        <v>72</v>
+      </c>
+      <c r="BV14">
+        <v>73</v>
+      </c>
+      <c r="BW14">
+        <v>74</v>
+      </c>
+      <c r="BX14">
         <v>75</v>
+      </c>
+      <c r="BY14">
+        <v>76</v>
+      </c>
+      <c r="BZ14">
+        <v>77</v>
+      </c>
+      <c r="CA14">
+        <v>78</v>
+      </c>
+      <c r="CB14">
+        <v>79</v>
+      </c>
+      <c r="CC14">
+        <v>80</v>
+      </c>
+      <c r="CD14">
+        <v>81</v>
+      </c>
+      <c r="CE14">
+        <v>82</v>
+      </c>
+      <c r="CF14">
+        <v>83</v>
+      </c>
+      <c r="CG14">
+        <v>84</v>
+      </c>
+      <c r="CH14">
+        <v>85</v>
+      </c>
+      <c r="CI14">
+        <v>86</v>
+      </c>
+      <c r="CJ14">
+        <v>87</v>
+      </c>
+      <c r="CK14">
+        <v>88</v>
+      </c>
+      <c r="CL14">
+        <v>89</v>
+      </c>
+      <c r="CM14">
+        <v>90</v>
+      </c>
+      <c r="CN14">
+        <v>91</v>
+      </c>
+      <c r="CO14">
+        <v>92</v>
+      </c>
+      <c r="CP14">
+        <v>93</v>
+      </c>
+      <c r="CQ14">
+        <v>94</v>
+      </c>
+      <c r="CR14">
+        <v>95</v>
+      </c>
+      <c r="CS14">
+        <v>96</v>
+      </c>
+      <c r="CT14">
+        <v>97</v>
+      </c>
+      <c r="CU14">
+        <v>98</v>
+      </c>
+      <c r="CV14">
+        <v>99</v>
+      </c>
+      <c r="CW14">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:101" x14ac:dyDescent="0.3">
@@ -15025,52 +14005,286 @@
         <v>6</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R15">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S15">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T15">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U15">
-        <v>18</v>
-      </c>
-      <c r="V15" s="3">
+        <v>20</v>
+      </c>
+      <c r="V15">
+        <v>21</v>
+      </c>
+      <c r="W15">
+        <v>22</v>
+      </c>
+      <c r="X15">
+        <v>23</v>
+      </c>
+      <c r="Y15">
+        <v>24</v>
+      </c>
+      <c r="Z15">
+        <v>25</v>
+      </c>
+      <c r="AA15">
+        <v>26</v>
+      </c>
+      <c r="AB15">
+        <v>27</v>
+      </c>
+      <c r="AC15">
+        <v>28</v>
+      </c>
+      <c r="AD15">
+        <v>29</v>
+      </c>
+      <c r="AE15">
+        <v>30</v>
+      </c>
+      <c r="AF15">
+        <v>31</v>
+      </c>
+      <c r="AG15">
+        <v>32</v>
+      </c>
+      <c r="AH15">
+        <v>33</v>
+      </c>
+      <c r="AI15">
+        <v>34</v>
+      </c>
+      <c r="AJ15">
+        <v>35</v>
+      </c>
+      <c r="AK15">
+        <v>36</v>
+      </c>
+      <c r="AL15">
+        <v>37</v>
+      </c>
+      <c r="AM15">
+        <v>38</v>
+      </c>
+      <c r="AN15">
+        <v>39</v>
+      </c>
+      <c r="AO15">
+        <v>40</v>
+      </c>
+      <c r="AP15">
+        <v>41</v>
+      </c>
+      <c r="AQ15">
         <v>42</v>
       </c>
-      <c r="W15" s="3">
+      <c r="AR15">
+        <v>43</v>
+      </c>
+      <c r="AS15">
+        <v>44</v>
+      </c>
+      <c r="AT15">
+        <v>45</v>
+      </c>
+      <c r="AU15">
+        <v>46</v>
+      </c>
+      <c r="AV15">
+        <v>47</v>
+      </c>
+      <c r="AW15">
+        <v>48</v>
+      </c>
+      <c r="AX15">
+        <v>49</v>
+      </c>
+      <c r="AY15">
+        <v>50</v>
+      </c>
+      <c r="AZ15">
+        <v>51</v>
+      </c>
+      <c r="BA15">
+        <v>52</v>
+      </c>
+      <c r="BB15">
+        <v>53</v>
+      </c>
+      <c r="BC15">
+        <v>54</v>
+      </c>
+      <c r="BD15">
+        <v>55</v>
+      </c>
+      <c r="BE15">
+        <v>56</v>
+      </c>
+      <c r="BF15">
+        <v>57</v>
+      </c>
+      <c r="BG15">
+        <v>58</v>
+      </c>
+      <c r="BH15">
+        <v>59</v>
+      </c>
+      <c r="BI15">
+        <v>60</v>
+      </c>
+      <c r="BJ15">
+        <v>61</v>
+      </c>
+      <c r="BK15">
+        <v>62</v>
+      </c>
+      <c r="BL15">
+        <v>63</v>
+      </c>
+      <c r="BM15">
+        <v>64</v>
+      </c>
+      <c r="BN15">
+        <v>65</v>
+      </c>
+      <c r="BO15">
+        <v>66</v>
+      </c>
+      <c r="BP15">
+        <v>67</v>
+      </c>
+      <c r="BQ15">
+        <v>68</v>
+      </c>
+      <c r="BR15">
+        <v>69</v>
+      </c>
+      <c r="BS15">
+        <v>70</v>
+      </c>
+      <c r="BT15">
+        <v>71</v>
+      </c>
+      <c r="BU15">
+        <v>72</v>
+      </c>
+      <c r="BV15">
+        <v>73</v>
+      </c>
+      <c r="BW15">
+        <v>74</v>
+      </c>
+      <c r="BX15">
+        <v>75</v>
+      </c>
+      <c r="BY15">
+        <v>76</v>
+      </c>
+      <c r="BZ15">
+        <v>77</v>
+      </c>
+      <c r="CA15">
+        <v>78</v>
+      </c>
+      <c r="CB15">
+        <v>79</v>
+      </c>
+      <c r="CC15">
         <v>80</v>
+      </c>
+      <c r="CD15">
+        <v>81</v>
+      </c>
+      <c r="CE15">
+        <v>82</v>
+      </c>
+      <c r="CF15">
+        <v>83</v>
+      </c>
+      <c r="CG15">
+        <v>84</v>
+      </c>
+      <c r="CH15">
+        <v>85</v>
+      </c>
+      <c r="CI15">
+        <v>86</v>
+      </c>
+      <c r="CJ15">
+        <v>87</v>
+      </c>
+      <c r="CK15">
+        <v>88</v>
+      </c>
+      <c r="CL15">
+        <v>89</v>
+      </c>
+      <c r="CM15">
+        <v>90</v>
+      </c>
+      <c r="CN15">
+        <v>91</v>
+      </c>
+      <c r="CO15">
+        <v>92</v>
+      </c>
+      <c r="CP15">
+        <v>93</v>
+      </c>
+      <c r="CQ15">
+        <v>94</v>
+      </c>
+      <c r="CR15">
+        <v>95</v>
+      </c>
+      <c r="CS15">
+        <v>96</v>
+      </c>
+      <c r="CT15">
+        <v>97</v>
+      </c>
+      <c r="CU15">
+        <v>98</v>
+      </c>
+      <c r="CV15">
+        <v>99</v>
+      </c>
+      <c r="CW15">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:101" x14ac:dyDescent="0.3">
@@ -15093,22 +14307,22 @@
         <v>5</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H16">
         <v>7</v>
       </c>
       <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="J16">
         <v>8</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>9</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>10</v>
-      </c>
-      <c r="L16">
-        <v>11</v>
       </c>
       <c r="M16">
         <v>12</v>
@@ -15123,28 +14337,262 @@
         <v>15</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U16">
         <v>20</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16">
+        <v>21</v>
+      </c>
+      <c r="W16">
+        <v>22</v>
+      </c>
+      <c r="X16">
+        <v>23</v>
+      </c>
+      <c r="Y16">
+        <v>24</v>
+      </c>
+      <c r="Z16">
+        <v>25</v>
+      </c>
+      <c r="AA16">
+        <v>26</v>
+      </c>
+      <c r="AB16">
+        <v>27</v>
+      </c>
+      <c r="AC16">
+        <v>28</v>
+      </c>
+      <c r="AD16">
+        <v>29</v>
+      </c>
+      <c r="AE16">
+        <v>30</v>
+      </c>
+      <c r="AF16">
+        <v>31</v>
+      </c>
+      <c r="AG16">
+        <v>32</v>
+      </c>
+      <c r="AH16">
+        <v>33</v>
+      </c>
+      <c r="AI16">
+        <v>34</v>
+      </c>
+      <c r="AJ16">
+        <v>35</v>
+      </c>
+      <c r="AK16">
+        <v>36</v>
+      </c>
+      <c r="AL16">
+        <v>37</v>
+      </c>
+      <c r="AM16">
+        <v>38</v>
+      </c>
+      <c r="AN16">
+        <v>39</v>
+      </c>
+      <c r="AO16">
+        <v>40</v>
+      </c>
+      <c r="AP16">
+        <v>41</v>
+      </c>
+      <c r="AQ16">
+        <v>42</v>
+      </c>
+      <c r="AR16">
+        <v>43</v>
+      </c>
+      <c r="AS16">
+        <v>44</v>
+      </c>
+      <c r="AT16">
         <v>45</v>
       </c>
-      <c r="W16" s="3">
+      <c r="AU16">
+        <v>46</v>
+      </c>
+      <c r="AV16">
+        <v>47</v>
+      </c>
+      <c r="AW16">
+        <v>48</v>
+      </c>
+      <c r="AX16">
+        <v>49</v>
+      </c>
+      <c r="AY16">
+        <v>50</v>
+      </c>
+      <c r="AZ16">
+        <v>51</v>
+      </c>
+      <c r="BA16">
+        <v>52</v>
+      </c>
+      <c r="BB16">
+        <v>53</v>
+      </c>
+      <c r="BC16">
+        <v>54</v>
+      </c>
+      <c r="BD16">
+        <v>55</v>
+      </c>
+      <c r="BE16">
+        <v>56</v>
+      </c>
+      <c r="BF16">
+        <v>57</v>
+      </c>
+      <c r="BG16">
+        <v>58</v>
+      </c>
+      <c r="BH16">
+        <v>59</v>
+      </c>
+      <c r="BI16">
+        <v>60</v>
+      </c>
+      <c r="BJ16">
+        <v>61</v>
+      </c>
+      <c r="BK16">
+        <v>62</v>
+      </c>
+      <c r="BL16">
+        <v>63</v>
+      </c>
+      <c r="BM16">
+        <v>64</v>
+      </c>
+      <c r="BN16">
+        <v>65</v>
+      </c>
+      <c r="BO16">
+        <v>66</v>
+      </c>
+      <c r="BP16">
+        <v>67</v>
+      </c>
+      <c r="BQ16">
+        <v>68</v>
+      </c>
+      <c r="BR16">
+        <v>69</v>
+      </c>
+      <c r="BS16">
+        <v>70</v>
+      </c>
+      <c r="BT16">
+        <v>71</v>
+      </c>
+      <c r="BU16">
+        <v>72</v>
+      </c>
+      <c r="BV16">
+        <v>73</v>
+      </c>
+      <c r="BW16">
+        <v>74</v>
+      </c>
+      <c r="BX16">
+        <v>75</v>
+      </c>
+      <c r="BY16">
+        <v>76</v>
+      </c>
+      <c r="BZ16">
+        <v>77</v>
+      </c>
+      <c r="CA16">
+        <v>78</v>
+      </c>
+      <c r="CB16">
+        <v>79</v>
+      </c>
+      <c r="CC16">
+        <v>80</v>
+      </c>
+      <c r="CD16">
+        <v>81</v>
+      </c>
+      <c r="CE16">
+        <v>82</v>
+      </c>
+      <c r="CF16">
+        <v>83</v>
+      </c>
+      <c r="CG16">
+        <v>84</v>
+      </c>
+      <c r="CH16">
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="CI16">
+        <v>86</v>
+      </c>
+      <c r="CJ16">
+        <v>87</v>
+      </c>
+      <c r="CK16">
+        <v>88</v>
+      </c>
+      <c r="CL16">
+        <v>89</v>
+      </c>
+      <c r="CM16">
+        <v>90</v>
+      </c>
+      <c r="CN16">
+        <v>91</v>
+      </c>
+      <c r="CO16">
+        <v>92</v>
+      </c>
+      <c r="CP16">
+        <v>93</v>
+      </c>
+      <c r="CQ16">
+        <v>94</v>
+      </c>
+      <c r="CR16">
+        <v>95</v>
+      </c>
+      <c r="CS16">
+        <v>96</v>
+      </c>
+      <c r="CT16">
+        <v>97</v>
+      </c>
+      <c r="CU16">
+        <v>98</v>
+      </c>
+      <c r="CV16">
+        <v>99</v>
+      </c>
+      <c r="CW16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -15167,55 +14615,289 @@
         <v>6</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M17">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R17">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S17">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="T17">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U17">
-        <v>18</v>
-      </c>
-      <c r="V17" s="3">
+        <v>20</v>
+      </c>
+      <c r="V17">
+        <v>21</v>
+      </c>
+      <c r="W17">
+        <v>22</v>
+      </c>
+      <c r="X17">
+        <v>23</v>
+      </c>
+      <c r="Y17">
+        <v>24</v>
+      </c>
+      <c r="Z17">
+        <v>25</v>
+      </c>
+      <c r="AA17">
+        <v>26</v>
+      </c>
+      <c r="AB17">
+        <v>27</v>
+      </c>
+      <c r="AC17">
+        <v>28</v>
+      </c>
+      <c r="AD17">
+        <v>29</v>
+      </c>
+      <c r="AE17">
+        <v>30</v>
+      </c>
+      <c r="AF17">
+        <v>31</v>
+      </c>
+      <c r="AG17">
+        <v>32</v>
+      </c>
+      <c r="AH17">
+        <v>33</v>
+      </c>
+      <c r="AI17">
+        <v>34</v>
+      </c>
+      <c r="AJ17">
+        <v>35</v>
+      </c>
+      <c r="AK17">
+        <v>36</v>
+      </c>
+      <c r="AL17">
+        <v>37</v>
+      </c>
+      <c r="AM17">
+        <v>38</v>
+      </c>
+      <c r="AN17">
+        <v>39</v>
+      </c>
+      <c r="AO17">
+        <v>40</v>
+      </c>
+      <c r="AP17">
+        <v>41</v>
+      </c>
+      <c r="AQ17">
+        <v>42</v>
+      </c>
+      <c r="AR17">
+        <v>43</v>
+      </c>
+      <c r="AS17">
+        <v>44</v>
+      </c>
+      <c r="AT17">
         <v>45</v>
       </c>
-      <c r="W17" s="3">
+      <c r="AU17">
+        <v>46</v>
+      </c>
+      <c r="AV17">
+        <v>47</v>
+      </c>
+      <c r="AW17">
+        <v>48</v>
+      </c>
+      <c r="AX17">
+        <v>49</v>
+      </c>
+      <c r="AY17">
+        <v>50</v>
+      </c>
+      <c r="AZ17">
+        <v>51</v>
+      </c>
+      <c r="BA17">
+        <v>52</v>
+      </c>
+      <c r="BB17">
+        <v>53</v>
+      </c>
+      <c r="BC17">
+        <v>54</v>
+      </c>
+      <c r="BD17">
+        <v>55</v>
+      </c>
+      <c r="BE17">
+        <v>56</v>
+      </c>
+      <c r="BF17">
+        <v>57</v>
+      </c>
+      <c r="BG17">
+        <v>58</v>
+      </c>
+      <c r="BH17">
+        <v>59</v>
+      </c>
+      <c r="BI17">
+        <v>60</v>
+      </c>
+      <c r="BJ17">
+        <v>61</v>
+      </c>
+      <c r="BK17">
+        <v>62</v>
+      </c>
+      <c r="BL17">
+        <v>63</v>
+      </c>
+      <c r="BM17">
+        <v>64</v>
+      </c>
+      <c r="BN17">
+        <v>65</v>
+      </c>
+      <c r="BO17">
+        <v>66</v>
+      </c>
+      <c r="BP17">
+        <v>67</v>
+      </c>
+      <c r="BQ17">
+        <v>68</v>
+      </c>
+      <c r="BR17">
+        <v>69</v>
+      </c>
+      <c r="BS17">
+        <v>70</v>
+      </c>
+      <c r="BT17">
+        <v>71</v>
+      </c>
+      <c r="BU17">
+        <v>72</v>
+      </c>
+      <c r="BV17">
+        <v>73</v>
+      </c>
+      <c r="BW17">
+        <v>74</v>
+      </c>
+      <c r="BX17">
+        <v>75</v>
+      </c>
+      <c r="BY17">
+        <v>76</v>
+      </c>
+      <c r="BZ17">
+        <v>77</v>
+      </c>
+      <c r="CA17">
+        <v>78</v>
+      </c>
+      <c r="CB17">
+        <v>79</v>
+      </c>
+      <c r="CC17">
+        <v>80</v>
+      </c>
+      <c r="CD17">
+        <v>81</v>
+      </c>
+      <c r="CE17">
+        <v>82</v>
+      </c>
+      <c r="CF17">
+        <v>83</v>
+      </c>
+      <c r="CG17">
+        <v>84</v>
+      </c>
+      <c r="CH17">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="CI17">
+        <v>86</v>
+      </c>
+      <c r="CJ17">
+        <v>87</v>
+      </c>
+      <c r="CK17">
+        <v>88</v>
+      </c>
+      <c r="CL17">
+        <v>89</v>
+      </c>
+      <c r="CM17">
+        <v>90</v>
+      </c>
+      <c r="CN17">
+        <v>91</v>
+      </c>
+      <c r="CO17">
+        <v>92</v>
+      </c>
+      <c r="CP17">
+        <v>93</v>
+      </c>
+      <c r="CQ17">
+        <v>94</v>
+      </c>
+      <c r="CR17">
+        <v>95</v>
+      </c>
+      <c r="CS17">
+        <v>96</v>
+      </c>
+      <c r="CT17">
+        <v>97</v>
+      </c>
+      <c r="CU17">
+        <v>98</v>
+      </c>
+      <c r="CV17">
+        <v>99</v>
+      </c>
+      <c r="CW17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -15253,7 +14935,7 @@
         <v>3</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18">
         <v>4</v>
@@ -15262,13 +14944,13 @@
         <v>4</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S18">
         <v>5</v>
@@ -15279,14 +14961,248 @@
       <c r="U18">
         <v>7</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18">
+        <v>8</v>
+      </c>
+      <c r="W18">
+        <v>8</v>
+      </c>
+      <c r="X18">
+        <v>9</v>
+      </c>
+      <c r="Y18">
+        <v>9</v>
+      </c>
+      <c r="Z18">
+        <v>10</v>
+      </c>
+      <c r="AA18">
+        <v>10</v>
+      </c>
+      <c r="AB18">
+        <v>11</v>
+      </c>
+      <c r="AC18">
+        <v>11</v>
+      </c>
+      <c r="AD18">
+        <v>11</v>
+      </c>
+      <c r="AE18">
+        <v>12</v>
+      </c>
+      <c r="AF18">
+        <v>12</v>
+      </c>
+      <c r="AG18">
+        <v>13</v>
+      </c>
+      <c r="AH18">
+        <v>13</v>
+      </c>
+      <c r="AI18">
+        <v>14</v>
+      </c>
+      <c r="AJ18">
+        <v>14</v>
+      </c>
+      <c r="AK18">
+        <v>15</v>
+      </c>
+      <c r="AL18">
+        <v>15</v>
+      </c>
+      <c r="AM18">
+        <v>15</v>
+      </c>
+      <c r="AN18">
+        <v>16</v>
+      </c>
+      <c r="AO18">
+        <v>16</v>
+      </c>
+      <c r="AP18">
+        <v>17</v>
+      </c>
+      <c r="AQ18">
+        <v>17</v>
+      </c>
+      <c r="AR18">
+        <v>18</v>
+      </c>
+      <c r="AS18">
+        <v>18</v>
+      </c>
+      <c r="AT18">
+        <v>19</v>
+      </c>
+      <c r="AU18">
+        <v>19</v>
+      </c>
+      <c r="AV18">
+        <v>19</v>
+      </c>
+      <c r="AW18">
         <v>20</v>
       </c>
-      <c r="W18" s="3">
+      <c r="AX18">
+        <v>20</v>
+      </c>
+      <c r="AY18">
+        <v>20</v>
+      </c>
+      <c r="AZ18">
+        <v>21</v>
+      </c>
+      <c r="BA18">
+        <v>21</v>
+      </c>
+      <c r="BB18">
+        <v>22</v>
+      </c>
+      <c r="BC18">
+        <v>22</v>
+      </c>
+      <c r="BD18">
+        <v>22</v>
+      </c>
+      <c r="BE18">
+        <v>23</v>
+      </c>
+      <c r="BF18">
+        <v>23</v>
+      </c>
+      <c r="BG18">
+        <v>23</v>
+      </c>
+      <c r="BH18">
+        <v>24</v>
+      </c>
+      <c r="BI18">
+        <v>24</v>
+      </c>
+      <c r="BJ18">
+        <v>25</v>
+      </c>
+      <c r="BK18">
+        <v>25</v>
+      </c>
+      <c r="BL18">
+        <v>26</v>
+      </c>
+      <c r="BM18">
+        <v>26</v>
+      </c>
+      <c r="BN18">
+        <v>27</v>
+      </c>
+      <c r="BO18">
+        <v>27</v>
+      </c>
+      <c r="BP18">
+        <v>28</v>
+      </c>
+      <c r="BQ18">
+        <v>28</v>
+      </c>
+      <c r="BR18">
+        <v>29</v>
+      </c>
+      <c r="BS18">
+        <v>29</v>
+      </c>
+      <c r="BT18">
+        <v>30</v>
+      </c>
+      <c r="BU18">
+        <v>30</v>
+      </c>
+      <c r="BV18">
+        <v>31</v>
+      </c>
+      <c r="BW18">
+        <v>31</v>
+      </c>
+      <c r="BX18">
+        <v>32</v>
+      </c>
+      <c r="BY18">
+        <v>32</v>
+      </c>
+      <c r="BZ18">
+        <v>32</v>
+      </c>
+      <c r="CA18">
+        <v>33</v>
+      </c>
+      <c r="CB18">
+        <v>33</v>
+      </c>
+      <c r="CC18">
+        <v>33</v>
+      </c>
+      <c r="CD18">
+        <v>34</v>
+      </c>
+      <c r="CE18">
+        <v>34</v>
+      </c>
+      <c r="CF18">
+        <v>35</v>
+      </c>
+      <c r="CG18">
+        <v>35</v>
+      </c>
+      <c r="CH18">
+        <v>35</v>
+      </c>
+      <c r="CI18">
+        <v>36</v>
+      </c>
+      <c r="CJ18">
+        <v>37</v>
+      </c>
+      <c r="CK18">
+        <v>37</v>
+      </c>
+      <c r="CL18">
+        <v>37</v>
+      </c>
+      <c r="CM18">
+        <v>38</v>
+      </c>
+      <c r="CN18">
+        <v>38</v>
+      </c>
+      <c r="CO18">
+        <v>38</v>
+      </c>
+      <c r="CP18">
+        <v>38</v>
+      </c>
+      <c r="CQ18">
+        <v>39</v>
+      </c>
+      <c r="CR18">
+        <v>39</v>
+      </c>
+      <c r="CS18">
+        <v>39</v>
+      </c>
+      <c r="CT18">
+        <v>39</v>
+      </c>
+      <c r="CU18">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="CV18">
+        <v>40</v>
+      </c>
+      <c r="CW18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -15306,58 +15222,292 @@
         <v>1</v>
       </c>
       <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="H19">
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
         <v>3</v>
       </c>
-      <c r="I19">
+      <c r="M19">
         <v>3</v>
       </c>
-      <c r="J19">
+      <c r="N19">
         <v>3</v>
       </c>
-      <c r="K19">
+      <c r="O19">
         <v>3</v>
       </c>
-      <c r="L19">
+      <c r="P19">
         <v>4</v>
       </c>
-      <c r="M19">
+      <c r="Q19">
         <v>4</v>
       </c>
-      <c r="N19">
+      <c r="R19">
         <v>4</v>
       </c>
-      <c r="O19">
+      <c r="S19">
+        <v>4</v>
+      </c>
+      <c r="T19">
         <v>5</v>
       </c>
-      <c r="P19">
-        <v>5</v>
-      </c>
-      <c r="Q19">
-        <v>5</v>
-      </c>
-      <c r="R19">
-        <v>5</v>
-      </c>
-      <c r="S19">
+      <c r="U19">
         <v>6</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>6</v>
       </c>
-      <c r="U19">
+      <c r="W19">
+        <v>6</v>
+      </c>
+      <c r="X19">
+        <v>6</v>
+      </c>
+      <c r="Y19">
         <v>7</v>
       </c>
-      <c r="V19" s="3">
+      <c r="Z19">
+        <v>7</v>
+      </c>
+      <c r="AA19">
+        <v>7</v>
+      </c>
+      <c r="AB19">
+        <v>7</v>
+      </c>
+      <c r="AC19">
+        <v>7</v>
+      </c>
+      <c r="AD19">
+        <v>8</v>
+      </c>
+      <c r="AE19">
+        <v>8</v>
+      </c>
+      <c r="AF19">
+        <v>8</v>
+      </c>
+      <c r="AG19">
+        <v>8</v>
+      </c>
+      <c r="AH19">
+        <v>9</v>
+      </c>
+      <c r="AI19">
+        <v>9</v>
+      </c>
+      <c r="AJ19">
+        <v>9</v>
+      </c>
+      <c r="AK19">
+        <v>9</v>
+      </c>
+      <c r="AL19">
+        <v>10</v>
+      </c>
+      <c r="AM19">
+        <v>10</v>
+      </c>
+      <c r="AN19">
+        <v>10</v>
+      </c>
+      <c r="AO19">
+        <v>10</v>
+      </c>
+      <c r="AP19">
+        <v>10</v>
+      </c>
+      <c r="AQ19">
+        <v>11</v>
+      </c>
+      <c r="AR19">
+        <v>11</v>
+      </c>
+      <c r="AS19">
+        <v>11</v>
+      </c>
+      <c r="AT19">
+        <v>11</v>
+      </c>
+      <c r="AU19">
+        <v>12</v>
+      </c>
+      <c r="AV19">
+        <v>12</v>
+      </c>
+      <c r="AW19">
+        <v>12</v>
+      </c>
+      <c r="AX19">
+        <v>13</v>
+      </c>
+      <c r="AY19">
+        <v>13</v>
+      </c>
+      <c r="AZ19">
+        <v>13</v>
+      </c>
+      <c r="BA19">
+        <v>13</v>
+      </c>
+      <c r="BB19">
+        <v>13</v>
+      </c>
+      <c r="BC19">
+        <v>13</v>
+      </c>
+      <c r="BD19">
+        <v>14</v>
+      </c>
+      <c r="BE19">
+        <v>14</v>
+      </c>
+      <c r="BF19">
+        <v>14</v>
+      </c>
+      <c r="BG19">
+        <v>14</v>
+      </c>
+      <c r="BH19">
+        <v>14</v>
+      </c>
+      <c r="BI19">
+        <v>15</v>
+      </c>
+      <c r="BJ19">
+        <v>15</v>
+      </c>
+      <c r="BK19">
+        <v>15</v>
+      </c>
+      <c r="BL19">
+        <v>15</v>
+      </c>
+      <c r="BM19">
+        <v>16</v>
+      </c>
+      <c r="BN19">
+        <v>16</v>
+      </c>
+      <c r="BO19">
+        <v>16</v>
+      </c>
+      <c r="BP19">
+        <v>16</v>
+      </c>
+      <c r="BQ19">
+        <v>17</v>
+      </c>
+      <c r="BR19">
+        <v>17</v>
+      </c>
+      <c r="BS19">
+        <v>17</v>
+      </c>
+      <c r="BT19">
+        <v>17</v>
+      </c>
+      <c r="BU19">
         <v>18</v>
       </c>
-      <c r="W19" s="3">
+      <c r="BV19">
+        <v>18</v>
+      </c>
+      <c r="BW19">
+        <v>18</v>
+      </c>
+      <c r="BX19">
+        <v>18</v>
+      </c>
+      <c r="BY19">
+        <v>19</v>
+      </c>
+      <c r="BZ19">
+        <v>19</v>
+      </c>
+      <c r="CA19">
+        <v>19</v>
+      </c>
+      <c r="CB19">
+        <v>20</v>
+      </c>
+      <c r="CC19">
+        <v>20</v>
+      </c>
+      <c r="CD19">
+        <v>20</v>
+      </c>
+      <c r="CE19">
+        <v>20</v>
+      </c>
+      <c r="CF19">
+        <v>20</v>
+      </c>
+      <c r="CG19">
+        <v>21</v>
+      </c>
+      <c r="CH19">
+        <v>21</v>
+      </c>
+      <c r="CI19">
+        <v>21</v>
+      </c>
+      <c r="CJ19">
+        <v>21</v>
+      </c>
+      <c r="CK19">
+        <v>22</v>
+      </c>
+      <c r="CL19">
+        <v>22</v>
+      </c>
+      <c r="CM19">
+        <v>22</v>
+      </c>
+      <c r="CN19">
+        <v>23</v>
+      </c>
+      <c r="CO19">
+        <v>23</v>
+      </c>
+      <c r="CP19">
+        <v>23</v>
+      </c>
+      <c r="CQ19">
+        <v>23</v>
+      </c>
+      <c r="CR19">
+        <v>24</v>
+      </c>
+      <c r="CS19">
+        <v>24</v>
+      </c>
+      <c r="CT19">
+        <v>24</v>
+      </c>
+      <c r="CU19">
+        <v>24</v>
+      </c>
+      <c r="CV19">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="CW19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -15383,52 +15533,286 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U20">
-        <v>2</v>
-      </c>
-      <c r="V20" s="3">
         <v>5</v>
       </c>
-      <c r="W20" s="3">
+      <c r="V20">
+        <v>5</v>
+      </c>
+      <c r="W20">
+        <v>6</v>
+      </c>
+      <c r="X20">
+        <v>6</v>
+      </c>
+      <c r="Y20">
+        <v>6</v>
+      </c>
+      <c r="Z20">
+        <v>6</v>
+      </c>
+      <c r="AA20">
+        <v>7</v>
+      </c>
+      <c r="AB20">
+        <v>7</v>
+      </c>
+      <c r="AC20">
+        <v>7</v>
+      </c>
+      <c r="AD20">
+        <v>7</v>
+      </c>
+      <c r="AE20">
+        <v>7</v>
+      </c>
+      <c r="AF20">
+        <v>8</v>
+      </c>
+      <c r="AG20">
+        <v>8</v>
+      </c>
+      <c r="AH20">
+        <v>8</v>
+      </c>
+      <c r="AI20">
+        <v>8</v>
+      </c>
+      <c r="AJ20">
+        <v>9</v>
+      </c>
+      <c r="AK20">
+        <v>9</v>
+      </c>
+      <c r="AL20">
+        <v>9</v>
+      </c>
+      <c r="AM20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AN20">
+        <v>10</v>
+      </c>
+      <c r="AO20">
+        <v>10</v>
+      </c>
+      <c r="AP20">
+        <v>10</v>
+      </c>
+      <c r="AQ20">
+        <v>10</v>
+      </c>
+      <c r="AR20">
+        <v>10</v>
+      </c>
+      <c r="AS20">
+        <v>11</v>
+      </c>
+      <c r="AT20">
+        <v>11</v>
+      </c>
+      <c r="AU20">
+        <v>11</v>
+      </c>
+      <c r="AV20">
+        <v>12</v>
+      </c>
+      <c r="AW20">
+        <v>12</v>
+      </c>
+      <c r="AX20">
+        <v>12</v>
+      </c>
+      <c r="AY20">
+        <v>12</v>
+      </c>
+      <c r="AZ20">
+        <v>12</v>
+      </c>
+      <c r="BA20">
+        <v>13</v>
+      </c>
+      <c r="BB20">
+        <v>13</v>
+      </c>
+      <c r="BC20">
+        <v>14</v>
+      </c>
+      <c r="BD20">
+        <v>14</v>
+      </c>
+      <c r="BE20">
+        <v>14</v>
+      </c>
+      <c r="BF20">
+        <v>14</v>
+      </c>
+      <c r="BG20">
+        <v>15</v>
+      </c>
+      <c r="BH20">
+        <v>15</v>
+      </c>
+      <c r="BI20">
+        <v>15</v>
+      </c>
+      <c r="BJ20">
+        <v>15</v>
+      </c>
+      <c r="BK20">
+        <v>16</v>
+      </c>
+      <c r="BL20">
+        <v>16</v>
+      </c>
+      <c r="BM20">
+        <v>16</v>
+      </c>
+      <c r="BN20">
+        <v>16</v>
+      </c>
+      <c r="BO20">
+        <v>17</v>
+      </c>
+      <c r="BP20">
+        <v>17</v>
+      </c>
+      <c r="BQ20">
+        <v>17</v>
+      </c>
+      <c r="BR20">
+        <v>17</v>
+      </c>
+      <c r="BS20">
+        <v>18</v>
+      </c>
+      <c r="BT20">
+        <v>18</v>
+      </c>
+      <c r="BU20">
+        <v>18</v>
+      </c>
+      <c r="BV20">
+        <v>18</v>
+      </c>
+      <c r="BW20">
+        <v>19</v>
+      </c>
+      <c r="BX20">
+        <v>19</v>
+      </c>
+      <c r="BY20">
+        <v>19</v>
+      </c>
+      <c r="BZ20">
+        <v>20</v>
+      </c>
+      <c r="CA20">
+        <v>20</v>
+      </c>
+      <c r="CB20">
+        <v>20</v>
+      </c>
+      <c r="CC20">
+        <v>20</v>
+      </c>
+      <c r="CD20">
+        <v>20</v>
+      </c>
+      <c r="CE20">
+        <v>21</v>
+      </c>
+      <c r="CF20">
+        <v>21</v>
+      </c>
+      <c r="CG20">
+        <v>21</v>
+      </c>
+      <c r="CH20">
+        <v>22</v>
+      </c>
+      <c r="CI20">
+        <v>22</v>
+      </c>
+      <c r="CJ20">
+        <v>22</v>
+      </c>
+      <c r="CK20">
+        <v>22</v>
+      </c>
+      <c r="CL20">
+        <v>23</v>
+      </c>
+      <c r="CM20">
+        <v>23</v>
+      </c>
+      <c r="CN20">
+        <v>23</v>
+      </c>
+      <c r="CO20">
+        <v>23</v>
+      </c>
+      <c r="CP20">
+        <v>24</v>
+      </c>
+      <c r="CQ20">
+        <v>24</v>
+      </c>
+      <c r="CR20">
+        <v>24</v>
+      </c>
+      <c r="CS20">
+        <v>24</v>
+      </c>
+      <c r="CT20">
+        <v>25</v>
+      </c>
+      <c r="CU20">
+        <v>25</v>
+      </c>
+      <c r="CV20">
+        <v>25</v>
+      </c>
+      <c r="CW20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
         <v>53</v>
       </c>
@@ -15445,151 +15829,697 @@
         <v>0</v>
       </c>
       <c r="F21" s="31">
+        <v>1</v>
+      </c>
+      <c r="G21" s="31">
+        <v>1</v>
+      </c>
+      <c r="H21" s="31">
+        <v>1</v>
+      </c>
+      <c r="I21" s="31">
+        <v>1</v>
+      </c>
+      <c r="J21" s="31">
+        <v>1</v>
+      </c>
+      <c r="K21" s="31">
+        <v>1</v>
+      </c>
+      <c r="L21" s="31">
+        <v>1</v>
+      </c>
+      <c r="M21" s="31">
+        <v>1</v>
+      </c>
+      <c r="N21" s="31">
+        <v>1</v>
+      </c>
+      <c r="O21" s="31">
+        <v>1</v>
+      </c>
+      <c r="P21" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="31">
+        <v>1</v>
+      </c>
+      <c r="R21" s="31">
+        <v>1</v>
+      </c>
+      <c r="S21" s="31">
+        <v>1</v>
+      </c>
+      <c r="T21" s="31">
+        <v>1</v>
+      </c>
+      <c r="U21" s="31">
         <v>2</v>
       </c>
-      <c r="G21" s="31">
+      <c r="V21" s="31">
         <v>2</v>
       </c>
-      <c r="H21" s="31">
+      <c r="W21" s="31">
+        <v>2</v>
+      </c>
+      <c r="X21" s="31">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="31">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="31">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="31">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="31">
+        <v>2</v>
+      </c>
+      <c r="AC21" s="31">
         <v>3</v>
       </c>
-      <c r="I21" s="31">
+      <c r="AD21" s="31">
+        <v>3</v>
+      </c>
+      <c r="AE21" s="31">
+        <v>3</v>
+      </c>
+      <c r="AF21" s="31">
+        <v>3</v>
+      </c>
+      <c r="AG21" s="31">
+        <v>3</v>
+      </c>
+      <c r="AH21" s="31">
+        <v>3</v>
+      </c>
+      <c r="AI21" s="31">
+        <v>3</v>
+      </c>
+      <c r="AJ21" s="31">
+        <v>3</v>
+      </c>
+      <c r="AK21" s="31">
+        <v>3</v>
+      </c>
+      <c r="AL21" s="31">
+        <v>3</v>
+      </c>
+      <c r="AM21" s="31">
+        <v>3</v>
+      </c>
+      <c r="AN21" s="31">
+        <v>3</v>
+      </c>
+      <c r="AO21" s="31">
         <v>4</v>
       </c>
-      <c r="J21" s="31">
+      <c r="AP21" s="31">
+        <v>4</v>
+      </c>
+      <c r="AQ21" s="31">
+        <v>4</v>
+      </c>
+      <c r="AR21" s="31">
+        <v>4</v>
+      </c>
+      <c r="AS21" s="31">
+        <v>4</v>
+      </c>
+      <c r="AT21" s="31">
+        <v>4</v>
+      </c>
+      <c r="AU21" s="31">
+        <v>4</v>
+      </c>
+      <c r="AV21" s="31">
+        <v>4</v>
+      </c>
+      <c r="AW21" s="31">
+        <v>4</v>
+      </c>
+      <c r="AX21" s="31">
+        <v>4</v>
+      </c>
+      <c r="AY21" s="31">
         <v>5</v>
       </c>
-      <c r="K21" s="31">
+      <c r="AZ21" s="31">
+        <v>5</v>
+      </c>
+      <c r="BA21" s="31">
+        <v>5</v>
+      </c>
+      <c r="BB21" s="31">
+        <v>5</v>
+      </c>
+      <c r="BC21" s="31">
+        <v>5</v>
+      </c>
+      <c r="BD21" s="31">
+        <v>5</v>
+      </c>
+      <c r="BE21" s="31">
+        <v>5</v>
+      </c>
+      <c r="BF21" s="31">
         <v>6</v>
       </c>
-      <c r="L21" s="31">
+      <c r="BG21" s="31">
         <v>6</v>
       </c>
-      <c r="M21" s="31">
+      <c r="BH21" s="31">
+        <v>6</v>
+      </c>
+      <c r="BI21" s="31">
+        <v>6</v>
+      </c>
+      <c r="BJ21" s="31">
+        <v>6</v>
+      </c>
+      <c r="BK21" s="31">
+        <v>6</v>
+      </c>
+      <c r="BL21" s="31">
+        <v>6</v>
+      </c>
+      <c r="BM21" s="31">
+        <v>6</v>
+      </c>
+      <c r="BN21" s="31">
+        <v>6</v>
+      </c>
+      <c r="BO21" s="31">
+        <v>6</v>
+      </c>
+      <c r="BP21" s="31">
+        <v>6</v>
+      </c>
+      <c r="BQ21" s="31">
+        <v>6</v>
+      </c>
+      <c r="BR21" s="31">
+        <v>6</v>
+      </c>
+      <c r="BS21" s="31">
+        <v>6</v>
+      </c>
+      <c r="BT21" s="31">
+        <v>6</v>
+      </c>
+      <c r="BU21" s="31">
+        <v>6</v>
+      </c>
+      <c r="BV21" s="31">
+        <v>6</v>
+      </c>
+      <c r="BW21" s="31">
+        <v>6</v>
+      </c>
+      <c r="BX21" s="31">
+        <v>6</v>
+      </c>
+      <c r="BY21" s="31">
+        <v>6</v>
+      </c>
+      <c r="BZ21" s="31">
+        <v>6</v>
+      </c>
+      <c r="CA21" s="31">
+        <v>6</v>
+      </c>
+      <c r="CB21" s="31">
+        <v>6</v>
+      </c>
+      <c r="CC21" s="31">
         <v>7</v>
       </c>
-      <c r="N21" s="31">
+      <c r="CD21" s="31">
+        <v>7</v>
+      </c>
+      <c r="CE21" s="31">
+        <v>7</v>
+      </c>
+      <c r="CF21" s="31">
+        <v>7</v>
+      </c>
+      <c r="CG21" s="31">
+        <v>7</v>
+      </c>
+      <c r="CH21" s="31">
+        <v>7</v>
+      </c>
+      <c r="CI21" s="31">
+        <v>7</v>
+      </c>
+      <c r="CJ21" s="31">
+        <v>7</v>
+      </c>
+      <c r="CK21" s="31">
+        <v>7</v>
+      </c>
+      <c r="CL21" s="31">
+        <v>7</v>
+      </c>
+      <c r="CM21" s="31">
+        <v>7</v>
+      </c>
+      <c r="CN21" s="31">
+        <v>7</v>
+      </c>
+      <c r="CO21" s="31">
         <v>8</v>
       </c>
-      <c r="O21" s="31">
+      <c r="CP21" s="31">
         <v>8</v>
       </c>
-      <c r="P21" s="31">
+      <c r="CQ21" s="31">
         <v>8</v>
       </c>
-      <c r="Q21" s="31">
+      <c r="CR21" s="31">
+        <v>8</v>
+      </c>
+      <c r="CS21" s="31">
         <v>9</v>
       </c>
-      <c r="R21" s="31">
+      <c r="CT21" s="31">
+        <v>9</v>
+      </c>
+      <c r="CU21" s="31">
+        <v>9</v>
+      </c>
+      <c r="CV21" s="31">
+        <v>9</v>
+      </c>
+      <c r="CW21" s="31">
         <v>10</v>
       </c>
-      <c r="S21" s="31">
-        <v>11</v>
-      </c>
-      <c r="T21" s="31">
-        <v>12</v>
-      </c>
-      <c r="U21" s="31">
-        <v>12</v>
-      </c>
-      <c r="V21" s="10">
-        <v>40</v>
-      </c>
-      <c r="W21" s="10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:101" x14ac:dyDescent="0.3">
       <c r="B22">
         <f>SUM(B14:B21)</f>
         <v>5</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:U22" si="17">SUM(C14:C21)</f>
+        <f t="shared" ref="C22:BR22" si="1">SUM(C14:C21)</f>
         <v>10</v>
       </c>
       <c r="D22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="E22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="G22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="I22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="J22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="K22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="L22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="M22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="N22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="O22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="P22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="R22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="S22">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="S22" si="2">SUM(S14:S21)</f>
         <v>90</v>
       </c>
       <c r="T22">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="T22" si="3">SUM(T14:T21)</f>
         <v>95</v>
       </c>
       <c r="U22">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="U22" si="4">SUM(U14:U21)</f>
         <v>100</v>
       </c>
-      <c r="V22" s="3">
-        <f>SUM(V14:V21)</f>
+      <c r="V22">
+        <f t="shared" ref="V22" si="5">SUM(V14:V21)</f>
+        <v>105</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="AP22">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="AR22">
+        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
+      <c r="AS22">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="AT22">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="AU22">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="AV22">
+        <f t="shared" ref="AV22" si="6">SUM(AV14:AV21)</f>
+        <v>235</v>
+      </c>
+      <c r="AW22">
+        <f t="shared" ref="AW22" si="7">SUM(AW14:AW21)</f>
+        <v>240</v>
+      </c>
+      <c r="AX22">
+        <f t="shared" ref="AX22" si="8">SUM(AX14:AX21)</f>
+        <v>245</v>
+      </c>
+      <c r="AY22">
+        <f t="shared" ref="AY22" si="9">SUM(AY14:AY21)</f>
         <v>250</v>
       </c>
-      <c r="W22" s="3">
-        <f>SUM(W14:W21)</f>
+      <c r="AZ22">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="BA22">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="BB22">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
+      <c r="BC22">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="BD22">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="BE22">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="BF22">
+        <f t="shared" si="1"/>
+        <v>285</v>
+      </c>
+      <c r="BG22">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+      <c r="BH22">
+        <f t="shared" si="1"/>
+        <v>295</v>
+      </c>
+      <c r="BI22">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="BJ22">
+        <f t="shared" si="1"/>
+        <v>305</v>
+      </c>
+      <c r="BK22">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="BL22">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+      <c r="BM22">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="BN22">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+      <c r="BO22">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+      <c r="BP22">
+        <f t="shared" si="1"/>
+        <v>335</v>
+      </c>
+      <c r="BQ22">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="BR22">
+        <f t="shared" si="1"/>
+        <v>345</v>
+      </c>
+      <c r="BS22">
+        <f t="shared" ref="BS22:CP22" si="10">SUM(BS14:BS21)</f>
+        <v>350</v>
+      </c>
+      <c r="BT22">
+        <f t="shared" si="10"/>
+        <v>355</v>
+      </c>
+      <c r="BU22">
+        <f t="shared" si="10"/>
+        <v>360</v>
+      </c>
+      <c r="BV22">
+        <f t="shared" si="10"/>
+        <v>365</v>
+      </c>
+      <c r="BW22">
+        <f t="shared" si="10"/>
+        <v>370</v>
+      </c>
+      <c r="BX22">
+        <f t="shared" si="10"/>
+        <v>375</v>
+      </c>
+      <c r="BY22">
+        <f t="shared" si="10"/>
+        <v>380</v>
+      </c>
+      <c r="BZ22">
+        <f t="shared" si="10"/>
+        <v>385</v>
+      </c>
+      <c r="CA22">
+        <f t="shared" si="10"/>
+        <v>390</v>
+      </c>
+      <c r="CB22">
+        <f t="shared" si="10"/>
+        <v>395</v>
+      </c>
+      <c r="CC22">
+        <f t="shared" si="10"/>
+        <v>400</v>
+      </c>
+      <c r="CD22">
+        <f t="shared" si="10"/>
+        <v>405</v>
+      </c>
+      <c r="CE22">
+        <f t="shared" si="10"/>
+        <v>410</v>
+      </c>
+      <c r="CF22">
+        <f t="shared" si="10"/>
+        <v>415</v>
+      </c>
+      <c r="CG22">
+        <f t="shared" si="10"/>
+        <v>420</v>
+      </c>
+      <c r="CH22">
+        <f t="shared" si="10"/>
+        <v>425</v>
+      </c>
+      <c r="CI22">
+        <f t="shared" si="10"/>
+        <v>430</v>
+      </c>
+      <c r="CJ22">
+        <f t="shared" si="10"/>
+        <v>435</v>
+      </c>
+      <c r="CK22">
+        <f t="shared" si="10"/>
+        <v>440</v>
+      </c>
+      <c r="CL22">
+        <f t="shared" si="10"/>
+        <v>445</v>
+      </c>
+      <c r="CM22">
+        <f t="shared" si="10"/>
+        <v>450</v>
+      </c>
+      <c r="CN22">
+        <f t="shared" si="10"/>
+        <v>455</v>
+      </c>
+      <c r="CO22">
+        <f t="shared" si="10"/>
+        <v>460</v>
+      </c>
+      <c r="CP22">
+        <f t="shared" si="10"/>
+        <v>465</v>
+      </c>
+      <c r="CQ22">
+        <f t="shared" ref="CQ22" si="11">SUM(CQ14:CQ21)</f>
+        <v>470</v>
+      </c>
+      <c r="CR22">
+        <f t="shared" ref="CR22" si="12">SUM(CR14:CR21)</f>
+        <v>475</v>
+      </c>
+      <c r="CS22">
+        <f t="shared" ref="CS22" si="13">SUM(CS14:CS21)</f>
+        <v>480</v>
+      </c>
+      <c r="CT22">
+        <f t="shared" ref="CT22" si="14">SUM(CT14:CT21)</f>
+        <v>485</v>
+      </c>
+      <c r="CU22">
+        <f t="shared" ref="CU22" si="15">SUM(CU14:CU21)</f>
+        <v>490</v>
+      </c>
+      <c r="CV22">
+        <f t="shared" ref="CV22" si="16">SUM(CV14:CV21)</f>
+        <v>495</v>
+      </c>
+      <c r="CW22">
+        <f t="shared" ref="CW22" si="17">SUM(CW14:CW21)</f>
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:101" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>0</v>
       </c>
@@ -15603,7 +16533,7 @@
         <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G25" s="32" t="s">
         <v>82</v>
@@ -15648,16 +16578,16 @@
         <v>82</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -15668,16 +16598,16 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H26">
         <v>5</v>
@@ -15686,49 +16616,49 @@
         <v>6</v>
       </c>
       <c r="J26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K26">
         <v>7</v>
       </c>
       <c r="L26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P26">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R26">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="S26">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T26">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="U26">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="V26" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="W26" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -15736,70 +16666,70 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L27">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M27">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N27">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O27">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P27">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R27">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="S27">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="T27">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="U27">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="V27" s="3">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="W27" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -15813,64 +16743,64 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L28">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M28">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O28">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P28">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R28">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S28">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T28">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="U28">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="V28" s="3">
         <v>45</v>
       </c>
       <c r="W28" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -15878,70 +16808,70 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J29">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L29">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M29">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N29">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O29">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P29">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R29">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="S29">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="T29">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="U29">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="V29" s="3">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="W29" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -15952,67 +16882,67 @@
         <v>1</v>
       </c>
       <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
         <v>2</v>
       </c>
-      <c r="E30">
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
         <v>3</v>
       </c>
-      <c r="F30">
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
         <v>4</v>
       </c>
-      <c r="G30">
+      <c r="N30">
         <v>4</v>
       </c>
-      <c r="H30">
+      <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30">
         <v>5</v>
       </c>
-      <c r="I30">
+      <c r="Q30">
+        <v>5</v>
+      </c>
+      <c r="R30">
+        <v>5</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="T30">
         <v>6</v>
       </c>
-      <c r="J30">
+      <c r="U30">
         <v>7</v>
       </c>
-      <c r="K30">
-        <v>8</v>
-      </c>
-      <c r="L30">
-        <v>9</v>
-      </c>
-      <c r="M30">
-        <v>10</v>
-      </c>
-      <c r="N30">
-        <v>10</v>
-      </c>
-      <c r="O30">
-        <v>11</v>
-      </c>
-      <c r="P30">
-        <v>12</v>
-      </c>
-      <c r="Q30">
-        <v>13</v>
-      </c>
-      <c r="R30">
-        <v>14</v>
-      </c>
-      <c r="S30">
-        <v>15</v>
-      </c>
-      <c r="T30">
-        <v>17</v>
-      </c>
-      <c r="U30">
-        <v>18</v>
-      </c>
       <c r="V30" s="3">
+        <v>20</v>
+      </c>
+      <c r="W30" s="3">
         <v>40</v>
       </c>
-      <c r="W30" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -16020,70 +16950,70 @@
         <v>0</v>
       </c>
       <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>1</v>
       </c>
-      <c r="D31">
+      <c r="G31">
         <v>2</v>
       </c>
-      <c r="E31">
+      <c r="H31">
         <v>3</v>
       </c>
-      <c r="F31">
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
         <v>4</v>
       </c>
-      <c r="G31">
+      <c r="M31">
+        <v>4</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31">
         <v>5</v>
       </c>
-      <c r="H31">
+      <c r="P31">
         <v>5</v>
       </c>
-      <c r="I31">
+      <c r="Q31">
         <v>5</v>
       </c>
-      <c r="J31">
+      <c r="R31">
+        <v>5</v>
+      </c>
+      <c r="S31">
         <v>6</v>
       </c>
-      <c r="K31">
+      <c r="T31">
+        <v>6</v>
+      </c>
+      <c r="U31">
         <v>7</v>
       </c>
-      <c r="L31">
-        <v>8</v>
-      </c>
-      <c r="M31">
-        <v>9</v>
-      </c>
-      <c r="N31">
-        <v>10</v>
-      </c>
-      <c r="O31">
-        <v>11</v>
-      </c>
-      <c r="P31">
-        <v>12</v>
-      </c>
-      <c r="Q31">
-        <v>13</v>
-      </c>
-      <c r="R31">
-        <v>14</v>
-      </c>
-      <c r="S31">
-        <v>15</v>
-      </c>
-      <c r="T31">
-        <v>17</v>
-      </c>
-      <c r="U31">
+      <c r="V31" s="3">
         <v>18</v>
       </c>
-      <c r="V31" s="3">
-        <v>40</v>
-      </c>
       <c r="W31" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -16091,67 +17021,67 @@
         <v>0</v>
       </c>
       <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>1</v>
       </c>
-      <c r="D32">
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
         <v>2</v>
       </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-      <c r="H32">
-        <v>4</v>
-      </c>
-      <c r="I32">
-        <v>4</v>
-      </c>
-      <c r="J32">
-        <v>4</v>
-      </c>
-      <c r="K32">
-        <v>4</v>
-      </c>
-      <c r="L32">
+      <c r="V32" s="3">
         <v>5</v>
       </c>
-      <c r="M32">
-        <v>6</v>
-      </c>
-      <c r="N32">
-        <v>7</v>
-      </c>
-      <c r="O32">
-        <v>8</v>
-      </c>
-      <c r="P32">
-        <v>9</v>
-      </c>
-      <c r="Q32">
+      <c r="W32" s="3">
         <v>10</v>
-      </c>
-      <c r="R32">
-        <v>10</v>
-      </c>
-      <c r="S32">
-        <v>10</v>
-      </c>
-      <c r="T32">
-        <v>11</v>
-      </c>
-      <c r="U32">
-        <v>12</v>
-      </c>
-      <c r="V32" s="3">
-        <v>40</v>
-      </c>
-      <c r="W32" s="3">
-        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
@@ -16171,58 +17101,58 @@
         <v>0</v>
       </c>
       <c r="F33" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33" s="31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" s="31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K33" s="31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L33" s="31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M33" s="31">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N33" s="31">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O33" s="31">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P33" s="31">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q33" s="31">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R33" s="31">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S33" s="31">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="T33" s="31">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="U33" s="31">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="V33" s="10">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="W33" s="10">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
@@ -16231,7 +17161,7 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:P34" si="18">SUM(C26:C33)</f>
+        <f t="shared" ref="C34:U34" si="18">SUM(C26:C33)</f>
         <v>10</v>
       </c>
       <c r="D34">
@@ -16287,23 +17217,23 @@
         <v>75</v>
       </c>
       <c r="Q34">
-        <f t="shared" ref="Q34" si="19">SUM(Q26:Q33)</f>
+        <f t="shared" si="18"/>
         <v>80</v>
       </c>
       <c r="R34">
-        <f t="shared" ref="R34" si="20">SUM(R26:R33)</f>
+        <f t="shared" si="18"/>
         <v>85</v>
       </c>
       <c r="S34">
-        <f t="shared" ref="S34" si="21">SUM(S26:S33)</f>
+        <f t="shared" si="18"/>
         <v>90</v>
       </c>
       <c r="T34">
-        <f t="shared" ref="T34" si="22">SUM(T26:T33)</f>
+        <f t="shared" si="18"/>
         <v>95</v>
       </c>
       <c r="U34">
-        <f t="shared" ref="U34" si="23">SUM(U26:U33)</f>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="V34" s="3">
@@ -16312,6 +17242,732 @@
       </c>
       <c r="W34" s="3">
         <f>SUM(W26:W33)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="K37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="L37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="M37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="N37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="O37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="P37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="R37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="S37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="T37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>6</v>
+      </c>
+      <c r="J38">
+        <v>7</v>
+      </c>
+      <c r="K38">
+        <v>7</v>
+      </c>
+      <c r="L38">
+        <v>7</v>
+      </c>
+      <c r="M38">
+        <v>7</v>
+      </c>
+      <c r="N38">
+        <v>8</v>
+      </c>
+      <c r="O38">
+        <v>8</v>
+      </c>
+      <c r="P38">
+        <v>8</v>
+      </c>
+      <c r="Q38">
+        <v>8</v>
+      </c>
+      <c r="R38">
+        <v>8</v>
+      </c>
+      <c r="S38">
+        <v>8</v>
+      </c>
+      <c r="T38">
+        <v>8</v>
+      </c>
+      <c r="U38">
+        <v>8</v>
+      </c>
+      <c r="V38" s="3">
+        <v>25</v>
+      </c>
+      <c r="W38" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>6</v>
+      </c>
+      <c r="J39">
+        <v>7</v>
+      </c>
+      <c r="K39">
+        <v>8</v>
+      </c>
+      <c r="L39">
+        <v>8</v>
+      </c>
+      <c r="M39">
+        <v>8</v>
+      </c>
+      <c r="N39">
+        <v>9</v>
+      </c>
+      <c r="O39">
+        <v>9</v>
+      </c>
+      <c r="P39">
+        <v>10</v>
+      </c>
+      <c r="Q39">
+        <v>10</v>
+      </c>
+      <c r="R39">
+        <v>11</v>
+      </c>
+      <c r="S39">
+        <v>12</v>
+      </c>
+      <c r="T39">
+        <v>12</v>
+      </c>
+      <c r="U39">
+        <v>12</v>
+      </c>
+      <c r="V39" s="3">
+        <v>25</v>
+      </c>
+      <c r="W39" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>6</v>
+      </c>
+      <c r="J40">
+        <v>7</v>
+      </c>
+      <c r="K40">
+        <v>8</v>
+      </c>
+      <c r="L40">
+        <v>9</v>
+      </c>
+      <c r="M40">
+        <v>10</v>
+      </c>
+      <c r="N40">
+        <v>11</v>
+      </c>
+      <c r="O40">
+        <v>12</v>
+      </c>
+      <c r="P40">
+        <v>13</v>
+      </c>
+      <c r="Q40">
+        <v>14</v>
+      </c>
+      <c r="R40">
+        <v>15</v>
+      </c>
+      <c r="S40">
+        <v>16</v>
+      </c>
+      <c r="T40">
+        <v>16</v>
+      </c>
+      <c r="U40">
+        <v>17</v>
+      </c>
+      <c r="V40" s="3">
+        <v>45</v>
+      </c>
+      <c r="W40" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <v>7</v>
+      </c>
+      <c r="L41">
+        <v>8</v>
+      </c>
+      <c r="M41">
+        <v>8</v>
+      </c>
+      <c r="N41">
+        <v>8</v>
+      </c>
+      <c r="O41">
+        <v>9</v>
+      </c>
+      <c r="P41">
+        <v>9</v>
+      </c>
+      <c r="Q41">
+        <v>10</v>
+      </c>
+      <c r="R41">
+        <v>11</v>
+      </c>
+      <c r="S41">
+        <v>12</v>
+      </c>
+      <c r="T41">
+        <v>12</v>
+      </c>
+      <c r="U41">
+        <v>12</v>
+      </c>
+      <c r="V41" s="3">
+        <v>25</v>
+      </c>
+      <c r="W41" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>6</v>
+      </c>
+      <c r="J42">
+        <v>7</v>
+      </c>
+      <c r="K42">
+        <v>8</v>
+      </c>
+      <c r="L42">
+        <v>9</v>
+      </c>
+      <c r="M42">
+        <v>10</v>
+      </c>
+      <c r="N42">
+        <v>10</v>
+      </c>
+      <c r="O42">
+        <v>11</v>
+      </c>
+      <c r="P42">
+        <v>12</v>
+      </c>
+      <c r="Q42">
+        <v>13</v>
+      </c>
+      <c r="R42">
+        <v>14</v>
+      </c>
+      <c r="S42">
+        <v>15</v>
+      </c>
+      <c r="T42">
+        <v>17</v>
+      </c>
+      <c r="U42">
+        <v>18</v>
+      </c>
+      <c r="V42" s="3">
+        <v>40</v>
+      </c>
+      <c r="W42" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>6</v>
+      </c>
+      <c r="K43">
+        <v>7</v>
+      </c>
+      <c r="L43">
+        <v>8</v>
+      </c>
+      <c r="M43">
+        <v>9</v>
+      </c>
+      <c r="N43">
+        <v>10</v>
+      </c>
+      <c r="O43">
+        <v>11</v>
+      </c>
+      <c r="P43">
+        <v>12</v>
+      </c>
+      <c r="Q43">
+        <v>13</v>
+      </c>
+      <c r="R43">
+        <v>14</v>
+      </c>
+      <c r="S43">
+        <v>15</v>
+      </c>
+      <c r="T43">
+        <v>17</v>
+      </c>
+      <c r="U43">
+        <v>18</v>
+      </c>
+      <c r="V43" s="3">
+        <v>40</v>
+      </c>
+      <c r="W43" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>4</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <v>5</v>
+      </c>
+      <c r="M44">
+        <v>6</v>
+      </c>
+      <c r="N44">
+        <v>7</v>
+      </c>
+      <c r="O44">
+        <v>8</v>
+      </c>
+      <c r="P44">
+        <v>9</v>
+      </c>
+      <c r="Q44">
+        <v>10</v>
+      </c>
+      <c r="R44">
+        <v>10</v>
+      </c>
+      <c r="S44">
+        <v>10</v>
+      </c>
+      <c r="T44">
+        <v>11</v>
+      </c>
+      <c r="U44">
+        <v>12</v>
+      </c>
+      <c r="V44" s="3">
+        <v>40</v>
+      </c>
+      <c r="W44" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A45" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="31">
+        <v>0</v>
+      </c>
+      <c r="C45" s="31">
+        <v>0</v>
+      </c>
+      <c r="D45" s="31">
+        <v>0</v>
+      </c>
+      <c r="E45" s="31">
+        <v>0</v>
+      </c>
+      <c r="F45" s="31">
+        <v>1</v>
+      </c>
+      <c r="G45" s="31">
+        <v>1</v>
+      </c>
+      <c r="H45" s="31">
+        <v>1</v>
+      </c>
+      <c r="I45" s="31">
+        <v>1</v>
+      </c>
+      <c r="J45" s="31">
+        <v>1</v>
+      </c>
+      <c r="K45" s="31">
+        <v>1</v>
+      </c>
+      <c r="L45" s="31">
+        <v>1</v>
+      </c>
+      <c r="M45" s="31">
+        <v>2</v>
+      </c>
+      <c r="N45" s="31">
+        <v>2</v>
+      </c>
+      <c r="O45" s="31">
+        <v>2</v>
+      </c>
+      <c r="P45" s="31">
+        <v>2</v>
+      </c>
+      <c r="Q45" s="31">
+        <v>2</v>
+      </c>
+      <c r="R45" s="31">
+        <v>2</v>
+      </c>
+      <c r="S45" s="31">
+        <v>2</v>
+      </c>
+      <c r="T45" s="31">
+        <v>2</v>
+      </c>
+      <c r="U45" s="31">
+        <v>3</v>
+      </c>
+      <c r="V45" s="10">
+        <v>10</v>
+      </c>
+      <c r="W45" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <f>SUM(B38:B45)</f>
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:P46" si="19">SUM(C38:C45)</f>
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="19"/>
+        <v>25</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="19"/>
+        <v>35</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="19"/>
+        <v>40</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="19"/>
+        <v>45</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="19"/>
+        <v>50</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="19"/>
+        <v>55</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="19"/>
+        <v>60</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="19"/>
+        <v>65</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="19"/>
+        <v>70</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="19"/>
+        <v>75</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" ref="Q46" si="20">SUM(Q38:Q45)</f>
+        <v>80</v>
+      </c>
+      <c r="R46">
+        <f t="shared" ref="R46" si="21">SUM(R38:R45)</f>
+        <v>85</v>
+      </c>
+      <c r="S46">
+        <f t="shared" ref="S46" si="22">SUM(S38:S45)</f>
+        <v>90</v>
+      </c>
+      <c r="T46">
+        <f t="shared" ref="T46" si="23">SUM(T38:T45)</f>
+        <v>95</v>
+      </c>
+      <c r="U46">
+        <f t="shared" ref="U46" si="24">SUM(U38:U45)</f>
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
+        <f>SUM(V38:V45)</f>
+        <v>250</v>
+      </c>
+      <c r="W46" s="3">
+        <f>SUM(W38:W45)</f>
         <v>500</v>
       </c>
     </row>

--- a/doc/caste_system.xlsx
+++ b/doc/caste_system.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/349dfb9748b30a92/Asztali gép/ataliasflame_2.0/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5214" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFF9D3CF-2612-49BB-8F44-FB68397D59B7}"/>
+  <xr:revisionPtr revIDLastSave="5448" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0590452-0A26-4734-8157-A9B5FEEA1567}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
   </bookViews>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="85">
   <si>
     <t>csavargó</t>
   </si>
@@ -2012,7 +2012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2068,14 +2068,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2086,28 +2080,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -2430,7 +2420,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2469,19 +2459,19 @@
       <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -2525,19 +2515,19 @@
       <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -2563,22 +2553,22 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="44" t="s">
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -2590,49 +2580,49 @@
       <c r="I3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="45" t="s">
+      <c r="R3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="48" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="44" t="s">
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
         <v>39</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -2644,36 +2634,36 @@
       <c r="I4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="45" t="s">
+      <c r="R4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
@@ -2727,7 +2717,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="27" t="s">
         <v>21</v>
       </c>
@@ -2781,7 +2771,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="28" t="s">
         <v>4</v>
       </c>
@@ -2835,7 +2825,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="29" t="s">
@@ -2853,19 +2843,19 @@
       <c r="F8" t="s">
         <v>39</v>
       </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="G8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -2891,7 +2881,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="29" t="s">
         <v>6</v>
       </c>
@@ -2907,19 +2897,19 @@
       <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="G9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="J9" t="s">
         <v>39</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -2945,7 +2935,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="29" t="s">
         <v>7</v>
       </c>
@@ -2961,19 +2951,19 @@
       <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="G10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="G10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="J10" t="s">
         <v>39</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -2999,7 +2989,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="26" t="s">
         <v>8</v>
       </c>
@@ -3015,19 +3005,19 @@
       <c r="F11" t="s">
         <v>39</v>
       </c>
-      <c r="G11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="G11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="J11" t="s">
         <v>39</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -3053,7 +3043,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="38" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="29" t="s">
@@ -3071,19 +3061,19 @@
       <c r="F12" t="s">
         <v>39</v>
       </c>
-      <c r="G12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="G12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>39</v>
       </c>
       <c r="J12" t="s">
         <v>39</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -3109,7 +3099,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="27" t="s">
         <v>10</v>
       </c>
@@ -3163,7 +3153,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="27" t="s">
         <v>11</v>
       </c>
@@ -3217,7 +3207,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="28" t="s">
         <v>12</v>
       </c>
@@ -3271,7 +3261,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="38" t="s">
         <v>80</v>
       </c>
       <c r="B16" s="29" t="s">
@@ -3289,19 +3279,19 @@
       <c r="F16" t="s">
         <v>39</v>
       </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="G16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="J16" t="s">
         <v>39</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -3327,20 +3317,20 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="C17" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="45" t="s">
         <v>39</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -3352,49 +3342,49 @@
       <c r="I17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="45" t="s">
         <v>39</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R17" s="2" t="s">
+      <c r="L17" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="47" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="C18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="45" t="s">
         <v>39</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -3406,36 +3396,36 @@
       <c r="I18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="45" t="s">
         <v>39</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R18" s="2" t="s">
+      <c r="L18" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="47" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="28" t="s">
         <v>16</v>
       </c>
@@ -3489,7 +3479,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="41" t="s">
         <v>81</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -3545,7 +3535,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="27" t="s">
         <v>18</v>
       </c>
@@ -3599,7 +3589,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="27" t="s">
         <v>19</v>
       </c>
@@ -3653,7 +3643,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="28" t="s">
         <v>20</v>
       </c>
@@ -3715,7 +3705,8 @@
     <mergeCell ref="A20:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3724,7 +3715,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="N11" sqref="N11:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4339,9 +4330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FC8AA8-DC1F-4C97-8335-A619D1FCDEA7}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4597,7 +4586,7 @@
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H9"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4623,8 +4612,8 @@
     <col min="19" max="19" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.88671875" style="45" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4" bestFit="1" customWidth="1"/>
@@ -4653,10 +4642,10 @@
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -4695,10 +4684,10 @@
       <c r="U1" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="45" t="s">
         <v>15</v>
       </c>
       <c r="X1" s="2" t="s">
@@ -4742,10 +4731,10 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="45">
         <v>2</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="45">
         <v>6</v>
       </c>
       <c r="J2" s="3">
@@ -4784,10 +4773,10 @@
       <c r="U2">
         <v>3</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="45">
         <v>8</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="45">
         <v>25</v>
       </c>
       <c r="X2" s="2">
@@ -4832,10 +4821,10 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="45">
         <v>3</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="45">
         <v>12</v>
       </c>
       <c r="J3" s="3">
@@ -4874,10 +4863,10 @@
       <c r="U3">
         <v>3</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="45">
         <v>12</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="45">
         <v>25</v>
       </c>
       <c r="X3" s="2">
@@ -4922,10 +4911,10 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="45">
         <v>2</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="45">
         <v>7</v>
       </c>
       <c r="J4" s="3">
@@ -4964,10 +4953,10 @@
       <c r="U4">
         <v>4</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="45">
         <v>17</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="45">
         <v>45</v>
       </c>
       <c r="X4" s="2">
@@ -5012,10 +5001,10 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="45">
         <v>3</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="45">
         <v>10</v>
       </c>
       <c r="J5" s="3">
@@ -5054,10 +5043,10 @@
       <c r="U5">
         <v>3</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="45">
         <v>12</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="45">
         <v>25</v>
       </c>
       <c r="X5" s="2">
@@ -5102,10 +5091,10 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="45">
         <v>5</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="45">
         <v>20</v>
       </c>
       <c r="J6" s="3">
@@ -5144,10 +5133,10 @@
       <c r="U6">
         <v>4</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="45">
         <v>18</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="45">
         <v>40</v>
       </c>
       <c r="X6" s="2">
@@ -5192,10 +5181,10 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="45">
         <v>5</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="45">
         <v>20</v>
       </c>
       <c r="J7" s="3">
@@ -5207,16 +5196,16 @@
       <c r="L7" s="2">
         <v>100</v>
       </c>
-      <c r="M7" s="44">
+      <c r="M7">
         <v>1</v>
       </c>
-      <c r="N7" s="44">
+      <c r="N7">
         <v>6</v>
       </c>
-      <c r="O7" s="44">
+      <c r="O7">
         <v>13</v>
       </c>
-      <c r="P7" s="45">
+      <c r="P7" s="1">
         <v>25</v>
       </c>
       <c r="Q7">
@@ -5234,10 +5223,10 @@
       <c r="U7">
         <v>4</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="45">
         <v>18</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="45">
         <v>40</v>
       </c>
       <c r="X7" s="2">
@@ -5282,10 +5271,10 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="45">
         <v>4</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="45">
         <v>20</v>
       </c>
       <c r="J8" s="3">
@@ -5297,16 +5286,16 @@
       <c r="L8" s="2">
         <v>100</v>
       </c>
-      <c r="M8" s="44">
+      <c r="M8">
         <v>1</v>
       </c>
-      <c r="N8" s="44">
+      <c r="N8">
         <v>5</v>
       </c>
-      <c r="O8" s="44">
+      <c r="O8">
         <v>12</v>
       </c>
-      <c r="P8" s="45">
+      <c r="P8" s="1">
         <v>25</v>
       </c>
       <c r="Q8">
@@ -5324,10 +5313,10 @@
       <c r="U8">
         <v>3</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="45">
         <v>12</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="45">
         <v>40</v>
       </c>
       <c r="X8" s="2">
@@ -5372,10 +5361,10 @@
       <c r="G9" s="36">
         <v>0</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="48">
         <v>1</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="48">
         <v>5</v>
       </c>
       <c r="J9" s="10">
@@ -5387,16 +5376,16 @@
       <c r="L9" s="4">
         <v>25</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="31">
         <v>1</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="31">
         <v>2</v>
       </c>
-      <c r="O9" s="46">
+      <c r="O9" s="31">
         <v>5</v>
       </c>
-      <c r="P9" s="47">
+      <c r="P9" s="35">
         <v>10</v>
       </c>
       <c r="Q9" s="31">
@@ -5414,10 +5403,10 @@
       <c r="U9" s="31">
         <v>1</v>
       </c>
-      <c r="V9" s="10">
+      <c r="V9" s="48">
         <v>3</v>
       </c>
-      <c r="W9" s="10">
+      <c r="W9" s="48">
         <v>10</v>
       </c>
       <c r="X9" s="4">
@@ -5501,11 +5490,11 @@
         <f t="shared" ref="U10" si="10">SUM(U2:U9)</f>
         <v>25</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="45">
         <f t="shared" ref="V10" si="11">SUM(V2:V9)</f>
         <v>100</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="45">
         <f t="shared" ref="W10" si="12">SUM(W2:W9)</f>
         <v>250</v>
       </c>
@@ -5604,7 +5593,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6757,54 +6746,54 @@
       <c r="U1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AD1" s="43" t="s">
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AD1" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AK1" s="43" t="s">
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AK1" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AR1" s="43" t="s">
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AR1" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="43"/>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="43"/>
-      <c r="AY1" s="43" t="s">
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AY1" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="AZ1" s="43"/>
-      <c r="BA1" s="43"/>
-      <c r="BB1" s="43"/>
-      <c r="BC1" s="43"/>
-      <c r="BD1" s="43"/>
-      <c r="BF1" s="43" t="s">
+      <c r="AZ1" s="44"/>
+      <c r="BA1" s="44"/>
+      <c r="BB1" s="44"/>
+      <c r="BC1" s="44"/>
+      <c r="BD1" s="44"/>
+      <c r="BF1" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="BG1" s="43"/>
-      <c r="BH1" s="43"/>
-      <c r="BI1" s="43"/>
-      <c r="BJ1" s="43"/>
-      <c r="BK1" s="43"/>
+      <c r="BG1" s="44"/>
+      <c r="BH1" s="44"/>
+      <c r="BI1" s="44"/>
+      <c r="BJ1" s="44"/>
+      <c r="BK1" s="44"/>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
@@ -11722,9 +11711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD573711-C846-40DC-8629-19A685998D3E}">
   <dimension ref="A1:CW46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC7" sqref="AC7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11740,7 +11728,7 @@
     <col min="24" max="47" width="4" bestFit="1" customWidth="1"/>
     <col min="48" max="50" width="4" customWidth="1"/>
     <col min="51" max="51" width="16" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="54" max="94" width="4" bestFit="1" customWidth="1"/>
     <col min="95" max="100" width="4" customWidth="1"/>
@@ -11898,7 +11886,7 @@
       <c r="AY1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AZ1" s="52" t="s">
+      <c r="AZ1" s="37" t="s">
         <v>4</v>
       </c>
       <c r="BA1" s="3" t="s">
@@ -17084,7 +17072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
         <v>53</v>
       </c>
@@ -17155,7 +17143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B34">
         <f>SUM(B26:B33)</f>
         <v>5</v>
@@ -17245,7 +17233,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>0</v>
       </c>
@@ -17303,17 +17291,104 @@
       <c r="T37" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="U37" s="3" t="s">
+      <c r="U37" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="V37" s="3" t="s">
+      <c r="V37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="W37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="X37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY37" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="W37" s="3" t="s">
+      <c r="AZ37" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -17377,14 +17452,101 @@
       <c r="U38">
         <v>8</v>
       </c>
-      <c r="V38" s="3">
+      <c r="V38">
+        <v>9</v>
+      </c>
+      <c r="W38">
+        <v>10</v>
+      </c>
+      <c r="X38">
+        <v>11</v>
+      </c>
+      <c r="Y38">
+        <v>12</v>
+      </c>
+      <c r="Z38">
+        <v>13</v>
+      </c>
+      <c r="AA38">
+        <v>14</v>
+      </c>
+      <c r="AB38">
+        <v>15</v>
+      </c>
+      <c r="AC38">
+        <v>16</v>
+      </c>
+      <c r="AD38">
+        <v>16</v>
+      </c>
+      <c r="AE38">
+        <v>17</v>
+      </c>
+      <c r="AF38">
+        <v>18</v>
+      </c>
+      <c r="AG38">
+        <v>18</v>
+      </c>
+      <c r="AH38">
+        <v>19</v>
+      </c>
+      <c r="AI38">
+        <v>19</v>
+      </c>
+      <c r="AJ38">
+        <v>20</v>
+      </c>
+      <c r="AK38">
+        <v>20</v>
+      </c>
+      <c r="AL38">
+        <v>21</v>
+      </c>
+      <c r="AM38">
+        <v>21</v>
+      </c>
+      <c r="AN38">
+        <v>21</v>
+      </c>
+      <c r="AO38">
+        <v>22</v>
+      </c>
+      <c r="AP38">
+        <v>22</v>
+      </c>
+      <c r="AQ38">
+        <v>22</v>
+      </c>
+      <c r="AR38">
+        <v>23</v>
+      </c>
+      <c r="AS38">
+        <v>23</v>
+      </c>
+      <c r="AT38">
+        <v>23</v>
+      </c>
+      <c r="AU38">
+        <v>24</v>
+      </c>
+      <c r="AV38">
+        <v>24</v>
+      </c>
+      <c r="AW38">
+        <v>24</v>
+      </c>
+      <c r="AX38">
         <v>25</v>
       </c>
-      <c r="W38" s="3">
+      <c r="AY38" s="45">
+        <v>25</v>
+      </c>
+      <c r="AZ38" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -17448,14 +17610,101 @@
       <c r="U39">
         <v>12</v>
       </c>
-      <c r="V39" s="3">
+      <c r="V39">
+        <v>13</v>
+      </c>
+      <c r="W39">
+        <v>13</v>
+      </c>
+      <c r="X39">
+        <v>14</v>
+      </c>
+      <c r="Y39">
+        <v>14</v>
+      </c>
+      <c r="Z39">
+        <v>15</v>
+      </c>
+      <c r="AA39">
+        <v>15</v>
+      </c>
+      <c r="AB39">
+        <v>16</v>
+      </c>
+      <c r="AC39">
+        <v>16</v>
+      </c>
+      <c r="AD39">
+        <v>17</v>
+      </c>
+      <c r="AE39">
+        <v>17</v>
+      </c>
+      <c r="AF39">
+        <v>18</v>
+      </c>
+      <c r="AG39">
+        <v>19</v>
+      </c>
+      <c r="AH39">
+        <v>19</v>
+      </c>
+      <c r="AI39">
+        <v>20</v>
+      </c>
+      <c r="AJ39">
+        <v>20</v>
+      </c>
+      <c r="AK39">
+        <v>21</v>
+      </c>
+      <c r="AL39">
+        <v>21</v>
+      </c>
+      <c r="AM39">
+        <v>21</v>
+      </c>
+      <c r="AN39">
+        <v>22</v>
+      </c>
+      <c r="AO39">
+        <v>22</v>
+      </c>
+      <c r="AP39">
+        <v>22</v>
+      </c>
+      <c r="AQ39">
+        <v>23</v>
+      </c>
+      <c r="AR39">
+        <v>23</v>
+      </c>
+      <c r="AS39">
+        <v>23</v>
+      </c>
+      <c r="AT39">
+        <v>24</v>
+      </c>
+      <c r="AU39">
+        <v>24</v>
+      </c>
+      <c r="AV39">
+        <v>24</v>
+      </c>
+      <c r="AW39">
         <v>25</v>
       </c>
-      <c r="W39" s="3">
+      <c r="AX39">
+        <v>25</v>
+      </c>
+      <c r="AY39" s="45">
+        <v>25</v>
+      </c>
+      <c r="AZ39" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -17519,14 +17768,101 @@
       <c r="U40">
         <v>17</v>
       </c>
-      <c r="V40" s="3">
+      <c r="V40">
+        <v>18</v>
+      </c>
+      <c r="W40">
+        <v>19</v>
+      </c>
+      <c r="X40">
+        <v>20</v>
+      </c>
+      <c r="Y40">
+        <v>21</v>
+      </c>
+      <c r="Z40">
+        <v>22</v>
+      </c>
+      <c r="AA40">
+        <v>23</v>
+      </c>
+      <c r="AB40">
+        <v>24</v>
+      </c>
+      <c r="AC40">
+        <v>25</v>
+      </c>
+      <c r="AD40">
+        <v>26</v>
+      </c>
+      <c r="AE40">
+        <v>27</v>
+      </c>
+      <c r="AF40">
+        <v>28</v>
+      </c>
+      <c r="AG40">
+        <v>29</v>
+      </c>
+      <c r="AH40">
+        <v>30</v>
+      </c>
+      <c r="AI40">
+        <v>31</v>
+      </c>
+      <c r="AJ40">
+        <v>32</v>
+      </c>
+      <c r="AK40">
+        <v>33</v>
+      </c>
+      <c r="AL40">
+        <v>34</v>
+      </c>
+      <c r="AM40">
+        <v>35</v>
+      </c>
+      <c r="AN40">
+        <v>36</v>
+      </c>
+      <c r="AO40">
+        <v>37</v>
+      </c>
+      <c r="AP40">
+        <v>38</v>
+      </c>
+      <c r="AQ40">
+        <v>39</v>
+      </c>
+      <c r="AR40">
+        <v>40</v>
+      </c>
+      <c r="AS40">
+        <v>41</v>
+      </c>
+      <c r="AT40">
+        <v>41</v>
+      </c>
+      <c r="AU40">
+        <v>41</v>
+      </c>
+      <c r="AV40">
+        <v>42</v>
+      </c>
+      <c r="AW40">
+        <v>43</v>
+      </c>
+      <c r="AX40">
+        <v>44</v>
+      </c>
+      <c r="AY40" s="45">
         <v>45</v>
       </c>
-      <c r="W40" s="3">
+      <c r="AZ40" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -17590,14 +17926,101 @@
       <c r="U41">
         <v>12</v>
       </c>
-      <c r="V41" s="3">
+      <c r="V41">
+        <v>12</v>
+      </c>
+      <c r="W41">
+        <v>13</v>
+      </c>
+      <c r="X41">
+        <v>13</v>
+      </c>
+      <c r="Y41">
+        <v>14</v>
+      </c>
+      <c r="Z41">
+        <v>14</v>
+      </c>
+      <c r="AA41">
+        <v>15</v>
+      </c>
+      <c r="AB41">
+        <v>15</v>
+      </c>
+      <c r="AC41">
+        <v>16</v>
+      </c>
+      <c r="AD41">
+        <v>16</v>
+      </c>
+      <c r="AE41">
+        <v>17</v>
+      </c>
+      <c r="AF41">
+        <v>17</v>
+      </c>
+      <c r="AG41">
+        <v>18</v>
+      </c>
+      <c r="AH41">
+        <v>19</v>
+      </c>
+      <c r="AI41">
+        <v>19</v>
+      </c>
+      <c r="AJ41">
+        <v>20</v>
+      </c>
+      <c r="AK41">
+        <v>20</v>
+      </c>
+      <c r="AL41">
+        <v>20</v>
+      </c>
+      <c r="AM41">
+        <v>21</v>
+      </c>
+      <c r="AN41">
+        <v>21</v>
+      </c>
+      <c r="AO41">
+        <v>21</v>
+      </c>
+      <c r="AP41">
+        <v>22</v>
+      </c>
+      <c r="AQ41">
+        <v>22</v>
+      </c>
+      <c r="AR41">
+        <v>22</v>
+      </c>
+      <c r="AS41">
+        <v>23</v>
+      </c>
+      <c r="AT41">
+        <v>23</v>
+      </c>
+      <c r="AU41">
+        <v>23</v>
+      </c>
+      <c r="AV41">
+        <v>24</v>
+      </c>
+      <c r="AW41">
+        <v>24</v>
+      </c>
+      <c r="AX41">
+        <v>24</v>
+      </c>
+      <c r="AY41" s="45">
         <v>25</v>
       </c>
-      <c r="W41" s="3">
+      <c r="AZ41" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -17661,14 +18084,101 @@
       <c r="U42">
         <v>18</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V42">
+        <v>19</v>
+      </c>
+      <c r="W42">
+        <v>19</v>
+      </c>
+      <c r="X42">
+        <v>20</v>
+      </c>
+      <c r="Y42">
+        <v>20</v>
+      </c>
+      <c r="Z42">
+        <v>21</v>
+      </c>
+      <c r="AA42">
+        <v>21</v>
+      </c>
+      <c r="AB42">
+        <v>22</v>
+      </c>
+      <c r="AC42">
+        <v>22</v>
+      </c>
+      <c r="AD42">
+        <v>23</v>
+      </c>
+      <c r="AE42">
+        <v>23</v>
+      </c>
+      <c r="AF42">
+        <v>24</v>
+      </c>
+      <c r="AG42">
+        <v>24</v>
+      </c>
+      <c r="AH42">
+        <v>25</v>
+      </c>
+      <c r="AI42">
+        <v>25</v>
+      </c>
+      <c r="AJ42">
+        <v>26</v>
+      </c>
+      <c r="AK42">
+        <v>27</v>
+      </c>
+      <c r="AL42">
+        <v>28</v>
+      </c>
+      <c r="AM42">
+        <v>29</v>
+      </c>
+      <c r="AN42">
+        <v>30</v>
+      </c>
+      <c r="AO42">
+        <v>31</v>
+      </c>
+      <c r="AP42">
+        <v>32</v>
+      </c>
+      <c r="AQ42">
+        <v>33</v>
+      </c>
+      <c r="AR42">
+        <v>34</v>
+      </c>
+      <c r="AS42">
+        <v>35</v>
+      </c>
+      <c r="AT42">
+        <v>36</v>
+      </c>
+      <c r="AU42">
+        <v>37</v>
+      </c>
+      <c r="AV42">
+        <v>38</v>
+      </c>
+      <c r="AW42">
+        <v>39</v>
+      </c>
+      <c r="AX42">
+        <v>39</v>
+      </c>
+      <c r="AY42" s="45">
         <v>40</v>
       </c>
-      <c r="W42" s="3">
+      <c r="AZ42" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -17732,14 +18242,101 @@
       <c r="U43">
         <v>18</v>
       </c>
-      <c r="V43" s="3">
+      <c r="V43">
+        <v>18</v>
+      </c>
+      <c r="W43">
+        <v>19</v>
+      </c>
+      <c r="X43">
+        <v>19</v>
+      </c>
+      <c r="Y43">
+        <v>20</v>
+      </c>
+      <c r="Z43">
+        <v>20</v>
+      </c>
+      <c r="AA43">
+        <v>21</v>
+      </c>
+      <c r="AB43">
+        <v>21</v>
+      </c>
+      <c r="AC43">
+        <v>22</v>
+      </c>
+      <c r="AD43">
+        <v>22</v>
+      </c>
+      <c r="AE43">
+        <v>23</v>
+      </c>
+      <c r="AF43">
+        <v>23</v>
+      </c>
+      <c r="AG43">
+        <v>24</v>
+      </c>
+      <c r="AH43">
+        <v>24</v>
+      </c>
+      <c r="AI43">
+        <v>25</v>
+      </c>
+      <c r="AJ43">
+        <v>26</v>
+      </c>
+      <c r="AK43">
+        <v>27</v>
+      </c>
+      <c r="AL43">
+        <v>28</v>
+      </c>
+      <c r="AM43">
+        <v>29</v>
+      </c>
+      <c r="AN43">
+        <v>30</v>
+      </c>
+      <c r="AO43">
+        <v>31</v>
+      </c>
+      <c r="AP43">
+        <v>32</v>
+      </c>
+      <c r="AQ43">
+        <v>33</v>
+      </c>
+      <c r="AR43">
+        <v>34</v>
+      </c>
+      <c r="AS43">
+        <v>35</v>
+      </c>
+      <c r="AT43">
+        <v>36</v>
+      </c>
+      <c r="AU43">
+        <v>37</v>
+      </c>
+      <c r="AV43">
+        <v>38</v>
+      </c>
+      <c r="AW43">
+        <v>38</v>
+      </c>
+      <c r="AX43">
+        <v>39</v>
+      </c>
+      <c r="AY43" s="45">
         <v>40</v>
       </c>
-      <c r="W43" s="3">
+      <c r="AZ43" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -17803,14 +18400,101 @@
       <c r="U44">
         <v>12</v>
       </c>
-      <c r="V44" s="3">
+      <c r="V44">
+        <v>13</v>
+      </c>
+      <c r="W44">
+        <v>14</v>
+      </c>
+      <c r="X44">
+        <v>15</v>
+      </c>
+      <c r="Y44">
+        <v>16</v>
+      </c>
+      <c r="Z44">
+        <v>17</v>
+      </c>
+      <c r="AA44">
+        <v>18</v>
+      </c>
+      <c r="AB44">
+        <v>19</v>
+      </c>
+      <c r="AC44">
+        <v>20</v>
+      </c>
+      <c r="AD44">
+        <v>21</v>
+      </c>
+      <c r="AE44">
+        <v>22</v>
+      </c>
+      <c r="AF44">
+        <v>23</v>
+      </c>
+      <c r="AG44">
+        <v>24</v>
+      </c>
+      <c r="AH44">
+        <v>25</v>
+      </c>
+      <c r="AI44">
+        <v>26</v>
+      </c>
+      <c r="AJ44">
+        <v>26</v>
+      </c>
+      <c r="AK44">
+        <v>27</v>
+      </c>
+      <c r="AL44">
+        <v>28</v>
+      </c>
+      <c r="AM44">
+        <v>29</v>
+      </c>
+      <c r="AN44">
+        <v>30</v>
+      </c>
+      <c r="AO44">
+        <v>31</v>
+      </c>
+      <c r="AP44">
+        <v>32</v>
+      </c>
+      <c r="AQ44">
+        <v>33</v>
+      </c>
+      <c r="AR44">
+        <v>34</v>
+      </c>
+      <c r="AS44">
+        <v>35</v>
+      </c>
+      <c r="AT44">
+        <v>36</v>
+      </c>
+      <c r="AU44">
+        <v>37</v>
+      </c>
+      <c r="AV44">
+        <v>38</v>
+      </c>
+      <c r="AW44">
+        <v>39</v>
+      </c>
+      <c r="AX44">
         <v>40</v>
       </c>
-      <c r="W44" s="3">
+      <c r="AY44" s="45">
+        <v>40</v>
+      </c>
+      <c r="AZ44" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A45" s="31" t="s">
         <v>53</v>
       </c>
@@ -17874,14 +18558,101 @@
       <c r="U45" s="31">
         <v>3</v>
       </c>
-      <c r="V45" s="10">
+      <c r="V45" s="31">
+        <v>3</v>
+      </c>
+      <c r="W45" s="31">
+        <v>3</v>
+      </c>
+      <c r="X45" s="31">
+        <v>3</v>
+      </c>
+      <c r="Y45" s="31">
+        <v>3</v>
+      </c>
+      <c r="Z45" s="31">
+        <v>3</v>
+      </c>
+      <c r="AA45" s="31">
+        <v>3</v>
+      </c>
+      <c r="AB45" s="31">
+        <v>3</v>
+      </c>
+      <c r="AC45" s="31">
+        <v>3</v>
+      </c>
+      <c r="AD45" s="31">
+        <v>4</v>
+      </c>
+      <c r="AE45" s="31">
+        <v>4</v>
+      </c>
+      <c r="AF45" s="31">
+        <v>4</v>
+      </c>
+      <c r="AG45" s="31">
+        <v>4</v>
+      </c>
+      <c r="AH45" s="31">
+        <v>4</v>
+      </c>
+      <c r="AI45" s="31">
+        <v>5</v>
+      </c>
+      <c r="AJ45" s="31">
+        <v>5</v>
+      </c>
+      <c r="AK45" s="31">
+        <v>5</v>
+      </c>
+      <c r="AL45" s="31">
+        <v>5</v>
+      </c>
+      <c r="AM45" s="31">
+        <v>5</v>
+      </c>
+      <c r="AN45" s="31">
+        <v>5</v>
+      </c>
+      <c r="AO45" s="31">
+        <v>5</v>
+      </c>
+      <c r="AP45" s="31">
+        <v>5</v>
+      </c>
+      <c r="AQ45" s="31">
+        <v>5</v>
+      </c>
+      <c r="AR45" s="31">
+        <v>5</v>
+      </c>
+      <c r="AS45" s="31">
+        <v>5</v>
+      </c>
+      <c r="AT45" s="31">
+        <v>6</v>
+      </c>
+      <c r="AU45" s="31">
+        <v>7</v>
+      </c>
+      <c r="AV45" s="31">
+        <v>7</v>
+      </c>
+      <c r="AW45" s="31">
+        <v>8</v>
+      </c>
+      <c r="AX45" s="31">
+        <v>9</v>
+      </c>
+      <c r="AY45" s="48">
         <v>10</v>
       </c>
-      <c r="W45" s="10">
+      <c r="AZ45" s="10">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B46">
         <f>SUM(B38:B45)</f>
         <v>5</v>
@@ -17959,15 +18730,131 @@
         <v>95</v>
       </c>
       <c r="U46">
-        <f t="shared" ref="U46" si="24">SUM(U38:U45)</f>
+        <f t="shared" ref="U46:AX46" si="24">SUM(U38:U45)</f>
         <v>100</v>
       </c>
-      <c r="V46" s="3">
-        <f>SUM(V38:V45)</f>
+      <c r="V46">
+        <f t="shared" si="24"/>
+        <v>105</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="24"/>
+        <v>110</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="24"/>
+        <v>115</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="24"/>
+        <v>120</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="24"/>
+        <v>125</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="24"/>
+        <v>130</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="24"/>
+        <v>135</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="24"/>
+        <v>140</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="24"/>
+        <v>145</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="24"/>
+        <v>150</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="24"/>
+        <v>155</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="24"/>
+        <v>160</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="24"/>
+        <v>165</v>
+      </c>
+      <c r="AI46">
+        <f t="shared" si="24"/>
+        <v>170</v>
+      </c>
+      <c r="AJ46">
+        <f t="shared" si="24"/>
+        <v>175</v>
+      </c>
+      <c r="AK46">
+        <f t="shared" si="24"/>
+        <v>180</v>
+      </c>
+      <c r="AL46">
+        <f t="shared" si="24"/>
+        <v>185</v>
+      </c>
+      <c r="AM46">
+        <f t="shared" si="24"/>
+        <v>190</v>
+      </c>
+      <c r="AN46">
+        <f t="shared" si="24"/>
+        <v>195</v>
+      </c>
+      <c r="AO46">
+        <f t="shared" si="24"/>
+        <v>200</v>
+      </c>
+      <c r="AP46">
+        <f t="shared" si="24"/>
+        <v>205</v>
+      </c>
+      <c r="AQ46">
+        <f t="shared" si="24"/>
+        <v>210</v>
+      </c>
+      <c r="AR46">
+        <f t="shared" si="24"/>
+        <v>215</v>
+      </c>
+      <c r="AS46">
+        <f t="shared" si="24"/>
+        <v>220</v>
+      </c>
+      <c r="AT46">
+        <f t="shared" si="24"/>
+        <v>225</v>
+      </c>
+      <c r="AU46">
+        <f t="shared" si="24"/>
+        <v>230</v>
+      </c>
+      <c r="AV46">
+        <f t="shared" si="24"/>
+        <v>235</v>
+      </c>
+      <c r="AW46">
+        <f t="shared" si="24"/>
+        <v>240</v>
+      </c>
+      <c r="AX46">
+        <f t="shared" si="24"/>
+        <v>245</v>
+      </c>
+      <c r="AY46" s="45">
+        <f>SUM(AY38:AY45)</f>
         <v>250</v>
       </c>
-      <c r="W46" s="3">
-        <f>SUM(W38:W45)</f>
+      <c r="AZ46" s="3">
+        <f>SUM(AZ38:AZ45)</f>
         <v>500</v>
       </c>
     </row>

--- a/doc/caste_system.xlsx
+++ b/doc/caste_system.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/349dfb9748b30a92/Asztali gép/ataliasflame_2.0/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5854" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{114D89D3-C84B-4368-A896-4BC38E51C466}"/>
+  <xr:revisionPtr revIDLastSave="6478" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B4899D2-F2EA-4847-BEDB-4E3974DC746D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
   </bookViews>
   <sheets>
     <sheet name="caste list" sheetId="1" r:id="rId1"/>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="85">
   <si>
     <t>csavargó</t>
   </si>
@@ -2012,7 +2012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2067,9 +2067,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2080,16 +2077,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2413,7 +2426,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E471BE-CB76-416C-8A0D-8BCD59B0033A}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P20" activeCellId="1" sqref="R20 P20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2545,7 +2560,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
@@ -2601,7 +2616,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="28" t="s">
         <v>2</v>
       </c>
@@ -2655,61 +2670,61 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="26" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="C5" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="3" t="s">
+      <c r="K5" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="43" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="26" t="s">
         <v>21</v>
       </c>
@@ -2763,61 +2778,61 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="C7" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="3" t="s">
+      <c r="K7" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="43" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="28" t="s">
@@ -2873,7 +2888,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="28" t="s">
         <v>6</v>
       </c>
@@ -2927,7 +2942,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="28" t="s">
         <v>7</v>
       </c>
@@ -2981,7 +2996,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="25" t="s">
         <v>8</v>
       </c>
@@ -3035,7 +3050,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="37" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="28" t="s">
@@ -3091,7 +3106,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="26" t="s">
         <v>10</v>
       </c>
@@ -3145,7 +3160,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="26" t="s">
         <v>11</v>
       </c>
@@ -3199,7 +3214,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="27" t="s">
         <v>12</v>
       </c>
@@ -3253,7 +3268,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
         <v>80</v>
       </c>
       <c r="B16" s="28" t="s">
@@ -3309,7 +3324,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -3363,7 +3378,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="28" t="s">
         <v>15</v>
       </c>
@@ -3417,7 +3432,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="27" t="s">
         <v>16</v>
       </c>
@@ -3471,63 +3486,63 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="C20" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R20" s="2" t="s">
+      <c r="J20" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="R20" s="43" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="26" t="s">
         <v>18</v>
       </c>
@@ -3581,7 +3596,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="26" t="s">
         <v>19</v>
       </c>
@@ -3635,7 +3650,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="27" t="s">
         <v>20</v>
       </c>
@@ -3706,7 +3721,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D679E03F-D306-402E-AB27-0886D4533EB3}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4321,7 +4338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FC8AA8-DC1F-4C97-8335-A619D1FCDEA7}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4576,7 +4595,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47799533-6B34-4949-9561-D6B03DB6E4FC}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:AB9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4589,9 +4610,9 @@
     <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="41" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.21875" style="41" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
@@ -4604,7 +4625,7 @@
     <col min="22" max="22" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.44140625" style="41" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8.77734375" bestFit="1" customWidth="1"/>
@@ -4637,13 +4658,13 @@
       <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="41" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="43" t="s">
         <v>4</v>
       </c>
       <c r="M1" t="s">
@@ -4682,7 +4703,7 @@
       <c r="X1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="41" t="s">
         <v>17</v>
       </c>
       <c r="Z1" s="3" t="s">
@@ -4726,13 +4747,13 @@
       <c r="I2">
         <v>6</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="41">
         <v>18</v>
       </c>
       <c r="K2" s="3">
         <v>20</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="43">
         <v>40</v>
       </c>
       <c r="M2">
@@ -4771,7 +4792,7 @@
       <c r="X2" s="2">
         <v>45</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="41">
         <v>3</v>
       </c>
       <c r="Z2" s="3">
@@ -4816,13 +4837,13 @@
       <c r="I3">
         <v>12</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="41">
         <v>25</v>
       </c>
       <c r="K3" s="3">
         <v>30</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="43">
         <v>45</v>
       </c>
       <c r="M3">
@@ -4861,7 +4882,7 @@
       <c r="X3" s="2">
         <v>50</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="41">
         <v>3</v>
       </c>
       <c r="Z3" s="3">
@@ -4906,13 +4927,13 @@
       <c r="I4">
         <v>7</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="41">
         <v>20</v>
       </c>
       <c r="K4" s="3">
         <v>25</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="43">
         <v>45</v>
       </c>
       <c r="M4">
@@ -4951,7 +4972,7 @@
       <c r="X4" s="2">
         <v>70</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="41">
         <v>2</v>
       </c>
       <c r="Z4" s="3">
@@ -4996,13 +5017,13 @@
       <c r="I5">
         <v>10</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="41">
         <v>22</v>
       </c>
       <c r="K5" s="3">
         <v>25</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="43">
         <v>45</v>
       </c>
       <c r="M5">
@@ -5041,7 +5062,7 @@
       <c r="X5" s="2">
         <v>50</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5" s="41">
         <v>3</v>
       </c>
       <c r="Z5" s="3">
@@ -5086,13 +5107,13 @@
       <c r="I6">
         <v>20</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="41">
         <v>50</v>
       </c>
       <c r="K6" s="3">
         <v>40</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="43">
         <v>100</v>
       </c>
       <c r="M6">
@@ -5131,7 +5152,7 @@
       <c r="X6" s="2">
         <v>80</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="41">
         <v>4</v>
       </c>
       <c r="Z6" s="3">
@@ -5176,13 +5197,13 @@
       <c r="I7">
         <v>20</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="41">
         <v>50</v>
       </c>
       <c r="K7" s="3">
         <v>60</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="43">
         <v>100</v>
       </c>
       <c r="M7">
@@ -5221,7 +5242,7 @@
       <c r="X7" s="2">
         <v>90</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7" s="41">
         <v>5</v>
       </c>
       <c r="Z7" s="3">
@@ -5266,13 +5287,13 @@
       <c r="I8">
         <v>20</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="41">
         <v>50</v>
       </c>
       <c r="K8" s="3">
         <v>30</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="43">
         <v>100</v>
       </c>
       <c r="M8">
@@ -5311,7 +5332,7 @@
       <c r="X8" s="2">
         <v>90</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="41">
         <v>4</v>
       </c>
       <c r="Z8" s="3">
@@ -5356,13 +5377,13 @@
       <c r="I9" s="30">
         <v>5</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="42">
         <v>15</v>
       </c>
       <c r="K9" s="10">
         <v>20</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="46">
         <v>25</v>
       </c>
       <c r="M9" s="30">
@@ -5401,7 +5422,7 @@
       <c r="X9" s="4">
         <v>25</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="Y9" s="42">
         <v>1</v>
       </c>
       <c r="Z9" s="10">
@@ -5413,7 +5434,7 @@
       <c r="AB9" s="4">
         <v>25</v>
       </c>
-      <c r="AC9" s="37">
+      <c r="AC9" s="36">
         <f>MAX(G9:AB9)</f>
         <v>100</v>
       </c>
@@ -5431,7 +5452,7 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="41">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
@@ -5439,7 +5460,7 @@
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="43">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
@@ -5491,7 +5512,7 @@
         <f t="shared" ref="X10" si="13">SUM(X2:X9)</f>
         <v>500</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="41">
         <f t="shared" ref="Y10" si="14">SUM(Y2:Y9)</f>
         <v>25</v>
       </c>
@@ -6735,54 +6756,54 @@
       <c r="U1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="W1" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AD1" s="44" t="s">
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AD1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AK1" s="44" t="s">
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AK1" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AR1" s="44" t="s">
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="40"/>
+      <c r="AR1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AY1" s="44" t="s">
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="40"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="AY1" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="AZ1" s="44"/>
-      <c r="BA1" s="44"/>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44"/>
-      <c r="BD1" s="44"/>
-      <c r="BF1" s="44" t="s">
+      <c r="AZ1" s="40"/>
+      <c r="BA1" s="40"/>
+      <c r="BB1" s="40"/>
+      <c r="BC1" s="40"/>
+      <c r="BD1" s="40"/>
+      <c r="BF1" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="BG1" s="44"/>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="44"/>
-      <c r="BJ1" s="44"/>
-      <c r="BK1" s="44"/>
+      <c r="BG1" s="40"/>
+      <c r="BH1" s="40"/>
+      <c r="BI1" s="40"/>
+      <c r="BJ1" s="40"/>
+      <c r="BK1" s="40"/>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -11698,10 +11719,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD573711-C846-40DC-8629-19A685998D3E}">
-  <dimension ref="A1:CW46"/>
+  <dimension ref="A1:DK58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="CK36" sqref="CK36"/>
+    <sheetView tabSelected="1" topLeftCell="CD22" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11717,13 +11738,14 @@
     <col min="24" max="47" width="4" bestFit="1" customWidth="1"/>
     <col min="48" max="50" width="4" customWidth="1"/>
     <col min="51" max="51" width="16" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="54" max="100" width="4" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="55" width="4" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="4" customWidth="1"/>
+    <col min="57" max="100" width="4" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="10.5546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:102" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -11871,17 +11893,164 @@
       <c r="AX1" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AY1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AZ1" s="36" t="s">
+      <c r="AZ1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BP1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BQ1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BT1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BV1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BW1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BX1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BY1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="BZ1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="CA1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="CB1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="CC1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="CD1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="CH1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="CI1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="CJ1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="CK1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="CL1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="CM1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="CN1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="CO1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="CP1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="CQ1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="CR1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="CS1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="CT1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="CU1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="CV1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="CW1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="CX1" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -12035,11 +12204,158 @@
       <c r="AY2">
         <v>18</v>
       </c>
-      <c r="AZ2" s="3">
+      <c r="AZ2">
+        <v>19</v>
+      </c>
+      <c r="BA2">
+        <v>20</v>
+      </c>
+      <c r="BB2">
+        <v>20</v>
+      </c>
+      <c r="BC2">
+        <v>21</v>
+      </c>
+      <c r="BD2">
+        <v>21</v>
+      </c>
+      <c r="BE2">
+        <v>22</v>
+      </c>
+      <c r="BF2">
+        <v>22</v>
+      </c>
+      <c r="BG2">
+        <v>23</v>
+      </c>
+      <c r="BH2">
+        <v>23</v>
+      </c>
+      <c r="BI2">
+        <v>24</v>
+      </c>
+      <c r="BJ2">
+        <v>25</v>
+      </c>
+      <c r="BK2">
+        <v>25</v>
+      </c>
+      <c r="BL2">
+        <v>25</v>
+      </c>
+      <c r="BM2">
+        <v>26</v>
+      </c>
+      <c r="BN2">
+        <v>26</v>
+      </c>
+      <c r="BO2">
+        <v>26</v>
+      </c>
+      <c r="BP2">
+        <v>27</v>
+      </c>
+      <c r="BQ2">
+        <v>28</v>
+      </c>
+      <c r="BR2">
+        <v>28</v>
+      </c>
+      <c r="BS2">
+        <v>29</v>
+      </c>
+      <c r="BT2">
+        <v>29</v>
+      </c>
+      <c r="BU2">
+        <v>30</v>
+      </c>
+      <c r="BV2">
+        <v>30</v>
+      </c>
+      <c r="BW2">
+        <v>31</v>
+      </c>
+      <c r="BX2">
+        <v>31</v>
+      </c>
+      <c r="BY2">
+        <v>31</v>
+      </c>
+      <c r="BZ2">
+        <v>32</v>
+      </c>
+      <c r="CA2">
+        <v>32</v>
+      </c>
+      <c r="CB2">
+        <v>33</v>
+      </c>
+      <c r="CC2">
+        <v>34</v>
+      </c>
+      <c r="CD2">
+        <v>35</v>
+      </c>
+      <c r="CE2">
+        <v>35</v>
+      </c>
+      <c r="CF2">
+        <v>35</v>
+      </c>
+      <c r="CG2">
+        <v>36</v>
+      </c>
+      <c r="CH2">
+        <v>36</v>
+      </c>
+      <c r="CI2">
+        <v>36</v>
+      </c>
+      <c r="CJ2">
+        <v>36</v>
+      </c>
+      <c r="CK2">
+        <v>37</v>
+      </c>
+      <c r="CL2">
+        <v>37</v>
+      </c>
+      <c r="CM2">
+        <v>37</v>
+      </c>
+      <c r="CN2">
+        <v>38</v>
+      </c>
+      <c r="CO2">
+        <v>39</v>
+      </c>
+      <c r="CP2">
+        <v>39</v>
+      </c>
+      <c r="CQ2">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="CR2">
+        <v>40</v>
+      </c>
+      <c r="CS2">
+        <v>40</v>
+      </c>
+      <c r="CT2">
+        <v>40</v>
+      </c>
+      <c r="CU2">
+        <v>40</v>
+      </c>
+      <c r="CV2">
+        <v>40</v>
+      </c>
+      <c r="CW2" s="41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -12193,11 +12509,158 @@
       <c r="AY3">
         <v>25</v>
       </c>
-      <c r="AZ3" s="3">
+      <c r="AZ3">
+        <v>25</v>
+      </c>
+      <c r="BA3">
+        <v>25</v>
+      </c>
+      <c r="BB3">
+        <v>25</v>
+      </c>
+      <c r="BC3">
+        <v>25</v>
+      </c>
+      <c r="BD3">
+        <v>25</v>
+      </c>
+      <c r="BE3">
+        <v>26</v>
+      </c>
+      <c r="BF3">
+        <v>26</v>
+      </c>
+      <c r="BG3">
+        <v>27</v>
+      </c>
+      <c r="BH3">
+        <v>27</v>
+      </c>
+      <c r="BI3">
+        <v>27</v>
+      </c>
+      <c r="BJ3">
+        <v>27</v>
+      </c>
+      <c r="BK3">
+        <v>28</v>
+      </c>
+      <c r="BL3">
+        <v>29</v>
+      </c>
+      <c r="BM3">
+        <v>29</v>
+      </c>
+      <c r="BN3">
+        <v>29</v>
+      </c>
+      <c r="BO3">
+        <v>30</v>
+      </c>
+      <c r="BP3">
+        <v>30</v>
+      </c>
+      <c r="BQ3">
+        <v>31</v>
+      </c>
+      <c r="BR3">
+        <v>31</v>
+      </c>
+      <c r="BS3">
+        <v>31</v>
+      </c>
+      <c r="BT3">
+        <v>32</v>
+      </c>
+      <c r="BU3">
+        <v>32</v>
+      </c>
+      <c r="BV3">
+        <v>33</v>
+      </c>
+      <c r="BW3">
+        <v>33</v>
+      </c>
+      <c r="BX3">
+        <v>33</v>
+      </c>
+      <c r="BY3">
+        <v>34</v>
+      </c>
+      <c r="BZ3">
+        <v>34</v>
+      </c>
+      <c r="CA3">
+        <v>35</v>
+      </c>
+      <c r="CB3">
+        <v>35</v>
+      </c>
+      <c r="CC3">
+        <v>35</v>
+      </c>
+      <c r="CD3">
+        <v>35</v>
+      </c>
+      <c r="CE3">
+        <v>36</v>
+      </c>
+      <c r="CF3">
+        <v>37</v>
+      </c>
+      <c r="CG3">
+        <v>37</v>
+      </c>
+      <c r="CH3">
+        <v>37</v>
+      </c>
+      <c r="CI3">
+        <v>38</v>
+      </c>
+      <c r="CJ3">
+        <v>39</v>
+      </c>
+      <c r="CK3">
+        <v>39</v>
+      </c>
+      <c r="CL3">
+        <v>40</v>
+      </c>
+      <c r="CM3">
+        <v>40</v>
+      </c>
+      <c r="CN3">
+        <v>40</v>
+      </c>
+      <c r="CO3">
+        <v>41</v>
+      </c>
+      <c r="CP3">
+        <v>41</v>
+      </c>
+      <c r="CQ3">
+        <v>42</v>
+      </c>
+      <c r="CR3">
+        <v>42</v>
+      </c>
+      <c r="CS3">
+        <v>43</v>
+      </c>
+      <c r="CT3">
+        <v>43</v>
+      </c>
+      <c r="CU3">
+        <v>44</v>
+      </c>
+      <c r="CV3">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="CW3" s="41">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -12351,11 +12814,158 @@
       <c r="AY4">
         <v>20</v>
       </c>
-      <c r="AZ4" s="3">
+      <c r="AZ4">
+        <v>21</v>
+      </c>
+      <c r="BA4">
+        <v>21</v>
+      </c>
+      <c r="BB4">
+        <v>22</v>
+      </c>
+      <c r="BC4">
+        <v>22</v>
+      </c>
+      <c r="BD4">
+        <v>23</v>
+      </c>
+      <c r="BE4">
+        <v>23</v>
+      </c>
+      <c r="BF4">
+        <v>24</v>
+      </c>
+      <c r="BG4">
+        <v>24</v>
+      </c>
+      <c r="BH4">
+        <v>25</v>
+      </c>
+      <c r="BI4">
+        <v>25</v>
+      </c>
+      <c r="BJ4">
+        <v>26</v>
+      </c>
+      <c r="BK4">
+        <v>26</v>
+      </c>
+      <c r="BL4">
+        <v>27</v>
+      </c>
+      <c r="BM4">
+        <v>27</v>
+      </c>
+      <c r="BN4">
+        <v>28</v>
+      </c>
+      <c r="BO4">
+        <v>28</v>
+      </c>
+      <c r="BP4">
+        <v>29</v>
+      </c>
+      <c r="BQ4">
+        <v>29</v>
+      </c>
+      <c r="BR4">
+        <v>30</v>
+      </c>
+      <c r="BS4">
+        <v>30</v>
+      </c>
+      <c r="BT4">
+        <v>31</v>
+      </c>
+      <c r="BU4">
+        <v>31</v>
+      </c>
+      <c r="BV4">
+        <v>32</v>
+      </c>
+      <c r="BW4">
+        <v>32</v>
+      </c>
+      <c r="BX4">
+        <v>33</v>
+      </c>
+      <c r="BY4">
+        <v>33</v>
+      </c>
+      <c r="BZ4">
+        <v>34</v>
+      </c>
+      <c r="CA4">
+        <v>34</v>
+      </c>
+      <c r="CB4">
+        <v>35</v>
+      </c>
+      <c r="CC4">
+        <v>35</v>
+      </c>
+      <c r="CD4">
+        <v>36</v>
+      </c>
+      <c r="CE4">
+        <v>36</v>
+      </c>
+      <c r="CF4">
+        <v>37</v>
+      </c>
+      <c r="CG4">
+        <v>37</v>
+      </c>
+      <c r="CH4">
+        <v>38</v>
+      </c>
+      <c r="CI4">
+        <v>38</v>
+      </c>
+      <c r="CJ4">
+        <v>39</v>
+      </c>
+      <c r="CK4">
+        <v>39</v>
+      </c>
+      <c r="CL4">
+        <v>40</v>
+      </c>
+      <c r="CM4">
+        <v>40</v>
+      </c>
+      <c r="CN4">
+        <v>41</v>
+      </c>
+      <c r="CO4">
+        <v>41</v>
+      </c>
+      <c r="CP4">
+        <v>42</v>
+      </c>
+      <c r="CQ4">
+        <v>42</v>
+      </c>
+      <c r="CR4">
+        <v>43</v>
+      </c>
+      <c r="CS4">
+        <v>43</v>
+      </c>
+      <c r="CT4">
+        <v>44</v>
+      </c>
+      <c r="CU4">
+        <v>44</v>
+      </c>
+      <c r="CV4">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="CW4" s="41">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -12509,11 +13119,158 @@
       <c r="AY5">
         <v>22</v>
       </c>
-      <c r="AZ5" s="3">
+      <c r="AZ5">
+        <v>22</v>
+      </c>
+      <c r="BA5">
+        <v>23</v>
+      </c>
+      <c r="BB5">
+        <v>24</v>
+      </c>
+      <c r="BC5">
+        <v>25</v>
+      </c>
+      <c r="BD5">
+        <v>25</v>
+      </c>
+      <c r="BE5">
+        <v>25</v>
+      </c>
+      <c r="BF5">
+        <v>26</v>
+      </c>
+      <c r="BG5">
+        <v>26</v>
+      </c>
+      <c r="BH5">
+        <v>27</v>
+      </c>
+      <c r="BI5">
+        <v>27</v>
+      </c>
+      <c r="BJ5">
+        <v>27</v>
+      </c>
+      <c r="BK5">
+        <v>28</v>
+      </c>
+      <c r="BL5">
+        <v>28</v>
+      </c>
+      <c r="BM5">
+        <v>29</v>
+      </c>
+      <c r="BN5">
+        <v>29</v>
+      </c>
+      <c r="BO5">
+        <v>30</v>
+      </c>
+      <c r="BP5">
+        <v>30</v>
+      </c>
+      <c r="BQ5">
+        <v>30</v>
+      </c>
+      <c r="BR5">
+        <v>31</v>
+      </c>
+      <c r="BS5">
+        <v>31</v>
+      </c>
+      <c r="BT5">
+        <v>31</v>
+      </c>
+      <c r="BU5">
+        <v>32</v>
+      </c>
+      <c r="BV5">
+        <v>32</v>
+      </c>
+      <c r="BW5">
+        <v>33</v>
+      </c>
+      <c r="BX5">
+        <v>33</v>
+      </c>
+      <c r="BY5">
+        <v>34</v>
+      </c>
+      <c r="BZ5">
+        <v>34</v>
+      </c>
+      <c r="CA5">
+        <v>35</v>
+      </c>
+      <c r="CB5">
+        <v>35</v>
+      </c>
+      <c r="CC5">
+        <v>35</v>
+      </c>
+      <c r="CD5">
+        <v>35</v>
+      </c>
+      <c r="CE5">
+        <v>36</v>
+      </c>
+      <c r="CF5">
+        <v>36</v>
+      </c>
+      <c r="CG5">
+        <v>37</v>
+      </c>
+      <c r="CH5">
+        <v>37</v>
+      </c>
+      <c r="CI5">
+        <v>38</v>
+      </c>
+      <c r="CJ5">
+        <v>38</v>
+      </c>
+      <c r="CK5">
+        <v>39</v>
+      </c>
+      <c r="CL5">
+        <v>39</v>
+      </c>
+      <c r="CM5">
+        <v>40</v>
+      </c>
+      <c r="CN5">
+        <v>40</v>
+      </c>
+      <c r="CO5">
+        <v>40</v>
+      </c>
+      <c r="CP5">
+        <v>41</v>
+      </c>
+      <c r="CQ5">
+        <v>41</v>
+      </c>
+      <c r="CR5">
+        <v>41</v>
+      </c>
+      <c r="CS5">
+        <v>42</v>
+      </c>
+      <c r="CT5">
+        <v>43</v>
+      </c>
+      <c r="CU5">
+        <v>44</v>
+      </c>
+      <c r="CV5">
+        <v>44</v>
+      </c>
+      <c r="CW5" s="41">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -12667,11 +13424,158 @@
       <c r="AY6">
         <v>50</v>
       </c>
-      <c r="AZ6" s="3">
+      <c r="AZ6">
+        <v>51</v>
+      </c>
+      <c r="BA6">
+        <v>52</v>
+      </c>
+      <c r="BB6">
+        <v>53</v>
+      </c>
+      <c r="BC6">
+        <v>54</v>
+      </c>
+      <c r="BD6">
+        <v>55</v>
+      </c>
+      <c r="BE6">
+        <v>56</v>
+      </c>
+      <c r="BF6">
+        <v>57</v>
+      </c>
+      <c r="BG6">
+        <v>58</v>
+      </c>
+      <c r="BH6">
+        <v>59</v>
+      </c>
+      <c r="BI6">
+        <v>60</v>
+      </c>
+      <c r="BJ6">
+        <v>61</v>
+      </c>
+      <c r="BK6">
+        <v>62</v>
+      </c>
+      <c r="BL6">
+        <v>63</v>
+      </c>
+      <c r="BM6">
+        <v>64</v>
+      </c>
+      <c r="BN6">
+        <v>65</v>
+      </c>
+      <c r="BO6">
+        <v>66</v>
+      </c>
+      <c r="BP6">
+        <v>67</v>
+      </c>
+      <c r="BQ6">
+        <v>68</v>
+      </c>
+      <c r="BR6">
+        <v>69</v>
+      </c>
+      <c r="BS6">
+        <v>70</v>
+      </c>
+      <c r="BT6">
+        <v>71</v>
+      </c>
+      <c r="BU6">
+        <v>72</v>
+      </c>
+      <c r="BV6">
+        <v>73</v>
+      </c>
+      <c r="BW6">
+        <v>74</v>
+      </c>
+      <c r="BX6">
+        <v>75</v>
+      </c>
+      <c r="BY6">
+        <v>76</v>
+      </c>
+      <c r="BZ6">
+        <v>77</v>
+      </c>
+      <c r="CA6">
+        <v>78</v>
+      </c>
+      <c r="CB6">
+        <v>79</v>
+      </c>
+      <c r="CC6">
+        <v>80</v>
+      </c>
+      <c r="CD6">
+        <v>81</v>
+      </c>
+      <c r="CE6">
+        <v>82</v>
+      </c>
+      <c r="CF6">
+        <v>83</v>
+      </c>
+      <c r="CG6">
+        <v>84</v>
+      </c>
+      <c r="CH6">
+        <v>85</v>
+      </c>
+      <c r="CI6">
+        <v>86</v>
+      </c>
+      <c r="CJ6">
+        <v>87</v>
+      </c>
+      <c r="CK6">
+        <v>88</v>
+      </c>
+      <c r="CL6">
+        <v>89</v>
+      </c>
+      <c r="CM6">
+        <v>90</v>
+      </c>
+      <c r="CN6">
+        <v>91</v>
+      </c>
+      <c r="CO6">
+        <v>92</v>
+      </c>
+      <c r="CP6">
+        <v>93</v>
+      </c>
+      <c r="CQ6">
+        <v>94</v>
+      </c>
+      <c r="CR6">
+        <v>95</v>
+      </c>
+      <c r="CS6">
+        <v>96</v>
+      </c>
+      <c r="CT6">
+        <v>97</v>
+      </c>
+      <c r="CU6">
+        <v>98</v>
+      </c>
+      <c r="CV6">
+        <v>99</v>
+      </c>
+      <c r="CW6" s="41">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -12825,11 +13729,158 @@
       <c r="AY7">
         <v>50</v>
       </c>
-      <c r="AZ7" s="3">
+      <c r="AZ7">
+        <v>51</v>
+      </c>
+      <c r="BA7">
+        <v>52</v>
+      </c>
+      <c r="BB7">
+        <v>53</v>
+      </c>
+      <c r="BC7">
+        <v>54</v>
+      </c>
+      <c r="BD7">
+        <v>55</v>
+      </c>
+      <c r="BE7">
+        <v>56</v>
+      </c>
+      <c r="BF7">
+        <v>57</v>
+      </c>
+      <c r="BG7">
+        <v>58</v>
+      </c>
+      <c r="BH7">
+        <v>59</v>
+      </c>
+      <c r="BI7">
+        <v>60</v>
+      </c>
+      <c r="BJ7">
+        <v>61</v>
+      </c>
+      <c r="BK7">
+        <v>62</v>
+      </c>
+      <c r="BL7">
+        <v>63</v>
+      </c>
+      <c r="BM7">
+        <v>64</v>
+      </c>
+      <c r="BN7">
+        <v>65</v>
+      </c>
+      <c r="BO7">
+        <v>66</v>
+      </c>
+      <c r="BP7">
+        <v>67</v>
+      </c>
+      <c r="BQ7">
+        <v>68</v>
+      </c>
+      <c r="BR7">
+        <v>69</v>
+      </c>
+      <c r="BS7">
+        <v>70</v>
+      </c>
+      <c r="BT7">
+        <v>71</v>
+      </c>
+      <c r="BU7">
+        <v>72</v>
+      </c>
+      <c r="BV7">
+        <v>73</v>
+      </c>
+      <c r="BW7">
+        <v>74</v>
+      </c>
+      <c r="BX7">
+        <v>75</v>
+      </c>
+      <c r="BY7">
+        <v>76</v>
+      </c>
+      <c r="BZ7">
+        <v>77</v>
+      </c>
+      <c r="CA7">
+        <v>78</v>
+      </c>
+      <c r="CB7">
+        <v>79</v>
+      </c>
+      <c r="CC7">
+        <v>80</v>
+      </c>
+      <c r="CD7">
+        <v>81</v>
+      </c>
+      <c r="CE7">
+        <v>82</v>
+      </c>
+      <c r="CF7">
+        <v>83</v>
+      </c>
+      <c r="CG7">
+        <v>84</v>
+      </c>
+      <c r="CH7">
+        <v>85</v>
+      </c>
+      <c r="CI7">
+        <v>86</v>
+      </c>
+      <c r="CJ7">
+        <v>87</v>
+      </c>
+      <c r="CK7">
+        <v>88</v>
+      </c>
+      <c r="CL7">
+        <v>89</v>
+      </c>
+      <c r="CM7">
+        <v>90</v>
+      </c>
+      <c r="CN7">
+        <v>91</v>
+      </c>
+      <c r="CO7">
+        <v>92</v>
+      </c>
+      <c r="CP7">
+        <v>93</v>
+      </c>
+      <c r="CQ7">
+        <v>94</v>
+      </c>
+      <c r="CR7">
+        <v>95</v>
+      </c>
+      <c r="CS7">
+        <v>96</v>
+      </c>
+      <c r="CT7">
+        <v>97</v>
+      </c>
+      <c r="CU7">
+        <v>98</v>
+      </c>
+      <c r="CV7">
+        <v>99</v>
+      </c>
+      <c r="CW7" s="41">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -12983,11 +14034,158 @@
       <c r="AY8">
         <v>50</v>
       </c>
-      <c r="AZ8" s="3">
+      <c r="AZ8">
+        <v>51</v>
+      </c>
+      <c r="BA8">
+        <v>52</v>
+      </c>
+      <c r="BB8">
+        <v>53</v>
+      </c>
+      <c r="BC8">
+        <v>54</v>
+      </c>
+      <c r="BD8">
+        <v>55</v>
+      </c>
+      <c r="BE8">
+        <v>56</v>
+      </c>
+      <c r="BF8">
+        <v>57</v>
+      </c>
+      <c r="BG8">
+        <v>58</v>
+      </c>
+      <c r="BH8">
+        <v>59</v>
+      </c>
+      <c r="BI8">
+        <v>60</v>
+      </c>
+      <c r="BJ8">
+        <v>61</v>
+      </c>
+      <c r="BK8">
+        <v>62</v>
+      </c>
+      <c r="BL8">
+        <v>63</v>
+      </c>
+      <c r="BM8">
+        <v>64</v>
+      </c>
+      <c r="BN8">
+        <v>65</v>
+      </c>
+      <c r="BO8">
+        <v>66</v>
+      </c>
+      <c r="BP8">
+        <v>67</v>
+      </c>
+      <c r="BQ8">
+        <v>68</v>
+      </c>
+      <c r="BR8">
+        <v>69</v>
+      </c>
+      <c r="BS8">
+        <v>70</v>
+      </c>
+      <c r="BT8">
+        <v>71</v>
+      </c>
+      <c r="BU8">
+        <v>72</v>
+      </c>
+      <c r="BV8">
+        <v>73</v>
+      </c>
+      <c r="BW8">
+        <v>74</v>
+      </c>
+      <c r="BX8">
+        <v>75</v>
+      </c>
+      <c r="BY8">
+        <v>76</v>
+      </c>
+      <c r="BZ8">
+        <v>77</v>
+      </c>
+      <c r="CA8">
+        <v>78</v>
+      </c>
+      <c r="CB8">
+        <v>79</v>
+      </c>
+      <c r="CC8">
+        <v>80</v>
+      </c>
+      <c r="CD8">
+        <v>81</v>
+      </c>
+      <c r="CE8">
+        <v>82</v>
+      </c>
+      <c r="CF8">
+        <v>83</v>
+      </c>
+      <c r="CG8">
+        <v>84</v>
+      </c>
+      <c r="CH8">
+        <v>85</v>
+      </c>
+      <c r="CI8">
+        <v>86</v>
+      </c>
+      <c r="CJ8">
+        <v>87</v>
+      </c>
+      <c r="CK8">
+        <v>88</v>
+      </c>
+      <c r="CL8">
+        <v>89</v>
+      </c>
+      <c r="CM8">
+        <v>90</v>
+      </c>
+      <c r="CN8">
+        <v>91</v>
+      </c>
+      <c r="CO8">
+        <v>92</v>
+      </c>
+      <c r="CP8">
+        <v>93</v>
+      </c>
+      <c r="CQ8">
+        <v>94</v>
+      </c>
+      <c r="CR8">
+        <v>95</v>
+      </c>
+      <c r="CS8">
+        <v>96</v>
+      </c>
+      <c r="CT8">
+        <v>97</v>
+      </c>
+      <c r="CU8">
+        <v>98</v>
+      </c>
+      <c r="CV8">
+        <v>99</v>
+      </c>
+      <c r="CW8" s="41">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>53</v>
       </c>
@@ -13141,17 +14339,164 @@
       <c r="AY9" s="30">
         <v>15</v>
       </c>
-      <c r="AZ9" s="10">
+      <c r="AZ9" s="30">
+        <v>15</v>
+      </c>
+      <c r="BA9" s="30">
+        <v>15</v>
+      </c>
+      <c r="BB9" s="30">
+        <v>15</v>
+      </c>
+      <c r="BC9" s="30">
+        <v>15</v>
+      </c>
+      <c r="BD9" s="30">
+        <v>16</v>
+      </c>
+      <c r="BE9" s="30">
+        <v>16</v>
+      </c>
+      <c r="BF9" s="30">
+        <v>16</v>
+      </c>
+      <c r="BG9" s="30">
+        <v>16</v>
+      </c>
+      <c r="BH9" s="30">
+        <v>16</v>
+      </c>
+      <c r="BI9" s="30">
+        <v>17</v>
+      </c>
+      <c r="BJ9" s="30">
+        <v>17</v>
+      </c>
+      <c r="BK9" s="30">
+        <v>17</v>
+      </c>
+      <c r="BL9" s="30">
+        <v>17</v>
+      </c>
+      <c r="BM9" s="30">
+        <v>17</v>
+      </c>
+      <c r="BN9" s="30">
+        <v>18</v>
+      </c>
+      <c r="BO9" s="30">
+        <v>18</v>
+      </c>
+      <c r="BP9" s="30">
+        <v>18</v>
+      </c>
+      <c r="BQ9" s="30">
+        <v>18</v>
+      </c>
+      <c r="BR9" s="30">
+        <v>18</v>
+      </c>
+      <c r="BS9" s="30">
+        <v>19</v>
+      </c>
+      <c r="BT9" s="30">
+        <v>19</v>
+      </c>
+      <c r="BU9" s="30">
+        <v>19</v>
+      </c>
+      <c r="BV9" s="30">
+        <v>19</v>
+      </c>
+      <c r="BW9" s="30">
+        <v>19</v>
+      </c>
+      <c r="BX9" s="30">
+        <v>20</v>
+      </c>
+      <c r="BY9" s="30">
+        <v>20</v>
+      </c>
+      <c r="BZ9" s="30">
+        <v>20</v>
+      </c>
+      <c r="CA9" s="30">
+        <v>20</v>
+      </c>
+      <c r="CB9" s="30">
+        <v>20</v>
+      </c>
+      <c r="CC9" s="30">
+        <v>21</v>
+      </c>
+      <c r="CD9" s="30">
+        <v>21</v>
+      </c>
+      <c r="CE9" s="30">
+        <v>21</v>
+      </c>
+      <c r="CF9" s="30">
+        <v>21</v>
+      </c>
+      <c r="CG9" s="30">
+        <v>21</v>
+      </c>
+      <c r="CH9" s="30">
+        <v>22</v>
+      </c>
+      <c r="CI9" s="30">
+        <v>22</v>
+      </c>
+      <c r="CJ9" s="30">
+        <v>22</v>
+      </c>
+      <c r="CK9" s="30">
+        <v>22</v>
+      </c>
+      <c r="CL9" s="30">
+        <v>22</v>
+      </c>
+      <c r="CM9" s="30">
+        <v>23</v>
+      </c>
+      <c r="CN9" s="30">
+        <v>23</v>
+      </c>
+      <c r="CO9" s="30">
+        <v>23</v>
+      </c>
+      <c r="CP9" s="30">
+        <v>23</v>
+      </c>
+      <c r="CQ9" s="30">
+        <v>23</v>
+      </c>
+      <c r="CR9" s="30">
+        <v>24</v>
+      </c>
+      <c r="CS9" s="30">
+        <v>24</v>
+      </c>
+      <c r="CT9" s="30">
+        <v>24</v>
+      </c>
+      <c r="CU9" s="30">
+        <v>24</v>
+      </c>
+      <c r="CV9" s="30">
+        <v>24</v>
+      </c>
+      <c r="CW9" s="42">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:102" x14ac:dyDescent="0.3">
       <c r="B10">
         <f>SUM(B2:B9)</f>
         <v>5</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:AZ10" si="0">SUM(C2:C9)</f>
+        <f t="shared" ref="C10:CW10" si="0">SUM(C2:C9)</f>
         <v>10</v>
       </c>
       <c r="D10">
@@ -13346,12 +14691,208 @@
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="AZ10" s="3">
+      <c r="AZ10">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="BA10">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="BB10">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+      <c r="BC10">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="BD10">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+      <c r="BE10">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="BF10">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+      <c r="BG10">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="BH10">
+        <f t="shared" si="0"/>
+        <v>295</v>
+      </c>
+      <c r="BI10">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="BJ10">
+        <f t="shared" si="0"/>
+        <v>305</v>
+      </c>
+      <c r="BK10">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="BL10">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="BM10">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="BN10">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+      <c r="BO10">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="BP10">
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+      <c r="BQ10">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="BR10">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
+      <c r="BS10">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="BT10">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+      <c r="BU10">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="BV10">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="BW10">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="BX10">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="BY10">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="BZ10">
+        <f t="shared" si="0"/>
+        <v>385</v>
+      </c>
+      <c r="CA10">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="CB10">
+        <f t="shared" si="0"/>
+        <v>395</v>
+      </c>
+      <c r="CC10">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="CD10">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
+      <c r="CE10">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
+      <c r="CF10">
+        <f t="shared" si="0"/>
+        <v>415</v>
+      </c>
+      <c r="CG10">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="CH10">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+      <c r="CI10">
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+      <c r="CJ10">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
+      <c r="CK10">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+      <c r="CL10">
+        <f t="shared" si="0"/>
+        <v>445</v>
+      </c>
+      <c r="CM10">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="CN10">
+        <f t="shared" si="0"/>
+        <v>455</v>
+      </c>
+      <c r="CO10">
+        <f t="shared" si="0"/>
+        <v>460</v>
+      </c>
+      <c r="CP10">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="CQ10">
+        <f t="shared" si="0"/>
+        <v>470</v>
+      </c>
+      <c r="CR10">
+        <f>SUM(CR2:CR9)</f>
+        <v>475</v>
+      </c>
+      <c r="CS10">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="CT10">
+        <f t="shared" si="0"/>
+        <v>485</v>
+      </c>
+      <c r="CU10">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="CV10">
+        <f t="shared" si="0"/>
+        <v>495</v>
+      </c>
+      <c r="CW10" s="41">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:102" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -13649,11 +15190,11 @@
       <c r="CV13" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="CW13" t="s">
+      <c r="CW13" s="41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -13954,11 +15495,11 @@
       <c r="CV14">
         <v>99</v>
       </c>
-      <c r="CW14">
+      <c r="CW14" s="41">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -14259,11 +15800,11 @@
       <c r="CV15">
         <v>99</v>
       </c>
-      <c r="CW15">
+      <c r="CW15" s="41">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -14564,7 +16105,7 @@
       <c r="CV16">
         <v>99</v>
       </c>
-      <c r="CW16">
+      <c r="CW16" s="41">
         <v>100</v>
       </c>
     </row>
@@ -14869,7 +16410,7 @@
       <c r="CV17">
         <v>99</v>
       </c>
-      <c r="CW17">
+      <c r="CW17" s="41">
         <v>100</v>
       </c>
     </row>
@@ -15174,7 +16715,7 @@
       <c r="CV18">
         <v>40</v>
       </c>
-      <c r="CW18">
+      <c r="CW18" s="41">
         <v>40</v>
       </c>
     </row>
@@ -15479,7 +17020,7 @@
       <c r="CV19">
         <v>25</v>
       </c>
-      <c r="CW19">
+      <c r="CW19" s="41">
         <v>25</v>
       </c>
     </row>
@@ -15784,7 +17325,7 @@
       <c r="CV20">
         <v>25</v>
       </c>
-      <c r="CW20">
+      <c r="CW20" s="41">
         <v>25</v>
       </c>
     </row>
@@ -16089,7 +17630,7 @@
       <c r="CV21" s="30">
         <v>9</v>
       </c>
-      <c r="CW21" s="30">
+      <c r="CW21" s="42">
         <v>10</v>
       </c>
     </row>
@@ -16490,7 +18031,7 @@
         <f t="shared" ref="CV22" si="16">SUM(CV14:CV21)</f>
         <v>495</v>
       </c>
-      <c r="CW22">
+      <c r="CW22" s="41">
         <f t="shared" ref="CW22" si="17">SUM(CW14:CW21)</f>
         <v>500</v>
       </c>
@@ -17824,7 +19365,7 @@
       <c r="CV38">
         <v>44</v>
       </c>
-      <c r="CW38">
+      <c r="CW38" s="41">
         <v>45</v>
       </c>
     </row>
@@ -18129,7 +19670,7 @@
       <c r="CV39">
         <v>50</v>
       </c>
-      <c r="CW39">
+      <c r="CW39" s="41">
         <v>50</v>
       </c>
     </row>
@@ -18434,7 +19975,7 @@
       <c r="CV40">
         <v>69</v>
       </c>
-      <c r="CW40">
+      <c r="CW40" s="41">
         <v>70</v>
       </c>
     </row>
@@ -18739,7 +20280,7 @@
       <c r="CV41">
         <v>50</v>
       </c>
-      <c r="CW41">
+      <c r="CW41" s="41">
         <v>50</v>
       </c>
     </row>
@@ -19044,7 +20585,7 @@
       <c r="CV42">
         <v>80</v>
       </c>
-      <c r="CW42">
+      <c r="CW42" s="41">
         <v>80</v>
       </c>
     </row>
@@ -19349,7 +20890,7 @@
       <c r="CV43">
         <v>89</v>
       </c>
-      <c r="CW43">
+      <c r="CW43" s="41">
         <v>90</v>
       </c>
     </row>
@@ -19654,7 +21195,7 @@
       <c r="CV44">
         <v>89</v>
       </c>
-      <c r="CW44">
+      <c r="CW44" s="41">
         <v>90</v>
       </c>
     </row>
@@ -19959,7 +21500,7 @@
       <c r="CV45" s="30">
         <v>24</v>
       </c>
-      <c r="CW45" s="30">
+      <c r="CW45" s="42">
         <v>25</v>
       </c>
     </row>
@@ -20360,10 +21901,756 @@
         <f t="shared" si="25"/>
         <v>495</v>
       </c>
-      <c r="CW46">
+      <c r="CW46" s="41">
         <f>SUM(CW38:CW45)</f>
         <v>500</v>
       </c>
+    </row>
+    <row r="49" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I49" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J49" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="K49" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="L49" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="M49" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="N49" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="O49" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="P49" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q49" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="R49" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="S49" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="T49" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="U49" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="V49" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="CW49"/>
+      <c r="DK49" s="41"/>
+    </row>
+    <row r="50" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+      <c r="L50">
+        <v>6</v>
+      </c>
+      <c r="M50">
+        <v>6</v>
+      </c>
+      <c r="N50">
+        <v>6</v>
+      </c>
+      <c r="O50">
+        <v>6</v>
+      </c>
+      <c r="P50">
+        <v>7</v>
+      </c>
+      <c r="Q50">
+        <v>7</v>
+      </c>
+      <c r="R50">
+        <v>8</v>
+      </c>
+      <c r="S50">
+        <v>8</v>
+      </c>
+      <c r="T50">
+        <v>8</v>
+      </c>
+      <c r="U50" s="41">
+        <v>8</v>
+      </c>
+      <c r="V50" s="3">
+        <v>25</v>
+      </c>
+      <c r="W50" s="3">
+        <v>50</v>
+      </c>
+      <c r="CW50"/>
+      <c r="DK50" s="41"/>
+    </row>
+    <row r="51" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+      <c r="J51">
+        <v>6</v>
+      </c>
+      <c r="K51">
+        <v>7</v>
+      </c>
+      <c r="L51">
+        <v>7</v>
+      </c>
+      <c r="M51">
+        <v>8</v>
+      </c>
+      <c r="N51">
+        <v>8</v>
+      </c>
+      <c r="O51">
+        <v>9</v>
+      </c>
+      <c r="P51">
+        <v>9</v>
+      </c>
+      <c r="Q51">
+        <v>10</v>
+      </c>
+      <c r="R51">
+        <v>10</v>
+      </c>
+      <c r="S51">
+        <v>11</v>
+      </c>
+      <c r="T51">
+        <v>11</v>
+      </c>
+      <c r="U51" s="41">
+        <v>12</v>
+      </c>
+      <c r="V51" s="3">
+        <v>27</v>
+      </c>
+      <c r="W51" s="3">
+        <v>55</v>
+      </c>
+      <c r="CW51"/>
+      <c r="DK51" s="41"/>
+    </row>
+    <row r="52" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <v>6</v>
+      </c>
+      <c r="L52">
+        <v>6</v>
+      </c>
+      <c r="M52">
+        <v>7</v>
+      </c>
+      <c r="N52">
+        <v>8</v>
+      </c>
+      <c r="O52">
+        <v>8</v>
+      </c>
+      <c r="P52">
+        <v>9</v>
+      </c>
+      <c r="Q52">
+        <v>10</v>
+      </c>
+      <c r="R52">
+        <v>10</v>
+      </c>
+      <c r="S52">
+        <v>11</v>
+      </c>
+      <c r="T52">
+        <v>12</v>
+      </c>
+      <c r="U52" s="41">
+        <v>12</v>
+      </c>
+      <c r="V52" s="3">
+        <v>26</v>
+      </c>
+      <c r="W52" s="3">
+        <v>60</v>
+      </c>
+      <c r="CW52"/>
+      <c r="DK52" s="41"/>
+    </row>
+    <row r="53" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <v>6</v>
+      </c>
+      <c r="K53">
+        <v>6</v>
+      </c>
+      <c r="L53">
+        <v>7</v>
+      </c>
+      <c r="M53">
+        <v>7</v>
+      </c>
+      <c r="N53">
+        <v>8</v>
+      </c>
+      <c r="O53">
+        <v>9</v>
+      </c>
+      <c r="P53">
+        <v>9</v>
+      </c>
+      <c r="Q53">
+        <v>9</v>
+      </c>
+      <c r="R53">
+        <v>10</v>
+      </c>
+      <c r="S53">
+        <v>10</v>
+      </c>
+      <c r="T53">
+        <v>11</v>
+      </c>
+      <c r="U53" s="41">
+        <v>12</v>
+      </c>
+      <c r="V53" s="3">
+        <v>27</v>
+      </c>
+      <c r="W53" s="3">
+        <v>50</v>
+      </c>
+      <c r="CW53"/>
+      <c r="DK53" s="41"/>
+    </row>
+    <row r="54" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <v>6</v>
+      </c>
+      <c r="K54">
+        <v>6</v>
+      </c>
+      <c r="L54">
+        <v>7</v>
+      </c>
+      <c r="M54">
+        <v>8</v>
+      </c>
+      <c r="N54">
+        <v>9</v>
+      </c>
+      <c r="O54">
+        <v>10</v>
+      </c>
+      <c r="P54">
+        <v>11</v>
+      </c>
+      <c r="Q54">
+        <v>12</v>
+      </c>
+      <c r="R54">
+        <v>13</v>
+      </c>
+      <c r="S54">
+        <v>14</v>
+      </c>
+      <c r="T54">
+        <v>15</v>
+      </c>
+      <c r="U54" s="41">
+        <v>16</v>
+      </c>
+      <c r="V54" s="3">
+        <v>45</v>
+      </c>
+      <c r="W54" s="3">
+        <v>70</v>
+      </c>
+      <c r="CW54"/>
+      <c r="DK54" s="41"/>
+    </row>
+    <row r="55" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>6</v>
+      </c>
+      <c r="H55">
+        <v>7</v>
+      </c>
+      <c r="I55">
+        <v>8</v>
+      </c>
+      <c r="J55">
+        <v>9</v>
+      </c>
+      <c r="K55">
+        <v>10</v>
+      </c>
+      <c r="L55">
+        <v>11</v>
+      </c>
+      <c r="M55">
+        <v>12</v>
+      </c>
+      <c r="N55">
+        <v>13</v>
+      </c>
+      <c r="O55">
+        <v>14</v>
+      </c>
+      <c r="P55">
+        <v>15</v>
+      </c>
+      <c r="Q55">
+        <v>16</v>
+      </c>
+      <c r="R55">
+        <v>17</v>
+      </c>
+      <c r="S55">
+        <v>18</v>
+      </c>
+      <c r="T55">
+        <v>19</v>
+      </c>
+      <c r="U55" s="41">
+        <v>20</v>
+      </c>
+      <c r="V55" s="3">
+        <v>50</v>
+      </c>
+      <c r="W55" s="3">
+        <v>100</v>
+      </c>
+      <c r="CW55"/>
+      <c r="DK55" s="41"/>
+    </row>
+    <row r="56" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+      <c r="H56">
+        <v>6</v>
+      </c>
+      <c r="I56">
+        <v>7</v>
+      </c>
+      <c r="J56">
+        <v>8</v>
+      </c>
+      <c r="K56">
+        <v>9</v>
+      </c>
+      <c r="L56">
+        <v>10</v>
+      </c>
+      <c r="M56">
+        <v>11</v>
+      </c>
+      <c r="N56">
+        <v>12</v>
+      </c>
+      <c r="O56">
+        <v>13</v>
+      </c>
+      <c r="P56">
+        <v>14</v>
+      </c>
+      <c r="Q56">
+        <v>15</v>
+      </c>
+      <c r="R56">
+        <v>16</v>
+      </c>
+      <c r="S56">
+        <v>17</v>
+      </c>
+      <c r="T56">
+        <v>18</v>
+      </c>
+      <c r="U56" s="41">
+        <v>18</v>
+      </c>
+      <c r="V56" s="3">
+        <v>45</v>
+      </c>
+      <c r="W56" s="3">
+        <v>90</v>
+      </c>
+      <c r="CW56"/>
+      <c r="DK56" s="41"/>
+    </row>
+    <row r="57" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="A57" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="30">
+        <v>0</v>
+      </c>
+      <c r="C57" s="30">
+        <v>0</v>
+      </c>
+      <c r="D57" s="30">
+        <v>0</v>
+      </c>
+      <c r="E57" s="30">
+        <v>0</v>
+      </c>
+      <c r="F57" s="30">
+        <v>1</v>
+      </c>
+      <c r="G57" s="30">
+        <v>1</v>
+      </c>
+      <c r="H57" s="30">
+        <v>1</v>
+      </c>
+      <c r="I57" s="30">
+        <v>1</v>
+      </c>
+      <c r="J57" s="30">
+        <v>1</v>
+      </c>
+      <c r="K57" s="30">
+        <v>1</v>
+      </c>
+      <c r="L57" s="30">
+        <v>1</v>
+      </c>
+      <c r="M57" s="30">
+        <v>1</v>
+      </c>
+      <c r="N57" s="30">
+        <v>1</v>
+      </c>
+      <c r="O57" s="30">
+        <v>1</v>
+      </c>
+      <c r="P57" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="30">
+        <v>1</v>
+      </c>
+      <c r="R57" s="30">
+        <v>1</v>
+      </c>
+      <c r="S57" s="30">
+        <v>1</v>
+      </c>
+      <c r="T57" s="30">
+        <v>1</v>
+      </c>
+      <c r="U57" s="42">
+        <v>2</v>
+      </c>
+      <c r="V57" s="10">
+        <v>5</v>
+      </c>
+      <c r="W57" s="10">
+        <v>25</v>
+      </c>
+      <c r="CW57"/>
+      <c r="DK57" s="41"/>
+    </row>
+    <row r="58" spans="1:115" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <f>SUM(B50:B57)</f>
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ref="C58:F58" si="26">SUM(C50:C57)</f>
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="26"/>
+        <v>15</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="26"/>
+        <v>20</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="G58">
+        <f t="shared" ref="G58" si="27">SUM(G50:G57)</f>
+        <v>30</v>
+      </c>
+      <c r="H58">
+        <f t="shared" ref="H58" si="28">SUM(H50:H57)</f>
+        <v>35</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ref="I58" si="29">SUM(I50:I57)</f>
+        <v>40</v>
+      </c>
+      <c r="J58">
+        <f t="shared" ref="J58" si="30">SUM(J50:J57)</f>
+        <v>45</v>
+      </c>
+      <c r="K58">
+        <f t="shared" ref="K58" si="31">SUM(K50:K57)</f>
+        <v>50</v>
+      </c>
+      <c r="L58">
+        <f t="shared" ref="L58" si="32">SUM(L50:L57)</f>
+        <v>55</v>
+      </c>
+      <c r="M58">
+        <f t="shared" ref="M58" si="33">SUM(M50:M57)</f>
+        <v>60</v>
+      </c>
+      <c r="N58">
+        <f t="shared" ref="N58" si="34">SUM(N50:N57)</f>
+        <v>65</v>
+      </c>
+      <c r="O58">
+        <f t="shared" ref="O58" si="35">SUM(O50:O57)</f>
+        <v>70</v>
+      </c>
+      <c r="P58">
+        <f t="shared" ref="P58" si="36">SUM(P50:P57)</f>
+        <v>75</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" ref="Q58" si="37">SUM(Q50:Q57)</f>
+        <v>80</v>
+      </c>
+      <c r="R58">
+        <f t="shared" ref="R58" si="38">SUM(R50:R57)</f>
+        <v>85</v>
+      </c>
+      <c r="S58">
+        <f t="shared" ref="S58" si="39">SUM(S50:S57)</f>
+        <v>90</v>
+      </c>
+      <c r="T58">
+        <f t="shared" ref="T58" si="40">SUM(T50:T57)</f>
+        <v>95</v>
+      </c>
+      <c r="U58">
+        <f t="shared" ref="U58" si="41">SUM(U50:U57)</f>
+        <v>100</v>
+      </c>
+      <c r="V58">
+        <f t="shared" ref="V58" si="42">SUM(V50:V57)</f>
+        <v>250</v>
+      </c>
+      <c r="W58">
+        <f t="shared" ref="W58" si="43">SUM(W50:W57)</f>
+        <v>500</v>
+      </c>
+      <c r="CW58"/>
+      <c r="DK58" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/caste_system.xlsx
+++ b/doc/caste_system.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/349dfb9748b30a92/Asztali gép/ataliasflame_2.0/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6652" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F17CFFB6-CA48-4264-AC04-DAC12A063A31}"/>
+  <xr:revisionPtr revIDLastSave="7618" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF92B959-0A93-4354-AC26-B19CB8EBFB5F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
   </bookViews>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="85">
   <si>
     <t>csavargó</t>
   </si>
@@ -2012,7 +2012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2084,8 +2084,22 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -2407,7 +2421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E471BE-CB76-416C-8A0D-8BCD59B0033A}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3522,163 +3538,163 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="3" t="s">
+      <c r="C21" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R21" s="2" t="s">
+      <c r="J21" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" s="44" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="C22" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R22" s="2" t="s">
+      <c r="J22" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="R22" s="44" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="39"/>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="3" t="s">
+      <c r="C23" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R23" s="2" t="s">
+      <c r="J23" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" s="44" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4574,9 +4590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47799533-6B34-4949-9561-D6B03DB6E4FC}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4685,13 +4699,13 @@
       <c r="Y1" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="44" t="s">
         <v>20</v>
       </c>
       <c r="AC1" t="s">
@@ -4774,13 +4788,13 @@
       <c r="Y2">
         <v>3</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="Z2" s="43">
         <v>8</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AA2" s="43">
         <v>25</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="44">
         <v>50</v>
       </c>
       <c r="AC2">
@@ -4864,13 +4878,13 @@
       <c r="Y3">
         <v>3</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="43">
         <v>12</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3" s="43">
         <v>27</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="44">
         <v>55</v>
       </c>
       <c r="AC3">
@@ -4954,13 +4968,13 @@
       <c r="Y4">
         <v>2</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="43">
         <v>12</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="43">
         <v>26</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="44">
         <v>60</v>
       </c>
       <c r="AC4">
@@ -5044,13 +5058,13 @@
       <c r="Y5">
         <v>3</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="Z5" s="43">
         <v>12</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AA5" s="43">
         <v>27</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="44">
         <v>50</v>
       </c>
       <c r="AC5">
@@ -5134,13 +5148,13 @@
       <c r="Y6">
         <v>4</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="43">
         <v>16</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6" s="43">
         <v>45</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6" s="44">
         <v>70</v>
       </c>
       <c r="AC6">
@@ -5224,13 +5238,13 @@
       <c r="Y7">
         <v>5</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z7" s="43">
         <v>20</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA7" s="43">
         <v>50</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="44">
         <v>100</v>
       </c>
       <c r="AC7">
@@ -5314,13 +5328,13 @@
       <c r="Y8">
         <v>4</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="43">
         <v>18</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA8" s="43">
         <v>45</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AB8" s="44">
         <v>90</v>
       </c>
       <c r="AC8">
@@ -5404,13 +5418,13 @@
       <c r="Y9" s="27">
         <v>1</v>
       </c>
-      <c r="Z9" s="7">
+      <c r="Z9" s="45">
         <v>2</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="AA9" s="45">
         <v>5</v>
       </c>
-      <c r="AB9" s="4">
+      <c r="AB9" s="46">
         <v>25</v>
       </c>
       <c r="AC9" s="33">
@@ -11700,8 +11714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD573711-C846-40DC-8629-19A685998D3E}">
   <dimension ref="A1:CX58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD40" workbookViewId="0">
-      <selection activeCell="AY59" sqref="AY59"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="CS49" sqref="CS49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11717,8 +11731,7 @@
     <col min="24" max="47" width="4" bestFit="1" customWidth="1"/>
     <col min="48" max="50" width="4" customWidth="1"/>
     <col min="51" max="51" width="16" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="53" max="55" width="4" bestFit="1" customWidth="1"/>
+    <col min="52" max="55" width="4" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="4" customWidth="1"/>
     <col min="57" max="100" width="4" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="10.5546875" bestFit="1" customWidth="1"/>
@@ -21886,7 +21899,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:101" x14ac:dyDescent="0.3">
       <c r="B49" s="36" t="s">
         <v>0</v>
       </c>
@@ -21944,7 +21957,7 @@
       <c r="T49" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="U49" s="34" t="s">
+      <c r="U49" s="47" t="s">
         <v>18</v>
       </c>
       <c r="V49" s="28" t="s">
@@ -22034,14 +22047,161 @@
       <c r="AX49" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="AY49" s="34" t="s">
+      <c r="AY49" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="AZ49" s="34" t="s">
+      <c r="AZ49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI49" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BP49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BQ49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS49" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="BT49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BV49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BW49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BX49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BY49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BZ49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CA49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CB49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CC49" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="CD49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CH49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CI49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CJ49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CK49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CL49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CM49" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="CN49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CO49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CP49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CQ49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CR49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CS49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CT49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CU49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CV49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CW49" s="47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -22192,14 +22352,161 @@
       <c r="AX50">
         <v>23</v>
       </c>
-      <c r="AY50" s="41">
+      <c r="AY50">
         <v>25</v>
       </c>
-      <c r="AZ50" s="3">
+      <c r="AZ50">
+        <v>26</v>
+      </c>
+      <c r="BA50">
+        <v>26</v>
+      </c>
+      <c r="BB50">
+        <v>27</v>
+      </c>
+      <c r="BC50">
+        <v>27</v>
+      </c>
+      <c r="BD50">
+        <v>28</v>
+      </c>
+      <c r="BE50">
+        <v>28</v>
+      </c>
+      <c r="BF50">
+        <v>29</v>
+      </c>
+      <c r="BG50">
+        <v>29</v>
+      </c>
+      <c r="BH50">
+        <v>30</v>
+      </c>
+      <c r="BI50">
+        <v>30</v>
+      </c>
+      <c r="BJ50">
+        <v>31</v>
+      </c>
+      <c r="BK50">
+        <v>31</v>
+      </c>
+      <c r="BL50">
+        <v>32</v>
+      </c>
+      <c r="BM50">
+        <v>32</v>
+      </c>
+      <c r="BN50">
+        <v>33</v>
+      </c>
+      <c r="BO50">
+        <v>33</v>
+      </c>
+      <c r="BP50">
+        <v>34</v>
+      </c>
+      <c r="BQ50">
+        <v>34</v>
+      </c>
+      <c r="BR50">
+        <v>35</v>
+      </c>
+      <c r="BS50">
+        <v>35</v>
+      </c>
+      <c r="BT50">
+        <v>36</v>
+      </c>
+      <c r="BU50">
+        <v>36</v>
+      </c>
+      <c r="BV50">
+        <v>37</v>
+      </c>
+      <c r="BW50">
+        <v>37</v>
+      </c>
+      <c r="BX50">
+        <v>38</v>
+      </c>
+      <c r="BY50">
+        <v>38</v>
+      </c>
+      <c r="BZ50">
+        <v>39</v>
+      </c>
+      <c r="CA50">
+        <v>39</v>
+      </c>
+      <c r="CB50">
+        <v>40</v>
+      </c>
+      <c r="CC50">
+        <v>40</v>
+      </c>
+      <c r="CD50">
+        <v>41</v>
+      </c>
+      <c r="CE50">
+        <v>41</v>
+      </c>
+      <c r="CF50">
+        <v>42</v>
+      </c>
+      <c r="CG50">
+        <v>42</v>
+      </c>
+      <c r="CH50">
+        <v>43</v>
+      </c>
+      <c r="CI50">
+        <v>43</v>
+      </c>
+      <c r="CJ50">
+        <v>44</v>
+      </c>
+      <c r="CK50">
+        <v>44</v>
+      </c>
+      <c r="CL50">
+        <v>45</v>
+      </c>
+      <c r="CM50">
+        <v>45</v>
+      </c>
+      <c r="CN50">
+        <v>46</v>
+      </c>
+      <c r="CO50">
+        <v>46</v>
+      </c>
+      <c r="CP50">
+        <v>47</v>
+      </c>
+      <c r="CQ50">
+        <v>47</v>
+      </c>
+      <c r="CR50">
+        <v>48</v>
+      </c>
+      <c r="CS50">
+        <v>48</v>
+      </c>
+      <c r="CT50">
+        <v>49</v>
+      </c>
+      <c r="CU50">
+        <v>49</v>
+      </c>
+      <c r="CV50">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="CW50" s="43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -22350,14 +22657,161 @@
       <c r="AX51">
         <v>27</v>
       </c>
-      <c r="AY51" s="41">
+      <c r="AY51">
         <v>27</v>
       </c>
-      <c r="AZ51" s="3">
+      <c r="AZ51">
+        <v>28</v>
+      </c>
+      <c r="BA51">
+        <v>29</v>
+      </c>
+      <c r="BB51">
+        <v>30</v>
+      </c>
+      <c r="BC51">
+        <v>30</v>
+      </c>
+      <c r="BD51">
+        <v>31</v>
+      </c>
+      <c r="BE51">
+        <v>32</v>
+      </c>
+      <c r="BF51">
+        <v>33</v>
+      </c>
+      <c r="BG51">
+        <v>34</v>
+      </c>
+      <c r="BH51">
+        <v>35</v>
+      </c>
+      <c r="BI51">
+        <v>35</v>
+      </c>
+      <c r="BJ51">
+        <v>36</v>
+      </c>
+      <c r="BK51">
+        <v>36</v>
+      </c>
+      <c r="BL51">
+        <v>37</v>
+      </c>
+      <c r="BM51">
+        <v>37</v>
+      </c>
+      <c r="BN51">
+        <v>38</v>
+      </c>
+      <c r="BO51">
+        <v>38</v>
+      </c>
+      <c r="BP51">
+        <v>39</v>
+      </c>
+      <c r="BQ51">
+        <v>39</v>
+      </c>
+      <c r="BR51">
+        <v>40</v>
+      </c>
+      <c r="BS51">
+        <v>40</v>
+      </c>
+      <c r="BT51">
+        <v>41</v>
+      </c>
+      <c r="BU51">
+        <v>41</v>
+      </c>
+      <c r="BV51">
+        <v>42</v>
+      </c>
+      <c r="BW51">
+        <v>42</v>
+      </c>
+      <c r="BX51">
+        <v>43</v>
+      </c>
+      <c r="BY51">
+        <v>43</v>
+      </c>
+      <c r="BZ51">
+        <v>44</v>
+      </c>
+      <c r="CA51">
+        <v>44</v>
+      </c>
+      <c r="CB51">
+        <v>45</v>
+      </c>
+      <c r="CC51">
+        <v>45</v>
+      </c>
+      <c r="CD51">
+        <v>46</v>
+      </c>
+      <c r="CE51">
+        <v>46</v>
+      </c>
+      <c r="CF51">
+        <v>47</v>
+      </c>
+      <c r="CG51">
+        <v>47</v>
+      </c>
+      <c r="CH51">
+        <v>48</v>
+      </c>
+      <c r="CI51">
+        <v>48</v>
+      </c>
+      <c r="CJ51">
+        <v>49</v>
+      </c>
+      <c r="CK51">
+        <v>49</v>
+      </c>
+      <c r="CL51">
+        <v>50</v>
+      </c>
+      <c r="CM51">
+        <v>50</v>
+      </c>
+      <c r="CN51">
+        <v>51</v>
+      </c>
+      <c r="CO51">
+        <v>51</v>
+      </c>
+      <c r="CP51">
+        <v>52</v>
+      </c>
+      <c r="CQ51">
+        <v>52</v>
+      </c>
+      <c r="CR51">
+        <v>53</v>
+      </c>
+      <c r="CS51">
+        <v>53</v>
+      </c>
+      <c r="CT51">
+        <v>54</v>
+      </c>
+      <c r="CU51">
+        <v>54</v>
+      </c>
+      <c r="CV51">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="CW51" s="43">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -22508,14 +22962,161 @@
       <c r="AX52">
         <v>26</v>
       </c>
-      <c r="AY52" s="41">
+      <c r="AY52">
         <v>26</v>
       </c>
-      <c r="AZ52" s="3">
+      <c r="AZ52">
+        <v>27</v>
+      </c>
+      <c r="BA52">
+        <v>28</v>
+      </c>
+      <c r="BB52">
+        <v>29</v>
+      </c>
+      <c r="BC52">
+        <v>30</v>
+      </c>
+      <c r="BD52">
+        <v>31</v>
+      </c>
+      <c r="BE52">
+        <v>32</v>
+      </c>
+      <c r="BF52">
+        <v>32</v>
+      </c>
+      <c r="BG52">
+        <v>33</v>
+      </c>
+      <c r="BH52">
+        <v>34</v>
+      </c>
+      <c r="BI52">
+        <v>34</v>
+      </c>
+      <c r="BJ52">
+        <v>35</v>
+      </c>
+      <c r="BK52">
+        <v>36</v>
+      </c>
+      <c r="BL52">
+        <v>36</v>
+      </c>
+      <c r="BM52">
+        <v>37</v>
+      </c>
+      <c r="BN52">
+        <v>38</v>
+      </c>
+      <c r="BO52">
+        <v>38</v>
+      </c>
+      <c r="BP52">
+        <v>39</v>
+      </c>
+      <c r="BQ52">
+        <v>40</v>
+      </c>
+      <c r="BR52">
+        <v>40</v>
+      </c>
+      <c r="BS52">
+        <v>41</v>
+      </c>
+      <c r="BT52">
+        <v>42</v>
+      </c>
+      <c r="BU52">
+        <v>42</v>
+      </c>
+      <c r="BV52">
+        <v>43</v>
+      </c>
+      <c r="BW52">
+        <v>44</v>
+      </c>
+      <c r="BX52">
+        <v>44</v>
+      </c>
+      <c r="BY52">
+        <v>45</v>
+      </c>
+      <c r="BZ52">
+        <v>46</v>
+      </c>
+      <c r="CA52">
+        <v>46</v>
+      </c>
+      <c r="CB52">
+        <v>47</v>
+      </c>
+      <c r="CC52">
+        <v>48</v>
+      </c>
+      <c r="CD52">
+        <v>48</v>
+      </c>
+      <c r="CE52">
+        <v>49</v>
+      </c>
+      <c r="CF52">
+        <v>50</v>
+      </c>
+      <c r="CG52">
+        <v>50</v>
+      </c>
+      <c r="CH52">
+        <v>51</v>
+      </c>
+      <c r="CI52">
+        <v>52</v>
+      </c>
+      <c r="CJ52">
+        <v>52</v>
+      </c>
+      <c r="CK52">
+        <v>53</v>
+      </c>
+      <c r="CL52">
+        <v>54</v>
+      </c>
+      <c r="CM52">
+        <v>54</v>
+      </c>
+      <c r="CN52">
+        <v>55</v>
+      </c>
+      <c r="CO52">
+        <v>56</v>
+      </c>
+      <c r="CP52">
+        <v>56</v>
+      </c>
+      <c r="CQ52">
+        <v>57</v>
+      </c>
+      <c r="CR52">
+        <v>58</v>
+      </c>
+      <c r="CS52">
+        <v>58</v>
+      </c>
+      <c r="CT52">
+        <v>59</v>
+      </c>
+      <c r="CU52">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="CV52">
+        <v>60</v>
+      </c>
+      <c r="CW52" s="43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -22666,14 +23267,161 @@
       <c r="AX53">
         <v>26</v>
       </c>
-      <c r="AY53" s="41">
+      <c r="AY53">
         <v>27</v>
       </c>
-      <c r="AZ53" s="3">
+      <c r="AZ53">
+        <v>27</v>
+      </c>
+      <c r="BA53">
+        <v>27</v>
+      </c>
+      <c r="BB53">
+        <v>28</v>
+      </c>
+      <c r="BC53">
+        <v>28</v>
+      </c>
+      <c r="BD53">
+        <v>28</v>
+      </c>
+      <c r="BE53">
+        <v>29</v>
+      </c>
+      <c r="BF53">
+        <v>29</v>
+      </c>
+      <c r="BG53">
+        <v>29</v>
+      </c>
+      <c r="BH53">
+        <v>30</v>
+      </c>
+      <c r="BI53">
+        <v>30</v>
+      </c>
+      <c r="BJ53">
+        <v>31</v>
+      </c>
+      <c r="BK53">
+        <v>31</v>
+      </c>
+      <c r="BL53">
+        <v>32</v>
+      </c>
+      <c r="BM53">
+        <v>32</v>
+      </c>
+      <c r="BN53">
+        <v>33</v>
+      </c>
+      <c r="BO53">
+        <v>33</v>
+      </c>
+      <c r="BP53">
+        <v>34</v>
+      </c>
+      <c r="BQ53">
+        <v>34</v>
+      </c>
+      <c r="BR53">
+        <v>35</v>
+      </c>
+      <c r="BS53">
+        <v>35</v>
+      </c>
+      <c r="BT53">
+        <v>36</v>
+      </c>
+      <c r="BU53">
+        <v>36</v>
+      </c>
+      <c r="BV53">
+        <v>37</v>
+      </c>
+      <c r="BW53">
+        <v>37</v>
+      </c>
+      <c r="BX53">
+        <v>38</v>
+      </c>
+      <c r="BY53">
+        <v>38</v>
+      </c>
+      <c r="BZ53">
+        <v>39</v>
+      </c>
+      <c r="CA53">
+        <v>39</v>
+      </c>
+      <c r="CB53">
+        <v>40</v>
+      </c>
+      <c r="CC53">
+        <v>40</v>
+      </c>
+      <c r="CD53">
+        <v>41</v>
+      </c>
+      <c r="CE53">
+        <v>41</v>
+      </c>
+      <c r="CF53">
+        <v>42</v>
+      </c>
+      <c r="CG53">
+        <v>42</v>
+      </c>
+      <c r="CH53">
+        <v>43</v>
+      </c>
+      <c r="CI53">
+        <v>43</v>
+      </c>
+      <c r="CJ53">
+        <v>44</v>
+      </c>
+      <c r="CK53">
+        <v>44</v>
+      </c>
+      <c r="CL53">
+        <v>45</v>
+      </c>
+      <c r="CM53">
+        <v>45</v>
+      </c>
+      <c r="CN53">
+        <v>46</v>
+      </c>
+      <c r="CO53">
+        <v>46</v>
+      </c>
+      <c r="CP53">
+        <v>47</v>
+      </c>
+      <c r="CQ53">
+        <v>47</v>
+      </c>
+      <c r="CR53">
+        <v>48</v>
+      </c>
+      <c r="CS53">
+        <v>48</v>
+      </c>
+      <c r="CT53">
+        <v>49</v>
+      </c>
+      <c r="CU53">
+        <v>49</v>
+      </c>
+      <c r="CV53">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="CW53" s="43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -22824,14 +23572,161 @@
       <c r="AX54">
         <v>45</v>
       </c>
-      <c r="AY54" s="41">
+      <c r="AY54">
         <v>45</v>
       </c>
-      <c r="AZ54" s="3">
+      <c r="AZ54">
+        <v>45</v>
+      </c>
+      <c r="BA54">
+        <v>46</v>
+      </c>
+      <c r="BB54">
+        <v>46</v>
+      </c>
+      <c r="BC54">
+        <v>47</v>
+      </c>
+      <c r="BD54">
+        <v>47</v>
+      </c>
+      <c r="BE54">
+        <v>48</v>
+      </c>
+      <c r="BF54">
+        <v>48</v>
+      </c>
+      <c r="BG54">
+        <v>49</v>
+      </c>
+      <c r="BH54">
+        <v>49</v>
+      </c>
+      <c r="BI54">
+        <v>50</v>
+      </c>
+      <c r="BJ54">
+        <v>50</v>
+      </c>
+      <c r="BK54">
+        <v>51</v>
+      </c>
+      <c r="BL54">
+        <v>51</v>
+      </c>
+      <c r="BM54">
+        <v>52</v>
+      </c>
+      <c r="BN54">
+        <v>52</v>
+      </c>
+      <c r="BO54">
+        <v>53</v>
+      </c>
+      <c r="BP54">
+        <v>53</v>
+      </c>
+      <c r="BQ54">
+        <v>54</v>
+      </c>
+      <c r="BR54">
+        <v>54</v>
+      </c>
+      <c r="BS54">
+        <v>55</v>
+      </c>
+      <c r="BT54">
+        <v>55</v>
+      </c>
+      <c r="BU54">
+        <v>56</v>
+      </c>
+      <c r="BV54">
+        <v>56</v>
+      </c>
+      <c r="BW54">
+        <v>57</v>
+      </c>
+      <c r="BX54">
+        <v>57</v>
+      </c>
+      <c r="BY54">
+        <v>58</v>
+      </c>
+      <c r="BZ54">
+        <v>58</v>
+      </c>
+      <c r="CA54">
+        <v>59</v>
+      </c>
+      <c r="CB54">
+        <v>59</v>
+      </c>
+      <c r="CC54">
+        <v>60</v>
+      </c>
+      <c r="CD54">
+        <v>60</v>
+      </c>
+      <c r="CE54">
+        <v>61</v>
+      </c>
+      <c r="CF54">
+        <v>61</v>
+      </c>
+      <c r="CG54">
+        <v>62</v>
+      </c>
+      <c r="CH54">
+        <v>62</v>
+      </c>
+      <c r="CI54">
+        <v>63</v>
+      </c>
+      <c r="CJ54">
+        <v>63</v>
+      </c>
+      <c r="CK54">
+        <v>64</v>
+      </c>
+      <c r="CL54">
+        <v>64</v>
+      </c>
+      <c r="CM54">
+        <v>65</v>
+      </c>
+      <c r="CN54">
+        <v>65</v>
+      </c>
+      <c r="CO54">
+        <v>66</v>
+      </c>
+      <c r="CP54">
+        <v>66</v>
+      </c>
+      <c r="CQ54">
+        <v>67</v>
+      </c>
+      <c r="CR54">
+        <v>67</v>
+      </c>
+      <c r="CS54">
+        <v>68</v>
+      </c>
+      <c r="CT54">
+        <v>68</v>
+      </c>
+      <c r="CU54">
+        <v>69</v>
+      </c>
+      <c r="CV54">
+        <v>69</v>
+      </c>
+      <c r="CW54" s="43">
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -22982,14 +23877,161 @@
       <c r="AX55">
         <v>49</v>
       </c>
-      <c r="AY55" s="41">
+      <c r="AY55">
         <v>50</v>
       </c>
-      <c r="AZ55" s="3">
+      <c r="AZ55">
+        <v>51</v>
+      </c>
+      <c r="BA55">
+        <v>52</v>
+      </c>
+      <c r="BB55">
+        <v>53</v>
+      </c>
+      <c r="BC55">
+        <v>54</v>
+      </c>
+      <c r="BD55">
+        <v>55</v>
+      </c>
+      <c r="BE55">
+        <v>56</v>
+      </c>
+      <c r="BF55">
+        <v>57</v>
+      </c>
+      <c r="BG55">
+        <v>58</v>
+      </c>
+      <c r="BH55">
+        <v>59</v>
+      </c>
+      <c r="BI55">
+        <v>60</v>
+      </c>
+      <c r="BJ55">
+        <v>61</v>
+      </c>
+      <c r="BK55">
+        <v>62</v>
+      </c>
+      <c r="BL55">
+        <v>63</v>
+      </c>
+      <c r="BM55">
+        <v>64</v>
+      </c>
+      <c r="BN55">
+        <v>65</v>
+      </c>
+      <c r="BO55">
+        <v>66</v>
+      </c>
+      <c r="BP55">
+        <v>67</v>
+      </c>
+      <c r="BQ55">
+        <v>68</v>
+      </c>
+      <c r="BR55">
+        <v>69</v>
+      </c>
+      <c r="BS55">
+        <v>70</v>
+      </c>
+      <c r="BT55">
+        <v>71</v>
+      </c>
+      <c r="BU55">
+        <v>72</v>
+      </c>
+      <c r="BV55">
+        <v>73</v>
+      </c>
+      <c r="BW55">
+        <v>74</v>
+      </c>
+      <c r="BX55">
+        <v>75</v>
+      </c>
+      <c r="BY55">
+        <v>76</v>
+      </c>
+      <c r="BZ55">
+        <v>77</v>
+      </c>
+      <c r="CA55">
+        <v>78</v>
+      </c>
+      <c r="CB55">
+        <v>79</v>
+      </c>
+      <c r="CC55">
+        <v>80</v>
+      </c>
+      <c r="CD55">
+        <v>81</v>
+      </c>
+      <c r="CE55">
+        <v>82</v>
+      </c>
+      <c r="CF55">
+        <v>83</v>
+      </c>
+      <c r="CG55">
+        <v>84</v>
+      </c>
+      <c r="CH55">
+        <v>85</v>
+      </c>
+      <c r="CI55">
+        <v>86</v>
+      </c>
+      <c r="CJ55">
+        <v>87</v>
+      </c>
+      <c r="CK55">
+        <v>88</v>
+      </c>
+      <c r="CL55">
+        <v>89</v>
+      </c>
+      <c r="CM55">
+        <v>90</v>
+      </c>
+      <c r="CN55">
+        <v>91</v>
+      </c>
+      <c r="CO55">
+        <v>92</v>
+      </c>
+      <c r="CP55">
+        <v>93</v>
+      </c>
+      <c r="CQ55">
+        <v>94</v>
+      </c>
+      <c r="CR55">
+        <v>95</v>
+      </c>
+      <c r="CS55">
+        <v>96</v>
+      </c>
+      <c r="CT55">
+        <v>97</v>
+      </c>
+      <c r="CU55">
+        <v>98</v>
+      </c>
+      <c r="CV55">
+        <v>99</v>
+      </c>
+      <c r="CW55" s="43">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -23140,14 +24182,161 @@
       <c r="AX56">
         <v>45</v>
       </c>
-      <c r="AY56" s="41">
+      <c r="AY56">
         <v>45</v>
       </c>
-      <c r="AZ56" s="3">
+      <c r="AZ56">
+        <v>46</v>
+      </c>
+      <c r="BA56">
+        <v>47</v>
+      </c>
+      <c r="BB56">
+        <v>47</v>
+      </c>
+      <c r="BC56">
+        <v>48</v>
+      </c>
+      <c r="BD56">
+        <v>49</v>
+      </c>
+      <c r="BE56">
+        <v>49</v>
+      </c>
+      <c r="BF56">
+        <v>50</v>
+      </c>
+      <c r="BG56">
+        <v>51</v>
+      </c>
+      <c r="BH56">
+        <v>51</v>
+      </c>
+      <c r="BI56">
+        <v>54</v>
+      </c>
+      <c r="BJ56">
+        <v>54</v>
+      </c>
+      <c r="BK56">
+        <v>55</v>
+      </c>
+      <c r="BL56">
+        <v>56</v>
+      </c>
+      <c r="BM56">
+        <v>57</v>
+      </c>
+      <c r="BN56">
+        <v>57</v>
+      </c>
+      <c r="BO56">
+        <v>60</v>
+      </c>
+      <c r="BP56">
+        <v>60</v>
+      </c>
+      <c r="BQ56">
+        <v>61</v>
+      </c>
+      <c r="BR56">
+        <v>62</v>
+      </c>
+      <c r="BS56">
+        <v>63</v>
+      </c>
+      <c r="BT56">
+        <v>63</v>
+      </c>
+      <c r="BU56">
+        <v>66</v>
+      </c>
+      <c r="BV56">
+        <v>66</v>
+      </c>
+      <c r="BW56">
+        <v>67</v>
+      </c>
+      <c r="BX56">
+        <v>68</v>
+      </c>
+      <c r="BY56">
+        <v>69</v>
+      </c>
+      <c r="BZ56">
+        <v>69</v>
+      </c>
+      <c r="CA56">
+        <v>72</v>
+      </c>
+      <c r="CB56">
+        <v>72</v>
+      </c>
+      <c r="CC56">
+        <v>73</v>
+      </c>
+      <c r="CD56">
+        <v>74</v>
+      </c>
+      <c r="CE56">
+        <v>75</v>
+      </c>
+      <c r="CF56">
+        <v>75</v>
+      </c>
+      <c r="CG56">
+        <v>78</v>
+      </c>
+      <c r="CH56">
+        <v>78</v>
+      </c>
+      <c r="CI56">
+        <v>79</v>
+      </c>
+      <c r="CJ56">
+        <v>80</v>
+      </c>
+      <c r="CK56">
+        <v>81</v>
+      </c>
+      <c r="CL56">
+        <v>81</v>
+      </c>
+      <c r="CM56">
+        <v>84</v>
+      </c>
+      <c r="CN56">
+        <v>84</v>
+      </c>
+      <c r="CO56">
+        <v>85</v>
+      </c>
+      <c r="CP56">
+        <v>86</v>
+      </c>
+      <c r="CQ56">
+        <v>87</v>
+      </c>
+      <c r="CR56">
+        <v>87</v>
+      </c>
+      <c r="CS56">
         <v>90</v>
       </c>
-    </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="CT56">
+        <v>90</v>
+      </c>
+      <c r="CU56">
+        <v>90</v>
+      </c>
+      <c r="CV56">
+        <v>90</v>
+      </c>
+      <c r="CW56" s="43">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A57" s="27" t="s">
         <v>53</v>
       </c>
@@ -23298,14 +24487,161 @@
       <c r="AX57" s="27">
         <v>4</v>
       </c>
-      <c r="AY57" s="42">
+      <c r="AY57" s="27">
         <v>5</v>
       </c>
-      <c r="AZ57" s="7">
+      <c r="AZ57" s="27">
+        <v>5</v>
+      </c>
+      <c r="BA57" s="27">
+        <v>5</v>
+      </c>
+      <c r="BB57" s="27">
+        <v>5</v>
+      </c>
+      <c r="BC57" s="27">
+        <v>6</v>
+      </c>
+      <c r="BD57" s="27">
+        <v>6</v>
+      </c>
+      <c r="BE57" s="27">
+        <v>6</v>
+      </c>
+      <c r="BF57" s="27">
+        <v>7</v>
+      </c>
+      <c r="BG57" s="27">
+        <v>7</v>
+      </c>
+      <c r="BH57" s="27">
+        <v>7</v>
+      </c>
+      <c r="BI57" s="27">
+        <v>7</v>
+      </c>
+      <c r="BJ57" s="27">
+        <v>7</v>
+      </c>
+      <c r="BK57" s="27">
+        <v>8</v>
+      </c>
+      <c r="BL57" s="27">
+        <v>8</v>
+      </c>
+      <c r="BM57" s="27">
+        <v>9</v>
+      </c>
+      <c r="BN57" s="27">
+        <v>9</v>
+      </c>
+      <c r="BO57" s="27">
+        <v>9</v>
+      </c>
+      <c r="BP57" s="27">
+        <v>9</v>
+      </c>
+      <c r="BQ57" s="27">
+        <v>10</v>
+      </c>
+      <c r="BR57" s="27">
+        <v>10</v>
+      </c>
+      <c r="BS57" s="27">
+        <v>11</v>
+      </c>
+      <c r="BT57" s="27">
+        <v>11</v>
+      </c>
+      <c r="BU57" s="27">
+        <v>11</v>
+      </c>
+      <c r="BV57" s="27">
+        <v>11</v>
+      </c>
+      <c r="BW57" s="27">
+        <v>12</v>
+      </c>
+      <c r="BX57" s="27">
+        <v>12</v>
+      </c>
+      <c r="BY57" s="27">
+        <v>13</v>
+      </c>
+      <c r="BZ57" s="27">
+        <v>13</v>
+      </c>
+      <c r="CA57" s="27">
+        <v>13</v>
+      </c>
+      <c r="CB57" s="27">
+        <v>13</v>
+      </c>
+      <c r="CC57" s="27">
+        <v>14</v>
+      </c>
+      <c r="CD57" s="27">
+        <v>14</v>
+      </c>
+      <c r="CE57" s="27">
+        <v>15</v>
+      </c>
+      <c r="CF57" s="27">
+        <v>15</v>
+      </c>
+      <c r="CG57" s="27">
+        <v>15</v>
+      </c>
+      <c r="CH57" s="27">
+        <v>15</v>
+      </c>
+      <c r="CI57" s="27">
+        <v>16</v>
+      </c>
+      <c r="CJ57" s="27">
+        <v>16</v>
+      </c>
+      <c r="CK57" s="27">
+        <v>17</v>
+      </c>
+      <c r="CL57" s="27">
+        <v>17</v>
+      </c>
+      <c r="CM57" s="27">
+        <v>17</v>
+      </c>
+      <c r="CN57" s="27">
+        <v>17</v>
+      </c>
+      <c r="CO57" s="27">
+        <v>18</v>
+      </c>
+      <c r="CP57" s="27">
+        <v>18</v>
+      </c>
+      <c r="CQ57" s="27">
+        <v>19</v>
+      </c>
+      <c r="CR57" s="27">
+        <v>19</v>
+      </c>
+      <c r="CS57" s="27">
+        <v>19</v>
+      </c>
+      <c r="CT57" s="27">
+        <v>19</v>
+      </c>
+      <c r="CU57" s="27">
+        <v>21</v>
+      </c>
+      <c r="CV57" s="27">
+        <v>22</v>
+      </c>
+      <c r="CW57" s="45">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:101" x14ac:dyDescent="0.3">
       <c r="B58">
         <f>SUM(B50:B57)</f>
         <v>5</v>
@@ -23383,7 +24719,7 @@
         <v>95</v>
       </c>
       <c r="U58">
-        <f t="shared" ref="U58:AY58" si="41">SUM(U50:U57)</f>
+        <f t="shared" ref="U58:CF58" si="41">SUM(U50:U57)</f>
         <v>100</v>
       </c>
       <c r="V58">
@@ -23507,7 +24843,203 @@
         <v>250</v>
       </c>
       <c r="AZ58">
-        <f t="shared" ref="AZ58" si="42">SUM(AZ50:AZ57)</f>
+        <f t="shared" si="41"/>
+        <v>255</v>
+      </c>
+      <c r="BA58">
+        <f t="shared" si="41"/>
+        <v>260</v>
+      </c>
+      <c r="BB58">
+        <f t="shared" si="41"/>
+        <v>265</v>
+      </c>
+      <c r="BC58">
+        <f t="shared" si="41"/>
+        <v>270</v>
+      </c>
+      <c r="BD58">
+        <f t="shared" si="41"/>
+        <v>275</v>
+      </c>
+      <c r="BE58">
+        <f t="shared" si="41"/>
+        <v>280</v>
+      </c>
+      <c r="BF58">
+        <f t="shared" si="41"/>
+        <v>285</v>
+      </c>
+      <c r="BG58">
+        <f t="shared" si="41"/>
+        <v>290</v>
+      </c>
+      <c r="BH58">
+        <f t="shared" si="41"/>
+        <v>295</v>
+      </c>
+      <c r="BI58">
+        <f t="shared" si="41"/>
+        <v>300</v>
+      </c>
+      <c r="BJ58">
+        <f t="shared" si="41"/>
+        <v>305</v>
+      </c>
+      <c r="BK58">
+        <f t="shared" si="41"/>
+        <v>310</v>
+      </c>
+      <c r="BL58">
+        <f t="shared" si="41"/>
+        <v>315</v>
+      </c>
+      <c r="BM58">
+        <f t="shared" si="41"/>
+        <v>320</v>
+      </c>
+      <c r="BN58">
+        <f t="shared" si="41"/>
+        <v>325</v>
+      </c>
+      <c r="BO58">
+        <f t="shared" si="41"/>
+        <v>330</v>
+      </c>
+      <c r="BP58">
+        <f t="shared" si="41"/>
+        <v>335</v>
+      </c>
+      <c r="BQ58">
+        <f t="shared" si="41"/>
+        <v>340</v>
+      </c>
+      <c r="BR58">
+        <f t="shared" si="41"/>
+        <v>345</v>
+      </c>
+      <c r="BS58">
+        <f t="shared" si="41"/>
+        <v>350</v>
+      </c>
+      <c r="BT58">
+        <f t="shared" si="41"/>
+        <v>355</v>
+      </c>
+      <c r="BU58">
+        <f t="shared" si="41"/>
+        <v>360</v>
+      </c>
+      <c r="BV58">
+        <f t="shared" si="41"/>
+        <v>365</v>
+      </c>
+      <c r="BW58">
+        <f t="shared" si="41"/>
+        <v>370</v>
+      </c>
+      <c r="BX58">
+        <f t="shared" si="41"/>
+        <v>375</v>
+      </c>
+      <c r="BY58">
+        <f t="shared" si="41"/>
+        <v>380</v>
+      </c>
+      <c r="BZ58">
+        <f t="shared" si="41"/>
+        <v>385</v>
+      </c>
+      <c r="CA58">
+        <f t="shared" si="41"/>
+        <v>390</v>
+      </c>
+      <c r="CB58">
+        <f t="shared" si="41"/>
+        <v>395</v>
+      </c>
+      <c r="CC58">
+        <f t="shared" si="41"/>
+        <v>400</v>
+      </c>
+      <c r="CD58">
+        <f t="shared" si="41"/>
+        <v>405</v>
+      </c>
+      <c r="CE58">
+        <f t="shared" si="41"/>
+        <v>410</v>
+      </c>
+      <c r="CF58">
+        <f t="shared" si="41"/>
+        <v>415</v>
+      </c>
+      <c r="CG58">
+        <f t="shared" ref="CG58:CV58" si="42">SUM(CG50:CG57)</f>
+        <v>420</v>
+      </c>
+      <c r="CH58">
+        <f t="shared" si="42"/>
+        <v>425</v>
+      </c>
+      <c r="CI58">
+        <f t="shared" si="42"/>
+        <v>430</v>
+      </c>
+      <c r="CJ58">
+        <f t="shared" si="42"/>
+        <v>435</v>
+      </c>
+      <c r="CK58">
+        <f t="shared" si="42"/>
+        <v>440</v>
+      </c>
+      <c r="CL58">
+        <f t="shared" si="42"/>
+        <v>445</v>
+      </c>
+      <c r="CM58">
+        <f t="shared" si="42"/>
+        <v>450</v>
+      </c>
+      <c r="CN58">
+        <f t="shared" si="42"/>
+        <v>455</v>
+      </c>
+      <c r="CO58">
+        <f t="shared" si="42"/>
+        <v>460</v>
+      </c>
+      <c r="CP58">
+        <f t="shared" si="42"/>
+        <v>465</v>
+      </c>
+      <c r="CQ58">
+        <f t="shared" si="42"/>
+        <v>470</v>
+      </c>
+      <c r="CR58">
+        <f t="shared" si="42"/>
+        <v>475</v>
+      </c>
+      <c r="CS58">
+        <f t="shared" si="42"/>
+        <v>480</v>
+      </c>
+      <c r="CT58">
+        <f t="shared" si="42"/>
+        <v>485</v>
+      </c>
+      <c r="CU58">
+        <f t="shared" si="42"/>
+        <v>490</v>
+      </c>
+      <c r="CV58">
+        <f t="shared" si="42"/>
+        <v>495</v>
+      </c>
+      <c r="CW58">
+        <f t="shared" ref="CW58" si="43">SUM(CW50:CW57)</f>
         <v>500</v>
       </c>
     </row>

--- a/doc/caste_system.xlsx
+++ b/doc/caste_system.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/349dfb9748b30a92/Asztali gép/ataliasflame_2.0/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7618" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF92B959-0A93-4354-AC26-B19CB8EBFB5F}"/>
+  <xr:revisionPtr revIDLastSave="7947" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7441BDF2-FCCA-4460-8DEA-2B2E46327A39}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
   </bookViews>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="85">
   <si>
     <t>csavargó</t>
   </si>
@@ -2012,7 +2012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2084,22 +2084,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -3538,163 +3524,163 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="43" t="s">
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q21" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="R21" s="44" t="s">
+      <c r="J21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="43" t="s">
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="L22" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="N22" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="O22" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="P22" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q22" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="R22" s="44" t="s">
+      <c r="J22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>39</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="39"/>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="43" t="s">
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="K23" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="L23" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="N23" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="O23" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="P23" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q23" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="R23" s="44" t="s">
+      <c r="J23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4334,7 +4320,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4699,13 +4685,13 @@
       <c r="Y1" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="43" t="s">
+      <c r="Z1" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="43" t="s">
+      <c r="AA1" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="44" t="s">
+      <c r="AB1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AC1" t="s">
@@ -4788,13 +4774,13 @@
       <c r="Y2">
         <v>3</v>
       </c>
-      <c r="Z2" s="43">
+      <c r="Z2">
         <v>8</v>
       </c>
-      <c r="AA2" s="43">
+      <c r="AA2">
         <v>25</v>
       </c>
-      <c r="AB2" s="44">
+      <c r="AB2" s="1">
         <v>50</v>
       </c>
       <c r="AC2">
@@ -4878,13 +4864,13 @@
       <c r="Y3">
         <v>3</v>
       </c>
-      <c r="Z3" s="43">
+      <c r="Z3">
         <v>12</v>
       </c>
-      <c r="AA3" s="43">
+      <c r="AA3">
         <v>27</v>
       </c>
-      <c r="AB3" s="44">
+      <c r="AB3" s="1">
         <v>55</v>
       </c>
       <c r="AC3">
@@ -4968,13 +4954,13 @@
       <c r="Y4">
         <v>2</v>
       </c>
-      <c r="Z4" s="43">
+      <c r="Z4">
         <v>12</v>
       </c>
-      <c r="AA4" s="43">
+      <c r="AA4">
         <v>26</v>
       </c>
-      <c r="AB4" s="44">
+      <c r="AB4" s="1">
         <v>60</v>
       </c>
       <c r="AC4">
@@ -5058,13 +5044,13 @@
       <c r="Y5">
         <v>3</v>
       </c>
-      <c r="Z5" s="43">
+      <c r="Z5">
         <v>12</v>
       </c>
-      <c r="AA5" s="43">
+      <c r="AA5">
         <v>27</v>
       </c>
-      <c r="AB5" s="44">
+      <c r="AB5" s="1">
         <v>50</v>
       </c>
       <c r="AC5">
@@ -5148,13 +5134,13 @@
       <c r="Y6">
         <v>4</v>
       </c>
-      <c r="Z6" s="43">
+      <c r="Z6">
         <v>16</v>
       </c>
-      <c r="AA6" s="43">
+      <c r="AA6">
         <v>45</v>
       </c>
-      <c r="AB6" s="44">
+      <c r="AB6" s="1">
         <v>70</v>
       </c>
       <c r="AC6">
@@ -5238,13 +5224,13 @@
       <c r="Y7">
         <v>5</v>
       </c>
-      <c r="Z7" s="43">
+      <c r="Z7">
         <v>20</v>
       </c>
-      <c r="AA7" s="43">
+      <c r="AA7">
         <v>50</v>
       </c>
-      <c r="AB7" s="44">
+      <c r="AB7" s="1">
         <v>100</v>
       </c>
       <c r="AC7">
@@ -5328,13 +5314,13 @@
       <c r="Y8">
         <v>4</v>
       </c>
-      <c r="Z8" s="43">
+      <c r="Z8">
         <v>18</v>
       </c>
-      <c r="AA8" s="43">
+      <c r="AA8">
         <v>45</v>
       </c>
-      <c r="AB8" s="44">
+      <c r="AB8" s="1">
         <v>90</v>
       </c>
       <c r="AC8">
@@ -5418,13 +5404,13 @@
       <c r="Y9" s="27">
         <v>1</v>
       </c>
-      <c r="Z9" s="45">
+      <c r="Z9" s="27">
         <v>2</v>
       </c>
-      <c r="AA9" s="45">
+      <c r="AA9" s="27">
         <v>5</v>
       </c>
-      <c r="AB9" s="46">
+      <c r="AB9" s="31">
         <v>25</v>
       </c>
       <c r="AC9" s="33">
@@ -11714,8 +11700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD573711-C846-40DC-8629-19A685998D3E}">
   <dimension ref="A1:CX58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="CS49" sqref="CS49"/>
+    <sheetView tabSelected="1" topLeftCell="AA16" workbookViewId="0">
+      <selection activeCell="AY36" sqref="AY36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11726,12 +11712,11 @@
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="20" width="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="47" width="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="47" width="4" bestFit="1" customWidth="1"/>
     <col min="48" max="50" width="4" customWidth="1"/>
     <col min="51" max="51" width="16" bestFit="1" customWidth="1"/>
-    <col min="52" max="55" width="4" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="53" max="55" width="4" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="4" customWidth="1"/>
     <col min="57" max="100" width="4" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="10.5546875" bestFit="1" customWidth="1"/>
@@ -18090,10 +18075,97 @@
       <c r="U25" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="V25" s="34" t="s">
+      <c r="V25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="W25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="X25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY25" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="W25" s="34" t="s">
+      <c r="AZ25" s="34" t="s">
         <v>12</v>
       </c>
     </row>
@@ -18161,10 +18233,97 @@
       <c r="U26">
         <v>16</v>
       </c>
-      <c r="V26" s="3">
+      <c r="V26">
+        <v>17</v>
+      </c>
+      <c r="W26">
+        <v>18</v>
+      </c>
+      <c r="X26">
+        <v>18</v>
+      </c>
+      <c r="Y26">
+        <v>19</v>
+      </c>
+      <c r="Z26">
+        <v>20</v>
+      </c>
+      <c r="AA26">
+        <v>20</v>
+      </c>
+      <c r="AB26">
+        <v>21</v>
+      </c>
+      <c r="AC26">
+        <v>22</v>
+      </c>
+      <c r="AD26">
+        <v>22</v>
+      </c>
+      <c r="AE26">
+        <v>23</v>
+      </c>
+      <c r="AF26">
+        <v>24</v>
+      </c>
+      <c r="AG26">
+        <v>24</v>
+      </c>
+      <c r="AH26">
+        <v>25</v>
+      </c>
+      <c r="AI26">
+        <v>26</v>
+      </c>
+      <c r="AJ26">
+        <v>26</v>
+      </c>
+      <c r="AK26">
+        <v>27</v>
+      </c>
+      <c r="AL26">
+        <v>28</v>
+      </c>
+      <c r="AM26">
+        <v>28</v>
+      </c>
+      <c r="AN26">
+        <v>29</v>
+      </c>
+      <c r="AO26">
+        <v>30</v>
+      </c>
+      <c r="AP26">
+        <v>30</v>
+      </c>
+      <c r="AQ26">
+        <v>31</v>
+      </c>
+      <c r="AR26">
+        <v>32</v>
+      </c>
+      <c r="AS26">
+        <v>32</v>
+      </c>
+      <c r="AT26">
+        <v>33</v>
+      </c>
+      <c r="AU26">
+        <v>34</v>
+      </c>
+      <c r="AV26">
+        <v>34</v>
+      </c>
+      <c r="AW26">
         <v>35</v>
       </c>
-      <c r="W26" s="3">
+      <c r="AX26">
+        <v>35</v>
+      </c>
+      <c r="AY26" s="41">
+        <v>35</v>
+      </c>
+      <c r="AZ26" s="3">
         <v>75</v>
       </c>
     </row>
@@ -18232,10 +18391,97 @@
       <c r="U27">
         <v>18</v>
       </c>
-      <c r="V27" s="3">
+      <c r="V27">
+        <v>19</v>
+      </c>
+      <c r="W27">
+        <v>20</v>
+      </c>
+      <c r="X27">
+        <v>21</v>
+      </c>
+      <c r="Y27">
+        <v>22</v>
+      </c>
+      <c r="Z27">
+        <v>22</v>
+      </c>
+      <c r="AA27">
+        <v>23</v>
+      </c>
+      <c r="AB27">
+        <v>24</v>
+      </c>
+      <c r="AC27">
+        <v>25</v>
+      </c>
+      <c r="AD27">
+        <v>26</v>
+      </c>
+      <c r="AE27">
+        <v>26</v>
+      </c>
+      <c r="AF27">
+        <v>27</v>
+      </c>
+      <c r="AG27">
+        <v>28</v>
+      </c>
+      <c r="AH27">
+        <v>29</v>
+      </c>
+      <c r="AI27">
+        <v>30</v>
+      </c>
+      <c r="AJ27">
+        <v>30</v>
+      </c>
+      <c r="AK27">
+        <v>31</v>
+      </c>
+      <c r="AL27">
+        <v>32</v>
+      </c>
+      <c r="AM27">
+        <v>33</v>
+      </c>
+      <c r="AN27">
+        <v>34</v>
+      </c>
+      <c r="AO27">
+        <v>34</v>
+      </c>
+      <c r="AP27">
+        <v>35</v>
+      </c>
+      <c r="AQ27">
+        <v>36</v>
+      </c>
+      <c r="AR27">
+        <v>37</v>
+      </c>
+      <c r="AS27">
+        <v>38</v>
+      </c>
+      <c r="AT27">
+        <v>38</v>
+      </c>
+      <c r="AU27">
+        <v>39</v>
+      </c>
+      <c r="AV27">
+        <v>40</v>
+      </c>
+      <c r="AW27">
+        <v>41</v>
+      </c>
+      <c r="AX27">
         <v>42</v>
       </c>
-      <c r="W27" s="3">
+      <c r="AY27" s="41">
+        <v>42</v>
+      </c>
+      <c r="AZ27" s="3">
         <v>80</v>
       </c>
     </row>
@@ -18303,10 +18549,97 @@
       <c r="U28">
         <v>20</v>
       </c>
-      <c r="V28" s="3">
+      <c r="V28">
+        <v>21</v>
+      </c>
+      <c r="W28">
+        <v>22</v>
+      </c>
+      <c r="X28">
+        <v>23</v>
+      </c>
+      <c r="Y28">
+        <v>24</v>
+      </c>
+      <c r="Z28">
+        <v>24</v>
+      </c>
+      <c r="AA28">
+        <v>25</v>
+      </c>
+      <c r="AB28">
+        <v>26</v>
+      </c>
+      <c r="AC28">
+        <v>27</v>
+      </c>
+      <c r="AD28">
+        <v>28</v>
+      </c>
+      <c r="AE28">
+        <v>28</v>
+      </c>
+      <c r="AF28">
+        <v>29</v>
+      </c>
+      <c r="AG28">
+        <v>30</v>
+      </c>
+      <c r="AH28">
+        <v>31</v>
+      </c>
+      <c r="AI28">
+        <v>32</v>
+      </c>
+      <c r="AJ28">
+        <v>32</v>
+      </c>
+      <c r="AK28">
+        <v>33</v>
+      </c>
+      <c r="AL28">
+        <v>34</v>
+      </c>
+      <c r="AM28">
+        <v>35</v>
+      </c>
+      <c r="AN28">
+        <v>36</v>
+      </c>
+      <c r="AO28">
+        <v>36</v>
+      </c>
+      <c r="AP28">
+        <v>37</v>
+      </c>
+      <c r="AQ28">
+        <v>38</v>
+      </c>
+      <c r="AR28">
+        <v>39</v>
+      </c>
+      <c r="AS28">
+        <v>40</v>
+      </c>
+      <c r="AT28">
+        <v>40</v>
+      </c>
+      <c r="AU28">
+        <v>41</v>
+      </c>
+      <c r="AV28">
+        <v>42</v>
+      </c>
+      <c r="AW28">
+        <v>43</v>
+      </c>
+      <c r="AX28">
+        <v>44</v>
+      </c>
+      <c r="AY28" s="41">
         <v>45</v>
       </c>
-      <c r="W28" s="3">
+      <c r="AZ28" s="3">
         <v>85</v>
       </c>
     </row>
@@ -18374,10 +18707,97 @@
       <c r="U29">
         <v>18</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29">
+        <v>19</v>
+      </c>
+      <c r="W29">
+        <v>20</v>
+      </c>
+      <c r="X29">
+        <v>21</v>
+      </c>
+      <c r="Y29">
+        <v>22</v>
+      </c>
+      <c r="Z29">
+        <v>23</v>
+      </c>
+      <c r="AA29">
+        <v>24</v>
+      </c>
+      <c r="AB29">
+        <v>25</v>
+      </c>
+      <c r="AC29">
+        <v>26</v>
+      </c>
+      <c r="AD29">
+        <v>27</v>
+      </c>
+      <c r="AE29">
+        <v>28</v>
+      </c>
+      <c r="AF29">
+        <v>29</v>
+      </c>
+      <c r="AG29">
+        <v>30</v>
+      </c>
+      <c r="AH29">
+        <v>31</v>
+      </c>
+      <c r="AI29">
+        <v>32</v>
+      </c>
+      <c r="AJ29">
+        <v>33</v>
+      </c>
+      <c r="AK29">
+        <v>34</v>
+      </c>
+      <c r="AL29">
+        <v>35</v>
+      </c>
+      <c r="AM29">
+        <v>36</v>
+      </c>
+      <c r="AN29">
+        <v>37</v>
+      </c>
+      <c r="AO29">
+        <v>38</v>
+      </c>
+      <c r="AP29">
+        <v>39</v>
+      </c>
+      <c r="AQ29">
+        <v>40</v>
+      </c>
+      <c r="AR29">
+        <v>41</v>
+      </c>
+      <c r="AS29">
+        <v>42</v>
+      </c>
+      <c r="AT29">
+        <v>43</v>
+      </c>
+      <c r="AU29">
+        <v>44</v>
+      </c>
+      <c r="AV29">
         <v>45</v>
       </c>
-      <c r="W29" s="3">
+      <c r="AW29">
+        <v>45</v>
+      </c>
+      <c r="AX29">
+        <v>45</v>
+      </c>
+      <c r="AY29" s="41">
+        <v>45</v>
+      </c>
+      <c r="AZ29" s="3">
         <v>85</v>
       </c>
     </row>
@@ -18445,10 +18865,97 @@
       <c r="U30">
         <v>7</v>
       </c>
-      <c r="V30" s="3">
+      <c r="V30">
+        <v>7</v>
+      </c>
+      <c r="W30">
+        <v>7</v>
+      </c>
+      <c r="X30">
+        <v>7</v>
+      </c>
+      <c r="Y30">
+        <v>7</v>
+      </c>
+      <c r="Z30">
+        <v>8</v>
+      </c>
+      <c r="AA30">
+        <v>9</v>
+      </c>
+      <c r="AB30">
+        <v>9</v>
+      </c>
+      <c r="AC30">
+        <v>9</v>
+      </c>
+      <c r="AD30">
+        <v>9</v>
+      </c>
+      <c r="AE30">
+        <v>10</v>
+      </c>
+      <c r="AF30">
+        <v>10</v>
+      </c>
+      <c r="AG30">
+        <v>11</v>
+      </c>
+      <c r="AH30">
+        <v>11</v>
+      </c>
+      <c r="AI30">
+        <v>11</v>
+      </c>
+      <c r="AJ30">
+        <v>13</v>
+      </c>
+      <c r="AK30">
+        <v>13</v>
+      </c>
+      <c r="AL30">
+        <v>13</v>
+      </c>
+      <c r="AM30">
+        <v>13</v>
+      </c>
+      <c r="AN30">
+        <v>13</v>
+      </c>
+      <c r="AO30">
+        <v>14</v>
+      </c>
+      <c r="AP30">
+        <v>15</v>
+      </c>
+      <c r="AQ30">
+        <v>15</v>
+      </c>
+      <c r="AR30">
+        <v>15</v>
+      </c>
+      <c r="AS30">
+        <v>15</v>
+      </c>
+      <c r="AT30">
+        <v>16</v>
+      </c>
+      <c r="AU30">
+        <v>16</v>
+      </c>
+      <c r="AV30">
+        <v>17</v>
+      </c>
+      <c r="AW30">
+        <v>18</v>
+      </c>
+      <c r="AX30">
+        <v>19</v>
+      </c>
+      <c r="AY30" s="41">
         <v>20</v>
       </c>
-      <c r="W30" s="3">
+      <c r="AZ30" s="3">
         <v>40</v>
       </c>
     </row>
@@ -18516,10 +19023,97 @@
       <c r="U31">
         <v>7</v>
       </c>
-      <c r="V31" s="3">
+      <c r="V31">
+        <v>7</v>
+      </c>
+      <c r="W31">
+        <v>7</v>
+      </c>
+      <c r="X31">
+        <v>7</v>
+      </c>
+      <c r="Y31">
+        <v>7</v>
+      </c>
+      <c r="Z31">
+        <v>8</v>
+      </c>
+      <c r="AA31">
+        <v>8</v>
+      </c>
+      <c r="AB31">
+        <v>8</v>
+      </c>
+      <c r="AC31">
+        <v>8</v>
+      </c>
+      <c r="AD31">
+        <v>9</v>
+      </c>
+      <c r="AE31">
+        <v>10</v>
+      </c>
+      <c r="AF31">
+        <v>10</v>
+      </c>
+      <c r="AG31">
+        <v>10</v>
+      </c>
+      <c r="AH31">
+        <v>10</v>
+      </c>
+      <c r="AI31">
+        <v>10</v>
+      </c>
+      <c r="AJ31">
+        <v>11</v>
+      </c>
+      <c r="AK31">
+        <v>11</v>
+      </c>
+      <c r="AL31">
+        <v>11</v>
+      </c>
+      <c r="AM31">
+        <v>12</v>
+      </c>
+      <c r="AN31">
+        <v>12</v>
+      </c>
+      <c r="AO31">
+        <v>13</v>
+      </c>
+      <c r="AP31">
+        <v>13</v>
+      </c>
+      <c r="AQ31">
+        <v>13</v>
+      </c>
+      <c r="AR31">
+        <v>13</v>
+      </c>
+      <c r="AS31">
+        <v>14</v>
+      </c>
+      <c r="AT31">
+        <v>15</v>
+      </c>
+      <c r="AU31">
+        <v>15</v>
+      </c>
+      <c r="AV31">
+        <v>15</v>
+      </c>
+      <c r="AW31">
+        <v>15</v>
+      </c>
+      <c r="AX31">
+        <v>16</v>
+      </c>
+      <c r="AY31" s="41">
         <v>18</v>
       </c>
-      <c r="W31" s="3">
+      <c r="AZ31" s="3">
         <v>25</v>
       </c>
     </row>
@@ -18587,10 +19181,97 @@
       <c r="U32">
         <v>2</v>
       </c>
-      <c r="V32" s="3">
+      <c r="V32">
+        <v>3</v>
+      </c>
+      <c r="W32">
+        <v>4</v>
+      </c>
+      <c r="X32">
         <v>5</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32">
+        <v>5</v>
+      </c>
+      <c r="Z32">
+        <v>5</v>
+      </c>
+      <c r="AA32">
+        <v>5</v>
+      </c>
+      <c r="AB32">
+        <v>5</v>
+      </c>
+      <c r="AC32">
+        <v>5</v>
+      </c>
+      <c r="AD32">
+        <v>5</v>
+      </c>
+      <c r="AE32">
+        <v>5</v>
+      </c>
+      <c r="AF32">
+        <v>5</v>
+      </c>
+      <c r="AG32">
+        <v>5</v>
+      </c>
+      <c r="AH32">
+        <v>5</v>
+      </c>
+      <c r="AI32">
+        <v>5</v>
+      </c>
+      <c r="AJ32">
+        <v>5</v>
+      </c>
+      <c r="AK32">
+        <v>5</v>
+      </c>
+      <c r="AL32">
+        <v>5</v>
+      </c>
+      <c r="AM32">
+        <v>5</v>
+      </c>
+      <c r="AN32">
+        <v>5</v>
+      </c>
+      <c r="AO32">
+        <v>5</v>
+      </c>
+      <c r="AP32">
+        <v>5</v>
+      </c>
+      <c r="AQ32">
+        <v>5</v>
+      </c>
+      <c r="AR32">
+        <v>5</v>
+      </c>
+      <c r="AS32">
+        <v>5</v>
+      </c>
+      <c r="AT32">
+        <v>5</v>
+      </c>
+      <c r="AU32">
+        <v>5</v>
+      </c>
+      <c r="AV32">
+        <v>5</v>
+      </c>
+      <c r="AW32">
+        <v>5</v>
+      </c>
+      <c r="AX32">
+        <v>5</v>
+      </c>
+      <c r="AY32" s="41">
+        <v>5</v>
+      </c>
+      <c r="AZ32" s="3">
         <v>10</v>
       </c>
     </row>
@@ -18658,10 +19339,97 @@
       <c r="U33" s="27">
         <v>12</v>
       </c>
-      <c r="V33" s="7">
+      <c r="V33" s="27">
+        <v>12</v>
+      </c>
+      <c r="W33" s="27">
+        <v>12</v>
+      </c>
+      <c r="X33" s="27">
+        <v>13</v>
+      </c>
+      <c r="Y33" s="27">
+        <v>14</v>
+      </c>
+      <c r="Z33" s="27">
+        <v>15</v>
+      </c>
+      <c r="AA33" s="27">
+        <v>16</v>
+      </c>
+      <c r="AB33" s="27">
+        <v>17</v>
+      </c>
+      <c r="AC33" s="27">
+        <v>18</v>
+      </c>
+      <c r="AD33" s="27">
+        <v>19</v>
+      </c>
+      <c r="AE33" s="27">
+        <v>20</v>
+      </c>
+      <c r="AF33" s="27">
+        <v>21</v>
+      </c>
+      <c r="AG33" s="27">
+        <v>22</v>
+      </c>
+      <c r="AH33" s="27">
+        <v>23</v>
+      </c>
+      <c r="AI33" s="27">
+        <v>24</v>
+      </c>
+      <c r="AJ33" s="27">
+        <v>25</v>
+      </c>
+      <c r="AK33" s="27">
+        <v>26</v>
+      </c>
+      <c r="AL33" s="27">
+        <v>27</v>
+      </c>
+      <c r="AM33" s="27">
+        <v>28</v>
+      </c>
+      <c r="AN33" s="27">
+        <v>29</v>
+      </c>
+      <c r="AO33" s="27">
+        <v>30</v>
+      </c>
+      <c r="AP33" s="27">
+        <v>31</v>
+      </c>
+      <c r="AQ33" s="27">
+        <v>32</v>
+      </c>
+      <c r="AR33" s="27">
+        <v>33</v>
+      </c>
+      <c r="AS33" s="27">
+        <v>34</v>
+      </c>
+      <c r="AT33" s="27">
+        <v>35</v>
+      </c>
+      <c r="AU33" s="27">
+        <v>36</v>
+      </c>
+      <c r="AV33" s="27">
+        <v>37</v>
+      </c>
+      <c r="AW33" s="27">
+        <v>38</v>
+      </c>
+      <c r="AX33" s="27">
+        <v>39</v>
+      </c>
+      <c r="AY33" s="42">
         <v>40</v>
       </c>
-      <c r="W33" s="7">
+      <c r="AZ33" s="7">
         <v>100</v>
       </c>
     </row>
@@ -18671,7 +19439,7 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:U34" si="18">SUM(C26:C33)</f>
+        <f t="shared" ref="C34:AX34" si="18">SUM(C26:C33)</f>
         <v>10</v>
       </c>
       <c r="D34">
@@ -18746,12 +19514,128 @@
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="V34" s="3">
-        <f>SUM(V26:V33)</f>
+      <c r="V34">
+        <f t="shared" si="18"/>
+        <v>105</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="18"/>
+        <v>110</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="18"/>
+        <v>115</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="18"/>
+        <v>120</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="18"/>
+        <v>125</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="18"/>
+        <v>130</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="18"/>
+        <v>135</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="18"/>
+        <v>140</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="18"/>
+        <v>145</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="18"/>
+        <v>150</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="18"/>
+        <v>155</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="18"/>
+        <v>160</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="18"/>
+        <v>165</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="18"/>
+        <v>170</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="18"/>
+        <v>175</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="18"/>
+        <v>180</v>
+      </c>
+      <c r="AL34">
+        <f t="shared" si="18"/>
+        <v>185</v>
+      </c>
+      <c r="AM34">
+        <f t="shared" si="18"/>
+        <v>190</v>
+      </c>
+      <c r="AN34">
+        <f t="shared" si="18"/>
+        <v>195</v>
+      </c>
+      <c r="AO34">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="AP34">
+        <f t="shared" si="18"/>
+        <v>205</v>
+      </c>
+      <c r="AQ34">
+        <f t="shared" si="18"/>
+        <v>210</v>
+      </c>
+      <c r="AR34">
+        <f t="shared" si="18"/>
+        <v>215</v>
+      </c>
+      <c r="AS34">
+        <f t="shared" si="18"/>
+        <v>220</v>
+      </c>
+      <c r="AT34">
+        <f t="shared" si="18"/>
+        <v>225</v>
+      </c>
+      <c r="AU34">
+        <f t="shared" si="18"/>
+        <v>230</v>
+      </c>
+      <c r="AV34">
+        <f t="shared" si="18"/>
+        <v>235</v>
+      </c>
+      <c r="AW34">
+        <f t="shared" si="18"/>
+        <v>240</v>
+      </c>
+      <c r="AX34">
+        <f t="shared" si="18"/>
+        <v>245</v>
+      </c>
+      <c r="AY34" s="41">
+        <f>SUM(AY26:AY33)</f>
         <v>250</v>
       </c>
-      <c r="W34" s="3">
-        <f>SUM(W26:W33)</f>
+      <c r="AZ34" s="3">
+        <f>SUM(AZ26:AZ33)</f>
         <v>500</v>
       </c>
     </row>
@@ -21957,7 +22841,7 @@
       <c r="T49" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="U49" s="47" t="s">
+      <c r="U49" s="36" t="s">
         <v>18</v>
       </c>
       <c r="V49" s="28" t="s">
@@ -22047,7 +22931,7 @@
       <c r="AX49" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="AY49" s="47" t="s">
+      <c r="AY49" s="36" t="s">
         <v>19</v>
       </c>
       <c r="AZ49" s="28" t="s">
@@ -22077,7 +22961,7 @@
       <c r="BH49" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="BI49" s="48" t="s">
+      <c r="BI49" s="28" t="s">
         <v>82</v>
       </c>
       <c r="BJ49" s="28" t="s">
@@ -22107,7 +22991,7 @@
       <c r="BR49" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="BS49" s="48" t="s">
+      <c r="BS49" s="28" t="s">
         <v>82</v>
       </c>
       <c r="BT49" s="28" t="s">
@@ -22137,7 +23021,7 @@
       <c r="CB49" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="CC49" s="48" t="s">
+      <c r="CC49" s="28" t="s">
         <v>82</v>
       </c>
       <c r="CD49" s="28" t="s">
@@ -22167,7 +23051,7 @@
       <c r="CL49" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="CM49" s="48" t="s">
+      <c r="CM49" s="28" t="s">
         <v>82</v>
       </c>
       <c r="CN49" s="28" t="s">
@@ -22197,7 +23081,7 @@
       <c r="CV49" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="CW49" s="47" t="s">
+      <c r="CW49" s="36" t="s">
         <v>20</v>
       </c>
     </row>
@@ -22502,7 +23386,7 @@
       <c r="CV50">
         <v>50</v>
       </c>
-      <c r="CW50" s="43">
+      <c r="CW50">
         <v>50</v>
       </c>
     </row>
@@ -22807,7 +23691,7 @@
       <c r="CV51">
         <v>55</v>
       </c>
-      <c r="CW51" s="43">
+      <c r="CW51">
         <v>55</v>
       </c>
     </row>
@@ -23112,7 +23996,7 @@
       <c r="CV52">
         <v>60</v>
       </c>
-      <c r="CW52" s="43">
+      <c r="CW52">
         <v>60</v>
       </c>
     </row>
@@ -23417,7 +24301,7 @@
       <c r="CV53">
         <v>50</v>
       </c>
-      <c r="CW53" s="43">
+      <c r="CW53">
         <v>50</v>
       </c>
     </row>
@@ -23722,7 +24606,7 @@
       <c r="CV54">
         <v>69</v>
       </c>
-      <c r="CW54" s="43">
+      <c r="CW54">
         <v>70</v>
       </c>
     </row>
@@ -24027,7 +24911,7 @@
       <c r="CV55">
         <v>99</v>
       </c>
-      <c r="CW55" s="43">
+      <c r="CW55">
         <v>100</v>
       </c>
     </row>
@@ -24332,7 +25216,7 @@
       <c r="CV56">
         <v>90</v>
       </c>
-      <c r="CW56" s="43">
+      <c r="CW56">
         <v>90</v>
       </c>
     </row>
@@ -24637,7 +25521,7 @@
       <c r="CV57" s="27">
         <v>22</v>
       </c>
-      <c r="CW57" s="45">
+      <c r="CW57" s="27">
         <v>25</v>
       </c>
     </row>

--- a/doc/caste_system.xlsx
+++ b/doc/caste_system.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/349dfb9748b30a92/Asztali gép/ataliasflame_2.0/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7947" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7441BDF2-FCCA-4460-8DEA-2B2E46327A39}"/>
+  <xr:revisionPtr revIDLastSave="8332" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD120FA1-8182-4EAD-955F-AEC68DF05096}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
   </bookViews>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="85">
   <si>
     <t>csavargó</t>
   </si>
@@ -2012,7 +2012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2084,8 +2084,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -11700,8 +11698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD573711-C846-40DC-8629-19A685998D3E}">
   <dimension ref="A1:CX58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA16" workbookViewId="0">
-      <selection activeCell="AY36" sqref="AY36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="CS31" sqref="CS31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11715,11 +11713,10 @@
     <col min="22" max="47" width="4" bestFit="1" customWidth="1"/>
     <col min="48" max="50" width="4" customWidth="1"/>
     <col min="51" max="51" width="16" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="53" max="55" width="4" bestFit="1" customWidth="1"/>
+    <col min="52" max="55" width="4" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="4" customWidth="1"/>
     <col min="57" max="100" width="4" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18165,7 +18162,154 @@
       <c r="AY25" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AZ25" s="34" t="s">
+      <c r="AZ25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BN25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BP25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BQ25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BT25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BV25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BW25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BX25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BY25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="BZ25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CA25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CB25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CC25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CD25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CH25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CI25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CJ25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CK25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CL25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CM25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CN25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CO25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CP25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CQ25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CR25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CS25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CT25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CU25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CV25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="CW25" s="34" t="s">
         <v>12</v>
       </c>
     </row>
@@ -18320,10 +18464,157 @@
       <c r="AX26">
         <v>35</v>
       </c>
-      <c r="AY26" s="41">
+      <c r="AY26">
         <v>35</v>
       </c>
-      <c r="AZ26" s="3">
+      <c r="AZ26">
+        <v>36</v>
+      </c>
+      <c r="BA26">
+        <v>37</v>
+      </c>
+      <c r="BB26">
+        <v>38</v>
+      </c>
+      <c r="BC26">
+        <v>39</v>
+      </c>
+      <c r="BD26">
+        <v>39</v>
+      </c>
+      <c r="BE26">
+        <v>40</v>
+      </c>
+      <c r="BF26">
+        <v>41</v>
+      </c>
+      <c r="BG26">
+        <v>42</v>
+      </c>
+      <c r="BH26">
+        <v>43</v>
+      </c>
+      <c r="BI26">
+        <v>43</v>
+      </c>
+      <c r="BJ26">
+        <v>44</v>
+      </c>
+      <c r="BK26">
+        <v>45</v>
+      </c>
+      <c r="BL26">
+        <v>46</v>
+      </c>
+      <c r="BM26">
+        <v>47</v>
+      </c>
+      <c r="BN26">
+        <v>47</v>
+      </c>
+      <c r="BO26">
+        <v>48</v>
+      </c>
+      <c r="BP26">
+        <v>49</v>
+      </c>
+      <c r="BQ26">
+        <v>50</v>
+      </c>
+      <c r="BR26">
+        <v>51</v>
+      </c>
+      <c r="BS26">
+        <v>51</v>
+      </c>
+      <c r="BT26">
+        <v>52</v>
+      </c>
+      <c r="BU26">
+        <v>53</v>
+      </c>
+      <c r="BV26">
+        <v>54</v>
+      </c>
+      <c r="BW26">
+        <v>55</v>
+      </c>
+      <c r="BX26">
+        <v>55</v>
+      </c>
+      <c r="BY26">
+        <v>56</v>
+      </c>
+      <c r="BZ26">
+        <v>57</v>
+      </c>
+      <c r="CA26">
+        <v>58</v>
+      </c>
+      <c r="CB26">
+        <v>59</v>
+      </c>
+      <c r="CC26">
+        <v>59</v>
+      </c>
+      <c r="CD26">
+        <v>60</v>
+      </c>
+      <c r="CE26">
+        <v>61</v>
+      </c>
+      <c r="CF26">
+        <v>62</v>
+      </c>
+      <c r="CG26">
+        <v>63</v>
+      </c>
+      <c r="CH26">
+        <v>63</v>
+      </c>
+      <c r="CI26">
+        <v>64</v>
+      </c>
+      <c r="CJ26">
+        <v>65</v>
+      </c>
+      <c r="CK26">
+        <v>66</v>
+      </c>
+      <c r="CL26">
+        <v>67</v>
+      </c>
+      <c r="CM26">
+        <v>67</v>
+      </c>
+      <c r="CN26">
+        <v>68</v>
+      </c>
+      <c r="CO26">
+        <v>69</v>
+      </c>
+      <c r="CP26">
+        <v>70</v>
+      </c>
+      <c r="CQ26">
+        <v>71</v>
+      </c>
+      <c r="CR26">
+        <v>71</v>
+      </c>
+      <c r="CS26">
+        <v>72</v>
+      </c>
+      <c r="CT26">
+        <v>73</v>
+      </c>
+      <c r="CU26">
+        <v>74</v>
+      </c>
+      <c r="CV26">
+        <v>75</v>
+      </c>
+      <c r="CW26" s="3">
         <v>75</v>
       </c>
     </row>
@@ -18478,10 +18769,157 @@
       <c r="AX27">
         <v>42</v>
       </c>
-      <c r="AY27" s="41">
+      <c r="AY27">
         <v>42</v>
       </c>
-      <c r="AZ27" s="3">
+      <c r="AZ27">
+        <v>42</v>
+      </c>
+      <c r="BA27">
+        <v>42</v>
+      </c>
+      <c r="BB27">
+        <v>42</v>
+      </c>
+      <c r="BC27">
+        <v>42</v>
+      </c>
+      <c r="BD27">
+        <v>43</v>
+      </c>
+      <c r="BE27">
+        <v>44</v>
+      </c>
+      <c r="BF27">
+        <v>45</v>
+      </c>
+      <c r="BG27">
+        <v>46</v>
+      </c>
+      <c r="BH27">
+        <v>47</v>
+      </c>
+      <c r="BI27">
+        <v>47</v>
+      </c>
+      <c r="BJ27">
+        <v>48</v>
+      </c>
+      <c r="BK27">
+        <v>49</v>
+      </c>
+      <c r="BL27">
+        <v>50</v>
+      </c>
+      <c r="BM27">
+        <v>51</v>
+      </c>
+      <c r="BN27">
+        <v>51</v>
+      </c>
+      <c r="BO27">
+        <v>52</v>
+      </c>
+      <c r="BP27">
+        <v>53</v>
+      </c>
+      <c r="BQ27">
+        <v>54</v>
+      </c>
+      <c r="BR27">
+        <v>55</v>
+      </c>
+      <c r="BS27">
+        <v>55</v>
+      </c>
+      <c r="BT27">
+        <v>56</v>
+      </c>
+      <c r="BU27">
+        <v>57</v>
+      </c>
+      <c r="BV27">
+        <v>58</v>
+      </c>
+      <c r="BW27">
+        <v>59</v>
+      </c>
+      <c r="BX27">
+        <v>59</v>
+      </c>
+      <c r="BY27">
+        <v>60</v>
+      </c>
+      <c r="BZ27">
+        <v>61</v>
+      </c>
+      <c r="CA27">
+        <v>62</v>
+      </c>
+      <c r="CB27">
+        <v>63</v>
+      </c>
+      <c r="CC27">
+        <v>63</v>
+      </c>
+      <c r="CD27">
+        <v>64</v>
+      </c>
+      <c r="CE27">
+        <v>65</v>
+      </c>
+      <c r="CF27">
+        <v>66</v>
+      </c>
+      <c r="CG27">
+        <v>67</v>
+      </c>
+      <c r="CH27">
+        <v>67</v>
+      </c>
+      <c r="CI27">
+        <v>68</v>
+      </c>
+      <c r="CJ27">
+        <v>69</v>
+      </c>
+      <c r="CK27">
+        <v>70</v>
+      </c>
+      <c r="CL27">
+        <v>71</v>
+      </c>
+      <c r="CM27">
+        <v>71</v>
+      </c>
+      <c r="CN27">
+        <v>72</v>
+      </c>
+      <c r="CO27">
+        <v>73</v>
+      </c>
+      <c r="CP27">
+        <v>74</v>
+      </c>
+      <c r="CQ27">
+        <v>75</v>
+      </c>
+      <c r="CR27">
+        <v>76</v>
+      </c>
+      <c r="CS27">
+        <v>77</v>
+      </c>
+      <c r="CT27">
+        <v>78</v>
+      </c>
+      <c r="CU27">
+        <v>79</v>
+      </c>
+      <c r="CV27">
+        <v>80</v>
+      </c>
+      <c r="CW27" s="3">
         <v>80</v>
       </c>
     </row>
@@ -18636,10 +19074,157 @@
       <c r="AX28">
         <v>44</v>
       </c>
-      <c r="AY28" s="41">
+      <c r="AY28">
         <v>45</v>
       </c>
-      <c r="AZ28" s="3">
+      <c r="AZ28">
+        <v>46</v>
+      </c>
+      <c r="BA28">
+        <v>47</v>
+      </c>
+      <c r="BB28">
+        <v>48</v>
+      </c>
+      <c r="BC28">
+        <v>49</v>
+      </c>
+      <c r="BD28">
+        <v>49</v>
+      </c>
+      <c r="BE28">
+        <v>50</v>
+      </c>
+      <c r="BF28">
+        <v>51</v>
+      </c>
+      <c r="BG28">
+        <v>52</v>
+      </c>
+      <c r="BH28">
+        <v>53</v>
+      </c>
+      <c r="BI28">
+        <v>53</v>
+      </c>
+      <c r="BJ28">
+        <v>54</v>
+      </c>
+      <c r="BK28">
+        <v>55</v>
+      </c>
+      <c r="BL28">
+        <v>56</v>
+      </c>
+      <c r="BM28">
+        <v>57</v>
+      </c>
+      <c r="BN28">
+        <v>57</v>
+      </c>
+      <c r="BO28">
+        <v>58</v>
+      </c>
+      <c r="BP28">
+        <v>59</v>
+      </c>
+      <c r="BQ28">
+        <v>60</v>
+      </c>
+      <c r="BR28">
+        <v>61</v>
+      </c>
+      <c r="BS28">
+        <v>61</v>
+      </c>
+      <c r="BT28">
+        <v>62</v>
+      </c>
+      <c r="BU28">
+        <v>63</v>
+      </c>
+      <c r="BV28">
+        <v>64</v>
+      </c>
+      <c r="BW28">
+        <v>65</v>
+      </c>
+      <c r="BX28">
+        <v>65</v>
+      </c>
+      <c r="BY28">
+        <v>66</v>
+      </c>
+      <c r="BZ28">
+        <v>67</v>
+      </c>
+      <c r="CA28">
+        <v>68</v>
+      </c>
+      <c r="CB28">
+        <v>69</v>
+      </c>
+      <c r="CC28">
+        <v>69</v>
+      </c>
+      <c r="CD28">
+        <v>70</v>
+      </c>
+      <c r="CE28">
+        <v>71</v>
+      </c>
+      <c r="CF28">
+        <v>72</v>
+      </c>
+      <c r="CG28">
+        <v>73</v>
+      </c>
+      <c r="CH28">
+        <v>73</v>
+      </c>
+      <c r="CI28">
+        <v>74</v>
+      </c>
+      <c r="CJ28">
+        <v>75</v>
+      </c>
+      <c r="CK28">
+        <v>76</v>
+      </c>
+      <c r="CL28">
+        <v>77</v>
+      </c>
+      <c r="CM28">
+        <v>77</v>
+      </c>
+      <c r="CN28">
+        <v>78</v>
+      </c>
+      <c r="CO28">
+        <v>79</v>
+      </c>
+      <c r="CP28">
+        <v>80</v>
+      </c>
+      <c r="CQ28">
+        <v>81</v>
+      </c>
+      <c r="CR28">
+        <v>81</v>
+      </c>
+      <c r="CS28">
+        <v>82</v>
+      </c>
+      <c r="CT28">
+        <v>83</v>
+      </c>
+      <c r="CU28">
+        <v>84</v>
+      </c>
+      <c r="CV28">
+        <v>85</v>
+      </c>
+      <c r="CW28" s="3">
         <v>85</v>
       </c>
     </row>
@@ -18794,10 +19379,157 @@
       <c r="AX29">
         <v>45</v>
       </c>
-      <c r="AY29" s="41">
+      <c r="AY29">
         <v>45</v>
       </c>
-      <c r="AZ29" s="3">
+      <c r="AZ29">
+        <v>46</v>
+      </c>
+      <c r="BA29">
+        <v>47</v>
+      </c>
+      <c r="BB29">
+        <v>48</v>
+      </c>
+      <c r="BC29">
+        <v>49</v>
+      </c>
+      <c r="BD29">
+        <v>49</v>
+      </c>
+      <c r="BE29">
+        <v>50</v>
+      </c>
+      <c r="BF29">
+        <v>51</v>
+      </c>
+      <c r="BG29">
+        <v>52</v>
+      </c>
+      <c r="BH29">
+        <v>53</v>
+      </c>
+      <c r="BI29">
+        <v>53</v>
+      </c>
+      <c r="BJ29">
+        <v>54</v>
+      </c>
+      <c r="BK29">
+        <v>55</v>
+      </c>
+      <c r="BL29">
+        <v>56</v>
+      </c>
+      <c r="BM29">
+        <v>57</v>
+      </c>
+      <c r="BN29">
+        <v>57</v>
+      </c>
+      <c r="BO29">
+        <v>58</v>
+      </c>
+      <c r="BP29">
+        <v>59</v>
+      </c>
+      <c r="BQ29">
+        <v>60</v>
+      </c>
+      <c r="BR29">
+        <v>61</v>
+      </c>
+      <c r="BS29">
+        <v>61</v>
+      </c>
+      <c r="BT29">
+        <v>62</v>
+      </c>
+      <c r="BU29">
+        <v>63</v>
+      </c>
+      <c r="BV29">
+        <v>64</v>
+      </c>
+      <c r="BW29">
+        <v>65</v>
+      </c>
+      <c r="BX29">
+        <v>65</v>
+      </c>
+      <c r="BY29">
+        <v>66</v>
+      </c>
+      <c r="BZ29">
+        <v>67</v>
+      </c>
+      <c r="CA29">
+        <v>68</v>
+      </c>
+      <c r="CB29">
+        <v>69</v>
+      </c>
+      <c r="CC29">
+        <v>69</v>
+      </c>
+      <c r="CD29">
+        <v>70</v>
+      </c>
+      <c r="CE29">
+        <v>71</v>
+      </c>
+      <c r="CF29">
+        <v>72</v>
+      </c>
+      <c r="CG29">
+        <v>73</v>
+      </c>
+      <c r="CH29">
+        <v>73</v>
+      </c>
+      <c r="CI29">
+        <v>74</v>
+      </c>
+      <c r="CJ29">
+        <v>75</v>
+      </c>
+      <c r="CK29">
+        <v>76</v>
+      </c>
+      <c r="CL29">
+        <v>77</v>
+      </c>
+      <c r="CM29">
+        <v>77</v>
+      </c>
+      <c r="CN29">
+        <v>78</v>
+      </c>
+      <c r="CO29">
+        <v>79</v>
+      </c>
+      <c r="CP29">
+        <v>80</v>
+      </c>
+      <c r="CQ29">
+        <v>81</v>
+      </c>
+      <c r="CR29">
+        <v>81</v>
+      </c>
+      <c r="CS29">
+        <v>82</v>
+      </c>
+      <c r="CT29">
+        <v>83</v>
+      </c>
+      <c r="CU29">
+        <v>84</v>
+      </c>
+      <c r="CV29">
+        <v>85</v>
+      </c>
+      <c r="CW29" s="3">
         <v>85</v>
       </c>
     </row>
@@ -18952,10 +19684,157 @@
       <c r="AX30">
         <v>19</v>
       </c>
-      <c r="AY30" s="41">
+      <c r="AY30">
         <v>20</v>
       </c>
-      <c r="AZ30" s="3">
+      <c r="AZ30">
+        <v>20</v>
+      </c>
+      <c r="BA30">
+        <v>20</v>
+      </c>
+      <c r="BB30">
+        <v>20</v>
+      </c>
+      <c r="BC30">
+        <v>20</v>
+      </c>
+      <c r="BD30">
+        <v>21</v>
+      </c>
+      <c r="BE30">
+        <v>21</v>
+      </c>
+      <c r="BF30">
+        <v>21</v>
+      </c>
+      <c r="BG30">
+        <v>21</v>
+      </c>
+      <c r="BH30">
+        <v>21</v>
+      </c>
+      <c r="BI30">
+        <v>23</v>
+      </c>
+      <c r="BJ30">
+        <v>23</v>
+      </c>
+      <c r="BK30">
+        <v>23</v>
+      </c>
+      <c r="BL30">
+        <v>23</v>
+      </c>
+      <c r="BM30">
+        <v>23</v>
+      </c>
+      <c r="BN30">
+        <v>25</v>
+      </c>
+      <c r="BO30">
+        <v>25</v>
+      </c>
+      <c r="BP30">
+        <v>25</v>
+      </c>
+      <c r="BQ30">
+        <v>25</v>
+      </c>
+      <c r="BR30">
+        <v>25</v>
+      </c>
+      <c r="BS30">
+        <v>27</v>
+      </c>
+      <c r="BT30">
+        <v>27</v>
+      </c>
+      <c r="BU30">
+        <v>27</v>
+      </c>
+      <c r="BV30">
+        <v>27</v>
+      </c>
+      <c r="BW30">
+        <v>27</v>
+      </c>
+      <c r="BX30">
+        <v>29</v>
+      </c>
+      <c r="BY30">
+        <v>29</v>
+      </c>
+      <c r="BZ30">
+        <v>29</v>
+      </c>
+      <c r="CA30">
+        <v>29</v>
+      </c>
+      <c r="CB30">
+        <v>29</v>
+      </c>
+      <c r="CC30">
+        <v>31</v>
+      </c>
+      <c r="CD30">
+        <v>31</v>
+      </c>
+      <c r="CE30">
+        <v>31</v>
+      </c>
+      <c r="CF30">
+        <v>31</v>
+      </c>
+      <c r="CG30">
+        <v>31</v>
+      </c>
+      <c r="CH30">
+        <v>33</v>
+      </c>
+      <c r="CI30">
+        <v>33</v>
+      </c>
+      <c r="CJ30">
+        <v>33</v>
+      </c>
+      <c r="CK30">
+        <v>33</v>
+      </c>
+      <c r="CL30">
+        <v>33</v>
+      </c>
+      <c r="CM30">
+        <v>35</v>
+      </c>
+      <c r="CN30">
+        <v>35</v>
+      </c>
+      <c r="CO30">
+        <v>35</v>
+      </c>
+      <c r="CP30">
+        <v>35</v>
+      </c>
+      <c r="CQ30">
+        <v>35</v>
+      </c>
+      <c r="CR30">
+        <v>37</v>
+      </c>
+      <c r="CS30">
+        <v>37</v>
+      </c>
+      <c r="CT30">
+        <v>37</v>
+      </c>
+      <c r="CU30">
+        <v>37</v>
+      </c>
+      <c r="CV30">
+        <v>37</v>
+      </c>
+      <c r="CW30" s="3">
         <v>40</v>
       </c>
     </row>
@@ -19110,10 +19989,157 @@
       <c r="AX31">
         <v>16</v>
       </c>
-      <c r="AY31" s="41">
+      <c r="AY31">
         <v>18</v>
       </c>
-      <c r="AZ31" s="3">
+      <c r="AZ31">
+        <v>18</v>
+      </c>
+      <c r="BA31">
+        <v>18</v>
+      </c>
+      <c r="BB31">
+        <v>18</v>
+      </c>
+      <c r="BC31">
+        <v>18</v>
+      </c>
+      <c r="BD31">
+        <v>18</v>
+      </c>
+      <c r="BE31">
+        <v>18</v>
+      </c>
+      <c r="BF31">
+        <v>18</v>
+      </c>
+      <c r="BG31">
+        <v>18</v>
+      </c>
+      <c r="BH31">
+        <v>18</v>
+      </c>
+      <c r="BI31">
+        <v>19</v>
+      </c>
+      <c r="BJ31">
+        <v>19</v>
+      </c>
+      <c r="BK31">
+        <v>19</v>
+      </c>
+      <c r="BL31">
+        <v>19</v>
+      </c>
+      <c r="BM31">
+        <v>19</v>
+      </c>
+      <c r="BN31">
+        <v>20</v>
+      </c>
+      <c r="BO31">
+        <v>20</v>
+      </c>
+      <c r="BP31">
+        <v>20</v>
+      </c>
+      <c r="BQ31">
+        <v>20</v>
+      </c>
+      <c r="BR31">
+        <v>20</v>
+      </c>
+      <c r="BS31">
+        <v>21</v>
+      </c>
+      <c r="BT31">
+        <v>21</v>
+      </c>
+      <c r="BU31">
+        <v>21</v>
+      </c>
+      <c r="BV31">
+        <v>21</v>
+      </c>
+      <c r="BW31">
+        <v>21</v>
+      </c>
+      <c r="BX31">
+        <v>22</v>
+      </c>
+      <c r="BY31">
+        <v>22</v>
+      </c>
+      <c r="BZ31">
+        <v>22</v>
+      </c>
+      <c r="CA31">
+        <v>22</v>
+      </c>
+      <c r="CB31">
+        <v>22</v>
+      </c>
+      <c r="CC31">
+        <v>23</v>
+      </c>
+      <c r="CD31">
+        <v>23</v>
+      </c>
+      <c r="CE31">
+        <v>23</v>
+      </c>
+      <c r="CF31">
+        <v>23</v>
+      </c>
+      <c r="CG31">
+        <v>23</v>
+      </c>
+      <c r="CH31">
+        <v>24</v>
+      </c>
+      <c r="CI31">
+        <v>24</v>
+      </c>
+      <c r="CJ31">
+        <v>24</v>
+      </c>
+      <c r="CK31">
+        <v>24</v>
+      </c>
+      <c r="CL31">
+        <v>24</v>
+      </c>
+      <c r="CM31">
+        <v>25</v>
+      </c>
+      <c r="CN31">
+        <v>25</v>
+      </c>
+      <c r="CO31">
+        <v>25</v>
+      </c>
+      <c r="CP31">
+        <v>25</v>
+      </c>
+      <c r="CQ31">
+        <v>25</v>
+      </c>
+      <c r="CR31">
+        <v>25</v>
+      </c>
+      <c r="CS31">
+        <v>25</v>
+      </c>
+      <c r="CT31">
+        <v>25</v>
+      </c>
+      <c r="CU31">
+        <v>25</v>
+      </c>
+      <c r="CV31">
+        <v>25</v>
+      </c>
+      <c r="CW31" s="3">
         <v>25</v>
       </c>
     </row>
@@ -19268,10 +20294,157 @@
       <c r="AX32">
         <v>5</v>
       </c>
-      <c r="AY32" s="41">
+      <c r="AY32">
         <v>5</v>
       </c>
-      <c r="AZ32" s="3">
+      <c r="AZ32">
+        <v>6</v>
+      </c>
+      <c r="BA32">
+        <v>7</v>
+      </c>
+      <c r="BB32">
+        <v>8</v>
+      </c>
+      <c r="BC32">
+        <v>9</v>
+      </c>
+      <c r="BD32">
+        <v>10</v>
+      </c>
+      <c r="BE32">
+        <v>10</v>
+      </c>
+      <c r="BF32">
+        <v>10</v>
+      </c>
+      <c r="BG32">
+        <v>10</v>
+      </c>
+      <c r="BH32">
+        <v>10</v>
+      </c>
+      <c r="BI32">
+        <v>10</v>
+      </c>
+      <c r="BJ32">
+        <v>10</v>
+      </c>
+      <c r="BK32">
+        <v>10</v>
+      </c>
+      <c r="BL32">
+        <v>10</v>
+      </c>
+      <c r="BM32">
+        <v>10</v>
+      </c>
+      <c r="BN32">
+        <v>10</v>
+      </c>
+      <c r="BO32">
+        <v>10</v>
+      </c>
+      <c r="BP32">
+        <v>10</v>
+      </c>
+      <c r="BQ32">
+        <v>10</v>
+      </c>
+      <c r="BR32">
+        <v>10</v>
+      </c>
+      <c r="BS32">
+        <v>10</v>
+      </c>
+      <c r="BT32">
+        <v>10</v>
+      </c>
+      <c r="BU32">
+        <v>10</v>
+      </c>
+      <c r="BV32">
+        <v>10</v>
+      </c>
+      <c r="BW32">
+        <v>10</v>
+      </c>
+      <c r="BX32">
+        <v>10</v>
+      </c>
+      <c r="BY32">
+        <v>10</v>
+      </c>
+      <c r="BZ32">
+        <v>10</v>
+      </c>
+      <c r="CA32">
+        <v>10</v>
+      </c>
+      <c r="CB32">
+        <v>10</v>
+      </c>
+      <c r="CC32">
+        <v>10</v>
+      </c>
+      <c r="CD32">
+        <v>10</v>
+      </c>
+      <c r="CE32">
+        <v>10</v>
+      </c>
+      <c r="CF32">
+        <v>10</v>
+      </c>
+      <c r="CG32">
+        <v>10</v>
+      </c>
+      <c r="CH32">
+        <v>10</v>
+      </c>
+      <c r="CI32">
+        <v>10</v>
+      </c>
+      <c r="CJ32">
+        <v>10</v>
+      </c>
+      <c r="CK32">
+        <v>10</v>
+      </c>
+      <c r="CL32">
+        <v>10</v>
+      </c>
+      <c r="CM32">
+        <v>10</v>
+      </c>
+      <c r="CN32">
+        <v>10</v>
+      </c>
+      <c r="CO32">
+        <v>10</v>
+      </c>
+      <c r="CP32">
+        <v>10</v>
+      </c>
+      <c r="CQ32">
+        <v>10</v>
+      </c>
+      <c r="CR32">
+        <v>10</v>
+      </c>
+      <c r="CS32">
+        <v>10</v>
+      </c>
+      <c r="CT32">
+        <v>10</v>
+      </c>
+      <c r="CU32">
+        <v>10</v>
+      </c>
+      <c r="CV32">
+        <v>10</v>
+      </c>
+      <c r="CW32" s="3">
         <v>10</v>
       </c>
     </row>
@@ -19426,10 +20599,157 @@
       <c r="AX33" s="27">
         <v>39</v>
       </c>
-      <c r="AY33" s="42">
+      <c r="AY33" s="27">
         <v>40</v>
       </c>
-      <c r="AZ33" s="7">
+      <c r="AZ33" s="27">
+        <v>41</v>
+      </c>
+      <c r="BA33" s="27">
+        <v>42</v>
+      </c>
+      <c r="BB33" s="27">
+        <v>43</v>
+      </c>
+      <c r="BC33" s="27">
+        <v>44</v>
+      </c>
+      <c r="BD33" s="27">
+        <v>46</v>
+      </c>
+      <c r="BE33" s="27">
+        <v>47</v>
+      </c>
+      <c r="BF33" s="27">
+        <v>48</v>
+      </c>
+      <c r="BG33" s="27">
+        <v>49</v>
+      </c>
+      <c r="BH33" s="27">
+        <v>50</v>
+      </c>
+      <c r="BI33" s="27">
+        <v>52</v>
+      </c>
+      <c r="BJ33" s="27">
+        <v>53</v>
+      </c>
+      <c r="BK33" s="27">
+        <v>54</v>
+      </c>
+      <c r="BL33" s="27">
+        <v>55</v>
+      </c>
+      <c r="BM33" s="27">
+        <v>56</v>
+      </c>
+      <c r="BN33" s="27">
+        <v>58</v>
+      </c>
+      <c r="BO33" s="27">
+        <v>59</v>
+      </c>
+      <c r="BP33" s="27">
+        <v>60</v>
+      </c>
+      <c r="BQ33" s="27">
+        <v>61</v>
+      </c>
+      <c r="BR33" s="27">
+        <v>62</v>
+      </c>
+      <c r="BS33" s="27">
+        <v>64</v>
+      </c>
+      <c r="BT33" s="27">
+        <v>65</v>
+      </c>
+      <c r="BU33" s="27">
+        <v>66</v>
+      </c>
+      <c r="BV33" s="27">
+        <v>67</v>
+      </c>
+      <c r="BW33" s="27">
+        <v>68</v>
+      </c>
+      <c r="BX33" s="27">
+        <v>70</v>
+      </c>
+      <c r="BY33" s="27">
+        <v>71</v>
+      </c>
+      <c r="BZ33" s="27">
+        <v>72</v>
+      </c>
+      <c r="CA33" s="27">
+        <v>73</v>
+      </c>
+      <c r="CB33" s="27">
+        <v>74</v>
+      </c>
+      <c r="CC33" s="27">
+        <v>76</v>
+      </c>
+      <c r="CD33" s="27">
+        <v>77</v>
+      </c>
+      <c r="CE33" s="27">
+        <v>78</v>
+      </c>
+      <c r="CF33" s="27">
+        <v>79</v>
+      </c>
+      <c r="CG33" s="27">
+        <v>80</v>
+      </c>
+      <c r="CH33" s="27">
+        <v>82</v>
+      </c>
+      <c r="CI33" s="27">
+        <v>83</v>
+      </c>
+      <c r="CJ33" s="27">
+        <v>84</v>
+      </c>
+      <c r="CK33" s="27">
+        <v>85</v>
+      </c>
+      <c r="CL33" s="27">
+        <v>86</v>
+      </c>
+      <c r="CM33" s="27">
+        <v>88</v>
+      </c>
+      <c r="CN33" s="27">
+        <v>89</v>
+      </c>
+      <c r="CO33" s="27">
+        <v>90</v>
+      </c>
+      <c r="CP33" s="27">
+        <v>91</v>
+      </c>
+      <c r="CQ33" s="27">
+        <v>92</v>
+      </c>
+      <c r="CR33" s="27">
+        <v>94</v>
+      </c>
+      <c r="CS33" s="27">
+        <v>95</v>
+      </c>
+      <c r="CT33" s="27">
+        <v>96</v>
+      </c>
+      <c r="CU33" s="27">
+        <v>97</v>
+      </c>
+      <c r="CV33" s="27">
+        <v>98</v>
+      </c>
+      <c r="CW33" s="7">
         <v>100</v>
       </c>
     </row>
@@ -19630,13 +20950,415 @@
         <f t="shared" si="18"/>
         <v>245</v>
       </c>
-      <c r="AY34" s="41">
+      <c r="AY34">
         <f>SUM(AY26:AY33)</f>
         <v>250</v>
       </c>
-      <c r="AZ34" s="3">
-        <f>SUM(AZ26:AZ33)</f>
+      <c r="AZ34">
+        <f t="shared" ref="AZ34:CW34" si="19">SUM(AZ26:AZ33)</f>
+        <v>255</v>
+      </c>
+      <c r="BA34">
+        <f t="shared" si="19"/>
+        <v>260</v>
+      </c>
+      <c r="BB34">
+        <f t="shared" si="19"/>
+        <v>265</v>
+      </c>
+      <c r="BC34">
+        <f t="shared" si="19"/>
+        <v>270</v>
+      </c>
+      <c r="BD34">
+        <f t="shared" si="19"/>
+        <v>275</v>
+      </c>
+      <c r="BE34">
+        <f t="shared" si="19"/>
+        <v>280</v>
+      </c>
+      <c r="BF34">
+        <f t="shared" si="19"/>
+        <v>285</v>
+      </c>
+      <c r="BG34">
+        <f t="shared" si="19"/>
+        <v>290</v>
+      </c>
+      <c r="BH34">
+        <f t="shared" si="19"/>
+        <v>295</v>
+      </c>
+      <c r="BI34">
+        <f t="shared" si="19"/>
+        <v>300</v>
+      </c>
+      <c r="BJ34">
+        <f t="shared" si="19"/>
+        <v>305</v>
+      </c>
+      <c r="BK34">
+        <f t="shared" si="19"/>
+        <v>310</v>
+      </c>
+      <c r="BL34">
+        <f t="shared" si="19"/>
+        <v>315</v>
+      </c>
+      <c r="BM34">
+        <f t="shared" si="19"/>
+        <v>320</v>
+      </c>
+      <c r="BN34">
+        <f t="shared" si="19"/>
+        <v>325</v>
+      </c>
+      <c r="BO34">
+        <f t="shared" si="19"/>
+        <v>330</v>
+      </c>
+      <c r="BP34">
+        <f t="shared" si="19"/>
+        <v>335</v>
+      </c>
+      <c r="BQ34">
+        <f t="shared" si="19"/>
+        <v>340</v>
+      </c>
+      <c r="BR34">
+        <f t="shared" si="19"/>
+        <v>345</v>
+      </c>
+      <c r="BS34">
+        <f t="shared" si="19"/>
+        <v>350</v>
+      </c>
+      <c r="BT34">
+        <f t="shared" si="19"/>
+        <v>355</v>
+      </c>
+      <c r="BU34">
+        <f t="shared" si="19"/>
+        <v>360</v>
+      </c>
+      <c r="BV34">
+        <f t="shared" si="19"/>
+        <v>365</v>
+      </c>
+      <c r="BW34">
+        <f t="shared" si="19"/>
+        <v>370</v>
+      </c>
+      <c r="BX34">
+        <f t="shared" si="19"/>
+        <v>375</v>
+      </c>
+      <c r="BY34">
+        <f t="shared" si="19"/>
+        <v>380</v>
+      </c>
+      <c r="BZ34">
+        <f t="shared" si="19"/>
+        <v>385</v>
+      </c>
+      <c r="CA34">
+        <f t="shared" si="19"/>
+        <v>390</v>
+      </c>
+      <c r="CB34">
+        <f t="shared" si="19"/>
+        <v>395</v>
+      </c>
+      <c r="CC34">
+        <f t="shared" si="19"/>
+        <v>400</v>
+      </c>
+      <c r="CD34">
+        <f t="shared" si="19"/>
+        <v>405</v>
+      </c>
+      <c r="CE34">
+        <f t="shared" si="19"/>
+        <v>410</v>
+      </c>
+      <c r="CF34">
+        <f t="shared" si="19"/>
+        <v>415</v>
+      </c>
+      <c r="CG34">
+        <f t="shared" si="19"/>
+        <v>420</v>
+      </c>
+      <c r="CH34">
+        <f t="shared" si="19"/>
+        <v>425</v>
+      </c>
+      <c r="CI34">
+        <f t="shared" si="19"/>
+        <v>430</v>
+      </c>
+      <c r="CJ34">
+        <f t="shared" si="19"/>
+        <v>435</v>
+      </c>
+      <c r="CK34">
+        <f t="shared" si="19"/>
+        <v>440</v>
+      </c>
+      <c r="CL34">
+        <f t="shared" si="19"/>
+        <v>445</v>
+      </c>
+      <c r="CM34">
+        <f t="shared" si="19"/>
+        <v>450</v>
+      </c>
+      <c r="CN34">
+        <f t="shared" si="19"/>
+        <v>455</v>
+      </c>
+      <c r="CO34">
+        <f t="shared" si="19"/>
+        <v>460</v>
+      </c>
+      <c r="CP34">
+        <f t="shared" si="19"/>
+        <v>465</v>
+      </c>
+      <c r="CQ34">
+        <f t="shared" si="19"/>
+        <v>470</v>
+      </c>
+      <c r="CR34">
+        <f t="shared" si="19"/>
+        <v>475</v>
+      </c>
+      <c r="CS34">
+        <f t="shared" si="19"/>
+        <v>480</v>
+      </c>
+      <c r="CT34">
+        <f t="shared" si="19"/>
+        <v>485</v>
+      </c>
+      <c r="CU34">
+        <f t="shared" si="19"/>
+        <v>490</v>
+      </c>
+      <c r="CV34">
+        <f t="shared" si="19"/>
+        <v>495</v>
+      </c>
+      <c r="CW34">
+        <f t="shared" si="19"/>
         <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="AY35">
+        <f>5*AY30+2*AY31+10*AY32+1*AY33</f>
+        <v>226</v>
+      </c>
+      <c r="AZ35">
+        <f t="shared" ref="AZ35:CW35" si="20">5*AZ30+2*AZ31+10*AZ32+1*AZ33</f>
+        <v>237</v>
+      </c>
+      <c r="BA35">
+        <f t="shared" si="20"/>
+        <v>248</v>
+      </c>
+      <c r="BB35">
+        <f t="shared" si="20"/>
+        <v>259</v>
+      </c>
+      <c r="BC35">
+        <f t="shared" si="20"/>
+        <v>270</v>
+      </c>
+      <c r="BD35">
+        <f t="shared" si="20"/>
+        <v>287</v>
+      </c>
+      <c r="BE35">
+        <f t="shared" si="20"/>
+        <v>288</v>
+      </c>
+      <c r="BF35">
+        <f t="shared" si="20"/>
+        <v>289</v>
+      </c>
+      <c r="BG35">
+        <f t="shared" si="20"/>
+        <v>290</v>
+      </c>
+      <c r="BH35">
+        <f t="shared" si="20"/>
+        <v>291</v>
+      </c>
+      <c r="BI35">
+        <f t="shared" si="20"/>
+        <v>305</v>
+      </c>
+      <c r="BJ35">
+        <f t="shared" si="20"/>
+        <v>306</v>
+      </c>
+      <c r="BK35">
+        <f t="shared" si="20"/>
+        <v>307</v>
+      </c>
+      <c r="BL35">
+        <f t="shared" si="20"/>
+        <v>308</v>
+      </c>
+      <c r="BM35">
+        <f t="shared" si="20"/>
+        <v>309</v>
+      </c>
+      <c r="BN35">
+        <f t="shared" si="20"/>
+        <v>323</v>
+      </c>
+      <c r="BO35">
+        <f t="shared" si="20"/>
+        <v>324</v>
+      </c>
+      <c r="BP35">
+        <f t="shared" si="20"/>
+        <v>325</v>
+      </c>
+      <c r="BQ35">
+        <f t="shared" si="20"/>
+        <v>326</v>
+      </c>
+      <c r="BR35">
+        <f t="shared" si="20"/>
+        <v>327</v>
+      </c>
+      <c r="BS35">
+        <f t="shared" si="20"/>
+        <v>341</v>
+      </c>
+      <c r="BT35">
+        <f t="shared" si="20"/>
+        <v>342</v>
+      </c>
+      <c r="BU35">
+        <f t="shared" si="20"/>
+        <v>343</v>
+      </c>
+      <c r="BV35">
+        <f t="shared" si="20"/>
+        <v>344</v>
+      </c>
+      <c r="BW35">
+        <f t="shared" si="20"/>
+        <v>345</v>
+      </c>
+      <c r="BX35">
+        <f t="shared" si="20"/>
+        <v>359</v>
+      </c>
+      <c r="BY35">
+        <f t="shared" si="20"/>
+        <v>360</v>
+      </c>
+      <c r="BZ35">
+        <f t="shared" si="20"/>
+        <v>361</v>
+      </c>
+      <c r="CA35">
+        <f t="shared" si="20"/>
+        <v>362</v>
+      </c>
+      <c r="CB35">
+        <f t="shared" si="20"/>
+        <v>363</v>
+      </c>
+      <c r="CC35">
+        <f t="shared" si="20"/>
+        <v>377</v>
+      </c>
+      <c r="CD35">
+        <f t="shared" si="20"/>
+        <v>378</v>
+      </c>
+      <c r="CE35">
+        <f t="shared" si="20"/>
+        <v>379</v>
+      </c>
+      <c r="CF35">
+        <f t="shared" si="20"/>
+        <v>380</v>
+      </c>
+      <c r="CG35">
+        <f t="shared" si="20"/>
+        <v>381</v>
+      </c>
+      <c r="CH35">
+        <f t="shared" si="20"/>
+        <v>395</v>
+      </c>
+      <c r="CI35">
+        <f t="shared" si="20"/>
+        <v>396</v>
+      </c>
+      <c r="CJ35">
+        <f t="shared" si="20"/>
+        <v>397</v>
+      </c>
+      <c r="CK35">
+        <f t="shared" si="20"/>
+        <v>398</v>
+      </c>
+      <c r="CL35">
+        <f t="shared" si="20"/>
+        <v>399</v>
+      </c>
+      <c r="CM35">
+        <f t="shared" si="20"/>
+        <v>413</v>
+      </c>
+      <c r="CN35">
+        <f t="shared" si="20"/>
+        <v>414</v>
+      </c>
+      <c r="CO35">
+        <f t="shared" si="20"/>
+        <v>415</v>
+      </c>
+      <c r="CP35">
+        <f t="shared" si="20"/>
+        <v>416</v>
+      </c>
+      <c r="CQ35">
+        <f t="shared" si="20"/>
+        <v>417</v>
+      </c>
+      <c r="CR35">
+        <f t="shared" si="20"/>
+        <v>429</v>
+      </c>
+      <c r="CS35">
+        <f t="shared" si="20"/>
+        <v>430</v>
+      </c>
+      <c r="CT35">
+        <f t="shared" si="20"/>
+        <v>431</v>
+      </c>
+      <c r="CU35">
+        <f t="shared" si="20"/>
+        <v>432</v>
+      </c>
+      <c r="CV35">
+        <f t="shared" si="20"/>
+        <v>433</v>
+      </c>
+      <c r="CW35">
+        <f t="shared" si="20"/>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:101" x14ac:dyDescent="0.3">
@@ -22387,195 +24109,195 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:P46" si="19">SUM(C38:C45)</f>
+        <f t="shared" ref="C46:P46" si="21">SUM(C38:C45)</f>
         <v>10</v>
       </c>
       <c r="D46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
       <c r="E46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
       <c r="F46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>25</v>
       </c>
       <c r="G46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>30</v>
       </c>
       <c r="H46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>35</v>
       </c>
       <c r="I46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>40</v>
       </c>
       <c r="J46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>45</v>
       </c>
       <c r="K46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>50</v>
       </c>
       <c r="L46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>55</v>
       </c>
       <c r="M46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>60</v>
       </c>
       <c r="N46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>65</v>
       </c>
       <c r="O46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>70</v>
       </c>
       <c r="P46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>75</v>
       </c>
       <c r="Q46">
-        <f t="shared" ref="Q46" si="20">SUM(Q38:Q45)</f>
+        <f t="shared" ref="Q46" si="22">SUM(Q38:Q45)</f>
         <v>80</v>
       </c>
       <c r="R46">
-        <f t="shared" ref="R46" si="21">SUM(R38:R45)</f>
+        <f t="shared" ref="R46" si="23">SUM(R38:R45)</f>
         <v>85</v>
       </c>
       <c r="S46">
-        <f t="shared" ref="S46" si="22">SUM(S38:S45)</f>
+        <f t="shared" ref="S46" si="24">SUM(S38:S45)</f>
         <v>90</v>
       </c>
       <c r="T46">
-        <f t="shared" ref="T46" si="23">SUM(T38:T45)</f>
+        <f t="shared" ref="T46" si="25">SUM(T38:T45)</f>
         <v>95</v>
       </c>
       <c r="U46">
-        <f t="shared" ref="U46:AX46" si="24">SUM(U38:U45)</f>
+        <f t="shared" ref="U46:AX46" si="26">SUM(U38:U45)</f>
         <v>100</v>
       </c>
       <c r="V46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>105</v>
       </c>
       <c r="W46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>110</v>
       </c>
       <c r="X46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>115</v>
       </c>
       <c r="Y46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>120</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>125</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>130</v>
       </c>
       <c r="AB46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>135</v>
       </c>
       <c r="AC46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>140</v>
       </c>
       <c r="AD46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>145</v>
       </c>
       <c r="AE46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>150</v>
       </c>
       <c r="AF46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>155</v>
       </c>
       <c r="AG46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>160</v>
       </c>
       <c r="AH46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>165</v>
       </c>
       <c r="AI46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>170</v>
       </c>
       <c r="AJ46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>175</v>
       </c>
       <c r="AK46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="AL46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>185</v>
       </c>
       <c r="AM46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>190</v>
       </c>
       <c r="AN46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>195</v>
       </c>
       <c r="AO46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>200</v>
       </c>
       <c r="AP46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>205</v>
       </c>
       <c r="AQ46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>210</v>
       </c>
       <c r="AR46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>215</v>
       </c>
       <c r="AS46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>220</v>
       </c>
       <c r="AT46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>225</v>
       </c>
       <c r="AU46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>230</v>
       </c>
       <c r="AV46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>235</v>
       </c>
       <c r="AW46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>240</v>
       </c>
       <c r="AX46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>245</v>
       </c>
       <c r="AY46">
@@ -22583,19 +24305,19 @@
         <v>250</v>
       </c>
       <c r="AZ46">
-        <f t="shared" ref="AZ46:CV46" si="25">SUM(AZ38:AZ45)</f>
+        <f t="shared" ref="AZ46:CV46" si="27">SUM(AZ38:AZ45)</f>
         <v>255</v>
       </c>
       <c r="BA46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>260</v>
       </c>
       <c r="BB46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>265</v>
       </c>
       <c r="BC46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>270</v>
       </c>
       <c r="BD46">
@@ -22603,179 +24325,179 @@
         <v>275</v>
       </c>
       <c r="BE46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>280</v>
       </c>
       <c r="BF46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>285</v>
       </c>
       <c r="BG46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>290</v>
       </c>
       <c r="BH46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>295</v>
       </c>
       <c r="BI46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>300</v>
       </c>
       <c r="BJ46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>305</v>
       </c>
       <c r="BK46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>310</v>
       </c>
       <c r="BL46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>315</v>
       </c>
       <c r="BM46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>320</v>
       </c>
       <c r="BN46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>325</v>
       </c>
       <c r="BO46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>330</v>
       </c>
       <c r="BP46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>335</v>
       </c>
       <c r="BQ46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>340</v>
       </c>
       <c r="BR46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>345</v>
       </c>
       <c r="BS46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>350</v>
       </c>
       <c r="BT46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>355</v>
       </c>
       <c r="BU46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>360</v>
       </c>
       <c r="BV46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>365</v>
       </c>
       <c r="BW46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>370</v>
       </c>
       <c r="BX46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>375</v>
       </c>
       <c r="BY46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>380</v>
       </c>
       <c r="BZ46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>385</v>
       </c>
       <c r="CA46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>390</v>
       </c>
       <c r="CB46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>395</v>
       </c>
       <c r="CC46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="CD46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>405</v>
       </c>
       <c r="CE46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>410</v>
       </c>
       <c r="CF46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>415</v>
       </c>
       <c r="CG46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>420</v>
       </c>
       <c r="CH46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>425</v>
       </c>
       <c r="CI46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>430</v>
       </c>
       <c r="CJ46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>435</v>
       </c>
       <c r="CK46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>440</v>
       </c>
       <c r="CL46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>445</v>
       </c>
       <c r="CM46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>450</v>
       </c>
       <c r="CN46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>455</v>
       </c>
       <c r="CO46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>460</v>
       </c>
       <c r="CP46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>465</v>
       </c>
       <c r="CQ46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>470</v>
       </c>
       <c r="CR46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>475</v>
       </c>
       <c r="CS46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>480</v>
       </c>
       <c r="CT46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>485</v>
       </c>
       <c r="CU46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>490</v>
       </c>
       <c r="CV46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>495</v>
       </c>
       <c r="CW46">
@@ -25531,399 +27253,399 @@
         <v>5</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:F58" si="26">SUM(C50:C57)</f>
+        <f t="shared" ref="C58:F58" si="28">SUM(C50:C57)</f>
         <v>10</v>
       </c>
       <c r="D58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="E58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="F58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>25</v>
       </c>
       <c r="G58">
-        <f t="shared" ref="G58" si="27">SUM(G50:G57)</f>
+        <f t="shared" ref="G58" si="29">SUM(G50:G57)</f>
         <v>30</v>
       </c>
       <c r="H58">
-        <f t="shared" ref="H58" si="28">SUM(H50:H57)</f>
+        <f t="shared" ref="H58" si="30">SUM(H50:H57)</f>
         <v>35</v>
       </c>
       <c r="I58">
-        <f t="shared" ref="I58" si="29">SUM(I50:I57)</f>
+        <f t="shared" ref="I58" si="31">SUM(I50:I57)</f>
         <v>40</v>
       </c>
       <c r="J58">
-        <f t="shared" ref="J58" si="30">SUM(J50:J57)</f>
+        <f t="shared" ref="J58" si="32">SUM(J50:J57)</f>
         <v>45</v>
       </c>
       <c r="K58">
-        <f t="shared" ref="K58" si="31">SUM(K50:K57)</f>
+        <f t="shared" ref="K58" si="33">SUM(K50:K57)</f>
         <v>50</v>
       </c>
       <c r="L58">
-        <f t="shared" ref="L58" si="32">SUM(L50:L57)</f>
+        <f t="shared" ref="L58" si="34">SUM(L50:L57)</f>
         <v>55</v>
       </c>
       <c r="M58">
-        <f t="shared" ref="M58" si="33">SUM(M50:M57)</f>
+        <f t="shared" ref="M58" si="35">SUM(M50:M57)</f>
         <v>60</v>
       </c>
       <c r="N58">
-        <f t="shared" ref="N58" si="34">SUM(N50:N57)</f>
+        <f t="shared" ref="N58" si="36">SUM(N50:N57)</f>
         <v>65</v>
       </c>
       <c r="O58">
-        <f t="shared" ref="O58" si="35">SUM(O50:O57)</f>
+        <f t="shared" ref="O58" si="37">SUM(O50:O57)</f>
         <v>70</v>
       </c>
       <c r="P58">
-        <f t="shared" ref="P58" si="36">SUM(P50:P57)</f>
+        <f t="shared" ref="P58" si="38">SUM(P50:P57)</f>
         <v>75</v>
       </c>
       <c r="Q58">
-        <f t="shared" ref="Q58" si="37">SUM(Q50:Q57)</f>
+        <f t="shared" ref="Q58" si="39">SUM(Q50:Q57)</f>
         <v>80</v>
       </c>
       <c r="R58">
-        <f t="shared" ref="R58" si="38">SUM(R50:R57)</f>
+        <f t="shared" ref="R58" si="40">SUM(R50:R57)</f>
         <v>85</v>
       </c>
       <c r="S58">
-        <f t="shared" ref="S58" si="39">SUM(S50:S57)</f>
+        <f t="shared" ref="S58" si="41">SUM(S50:S57)</f>
         <v>90</v>
       </c>
       <c r="T58">
-        <f t="shared" ref="T58" si="40">SUM(T50:T57)</f>
+        <f t="shared" ref="T58" si="42">SUM(T50:T57)</f>
         <v>95</v>
       </c>
       <c r="U58">
-        <f t="shared" ref="U58:CF58" si="41">SUM(U50:U57)</f>
+        <f t="shared" ref="U58:CF58" si="43">SUM(U50:U57)</f>
         <v>100</v>
       </c>
       <c r="V58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>105</v>
       </c>
       <c r="W58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>110</v>
       </c>
       <c r="X58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>115</v>
       </c>
       <c r="Y58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>120</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>125</v>
       </c>
       <c r="AA58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>130</v>
       </c>
       <c r="AB58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>135</v>
       </c>
       <c r="AC58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>140</v>
       </c>
       <c r="AD58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>145</v>
       </c>
       <c r="AE58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>150</v>
       </c>
       <c r="AF58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>155</v>
       </c>
       <c r="AG58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>160</v>
       </c>
       <c r="AH58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>165</v>
       </c>
       <c r="AI58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>170</v>
       </c>
       <c r="AJ58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>175</v>
       </c>
       <c r="AK58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>180</v>
       </c>
       <c r="AL58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>185</v>
       </c>
       <c r="AM58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>190</v>
       </c>
       <c r="AN58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>195</v>
       </c>
       <c r="AO58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>200</v>
       </c>
       <c r="AP58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>205</v>
       </c>
       <c r="AQ58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>210</v>
       </c>
       <c r="AR58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>215</v>
       </c>
       <c r="AS58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>220</v>
       </c>
       <c r="AT58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>225</v>
       </c>
       <c r="AU58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>230</v>
       </c>
       <c r="AV58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>235</v>
       </c>
       <c r="AW58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>240</v>
       </c>
       <c r="AX58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>245</v>
       </c>
       <c r="AY58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>250</v>
       </c>
       <c r="AZ58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>255</v>
       </c>
       <c r="BA58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>260</v>
       </c>
       <c r="BB58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>265</v>
       </c>
       <c r="BC58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>270</v>
       </c>
       <c r="BD58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>275</v>
       </c>
       <c r="BE58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>280</v>
       </c>
       <c r="BF58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>285</v>
       </c>
       <c r="BG58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>290</v>
       </c>
       <c r="BH58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>295</v>
       </c>
       <c r="BI58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>300</v>
       </c>
       <c r="BJ58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>305</v>
       </c>
       <c r="BK58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>310</v>
       </c>
       <c r="BL58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>315</v>
       </c>
       <c r="BM58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>320</v>
       </c>
       <c r="BN58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>325</v>
       </c>
       <c r="BO58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>330</v>
       </c>
       <c r="BP58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>335</v>
       </c>
       <c r="BQ58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>340</v>
       </c>
       <c r="BR58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>345</v>
       </c>
       <c r="BS58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>350</v>
       </c>
       <c r="BT58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>355</v>
       </c>
       <c r="BU58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>360</v>
       </c>
       <c r="BV58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>365</v>
       </c>
       <c r="BW58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>370</v>
       </c>
       <c r="BX58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>375</v>
       </c>
       <c r="BY58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>380</v>
       </c>
       <c r="BZ58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>385</v>
       </c>
       <c r="CA58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>390</v>
       </c>
       <c r="CB58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>395</v>
       </c>
       <c r="CC58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>400</v>
       </c>
       <c r="CD58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>405</v>
       </c>
       <c r="CE58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>410</v>
       </c>
       <c r="CF58">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>415</v>
       </c>
       <c r="CG58">
-        <f t="shared" ref="CG58:CV58" si="42">SUM(CG50:CG57)</f>
+        <f t="shared" ref="CG58:CV58" si="44">SUM(CG50:CG57)</f>
         <v>420</v>
       </c>
       <c r="CH58">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>425</v>
       </c>
       <c r="CI58">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>430</v>
       </c>
       <c r="CJ58">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>435</v>
       </c>
       <c r="CK58">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>440</v>
       </c>
       <c r="CL58">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>445</v>
       </c>
       <c r="CM58">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>450</v>
       </c>
       <c r="CN58">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>455</v>
       </c>
       <c r="CO58">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>460</v>
       </c>
       <c r="CP58">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>465</v>
       </c>
       <c r="CQ58">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>470</v>
       </c>
       <c r="CR58">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>475</v>
       </c>
       <c r="CS58">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>480</v>
       </c>
       <c r="CT58">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>485</v>
       </c>
       <c r="CU58">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>490</v>
       </c>
       <c r="CV58">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>495</v>
       </c>
       <c r="CW58">
-        <f t="shared" ref="CW58" si="43">SUM(CW50:CW57)</f>
+        <f t="shared" ref="CW58" si="45">SUM(CW50:CW57)</f>
         <v>500</v>
       </c>
     </row>

--- a/doc/caste_system.xlsx
+++ b/doc/caste_system.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/349dfb9748b30a92/Asztali gép/ataliasflame_2.0/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8491" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF7D7D4A-0185-4387-A30A-9C058EC4EAA4}"/>
+  <xr:revisionPtr revIDLastSave="8562" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9510C17D-A269-4E8B-9F5F-AE777E450228}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="635" activeTab="7" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="635" activeTab="6" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
   </bookViews>
   <sheets>
     <sheet name="caste list" sheetId="1" r:id="rId1"/>
@@ -2066,7 +2066,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2094,12 +2094,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2250,7 +2244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2306,6 +2300,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2318,23 +2317,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -2351,6 +2341,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2786,7 +2780,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="40" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -2842,7 +2836,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
@@ -2896,7 +2890,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="23" t="s">
         <v>3</v>
       </c>
@@ -2950,7 +2944,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="22" t="s">
         <v>21</v>
       </c>
@@ -3004,7 +2998,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="21" t="s">
         <v>4</v>
       </c>
@@ -3058,7 +3052,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -3114,7 +3108,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="23" t="s">
         <v>6</v>
       </c>
@@ -3168,7 +3162,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="23" t="s">
         <v>7</v>
       </c>
@@ -3222,7 +3216,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="21" t="s">
         <v>8</v>
       </c>
@@ -3276,7 +3270,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="40" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -3332,7 +3326,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="23" t="s">
         <v>10</v>
       </c>
@@ -3386,7 +3380,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="23" t="s">
         <v>11</v>
       </c>
@@ -3440,7 +3434,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="21" t="s">
         <v>12</v>
       </c>
@@ -3494,7 +3488,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="40" t="s">
         <v>80</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -3550,7 +3544,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="23" t="s">
         <v>14</v>
       </c>
@@ -3604,7 +3598,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="23" t="s">
         <v>15</v>
       </c>
@@ -3658,7 +3652,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="21" t="s">
         <v>16</v>
       </c>
@@ -3712,7 +3706,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="40" t="s">
         <v>81</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -3768,7 +3762,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="23" t="s">
         <v>18</v>
       </c>
@@ -3822,7 +3816,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="23" t="s">
         <v>19</v>
       </c>
@@ -3876,7 +3870,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="21" t="s">
         <v>20</v>
       </c>
@@ -22604,23 +22598,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F833C9-BBEE-43B5-917D-731D1CF064F0}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="44" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="32" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="32" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="32" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="32" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="32" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="32" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" style="32" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="32" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" style="32" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" style="44" bestFit="1" customWidth="1"/>
     <col min="257" max="257" width="17.44140625" customWidth="1"/>
     <col min="258" max="258" width="63" customWidth="1"/>
     <col min="259" max="259" width="12.6640625" customWidth="1"/>
@@ -23443,7 +23439,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="44" t="s">
         <v>85</v>
       </c>
       <c r="D1" s="32" t="s">
@@ -23455,36 +23451,36 @@
       <c r="F1" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="44" t="s">
         <v>89</v>
       </c>
       <c r="H1" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="44" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="35" t="s">
         <v>96</v>
       </c>
       <c r="B2" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="32" t="s">
@@ -23496,36 +23492,36 @@
       <c r="F2" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="32" t="s">
+      <c r="G2" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="32" t="s">
@@ -23537,36 +23533,36 @@
       <c r="F3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="32" t="s">
+      <c r="G3" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="32" t="s">
@@ -23578,36 +23574,36 @@
       <c r="F4" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="32" t="s">
+      <c r="G4" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -23619,36 +23615,36 @@
       <c r="F5" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="32" t="s">
+      <c r="G5" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="44" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="32" t="s">
@@ -23660,36 +23656,36 @@
       <c r="F6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="32" t="s">
+      <c r="G6" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -23701,36 +23697,36 @@
       <c r="F7" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="32" t="s">
+      <c r="G7" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="32" t="s">
@@ -23742,36 +23738,36 @@
       <c r="F8" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="32" t="s">
+      <c r="G8" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="32" t="s">
@@ -23783,36 +23779,36 @@
       <c r="F9" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="32" t="s">
+      <c r="G9" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -23824,36 +23820,36 @@
       <c r="F10" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="32" t="s">
+      <c r="G10" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="32" t="s">
@@ -23865,30 +23861,30 @@
       <c r="F11" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="32" t="s">
+      <c r="G11" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="44" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="37" t="s">
         <v>107</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -23906,7 +23902,7 @@
       <c r="F12" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="44" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="32" t="s">
@@ -23947,7 +23943,7 @@
       <c r="F13" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="44" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="32" t="s">
@@ -23988,7 +23984,7 @@
       <c r="F14" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="44" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="32" t="s">
@@ -24029,7 +24025,7 @@
       <c r="F15" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="44" t="s">
         <v>40</v>
       </c>
       <c r="H15" s="32" t="s">
@@ -24070,7 +24066,7 @@
       <c r="F16" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="44" t="s">
         <v>40</v>
       </c>
       <c r="H16" s="32" t="s">
@@ -24111,7 +24107,7 @@
       <c r="F17" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="44" t="s">
         <v>40</v>
       </c>
       <c r="H17" s="32" t="s">
@@ -24152,7 +24148,7 @@
       <c r="F18" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="44" t="s">
         <v>40</v>
       </c>
       <c r="H18" s="32" t="s">
@@ -24193,7 +24189,7 @@
       <c r="F19" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="44" t="s">
         <v>40</v>
       </c>
       <c r="H19" s="32" t="s">
@@ -24234,7 +24230,7 @@
       <c r="F20" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="44" t="s">
         <v>40</v>
       </c>
       <c r="H20" s="32" t="s">
@@ -24257,7 +24253,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="38" t="s">
         <v>120</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -24275,7 +24271,7 @@
       <c r="F21" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="44" t="s">
         <v>40</v>
       </c>
       <c r="H21" s="32" t="s">
@@ -24298,7 +24294,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="37" t="s">
         <v>122</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -24316,7 +24312,7 @@
       <c r="F22" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="44" t="s">
         <v>40</v>
       </c>
       <c r="H22" s="32" t="s">
@@ -24357,7 +24353,7 @@
       <c r="F23" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="44" t="s">
         <v>40</v>
       </c>
       <c r="H23" s="32" t="s">
@@ -24398,7 +24394,7 @@
       <c r="F24" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="44" t="s">
         <v>40</v>
       </c>
       <c r="H24" s="32" t="s">
@@ -24439,7 +24435,7 @@
       <c r="F25" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="44" t="s">
         <v>40</v>
       </c>
       <c r="H25" s="32" t="s">
@@ -24462,7 +24458,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="38" t="s">
         <v>128</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -24480,7 +24476,7 @@
       <c r="F26" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G26" s="44" t="s">
         <v>40</v>
       </c>
       <c r="H26" s="32" t="s">
@@ -24503,7 +24499,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="37" t="s">
         <v>130</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -24521,7 +24517,7 @@
       <c r="F27" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="32" t="s">
+      <c r="G27" s="44" t="s">
         <v>40</v>
       </c>
       <c r="H27" s="32" t="s">
@@ -24562,7 +24558,7 @@
       <c r="F28" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="44" t="s">
         <v>40</v>
       </c>
       <c r="H28" s="32" t="s">
@@ -24603,7 +24599,7 @@
       <c r="F29" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="44" t="s">
         <v>40</v>
       </c>
       <c r="H29" s="32" t="s">
@@ -24644,7 +24640,7 @@
       <c r="F30" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="32" t="s">
+      <c r="G30" s="44" t="s">
         <v>40</v>
       </c>
       <c r="H30" s="32" t="s">
@@ -24667,7 +24663,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="38" t="s">
         <v>137</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -24685,7 +24681,7 @@
       <c r="F31" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="44" t="s">
         <v>40</v>
       </c>
       <c r="H31" s="32" t="s">
@@ -24708,13 +24704,13 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="35" t="s">
         <v>139</v>
       </c>
       <c r="B32" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="44" t="s">
         <v>40</v>
       </c>
       <c r="D32" s="32" t="s">
@@ -24726,189 +24722,189 @@
       <c r="F32" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J32" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="K32" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L32" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M32" s="32" t="s">
+      <c r="G32" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="44" t="s">
+    <row r="33" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J33" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="L33" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M33" s="32" t="s">
+      <c r="C33" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M33" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
+    <row r="34" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I34" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J34" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K34" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L34" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M34" s="32" t="s">
+      <c r="C34" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" s="44" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="44" t="s">
+    <row r="35" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="J35" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K35" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L35" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M35" s="32" t="s">
+      <c r="C35" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I36" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J36" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K36" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L36" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M36" s="32" t="s">
+      <c r="C36" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J36" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K36" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L36" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="M36" s="44" t="s">
         <v>40</v>
       </c>
     </row>
@@ -24921,23 +24917,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1C4ECE-D418-419E-9393-664BDA889D6E}">
   <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL10" sqref="AL10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.88671875" style="3" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="13.5546875" style="3" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="4.5546875" style="3" hidden="1" customWidth="1"/>
@@ -24958,41 +24952,41 @@
     <col min="29" max="29" width="6.33203125" style="3" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="11.33203125" style="3" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="9.88671875" style="3" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="8.6640625" style="44" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="14.6640625" style="44" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="14.33203125" style="44" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="12.6640625" style="44" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="8.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.6640625" style="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="34" t="s">
         <v>106</v>
       </c>
       <c r="L1" s="32" t="s">
@@ -25058,51 +25052,51 @@
       <c r="AF1" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="AG1" s="45" t="s">
+      <c r="AG1" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="AH1" s="45" t="s">
+      <c r="AH1" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="AI1" s="45" t="s">
+      <c r="AI1" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="AJ1" s="45" t="s">
+      <c r="AJ1" s="44" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="48" t="s">
+      <c r="C2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L2" s="32" t="s">
@@ -25168,51 +25162,51 @@
       <c r="AF2" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG2" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH2" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI2" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ2" s="45" t="s">
+      <c r="AG2" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH2" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI2" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ2" s="44" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="48" t="s">
+      <c r="C3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L3" s="32" t="s">
@@ -25278,16 +25272,16 @@
       <c r="AF3" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG3" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH3" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI3" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ3" s="45" t="s">
+      <c r="AG3" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH3" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI3" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ3" s="44" t="s">
         <v>40</v>
       </c>
     </row>
@@ -25298,31 +25292,31 @@
       <c r="B4" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="48" t="s">
+      <c r="C4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L4" s="32" t="s">
@@ -25388,16 +25382,16 @@
       <c r="AF4" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG4" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH4" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI4" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ4" s="45" t="s">
+      <c r="AG4" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH4" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI4" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ4" s="44" t="s">
         <v>40</v>
       </c>
     </row>
@@ -25408,31 +25402,31 @@
       <c r="B5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="48" t="s">
+      <c r="C5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="32" t="s">
@@ -25498,51 +25492,51 @@
       <c r="AF5" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG5" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH5" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI5" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ5" s="45" t="s">
+      <c r="AG5" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH5" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI5" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ5" s="44" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="48" t="s">
+      <c r="C6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L6" s="32" t="s">
@@ -25608,51 +25602,51 @@
       <c r="AF6" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG6" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH6" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI6" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ6" s="45" t="s">
+      <c r="AG6" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH6" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI6" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ6" s="44" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="48" t="s">
+      <c r="C7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L7" s="32" t="s">
@@ -25718,16 +25712,16 @@
       <c r="AF7" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG7" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH7" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI7" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ7" s="45" t="s">
+      <c r="AG7" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH7" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI7" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ7" s="44" t="s">
         <v>40</v>
       </c>
     </row>
@@ -25738,31 +25732,31 @@
       <c r="B8" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="48" t="s">
+      <c r="C8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L8" s="32" t="s">
@@ -25828,16 +25822,16 @@
       <c r="AF8" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG8" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH8" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI8" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ8" s="45" t="s">
+      <c r="AG8" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH8" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI8" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ8" s="44" t="s">
         <v>40</v>
       </c>
     </row>
@@ -25848,31 +25842,31 @@
       <c r="B9" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="48" t="s">
+      <c r="C9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L9" s="32" t="s">
@@ -25938,51 +25932,51 @@
       <c r="AF9" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG9" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH9" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI9" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ9" s="45" t="s">
+      <c r="AG9" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH9" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI9" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ9" s="44" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="36" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="48" t="s">
+      <c r="C10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L10" s="32" t="s">
@@ -26048,51 +26042,51 @@
       <c r="AF10" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG10" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH10" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI10" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ10" s="45" t="s">
+      <c r="AG10" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH10" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI10" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ10" s="44" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="48" t="s">
+      <c r="C11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L11" s="32" t="s">
@@ -26158,16 +26152,16 @@
       <c r="AF11" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG11" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH11" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI11" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ11" s="45" t="s">
+      <c r="AG11" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH11" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI11" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ11" s="44" t="s">
         <v>40</v>
       </c>
     </row>
@@ -26178,31 +26172,31 @@
       <c r="B12" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="48" t="s">
+      <c r="C12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L12" s="32" t="s">
@@ -26268,16 +26262,16 @@
       <c r="AF12" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG12" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH12" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI12" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ12" s="45" t="s">
+      <c r="AG12" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH12" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI12" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ12" s="44" t="s">
         <v>40</v>
       </c>
     </row>
@@ -26288,31 +26282,31 @@
       <c r="B13" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="48" t="s">
+      <c r="C13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L13" s="32" t="s">
@@ -26378,51 +26372,51 @@
       <c r="AF13" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG13" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH13" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI13" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ13" s="45" t="s">
+      <c r="AG13" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH13" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI13" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ13" s="44" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="48" t="s">
+      <c r="C14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L14" s="32" t="s">
@@ -26488,51 +26482,51 @@
       <c r="AF14" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG14" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH14" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI14" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ14" s="45" t="s">
+      <c r="AG14" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH14" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI14" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ14" s="44" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="48" t="s">
+      <c r="C15" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L15" s="32" t="s">
@@ -26598,16 +26592,16 @@
       <c r="AF15" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG15" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH15" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI15" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ15" s="45" t="s">
+      <c r="AG15" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH15" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI15" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ15" s="44" t="s">
         <v>40</v>
       </c>
     </row>
@@ -26618,31 +26612,31 @@
       <c r="B16" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="48" t="s">
+      <c r="C16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L16" s="32" t="s">
@@ -26708,16 +26702,16 @@
       <c r="AF16" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG16" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH16" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI16" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ16" s="45" t="s">
+      <c r="AG16" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH16" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI16" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ16" s="44" t="s">
         <v>39</v>
       </c>
     </row>
@@ -26728,31 +26722,31 @@
       <c r="B17" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="48" t="s">
+      <c r="C17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L17" s="32" t="s">
@@ -26818,51 +26812,51 @@
       <c r="AF17" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG17" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH17" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI17" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ17" s="45" t="s">
+      <c r="AG17" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH17" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI17" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ17" s="44" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="36" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="48" t="s">
+      <c r="C18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="34" t="s">
         <v>39</v>
       </c>
       <c r="L18" s="32" t="s">
@@ -26928,51 +26922,51 @@
       <c r="AF18" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG18" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH18" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI18" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ18" s="45" t="s">
+      <c r="AG18" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH18" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI18" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ18" s="44" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="48" t="s">
+      <c r="C19" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="34" t="s">
         <v>39</v>
       </c>
       <c r="L19" s="32" t="s">
@@ -27038,16 +27032,16 @@
       <c r="AF19" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG19" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH19" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI19" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ19" s="45" t="s">
+      <c r="AG19" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH19" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI19" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ19" s="44" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27058,31 +27052,31 @@
       <c r="B20" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="48" t="s">
+      <c r="C20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="34" t="s">
         <v>39</v>
       </c>
       <c r="L20" s="32" t="s">
@@ -27148,16 +27142,16 @@
       <c r="AF20" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG20" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH20" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI20" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ20" s="45" t="s">
+      <c r="AG20" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH20" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI20" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ20" s="44" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27168,31 +27162,31 @@
       <c r="B21" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="48" t="s">
+      <c r="C21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="34" t="s">
         <v>39</v>
       </c>
       <c r="L21" s="32" t="s">
@@ -27258,51 +27252,51 @@
       <c r="AF21" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG21" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH21" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI21" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ21" s="45" t="s">
+      <c r="AG21" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH21" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI21" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ21" s="44" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="36" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="48" t="s">
+      <c r="C22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="34" t="s">
         <v>39</v>
       </c>
       <c r="L22" s="32" t="s">
@@ -27368,16 +27362,16 @@
       <c r="AF22" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG22" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH22" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI22" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ22" s="45" t="s">
+      <c r="AG22" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH22" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI22" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ22" s="44" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27385,31 +27379,31 @@
       <c r="B25" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="48" t="s">
+      <c r="G25" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="48" t="s">
+      <c r="H25" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="I25" s="48" t="s">
+      <c r="I25" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="J25" s="48" t="s">
+      <c r="J25" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K25" s="48" t="s">
+      <c r="K25" s="34" t="s">
         <v>106</v>
       </c>
       <c r="L25" s="32" t="s">
@@ -27475,51 +27469,51 @@
       <c r="AF25" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="AG25" s="45" t="s">
+      <c r="AG25" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="AH25" s="45" t="s">
+      <c r="AH25" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="AI25" s="45" t="s">
+      <c r="AI25" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="AJ25" s="45" t="s">
+      <c r="AJ25" s="44" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="35" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K26" s="48" t="s">
+      <c r="C26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="34" t="s">
         <v>39</v>
       </c>
       <c r="L26" s="32" t="s">
@@ -27585,16 +27579,16 @@
       <c r="AF26" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG26" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH26" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI26" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ26" s="45" t="s">
+      <c r="AG26" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH26" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI26" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ26" s="44" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27605,31 +27599,31 @@
       <c r="B27" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="48" t="s">
+      <c r="C27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="34" t="s">
         <v>39</v>
       </c>
       <c r="L27" s="32" t="s">
@@ -27695,16 +27689,16 @@
       <c r="AF27" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG27" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH27" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI27" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ27" s="45" t="s">
+      <c r="AG27" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH27" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI27" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ27" s="44" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27715,31 +27709,31 @@
       <c r="B28" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" s="48" t="s">
+      <c r="C28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="34" t="s">
         <v>39</v>
       </c>
       <c r="L28" s="32" t="s">
@@ -27805,16 +27799,16 @@
       <c r="AF28" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG28" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH28" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI28" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ28" s="45" t="s">
+      <c r="AG28" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH28" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI28" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ28" s="44" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27825,31 +27819,31 @@
       <c r="B29" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="48" t="s">
+      <c r="C29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="34" t="s">
         <v>39</v>
       </c>
       <c r="L29" s="32" t="s">
@@ -27915,16 +27909,16 @@
       <c r="AF29" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG29" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH29" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI29" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ29" s="45" t="s">
+      <c r="AG29" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH29" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI29" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ29" s="44" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27935,31 +27929,31 @@
       <c r="B30" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J30" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="48" t="s">
+      <c r="C30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="34" t="s">
         <v>39</v>
       </c>
       <c r="L30" s="32" t="s">
@@ -28025,16 +28019,16 @@
       <c r="AF30" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG30" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH30" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI30" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ30" s="45" t="s">
+      <c r="AG30" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH30" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI30" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ30" s="44" t="s">
         <v>40</v>
       </c>
     </row>
@@ -28045,31 +28039,31 @@
       <c r="B31" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="48" t="s">
+      <c r="C31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L31" s="32" t="s">
@@ -28135,16 +28129,16 @@
       <c r="AF31" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG31" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH31" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI31" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ31" s="45" t="s">
+      <c r="AG31" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH31" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI31" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ31" s="44" t="s">
         <v>40</v>
       </c>
     </row>
@@ -28155,31 +28149,31 @@
       <c r="B32" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J32" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="K32" s="48" t="s">
+      <c r="C32" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L32" s="32" t="s">
@@ -28245,16 +28239,16 @@
       <c r="AF32" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG32" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH32" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI32" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ32" s="45" t="s">
+      <c r="AG32" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH32" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI32" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ32" s="44" t="s">
         <v>40</v>
       </c>
     </row>
@@ -28265,31 +28259,31 @@
       <c r="B33" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J33" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K33" s="48" t="s">
+      <c r="C33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="34" t="s">
         <v>39</v>
       </c>
       <c r="L33" s="32" t="s">
@@ -28355,16 +28349,16 @@
       <c r="AF33" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG33" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH33" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI33" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ33" s="45" t="s">
+      <c r="AG33" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH33" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI33" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ33" s="44" t="s">
         <v>39</v>
       </c>
     </row>
@@ -28375,31 +28369,31 @@
       <c r="B34" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="I34" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J34" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="48" t="s">
+      <c r="C34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="34" t="s">
         <v>39</v>
       </c>
       <c r="L34" s="32" t="s">
@@ -28465,51 +28459,51 @@
       <c r="AF34" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG34" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH34" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI34" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ34" s="45" t="s">
+      <c r="AG34" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH34" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI34" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ34" s="44" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="36" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J35" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K35" s="48" t="s">
+      <c r="C35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="34" t="s">
         <v>40</v>
       </c>
       <c r="L35" s="32" t="s">
@@ -28575,16 +28569,16 @@
       <c r="AF35" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG35" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH35" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI35" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ35" s="45" t="s">
+      <c r="AG35" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH35" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI35" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ35" s="44" t="s">
         <v>39</v>
       </c>
     </row>
@@ -28730,54 +28724,54 @@
       <c r="U1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="W1" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AD1" s="38" t="s">
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AD1" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AK1" s="38" t="s">
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AK1" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AR1" s="38" t="s">
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AR1" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="38"/>
-      <c r="AY1" s="38" t="s">
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="43"/>
+      <c r="AY1" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="AZ1" s="38"/>
-      <c r="BA1" s="38"/>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="38"/>
-      <c r="BD1" s="38"/>
-      <c r="BF1" s="38" t="s">
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="43"/>
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="43"/>
+      <c r="BF1" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="BG1" s="38"/>
-      <c r="BH1" s="38"/>
-      <c r="BI1" s="38"/>
-      <c r="BJ1" s="38"/>
-      <c r="BK1" s="38"/>
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="43"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="43"/>
+      <c r="BK1" s="43"/>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">

--- a/doc/caste_system.xlsx
+++ b/doc/caste_system.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/349dfb9748b30a92/Asztali gép/ataliasflame_2.0/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8562" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9510C17D-A269-4E8B-9F5F-AE777E450228}"/>
+  <xr:revisionPtr revIDLastSave="8607" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DE6EF51-7CC7-4043-8EDB-EFB9CA2B76C2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="635" activeTab="6" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="635" activeTab="7" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
   </bookViews>
   <sheets>
     <sheet name="caste list" sheetId="1" r:id="rId1"/>
@@ -2244,7 +2244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2305,6 +2305,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2320,11 +2323,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -2780,7 +2781,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -2836,7 +2837,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
@@ -2890,7 +2891,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="23" t="s">
         <v>3</v>
       </c>
@@ -2944,7 +2945,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="22" t="s">
         <v>21</v>
       </c>
@@ -2998,7 +2999,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="21" t="s">
         <v>4</v>
       </c>
@@ -3052,7 +3053,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -3108,7 +3109,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="23" t="s">
         <v>6</v>
       </c>
@@ -3162,7 +3163,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="23" t="s">
         <v>7</v>
       </c>
@@ -3216,7 +3217,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="21" t="s">
         <v>8</v>
       </c>
@@ -3270,7 +3271,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -3326,7 +3327,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="23" t="s">
         <v>10</v>
       </c>
@@ -3380,7 +3381,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="23" t="s">
         <v>11</v>
       </c>
@@ -3434,7 +3435,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="21" t="s">
         <v>12</v>
       </c>
@@ -3488,7 +3489,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -3544,7 +3545,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="23" t="s">
         <v>14</v>
       </c>
@@ -3598,7 +3599,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="23" t="s">
         <v>15</v>
       </c>
@@ -3652,7 +3653,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="21" t="s">
         <v>16</v>
       </c>
@@ -3706,7 +3707,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="41" t="s">
         <v>81</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -3762,7 +3763,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="23" t="s">
         <v>18</v>
       </c>
@@ -3816,7 +3817,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="23" t="s">
         <v>19</v>
       </c>
@@ -3870,7 +3871,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="21" t="s">
         <v>20</v>
       </c>
@@ -20572,7 +20573,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47799533-6B34-4949-9561-D6B03DB6E4FC}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -22598,25 +22601,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F833C9-BBEE-43B5-917D-731D1CF064F0}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="34" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="32" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="32" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="45" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="32" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" style="34" bestFit="1" customWidth="1"/>
     <col min="257" max="257" width="17.44140625" customWidth="1"/>
     <col min="258" max="258" width="63" customWidth="1"/>
     <col min="259" max="259" width="12.6640625" customWidth="1"/>
@@ -23439,37 +23440,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="34" t="s">
         <v>85</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="45" t="s">
         <v>87</v>
       </c>
       <c r="F1" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="34" t="s">
         <v>95</v>
       </c>
     </row>
@@ -23480,406 +23481,406 @@
       <c r="B2" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="44" t="s">
+      <c r="G2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="34" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="44" t="s">
+      <c r="G3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="34" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="44" t="s">
+      <c r="G4" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="34" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="44" t="s">
+      <c r="G5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="44" t="s">
+      <c r="G6" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="34" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="44" t="s">
+      <c r="G7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="34" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+      <c r="A8" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="44" t="s">
+      <c r="G8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="34" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+      <c r="A9" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="44" t="s">
+      <c r="G9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="34" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="44" t="s">
+      <c r="G10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="34" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="44" t="s">
+      <c r="G11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -23896,13 +23897,13 @@
       <c r="D12" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="32" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="32" t="s">
@@ -23937,13 +23938,13 @@
       <c r="D13" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="32" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="32" t="s">
@@ -23978,13 +23979,13 @@
       <c r="D14" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="32" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="32" t="s">
@@ -24019,13 +24020,13 @@
       <c r="D15" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="32" t="s">
         <v>40</v>
       </c>
       <c r="H15" s="32" t="s">
@@ -24060,13 +24061,13 @@
       <c r="D16" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="32" t="s">
         <v>40</v>
       </c>
       <c r="H16" s="32" t="s">
@@ -24101,13 +24102,13 @@
       <c r="D17" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="32" t="s">
         <v>40</v>
       </c>
       <c r="H17" s="32" t="s">
@@ -24142,13 +24143,13 @@
       <c r="D18" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="32" t="s">
         <v>40</v>
       </c>
       <c r="H18" s="32" t="s">
@@ -24183,13 +24184,13 @@
       <c r="D19" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="32" t="s">
         <v>40</v>
       </c>
       <c r="H19" s="32" t="s">
@@ -24224,13 +24225,13 @@
       <c r="D20" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="32" t="s">
         <v>40</v>
       </c>
       <c r="H20" s="32" t="s">
@@ -24265,13 +24266,13 @@
       <c r="D21" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="32" t="s">
         <v>40</v>
       </c>
       <c r="H21" s="32" t="s">
@@ -24293,208 +24294,208 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
+    <row r="22" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="45" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="45" t="s">
         <v>39</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="32" t="s">
+      <c r="G22" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="45" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="45" t="s">
         <v>39</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L23" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M23" s="32" t="s">
+      <c r="G23" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="45" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="45" t="s">
         <v>39</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L24" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="32" t="s">
+      <c r="G24" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="45" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="45" t="s">
         <v>39</v>
       </c>
       <c r="F25" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="L25" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M25" s="32" t="s">
+      <c r="G25" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" s="45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="s">
+    <row r="26" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="45" t="s">
         <v>40</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="45" t="s">
         <v>39</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K26" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L26" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M26" s="32" t="s">
+      <c r="G26" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="45" t="s">
         <v>40</v>
       </c>
     </row>
@@ -24511,13 +24512,13 @@
       <c r="D27" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F27" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="G27" s="32" t="s">
         <v>40</v>
       </c>
       <c r="H27" s="32" t="s">
@@ -24552,13 +24553,13 @@
       <c r="D28" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="44" t="s">
+      <c r="G28" s="32" t="s">
         <v>40</v>
       </c>
       <c r="H28" s="32" t="s">
@@ -24593,13 +24594,13 @@
       <c r="D29" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F29" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="44" t="s">
+      <c r="G29" s="32" t="s">
         <v>40</v>
       </c>
       <c r="H29" s="32" t="s">
@@ -24634,13 +24635,13 @@
       <c r="D30" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="32" t="s">
         <v>40</v>
       </c>
       <c r="H30" s="32" t="s">
@@ -24675,13 +24676,13 @@
       <c r="D31" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="44" t="s">
+      <c r="G31" s="32" t="s">
         <v>40</v>
       </c>
       <c r="H31" s="32" t="s">
@@ -24710,201 +24711,201 @@
       <c r="B32" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="34" t="s">
         <v>40</v>
       </c>
       <c r="D32" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="45" t="s">
         <v>40</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J32" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="K32" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="L32" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="M32" s="44" t="s">
+      <c r="G32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="45" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>141</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J33" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="L33" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="M33" s="44" t="s">
+      <c r="C33" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M33" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>143</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I34" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J34" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K34" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="L34" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="M34" s="44" t="s">
+      <c r="C34" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" s="34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="45" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>145</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="J35" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K35" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="L35" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="M35" s="44" t="s">
+      <c r="C35" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="46" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I36" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J36" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K36" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="L36" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="M36" s="44" t="s">
+      <c r="C36" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K36" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L36" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M36" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -24917,7 +24918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1C4ECE-D418-419E-9393-664BDA889D6E}">
   <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -24942,20 +24943,20 @@
     <col min="19" max="19" width="9.88671875" style="3" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="13.88671875" style="3" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="14.109375" style="3" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="7.44140625" style="3" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="12.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="16.88671875" style="3" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="12.33203125" style="3" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.88671875" style="47" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.33203125" style="47" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.21875" style="3" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="8.5546875" style="3" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="6.33203125" style="3" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="11.33203125" style="3" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="9.88671875" style="3" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="8.6640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.6640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">
@@ -25019,19 +25020,19 @@
       <c r="U1" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="V1" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="W1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="X1" s="32" t="s">
+      <c r="X1" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="Y1" s="32" t="s">
+      <c r="Y1" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="Z1" s="32" t="s">
+      <c r="Z1" s="45" t="s">
         <v>128</v>
       </c>
       <c r="AA1" s="32" t="s">
@@ -25052,16 +25053,16 @@
       <c r="AF1" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="AG1" s="44" t="s">
+      <c r="AG1" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="AH1" s="44" t="s">
+      <c r="AH1" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="AI1" s="44" t="s">
+      <c r="AI1" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="AJ1" s="44" t="s">
+      <c r="AJ1" s="34" t="s">
         <v>147</v>
       </c>
     </row>
@@ -25129,19 +25130,19 @@
       <c r="U2" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" s="32" t="s">
+      <c r="V2" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="45" t="s">
         <v>40</v>
       </c>
       <c r="AA2" s="32" t="s">
@@ -25162,16 +25163,16 @@
       <c r="AF2" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG2" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH2" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI2" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ2" s="44" t="s">
+      <c r="AG2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ2" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -25239,19 +25240,19 @@
       <c r="U3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="32" t="s">
+      <c r="V3" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="45" t="s">
         <v>40</v>
       </c>
       <c r="AA3" s="32" t="s">
@@ -25272,16 +25273,16 @@
       <c r="AF3" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ3" s="44" t="s">
+      <c r="AG3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ3" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -25349,19 +25350,19 @@
       <c r="U4" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="W4" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X4" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y4" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z4" s="32" t="s">
+      <c r="V4" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X4" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AA4" s="32" t="s">
@@ -25382,16 +25383,16 @@
       <c r="AF4" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG4" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH4" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI4" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ4" s="44" t="s">
+      <c r="AG4" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ4" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -25459,19 +25460,19 @@
       <c r="U5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="V5" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="W5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X5" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z5" s="32" t="s">
+      <c r="V5" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AA5" s="32" t="s">
@@ -25492,16 +25493,16 @@
       <c r="AF5" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG5" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH5" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI5" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ5" s="44" t="s">
+      <c r="AG5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ5" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -25569,19 +25570,19 @@
       <c r="U6" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="V6" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="W6" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X6" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y6" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z6" s="32" t="s">
+      <c r="V6" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X6" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z6" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AA6" s="32" t="s">
@@ -25602,16 +25603,16 @@
       <c r="AF6" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG6" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH6" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI6" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ6" s="44" t="s">
+      <c r="AG6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ6" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -25679,19 +25680,19 @@
       <c r="U7" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="V7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="W7" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z7" s="32" t="s">
+      <c r="V7" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="W7" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7" s="45" t="s">
         <v>40</v>
       </c>
       <c r="AA7" s="32" t="s">
@@ -25712,16 +25713,16 @@
       <c r="AF7" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ7" s="44" t="s">
+      <c r="AG7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ7" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -25789,19 +25790,19 @@
       <c r="U8" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="V8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="W8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z8" s="32" t="s">
+      <c r="V8" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z8" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AA8" s="32" t="s">
@@ -25822,16 +25823,16 @@
       <c r="AF8" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG8" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH8" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI8" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ8" s="44" t="s">
+      <c r="AG8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ8" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -25899,19 +25900,19 @@
       <c r="U9" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="V9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="W9" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z9" s="32" t="s">
+      <c r="V9" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X9" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z9" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AA9" s="32" t="s">
@@ -25932,16 +25933,16 @@
       <c r="AF9" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG9" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH9" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI9" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ9" s="44" t="s">
+      <c r="AG9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH9" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI9" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ9" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -26009,19 +26010,19 @@
       <c r="U10" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="V10" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="W10" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X10" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y10" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z10" s="32" t="s">
+      <c r="V10" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="W10" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z10" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AA10" s="32" t="s">
@@ -26042,16 +26043,16 @@
       <c r="AF10" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG10" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH10" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI10" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ10" s="44" t="s">
+      <c r="AG10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ10" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -26119,19 +26120,19 @@
       <c r="U11" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="V11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="W11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="X11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z11" s="32" t="s">
+      <c r="V11" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z11" s="45" t="s">
         <v>40</v>
       </c>
       <c r="AA11" s="32" t="s">
@@ -26152,16 +26153,16 @@
       <c r="AF11" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG11" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ11" s="44" t="s">
+      <c r="AG11" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ11" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -26229,19 +26230,19 @@
       <c r="U12" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="V12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="W12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="X12" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z12" s="32" t="s">
+      <c r="V12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="W12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="X12" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z12" s="45" t="s">
         <v>40</v>
       </c>
       <c r="AA12" s="32" t="s">
@@ -26262,16 +26263,16 @@
       <c r="AF12" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG12" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH12" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI12" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ12" s="44" t="s">
+      <c r="AG12" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ12" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -26339,19 +26340,19 @@
       <c r="U13" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="V13" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="W13" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="X13" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y13" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z13" s="32" t="s">
+      <c r="V13" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="X13" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y13" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z13" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AA13" s="32" t="s">
@@ -26372,16 +26373,16 @@
       <c r="AF13" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG13" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH13" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI13" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ13" s="44" t="s">
+      <c r="AG13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ13" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -26449,19 +26450,19 @@
       <c r="U14" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="V14" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="W14" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X14" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y14" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z14" s="32" t="s">
+      <c r="V14" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="W14" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X14" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y14" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z14" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AA14" s="32" t="s">
@@ -26482,16 +26483,16 @@
       <c r="AF14" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG14" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH14" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI14" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ14" s="44" t="s">
+      <c r="AG14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ14" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -26559,19 +26560,19 @@
       <c r="U15" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="V15" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="W15" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="X15" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y15" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z15" s="32" t="s">
+      <c r="V15" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="W15" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="X15" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y15" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z15" s="45" t="s">
         <v>40</v>
       </c>
       <c r="AA15" s="32" t="s">
@@ -26592,16 +26593,16 @@
       <c r="AF15" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG15" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH15" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI15" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ15" s="44" t="s">
+      <c r="AG15" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH15" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI15" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ15" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -26669,19 +26670,19 @@
       <c r="U16" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="V16" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="W16" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X16" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y16" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z16" s="32" t="s">
+      <c r="V16" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="W16" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X16" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y16" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z16" s="45" t="s">
         <v>40</v>
       </c>
       <c r="AA16" s="32" t="s">
@@ -26702,16 +26703,16 @@
       <c r="AF16" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG16" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH16" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI16" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ16" s="44" t="s">
+      <c r="AG16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH16" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI16" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ16" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -26779,19 +26780,19 @@
       <c r="U17" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="V17" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="W17" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X17" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y17" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z17" s="32" t="s">
+      <c r="V17" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="W17" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X17" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z17" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AA17" s="32" t="s">
@@ -26812,16 +26813,16 @@
       <c r="AF17" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG17" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH17" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI17" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ17" s="44" t="s">
+      <c r="AG17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI17" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ17" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -26889,19 +26890,19 @@
       <c r="U18" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="V18" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="W18" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X18" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y18" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z18" s="32" t="s">
+      <c r="V18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X18" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z18" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AA18" s="32" t="s">
@@ -26922,16 +26923,16 @@
       <c r="AF18" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG18" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH18" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI18" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ18" s="44" t="s">
+      <c r="AG18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ18" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -26999,19 +27000,19 @@
       <c r="U19" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="V19" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="W19" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X19" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y19" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z19" s="32" t="s">
+      <c r="V19" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X19" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y19" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z19" s="45" t="s">
         <v>40</v>
       </c>
       <c r="AA19" s="32" t="s">
@@ -27032,16 +27033,16 @@
       <c r="AF19" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG19" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH19" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI19" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ19" s="44" t="s">
+      <c r="AG19" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH19" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI19" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ19" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27109,19 +27110,19 @@
       <c r="U20" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="V20" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="W20" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X20" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y20" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z20" s="32" t="s">
+      <c r="V20" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="W20" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X20" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y20" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z20" s="45" t="s">
         <v>40</v>
       </c>
       <c r="AA20" s="32" t="s">
@@ -27142,16 +27143,16 @@
       <c r="AF20" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG20" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH20" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI20" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ20" s="44" t="s">
+      <c r="AG20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ20" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27219,19 +27220,19 @@
       <c r="U21" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="V21" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="W21" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X21" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y21" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z21" s="32" t="s">
+      <c r="V21" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="W21" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X21" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y21" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z21" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AA21" s="32" t="s">
@@ -27252,16 +27253,16 @@
       <c r="AF21" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG21" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH21" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI21" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ21" s="44" t="s">
+      <c r="AG21" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ21" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27329,19 +27330,19 @@
       <c r="U22" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="V22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="W22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X22" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y22" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z22" s="32" t="s">
+      <c r="V22" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="W22" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X22" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y22" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z22" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AA22" s="32" t="s">
@@ -27362,16 +27363,16 @@
       <c r="AF22" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AG22" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH22" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI22" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ22" s="44" t="s">
+      <c r="AG22" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ22" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27436,19 +27437,19 @@
       <c r="U25" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="V25" s="32" t="s">
+      <c r="V25" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="W25" s="32" t="s">
+      <c r="W25" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="X25" s="32" t="s">
+      <c r="X25" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="Y25" s="32" t="s">
+      <c r="Y25" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="Z25" s="32" t="s">
+      <c r="Z25" s="45" t="s">
         <v>128</v>
       </c>
       <c r="AA25" s="32" t="s">
@@ -27469,16 +27470,16 @@
       <c r="AF25" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="AG25" s="44" t="s">
+      <c r="AG25" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="AH25" s="44" t="s">
+      <c r="AH25" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="AI25" s="44" t="s">
+      <c r="AI25" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="AJ25" s="44" t="s">
+      <c r="AJ25" s="34" t="s">
         <v>147</v>
       </c>
     </row>
@@ -27546,19 +27547,19 @@
       <c r="U26" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="V26" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="W26" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X26" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y26" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z26" s="32" t="s">
+      <c r="V26" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="W26" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X26" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y26" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z26" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AA26" s="32" t="s">
@@ -27579,16 +27580,16 @@
       <c r="AF26" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ26" s="44" t="s">
+      <c r="AG26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ26" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27656,19 +27657,19 @@
       <c r="U27" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="V27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="W27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z27" s="32" t="s">
+      <c r="V27" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="W27" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X27" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y27" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z27" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AA27" s="32" t="s">
@@ -27689,16 +27690,16 @@
       <c r="AF27" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG27" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH27" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI27" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ27" s="44" t="s">
+      <c r="AG27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ27" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27766,19 +27767,19 @@
       <c r="U28" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="V28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="W28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z28" s="32" t="s">
+      <c r="V28" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="W28" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X28" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y28" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z28" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AA28" s="32" t="s">
@@ -27799,16 +27800,16 @@
       <c r="AF28" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG28" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH28" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI28" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ28" s="44" t="s">
+      <c r="AG28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ28" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27876,19 +27877,19 @@
       <c r="U29" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="V29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="W29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z29" s="32" t="s">
+      <c r="V29" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="W29" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X29" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y29" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z29" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AA29" s="32" t="s">
@@ -27909,16 +27910,16 @@
       <c r="AF29" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG29" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH29" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI29" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ29" s="44" t="s">
+      <c r="AG29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ29" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27986,19 +27987,19 @@
       <c r="U30" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="V30" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="W30" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X30" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y30" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z30" s="32" t="s">
+      <c r="V30" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="W30" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X30" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y30" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z30" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AA30" s="32" t="s">
@@ -28019,16 +28020,16 @@
       <c r="AF30" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG30" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH30" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI30" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ30" s="44" t="s">
+      <c r="AG30" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ30" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -28096,19 +28097,19 @@
       <c r="U31" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="V31" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="W31" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X31" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y31" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z31" s="32" t="s">
+      <c r="V31" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="W31" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X31" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y31" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z31" s="45" t="s">
         <v>40</v>
       </c>
       <c r="AA31" s="32" t="s">
@@ -28129,16 +28130,16 @@
       <c r="AF31" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG31" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH31" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI31" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ31" s="44" t="s">
+      <c r="AG31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ31" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -28206,19 +28207,19 @@
       <c r="U32" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="V32" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="W32" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X32" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y32" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z32" s="32" t="s">
+      <c r="V32" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="W32" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X32" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y32" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z32" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AA32" s="32" t="s">
@@ -28239,16 +28240,16 @@
       <c r="AF32" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG32" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH32" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI32" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ32" s="44" t="s">
+      <c r="AG32" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH32" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI32" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ32" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -28316,19 +28317,19 @@
       <c r="U33" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="V33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="W33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z33" s="32" t="s">
+      <c r="V33" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="W33" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X33" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y33" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z33" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AA33" s="32" t="s">
@@ -28349,16 +28350,16 @@
       <c r="AF33" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG33" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH33" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI33" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ33" s="44" t="s">
+      <c r="AG33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ33" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -28426,19 +28427,19 @@
       <c r="U34" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="V34" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="W34" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X34" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y34" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z34" s="32" t="s">
+      <c r="V34" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="W34" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X34" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y34" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z34" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AA34" s="32" t="s">
@@ -28459,16 +28460,16 @@
       <c r="AF34" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG34" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH34" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI34" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ34" s="44" t="s">
+      <c r="AG34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ34" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -28536,19 +28537,19 @@
       <c r="U35" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="V35" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="W35" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X35" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y35" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z35" s="32" t="s">
+      <c r="V35" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="W35" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X35" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y35" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z35" s="45" t="s">
         <v>39</v>
       </c>
       <c r="AA35" s="32" t="s">
@@ -28569,16 +28570,16 @@
       <c r="AF35" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG35" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH35" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI35" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ35" s="44" t="s">
+      <c r="AG35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ35" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -28724,54 +28725,54 @@
       <c r="U1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AD1" s="43" t="s">
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AD1" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AK1" s="43" t="s">
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AK1" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AR1" s="43" t="s">
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AR1" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="43"/>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="43"/>
-      <c r="AY1" s="43" t="s">
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AY1" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="AZ1" s="43"/>
-      <c r="BA1" s="43"/>
-      <c r="BB1" s="43"/>
-      <c r="BC1" s="43"/>
-      <c r="BD1" s="43"/>
-      <c r="BF1" s="43" t="s">
+      <c r="AZ1" s="44"/>
+      <c r="BA1" s="44"/>
+      <c r="BB1" s="44"/>
+      <c r="BC1" s="44"/>
+      <c r="BD1" s="44"/>
+      <c r="BF1" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="BG1" s="43"/>
-      <c r="BH1" s="43"/>
-      <c r="BI1" s="43"/>
-      <c r="BJ1" s="43"/>
-      <c r="BK1" s="43"/>
+      <c r="BG1" s="44"/>
+      <c r="BH1" s="44"/>
+      <c r="BI1" s="44"/>
+      <c r="BJ1" s="44"/>
+      <c r="BK1" s="44"/>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">

--- a/doc/caste_system.xlsx
+++ b/doc/caste_system.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/349dfb9748b30a92/Asztali gép/ataliasflame_2.0/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8607" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DE6EF51-7CC7-4043-8EDB-EFB9CA2B76C2}"/>
+  <xr:revisionPtr revIDLastSave="8656" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B78D9428-5FCC-4794-9B97-39767000E2DB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="635" activeTab="7" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
   </bookViews>
@@ -22601,16 +22601,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F833C9-BBEE-43B5-917D-731D1CF064F0}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="32" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="32" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="32" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="34" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5546875" style="34" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" style="34" bestFit="1" customWidth="1"/>
@@ -23443,10 +23445,10 @@
       <c r="C1" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="34" t="s">
         <v>87</v>
       </c>
       <c r="F1" s="32" t="s">
@@ -23484,10 +23486,10 @@
       <c r="C2" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="45" t="s">
+      <c r="D2" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="32" t="s">
@@ -23525,10 +23527,10 @@
       <c r="C3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="45" t="s">
+      <c r="D3" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F3" s="32" t="s">
@@ -23566,10 +23568,10 @@
       <c r="C4" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="45" t="s">
+      <c r="D4" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="32" t="s">
@@ -23607,10 +23609,10 @@
       <c r="C5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="45" t="s">
+      <c r="D5" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F5" s="32" t="s">
@@ -23648,10 +23650,10 @@
       <c r="C6" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="45" t="s">
+      <c r="D6" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F6" s="32" t="s">
@@ -23689,10 +23691,10 @@
       <c r="C7" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="45" t="s">
+      <c r="D7" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="32" t="s">
@@ -23730,10 +23732,10 @@
       <c r="C8" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="45" t="s">
+      <c r="D8" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="32" t="s">
@@ -23771,10 +23773,10 @@
       <c r="C9" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="45" t="s">
+      <c r="D9" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="32" t="s">
@@ -23812,10 +23814,10 @@
       <c r="C10" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="45" t="s">
+      <c r="D10" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="32" t="s">
@@ -23853,10 +23855,10 @@
       <c r="C11" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="45" t="s">
+      <c r="D11" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="32" t="s">
@@ -23884,17 +23886,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="32" t="s">
+      <c r="C12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="45" t="s">
@@ -23903,39 +23905,39 @@
       <c r="F12" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="32" t="s">
+      <c r="G12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="32" t="s">
+      <c r="C13" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="45" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="45" t="s">
@@ -23944,39 +23946,39 @@
       <c r="F13" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="32" t="s">
+      <c r="G13" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="32" t="s">
+      <c r="C14" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="45" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="45" t="s">
@@ -23985,39 +23987,39 @@
       <c r="F14" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="32" t="s">
+      <c r="G14" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="32" t="s">
+      <c r="C15" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="45" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="45" t="s">
@@ -24026,39 +24028,39 @@
       <c r="F15" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" s="32" t="s">
+      <c r="G15" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="32" t="s">
+      <c r="C16" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="45" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="45" t="s">
@@ -24067,39 +24069,39 @@
       <c r="F16" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="32" t="s">
+      <c r="G16" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="32" t="s">
+      <c r="C17" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="45" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="45" t="s">
@@ -24108,39 +24110,39 @@
       <c r="F17" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="32" t="s">
+      <c r="G17" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="32" t="s">
+      <c r="C18" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="45" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="45" t="s">
@@ -24149,39 +24151,39 @@
       <c r="F18" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="32" t="s">
+      <c r="G18" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="32" t="s">
+      <c r="C19" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="45" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="45" t="s">
@@ -24190,39 +24192,39 @@
       <c r="F19" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="32" t="s">
+      <c r="G19" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="32" t="s">
+      <c r="C20" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="45" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="45" t="s">
@@ -24231,39 +24233,39 @@
       <c r="F20" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M20" s="32" t="s">
+      <c r="G20" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
+    <row r="21" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="32" t="s">
+      <c r="C21" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="45" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="45" t="s">
@@ -24272,234 +24274,234 @@
       <c r="F21" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L21" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M21" s="32" t="s">
+      <c r="G21" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="46" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="45" t="s">
+      <c r="C22" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="34" t="s">
         <v>39</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L22" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="45" t="s">
+      <c r="G22" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="45" t="s">
+      <c r="C23" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="34" t="s">
         <v>39</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L23" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M23" s="45" t="s">
+      <c r="G23" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="45" t="s">
+      <c r="C24" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="34" t="s">
         <v>39</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L24" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="45" t="s">
+      <c r="G24" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>127</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="45" t="s">
+      <c r="C25" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="34" t="s">
         <v>39</v>
       </c>
       <c r="F25" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="L25" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M25" s="45" t="s">
+      <c r="G25" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="48" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="45" t="s">
+      <c r="C26" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="34" t="s">
         <v>39</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K26" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L26" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M26" s="45" t="s">
+      <c r="G26" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>130</v>
       </c>
@@ -24512,7 +24514,7 @@
       <c r="D27" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="32" t="s">
         <v>40</v>
       </c>
       <c r="F27" s="32" t="s">
@@ -24540,7 +24542,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>132</v>
       </c>
@@ -24553,7 +24555,7 @@
       <c r="D28" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="45" t="s">
+      <c r="E28" s="32" t="s">
         <v>40</v>
       </c>
       <c r="F28" s="32" t="s">
@@ -24581,7 +24583,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>134</v>
       </c>
@@ -24594,7 +24596,7 @@
       <c r="D29" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="45" t="s">
+      <c r="E29" s="32" t="s">
         <v>40</v>
       </c>
       <c r="F29" s="32" t="s">
@@ -24622,7 +24624,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>136</v>
       </c>
@@ -24635,7 +24637,7 @@
       <c r="D30" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="32" t="s">
         <v>40</v>
       </c>
       <c r="F30" s="32" t="s">
@@ -24663,7 +24665,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="s">
         <v>137</v>
       </c>
@@ -24676,7 +24678,7 @@
       <c r="D31" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="32" t="s">
         <v>40</v>
       </c>
       <c r="F31" s="32" t="s">
@@ -24714,10 +24716,10 @@
       <c r="C32" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="45" t="s">
+      <c r="D32" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F32" s="32" t="s">
@@ -24755,10 +24757,10 @@
       <c r="C33" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="45" t="s">
+      <c r="D33" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F33" s="32" t="s">
@@ -24796,10 +24798,10 @@
       <c r="C34" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="45" t="s">
+      <c r="D34" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F34" s="32" t="s">
@@ -24837,10 +24839,10 @@
       <c r="C35" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="45" t="s">
+      <c r="D35" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F35" s="32" t="s">
@@ -24878,10 +24880,10 @@
       <c r="C36" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="45" t="s">
+      <c r="D36" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F36" s="32" t="s">
@@ -24918,7 +24920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1C4ECE-D418-419E-9393-664BDA889D6E}">
   <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -24933,26 +24937,26 @@
     <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" style="3" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5546875" style="3" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" style="3" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="12.77734375" style="3" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5546875" style="3" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="9.88671875" style="3" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" style="3" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="14.109375" style="3" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.44140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.6640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.88671875" style="47" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.33203125" style="47" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.21875" style="3" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="8.5546875" style="3" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="6.33203125" style="3" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" style="3" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="9.88671875" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" style="47" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" style="47" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.88671875" style="47" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" style="47" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -24990,49 +24994,49 @@
       <c r="K1" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="V1" s="45" t="s">
+      <c r="V1" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="W1" s="45" t="s">
+      <c r="W1" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="X1" s="45" t="s">
+      <c r="X1" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="Y1" s="45" t="s">
+      <c r="Y1" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="Z1" s="45" t="s">
+      <c r="Z1" s="34" t="s">
         <v>128</v>
       </c>
       <c r="AA1" s="32" t="s">
@@ -25100,49 +25104,49 @@
       <c r="K2" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" s="45" t="s">
+      <c r="L2" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="34" t="s">
         <v>40</v>
       </c>
       <c r="AA2" s="32" t="s">
@@ -25210,49 +25214,49 @@
       <c r="K3" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="45" t="s">
+      <c r="L3" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="34" t="s">
         <v>40</v>
       </c>
       <c r="AA3" s="32" t="s">
@@ -25320,49 +25324,49 @@
       <c r="K4" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="W4" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X4" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y4" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z4" s="45" t="s">
+      <c r="L4" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X4" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AA4" s="32" t="s">
@@ -25430,49 +25434,49 @@
       <c r="K5" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="V5" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="W5" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X5" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z5" s="45" t="s">
+      <c r="L5" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AA5" s="32" t="s">
@@ -25540,49 +25544,49 @@
       <c r="K6" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="T6" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U6" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="V6" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="W6" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X6" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y6" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z6" s="45" t="s">
+      <c r="L6" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X6" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z6" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AA6" s="32" t="s">
@@ -25650,49 +25654,49 @@
       <c r="K7" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="R7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="T7" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="V7" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="W7" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X7" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y7" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z7" s="45" t="s">
+      <c r="L7" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="V7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W7" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7" s="34" t="s">
         <v>40</v>
       </c>
       <c r="AA7" s="32" t="s">
@@ -25760,49 +25764,49 @@
       <c r="K8" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="R8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="S8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="T8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="V8" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="W8" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X8" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y8" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z8" s="45" t="s">
+      <c r="L8" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z8" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AA8" s="32" t="s">
@@ -25870,49 +25874,49 @@
       <c r="K9" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="V9" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="W9" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X9" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y9" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z9" s="45" t="s">
+      <c r="L9" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z9" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AA9" s="32" t="s">
@@ -25980,49 +25984,49 @@
       <c r="K10" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="R10" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="S10" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="T10" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U10" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="V10" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="W10" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X10" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y10" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z10" s="45" t="s">
+      <c r="L10" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="V10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z10" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AA10" s="32" t="s">
@@ -26090,49 +26094,49 @@
       <c r="K11" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="O11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="R11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="S11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="T11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="U11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="V11" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="W11" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="X11" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y11" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z11" s="45" t="s">
+      <c r="L11" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="V11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z11" s="34" t="s">
         <v>40</v>
       </c>
       <c r="AA11" s="32" t="s">
@@ -26200,49 +26204,49 @@
       <c r="K12" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="R12" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="S12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="T12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="U12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="V12" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="W12" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="X12" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y12" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z12" s="45" t="s">
+      <c r="L12" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="S12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="T12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="V12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="X12" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z12" s="34" t="s">
         <v>40</v>
       </c>
       <c r="AA12" s="32" t="s">
@@ -26310,49 +26314,49 @@
       <c r="K13" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O13" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q13" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="R13" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="S13" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="T13" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="U13" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="V13" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="W13" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="X13" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y13" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z13" s="45" t="s">
+      <c r="L13" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="S13" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="U13" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="V13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="X13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z13" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AA13" s="32" t="s">
@@ -26420,49 +26424,49 @@
       <c r="K14" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q14" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="R14" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="S14" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="T14" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U14" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="V14" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="W14" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X14" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y14" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z14" s="45" t="s">
+      <c r="L14" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U14" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="V14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z14" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AA14" s="32" t="s">
@@ -26530,49 +26534,49 @@
       <c r="K15" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N15" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q15" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="R15" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="S15" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="T15" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U15" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="V15" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="W15" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="X15" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y15" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z15" s="45" t="s">
+      <c r="L15" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U15" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="V15" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W15" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="X15" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y15" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z15" s="34" t="s">
         <v>40</v>
       </c>
       <c r="AA15" s="32" t="s">
@@ -26640,49 +26644,49 @@
       <c r="K16" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="R16" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="S16" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="T16" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U16" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="V16" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="W16" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X16" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y16" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z16" s="45" t="s">
+      <c r="L16" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T16" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U16" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="V16" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X16" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z16" s="34" t="s">
         <v>40</v>
       </c>
       <c r="AA16" s="32" t="s">
@@ -26750,49 +26754,49 @@
       <c r="K17" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="N17" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O17" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q17" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="R17" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="S17" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="T17" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U17" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="V17" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="W17" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X17" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y17" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z17" s="45" t="s">
+      <c r="L17" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T17" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U17" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="V17" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X17" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z17" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AA17" s="32" t="s">
@@ -26860,49 +26864,49 @@
       <c r="K18" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P18" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q18" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="R18" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="S18" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="T18" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U18" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="V18" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="W18" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X18" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y18" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z18" s="45" t="s">
+      <c r="L18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="V18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X18" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z18" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AA18" s="32" t="s">
@@ -26970,49 +26974,49 @@
       <c r="K19" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L19" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="R19" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="S19" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="T19" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U19" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="V19" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="W19" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X19" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y19" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z19" s="45" t="s">
+      <c r="L19" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="T19" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U19" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="V19" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X19" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y19" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z19" s="34" t="s">
         <v>40</v>
       </c>
       <c r="AA19" s="32" t="s">
@@ -27080,49 +27084,49 @@
       <c r="K20" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="N20" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O20" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P20" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q20" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="R20" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="S20" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="T20" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U20" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="V20" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="W20" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X20" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y20" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z20" s="45" t="s">
+      <c r="L20" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="R20" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="S20" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="V20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="W20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z20" s="34" t="s">
         <v>40</v>
       </c>
       <c r="AA20" s="32" t="s">
@@ -27190,49 +27194,49 @@
       <c r="K21" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q21" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="R21" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="S21" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="T21" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U21" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="V21" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="W21" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X21" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y21" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z21" s="45" t="s">
+      <c r="L21" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T21" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U21" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="V21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="W21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X21" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y21" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z21" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AA21" s="32" t="s">
@@ -27300,49 +27304,49 @@
       <c r="K22" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="N22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q22" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="R22" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="S22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="T22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="V22" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="W22" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X22" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y22" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z22" s="45" t="s">
+      <c r="L22" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="S22" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T22" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U22" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="V22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="W22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X22" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y22" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z22" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AA22" s="32" t="s">
@@ -27407,49 +27411,49 @@
       <c r="K25" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="L25" s="32" t="s">
+      <c r="L25" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="M25" s="32" t="s">
+      <c r="M25" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="N25" s="32" t="s">
+      <c r="N25" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="O25" s="32" t="s">
+      <c r="O25" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="P25" s="32" t="s">
+      <c r="P25" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="Q25" s="32" t="s">
+      <c r="Q25" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="R25" s="32" t="s">
+      <c r="R25" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="S25" s="32" t="s">
+      <c r="S25" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="T25" s="32" t="s">
+      <c r="T25" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="U25" s="32" t="s">
+      <c r="U25" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="V25" s="45" t="s">
+      <c r="V25" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="W25" s="45" t="s">
+      <c r="W25" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="X25" s="45" t="s">
+      <c r="X25" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="Y25" s="45" t="s">
+      <c r="Y25" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="Z25" s="45" t="s">
+      <c r="Z25" s="34" t="s">
         <v>128</v>
       </c>
       <c r="AA25" s="32" t="s">
@@ -27517,49 +27521,49 @@
       <c r="K26" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L26" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M26" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="N26" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O26" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P26" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q26" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="R26" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="S26" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="T26" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U26" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="V26" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="W26" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X26" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y26" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z26" s="45" t="s">
+      <c r="L26" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M26" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q26" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R26" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="S26" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T26" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U26" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="V26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="W26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z26" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AA26" s="32" t="s">
@@ -27627,49 +27631,49 @@
       <c r="K27" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="N27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="R27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="S27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="T27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="V27" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="W27" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X27" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y27" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z27" s="45" t="s">
+      <c r="L27" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O27" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R27" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="S27" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T27" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U27" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="V27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="W27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z27" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AA27" s="32" t="s">
@@ -27737,49 +27741,49 @@
       <c r="K28" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="N28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="R28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="S28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="T28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="V28" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="W28" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X28" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y28" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z28" s="45" t="s">
+      <c r="L28" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O28" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q28" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R28" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="S28" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T28" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U28" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="V28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="W28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z28" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AA28" s="32" t="s">
@@ -27847,49 +27851,49 @@
       <c r="K29" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="N29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="R29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="S29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="T29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="V29" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="W29" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X29" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y29" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z29" s="45" t="s">
+      <c r="L29" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N29" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O29" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q29" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R29" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="S29" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T29" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U29" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="V29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="W29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z29" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AA29" s="32" t="s">
@@ -27957,49 +27961,49 @@
       <c r="K30" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L30" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M30" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N30" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="O30" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P30" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q30" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="R30" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="S30" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="T30" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="U30" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="V30" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="W30" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X30" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y30" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z30" s="45" t="s">
+      <c r="L30" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="O30" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P30" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q30" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R30" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="S30" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="T30" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="U30" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="V30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W30" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X30" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y30" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z30" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AA30" s="32" t="s">
@@ -28067,49 +28071,49 @@
       <c r="K31" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M31" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N31" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="O31" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P31" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="R31" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="S31" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="T31" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="U31" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="V31" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="W31" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X31" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y31" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z31" s="45" t="s">
+      <c r="L31" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="O31" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R31" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="S31" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="T31" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="U31" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="V31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W31" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X31" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y31" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z31" s="34" t="s">
         <v>40</v>
       </c>
       <c r="AA31" s="32" t="s">
@@ -28177,49 +28181,49 @@
       <c r="K32" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L32" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M32" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N32" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="O32" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P32" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q32" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="R32" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="S32" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="T32" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="U32" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="V32" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="W32" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X32" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y32" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z32" s="45" t="s">
+      <c r="L32" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P32" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q32" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R32" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="S32" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="T32" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="U32" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="V32" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="W32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z32" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AA32" s="32" t="s">
@@ -28287,49 +28291,49 @@
       <c r="K33" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="N33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="R33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="S33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="T33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="V33" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="W33" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X33" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y33" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z33" s="45" t="s">
+      <c r="L33" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O33" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P33" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q33" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R33" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="S33" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T33" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U33" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="V33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="W33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z33" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AA33" s="32" t="s">
@@ -28397,49 +28401,49 @@
       <c r="K34" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L34" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M34" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="N34" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O34" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P34" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q34" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="R34" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="S34" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="T34" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U34" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="V34" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="W34" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X34" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y34" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z34" s="45" t="s">
+      <c r="L34" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M34" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O34" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P34" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q34" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R34" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="S34" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T34" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U34" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="V34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="W34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z34" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AA34" s="32" t="s">
@@ -28507,49 +28511,49 @@
       <c r="K35" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L35" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M35" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="N35" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="O35" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P35" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q35" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="R35" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="S35" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="T35" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U35" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="V35" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="W35" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X35" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y35" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z35" s="45" t="s">
+      <c r="L35" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N35" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O35" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q35" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R35" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="S35" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T35" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U35" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="V35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="W35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z35" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AA35" s="32" t="s">

--- a/doc/caste_system.xlsx
+++ b/doc/caste_system.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/349dfb9748b30a92/Asztali gép/ataliasflame_2.0/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8656" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B78D9428-5FCC-4794-9B97-39767000E2DB}"/>
+  <xr:revisionPtr revIDLastSave="8662" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{425D7C08-8F54-4FC4-B935-1C9BA55C6EF8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="635" activeTab="7" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="635" activeTab="5" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
   </bookViews>
   <sheets>
     <sheet name="caste list" sheetId="1" r:id="rId1"/>
@@ -2244,7 +2244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2320,12 +2320,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -2342,10 +2336,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21580,8 +21570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E471D10E-602D-4E12-A93B-97B72309BCF6}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22610,7 +22600,7 @@
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="34" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="32" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="34" bestFit="1" customWidth="1"/>
@@ -23445,7 +23435,7 @@
       <c r="C1" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="34" t="s">
         <v>86</v>
       </c>
       <c r="E1" s="34" t="s">
@@ -23486,7 +23476,7 @@
       <c r="C2" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="34" t="s">
@@ -23527,7 +23517,7 @@
       <c r="C3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="34" t="s">
@@ -23568,7 +23558,7 @@
       <c r="C4" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="34" t="s">
@@ -23609,7 +23599,7 @@
       <c r="C5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="34" t="s">
@@ -23650,7 +23640,7 @@
       <c r="C6" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="34" t="s">
@@ -23691,7 +23681,7 @@
       <c r="C7" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="34" t="s">
@@ -23732,7 +23722,7 @@
       <c r="C8" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="34" t="s">
@@ -23773,7 +23763,7 @@
       <c r="C9" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="34" t="s">
@@ -23814,7 +23804,7 @@
       <c r="C10" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="34" t="s">
@@ -23855,7 +23845,7 @@
       <c r="C11" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="34" t="s">
@@ -23886,413 +23876,413 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="45" t="s">
+      <c r="C12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="45" t="s">
+      <c r="G12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="45" t="s">
+      <c r="C13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="45" t="s">
+      <c r="G13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="45" t="s">
+      <c r="C14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="45" t="s">
+      <c r="G14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="45" t="s">
+      <c r="C15" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" s="45" t="s">
+      <c r="G15" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="45" t="s">
+      <c r="C16" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="45" t="s">
+      <c r="G16" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="45" t="s">
+      <c r="C17" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="45" t="s">
+      <c r="G17" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="45" t="s">
+      <c r="C18" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="45" t="s">
+      <c r="G18" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="45" t="s">
+      <c r="C19" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="45" t="s">
+      <c r="G19" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="45" t="s">
+      <c r="C20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M20" s="45" t="s">
+      <c r="G20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="48" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="45" t="s">
+      <c r="C21" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L21" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M21" s="45" t="s">
+      <c r="G21" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -24306,7 +24296,7 @@
       <c r="C22" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="34" t="s">
@@ -24347,7 +24337,7 @@
       <c r="C23" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="34" t="s">
@@ -24388,7 +24378,7 @@
       <c r="C24" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="34" t="s">
@@ -24429,7 +24419,7 @@
       <c r="C25" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="34" t="s">
@@ -24470,7 +24460,7 @@
       <c r="C26" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="34" t="s">
@@ -24716,7 +24706,7 @@
       <c r="C32" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="34" t="s">
@@ -24757,7 +24747,7 @@
       <c r="C33" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E33" s="34" t="s">
@@ -24798,7 +24788,7 @@
       <c r="C34" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E34" s="34" t="s">
@@ -24839,7 +24829,7 @@
       <c r="C35" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="45" t="s">
+      <c r="D35" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E35" s="34" t="s">
@@ -24880,7 +24870,7 @@
       <c r="C36" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E36" s="34" t="s">
@@ -24920,7 +24910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1C4ECE-D418-419E-9393-664BDA889D6E}">
   <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
@@ -24937,16 +24927,16 @@
     <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" style="47" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" style="47" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.77734375" style="47" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.88671875" style="47" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" style="47" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -24994,34 +24984,34 @@
       <c r="K1" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="34" t="s">
         <v>120</v>
       </c>
       <c r="V1" s="34" t="s">
@@ -25104,34 +25094,34 @@
       <c r="K2" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="45" t="s">
+      <c r="L2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="34" t="s">
         <v>40</v>
       </c>
       <c r="V2" s="34" t="s">
@@ -25214,34 +25204,34 @@
       <c r="K3" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="45" t="s">
+      <c r="L3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="34" t="s">
         <v>40</v>
       </c>
       <c r="V3" s="34" t="s">
@@ -25324,34 +25314,34 @@
       <c r="K4" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" s="45" t="s">
+      <c r="L4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" s="34" t="s">
         <v>39</v>
       </c>
       <c r="V4" s="34" t="s">
@@ -25434,34 +25424,34 @@
       <c r="K5" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U5" s="45" t="s">
+      <c r="L5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="34" t="s">
         <v>39</v>
       </c>
       <c r="V5" s="34" t="s">
@@ -25544,34 +25534,34 @@
       <c r="K6" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="T6" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U6" s="45" t="s">
+      <c r="L6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" s="34" t="s">
         <v>39</v>
       </c>
       <c r="V6" s="34" t="s">
@@ -25654,34 +25644,34 @@
       <c r="K7" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="R7" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="T7" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U7" s="45" t="s">
+      <c r="L7" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="34" t="s">
         <v>40</v>
       </c>
       <c r="V7" s="34" t="s">
@@ -25764,34 +25754,34 @@
       <c r="K8" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="R8" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="S8" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="T8" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U8" s="45" t="s">
+      <c r="L8" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" s="34" t="s">
         <v>39</v>
       </c>
       <c r="V8" s="34" t="s">
@@ -25874,34 +25864,34 @@
       <c r="K9" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q9" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9" s="45" t="s">
+      <c r="L9" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="34" t="s">
         <v>39</v>
       </c>
       <c r="V9" s="34" t="s">
@@ -25984,34 +25974,34 @@
       <c r="K10" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="R10" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="S10" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="T10" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U10" s="45" t="s">
+      <c r="L10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="34" t="s">
         <v>39</v>
       </c>
       <c r="V10" s="34" t="s">
@@ -26094,34 +26084,34 @@
       <c r="K11" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="O11" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q11" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="R11" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="S11" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="T11" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="U11" s="45" t="s">
+      <c r="L11" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" s="34" t="s">
         <v>40</v>
       </c>
       <c r="V11" s="34" t="s">
@@ -26204,34 +26194,34 @@
       <c r="K12" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q12" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="R12" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="S12" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="T12" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="U12" s="45" t="s">
+      <c r="L12" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="S12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="T12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" s="34" t="s">
         <v>40</v>
       </c>
       <c r="V12" s="34" t="s">
@@ -26314,34 +26304,34 @@
       <c r="K13" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O13" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q13" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="R13" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="S13" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="T13" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="U13" s="45" t="s">
+      <c r="L13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="S13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="U13" s="34" t="s">
         <v>39</v>
       </c>
       <c r="V13" s="34" t="s">
@@ -26424,34 +26414,34 @@
       <c r="K14" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q14" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="R14" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="S14" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="T14" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U14" s="45" t="s">
+      <c r="L14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U14" s="34" t="s">
         <v>39</v>
       </c>
       <c r="V14" s="34" t="s">
@@ -26534,34 +26524,34 @@
       <c r="K15" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N15" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q15" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="R15" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="S15" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="T15" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U15" s="45" t="s">
+      <c r="L15" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U15" s="34" t="s">
         <v>40</v>
       </c>
       <c r="V15" s="34" t="s">
@@ -26644,34 +26634,34 @@
       <c r="K16" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="R16" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="S16" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="T16" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U16" s="45" t="s">
+      <c r="L16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U16" s="34" t="s">
         <v>39</v>
       </c>
       <c r="V16" s="34" t="s">
@@ -26754,34 +26744,34 @@
       <c r="K17" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="N17" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O17" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q17" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="R17" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="S17" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="T17" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U17" s="45" t="s">
+      <c r="L17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U17" s="34" t="s">
         <v>39</v>
       </c>
       <c r="V17" s="34" t="s">
@@ -26864,34 +26854,34 @@
       <c r="K18" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P18" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q18" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="R18" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="S18" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="T18" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U18" s="45" t="s">
+      <c r="L18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" s="34" t="s">
         <v>39</v>
       </c>
       <c r="V18" s="34" t="s">
@@ -26974,34 +26964,34 @@
       <c r="K19" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L19" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="R19" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="S19" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="T19" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U19" s="45" t="s">
+      <c r="L19" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="T19" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U19" s="34" t="s">
         <v>40</v>
       </c>
       <c r="V19" s="34" t="s">
@@ -27084,34 +27074,34 @@
       <c r="K20" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="N20" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O20" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P20" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q20" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="R20" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="S20" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="T20" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U20" s="45" t="s">
+      <c r="L20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="R20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="S20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" s="34" t="s">
         <v>40</v>
       </c>
       <c r="V20" s="34" t="s">
@@ -27194,34 +27184,34 @@
       <c r="K21" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q21" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="R21" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="S21" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="T21" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U21" s="45" t="s">
+      <c r="L21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U21" s="34" t="s">
         <v>39</v>
       </c>
       <c r="V21" s="34" t="s">
@@ -27304,34 +27294,34 @@
       <c r="K22" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L22" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="N22" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O22" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P22" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q22" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="R22" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="S22" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="T22" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U22" s="45" t="s">
+      <c r="L22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="S22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U22" s="34" t="s">
         <v>39</v>
       </c>
       <c r="V22" s="34" t="s">
@@ -27411,34 +27401,34 @@
       <c r="K25" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="L25" s="45" t="s">
+      <c r="L25" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="M25" s="45" t="s">
+      <c r="M25" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="N25" s="45" t="s">
+      <c r="N25" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="O25" s="45" t="s">
+      <c r="O25" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="P25" s="45" t="s">
+      <c r="P25" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="Q25" s="45" t="s">
+      <c r="Q25" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="R25" s="45" t="s">
+      <c r="R25" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="S25" s="45" t="s">
+      <c r="S25" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="T25" s="45" t="s">
+      <c r="T25" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="U25" s="45" t="s">
+      <c r="U25" s="34" t="s">
         <v>120</v>
       </c>
       <c r="V25" s="34" t="s">
@@ -27521,34 +27511,34 @@
       <c r="K26" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L26" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M26" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="N26" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O26" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P26" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q26" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="R26" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="S26" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="T26" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U26" s="45" t="s">
+      <c r="L26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="S26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U26" s="34" t="s">
         <v>39</v>
       </c>
       <c r="V26" s="34" t="s">
@@ -27631,34 +27621,34 @@
       <c r="K27" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L27" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="N27" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O27" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P27" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q27" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="R27" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="S27" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="T27" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U27" s="45" t="s">
+      <c r="L27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="S27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U27" s="34" t="s">
         <v>39</v>
       </c>
       <c r="V27" s="34" t="s">
@@ -27741,34 +27731,34 @@
       <c r="K28" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L28" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M28" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="N28" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O28" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P28" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q28" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="R28" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="S28" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="T28" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U28" s="45" t="s">
+      <c r="L28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="S28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U28" s="34" t="s">
         <v>39</v>
       </c>
       <c r="V28" s="34" t="s">
@@ -27851,34 +27841,34 @@
       <c r="K29" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L29" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M29" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="N29" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O29" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q29" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="R29" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="S29" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="T29" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U29" s="45" t="s">
+      <c r="L29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="N29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="S29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U29" s="34" t="s">
         <v>39</v>
       </c>
       <c r="V29" s="34" t="s">
@@ -27961,34 +27951,34 @@
       <c r="K30" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L30" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M30" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N30" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="O30" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P30" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q30" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="R30" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="S30" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="T30" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="U30" s="45" t="s">
+      <c r="L30" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="O30" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q30" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R30" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="S30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="T30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="U30" s="34" t="s">
         <v>40</v>
       </c>
       <c r="V30" s="34" t="s">
@@ -28071,34 +28061,34 @@
       <c r="K31" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M31" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N31" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="O31" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P31" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="R31" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="S31" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="T31" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="U31" s="45" t="s">
+      <c r="L31" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="O31" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R31" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="S31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="T31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="U31" s="34" t="s">
         <v>40</v>
       </c>
       <c r="V31" s="34" t="s">
@@ -28181,34 +28171,34 @@
       <c r="K32" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L32" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M32" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N32" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="O32" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P32" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q32" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="R32" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="S32" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="T32" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="U32" s="45" t="s">
+      <c r="L32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P32" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="S32" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="T32" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="U32" s="34" t="s">
         <v>40</v>
       </c>
       <c r="V32" s="34" t="s">
@@ -28291,34 +28281,34 @@
       <c r="K33" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L33" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M33" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="N33" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O33" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P33" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q33" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="R33" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="S33" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="T33" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U33" s="45" t="s">
+      <c r="L33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="S33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U33" s="34" t="s">
         <v>39</v>
       </c>
       <c r="V33" s="34" t="s">
@@ -28401,34 +28391,34 @@
       <c r="K34" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="L34" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M34" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="N34" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O34" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P34" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q34" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="R34" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="S34" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="T34" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U34" s="45" t="s">
+      <c r="L34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="S34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U34" s="34" t="s">
         <v>39</v>
       </c>
       <c r="V34" s="34" t="s">
@@ -28511,34 +28501,34 @@
       <c r="K35" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="L35" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M35" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="N35" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="O35" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="P35" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q35" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="R35" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="S35" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="T35" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U35" s="45" t="s">
+      <c r="L35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="N35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="S35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T35" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U35" s="34" t="s">
         <v>39</v>
       </c>
       <c r="V35" s="34" t="s">

--- a/doc/caste_system.xlsx
+++ b/doc/caste_system.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/349dfb9748b30a92/Asztali gép/ataliasflame_2.0/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8662" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{425D7C08-8F54-4FC4-B935-1C9BA55C6EF8}"/>
+  <xr:revisionPtr revIDLastSave="8669" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3AAA7EA-BF1B-4B9D-B5EE-884811645448}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="635" activeTab="5" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="635" activeTab="7" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
   </bookViews>
   <sheets>
     <sheet name="caste list" sheetId="1" r:id="rId1"/>
@@ -2232,10 +2232,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2244,7 +2244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2304,7 +2304,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2318,6 +2317,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2336,6 +2362,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2771,7 +2801,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -2827,7 +2857,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
@@ -2881,7 +2911,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="23" t="s">
         <v>3</v>
       </c>
@@ -2935,7 +2965,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="22" t="s">
         <v>21</v>
       </c>
@@ -2989,7 +3019,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="21" t="s">
         <v>4</v>
       </c>
@@ -3043,7 +3073,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -3099,7 +3129,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="23" t="s">
         <v>6</v>
       </c>
@@ -3153,7 +3183,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="23" t="s">
         <v>7</v>
       </c>
@@ -3207,7 +3237,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="21" t="s">
         <v>8</v>
       </c>
@@ -3261,7 +3291,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -3317,7 +3347,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="23" t="s">
         <v>10</v>
       </c>
@@ -3371,7 +3401,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="23" t="s">
         <v>11</v>
       </c>
@@ -3425,7 +3455,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="21" t="s">
         <v>12</v>
       </c>
@@ -3479,7 +3509,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="40" t="s">
         <v>80</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -3535,7 +3565,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="23" t="s">
         <v>14</v>
       </c>
@@ -3589,7 +3619,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="23" t="s">
         <v>15</v>
       </c>
@@ -3643,7 +3673,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="21" t="s">
         <v>16</v>
       </c>
@@ -3697,7 +3727,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="40" t="s">
         <v>81</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -3753,7 +3783,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="23" t="s">
         <v>18</v>
       </c>
@@ -3807,7 +3837,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="23" t="s">
         <v>19</v>
       </c>
@@ -3861,7 +3891,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="21" t="s">
         <v>20</v>
       </c>
@@ -21570,7 +21600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E471D10E-602D-4E12-A93B-97B72309BCF6}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
@@ -23447,7 +23477,7 @@
       <c r="G1" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="39" t="s">
         <v>90</v>
       </c>
       <c r="I1" s="34" t="s">
@@ -24910,8 +24940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1C4ECE-D418-419E-9393-664BDA889D6E}">
   <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:AJ35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25061,2312 +25091,2312 @@
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ2" s="34" t="s">
+      <c r="B2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI2" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ2" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA3" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB3" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC3" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD3" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE3" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF3" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG3" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH3" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI3" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ3" s="34" t="s">
+      <c r="B3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH3" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ3" s="49" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="W4" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X4" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y4" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z4" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA4" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB4" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC4" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD4" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE4" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF4" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG4" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH4" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI4" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ4" s="34" t="s">
+      <c r="B4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="X4" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA4" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF4" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ4" s="51" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="V5" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="W5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X5" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA5" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF5" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI5" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ5" s="34" t="s">
+      <c r="B5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA5" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD5" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE5" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF5" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ5" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="V6" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="W6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X6" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA6" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB6" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC6" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD6" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE6" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF6" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ6" s="34" t="s">
+      <c r="B6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="X6" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA6" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB6" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC6" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD6" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE6" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF6" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ6" s="53" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="R7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="T7" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="V7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="W7" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB7" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI7" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ7" s="34" t="s">
+      <c r="B7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="V7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="W7" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA7" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB7" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC7" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD7" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE7" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ7" s="49" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="R8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S8" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T8" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U8" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="V8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="W8" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z8" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ8" s="34" t="s">
+      <c r="B8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z8" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA8" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB8" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC8" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD8" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE8" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ8" s="51" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q9" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="V9" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="W9" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X9" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y9" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z9" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB9" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC9" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD9" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE9" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF9" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG9" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH9" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI9" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ9" s="34" t="s">
+      <c r="B9" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="X9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z9" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA9" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB9" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC9" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD9" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE9" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG9" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH9" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI9" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ9" s="51" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="R10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="V10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="W10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA10" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB10" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC10" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD10" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE10" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ10" s="34" t="s">
+      <c r="B10" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="V10" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="W10" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z10" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA10" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB10" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC10" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD10" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE10" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF10" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG10" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH10" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI10" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ10" s="53" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="O11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="R11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="T11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="U11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="V11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="W11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="X11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC11" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG11" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI11" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ11" s="34" t="s">
+      <c r="B11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="V11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC11" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG11" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ11" s="49" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="R12" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="S12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="T12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="U12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="V12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="W12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="X12" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC12" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF12" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG12" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ12" s="34" t="s">
+      <c r="B12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="S12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="T12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="V12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="W12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="X12" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA12" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB12" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC12" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD12" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE12" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF12" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG12" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ12" s="51" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O13" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q13" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="R13" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="S13" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T13" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="U13" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="V13" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="W13" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="X13" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y13" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z13" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA13" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB13" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC13" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD13" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE13" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF13" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG13" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH13" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI13" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ13" s="34" t="s">
+      <c r="B13" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="S13" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="U13" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="V13" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="X13" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y13" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z13" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA13" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB13" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC13" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD13" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE13" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF13" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG13" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH13" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI13" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ13" s="51" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="R14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="S14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="V14" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="W14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y14" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA14" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB14" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC14" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD14" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE14" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ14" s="34" t="s">
+      <c r="B14" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="U14" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="V14" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="W14" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="X14" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y14" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z14" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA14" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB14" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC14" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD14" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE14" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF14" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG14" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH14" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI14" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ14" s="53" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="N15" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q15" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="R15" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S15" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="T15" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U15" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="V15" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="W15" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="X15" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y15" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z15" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA15" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB15" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC15" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD15" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE15" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF15" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG15" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH15" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI15" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ15" s="34" t="s">
+      <c r="B15" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="U15" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="V15" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="W15" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="X15" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y15" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z15" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA15" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB15" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC15" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD15" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE15" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF15" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG15" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH15" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI15" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ15" s="49" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="R16" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S16" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T16" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U16" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="V16" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="W16" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X16" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y16" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z16" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA16" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB16" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC16" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD16" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE16" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF16" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG16" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH16" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI16" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ16" s="34" t="s">
+      <c r="B16" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="T16" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="U16" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="V16" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="W16" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="X16" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y16" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z16" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA16" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB16" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC16" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD16" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE16" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF16" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG16" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH16" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI16" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ16" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="N17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="R17" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="V17" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="W17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X17" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA17" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB17" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC17" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD17" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE17" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF17" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI17" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ17" s="34" t="s">
+      <c r="B17" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="T17" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="U17" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="V17" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="W17" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="X17" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z17" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA17" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB17" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC17" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD17" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE17" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF17" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG17" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH17" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI17" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ17" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="R18" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="V18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X18" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA18" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB18" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC18" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD18" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE18" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF18" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ18" s="34" t="s">
+      <c r="B18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="V18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="X18" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA18" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB18" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC18" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD18" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE18" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF18" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI18" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ18" s="53" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="R19" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S19" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="T19" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U19" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="V19" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W19" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X19" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y19" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z19" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA19" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB19" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC19" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD19" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE19" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF19" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG19" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH19" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI19" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ19" s="34" t="s">
+      <c r="B19" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="T19" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="U19" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="V19" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="X19" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y19" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z19" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA19" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB19" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC19" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD19" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE19" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF19" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG19" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH19" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI19" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ19" s="49" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="N20" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O20" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P20" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q20" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="R20" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S20" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T20" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U20" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="V20" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W20" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X20" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y20" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z20" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA20" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB20" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC20" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD20" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE20" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF20" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG20" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH20" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI20" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ20" s="34" t="s">
+      <c r="B20" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="R20" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="S20" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="V20" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="W20" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="X20" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y20" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z20" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA20" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB20" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC20" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD20" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE20" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF20" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG20" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH20" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI20" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ20" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q21" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="R21" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="V21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X21" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y21" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA21" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB21" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC21" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD21" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE21" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF21" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG21" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ21" s="34" t="s">
+      <c r="B21" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="T21" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="U21" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="V21" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="W21" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="X21" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y21" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z21" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA21" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB21" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC21" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD21" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE21" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF21" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG21" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH21" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI21" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ21" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="L22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="N22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q22" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="R22" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="V22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X22" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y22" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA22" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF22" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG22" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ22" s="34" t="s">
+      <c r="B22" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="S22" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="T22" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="U22" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="V22" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="W22" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="X22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z22" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA22" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB22" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC22" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD22" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE22" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH22" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI22" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ22" s="53" t="s">
         <v>39</v>
       </c>
     </row>
@@ -27478,1102 +27508,1102 @@
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="L26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="N26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="R26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="S26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="V26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA26" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB26" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC26" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD26" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE26" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ26" s="34" t="s">
+      <c r="B26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="M26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="R26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="S26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="T26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="U26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="V26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="W26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="X26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA26" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB26" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC26" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD26" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE26" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ26" s="49" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="N27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="R27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="S27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="V27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ27" s="34" t="s">
+      <c r="B27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="O27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="R27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="S27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="T27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="U27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="V27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="W27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="X27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA27" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB27" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC27" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD27" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE27" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI27" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ27" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="L28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="N28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="R28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="S28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="V28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ28" s="34" t="s">
+      <c r="B28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="O28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="R28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="S28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="T28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="U28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="V28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="W28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="X28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA28" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB28" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC28" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD28" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE28" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ28" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="L29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="N29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="R29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="S29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="V29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ29" s="34" t="s">
+      <c r="B29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="N29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="O29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="R29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="S29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="T29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="U29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="V29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="W29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="X29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA29" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB29" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC29" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD29" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE29" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI29" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ29" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J30" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="L30" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M30" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="N30" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="O30" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P30" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q30" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="R30" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="S30" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="T30" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="U30" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="V30" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="W30" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X30" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y30" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z30" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA30" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB30" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC30" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD30" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE30" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF30" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG30" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH30" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI30" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ30" s="34" t="s">
+      <c r="B30" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="O30" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="P30" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q30" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="R30" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="S30" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="T30" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="U30" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="V30" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="W30" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="X30" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y30" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z30" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA30" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB30" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC30" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD30" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE30" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF30" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG30" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH30" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI30" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ30" s="51" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M31" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="N31" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="O31" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P31" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="R31" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="S31" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="T31" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="U31" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="V31" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="W31" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X31" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y31" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z31" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA31" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB31" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC31" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD31" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE31" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF31" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG31" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH31" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI31" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ31" s="34" t="s">
+      <c r="B31" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="O31" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="R31" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="S31" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="T31" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="U31" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="V31" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="W31" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="X31" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y31" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z31" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA31" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB31" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC31" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD31" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE31" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF31" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG31" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH31" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI31" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ31" s="51" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J32" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="K32" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="L32" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M32" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="N32" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="O32" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P32" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q32" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="R32" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="S32" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="T32" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="U32" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="V32" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="W32" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X32" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y32" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z32" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA32" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB32" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC32" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD32" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE32" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF32" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG32" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH32" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI32" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ32" s="34" t="s">
+      <c r="B32" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="P32" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q32" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="R32" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="S32" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="T32" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="U32" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="V32" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="W32" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="X32" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y32" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z32" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA32" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB32" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC32" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD32" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE32" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF32" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG32" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH32" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI32" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ32" s="51" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="L33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="N33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="R33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="S33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="V33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI33" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ33" s="34" t="s">
+      <c r="B33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="O33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="P33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="R33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="S33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="T33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="U33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="V33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="W33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="X33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA33" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB33" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC33" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD33" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE33" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI33" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ33" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="I34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="L34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="N34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="R34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="S34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="V34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA34" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB34" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC34" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD34" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE34" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ34" s="34" t="s">
+      <c r="B34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="L34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="O34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="P34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="R34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="S34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="T34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="U34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="V34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="W34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="X34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA34" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB34" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC34" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD34" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE34" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI34" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ34" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K35" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="L35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="N35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="R35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="S35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="V35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="X35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA35" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB35" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC35" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD35" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE35" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ35" s="34" t="s">
+      <c r="B35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="N35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="O35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="R35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="S35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="T35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="U35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="V35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="W35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="X35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA35" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB35" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC35" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD35" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE35" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ35" s="53" t="s">
         <v>39</v>
       </c>
     </row>
@@ -28719,54 +28749,54 @@
       <c r="U1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="W1" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AD1" s="44" t="s">
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AD1" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AK1" s="44" t="s">
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AK1" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AR1" s="44" t="s">
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AR1" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AY1" s="44" t="s">
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="43"/>
+      <c r="AY1" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="AZ1" s="44"/>
-      <c r="BA1" s="44"/>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44"/>
-      <c r="BD1" s="44"/>
-      <c r="BF1" s="44" t="s">
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="43"/>
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="43"/>
+      <c r="BF1" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="BG1" s="44"/>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="44"/>
-      <c r="BJ1" s="44"/>
-      <c r="BK1" s="44"/>
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="43"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="43"/>
+      <c r="BK1" s="43"/>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">

--- a/doc/caste_system.xlsx
+++ b/doc/caste_system.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/349dfb9748b30a92/Asztali gép/ataliasflame_2.0/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8938" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AAD4D9E-F8A4-49D6-A71E-203DDABFB9B2}"/>
+  <xr:revisionPtr revIDLastSave="8973" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{237C751F-A45E-4C36-BCDE-991CA1048F40}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="696" activeTab="8" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="696" activeTab="7" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
   </bookViews>
   <sheets>
     <sheet name="caste list" sheetId="1" r:id="rId1"/>
@@ -2552,29 +2552,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2582,6 +2568,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2592,6 +2581,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2610,10 +2612,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3049,7 +3047,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -3105,7 +3103,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
@@ -3159,7 +3157,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="23" t="s">
         <v>3</v>
       </c>
@@ -3213,7 +3211,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="22" t="s">
         <v>21</v>
       </c>
@@ -3267,7 +3265,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="21" t="s">
         <v>4</v>
       </c>
@@ -3321,7 +3319,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="48" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -3377,7 +3375,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="23" t="s">
         <v>6</v>
       </c>
@@ -3431,7 +3429,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="23" t="s">
         <v>7</v>
       </c>
@@ -3485,7 +3483,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="21" t="s">
         <v>8</v>
       </c>
@@ -3539,7 +3537,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="48" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -3595,7 +3593,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="23" t="s">
         <v>10</v>
       </c>
@@ -3649,7 +3647,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="23" t="s">
         <v>11</v>
       </c>
@@ -3703,7 +3701,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="21" t="s">
         <v>12</v>
       </c>
@@ -3757,7 +3755,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="48" t="s">
         <v>80</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -3813,7 +3811,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="23" t="s">
         <v>14</v>
       </c>
@@ -3867,7 +3865,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="23" t="s">
         <v>15</v>
       </c>
@@ -3921,7 +3919,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="21" t="s">
         <v>16</v>
       </c>
@@ -3975,7 +3973,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="48" t="s">
         <v>81</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -4031,7 +4029,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="23" t="s">
         <v>18</v>
       </c>
@@ -4085,7 +4083,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="23" t="s">
         <v>19</v>
       </c>
@@ -4139,7 +4137,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="21" t="s">
         <v>20</v>
       </c>
@@ -4343,54 +4341,54 @@
       <c r="U1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="56" t="s">
+      <c r="W1" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AD1" s="56" t="s">
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AD1" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AK1" s="56" t="s">
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AK1" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AR1" s="56" t="s">
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AR1" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AY1" s="56" t="s">
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AY1" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="56"/>
-      <c r="BC1" s="56"/>
-      <c r="BD1" s="56"/>
-      <c r="BF1" s="56" t="s">
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="51"/>
+      <c r="BB1" s="51"/>
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51"/>
+      <c r="BF1" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="BG1" s="56"/>
-      <c r="BH1" s="56"/>
-      <c r="BI1" s="56"/>
-      <c r="BJ1" s="56"/>
-      <c r="BK1" s="56"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
+      <c r="BJ1" s="51"/>
+      <c r="BK1" s="51"/>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -27968,7 +27966,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27978,7 +27976,7 @@
     <col min="3" max="3" width="12.6640625" style="34" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="34" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="34" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="34" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5546875" style="34" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" style="34" bestFit="1" customWidth="1"/>
@@ -28817,13 +28815,13 @@
       <c r="E1" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="34" t="s">
         <v>88</v>
       </c>
       <c r="G1" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="47" t="s">
         <v>90</v>
       </c>
       <c r="I1" s="34" t="s">
@@ -28858,7 +28856,7 @@
       <c r="E2" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G2" s="34" t="s">
@@ -28899,7 +28897,7 @@
       <c r="E3" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G3" s="34" t="s">
@@ -28940,7 +28938,7 @@
       <c r="E4" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G4" s="34" t="s">
@@ -28981,7 +28979,7 @@
       <c r="E5" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G5" s="34" t="s">
@@ -29022,7 +29020,7 @@
       <c r="E6" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="34" t="s">
@@ -29063,7 +29061,7 @@
       <c r="E7" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G7" s="34" t="s">
@@ -29104,7 +29102,7 @@
       <c r="E8" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G8" s="34" t="s">
@@ -29145,7 +29143,7 @@
       <c r="E9" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G9" s="34" t="s">
@@ -29186,7 +29184,7 @@
       <c r="E10" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="34" t="s">
@@ -29227,7 +29225,7 @@
       <c r="E11" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G11" s="34" t="s">
@@ -29268,7 +29266,7 @@
       <c r="E12" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G12" s="34" t="s">
@@ -29309,7 +29307,7 @@
       <c r="E13" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="34" t="s">
@@ -29350,7 +29348,7 @@
       <c r="E14" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="34" t="s">
@@ -29391,7 +29389,7 @@
       <c r="E15" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G15" s="34" t="s">
@@ -29432,7 +29430,7 @@
       <c r="E16" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="34" t="s">
@@ -29473,7 +29471,7 @@
       <c r="E17" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G17" s="34" t="s">
@@ -29514,7 +29512,7 @@
       <c r="E18" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="34" t="s">
@@ -29555,7 +29553,7 @@
       <c r="E19" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="34" t="s">
@@ -29596,7 +29594,7 @@
       <c r="E20" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G20" s="34" t="s">
@@ -29637,7 +29635,7 @@
       <c r="E21" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G21" s="34" t="s">
@@ -29678,7 +29676,7 @@
       <c r="E22" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="34" t="s">
@@ -29719,7 +29717,7 @@
       <c r="E23" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="34" t="s">
@@ -29760,7 +29758,7 @@
       <c r="E24" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G24" s="34" t="s">
@@ -29801,7 +29799,7 @@
       <c r="E25" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G25" s="34" t="s">
@@ -29842,7 +29840,7 @@
       <c r="E26" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G26" s="34" t="s">
@@ -29867,208 +29865,208 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="C27" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K28" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L28" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M28" s="32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="C28" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J29" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="L29" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M29" s="32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="C29" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="J30" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L30" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M30" s="32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
+      <c r="C30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>138</v>
       </c>
-      <c r="C31" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I31" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J31" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="32" t="s">
+      <c r="C31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -30088,7 +30086,7 @@
       <c r="E32" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G32" s="34" t="s">
@@ -30129,7 +30127,7 @@
       <c r="E33" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="34" t="s">
@@ -30170,7 +30168,7 @@
       <c r="E34" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G34" s="34" t="s">
@@ -30211,7 +30209,7 @@
       <c r="E35" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G35" s="34" t="s">
@@ -30252,7 +30250,7 @@
       <c r="E36" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G36" s="34" t="s">
@@ -30286,8 +30284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1C4ECE-D418-419E-9393-664BDA889D6E}">
   <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView topLeftCell="R13" workbookViewId="0">
-      <selection activeCell="AJ31" sqref="AJ31"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30318,11 +30316,11 @@
     <col min="24" max="24" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.88671875" style="52" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -30405,19 +30403,19 @@
       <c r="Z1" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="AA1" s="32" t="s">
+      <c r="AA1" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="AB1" s="32" t="s">
+      <c r="AB1" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="AC1" s="32" t="s">
+      <c r="AC1" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="AD1" s="32" t="s">
+      <c r="AD1" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="AE1" s="32" t="s">
+      <c r="AE1" s="53" t="s">
         <v>137</v>
       </c>
       <c r="AF1" s="34" t="s">
@@ -30437,222 +30435,222 @@
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB2" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC2" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD2" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE2" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI2" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ2" s="41" t="s">
+      <c r="B2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ2" s="38" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA3" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB3" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC3" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD3" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE3" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH3" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ3" s="44" t="s">
+      <c r="B3" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH3" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ3" s="40" t="s">
         <v>40</v>
       </c>
     </row>
@@ -30735,19 +30733,19 @@
       <c r="Z4" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB4" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC4" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD4" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE4" s="32" t="s">
+      <c r="AA4" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE4" s="53" t="s">
         <v>39</v>
       </c>
       <c r="AF4" s="34" t="s">
@@ -30845,19 +30843,19 @@
       <c r="Z5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AA5" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE5" s="32" t="s">
+      <c r="AA5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE5" s="53" t="s">
         <v>39</v>
       </c>
       <c r="AF5" s="34" t="s">
@@ -30880,219 +30878,219 @@
       <c r="A6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="T6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="U6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="V6" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="W6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="X6" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA6" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB6" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC6" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD6" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE6" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF6" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI6" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ6" s="46" t="s">
+      <c r="B6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="X6" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA6" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE6" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF6" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ6" s="41" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="R7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="T7" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="U7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="V7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="W7" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="X7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA7" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB7" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC7" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD7" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE7" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ7" s="44" t="s">
+      <c r="B7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W7" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB7" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE7" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ7" s="40" t="s">
         <v>40</v>
       </c>
     </row>
@@ -31175,19 +31173,19 @@
       <c r="Z8" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AA8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB8" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD8" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE8" s="32" t="s">
+      <c r="AA8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB8" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE8" s="53" t="s">
         <v>40</v>
       </c>
       <c r="AF8" s="34" t="s">
@@ -31285,19 +31283,19 @@
       <c r="Z9" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AA9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB9" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC9" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD9" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE9" s="32" t="s">
+      <c r="AA9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB9" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC9" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD9" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE9" s="53" t="s">
         <v>39</v>
       </c>
       <c r="AF9" s="34" t="s">
@@ -31320,219 +31318,219 @@
       <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="R10" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="S10" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="T10" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="U10" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="V10" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="W10" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="X10" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y10" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z10" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA10" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB10" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC10" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD10" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE10" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF10" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG10" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH10" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI10" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ10" s="46" t="s">
+      <c r="B10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="V10" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="W10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA10" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE10" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF10" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG10" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ10" s="41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="O11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="R11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="S11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="T11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="U11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="V11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="W11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="X11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA11" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB11" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC11" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD11" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE11" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG11" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI11" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ11" s="44" t="s">
+      <c r="B11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC11" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE11" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG11" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ11" s="40" t="s">
         <v>40</v>
       </c>
     </row>
@@ -31615,19 +31613,19 @@
       <c r="Z12" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AA12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC12" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE12" s="32" t="s">
+      <c r="AA12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC12" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE12" s="53" t="s">
         <v>40</v>
       </c>
       <c r="AF12" s="34" t="s">
@@ -31725,19 +31723,19 @@
       <c r="Z13" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AA13" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB13" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC13" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD13" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE13" s="32" t="s">
+      <c r="AA13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE13" s="53" t="s">
         <v>40</v>
       </c>
       <c r="AF13" s="34" t="s">
@@ -31760,219 +31758,219 @@
       <c r="A14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q14" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="R14" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="S14" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="T14" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="U14" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="V14" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="W14" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="X14" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y14" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z14" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA14" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB14" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC14" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD14" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE14" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF14" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG14" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH14" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI14" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ14" s="46" t="s">
+      <c r="B14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="U14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="V14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="W14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="X14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE14" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ14" s="41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="N15" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q15" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="R15" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="S15" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="T15" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="U15" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="V15" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="W15" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="X15" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y15" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z15" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA15" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB15" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC15" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD15" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE15" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF15" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG15" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH15" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI15" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ15" s="44" t="s">
+      <c r="B15" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="W15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="X15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y15" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC15" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE15" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG15" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ15" s="40" t="s">
         <v>40</v>
       </c>
     </row>
@@ -32055,19 +32053,19 @@
       <c r="Z16" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AA16" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB16" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC16" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD16" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE16" s="32" t="s">
+      <c r="AA16" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD16" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE16" s="53" t="s">
         <v>40</v>
       </c>
       <c r="AF16" s="34" t="s">
@@ -32165,19 +32163,19 @@
       <c r="Z17" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AA17" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB17" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC17" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD17" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE17" s="32" t="s">
+      <c r="AA17" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD17" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE17" s="53" t="s">
         <v>39</v>
       </c>
       <c r="AF17" s="34" t="s">
@@ -32200,219 +32198,219 @@
       <c r="A18" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="P18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="R18" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="S18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="T18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="U18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="V18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="W18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="X18" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA18" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB18" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC18" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD18" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE18" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF18" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI18" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ18" s="46" t="s">
+      <c r="B18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="V18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="X18" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA18" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE18" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF18" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ18" s="41" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="R19" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="S19" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="T19" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="U19" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="V19" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="W19" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="X19" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y19" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z19" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA19" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB19" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC19" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD19" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE19" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF19" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG19" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH19" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI19" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ19" s="44" t="s">
+      <c r="B19" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T19" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V19" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="X19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB19" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC19" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE19" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH19" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI19" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ19" s="40" t="s">
         <v>39</v>
       </c>
     </row>
@@ -32495,19 +32493,19 @@
       <c r="Z20" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AA20" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB20" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC20" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD20" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE20" s="32" t="s">
+      <c r="AA20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE20" s="53" t="s">
         <v>39</v>
       </c>
       <c r="AF20" s="34" t="s">
@@ -32605,19 +32603,19 @@
       <c r="Z21" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AA21" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB21" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC21" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD21" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE21" s="32" t="s">
+      <c r="AA21" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD21" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE21" s="53" t="s">
         <v>39</v>
       </c>
       <c r="AF21" s="34" t="s">
@@ -32640,109 +32638,109 @@
       <c r="A22" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="L22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="N22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="O22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="P22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q22" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="R22" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="S22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="T22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="U22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="V22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="W22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="X22" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y22" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA22" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB22" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC22" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD22" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE22" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF22" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG22" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ22" s="46" t="s">
+      <c r="B22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="S22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="T22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="U22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="V22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="W22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="X22" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y22" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA22" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE22" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF22" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG22" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ22" s="41" t="s">
         <v>39</v>
       </c>
     </row>
@@ -32822,19 +32820,19 @@
       <c r="Z25" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="AA25" s="32" t="s">
+      <c r="AA25" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="AB25" s="32" t="s">
+      <c r="AB25" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="AC25" s="32" t="s">
+      <c r="AC25" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="AD25" s="32" t="s">
+      <c r="AD25" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="AE25" s="32" t="s">
+      <c r="AE25" s="53" t="s">
         <v>137</v>
       </c>
       <c r="AF25" s="34" t="s">
@@ -32854,112 +32852,112 @@
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="K26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="L26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="M26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="N26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="O26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="P26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="R26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="S26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="T26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="U26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="V26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="W26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="X26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA26" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB26" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC26" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD26" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE26" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI26" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ26" s="44" t="s">
+      <c r="B26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="M26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="R26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="S26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="V26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="W26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="X26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE26" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI26" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ26" s="40" t="s">
         <v>39</v>
       </c>
     </row>
@@ -33042,19 +33040,19 @@
       <c r="Z27" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AA27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD27" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE27" s="32" t="s">
+      <c r="AA27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE27" s="53" t="s">
         <v>39</v>
       </c>
       <c r="AF27" s="34" t="s">
@@ -33152,19 +33150,19 @@
       <c r="Z28" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AA28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD28" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE28" s="32" t="s">
+      <c r="AA28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE28" s="53" t="s">
         <v>39</v>
       </c>
       <c r="AF28" s="34" t="s">
@@ -33262,19 +33260,19 @@
       <c r="Z29" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AA29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE29" s="32" t="s">
+      <c r="AA29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE29" s="53" t="s">
         <v>39</v>
       </c>
       <c r="AF29" s="34" t="s">
@@ -33372,19 +33370,19 @@
       <c r="Z30" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AA30" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB30" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC30" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD30" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE30" s="32" t="s">
+      <c r="AA30" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC30" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE30" s="53" t="s">
         <v>40</v>
       </c>
       <c r="AF30" s="34" t="s">
@@ -33482,19 +33480,19 @@
       <c r="Z31" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AA31" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB31" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC31" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD31" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE31" s="32" t="s">
+      <c r="AA31" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB31" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC31" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE31" s="53" t="s">
         <v>40</v>
       </c>
       <c r="AF31" s="34" t="s">
@@ -33592,19 +33590,19 @@
       <c r="Z32" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AA32" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB32" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC32" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD32" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE32" s="32" t="s">
+      <c r="AA32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE32" s="53" t="s">
         <v>40</v>
       </c>
       <c r="AF32" s="34" t="s">
@@ -33702,19 +33700,19 @@
       <c r="Z33" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AA33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE33" s="32" t="s">
+      <c r="AA33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD33" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE33" s="53" t="s">
         <v>39</v>
       </c>
       <c r="AF33" s="34" t="s">
@@ -33812,19 +33810,19 @@
       <c r="Z34" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AA34" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB34" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC34" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD34" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE34" s="32" t="s">
+      <c r="AA34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE34" s="53" t="s">
         <v>39</v>
       </c>
       <c r="AF34" s="34" t="s">
@@ -33847,109 +33845,109 @@
       <c r="A35" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="J35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="K35" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="L35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="M35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="N35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="O35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="P35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="R35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="S35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="T35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="U35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="V35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="W35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="X35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA35" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB35" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC35" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD35" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE35" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI35" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ35" s="46" t="s">
+      <c r="B35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="N35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="O35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="R35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="S35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="T35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="U35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="V35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="W35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="X35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE35" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI35" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ35" s="41" t="s">
         <v>39</v>
       </c>
     </row>
@@ -33962,7 +33960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39E67B8-A1DC-45C6-A1D4-0073AA57C7BD}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20:N20"/>
     </sheetView>
   </sheetViews>
@@ -34040,22 +34038,22 @@
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="46" t="s">
         <v>166</v>
       </c>
       <c r="M6" t="s">
@@ -34083,16 +34081,16 @@
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="44" t="s">
         <v>164</v>
       </c>
       <c r="M8" t="s">
@@ -34126,8 +34124,8 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
       <c r="M10" t="s">
         <v>160</v>
       </c>
@@ -34162,10 +34160,10 @@
       <c r="E12" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="H12" s="50" t="s">
+      <c r="H12" s="44" t="s">
         <v>156</v>
       </c>
     </row>
@@ -34203,10 +34201,10 @@
       <c r="E16" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="44" t="s">
         <v>156</v>
       </c>
       <c r="M16" t="s">
@@ -34237,8 +34235,8 @@
       <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
       <c r="M18" t="s">
         <v>159</v>
       </c>
@@ -34317,10 +34315,10 @@
       <c r="E24" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="H24" s="50" t="s">
+      <c r="H24" s="44" t="s">
         <v>164</v>
       </c>
     </row>
@@ -34339,8 +34337,8 @@
       <c r="B26" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B27" t="s">

--- a/doc/caste_system.xlsx
+++ b/doc/caste_system.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/349dfb9748b30a92/Asztali gép/ataliasflame_2.0/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8973" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{237C751F-A45E-4C36-BCDE-991CA1048F40}"/>
+  <xr:revisionPtr revIDLastSave="9590" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65C51AA8-7A2E-4CAB-925B-04EC196CD0E5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="696" activeTab="7" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
   </bookViews>
@@ -2494,7 +2494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2583,18 +2583,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2612,6 +2602,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2914,7 +2908,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27966,7 +27960,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30284,8 +30278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1C4ECE-D418-419E-9393-664BDA889D6E}">
   <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ19" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30320,7 +30314,7 @@
     <col min="28" max="28" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.88671875" style="52" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -30415,7 +30409,7 @@
       <c r="AD1" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="AE1" s="53" t="s">
+      <c r="AE1" s="34" t="s">
         <v>137</v>
       </c>
       <c r="AF1" s="34" t="s">
@@ -30525,7 +30519,7 @@
       <c r="AD2" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AE2" s="56" t="s">
+      <c r="AE2" s="38" t="s">
         <v>40</v>
       </c>
       <c r="AF2" s="38" t="s">
@@ -30552,19 +30546,19 @@
         <v>39</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>40</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>40</v>
@@ -30585,7 +30579,7 @@
         <v>40</v>
       </c>
       <c r="N3" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O3" s="40" t="s">
         <v>39</v>
@@ -30600,10 +30594,10 @@
         <v>40</v>
       </c>
       <c r="S3" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T3" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U3" s="40" t="s">
         <v>40</v>
@@ -30612,7 +30606,7 @@
         <v>40</v>
       </c>
       <c r="W3" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X3" s="40" t="s">
         <v>40</v>
@@ -30621,7 +30615,7 @@
         <v>40</v>
       </c>
       <c r="Z3" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA3" s="40" t="s">
         <v>40</v>
@@ -30630,13 +30624,13 @@
         <v>39</v>
       </c>
       <c r="AC3" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="AE3" s="54" t="s">
-        <v>39</v>
+      <c r="AE3" s="40" t="s">
+        <v>40</v>
       </c>
       <c r="AF3" s="40" t="s">
         <v>40</v>
@@ -30645,7 +30639,7 @@
         <v>40</v>
       </c>
       <c r="AH3" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI3" s="40" t="s">
         <v>40</v>
@@ -30665,10 +30659,10 @@
         <v>39</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="34" t="s">
         <v>39</v>
@@ -30716,7 +30710,7 @@
         <v>39</v>
       </c>
       <c r="U4" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V4" s="34" t="s">
         <v>40</v>
@@ -30740,19 +30734,19 @@
         <v>39</v>
       </c>
       <c r="AC4" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD4" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AE4" s="53" t="s">
-        <v>39</v>
+      <c r="AE4" s="34" t="s">
+        <v>40</v>
       </c>
       <c r="AF4" s="34" t="s">
         <v>40</v>
       </c>
       <c r="AG4" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AH4" s="34" t="s">
         <v>39</v>
@@ -30778,7 +30772,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>39</v>
@@ -30790,7 +30784,7 @@
         <v>40</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J5" s="34" t="s">
         <v>39</v>
@@ -30838,7 +30832,7 @@
         <v>40</v>
       </c>
       <c r="Y5" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z5" s="34" t="s">
         <v>39</v>
@@ -30855,7 +30849,7 @@
       <c r="AD5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AE5" s="53" t="s">
+      <c r="AE5" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AF5" s="34" t="s">
@@ -30871,7 +30865,7 @@
         <v>39</v>
       </c>
       <c r="AJ5" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
@@ -30906,13 +30900,13 @@
         <v>39</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L6" s="41" t="s">
         <v>39</v>
       </c>
       <c r="M6" s="41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N6" s="41" t="s">
         <v>39</v>
@@ -30921,7 +30915,7 @@
         <v>39</v>
       </c>
       <c r="P6" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="41" t="s">
         <v>39</v>
@@ -30939,7 +30933,7 @@
         <v>39</v>
       </c>
       <c r="V6" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W6" s="41" t="s">
         <v>39</v>
@@ -30948,7 +30942,7 @@
         <v>40</v>
       </c>
       <c r="Y6" s="41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z6" s="41" t="s">
         <v>39</v>
@@ -30965,7 +30959,7 @@
       <c r="AD6" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AE6" s="55" t="s">
+      <c r="AE6" s="41" t="s">
         <v>39</v>
       </c>
       <c r="AF6" s="41" t="s">
@@ -30981,7 +30975,7 @@
         <v>39</v>
       </c>
       <c r="AJ6" s="41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
@@ -31025,10 +31019,10 @@
         <v>40</v>
       </c>
       <c r="N7" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O7" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="40" t="s">
         <v>40</v>
@@ -31043,7 +31037,7 @@
         <v>40</v>
       </c>
       <c r="T7" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U7" s="40" t="s">
         <v>40</v>
@@ -31061,13 +31055,13 @@
         <v>40</v>
       </c>
       <c r="Z7" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA7" s="40" t="s">
         <v>40</v>
       </c>
       <c r="AB7" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC7" s="40" t="s">
         <v>40</v>
@@ -31075,7 +31069,7 @@
       <c r="AD7" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="AE7" s="54" t="s">
+      <c r="AE7" s="40" t="s">
         <v>40</v>
       </c>
       <c r="AF7" s="40" t="s">
@@ -31099,7 +31093,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>40</v>
@@ -31150,13 +31144,13 @@
         <v>40</v>
       </c>
       <c r="S8" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T8" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U8" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V8" s="34" t="s">
         <v>40</v>
@@ -31177,7 +31171,7 @@
         <v>40</v>
       </c>
       <c r="AB8" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC8" s="34" t="s">
         <v>40</v>
@@ -31185,7 +31179,7 @@
       <c r="AD8" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AE8" s="53" t="s">
+      <c r="AE8" s="34" t="s">
         <v>40</v>
       </c>
       <c r="AF8" s="34" t="s">
@@ -31212,7 +31206,7 @@
         <v>39</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>40</v>
@@ -31266,7 +31260,7 @@
         <v>39</v>
       </c>
       <c r="U9" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V9" s="34" t="s">
         <v>40</v>
@@ -31277,7 +31271,7 @@
       <c r="X9" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="Y9" s="34" t="s">
+      <c r="Y9" s="26" t="s">
         <v>40</v>
       </c>
       <c r="Z9" s="34" t="s">
@@ -31290,19 +31284,19 @@
         <v>39</v>
       </c>
       <c r="AC9" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD9" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE9" s="53" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="AE9" s="34" t="s">
+        <v>40</v>
       </c>
       <c r="AF9" s="34" t="s">
         <v>40</v>
       </c>
       <c r="AG9" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AH9" s="34" t="s">
         <v>39</v>
@@ -31343,7 +31337,7 @@
         <v>40</v>
       </c>
       <c r="J10" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10" s="41" t="s">
         <v>40</v>
@@ -31405,14 +31399,14 @@
       <c r="AD10" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AE10" s="55" t="s">
-        <v>39</v>
+      <c r="AE10" s="41" t="s">
+        <v>40</v>
       </c>
       <c r="AF10" s="41" t="s">
         <v>40</v>
       </c>
       <c r="AG10" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AH10" s="41" t="s">
         <v>39</v>
@@ -31474,7 +31468,7 @@
         <v>40</v>
       </c>
       <c r="Q11" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R11" s="40" t="s">
         <v>40</v>
@@ -31498,7 +31492,7 @@
         <v>40</v>
       </c>
       <c r="Y11" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z11" s="40" t="s">
         <v>40</v>
@@ -31510,12 +31504,12 @@
         <v>40</v>
       </c>
       <c r="AC11" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD11" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="AE11" s="54" t="s">
+      <c r="AE11" s="40" t="s">
         <v>40</v>
       </c>
       <c r="AF11" s="40" t="s">
@@ -31539,7 +31533,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>40</v>
@@ -31557,7 +31551,7 @@
         <v>40</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="34" t="s">
         <v>40</v>
@@ -31584,7 +31578,7 @@
         <v>40</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R12" s="34" t="s">
         <v>39</v>
@@ -31605,10 +31599,10 @@
         <v>40</v>
       </c>
       <c r="X12" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y12" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z12" s="34" t="s">
         <v>40</v>
@@ -31620,12 +31614,12 @@
         <v>40</v>
       </c>
       <c r="AC12" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD12" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AE12" s="53" t="s">
+      <c r="AE12" s="34" t="s">
         <v>40</v>
       </c>
       <c r="AF12" s="34" t="s">
@@ -31649,10 +31643,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>40</v>
@@ -31664,7 +31658,7 @@
         <v>40</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13" s="34" t="s">
         <v>39</v>
@@ -31673,7 +31667,7 @@
         <v>40</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13" s="34" t="s">
         <v>40</v>
@@ -31700,28 +31694,28 @@
         <v>39</v>
       </c>
       <c r="S13" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T13" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U13" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V13" s="34" t="s">
         <v>40</v>
       </c>
       <c r="W13" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X13" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y13" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z13" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA13" s="34" t="s">
         <v>39</v>
@@ -31735,7 +31729,7 @@
       <c r="AD13" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AE13" s="53" t="s">
+      <c r="AE13" s="34" t="s">
         <v>40</v>
       </c>
       <c r="AF13" s="34" t="s">
@@ -31748,7 +31742,7 @@
         <v>40</v>
       </c>
       <c r="AI13" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AJ13" s="34" t="s">
         <v>40</v>
@@ -31762,10 +31756,10 @@
         <v>39</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>39</v>
@@ -31774,16 +31768,16 @@
         <v>40</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" s="41" t="s">
         <v>39</v>
       </c>
       <c r="I14" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K14" s="41" t="s">
         <v>40</v>
@@ -31810,13 +31804,13 @@
         <v>39</v>
       </c>
       <c r="S14" s="41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T14" s="41" t="s">
         <v>39</v>
       </c>
       <c r="U14" s="41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V14" s="41" t="s">
         <v>40</v>
@@ -31828,16 +31822,16 @@
         <v>39</v>
       </c>
       <c r="Y14" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z14" s="41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA14" s="41" t="s">
         <v>39</v>
       </c>
       <c r="AB14" s="41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC14" s="41" t="s">
         <v>39</v>
@@ -31845,8 +31839,8 @@
       <c r="AD14" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AE14" s="55" t="s">
-        <v>39</v>
+      <c r="AE14" s="41" t="s">
+        <v>40</v>
       </c>
       <c r="AF14" s="41" t="s">
         <v>39</v>
@@ -31858,7 +31852,7 @@
         <v>39</v>
       </c>
       <c r="AI14" s="41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AJ14" s="41" t="s">
         <v>40</v>
@@ -31869,10 +31863,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="40" t="s">
         <v>40</v>
@@ -31881,7 +31875,7 @@
         <v>40</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>40</v>
@@ -31890,10 +31884,10 @@
         <v>40</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="40" t="s">
         <v>40</v>
@@ -31905,7 +31899,7 @@
         <v>40</v>
       </c>
       <c r="N15" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O15" s="40" t="s">
         <v>39</v>
@@ -31923,7 +31917,7 @@
         <v>40</v>
       </c>
       <c r="T15" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U15" s="40" t="s">
         <v>40</v>
@@ -31938,7 +31932,7 @@
         <v>40</v>
       </c>
       <c r="Y15" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z15" s="40" t="s">
         <v>40</v>
@@ -31950,12 +31944,12 @@
         <v>40</v>
       </c>
       <c r="AC15" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD15" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="AE15" s="54" t="s">
+      <c r="AE15" s="40" t="s">
         <v>40</v>
       </c>
       <c r="AF15" s="40" t="s">
@@ -31982,16 +31976,16 @@
         <v>39</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G16" s="34" t="s">
         <v>39</v>
@@ -32000,7 +31994,7 @@
         <v>40</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J16" s="34" t="s">
         <v>39</v>
@@ -32033,16 +32027,16 @@
         <v>39</v>
       </c>
       <c r="T16" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U16" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V16" s="34" t="s">
         <v>40</v>
       </c>
       <c r="W16" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X16" s="34" t="s">
         <v>40</v>
@@ -32051,7 +32045,7 @@
         <v>39</v>
       </c>
       <c r="Z16" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA16" s="34" t="s">
         <v>40</v>
@@ -32065,7 +32059,7 @@
       <c r="AD16" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AE16" s="53" t="s">
+      <c r="AE16" s="34" t="s">
         <v>40</v>
       </c>
       <c r="AF16" s="34" t="s">
@@ -32081,7 +32075,7 @@
         <v>40</v>
       </c>
       <c r="AJ16" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
@@ -32095,7 +32089,7 @@
         <v>39</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" s="34" t="s">
         <v>40</v>
@@ -32122,7 +32116,7 @@
         <v>39</v>
       </c>
       <c r="M17" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N17" s="34" t="s">
         <v>39</v>
@@ -32152,7 +32146,7 @@
         <v>40</v>
       </c>
       <c r="W17" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X17" s="34" t="s">
         <v>40</v>
@@ -32175,7 +32169,7 @@
       <c r="AD17" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AE17" s="53" t="s">
+      <c r="AE17" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AF17" s="34" t="s">
@@ -32188,10 +32182,10 @@
         <v>39</v>
       </c>
       <c r="AI17" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ17" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
@@ -32208,7 +32202,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" s="41" t="s">
         <v>39</v>
@@ -32285,7 +32279,7 @@
       <c r="AD18" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AE18" s="55" t="s">
+      <c r="AE18" s="41" t="s">
         <v>39</v>
       </c>
       <c r="AF18" s="41" t="s">
@@ -32301,7 +32295,7 @@
         <v>39</v>
       </c>
       <c r="AJ18" s="41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
@@ -32309,10 +32303,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19" s="40" t="s">
         <v>40</v>
@@ -32321,7 +32315,7 @@
         <v>40</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="40" t="s">
         <v>40</v>
@@ -32333,10 +32327,10 @@
         <v>40</v>
       </c>
       <c r="J19" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="40" t="s">
         <v>39</v>
@@ -32345,13 +32339,13 @@
         <v>39</v>
       </c>
       <c r="N19" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O19" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="40" t="s">
         <v>40</v>
@@ -32368,11 +32362,11 @@
       <c r="U19" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="V19" s="40" t="s">
+      <c r="V19" s="34" t="s">
         <v>39</v>
       </c>
       <c r="W19" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X19" s="40" t="s">
         <v>40</v>
@@ -32387,16 +32381,16 @@
         <v>40</v>
       </c>
       <c r="AB19" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC19" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD19" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="AE19" s="54" t="s">
-        <v>39</v>
+      <c r="AE19" s="40" t="s">
+        <v>40</v>
       </c>
       <c r="AF19" s="40" t="s">
         <v>40</v>
@@ -32405,12 +32399,12 @@
         <v>40</v>
       </c>
       <c r="AH19" s="40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI19" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="AJ19" s="40" t="s">
+      <c r="AJ19" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -32422,19 +32416,19 @@
         <v>39</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>40</v>
@@ -32464,13 +32458,13 @@
         <v>39</v>
       </c>
       <c r="Q20" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R20" s="34" t="s">
         <v>40</v>
       </c>
       <c r="S20" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T20" s="34" t="s">
         <v>39</v>
@@ -32491,13 +32485,13 @@
         <v>40</v>
       </c>
       <c r="Z20" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA20" s="34" t="s">
         <v>40</v>
       </c>
       <c r="AB20" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC20" s="34" t="s">
         <v>39</v>
@@ -32505,17 +32499,17 @@
       <c r="AD20" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AE20" s="53" t="s">
-        <v>39</v>
+      <c r="AE20" s="34" t="s">
+        <v>40</v>
       </c>
       <c r="AF20" s="34" t="s">
         <v>40</v>
       </c>
       <c r="AG20" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AH20" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI20" s="34" t="s">
         <v>40</v>
@@ -32535,13 +32529,13 @@
         <v>39</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" s="34" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21" s="34" t="s">
         <v>39</v>
@@ -32574,7 +32568,7 @@
         <v>39</v>
       </c>
       <c r="Q21" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R21" s="34" t="s">
         <v>40</v>
@@ -32586,7 +32580,7 @@
         <v>39</v>
       </c>
       <c r="U21" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V21" s="34" t="s">
         <v>39</v>
@@ -32598,7 +32592,7 @@
         <v>40</v>
       </c>
       <c r="Y21" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z21" s="34" t="s">
         <v>39</v>
@@ -32615,14 +32609,14 @@
       <c r="AD21" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AE21" s="53" t="s">
-        <v>39</v>
+      <c r="AE21" s="34" t="s">
+        <v>40</v>
       </c>
       <c r="AF21" s="34" t="s">
         <v>40</v>
       </c>
       <c r="AG21" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AH21" s="34" t="s">
         <v>39</v>
@@ -32660,7 +32654,7 @@
         <v>40</v>
       </c>
       <c r="I22" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J22" s="41" t="s">
         <v>39</v>
@@ -32684,7 +32678,7 @@
         <v>39</v>
       </c>
       <c r="Q22" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R22" s="41" t="s">
         <v>40</v>
@@ -32696,7 +32690,7 @@
         <v>39</v>
       </c>
       <c r="U22" s="41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V22" s="41" t="s">
         <v>39</v>
@@ -32708,7 +32702,7 @@
         <v>40</v>
       </c>
       <c r="Y22" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z22" s="41" t="s">
         <v>39</v>
@@ -32725,14 +32719,14 @@
       <c r="AD22" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AE22" s="55" t="s">
-        <v>39</v>
+      <c r="AE22" s="41" t="s">
+        <v>40</v>
       </c>
       <c r="AF22" s="41" t="s">
         <v>40</v>
       </c>
       <c r="AG22" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AH22" s="41" t="s">
         <v>39</v>
@@ -32832,7 +32826,7 @@
       <c r="AD25" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="AE25" s="53" t="s">
+      <c r="AE25" s="34" t="s">
         <v>137</v>
       </c>
       <c r="AF25" s="34" t="s">
@@ -32942,7 +32936,7 @@
       <c r="AD26" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="AE26" s="54" t="s">
+      <c r="AE26" s="40" t="s">
         <v>39</v>
       </c>
       <c r="AF26" s="40" t="s">
@@ -33052,7 +33046,7 @@
       <c r="AD27" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AE27" s="53" t="s">
+      <c r="AE27" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AF27" s="34" t="s">
@@ -33162,7 +33156,7 @@
       <c r="AD28" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AE28" s="53" t="s">
+      <c r="AE28" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AF28" s="34" t="s">
@@ -33272,7 +33266,7 @@
       <c r="AD29" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AE29" s="53" t="s">
+      <c r="AE29" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AF29" s="34" t="s">
@@ -33299,16 +33293,16 @@
         <v>39</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" s="34" t="s">
         <v>39</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30" s="34" t="s">
         <v>40</v>
@@ -33320,7 +33314,7 @@
         <v>39</v>
       </c>
       <c r="J30" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K30" s="34" t="s">
         <v>39</v>
@@ -33329,16 +33323,16 @@
         <v>39</v>
       </c>
       <c r="M30" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N30" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O30" s="34" t="s">
         <v>39</v>
       </c>
       <c r="P30" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q30" s="34" t="s">
         <v>39</v>
@@ -33350,13 +33344,13 @@
         <v>40</v>
       </c>
       <c r="T30" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U30" s="34" t="s">
         <v>40</v>
       </c>
       <c r="V30" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W30" s="34" t="s">
         <v>39</v>
@@ -33368,13 +33362,13 @@
         <v>39</v>
       </c>
       <c r="Z30" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA30" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AB30" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC30" s="34" t="s">
         <v>39</v>
@@ -33382,8 +33376,8 @@
       <c r="AD30" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AE30" s="53" t="s">
-        <v>40</v>
+      <c r="AE30" s="34" t="s">
+        <v>39</v>
       </c>
       <c r="AF30" s="34" t="s">
         <v>39</v>
@@ -33409,16 +33403,16 @@
         <v>39</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31" s="34" t="s">
         <v>39</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="34" t="s">
         <v>40</v>
@@ -33430,7 +33424,7 @@
         <v>39</v>
       </c>
       <c r="J31" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31" s="34" t="s">
         <v>40</v>
@@ -33442,7 +33436,7 @@
         <v>40</v>
       </c>
       <c r="N31" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O31" s="34" t="s">
         <v>39</v>
@@ -33460,7 +33454,7 @@
         <v>40</v>
       </c>
       <c r="T31" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U31" s="34" t="s">
         <v>40</v>
@@ -33492,8 +33486,8 @@
       <c r="AD31" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AE31" s="53" t="s">
-        <v>40</v>
+      <c r="AE31" s="34" t="s">
+        <v>39</v>
       </c>
       <c r="AF31" s="34" t="s">
         <v>39</v>
@@ -33502,7 +33496,7 @@
         <v>39</v>
       </c>
       <c r="AH31" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AI31" s="34" t="s">
         <v>40</v>
@@ -33519,7 +33513,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="34" t="s">
         <v>39</v>
@@ -33528,10 +33522,10 @@
         <v>39</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H32" s="34" t="s">
         <v>39</v>
@@ -33540,25 +33534,25 @@
         <v>39</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L32" s="34" t="s">
         <v>39</v>
       </c>
       <c r="M32" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N32" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O32" s="34" t="s">
         <v>39</v>
       </c>
       <c r="P32" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q32" s="34" t="s">
         <v>39</v>
@@ -33567,16 +33561,16 @@
         <v>39</v>
       </c>
       <c r="S32" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T32" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U32" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V32" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W32" s="34" t="s">
         <v>39</v>
@@ -33602,20 +33596,20 @@
       <c r="AD32" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AE32" s="53" t="s">
-        <v>40</v>
+      <c r="AE32" s="34" t="s">
+        <v>39</v>
       </c>
       <c r="AF32" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AG32" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AH32" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AI32" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ32" s="34" t="s">
         <v>39</v>
@@ -33653,13 +33647,13 @@
         <v>39</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L33" s="34" t="s">
         <v>39</v>
       </c>
       <c r="M33" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N33" s="34" t="s">
         <v>39</v>
@@ -33668,7 +33662,7 @@
         <v>39</v>
       </c>
       <c r="P33" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q33" s="34" t="s">
         <v>39</v>
@@ -33686,7 +33680,7 @@
         <v>39</v>
       </c>
       <c r="V33" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W33" s="34" t="s">
         <v>39</v>
@@ -33712,7 +33706,7 @@
       <c r="AD33" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AE33" s="53" t="s">
+      <c r="AE33" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AF33" s="34" t="s">
@@ -33728,7 +33722,7 @@
         <v>39</v>
       </c>
       <c r="AJ33" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.3">
@@ -33822,7 +33816,7 @@
       <c r="AD34" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AE34" s="53" t="s">
+      <c r="AE34" s="34" t="s">
         <v>39</v>
       </c>
       <c r="AF34" s="34" t="s">
@@ -33861,7 +33855,7 @@
         <v>39</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H35" s="41" t="s">
         <v>39</v>
@@ -33897,13 +33891,13 @@
         <v>39</v>
       </c>
       <c r="S35" s="41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T35" s="41" t="s">
         <v>39</v>
       </c>
       <c r="U35" s="41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V35" s="41" t="s">
         <v>39</v>
@@ -33918,7 +33912,7 @@
         <v>39</v>
       </c>
       <c r="Z35" s="41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA35" s="41" t="s">
         <v>39</v>
@@ -33930,9 +33924,9 @@
         <v>39</v>
       </c>
       <c r="AD35" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE35" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE35" s="41" t="s">
         <v>39</v>
       </c>
       <c r="AF35" s="41" t="s">
@@ -33945,7 +33939,7 @@
         <v>39</v>
       </c>
       <c r="AI35" s="41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AJ35" s="41" t="s">
         <v>39</v>
@@ -33958,20 +33952,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39E67B8-A1DC-45C6-A1D4-0073AA57C7BD}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20:N20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.77734375" bestFit="1" customWidth="1"/>
@@ -34345,6 +34340,7 @@
         <v>20</v>
       </c>
     </row>
+    <row r="35" s="52" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/caste_system.xlsx
+++ b/doc/caste_system.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/349dfb9748b30a92/Asztali gép/ataliasflame_2.0/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9590" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65C51AA8-7A2E-4CAB-925B-04EC196CD0E5}"/>
+  <xr:revisionPtr revIDLastSave="9601" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2FA7F17-D9C5-4D4E-B9D6-5BC86FEE74C8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="696" activeTab="7" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="696" activeTab="8" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
   </bookViews>
   <sheets>
     <sheet name="caste list" sheetId="1" r:id="rId1"/>
@@ -1680,7 +1680,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="197">
   <si>
     <t>csavargó</t>
   </si>
@@ -2242,6 +2242,36 @@
   <si>
     <t>summonings (animal)</t>
   </si>
+  <si>
+    <t>pásztor</t>
+  </si>
+  <si>
+    <t>shepherd</t>
+  </si>
+  <si>
+    <t>guide</t>
+  </si>
+  <si>
+    <t>escort</t>
+  </si>
+  <si>
+    <t>usher</t>
+  </si>
+  <si>
+    <t>ajtónálló</t>
+  </si>
+  <si>
+    <t>kísérő</t>
+  </si>
+  <si>
+    <t>vezető</t>
+  </si>
+  <si>
+    <t>scout</t>
+  </si>
+  <si>
+    <t>felderítő</t>
+  </si>
 </sst>
 </file>
 
@@ -2571,6 +2601,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2582,9 +2615,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3041,7 +3071,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -3097,7 +3127,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
@@ -3151,7 +3181,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="23" t="s">
         <v>3</v>
       </c>
@@ -3205,7 +3235,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="22" t="s">
         <v>21</v>
       </c>
@@ -3259,7 +3289,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="21" t="s">
         <v>4</v>
       </c>
@@ -3313,7 +3343,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="49" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -3369,7 +3399,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="23" t="s">
         <v>6</v>
       </c>
@@ -3423,7 +3453,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="23" t="s">
         <v>7</v>
       </c>
@@ -3477,7 +3507,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="21" t="s">
         <v>8</v>
       </c>
@@ -3531,7 +3561,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="49" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -3587,7 +3617,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="23" t="s">
         <v>10</v>
       </c>
@@ -3641,7 +3671,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="23" t="s">
         <v>11</v>
       </c>
@@ -3695,7 +3725,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="21" t="s">
         <v>12</v>
       </c>
@@ -3749,7 +3779,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -3805,7 +3835,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="23" t="s">
         <v>14</v>
       </c>
@@ -3859,7 +3889,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="23" t="s">
         <v>15</v>
       </c>
@@ -3913,7 +3943,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="21" t="s">
         <v>16</v>
       </c>
@@ -3967,7 +3997,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="49" t="s">
         <v>81</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -4023,7 +4053,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="23" t="s">
         <v>18</v>
       </c>
@@ -4077,7 +4107,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="49"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="23" t="s">
         <v>19</v>
       </c>
@@ -4131,7 +4161,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="21" t="s">
         <v>20</v>
       </c>
@@ -4335,54 +4365,54 @@
       <c r="U1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="W1" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AD1" s="51" t="s">
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AD1" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AK1" s="51" t="s">
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AK1" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AR1" s="51" t="s">
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AR1" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AY1" s="51" t="s">
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AY1" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="51"/>
-      <c r="BB1" s="51"/>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51"/>
-      <c r="BF1" s="51" t="s">
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="52"/>
+      <c r="BB1" s="52"/>
+      <c r="BC1" s="52"/>
+      <c r="BD1" s="52"/>
+      <c r="BF1" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
-      <c r="BJ1" s="51"/>
-      <c r="BK1" s="51"/>
+      <c r="BG1" s="52"/>
+      <c r="BH1" s="52"/>
+      <c r="BI1" s="52"/>
+      <c r="BJ1" s="52"/>
+      <c r="BK1" s="52"/>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -30278,7 +30308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1C4ECE-D418-419E-9393-664BDA889D6E}">
   <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AJ19" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
@@ -33954,7 +33984,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39E67B8-A1DC-45C6-A1D4-0073AA57C7BD}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -34286,16 +34318,34 @@
       <c r="E21" s="3" t="s">
         <v>169</v>
       </c>
+      <c r="M21" t="s">
+        <v>187</v>
+      </c>
+      <c r="N21" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>15</v>
       </c>
+      <c r="M22" t="s">
+        <v>194</v>
+      </c>
+      <c r="N22" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>16</v>
       </c>
+      <c r="M23" t="s">
+        <v>193</v>
+      </c>
+      <c r="N23" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -34316,6 +34366,12 @@
       <c r="H24" s="44" t="s">
         <v>164</v>
       </c>
+      <c r="M24" t="s">
+        <v>192</v>
+      </c>
+      <c r="N24" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
@@ -34327,6 +34383,12 @@
       <c r="E25" s="3" t="s">
         <v>149</v>
       </c>
+      <c r="M25" t="s">
+        <v>196</v>
+      </c>
+      <c r="N25" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
@@ -34340,7 +34402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" s="52" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/caste_system.xlsx
+++ b/doc/caste_system.xlsx
@@ -8,15 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/349dfb9748b30a92/Asztali gép/ataliasflame_2.0/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9746" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{843A3941-DB0E-4612-883B-0E65DE47A606}"/>
+  <xr:revisionPtr revIDLastSave="9765" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB1F9D58-ED7E-48B7-A439-4257F820A33B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="696" activeTab="1" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="696" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
   </bookViews>
   <sheets>
-    <sheet name="attribute list" sheetId="5" r:id="rId1"/>
-    <sheet name="levels" sheetId="7" r:id="rId2"/>
-    <sheet name="sub castes" sheetId="11" r:id="rId3"/>
-    <sheet name="endurance" sheetId="8" r:id="rId4"/>
+    <sheet name="levels" sheetId="7" r:id="rId1"/>
+    <sheet name="endurance" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,42 +36,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Mikló Attila</author>
-  </authors>
-  <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{FDCB3264-BA05-4255-A75C-19C2C71DD227}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Mikló Attila:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-sage</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="35">
   <si>
     <t>csavargó</t>
   </si>
@@ -138,9 +102,6 @@
     <t>arkangyal</t>
   </si>
   <si>
-    <t>bölcs</t>
-  </si>
-  <si>
     <t>tudás</t>
   </si>
   <si>
@@ -165,9 +126,6 @@
     <t>lelki erő</t>
   </si>
   <si>
-    <t>max</t>
-  </si>
-  <si>
     <t>10 skill/level</t>
   </si>
   <si>
@@ -180,173 +138,17 @@
     <t>Next-level EXP</t>
   </si>
   <si>
-    <t>specializálatlan</t>
-  </si>
-  <si>
-    <t>vándor</t>
-  </si>
-  <si>
-    <t>természet lakó</t>
-  </si>
-  <si>
-    <t>klerikus</t>
-  </si>
-  <si>
     <t>-&gt;</t>
   </si>
   <si>
     <t>bölcs???</t>
-  </si>
-  <si>
-    <t>sage</t>
-  </si>
-  <si>
-    <t>tamer</t>
-  </si>
-  <si>
-    <t>summoner</t>
-  </si>
-  <si>
-    <t>beggar</t>
-  </si>
-  <si>
-    <t>idéző</t>
-  </si>
-  <si>
-    <t>koldus</t>
-  </si>
-  <si>
-    <t>vadász</t>
-  </si>
-  <si>
-    <t>hunter</t>
-  </si>
-  <si>
-    <t>szelídítő</t>
-  </si>
-  <si>
-    <t>gyógyító</t>
-  </si>
-  <si>
-    <t>zsoldos</t>
-  </si>
-  <si>
-    <t>alkimista</t>
-  </si>
-  <si>
-    <t>kovács</t>
-  </si>
-  <si>
-    <t>füvesember</t>
-  </si>
-  <si>
-    <t>sámán</t>
-  </si>
-  <si>
-    <t>alchemist</t>
-  </si>
-  <si>
-    <t>mercenary</t>
-  </si>
-  <si>
-    <t>herbalist</t>
-  </si>
-  <si>
-    <t>healer</t>
-  </si>
-  <si>
-    <t>smith</t>
-  </si>
-  <si>
-    <t>shaman</t>
-  </si>
-  <si>
-    <t>witch doctor</t>
-  </si>
-  <si>
-    <t>boszorkánydoktor</t>
-  </si>
-  <si>
-    <t>curses</t>
-  </si>
-  <si>
-    <t>summonings</t>
-  </si>
-  <si>
-    <t>enchanter</t>
-  </si>
-  <si>
-    <t>blessings</t>
-  </si>
-  <si>
-    <t>attacks</t>
-  </si>
-  <si>
-    <t>healings</t>
-  </si>
-  <si>
-    <t>bűbájos</t>
-  </si>
-  <si>
-    <t>warlock</t>
-  </si>
-  <si>
-    <t>arcanist</t>
-  </si>
-  <si>
-    <t>arkán mágus</t>
-  </si>
-  <si>
-    <t>charlatan</t>
-  </si>
-  <si>
-    <t>kuruzsló</t>
-  </si>
-  <si>
-    <t>curses/healings</t>
-  </si>
-  <si>
-    <t>attacks/combat</t>
-  </si>
-  <si>
-    <t>summonings (animal)</t>
-  </si>
-  <si>
-    <t>pásztor</t>
-  </si>
-  <si>
-    <t>shepherd</t>
-  </si>
-  <si>
-    <t>guide</t>
-  </si>
-  <si>
-    <t>escort</t>
-  </si>
-  <si>
-    <t>usher</t>
-  </si>
-  <si>
-    <t>ajtónálló</t>
-  </si>
-  <si>
-    <t>kísérő</t>
-  </si>
-  <si>
-    <t>vezető</t>
-  </si>
-  <si>
-    <t>scout</t>
-  </si>
-  <si>
-    <t>felderítő</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,28 +157,8 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,60 +167,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,51 +189,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,10 +224,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -813,813 +522,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47799533-6B34-4949-9561-D6B03DB6E4FC}">
-  <dimension ref="A1:X10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1">
-        <v>40</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>50</v>
-      </c>
-      <c r="K2" s="1">
-        <v>100</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="M2">
-        <v>16</v>
-      </c>
-      <c r="N2">
-        <v>35</v>
-      </c>
-      <c r="O2" s="1">
-        <v>75</v>
-      </c>
-      <c r="P2">
-        <v>3</v>
-      </c>
-      <c r="Q2">
-        <v>8</v>
-      </c>
-      <c r="R2">
-        <v>25</v>
-      </c>
-      <c r="S2" s="1">
-        <v>45</v>
-      </c>
-      <c r="T2">
-        <v>3</v>
-      </c>
-      <c r="U2">
-        <v>8</v>
-      </c>
-      <c r="V2">
-        <v>25</v>
-      </c>
-      <c r="W2" s="1">
-        <v>50</v>
-      </c>
-      <c r="X2">
-        <f>MAX(B2:W2)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1">
-        <v>45</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <v>50</v>
-      </c>
-      <c r="K3" s="1">
-        <v>100</v>
-      </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3">
-        <v>18</v>
-      </c>
-      <c r="N3">
-        <v>42</v>
-      </c>
-      <c r="O3" s="1">
-        <v>80</v>
-      </c>
-      <c r="P3">
-        <v>3</v>
-      </c>
-      <c r="Q3">
-        <v>12</v>
-      </c>
-      <c r="R3">
-        <v>25</v>
-      </c>
-      <c r="S3" s="1">
-        <v>50</v>
-      </c>
-      <c r="T3">
-        <v>3</v>
-      </c>
-      <c r="U3">
-        <v>12</v>
-      </c>
-      <c r="V3">
-        <v>27</v>
-      </c>
-      <c r="W3" s="1">
-        <v>55</v>
-      </c>
-      <c r="X3">
-        <f t="shared" ref="X3:X8" si="0">MAX(B3:W3)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1">
-        <v>45</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <v>50</v>
-      </c>
-      <c r="K4" s="1">
-        <v>100</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <v>20</v>
-      </c>
-      <c r="N4">
-        <v>45</v>
-      </c>
-      <c r="O4" s="1">
-        <v>85</v>
-      </c>
-      <c r="P4">
-        <v>4</v>
-      </c>
-      <c r="Q4">
-        <v>17</v>
-      </c>
-      <c r="R4">
-        <v>45</v>
-      </c>
-      <c r="S4" s="1">
-        <v>70</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4">
-        <v>12</v>
-      </c>
-      <c r="V4">
-        <v>26</v>
-      </c>
-      <c r="W4" s="1">
-        <v>60</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1">
-        <v>45</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>20</v>
-      </c>
-      <c r="J5">
-        <v>50</v>
-      </c>
-      <c r="K5" s="1">
-        <v>100</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5">
-        <v>18</v>
-      </c>
-      <c r="N5">
-        <v>45</v>
-      </c>
-      <c r="O5" s="1">
-        <v>85</v>
-      </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>12</v>
-      </c>
-      <c r="R5">
-        <v>25</v>
-      </c>
-      <c r="S5" s="1">
-        <v>50</v>
-      </c>
-      <c r="T5">
-        <v>3</v>
-      </c>
-      <c r="U5">
-        <v>12</v>
-      </c>
-      <c r="V5">
-        <v>27</v>
-      </c>
-      <c r="W5" s="1">
-        <v>50</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
-      <c r="F6" s="2">
-        <v>40</v>
-      </c>
-      <c r="G6" s="1">
-        <v>100</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>7</v>
-      </c>
-      <c r="J6">
-        <v>20</v>
-      </c>
-      <c r="K6" s="1">
-        <v>40</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>7</v>
-      </c>
-      <c r="N6">
-        <v>20</v>
-      </c>
-      <c r="O6" s="1">
-        <v>40</v>
-      </c>
-      <c r="P6">
-        <v>4</v>
-      </c>
-      <c r="Q6">
-        <v>18</v>
-      </c>
-      <c r="R6">
-        <v>40</v>
-      </c>
-      <c r="S6" s="1">
-        <v>80</v>
-      </c>
-      <c r="T6">
-        <v>4</v>
-      </c>
-      <c r="U6">
-        <v>16</v>
-      </c>
-      <c r="V6">
-        <v>45</v>
-      </c>
-      <c r="W6" s="1">
-        <v>70</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>50</v>
-      </c>
-      <c r="F7" s="2">
-        <v>60</v>
-      </c>
-      <c r="G7" s="1">
-        <v>100</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7">
-        <v>13</v>
-      </c>
-      <c r="K7" s="1">
-        <v>25</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>7</v>
-      </c>
-      <c r="N7">
-        <v>18</v>
-      </c>
-      <c r="O7" s="1">
-        <v>25</v>
-      </c>
-      <c r="P7">
-        <v>4</v>
-      </c>
-      <c r="Q7">
-        <v>18</v>
-      </c>
-      <c r="R7">
-        <v>40</v>
-      </c>
-      <c r="S7" s="1">
-        <v>90</v>
-      </c>
-      <c r="T7">
-        <v>5</v>
-      </c>
-      <c r="U7">
-        <v>20</v>
-      </c>
-      <c r="V7">
-        <v>50</v>
-      </c>
-      <c r="W7" s="1">
-        <v>100</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>50</v>
-      </c>
-      <c r="F8" s="2">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1">
-        <v>100</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8">
-        <v>12</v>
-      </c>
-      <c r="K8" s="1">
-        <v>25</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8" s="1">
-        <v>10</v>
-      </c>
-      <c r="P8">
-        <v>3</v>
-      </c>
-      <c r="Q8">
-        <v>12</v>
-      </c>
-      <c r="R8">
-        <v>40</v>
-      </c>
-      <c r="S8" s="1">
-        <v>90</v>
-      </c>
-      <c r="T8">
-        <v>4</v>
-      </c>
-      <c r="U8">
-        <v>18</v>
-      </c>
-      <c r="V8">
-        <v>45</v>
-      </c>
-      <c r="W8" s="1">
-        <v>90</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="8">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4">
-        <v>15</v>
-      </c>
-      <c r="F9" s="3">
-        <v>20</v>
-      </c>
-      <c r="G9" s="7">
-        <v>25</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
-        <v>2</v>
-      </c>
-      <c r="J9" s="4">
-        <v>5</v>
-      </c>
-      <c r="K9" s="7">
-        <v>10</v>
-      </c>
-      <c r="L9" s="4">
-        <v>2</v>
-      </c>
-      <c r="M9" s="4">
-        <v>12</v>
-      </c>
-      <c r="N9" s="4">
-        <v>40</v>
-      </c>
-      <c r="O9" s="7">
-        <v>100</v>
-      </c>
-      <c r="P9" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>3</v>
-      </c>
-      <c r="R9" s="4">
-        <v>10</v>
-      </c>
-      <c r="S9" s="7">
-        <v>25</v>
-      </c>
-      <c r="T9" s="4">
-        <v>1</v>
-      </c>
-      <c r="U9" s="4">
-        <v>2</v>
-      </c>
-      <c r="V9" s="4">
-        <v>5</v>
-      </c>
-      <c r="W9" s="7">
-        <v>25</v>
-      </c>
-      <c r="X9" s="9">
-        <f>MAX(B9:W9)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <f>SUM(B2:B9)</f>
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ref="C10:G10" si="1">SUM(C2:C9)</f>
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ref="H10" si="2">SUM(H2:H9)</f>
-        <v>25</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ref="I10" si="3">SUM(I2:I9)</f>
-        <v>100</v>
-      </c>
-      <c r="J10">
-        <f t="shared" ref="J10" si="4">SUM(J2:J9)</f>
-        <v>250</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" ref="K10" si="5">SUM(K2:K9)</f>
-        <v>500</v>
-      </c>
-      <c r="L10">
-        <f t="shared" ref="L10" si="6">SUM(L2:L9)</f>
-        <v>25</v>
-      </c>
-      <c r="M10">
-        <f t="shared" ref="M10" si="7">SUM(M2:M9)</f>
-        <v>100</v>
-      </c>
-      <c r="N10">
-        <f t="shared" ref="N10" si="8">SUM(N2:N9)</f>
-        <v>250</v>
-      </c>
-      <c r="O10" s="1">
-        <f t="shared" ref="O10" si="9">SUM(O2:O9)</f>
-        <v>500</v>
-      </c>
-      <c r="P10">
-        <f t="shared" ref="P10" si="10">SUM(P2:P9)</f>
-        <v>25</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" ref="Q10" si="11">SUM(Q2:Q9)</f>
-        <v>100</v>
-      </c>
-      <c r="R10">
-        <f t="shared" ref="R10" si="12">SUM(R2:R9)</f>
-        <v>250</v>
-      </c>
-      <c r="S10" s="1">
-        <f t="shared" ref="S10" si="13">SUM(S2:S9)</f>
-        <v>500</v>
-      </c>
-      <c r="T10">
-        <f t="shared" ref="T10" si="14">SUM(T2:T9)</f>
-        <v>25</v>
-      </c>
-      <c r="U10">
-        <f t="shared" ref="U10" si="15">SUM(U2:U9)</f>
-        <v>100</v>
-      </c>
-      <c r="V10">
-        <f t="shared" ref="V10" si="16">SUM(V2:V9)</f>
-        <v>250</v>
-      </c>
-      <c r="W10" s="1">
-        <f t="shared" ref="W10" si="17">SUM(W2:W9)</f>
-        <v>500</v>
-      </c>
-      <c r="X10">
-        <f t="shared" ref="X10" si="18">SUM(X2:X9)</f>
-        <v>800</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E471D10E-602D-4E12-A93B-97B72309BCF6}">
   <dimension ref="A1:D101"/>
   <sheetViews>
@@ -1825,13 +727,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1842,7 +744,7 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1910,7 +812,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11">
@@ -2640,435 +1542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39E67B8-A1DC-45C6-A1D4-0073AA57C7BD}">
-  <dimension ref="A1:P35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M7" t="s">
-        <v>73</v>
-      </c>
-      <c r="N7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" t="s">
-        <v>75</v>
-      </c>
-      <c r="N9" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="M10" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M16" t="s">
-        <v>53</v>
-      </c>
-      <c r="N16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="M18" t="s">
-        <v>51</v>
-      </c>
-      <c r="N18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" t="s">
-        <v>54</v>
-      </c>
-      <c r="N19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20" t="s">
-        <v>46</v>
-      </c>
-      <c r="N20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M21" t="s">
-        <v>79</v>
-      </c>
-      <c r="N21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" t="s">
-        <v>86</v>
-      </c>
-      <c r="N22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="M23" t="s">
-        <v>85</v>
-      </c>
-      <c r="N23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="M24" t="s">
-        <v>84</v>
-      </c>
-      <c r="N24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M25" t="s">
-        <v>88</v>
-      </c>
-      <c r="N25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD573711-C846-40DC-8629-19A685998D3E}">
   <dimension ref="A1:CX58"/>
   <sheetViews>
@@ -3095,313 +1569,313 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="11" t="s">
+      <c r="G1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AY1" s="11" t="s">
+      <c r="V1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AZ1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BF1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BG1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BH1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BI1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BJ1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BK1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BL1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BM1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BN1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BO1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BP1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BQ1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BR1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BS1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BT1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BU1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BV1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BW1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BX1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BY1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BZ1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CA1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CB1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CC1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CD1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CE1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CF1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CG1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CH1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CI1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CJ1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CK1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CL1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CM1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CN1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CO1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CP1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CQ1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CR1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CS1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CT1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CU1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CV1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CW1" s="5" t="s">
+      <c r="AZ1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BT1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BU1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BV1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BX1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BY1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BZ1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CB1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CC1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CE1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CF1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CG1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CH1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CI1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CK1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CL1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CM1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CN1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CO1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CP1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CQ1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CR1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CT1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CU1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CW1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="CX1" s="10" t="s">
-        <v>40</v>
+      <c r="CX1" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3706,7 +2180,7 @@
     </row>
     <row r="3" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4011,7 +2485,7 @@
     </row>
     <row r="4" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4316,7 +2790,7 @@
     </row>
     <row r="5" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4621,7 +3095,7 @@
     </row>
     <row r="6" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4926,7 +3400,7 @@
     </row>
     <row r="7" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5231,7 +3705,7 @@
     </row>
     <row r="8" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5535,307 +4009,307 @@
       </c>
     </row>
     <row r="9" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2">
         <v>0</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="2">
         <v>1</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="2">
         <v>1</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="2">
         <v>2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="2">
         <v>2</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="2">
         <v>2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="2">
         <v>3</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="2">
         <v>3</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="2">
         <v>3</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="2">
         <v>4</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="2">
         <v>4</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="2">
         <v>4</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="2">
         <v>4</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="2">
         <v>5</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="2">
         <v>5</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="2">
         <v>6</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="2">
         <v>7</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="2">
         <v>7</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="Z9" s="2">
         <v>7</v>
       </c>
-      <c r="AA9" s="4">
+      <c r="AA9" s="2">
         <v>7</v>
       </c>
-      <c r="AB9" s="4">
+      <c r="AB9" s="2">
         <v>7</v>
       </c>
-      <c r="AC9" s="4">
+      <c r="AC9" s="2">
         <v>7</v>
       </c>
-      <c r="AD9" s="4">
+      <c r="AD9" s="2">
         <v>7</v>
       </c>
-      <c r="AE9" s="4">
+      <c r="AE9" s="2">
         <v>7</v>
       </c>
-      <c r="AF9" s="4">
+      <c r="AF9" s="2">
         <v>8</v>
       </c>
-      <c r="AG9" s="4">
+      <c r="AG9" s="2">
         <v>8</v>
       </c>
-      <c r="AH9" s="4">
+      <c r="AH9" s="2">
         <v>8</v>
       </c>
-      <c r="AI9" s="4">
+      <c r="AI9" s="2">
         <v>8</v>
       </c>
-      <c r="AJ9" s="4">
+      <c r="AJ9" s="2">
         <v>9</v>
       </c>
-      <c r="AK9" s="4">
+      <c r="AK9" s="2">
         <v>9</v>
       </c>
-      <c r="AL9" s="4">
+      <c r="AL9" s="2">
         <v>9</v>
       </c>
-      <c r="AM9" s="4">
+      <c r="AM9" s="2">
         <v>10</v>
       </c>
-      <c r="AN9" s="4">
+      <c r="AN9" s="2">
         <v>10</v>
       </c>
-      <c r="AO9" s="4">
+      <c r="AO9" s="2">
         <v>11</v>
       </c>
-      <c r="AP9" s="4">
+      <c r="AP9" s="2">
         <v>11</v>
       </c>
-      <c r="AQ9" s="4">
+      <c r="AQ9" s="2">
         <v>11</v>
       </c>
-      <c r="AR9" s="4">
+      <c r="AR9" s="2">
         <v>12</v>
       </c>
-      <c r="AS9" s="4">
+      <c r="AS9" s="2">
         <v>13</v>
       </c>
-      <c r="AT9" s="4">
+      <c r="AT9" s="2">
         <v>13</v>
       </c>
-      <c r="AU9" s="4">
+      <c r="AU9" s="2">
         <v>14</v>
       </c>
-      <c r="AV9" s="4">
+      <c r="AV9" s="2">
         <v>14</v>
       </c>
-      <c r="AW9" s="4">
+      <c r="AW9" s="2">
         <v>15</v>
       </c>
-      <c r="AX9" s="4">
+      <c r="AX9" s="2">
         <v>15</v>
       </c>
-      <c r="AY9" s="4">
+      <c r="AY9" s="2">
         <v>15</v>
       </c>
-      <c r="AZ9" s="4">
+      <c r="AZ9" s="2">
         <v>15</v>
       </c>
-      <c r="BA9" s="4">
+      <c r="BA9" s="2">
         <v>15</v>
       </c>
-      <c r="BB9" s="4">
+      <c r="BB9" s="2">
         <v>15</v>
       </c>
-      <c r="BC9" s="4">
+      <c r="BC9" s="2">
         <v>15</v>
       </c>
-      <c r="BD9" s="4">
+      <c r="BD9" s="2">
         <v>16</v>
       </c>
-      <c r="BE9" s="4">
+      <c r="BE9" s="2">
         <v>16</v>
       </c>
-      <c r="BF9" s="4">
+      <c r="BF9" s="2">
         <v>16</v>
       </c>
-      <c r="BG9" s="4">
+      <c r="BG9" s="2">
         <v>16</v>
       </c>
-      <c r="BH9" s="4">
+      <c r="BH9" s="2">
         <v>16</v>
       </c>
-      <c r="BI9" s="4">
+      <c r="BI9" s="2">
         <v>17</v>
       </c>
-      <c r="BJ9" s="4">
+      <c r="BJ9" s="2">
         <v>17</v>
       </c>
-      <c r="BK9" s="4">
+      <c r="BK9" s="2">
         <v>17</v>
       </c>
-      <c r="BL9" s="4">
+      <c r="BL9" s="2">
         <v>17</v>
       </c>
-      <c r="BM9" s="4">
+      <c r="BM9" s="2">
         <v>17</v>
       </c>
-      <c r="BN9" s="4">
+      <c r="BN9" s="2">
         <v>18</v>
       </c>
-      <c r="BO9" s="4">
+      <c r="BO9" s="2">
         <v>18</v>
       </c>
-      <c r="BP9" s="4">
+      <c r="BP9" s="2">
         <v>18</v>
       </c>
-      <c r="BQ9" s="4">
+      <c r="BQ9" s="2">
         <v>18</v>
       </c>
-      <c r="BR9" s="4">
+      <c r="BR9" s="2">
         <v>18</v>
       </c>
-      <c r="BS9" s="4">
+      <c r="BS9" s="2">
         <v>19</v>
       </c>
-      <c r="BT9" s="4">
+      <c r="BT9" s="2">
         <v>19</v>
       </c>
-      <c r="BU9" s="4">
+      <c r="BU9" s="2">
         <v>19</v>
       </c>
-      <c r="BV9" s="4">
+      <c r="BV9" s="2">
         <v>19</v>
       </c>
-      <c r="BW9" s="4">
+      <c r="BW9" s="2">
         <v>19</v>
       </c>
-      <c r="BX9" s="4">
+      <c r="BX9" s="2">
         <v>20</v>
       </c>
-      <c r="BY9" s="4">
+      <c r="BY9" s="2">
         <v>20</v>
       </c>
-      <c r="BZ9" s="4">
+      <c r="BZ9" s="2">
         <v>20</v>
       </c>
-      <c r="CA9" s="4">
+      <c r="CA9" s="2">
         <v>20</v>
       </c>
-      <c r="CB9" s="4">
+      <c r="CB9" s="2">
         <v>20</v>
       </c>
-      <c r="CC9" s="4">
+      <c r="CC9" s="2">
         <v>21</v>
       </c>
-      <c r="CD9" s="4">
+      <c r="CD9" s="2">
         <v>21</v>
       </c>
-      <c r="CE9" s="4">
+      <c r="CE9" s="2">
         <v>21</v>
       </c>
-      <c r="CF9" s="4">
+      <c r="CF9" s="2">
         <v>21</v>
       </c>
-      <c r="CG9" s="4">
+      <c r="CG9" s="2">
         <v>21</v>
       </c>
-      <c r="CH9" s="4">
+      <c r="CH9" s="2">
         <v>22</v>
       </c>
-      <c r="CI9" s="4">
+      <c r="CI9" s="2">
         <v>22</v>
       </c>
-      <c r="CJ9" s="4">
+      <c r="CJ9" s="2">
         <v>22</v>
       </c>
-      <c r="CK9" s="4">
+      <c r="CK9" s="2">
         <v>22</v>
       </c>
-      <c r="CL9" s="4">
+      <c r="CL9" s="2">
         <v>22</v>
       </c>
-      <c r="CM9" s="4">
+      <c r="CM9" s="2">
         <v>23</v>
       </c>
-      <c r="CN9" s="4">
+      <c r="CN9" s="2">
         <v>23</v>
       </c>
-      <c r="CO9" s="4">
+      <c r="CO9" s="2">
         <v>23</v>
       </c>
-      <c r="CP9" s="4">
+      <c r="CP9" s="2">
         <v>23</v>
       </c>
-      <c r="CQ9" s="4">
+      <c r="CQ9" s="2">
         <v>23</v>
       </c>
-      <c r="CR9" s="4">
+      <c r="CR9" s="2">
         <v>24</v>
       </c>
-      <c r="CS9" s="4">
+      <c r="CS9" s="2">
         <v>24</v>
       </c>
-      <c r="CT9" s="4">
+      <c r="CT9" s="2">
         <v>24</v>
       </c>
-      <c r="CU9" s="4">
+      <c r="CU9" s="2">
         <v>24</v>
       </c>
-      <c r="CV9" s="4">
+      <c r="CV9" s="2">
         <v>24</v>
       </c>
-      <c r="CW9" s="4">
+      <c r="CW9" s="2">
         <v>25</v>
       </c>
     </row>
@@ -6242,310 +4716,310 @@
       </c>
     </row>
     <row r="13" spans="1:102" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U13" s="11" t="s">
+      <c r="G13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="V13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="X13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AW13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AX13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AY13" s="11" t="s">
+      <c r="V13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AZ13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BA13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BB13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BF13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BG13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BH13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BI13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BJ13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BK13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BL13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BM13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BN13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BO13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BP13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BQ13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BR13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BS13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BT13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BU13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BV13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BW13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BX13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BY13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BZ13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CA13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CB13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CC13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CD13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CE13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CF13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CG13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CH13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CI13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CJ13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CK13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CL13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CM13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CN13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CO13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CP13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CQ13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CR13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CS13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CT13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CU13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CV13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CW13" s="5" t="s">
+      <c r="AZ13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BH13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BJ13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BM13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BN13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BO13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BP13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BQ13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BR13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BS13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BT13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BU13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BV13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BX13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BY13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BZ13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CB13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CC13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CE13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CF13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CG13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CH13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CI13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CK13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CL13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CM13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CN13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CO13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CP13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CQ13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CR13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CT13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CU13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CW13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6850,7 +5324,7 @@
     </row>
     <row r="15" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -7155,7 +5629,7 @@
     </row>
     <row r="16" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -7460,7 +5934,7 @@
     </row>
     <row r="17" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -7765,7 +6239,7 @@
     </row>
     <row r="18" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -8070,7 +6544,7 @@
     </row>
     <row r="19" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -8375,7 +6849,7 @@
     </row>
     <row r="20" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -8679,307 +7153,307 @@
       </c>
     </row>
     <row r="21" spans="1:101" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="4">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2">
         <v>0</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>0</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>0</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>1</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="2">
         <v>1</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="2">
         <v>1</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="2">
         <v>1</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="2">
         <v>1</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="2">
         <v>1</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="2">
         <v>1</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="2">
         <v>1</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="2">
         <v>1</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="2">
         <v>1</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="2">
         <v>1</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="2">
         <v>1</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21" s="2">
         <v>1</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="2">
         <v>1</v>
       </c>
-      <c r="U21" s="4">
+      <c r="U21" s="2">
         <v>2</v>
       </c>
-      <c r="V21" s="4">
+      <c r="V21" s="2">
         <v>2</v>
       </c>
-      <c r="W21" s="4">
+      <c r="W21" s="2">
         <v>2</v>
       </c>
-      <c r="X21" s="4">
+      <c r="X21" s="2">
         <v>2</v>
       </c>
-      <c r="Y21" s="4">
+      <c r="Y21" s="2">
         <v>2</v>
       </c>
-      <c r="Z21" s="4">
+      <c r="Z21" s="2">
         <v>2</v>
       </c>
-      <c r="AA21" s="4">
+      <c r="AA21" s="2">
         <v>2</v>
       </c>
-      <c r="AB21" s="4">
+      <c r="AB21" s="2">
         <v>2</v>
       </c>
-      <c r="AC21" s="4">
+      <c r="AC21" s="2">
         <v>3</v>
       </c>
-      <c r="AD21" s="4">
+      <c r="AD21" s="2">
         <v>3</v>
       </c>
-      <c r="AE21" s="4">
+      <c r="AE21" s="2">
         <v>3</v>
       </c>
-      <c r="AF21" s="4">
+      <c r="AF21" s="2">
         <v>3</v>
       </c>
-      <c r="AG21" s="4">
+      <c r="AG21" s="2">
         <v>3</v>
       </c>
-      <c r="AH21" s="4">
+      <c r="AH21" s="2">
         <v>3</v>
       </c>
-      <c r="AI21" s="4">
+      <c r="AI21" s="2">
         <v>3</v>
       </c>
-      <c r="AJ21" s="4">
+      <c r="AJ21" s="2">
         <v>3</v>
       </c>
-      <c r="AK21" s="4">
+      <c r="AK21" s="2">
         <v>3</v>
       </c>
-      <c r="AL21" s="4">
+      <c r="AL21" s="2">
         <v>3</v>
       </c>
-      <c r="AM21" s="4">
+      <c r="AM21" s="2">
         <v>3</v>
       </c>
-      <c r="AN21" s="4">
+      <c r="AN21" s="2">
         <v>3</v>
       </c>
-      <c r="AO21" s="4">
+      <c r="AO21" s="2">
         <v>4</v>
       </c>
-      <c r="AP21" s="4">
+      <c r="AP21" s="2">
         <v>4</v>
       </c>
-      <c r="AQ21" s="4">
+      <c r="AQ21" s="2">
         <v>4</v>
       </c>
-      <c r="AR21" s="4">
+      <c r="AR21" s="2">
         <v>4</v>
       </c>
-      <c r="AS21" s="4">
+      <c r="AS21" s="2">
         <v>4</v>
       </c>
-      <c r="AT21" s="4">
+      <c r="AT21" s="2">
         <v>4</v>
       </c>
-      <c r="AU21" s="4">
+      <c r="AU21" s="2">
         <v>4</v>
       </c>
-      <c r="AV21" s="4">
+      <c r="AV21" s="2">
         <v>4</v>
       </c>
-      <c r="AW21" s="4">
+      <c r="AW21" s="2">
         <v>4</v>
       </c>
-      <c r="AX21" s="4">
+      <c r="AX21" s="2">
         <v>4</v>
       </c>
-      <c r="AY21" s="4">
+      <c r="AY21" s="2">
         <v>5</v>
       </c>
-      <c r="AZ21" s="4">
+      <c r="AZ21" s="2">
         <v>5</v>
       </c>
-      <c r="BA21" s="4">
+      <c r="BA21" s="2">
         <v>5</v>
       </c>
-      <c r="BB21" s="4">
+      <c r="BB21" s="2">
         <v>5</v>
       </c>
-      <c r="BC21" s="4">
+      <c r="BC21" s="2">
         <v>5</v>
       </c>
-      <c r="BD21" s="4">
+      <c r="BD21" s="2">
         <v>5</v>
       </c>
-      <c r="BE21" s="4">
+      <c r="BE21" s="2">
         <v>5</v>
       </c>
-      <c r="BF21" s="4">
+      <c r="BF21" s="2">
         <v>6</v>
       </c>
-      <c r="BG21" s="4">
+      <c r="BG21" s="2">
         <v>6</v>
       </c>
-      <c r="BH21" s="4">
+      <c r="BH21" s="2">
         <v>6</v>
       </c>
-      <c r="BI21" s="4">
+      <c r="BI21" s="2">
         <v>6</v>
       </c>
-      <c r="BJ21" s="4">
+      <c r="BJ21" s="2">
         <v>6</v>
       </c>
-      <c r="BK21" s="4">
+      <c r="BK21" s="2">
         <v>6</v>
       </c>
-      <c r="BL21" s="4">
+      <c r="BL21" s="2">
         <v>6</v>
       </c>
-      <c r="BM21" s="4">
+      <c r="BM21" s="2">
         <v>6</v>
       </c>
-      <c r="BN21" s="4">
+      <c r="BN21" s="2">
         <v>6</v>
       </c>
-      <c r="BO21" s="4">
+      <c r="BO21" s="2">
         <v>6</v>
       </c>
-      <c r="BP21" s="4">
+      <c r="BP21" s="2">
         <v>6</v>
       </c>
-      <c r="BQ21" s="4">
+      <c r="BQ21" s="2">
         <v>6</v>
       </c>
-      <c r="BR21" s="4">
+      <c r="BR21" s="2">
         <v>6</v>
       </c>
-      <c r="BS21" s="4">
+      <c r="BS21" s="2">
         <v>6</v>
       </c>
-      <c r="BT21" s="4">
+      <c r="BT21" s="2">
         <v>6</v>
       </c>
-      <c r="BU21" s="4">
+      <c r="BU21" s="2">
         <v>6</v>
       </c>
-      <c r="BV21" s="4">
+      <c r="BV21" s="2">
         <v>6</v>
       </c>
-      <c r="BW21" s="4">
+      <c r="BW21" s="2">
         <v>6</v>
       </c>
-      <c r="BX21" s="4">
+      <c r="BX21" s="2">
         <v>6</v>
       </c>
-      <c r="BY21" s="4">
+      <c r="BY21" s="2">
         <v>6</v>
       </c>
-      <c r="BZ21" s="4">
+      <c r="BZ21" s="2">
         <v>6</v>
       </c>
-      <c r="CA21" s="4">
+      <c r="CA21" s="2">
         <v>6</v>
       </c>
-      <c r="CB21" s="4">
+      <c r="CB21" s="2">
         <v>6</v>
       </c>
-      <c r="CC21" s="4">
+      <c r="CC21" s="2">
         <v>7</v>
       </c>
-      <c r="CD21" s="4">
+      <c r="CD21" s="2">
         <v>7</v>
       </c>
-      <c r="CE21" s="4">
+      <c r="CE21" s="2">
         <v>7</v>
       </c>
-      <c r="CF21" s="4">
+      <c r="CF21" s="2">
         <v>7</v>
       </c>
-      <c r="CG21" s="4">
+      <c r="CG21" s="2">
         <v>7</v>
       </c>
-      <c r="CH21" s="4">
+      <c r="CH21" s="2">
         <v>7</v>
       </c>
-      <c r="CI21" s="4">
+      <c r="CI21" s="2">
         <v>7</v>
       </c>
-      <c r="CJ21" s="4">
+      <c r="CJ21" s="2">
         <v>7</v>
       </c>
-      <c r="CK21" s="4">
+      <c r="CK21" s="2">
         <v>7</v>
       </c>
-      <c r="CL21" s="4">
+      <c r="CL21" s="2">
         <v>7</v>
       </c>
-      <c r="CM21" s="4">
+      <c r="CM21" s="2">
         <v>7</v>
       </c>
-      <c r="CN21" s="4">
+      <c r="CN21" s="2">
         <v>7</v>
       </c>
-      <c r="CO21" s="4">
+      <c r="CO21" s="2">
         <v>8</v>
       </c>
-      <c r="CP21" s="4">
+      <c r="CP21" s="2">
         <v>8</v>
       </c>
-      <c r="CQ21" s="4">
+      <c r="CQ21" s="2">
         <v>8</v>
       </c>
-      <c r="CR21" s="4">
+      <c r="CR21" s="2">
         <v>8</v>
       </c>
-      <c r="CS21" s="4">
+      <c r="CS21" s="2">
         <v>9</v>
       </c>
-      <c r="CT21" s="4">
+      <c r="CT21" s="2">
         <v>9</v>
       </c>
-      <c r="CU21" s="4">
+      <c r="CU21" s="2">
         <v>9</v>
       </c>
-      <c r="CV21" s="4">
+      <c r="CV21" s="2">
         <v>9</v>
       </c>
-      <c r="CW21" s="4">
+      <c r="CW21" s="2">
         <v>10</v>
       </c>
     </row>
@@ -9386,310 +7860,310 @@
       </c>
     </row>
     <row r="25" spans="1:101" x14ac:dyDescent="0.3">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="11" t="s">
+      <c r="C25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U25" s="11" t="s">
+      <c r="G25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="V25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="X25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AW25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AX25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AY25" s="11" t="s">
+      <c r="V25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AZ25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BA25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BB25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BF25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BG25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BH25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BI25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BJ25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BK25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BL25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BM25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BN25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BO25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BP25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BQ25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BR25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BS25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BT25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BU25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BV25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BW25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BX25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BY25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BZ25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CA25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CB25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CC25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CD25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CE25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CF25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CG25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CH25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CI25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CJ25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CK25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CL25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CM25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CN25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CO25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CP25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CQ25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CR25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CS25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CT25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CU25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CV25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CW25" s="11" t="s">
+      <c r="AZ25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BH25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BJ25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BM25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BN25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BO25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BP25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BQ25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BR25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BS25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BT25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BU25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BV25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BX25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BY25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BZ25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CB25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CC25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CE25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CF25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CG25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CH25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CI25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CK25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CL25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CM25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CN25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CO25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CP25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CQ25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CR25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CT25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CU25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CW25" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -9994,7 +8468,7 @@
     </row>
     <row r="27" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -10299,7 +8773,7 @@
     </row>
     <row r="28" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -10604,7 +9078,7 @@
     </row>
     <row r="29" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -10909,7 +9383,7 @@
     </row>
     <row r="30" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -11214,7 +9688,7 @@
     </row>
     <row r="31" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -11519,7 +9993,7 @@
     </row>
     <row r="32" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -11823,307 +10297,307 @@
       </c>
     </row>
     <row r="33" spans="1:101" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2</v>
+      </c>
+      <c r="H33" s="2">
+        <v>3</v>
+      </c>
+      <c r="I33" s="2">
+        <v>4</v>
+      </c>
+      <c r="J33" s="2">
+        <v>5</v>
+      </c>
+      <c r="K33" s="2">
+        <v>6</v>
+      </c>
+      <c r="L33" s="2">
+        <v>6</v>
+      </c>
+      <c r="M33" s="2">
+        <v>7</v>
+      </c>
+      <c r="N33" s="2">
+        <v>8</v>
+      </c>
+      <c r="O33" s="2">
+        <v>8</v>
+      </c>
+      <c r="P33" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>9</v>
+      </c>
+      <c r="R33" s="2">
+        <v>10</v>
+      </c>
+      <c r="S33" s="2">
+        <v>11</v>
+      </c>
+      <c r="T33" s="2">
+        <v>12</v>
+      </c>
+      <c r="U33" s="2">
+        <v>12</v>
+      </c>
+      <c r="V33" s="2">
+        <v>12</v>
+      </c>
+      <c r="W33" s="2">
+        <v>12</v>
+      </c>
+      <c r="X33" s="2">
+        <v>13</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>14</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>15</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>18</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE33" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF33" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG33" s="2">
+        <v>22</v>
+      </c>
+      <c r="AH33" s="2">
+        <v>23</v>
+      </c>
+      <c r="AI33" s="2">
+        <v>24</v>
+      </c>
+      <c r="AJ33" s="2">
+        <v>25</v>
+      </c>
+      <c r="AK33" s="2">
+        <v>26</v>
+      </c>
+      <c r="AL33" s="2">
+        <v>27</v>
+      </c>
+      <c r="AM33" s="2">
+        <v>28</v>
+      </c>
+      <c r="AN33" s="2">
         <v>29</v>
       </c>
-      <c r="B33" s="4">
-        <v>0</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
-        <v>2</v>
-      </c>
-      <c r="G33" s="4">
-        <v>2</v>
-      </c>
-      <c r="H33" s="4">
-        <v>3</v>
-      </c>
-      <c r="I33" s="4">
-        <v>4</v>
-      </c>
-      <c r="J33" s="4">
-        <v>5</v>
-      </c>
-      <c r="K33" s="4">
-        <v>6</v>
-      </c>
-      <c r="L33" s="4">
-        <v>6</v>
-      </c>
-      <c r="M33" s="4">
-        <v>7</v>
-      </c>
-      <c r="N33" s="4">
-        <v>8</v>
-      </c>
-      <c r="O33" s="4">
-        <v>8</v>
-      </c>
-      <c r="P33" s="4">
-        <v>8</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>9</v>
-      </c>
-      <c r="R33" s="4">
-        <v>10</v>
-      </c>
-      <c r="S33" s="4">
-        <v>11</v>
-      </c>
-      <c r="T33" s="4">
-        <v>12</v>
-      </c>
-      <c r="U33" s="4">
-        <v>12</v>
-      </c>
-      <c r="V33" s="4">
-        <v>12</v>
-      </c>
-      <c r="W33" s="4">
-        <v>12</v>
-      </c>
-      <c r="X33" s="4">
-        <v>13</v>
-      </c>
-      <c r="Y33" s="4">
-        <v>14</v>
-      </c>
-      <c r="Z33" s="4">
-        <v>15</v>
-      </c>
-      <c r="AA33" s="4">
-        <v>16</v>
-      </c>
-      <c r="AB33" s="4">
-        <v>17</v>
-      </c>
-      <c r="AC33" s="4">
-        <v>18</v>
-      </c>
-      <c r="AD33" s="4">
-        <v>19</v>
-      </c>
-      <c r="AE33" s="4">
-        <v>20</v>
-      </c>
-      <c r="AF33" s="4">
-        <v>21</v>
-      </c>
-      <c r="AG33" s="4">
-        <v>22</v>
-      </c>
-      <c r="AH33" s="4">
-        <v>23</v>
-      </c>
-      <c r="AI33" s="4">
-        <v>24</v>
-      </c>
-      <c r="AJ33" s="4">
-        <v>25</v>
-      </c>
-      <c r="AK33" s="4">
-        <v>26</v>
-      </c>
-      <c r="AL33" s="4">
-        <v>27</v>
-      </c>
-      <c r="AM33" s="4">
-        <v>28</v>
-      </c>
-      <c r="AN33" s="4">
-        <v>29</v>
-      </c>
-      <c r="AO33" s="4">
+      <c r="AO33" s="2">
         <v>30</v>
       </c>
-      <c r="AP33" s="4">
+      <c r="AP33" s="2">
         <v>31</v>
       </c>
-      <c r="AQ33" s="4">
+      <c r="AQ33" s="2">
         <v>32</v>
       </c>
-      <c r="AR33" s="4">
-        <v>33</v>
-      </c>
-      <c r="AS33" s="4">
+      <c r="AR33" s="2">
+        <v>33</v>
+      </c>
+      <c r="AS33" s="2">
         <v>34</v>
       </c>
-      <c r="AT33" s="4">
+      <c r="AT33" s="2">
         <v>35</v>
       </c>
-      <c r="AU33" s="4">
+      <c r="AU33" s="2">
         <v>36</v>
       </c>
-      <c r="AV33" s="4">
+      <c r="AV33" s="2">
         <v>37</v>
       </c>
-      <c r="AW33" s="4">
+      <c r="AW33" s="2">
         <v>38</v>
       </c>
-      <c r="AX33" s="4">
+      <c r="AX33" s="2">
         <v>39</v>
       </c>
-      <c r="AY33" s="4">
+      <c r="AY33" s="2">
         <v>40</v>
       </c>
-      <c r="AZ33" s="4">
+      <c r="AZ33" s="2">
         <v>41</v>
       </c>
-      <c r="BA33" s="4">
+      <c r="BA33" s="2">
         <v>42</v>
       </c>
-      <c r="BB33" s="4">
+      <c r="BB33" s="2">
         <v>43</v>
       </c>
-      <c r="BC33" s="4">
+      <c r="BC33" s="2">
         <v>44</v>
       </c>
-      <c r="BD33" s="4">
+      <c r="BD33" s="2">
         <v>46</v>
       </c>
-      <c r="BE33" s="4">
+      <c r="BE33" s="2">
         <v>47</v>
       </c>
-      <c r="BF33" s="4">
+      <c r="BF33" s="2">
         <v>48</v>
       </c>
-      <c r="BG33" s="4">
+      <c r="BG33" s="2">
         <v>49</v>
       </c>
-      <c r="BH33" s="4">
+      <c r="BH33" s="2">
         <v>50</v>
       </c>
-      <c r="BI33" s="4">
+      <c r="BI33" s="2">
         <v>52</v>
       </c>
-      <c r="BJ33" s="4">
+      <c r="BJ33" s="2">
         <v>53</v>
       </c>
-      <c r="BK33" s="4">
+      <c r="BK33" s="2">
         <v>54</v>
       </c>
-      <c r="BL33" s="4">
+      <c r="BL33" s="2">
         <v>55</v>
       </c>
-      <c r="BM33" s="4">
+      <c r="BM33" s="2">
         <v>56</v>
       </c>
-      <c r="BN33" s="4">
+      <c r="BN33" s="2">
         <v>58</v>
       </c>
-      <c r="BO33" s="4">
+      <c r="BO33" s="2">
         <v>59</v>
       </c>
-      <c r="BP33" s="4">
+      <c r="BP33" s="2">
         <v>60</v>
       </c>
-      <c r="BQ33" s="4">
+      <c r="BQ33" s="2">
         <v>61</v>
       </c>
-      <c r="BR33" s="4">
+      <c r="BR33" s="2">
         <v>62</v>
       </c>
-      <c r="BS33" s="4">
+      <c r="BS33" s="2">
         <v>64</v>
       </c>
-      <c r="BT33" s="4">
+      <c r="BT33" s="2">
         <v>65</v>
       </c>
-      <c r="BU33" s="4">
+      <c r="BU33" s="2">
         <v>66</v>
       </c>
-      <c r="BV33" s="4">
+      <c r="BV33" s="2">
         <v>67</v>
       </c>
-      <c r="BW33" s="4">
+      <c r="BW33" s="2">
         <v>68</v>
       </c>
-      <c r="BX33" s="4">
+      <c r="BX33" s="2">
         <v>70</v>
       </c>
-      <c r="BY33" s="4">
+      <c r="BY33" s="2">
         <v>71</v>
       </c>
-      <c r="BZ33" s="4">
+      <c r="BZ33" s="2">
         <v>72</v>
       </c>
-      <c r="CA33" s="4">
+      <c r="CA33" s="2">
         <v>73</v>
       </c>
-      <c r="CB33" s="4">
+      <c r="CB33" s="2">
         <v>74</v>
       </c>
-      <c r="CC33" s="4">
+      <c r="CC33" s="2">
         <v>76</v>
       </c>
-      <c r="CD33" s="4">
+      <c r="CD33" s="2">
         <v>77</v>
       </c>
-      <c r="CE33" s="4">
+      <c r="CE33" s="2">
         <v>78</v>
       </c>
-      <c r="CF33" s="4">
+      <c r="CF33" s="2">
         <v>79</v>
       </c>
-      <c r="CG33" s="4">
+      <c r="CG33" s="2">
         <v>80</v>
       </c>
-      <c r="CH33" s="4">
+      <c r="CH33" s="2">
         <v>82</v>
       </c>
-      <c r="CI33" s="4">
+      <c r="CI33" s="2">
         <v>83</v>
       </c>
-      <c r="CJ33" s="4">
+      <c r="CJ33" s="2">
         <v>84</v>
       </c>
-      <c r="CK33" s="4">
+      <c r="CK33" s="2">
         <v>85</v>
       </c>
-      <c r="CL33" s="4">
+      <c r="CL33" s="2">
         <v>86</v>
       </c>
-      <c r="CM33" s="4">
+      <c r="CM33" s="2">
         <v>88</v>
       </c>
-      <c r="CN33" s="4">
+      <c r="CN33" s="2">
         <v>89</v>
       </c>
-      <c r="CO33" s="4">
+      <c r="CO33" s="2">
         <v>90</v>
       </c>
-      <c r="CP33" s="4">
+      <c r="CP33" s="2">
         <v>91</v>
       </c>
-      <c r="CQ33" s="4">
+      <c r="CQ33" s="2">
         <v>92</v>
       </c>
-      <c r="CR33" s="4">
+      <c r="CR33" s="2">
         <v>94</v>
       </c>
-      <c r="CS33" s="4">
+      <c r="CS33" s="2">
         <v>95</v>
       </c>
-      <c r="CT33" s="4">
+      <c r="CT33" s="2">
         <v>96</v>
       </c>
-      <c r="CU33" s="4">
+      <c r="CU33" s="2">
         <v>97</v>
       </c>
-      <c r="CV33" s="4">
+      <c r="CV33" s="2">
         <v>98</v>
       </c>
-      <c r="CW33" s="4">
+      <c r="CW33" s="2">
         <v>100</v>
       </c>
     </row>
@@ -12536,310 +11010,310 @@
       </c>
     </row>
     <row r="37" spans="1:101" x14ac:dyDescent="0.3">
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="11" t="s">
+      <c r="C37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U37" s="11" t="s">
+      <c r="G37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="V37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="X37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AW37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AX37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AY37" s="11" t="s">
+      <c r="V37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AZ37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BA37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BB37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BF37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BG37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BH37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BI37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BJ37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BK37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BL37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BM37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BN37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BO37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BP37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BQ37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BR37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BS37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BT37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BU37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BV37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BW37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BX37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BY37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BZ37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CA37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CB37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CC37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CD37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CE37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CF37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CG37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CH37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CI37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CJ37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CK37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CL37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CM37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CN37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CO37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CP37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CQ37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CR37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CS37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CT37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CU37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CV37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CW37" s="5" t="s">
+      <c r="AZ37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BH37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BJ37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BM37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BN37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BO37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BP37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BQ37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BR37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BS37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BT37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BU37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BV37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BX37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BY37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BZ37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CB37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CC37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CE37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CF37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CG37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CH37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CI37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CK37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CL37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CM37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CN37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CO37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CP37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CQ37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CR37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CT37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CU37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CW37" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -13144,7 +11618,7 @@
     </row>
     <row r="39" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -13449,7 +11923,7 @@
     </row>
     <row r="40" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -13754,7 +12228,7 @@
     </row>
     <row r="41" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -14059,7 +12533,7 @@
     </row>
     <row r="42" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -14364,7 +12838,7 @@
     </row>
     <row r="43" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -14669,7 +13143,7 @@
     </row>
     <row r="44" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -14973,307 +13447,307 @@
       </c>
     </row>
     <row r="45" spans="1:101" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="4">
+      <c r="A45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="2">
         <v>0</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="2">
         <v>0</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="2">
         <v>0</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="2">
         <v>0</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="2">
         <v>1</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="2">
         <v>1</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="2">
         <v>1</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="2">
         <v>1</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="2">
         <v>1</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="2">
         <v>1</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L45" s="2">
         <v>1</v>
       </c>
-      <c r="M45" s="4">
+      <c r="M45" s="2">
         <v>2</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N45" s="2">
         <v>2</v>
       </c>
-      <c r="O45" s="4">
+      <c r="O45" s="2">
         <v>2</v>
       </c>
-      <c r="P45" s="4">
+      <c r="P45" s="2">
         <v>2</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="Q45" s="2">
         <v>2</v>
       </c>
-      <c r="R45" s="4">
+      <c r="R45" s="2">
         <v>2</v>
       </c>
-      <c r="S45" s="4">
+      <c r="S45" s="2">
         <v>2</v>
       </c>
-      <c r="T45" s="4">
+      <c r="T45" s="2">
         <v>2</v>
       </c>
-      <c r="U45" s="4">
+      <c r="U45" s="2">
         <v>3</v>
       </c>
-      <c r="V45" s="4">
+      <c r="V45" s="2">
         <v>3</v>
       </c>
-      <c r="W45" s="4">
+      <c r="W45" s="2">
         <v>3</v>
       </c>
-      <c r="X45" s="4">
+      <c r="X45" s="2">
         <v>3</v>
       </c>
-      <c r="Y45" s="4">
+      <c r="Y45" s="2">
         <v>3</v>
       </c>
-      <c r="Z45" s="4">
+      <c r="Z45" s="2">
         <v>3</v>
       </c>
-      <c r="AA45" s="4">
+      <c r="AA45" s="2">
         <v>3</v>
       </c>
-      <c r="AB45" s="4">
+      <c r="AB45" s="2">
         <v>3</v>
       </c>
-      <c r="AC45" s="4">
+      <c r="AC45" s="2">
         <v>3</v>
       </c>
-      <c r="AD45" s="4">
+      <c r="AD45" s="2">
         <v>4</v>
       </c>
-      <c r="AE45" s="4">
+      <c r="AE45" s="2">
         <v>4</v>
       </c>
-      <c r="AF45" s="4">
+      <c r="AF45" s="2">
         <v>4</v>
       </c>
-      <c r="AG45" s="4">
+      <c r="AG45" s="2">
         <v>4</v>
       </c>
-      <c r="AH45" s="4">
+      <c r="AH45" s="2">
         <v>4</v>
       </c>
-      <c r="AI45" s="4">
+      <c r="AI45" s="2">
         <v>5</v>
       </c>
-      <c r="AJ45" s="4">
+      <c r="AJ45" s="2">
         <v>5</v>
       </c>
-      <c r="AK45" s="4">
+      <c r="AK45" s="2">
         <v>5</v>
       </c>
-      <c r="AL45" s="4">
+      <c r="AL45" s="2">
         <v>5</v>
       </c>
-      <c r="AM45" s="4">
+      <c r="AM45" s="2">
         <v>5</v>
       </c>
-      <c r="AN45" s="4">
+      <c r="AN45" s="2">
         <v>5</v>
       </c>
-      <c r="AO45" s="4">
+      <c r="AO45" s="2">
         <v>5</v>
       </c>
-      <c r="AP45" s="4">
+      <c r="AP45" s="2">
         <v>5</v>
       </c>
-      <c r="AQ45" s="4">
+      <c r="AQ45" s="2">
         <v>5</v>
       </c>
-      <c r="AR45" s="4">
+      <c r="AR45" s="2">
         <v>5</v>
       </c>
-      <c r="AS45" s="4">
+      <c r="AS45" s="2">
         <v>5</v>
       </c>
-      <c r="AT45" s="4">
+      <c r="AT45" s="2">
         <v>6</v>
       </c>
-      <c r="AU45" s="4">
+      <c r="AU45" s="2">
         <v>7</v>
       </c>
-      <c r="AV45" s="4">
+      <c r="AV45" s="2">
         <v>7</v>
       </c>
-      <c r="AW45" s="4">
+      <c r="AW45" s="2">
         <v>8</v>
       </c>
-      <c r="AX45" s="4">
+      <c r="AX45" s="2">
         <v>9</v>
       </c>
-      <c r="AY45" s="4">
+      <c r="AY45" s="2">
         <v>10</v>
       </c>
-      <c r="AZ45" s="4">
+      <c r="AZ45" s="2">
         <v>10</v>
       </c>
-      <c r="BA45" s="4">
+      <c r="BA45" s="2">
         <v>10</v>
       </c>
-      <c r="BB45" s="4">
+      <c r="BB45" s="2">
         <v>10</v>
       </c>
-      <c r="BC45" s="4">
+      <c r="BC45" s="2">
         <v>10</v>
       </c>
-      <c r="BD45" s="4">
+      <c r="BD45" s="2">
         <v>11</v>
       </c>
-      <c r="BE45" s="4">
+      <c r="BE45" s="2">
         <v>11</v>
       </c>
-      <c r="BF45" s="4">
+      <c r="BF45" s="2">
         <v>11</v>
       </c>
-      <c r="BG45" s="4">
+      <c r="BG45" s="2">
         <v>11</v>
       </c>
-      <c r="BH45" s="4">
+      <c r="BH45" s="2">
         <v>11</v>
       </c>
-      <c r="BI45" s="4">
+      <c r="BI45" s="2">
         <v>12</v>
       </c>
-      <c r="BJ45" s="4">
+      <c r="BJ45" s="2">
         <v>12</v>
       </c>
-      <c r="BK45" s="4">
+      <c r="BK45" s="2">
         <v>12</v>
       </c>
-      <c r="BL45" s="4">
+      <c r="BL45" s="2">
         <v>12</v>
       </c>
-      <c r="BM45" s="4">
+      <c r="BM45" s="2">
         <v>12</v>
       </c>
-      <c r="BN45" s="4">
+      <c r="BN45" s="2">
         <v>13</v>
       </c>
-      <c r="BO45" s="4">
+      <c r="BO45" s="2">
         <v>13</v>
       </c>
-      <c r="BP45" s="4">
+      <c r="BP45" s="2">
         <v>13</v>
       </c>
-      <c r="BQ45" s="4">
+      <c r="BQ45" s="2">
         <v>13</v>
       </c>
-      <c r="BR45" s="4">
+      <c r="BR45" s="2">
         <v>13</v>
       </c>
-      <c r="BS45" s="4">
+      <c r="BS45" s="2">
         <v>14</v>
       </c>
-      <c r="BT45" s="4">
+      <c r="BT45" s="2">
         <v>14</v>
       </c>
-      <c r="BU45" s="4">
+      <c r="BU45" s="2">
         <v>15</v>
       </c>
-      <c r="BV45" s="4">
+      <c r="BV45" s="2">
         <v>15</v>
       </c>
-      <c r="BW45" s="4">
+      <c r="BW45" s="2">
         <v>15</v>
       </c>
-      <c r="BX45" s="4">
+      <c r="BX45" s="2">
         <v>16</v>
       </c>
-      <c r="BY45" s="4">
+      <c r="BY45" s="2">
         <v>16</v>
       </c>
-      <c r="BZ45" s="4">
+      <c r="BZ45" s="2">
         <v>16</v>
       </c>
-      <c r="CA45" s="4">
+      <c r="CA45" s="2">
         <v>17</v>
       </c>
-      <c r="CB45" s="4">
+      <c r="CB45" s="2">
         <v>17</v>
       </c>
-      <c r="CC45" s="4">
+      <c r="CC45" s="2">
         <v>18</v>
       </c>
-      <c r="CD45" s="4">
+      <c r="CD45" s="2">
         <v>18</v>
       </c>
-      <c r="CE45" s="4">
+      <c r="CE45" s="2">
         <v>18</v>
       </c>
-      <c r="CF45" s="4">
+      <c r="CF45" s="2">
         <v>18</v>
       </c>
-      <c r="CG45" s="4">
+      <c r="CG45" s="2">
         <v>19</v>
       </c>
-      <c r="CH45" s="4">
+      <c r="CH45" s="2">
         <v>19</v>
       </c>
-      <c r="CI45" s="4">
+      <c r="CI45" s="2">
         <v>20</v>
       </c>
-      <c r="CJ45" s="4">
+      <c r="CJ45" s="2">
         <v>20</v>
       </c>
-      <c r="CK45" s="4">
+      <c r="CK45" s="2">
         <v>20</v>
       </c>
-      <c r="CL45" s="4">
+      <c r="CL45" s="2">
         <v>20</v>
       </c>
-      <c r="CM45" s="4">
+      <c r="CM45" s="2">
         <v>21</v>
       </c>
-      <c r="CN45" s="4">
+      <c r="CN45" s="2">
         <v>21</v>
       </c>
-      <c r="CO45" s="4">
+      <c r="CO45" s="2">
         <v>22</v>
       </c>
-      <c r="CP45" s="4">
+      <c r="CP45" s="2">
         <v>22</v>
       </c>
-      <c r="CQ45" s="4">
+      <c r="CQ45" s="2">
         <v>22</v>
       </c>
-      <c r="CR45" s="4">
+      <c r="CR45" s="2">
         <v>23</v>
       </c>
-      <c r="CS45" s="4">
+      <c r="CS45" s="2">
         <v>23</v>
       </c>
-      <c r="CT45" s="4">
+      <c r="CT45" s="2">
         <v>23</v>
       </c>
-      <c r="CU45" s="4">
+      <c r="CU45" s="2">
         <v>24</v>
       </c>
-      <c r="CV45" s="4">
+      <c r="CV45" s="2">
         <v>24</v>
       </c>
-      <c r="CW45" s="4">
+      <c r="CW45" s="2">
         <v>25</v>
       </c>
     </row>
@@ -15680,310 +14154,310 @@
       </c>
     </row>
     <row r="49" spans="1:101" x14ac:dyDescent="0.3">
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F49" s="11" t="s">
+      <c r="C49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U49" s="11" t="s">
+      <c r="G49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U49" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="V49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="X49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AW49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AX49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AY49" s="11" t="s">
+      <c r="V49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY49" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AZ49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BA49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BB49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BC49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BF49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BG49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BH49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BI49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BJ49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BK49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BL49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BM49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BN49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BO49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BP49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BQ49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BR49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BS49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BT49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BU49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BV49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BW49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BX49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BY49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="BZ49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CA49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CB49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CC49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CD49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CE49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CF49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CG49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CH49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CI49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CJ49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CK49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CL49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CM49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CN49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CO49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CP49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CQ49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CR49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CS49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CT49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CU49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CV49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="CW49" s="11" t="s">
+      <c r="AZ49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BH49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BJ49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BM49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BN49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BO49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BP49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BQ49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BR49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BS49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BT49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BU49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BV49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BX49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BY49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BZ49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CB49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CC49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CE49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CF49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CG49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CH49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CI49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CK49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CL49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CM49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CN49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CO49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CP49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CQ49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CR49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CT49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CU49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CW49" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -16288,7 +14762,7 @@
     </row>
     <row r="51" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -16593,7 +15067,7 @@
     </row>
     <row r="52" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -16898,7 +15372,7 @@
     </row>
     <row r="53" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -17203,7 +15677,7 @@
     </row>
     <row r="54" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -17508,7 +15982,7 @@
     </row>
     <row r="55" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -17813,7 +16287,7 @@
     </row>
     <row r="56" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -18117,307 +16591,307 @@
       </c>
     </row>
     <row r="57" spans="1:101" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" s="4">
+      <c r="A57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="2">
         <v>0</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="2">
         <v>0</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="2">
         <v>0</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="2">
         <v>0</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="2">
         <v>1</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="2">
         <v>1</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="2">
         <v>1</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="2">
         <v>1</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J57" s="2">
         <v>1</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K57" s="2">
         <v>1</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L57" s="2">
         <v>1</v>
       </c>
-      <c r="M57" s="4">
+      <c r="M57" s="2">
         <v>1</v>
       </c>
-      <c r="N57" s="4">
+      <c r="N57" s="2">
         <v>1</v>
       </c>
-      <c r="O57" s="4">
+      <c r="O57" s="2">
         <v>1</v>
       </c>
-      <c r="P57" s="4">
+      <c r="P57" s="2">
         <v>1</v>
       </c>
-      <c r="Q57" s="4">
+      <c r="Q57" s="2">
         <v>1</v>
       </c>
-      <c r="R57" s="4">
+      <c r="R57" s="2">
         <v>1</v>
       </c>
-      <c r="S57" s="4">
+      <c r="S57" s="2">
         <v>1</v>
       </c>
-      <c r="T57" s="4">
+      <c r="T57" s="2">
         <v>1</v>
       </c>
-      <c r="U57" s="4">
+      <c r="U57" s="2">
         <v>2</v>
       </c>
-      <c r="V57" s="4">
+      <c r="V57" s="2">
         <v>2</v>
       </c>
-      <c r="W57" s="4">
+      <c r="W57" s="2">
         <v>2</v>
       </c>
-      <c r="X57" s="4">
+      <c r="X57" s="2">
         <v>2</v>
       </c>
-      <c r="Y57" s="4">
+      <c r="Y57" s="2">
         <v>2</v>
       </c>
-      <c r="Z57" s="4">
+      <c r="Z57" s="2">
         <v>2</v>
       </c>
-      <c r="AA57" s="4">
+      <c r="AA57" s="2">
         <v>2</v>
       </c>
-      <c r="AB57" s="4">
+      <c r="AB57" s="2">
         <v>2</v>
       </c>
-      <c r="AC57" s="4">
+      <c r="AC57" s="2">
         <v>2</v>
       </c>
-      <c r="AD57" s="4">
+      <c r="AD57" s="2">
         <v>2</v>
       </c>
-      <c r="AE57" s="4">
+      <c r="AE57" s="2">
         <v>2</v>
       </c>
-      <c r="AF57" s="4">
+      <c r="AF57" s="2">
         <v>2</v>
       </c>
-      <c r="AG57" s="4">
+      <c r="AG57" s="2">
         <v>2</v>
       </c>
-      <c r="AH57" s="4">
+      <c r="AH57" s="2">
         <v>2</v>
       </c>
-      <c r="AI57" s="4">
+      <c r="AI57" s="2">
         <v>2</v>
       </c>
-      <c r="AJ57" s="4">
+      <c r="AJ57" s="2">
         <v>2</v>
       </c>
-      <c r="AK57" s="4">
+      <c r="AK57" s="2">
         <v>2</v>
       </c>
-      <c r="AL57" s="4">
+      <c r="AL57" s="2">
         <v>2</v>
       </c>
-      <c r="AM57" s="4">
+      <c r="AM57" s="2">
         <v>2</v>
       </c>
-      <c r="AN57" s="4">
+      <c r="AN57" s="2">
         <v>2</v>
       </c>
-      <c r="AO57" s="4">
+      <c r="AO57" s="2">
         <v>2</v>
       </c>
-      <c r="AP57" s="4">
+      <c r="AP57" s="2">
         <v>2</v>
       </c>
-      <c r="AQ57" s="4">
+      <c r="AQ57" s="2">
         <v>2</v>
       </c>
-      <c r="AR57" s="4">
+      <c r="AR57" s="2">
         <v>2</v>
       </c>
-      <c r="AS57" s="4">
+      <c r="AS57" s="2">
         <v>2</v>
       </c>
-      <c r="AT57" s="4">
+      <c r="AT57" s="2">
         <v>2</v>
       </c>
-      <c r="AU57" s="4">
+      <c r="AU57" s="2">
         <v>2</v>
       </c>
-      <c r="AV57" s="4">
+      <c r="AV57" s="2">
         <v>2</v>
       </c>
-      <c r="AW57" s="4">
+      <c r="AW57" s="2">
         <v>3</v>
       </c>
-      <c r="AX57" s="4">
+      <c r="AX57" s="2">
         <v>4</v>
       </c>
-      <c r="AY57" s="4">
+      <c r="AY57" s="2">
         <v>5</v>
       </c>
-      <c r="AZ57" s="4">
+      <c r="AZ57" s="2">
         <v>5</v>
       </c>
-      <c r="BA57" s="4">
+      <c r="BA57" s="2">
         <v>5</v>
       </c>
-      <c r="BB57" s="4">
+      <c r="BB57" s="2">
         <v>5</v>
       </c>
-      <c r="BC57" s="4">
+      <c r="BC57" s="2">
         <v>6</v>
       </c>
-      <c r="BD57" s="4">
+      <c r="BD57" s="2">
         <v>6</v>
       </c>
-      <c r="BE57" s="4">
+      <c r="BE57" s="2">
         <v>6</v>
       </c>
-      <c r="BF57" s="4">
+      <c r="BF57" s="2">
         <v>7</v>
       </c>
-      <c r="BG57" s="4">
+      <c r="BG57" s="2">
         <v>7</v>
       </c>
-      <c r="BH57" s="4">
+      <c r="BH57" s="2">
         <v>7</v>
       </c>
-      <c r="BI57" s="4">
+      <c r="BI57" s="2">
         <v>7</v>
       </c>
-      <c r="BJ57" s="4">
+      <c r="BJ57" s="2">
         <v>7</v>
       </c>
-      <c r="BK57" s="4">
+      <c r="BK57" s="2">
         <v>8</v>
       </c>
-      <c r="BL57" s="4">
+      <c r="BL57" s="2">
         <v>8</v>
       </c>
-      <c r="BM57" s="4">
+      <c r="BM57" s="2">
         <v>9</v>
       </c>
-      <c r="BN57" s="4">
+      <c r="BN57" s="2">
         <v>9</v>
       </c>
-      <c r="BO57" s="4">
+      <c r="BO57" s="2">
         <v>9</v>
       </c>
-      <c r="BP57" s="4">
+      <c r="BP57" s="2">
         <v>9</v>
       </c>
-      <c r="BQ57" s="4">
+      <c r="BQ57" s="2">
         <v>10</v>
       </c>
-      <c r="BR57" s="4">
+      <c r="BR57" s="2">
         <v>10</v>
       </c>
-      <c r="BS57" s="4">
+      <c r="BS57" s="2">
         <v>11</v>
       </c>
-      <c r="BT57" s="4">
+      <c r="BT57" s="2">
         <v>11</v>
       </c>
-      <c r="BU57" s="4">
+      <c r="BU57" s="2">
         <v>11</v>
       </c>
-      <c r="BV57" s="4">
+      <c r="BV57" s="2">
         <v>11</v>
       </c>
-      <c r="BW57" s="4">
+      <c r="BW57" s="2">
         <v>12</v>
       </c>
-      <c r="BX57" s="4">
+      <c r="BX57" s="2">
         <v>12</v>
       </c>
-      <c r="BY57" s="4">
+      <c r="BY57" s="2">
         <v>13</v>
       </c>
-      <c r="BZ57" s="4">
+      <c r="BZ57" s="2">
         <v>13</v>
       </c>
-      <c r="CA57" s="4">
+      <c r="CA57" s="2">
         <v>13</v>
       </c>
-      <c r="CB57" s="4">
+      <c r="CB57" s="2">
         <v>13</v>
       </c>
-      <c r="CC57" s="4">
+      <c r="CC57" s="2">
         <v>14</v>
       </c>
-      <c r="CD57" s="4">
+      <c r="CD57" s="2">
         <v>14</v>
       </c>
-      <c r="CE57" s="4">
+      <c r="CE57" s="2">
         <v>15</v>
       </c>
-      <c r="CF57" s="4">
+      <c r="CF57" s="2">
         <v>15</v>
       </c>
-      <c r="CG57" s="4">
+      <c r="CG57" s="2">
         <v>15</v>
       </c>
-      <c r="CH57" s="4">
+      <c r="CH57" s="2">
         <v>15</v>
       </c>
-      <c r="CI57" s="4">
+      <c r="CI57" s="2">
         <v>16</v>
       </c>
-      <c r="CJ57" s="4">
+      <c r="CJ57" s="2">
         <v>16</v>
       </c>
-      <c r="CK57" s="4">
+      <c r="CK57" s="2">
         <v>17</v>
       </c>
-      <c r="CL57" s="4">
+      <c r="CL57" s="2">
         <v>17</v>
       </c>
-      <c r="CM57" s="4">
+      <c r="CM57" s="2">
         <v>17</v>
       </c>
-      <c r="CN57" s="4">
+      <c r="CN57" s="2">
         <v>17</v>
       </c>
-      <c r="CO57" s="4">
+      <c r="CO57" s="2">
         <v>18</v>
       </c>
-      <c r="CP57" s="4">
+      <c r="CP57" s="2">
         <v>18</v>
       </c>
-      <c r="CQ57" s="4">
+      <c r="CQ57" s="2">
         <v>19</v>
       </c>
-      <c r="CR57" s="4">
+      <c r="CR57" s="2">
         <v>19</v>
       </c>
-      <c r="CS57" s="4">
+      <c r="CS57" s="2">
         <v>19</v>
       </c>
-      <c r="CT57" s="4">
+      <c r="CT57" s="2">
         <v>19</v>
       </c>
-      <c r="CU57" s="4">
+      <c r="CU57" s="2">
         <v>21</v>
       </c>
-      <c r="CV57" s="4">
+      <c r="CV57" s="2">
         <v>22</v>
       </c>
-      <c r="CW57" s="4">
+      <c r="CW57" s="2">
         <v>25</v>
       </c>
     </row>

--- a/doc/caste_system.xlsx
+++ b/doc/caste_system.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/349dfb9748b30a92/Asztali gép/ataliasflame_2.0/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9765" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB1F9D58-ED7E-48B7-A439-4257F820A33B}"/>
+  <xr:revisionPtr revIDLastSave="10788" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64A53CE5-8008-4068-810D-4823614FC136}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="696" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="696" activeTab="1" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
   </bookViews>
   <sheets>
     <sheet name="levels" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="37">
   <si>
     <t>csavargó</t>
   </si>
@@ -141,7 +141,13 @@
     <t>-&gt;</t>
   </si>
   <si>
-    <t>bölcs???</t>
+    <t>bölcs</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -193,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -209,6 +215,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -224,6 +239,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -525,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E471D10E-602D-4E12-A93B-97B72309BCF6}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
@@ -1544,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD573711-C846-40DC-8629-19A685998D3E}">
-  <dimension ref="A1:CX58"/>
+  <dimension ref="A1:CW82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="CL30" sqref="CL30"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="BX73" sqref="BX73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1562,13 +1581,12 @@
     <col min="48" max="50" width="4" customWidth="1"/>
     <col min="51" max="51" width="16" bestFit="1" customWidth="1"/>
     <col min="52" max="55" width="4" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="4" customWidth="1"/>
+    <col min="56" max="56" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="57" max="100" width="4" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1869,11 +1887,8 @@
       <c r="CW1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="CX1" s="5" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2178,7 +2193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2483,7 +2498,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2788,7 +2803,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -3093,7 +3108,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -3398,7 +3413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3703,7 +3718,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -4008,7 +4023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -4313,7 +4328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.3">
       <c r="B10">
         <f>SUM(B2:B9)</f>
         <v>5</v>
@@ -4715,7 +4730,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>0</v>
       </c>
@@ -5017,7 +5032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -5322,7 +5337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -5627,7 +5642,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -17294,6 +17309,6294 @@
       </c>
       <c r="CW58">
         <f t="shared" ref="CW58" si="45">SUM(CW50:CW57)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="B61" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P61" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q61" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R61" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S61" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T61" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U61" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="V61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD61" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BH61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BJ61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BM61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BN61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BO61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BP61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BQ61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BR61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BS61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BT61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BU61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BV61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BX61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BY61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BZ61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CB61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CC61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CE61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CF61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CG61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CH61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CI61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CK61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CL61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CM61" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW61" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="9">
+        <v>1</v>
+      </c>
+      <c r="C62" s="9">
+        <v>1</v>
+      </c>
+      <c r="D62" s="9">
+        <v>2</v>
+      </c>
+      <c r="E62" s="9">
+        <v>2</v>
+      </c>
+      <c r="F62" s="9">
+        <v>2</v>
+      </c>
+      <c r="G62" s="9">
+        <v>2</v>
+      </c>
+      <c r="H62" s="9">
+        <v>3</v>
+      </c>
+      <c r="I62" s="9">
+        <v>3</v>
+      </c>
+      <c r="J62" s="9">
+        <v>3</v>
+      </c>
+      <c r="K62" s="9">
+        <v>3</v>
+      </c>
+      <c r="L62" s="9">
+        <v>4</v>
+      </c>
+      <c r="M62" s="9">
+        <v>4</v>
+      </c>
+      <c r="N62" s="9">
+        <v>4</v>
+      </c>
+      <c r="O62" s="9">
+        <v>4</v>
+      </c>
+      <c r="P62" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="9">
+        <v>5</v>
+      </c>
+      <c r="R62" s="9">
+        <v>5</v>
+      </c>
+      <c r="S62" s="9">
+        <v>5</v>
+      </c>
+      <c r="T62" s="9">
+        <v>6</v>
+      </c>
+      <c r="U62" s="9">
+        <v>6</v>
+      </c>
+      <c r="V62" s="9">
+        <v>7</v>
+      </c>
+      <c r="W62" s="9">
+        <v>8</v>
+      </c>
+      <c r="X62" s="9">
+        <v>9</v>
+      </c>
+      <c r="Y62" s="9">
+        <v>10</v>
+      </c>
+      <c r="Z62" s="9">
+        <v>11</v>
+      </c>
+      <c r="AA62" s="9">
+        <v>12</v>
+      </c>
+      <c r="AB62" s="9">
+        <v>13</v>
+      </c>
+      <c r="AC62" s="9">
+        <v>14</v>
+      </c>
+      <c r="AD62" s="9">
+        <v>15</v>
+      </c>
+      <c r="AE62" s="9">
+        <v>16</v>
+      </c>
+      <c r="AF62" s="9">
+        <v>17</v>
+      </c>
+      <c r="AG62" s="9">
+        <v>18</v>
+      </c>
+      <c r="AH62" s="9">
+        <v>19</v>
+      </c>
+      <c r="AI62" s="9">
+        <v>20</v>
+      </c>
+      <c r="AJ62" s="9">
+        <v>21</v>
+      </c>
+      <c r="AK62" s="9">
+        <v>22</v>
+      </c>
+      <c r="AL62" s="9">
+        <v>23</v>
+      </c>
+      <c r="AM62" s="9">
+        <v>24</v>
+      </c>
+      <c r="AN62" s="9">
+        <v>25</v>
+      </c>
+      <c r="AO62" s="9">
+        <v>26</v>
+      </c>
+      <c r="AP62" s="9">
+        <v>27</v>
+      </c>
+      <c r="AQ62" s="9">
+        <v>28</v>
+      </c>
+      <c r="AR62" s="9">
+        <v>29</v>
+      </c>
+      <c r="AS62" s="9">
+        <v>30</v>
+      </c>
+      <c r="AT62" s="9">
+        <v>31</v>
+      </c>
+      <c r="AU62" s="9">
+        <v>32</v>
+      </c>
+      <c r="AV62" s="9">
+        <v>33</v>
+      </c>
+      <c r="AW62" s="9">
+        <v>34</v>
+      </c>
+      <c r="AX62" s="9">
+        <v>35</v>
+      </c>
+      <c r="AY62" s="9">
+        <v>36</v>
+      </c>
+      <c r="AZ62" s="9">
+        <v>37</v>
+      </c>
+      <c r="BA62" s="9">
+        <v>38</v>
+      </c>
+      <c r="BB62" s="9">
+        <v>39</v>
+      </c>
+      <c r="BC62" s="9">
+        <v>40</v>
+      </c>
+      <c r="BD62" s="9">
+        <v>40</v>
+      </c>
+      <c r="BE62" s="9">
+        <v>45</v>
+      </c>
+      <c r="BF62" s="9">
+        <v>46</v>
+      </c>
+      <c r="BG62" s="9">
+        <v>48</v>
+      </c>
+      <c r="BH62" s="9">
+        <v>49</v>
+      </c>
+      <c r="BI62" s="9">
+        <v>50</v>
+      </c>
+      <c r="BJ62" s="9">
+        <v>51</v>
+      </c>
+      <c r="BK62" s="9">
+        <v>53</v>
+      </c>
+      <c r="BL62" s="9">
+        <v>54</v>
+      </c>
+      <c r="BM62" s="9">
+        <v>55</v>
+      </c>
+      <c r="BN62" s="9">
+        <v>56</v>
+      </c>
+      <c r="BO62" s="9">
+        <v>58</v>
+      </c>
+      <c r="BP62" s="9">
+        <v>59</v>
+      </c>
+      <c r="BQ62" s="9">
+        <v>60</v>
+      </c>
+      <c r="BR62" s="9">
+        <v>61</v>
+      </c>
+      <c r="BS62" s="9">
+        <v>63</v>
+      </c>
+      <c r="BT62" s="9">
+        <v>64</v>
+      </c>
+      <c r="BU62" s="9">
+        <v>65</v>
+      </c>
+      <c r="BV62" s="9">
+        <v>66</v>
+      </c>
+      <c r="BW62" s="9">
+        <v>68</v>
+      </c>
+      <c r="BX62" s="9">
+        <v>69</v>
+      </c>
+      <c r="BY62" s="9">
+        <v>70</v>
+      </c>
+      <c r="BZ62" s="9">
+        <v>71</v>
+      </c>
+      <c r="CA62" s="9">
+        <v>73</v>
+      </c>
+      <c r="CB62" s="9">
+        <v>74</v>
+      </c>
+      <c r="CC62" s="9">
+        <v>75</v>
+      </c>
+      <c r="CD62" s="9">
+        <v>76</v>
+      </c>
+      <c r="CE62" s="9">
+        <v>78</v>
+      </c>
+      <c r="CF62" s="9">
+        <v>79</v>
+      </c>
+      <c r="CG62" s="9">
+        <v>80</v>
+      </c>
+      <c r="CH62" s="9">
+        <v>81</v>
+      </c>
+      <c r="CI62" s="9">
+        <v>83</v>
+      </c>
+      <c r="CJ62" s="9">
+        <v>84</v>
+      </c>
+      <c r="CK62" s="9">
+        <v>85</v>
+      </c>
+      <c r="CL62" s="9">
+        <v>87</v>
+      </c>
+      <c r="CM62" s="9">
+        <v>90</v>
+      </c>
+      <c r="CN62" s="1">
+        <v>91</v>
+      </c>
+      <c r="CO62" s="1">
+        <v>92</v>
+      </c>
+      <c r="CP62" s="1">
+        <v>93</v>
+      </c>
+      <c r="CQ62" s="1">
+        <v>93</v>
+      </c>
+      <c r="CR62" s="1">
+        <v>94</v>
+      </c>
+      <c r="CS62" s="1">
+        <v>95</v>
+      </c>
+      <c r="CT62" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU62" s="1">
+        <v>98</v>
+      </c>
+      <c r="CV62" s="1">
+        <v>99</v>
+      </c>
+      <c r="CW62" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="9">
+        <v>1</v>
+      </c>
+      <c r="C63" s="9">
+        <v>2</v>
+      </c>
+      <c r="D63" s="9">
+        <v>2</v>
+      </c>
+      <c r="E63" s="9">
+        <v>3</v>
+      </c>
+      <c r="F63" s="9">
+        <v>3</v>
+      </c>
+      <c r="G63" s="9">
+        <v>4</v>
+      </c>
+      <c r="H63" s="9">
+        <v>4</v>
+      </c>
+      <c r="I63" s="9">
+        <v>5</v>
+      </c>
+      <c r="J63" s="9">
+        <v>6</v>
+      </c>
+      <c r="K63" s="9">
+        <v>7</v>
+      </c>
+      <c r="L63" s="9">
+        <v>7</v>
+      </c>
+      <c r="M63" s="9">
+        <v>8</v>
+      </c>
+      <c r="N63" s="9">
+        <v>8</v>
+      </c>
+      <c r="O63" s="9">
+        <v>9</v>
+      </c>
+      <c r="P63" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q63" s="9">
+        <v>10</v>
+      </c>
+      <c r="R63" s="9">
+        <v>11</v>
+      </c>
+      <c r="S63" s="9">
+        <v>12</v>
+      </c>
+      <c r="T63" s="9">
+        <v>12</v>
+      </c>
+      <c r="U63" s="9">
+        <v>12</v>
+      </c>
+      <c r="V63" s="9">
+        <v>12</v>
+      </c>
+      <c r="W63" s="9">
+        <v>13</v>
+      </c>
+      <c r="X63" s="9">
+        <v>14</v>
+      </c>
+      <c r="Y63" s="9">
+        <v>15</v>
+      </c>
+      <c r="Z63" s="9">
+        <v>16</v>
+      </c>
+      <c r="AA63" s="9">
+        <v>17</v>
+      </c>
+      <c r="AB63" s="9">
+        <v>18</v>
+      </c>
+      <c r="AC63" s="9">
+        <v>19</v>
+      </c>
+      <c r="AD63" s="9">
+        <v>20</v>
+      </c>
+      <c r="AE63" s="9">
+        <v>21</v>
+      </c>
+      <c r="AF63" s="9">
+        <v>22</v>
+      </c>
+      <c r="AG63" s="9">
+        <v>23</v>
+      </c>
+      <c r="AH63" s="9">
+        <v>24</v>
+      </c>
+      <c r="AI63" s="9">
+        <v>25</v>
+      </c>
+      <c r="AJ63" s="9">
+        <v>26</v>
+      </c>
+      <c r="AK63" s="9">
+        <v>27</v>
+      </c>
+      <c r="AL63" s="9">
+        <v>28</v>
+      </c>
+      <c r="AM63" s="9">
+        <v>29</v>
+      </c>
+      <c r="AN63" s="9">
+        <v>30</v>
+      </c>
+      <c r="AO63" s="9">
+        <v>31</v>
+      </c>
+      <c r="AP63" s="9">
+        <v>32</v>
+      </c>
+      <c r="AQ63" s="9">
+        <v>33</v>
+      </c>
+      <c r="AR63" s="9">
+        <v>34</v>
+      </c>
+      <c r="AS63" s="9">
+        <v>35</v>
+      </c>
+      <c r="AT63" s="9">
+        <v>36</v>
+      </c>
+      <c r="AU63" s="9">
+        <v>37</v>
+      </c>
+      <c r="AV63" s="9">
+        <v>38</v>
+      </c>
+      <c r="AW63" s="9">
+        <v>39</v>
+      </c>
+      <c r="AX63" s="9">
+        <v>40</v>
+      </c>
+      <c r="AY63" s="9">
+        <v>41</v>
+      </c>
+      <c r="AZ63" s="9">
+        <v>42</v>
+      </c>
+      <c r="BA63" s="9">
+        <v>43</v>
+      </c>
+      <c r="BB63" s="9">
+        <v>44</v>
+      </c>
+      <c r="BC63" s="9">
+        <v>45</v>
+      </c>
+      <c r="BD63" s="9">
+        <v>45</v>
+      </c>
+      <c r="BE63" s="9">
+        <v>45</v>
+      </c>
+      <c r="BF63" s="9">
+        <v>46</v>
+      </c>
+      <c r="BG63" s="9">
+        <v>47</v>
+      </c>
+      <c r="BH63" s="9">
+        <v>49</v>
+      </c>
+      <c r="BI63" s="9">
+        <v>50</v>
+      </c>
+      <c r="BJ63" s="9">
+        <v>51</v>
+      </c>
+      <c r="BK63" s="9">
+        <v>52</v>
+      </c>
+      <c r="BL63" s="9">
+        <v>54</v>
+      </c>
+      <c r="BM63" s="9">
+        <v>55</v>
+      </c>
+      <c r="BN63" s="9">
+        <v>56</v>
+      </c>
+      <c r="BO63" s="9">
+        <v>57</v>
+      </c>
+      <c r="BP63" s="9">
+        <v>59</v>
+      </c>
+      <c r="BQ63" s="9">
+        <v>60</v>
+      </c>
+      <c r="BR63" s="9">
+        <v>61</v>
+      </c>
+      <c r="BS63" s="9">
+        <v>62</v>
+      </c>
+      <c r="BT63" s="9">
+        <v>64</v>
+      </c>
+      <c r="BU63" s="9">
+        <v>65</v>
+      </c>
+      <c r="BV63" s="9">
+        <v>66</v>
+      </c>
+      <c r="BW63" s="9">
+        <v>67</v>
+      </c>
+      <c r="BX63" s="9">
+        <v>69</v>
+      </c>
+      <c r="BY63" s="9">
+        <v>70</v>
+      </c>
+      <c r="BZ63" s="9">
+        <v>71</v>
+      </c>
+      <c r="CA63" s="9">
+        <v>72</v>
+      </c>
+      <c r="CB63" s="9">
+        <v>74</v>
+      </c>
+      <c r="CC63" s="9">
+        <v>75</v>
+      </c>
+      <c r="CD63" s="9">
+        <v>76</v>
+      </c>
+      <c r="CE63" s="9">
+        <v>77</v>
+      </c>
+      <c r="CF63" s="9">
+        <v>79</v>
+      </c>
+      <c r="CG63" s="9">
+        <v>80</v>
+      </c>
+      <c r="CH63" s="9">
+        <v>81</v>
+      </c>
+      <c r="CI63" s="9">
+        <v>82</v>
+      </c>
+      <c r="CJ63" s="9">
+        <v>84</v>
+      </c>
+      <c r="CK63" s="9">
+        <v>85</v>
+      </c>
+      <c r="CL63" s="9">
+        <v>85</v>
+      </c>
+      <c r="CM63" s="9">
+        <v>85</v>
+      </c>
+      <c r="CN63" s="1">
+        <v>87</v>
+      </c>
+      <c r="CO63" s="1">
+        <v>88</v>
+      </c>
+      <c r="CP63" s="1">
+        <v>90</v>
+      </c>
+      <c r="CQ63" s="1">
+        <v>92</v>
+      </c>
+      <c r="CR63" s="1">
+        <v>94</v>
+      </c>
+      <c r="CS63" s="1">
+        <v>95</v>
+      </c>
+      <c r="CT63" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU63" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV63" s="1">
+        <v>99</v>
+      </c>
+      <c r="CW63" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="9">
+        <v>1</v>
+      </c>
+      <c r="C64" s="9">
+        <v>2</v>
+      </c>
+      <c r="D64" s="9">
+        <v>2</v>
+      </c>
+      <c r="E64" s="9">
+        <v>2</v>
+      </c>
+      <c r="F64" s="9">
+        <v>2</v>
+      </c>
+      <c r="G64" s="9">
+        <v>2</v>
+      </c>
+      <c r="H64" s="9">
+        <v>3</v>
+      </c>
+      <c r="I64" s="9">
+        <v>3</v>
+      </c>
+      <c r="J64" s="9">
+        <v>3</v>
+      </c>
+      <c r="K64" s="9">
+        <v>3</v>
+      </c>
+      <c r="L64" s="9">
+        <v>4</v>
+      </c>
+      <c r="M64" s="9">
+        <v>4</v>
+      </c>
+      <c r="N64" s="9">
+        <v>4</v>
+      </c>
+      <c r="O64" s="9">
+        <v>5</v>
+      </c>
+      <c r="P64" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q64" s="9">
+        <v>5</v>
+      </c>
+      <c r="R64" s="9">
+        <v>6</v>
+      </c>
+      <c r="S64" s="9">
+        <v>7</v>
+      </c>
+      <c r="T64" s="9">
+        <v>7</v>
+      </c>
+      <c r="U64" s="9">
+        <v>7</v>
+      </c>
+      <c r="V64" s="9">
+        <v>11</v>
+      </c>
+      <c r="W64" s="9">
+        <v>12</v>
+      </c>
+      <c r="X64" s="9">
+        <v>13</v>
+      </c>
+      <c r="Y64" s="9">
+        <v>14</v>
+      </c>
+      <c r="Z64" s="9">
+        <v>15</v>
+      </c>
+      <c r="AA64" s="9">
+        <v>16</v>
+      </c>
+      <c r="AB64" s="9">
+        <v>17</v>
+      </c>
+      <c r="AC64" s="9">
+        <v>18</v>
+      </c>
+      <c r="AD64" s="9">
+        <v>19</v>
+      </c>
+      <c r="AE64" s="9">
+        <v>20</v>
+      </c>
+      <c r="AF64" s="9">
+        <v>21</v>
+      </c>
+      <c r="AG64" s="9">
+        <v>22</v>
+      </c>
+      <c r="AH64" s="9">
+        <v>23</v>
+      </c>
+      <c r="AI64" s="9">
+        <v>24</v>
+      </c>
+      <c r="AJ64" s="9">
+        <v>25</v>
+      </c>
+      <c r="AK64" s="9">
+        <v>26</v>
+      </c>
+      <c r="AL64" s="9">
+        <v>27</v>
+      </c>
+      <c r="AM64" s="9">
+        <v>28</v>
+      </c>
+      <c r="AN64" s="9">
+        <v>29</v>
+      </c>
+      <c r="AO64" s="9">
+        <v>30</v>
+      </c>
+      <c r="AP64" s="9">
+        <v>31</v>
+      </c>
+      <c r="AQ64" s="9">
+        <v>32</v>
+      </c>
+      <c r="AR64" s="9">
+        <v>33</v>
+      </c>
+      <c r="AS64" s="9">
+        <v>34</v>
+      </c>
+      <c r="AT64" s="9">
+        <v>35</v>
+      </c>
+      <c r="AU64" s="9">
+        <v>36</v>
+      </c>
+      <c r="AV64" s="9">
+        <v>37</v>
+      </c>
+      <c r="AW64" s="9">
+        <v>38</v>
+      </c>
+      <c r="AX64" s="9">
+        <v>39</v>
+      </c>
+      <c r="AY64" s="9">
+        <v>40</v>
+      </c>
+      <c r="AZ64" s="9">
+        <v>41</v>
+      </c>
+      <c r="BA64" s="9">
+        <v>42</v>
+      </c>
+      <c r="BB64" s="9">
+        <v>43</v>
+      </c>
+      <c r="BC64" s="9">
+        <v>44</v>
+      </c>
+      <c r="BD64" s="9">
+        <v>45</v>
+      </c>
+      <c r="BE64" s="9">
+        <v>45</v>
+      </c>
+      <c r="BF64" s="9">
+        <v>47</v>
+      </c>
+      <c r="BG64" s="9">
+        <v>48</v>
+      </c>
+      <c r="BH64" s="9">
+        <v>49</v>
+      </c>
+      <c r="BI64" s="9">
+        <v>50</v>
+      </c>
+      <c r="BJ64" s="9">
+        <v>52</v>
+      </c>
+      <c r="BK64" s="9">
+        <v>53</v>
+      </c>
+      <c r="BL64" s="9">
+        <v>54</v>
+      </c>
+      <c r="BM64" s="9">
+        <v>55</v>
+      </c>
+      <c r="BN64" s="9">
+        <v>57</v>
+      </c>
+      <c r="BO64" s="9">
+        <v>58</v>
+      </c>
+      <c r="BP64" s="9">
+        <v>59</v>
+      </c>
+      <c r="BQ64" s="9">
+        <v>60</v>
+      </c>
+      <c r="BR64" s="9">
+        <v>62</v>
+      </c>
+      <c r="BS64" s="9">
+        <v>63</v>
+      </c>
+      <c r="BT64" s="9">
+        <v>64</v>
+      </c>
+      <c r="BU64" s="9">
+        <v>65</v>
+      </c>
+      <c r="BV64" s="9">
+        <v>67</v>
+      </c>
+      <c r="BW64" s="9">
+        <v>68</v>
+      </c>
+      <c r="BX64" s="9">
+        <v>69</v>
+      </c>
+      <c r="BY64" s="9">
+        <v>70</v>
+      </c>
+      <c r="BZ64" s="9">
+        <v>72</v>
+      </c>
+      <c r="CA64" s="9">
+        <v>73</v>
+      </c>
+      <c r="CB64" s="9">
+        <v>74</v>
+      </c>
+      <c r="CC64" s="9">
+        <v>75</v>
+      </c>
+      <c r="CD64" s="9">
+        <v>77</v>
+      </c>
+      <c r="CE64" s="9">
+        <v>78</v>
+      </c>
+      <c r="CF64" s="9">
+        <v>79</v>
+      </c>
+      <c r="CG64" s="9">
+        <v>80</v>
+      </c>
+      <c r="CH64" s="9">
+        <v>82</v>
+      </c>
+      <c r="CI64" s="9">
+        <v>83</v>
+      </c>
+      <c r="CJ64" s="9">
+        <v>84</v>
+      </c>
+      <c r="CK64" s="9">
+        <v>85</v>
+      </c>
+      <c r="CL64" s="9">
+        <v>88</v>
+      </c>
+      <c r="CM64" s="9">
+        <v>90</v>
+      </c>
+      <c r="CN64" s="1">
+        <v>91</v>
+      </c>
+      <c r="CO64" s="1">
+        <v>92</v>
+      </c>
+      <c r="CP64" s="1">
+        <v>92</v>
+      </c>
+      <c r="CQ64" s="1">
+        <v>93</v>
+      </c>
+      <c r="CR64" s="1">
+        <v>94</v>
+      </c>
+      <c r="CS64" s="1">
+        <v>95</v>
+      </c>
+      <c r="CT64" s="1">
+        <v>97</v>
+      </c>
+      <c r="CU64" s="1">
+        <v>98</v>
+      </c>
+      <c r="CV64" s="1">
+        <v>99</v>
+      </c>
+      <c r="CW64" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="9">
+        <v>1</v>
+      </c>
+      <c r="C65" s="9">
+        <v>1</v>
+      </c>
+      <c r="D65" s="9">
+        <v>2</v>
+      </c>
+      <c r="E65" s="9">
+        <v>3</v>
+      </c>
+      <c r="F65" s="9">
+        <v>3</v>
+      </c>
+      <c r="G65" s="9">
+        <v>4</v>
+      </c>
+      <c r="H65" s="9">
+        <v>4</v>
+      </c>
+      <c r="I65" s="9">
+        <v>5</v>
+      </c>
+      <c r="J65" s="9">
+        <v>6</v>
+      </c>
+      <c r="K65" s="9">
+        <v>6</v>
+      </c>
+      <c r="L65" s="9">
+        <v>6</v>
+      </c>
+      <c r="M65" s="9">
+        <v>7</v>
+      </c>
+      <c r="N65" s="9">
+        <v>8</v>
+      </c>
+      <c r="O65" s="9">
+        <v>8</v>
+      </c>
+      <c r="P65" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q65" s="9">
+        <v>9</v>
+      </c>
+      <c r="R65" s="9">
+        <v>9</v>
+      </c>
+      <c r="S65" s="9">
+        <v>9</v>
+      </c>
+      <c r="T65" s="9">
+        <v>10</v>
+      </c>
+      <c r="U65" s="9">
+        <v>10</v>
+      </c>
+      <c r="V65" s="9">
+        <v>10</v>
+      </c>
+      <c r="W65" s="9">
+        <v>12</v>
+      </c>
+      <c r="X65" s="9">
+        <v>13</v>
+      </c>
+      <c r="Y65" s="9">
+        <v>14</v>
+      </c>
+      <c r="Z65" s="9">
+        <v>15</v>
+      </c>
+      <c r="AA65" s="9">
+        <v>16</v>
+      </c>
+      <c r="AB65" s="9">
+        <v>17</v>
+      </c>
+      <c r="AC65" s="9">
+        <v>18</v>
+      </c>
+      <c r="AD65" s="9">
+        <v>19</v>
+      </c>
+      <c r="AE65" s="9">
+        <v>20</v>
+      </c>
+      <c r="AF65" s="9">
+        <v>21</v>
+      </c>
+      <c r="AG65" s="9">
+        <v>22</v>
+      </c>
+      <c r="AH65" s="9">
+        <v>23</v>
+      </c>
+      <c r="AI65" s="9">
+        <v>24</v>
+      </c>
+      <c r="AJ65" s="9">
+        <v>25</v>
+      </c>
+      <c r="AK65" s="9">
+        <v>26</v>
+      </c>
+      <c r="AL65" s="9">
+        <v>27</v>
+      </c>
+      <c r="AM65" s="9">
+        <v>28</v>
+      </c>
+      <c r="AN65" s="9">
+        <v>29</v>
+      </c>
+      <c r="AO65" s="9">
+        <v>30</v>
+      </c>
+      <c r="AP65" s="9">
+        <v>31</v>
+      </c>
+      <c r="AQ65" s="9">
+        <v>32</v>
+      </c>
+      <c r="AR65" s="9">
+        <v>33</v>
+      </c>
+      <c r="AS65" s="9">
+        <v>34</v>
+      </c>
+      <c r="AT65" s="9">
+        <v>35</v>
+      </c>
+      <c r="AU65" s="9">
+        <v>36</v>
+      </c>
+      <c r="AV65" s="9">
+        <v>37</v>
+      </c>
+      <c r="AW65" s="9">
+        <v>38</v>
+      </c>
+      <c r="AX65" s="9">
+        <v>39</v>
+      </c>
+      <c r="AY65" s="9">
+        <v>40</v>
+      </c>
+      <c r="AZ65" s="9">
+        <v>41</v>
+      </c>
+      <c r="BA65" s="9">
+        <v>42</v>
+      </c>
+      <c r="BB65" s="9">
+        <v>43</v>
+      </c>
+      <c r="BC65" s="9">
+        <v>44</v>
+      </c>
+      <c r="BD65" s="9">
+        <v>45</v>
+      </c>
+      <c r="BE65" s="9">
+        <v>45</v>
+      </c>
+      <c r="BF65" s="9">
+        <v>46</v>
+      </c>
+      <c r="BG65" s="9">
+        <v>47</v>
+      </c>
+      <c r="BH65" s="9">
+        <v>48</v>
+      </c>
+      <c r="BI65" s="9">
+        <v>50</v>
+      </c>
+      <c r="BJ65" s="9">
+        <v>51</v>
+      </c>
+      <c r="BK65" s="9">
+        <v>52</v>
+      </c>
+      <c r="BL65" s="9">
+        <v>53</v>
+      </c>
+      <c r="BM65" s="9">
+        <v>55</v>
+      </c>
+      <c r="BN65" s="9">
+        <v>56</v>
+      </c>
+      <c r="BO65" s="9">
+        <v>57</v>
+      </c>
+      <c r="BP65" s="9">
+        <v>58</v>
+      </c>
+      <c r="BQ65" s="9">
+        <v>60</v>
+      </c>
+      <c r="BR65" s="9">
+        <v>61</v>
+      </c>
+      <c r="BS65" s="9">
+        <v>62</v>
+      </c>
+      <c r="BT65" s="9">
+        <v>63</v>
+      </c>
+      <c r="BU65" s="9">
+        <v>65</v>
+      </c>
+      <c r="BV65" s="9">
+        <v>66</v>
+      </c>
+      <c r="BW65" s="9">
+        <v>67</v>
+      </c>
+      <c r="BX65" s="9">
+        <v>68</v>
+      </c>
+      <c r="BY65" s="9">
+        <v>70</v>
+      </c>
+      <c r="BZ65" s="9">
+        <v>71</v>
+      </c>
+      <c r="CA65" s="9">
+        <v>72</v>
+      </c>
+      <c r="CB65" s="9">
+        <v>73</v>
+      </c>
+      <c r="CC65" s="9">
+        <v>75</v>
+      </c>
+      <c r="CD65" s="9">
+        <v>76</v>
+      </c>
+      <c r="CE65" s="9">
+        <v>77</v>
+      </c>
+      <c r="CF65" s="9">
+        <v>78</v>
+      </c>
+      <c r="CG65" s="9">
+        <v>80</v>
+      </c>
+      <c r="CH65" s="9">
+        <v>81</v>
+      </c>
+      <c r="CI65" s="9">
+        <v>82</v>
+      </c>
+      <c r="CJ65" s="9">
+        <v>83</v>
+      </c>
+      <c r="CK65" s="9">
+        <v>85</v>
+      </c>
+      <c r="CL65" s="9">
+        <v>85</v>
+      </c>
+      <c r="CM65" s="9">
+        <v>85</v>
+      </c>
+      <c r="CN65" s="1">
+        <v>86</v>
+      </c>
+      <c r="CO65" s="1">
+        <v>88</v>
+      </c>
+      <c r="CP65" s="1">
+        <v>90</v>
+      </c>
+      <c r="CQ65" s="1">
+        <v>92</v>
+      </c>
+      <c r="CR65" s="1">
+        <v>93</v>
+      </c>
+      <c r="CS65" s="1">
+        <v>95</v>
+      </c>
+      <c r="CT65" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU65" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV65" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW65" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="9">
+        <v>1</v>
+      </c>
+      <c r="C66" s="9">
+        <v>2</v>
+      </c>
+      <c r="D66" s="9">
+        <v>3</v>
+      </c>
+      <c r="E66" s="9">
+        <v>4</v>
+      </c>
+      <c r="F66" s="9">
+        <v>5</v>
+      </c>
+      <c r="G66" s="9">
+        <v>6</v>
+      </c>
+      <c r="H66" s="9">
+        <v>7</v>
+      </c>
+      <c r="I66" s="9">
+        <v>8</v>
+      </c>
+      <c r="J66" s="9">
+        <v>9</v>
+      </c>
+      <c r="K66" s="9">
+        <v>10</v>
+      </c>
+      <c r="L66" s="9">
+        <v>11</v>
+      </c>
+      <c r="M66" s="9">
+        <v>12</v>
+      </c>
+      <c r="N66" s="9">
+        <v>13</v>
+      </c>
+      <c r="O66" s="9">
+        <v>14</v>
+      </c>
+      <c r="P66" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q66" s="9">
+        <v>16</v>
+      </c>
+      <c r="R66" s="9">
+        <v>17</v>
+      </c>
+      <c r="S66" s="9">
+        <v>18</v>
+      </c>
+      <c r="T66" s="9">
+        <v>19</v>
+      </c>
+      <c r="U66" s="9">
+        <v>20</v>
+      </c>
+      <c r="V66" s="9">
+        <v>20</v>
+      </c>
+      <c r="W66" s="9">
+        <v>20</v>
+      </c>
+      <c r="X66" s="9">
+        <v>21</v>
+      </c>
+      <c r="Y66" s="9">
+        <v>22</v>
+      </c>
+      <c r="Z66" s="9">
+        <v>23</v>
+      </c>
+      <c r="AA66" s="9">
+        <v>24</v>
+      </c>
+      <c r="AB66" s="9">
+        <v>25</v>
+      </c>
+      <c r="AC66" s="9">
+        <v>26</v>
+      </c>
+      <c r="AD66" s="9">
+        <v>27</v>
+      </c>
+      <c r="AE66" s="9">
+        <v>28</v>
+      </c>
+      <c r="AF66" s="9">
+        <v>29</v>
+      </c>
+      <c r="AG66" s="9">
+        <v>30</v>
+      </c>
+      <c r="AH66" s="9">
+        <v>31</v>
+      </c>
+      <c r="AI66" s="9">
+        <v>32</v>
+      </c>
+      <c r="AJ66" s="9">
+        <v>33</v>
+      </c>
+      <c r="AK66" s="9">
+        <v>34</v>
+      </c>
+      <c r="AL66" s="9">
+        <v>35</v>
+      </c>
+      <c r="AM66" s="9">
+        <v>36</v>
+      </c>
+      <c r="AN66" s="9">
+        <v>36</v>
+      </c>
+      <c r="AO66" s="9">
+        <v>36</v>
+      </c>
+      <c r="AP66" s="9">
+        <v>36</v>
+      </c>
+      <c r="AQ66" s="9">
+        <v>37</v>
+      </c>
+      <c r="AR66" s="9">
+        <v>37</v>
+      </c>
+      <c r="AS66" s="9">
+        <v>37</v>
+      </c>
+      <c r="AT66" s="9">
+        <v>37</v>
+      </c>
+      <c r="AU66" s="9">
+        <v>38</v>
+      </c>
+      <c r="AV66" s="9">
+        <v>38</v>
+      </c>
+      <c r="AW66" s="9">
+        <v>38</v>
+      </c>
+      <c r="AX66" s="9">
+        <v>38</v>
+      </c>
+      <c r="AY66" s="9">
+        <v>39</v>
+      </c>
+      <c r="AZ66" s="9">
+        <v>39</v>
+      </c>
+      <c r="BA66" s="9">
+        <v>39</v>
+      </c>
+      <c r="BB66" s="9">
+        <v>39</v>
+      </c>
+      <c r="BC66" s="9">
+        <v>40</v>
+      </c>
+      <c r="BD66" s="9">
+        <v>40</v>
+      </c>
+      <c r="BE66" s="9">
+        <v>40</v>
+      </c>
+      <c r="BF66" s="9">
+        <v>40</v>
+      </c>
+      <c r="BG66" s="9">
+        <v>40</v>
+      </c>
+      <c r="BH66" s="9">
+        <v>40</v>
+      </c>
+      <c r="BI66" s="9">
+        <v>40</v>
+      </c>
+      <c r="BJ66" s="9">
+        <v>40</v>
+      </c>
+      <c r="BK66" s="9">
+        <v>40</v>
+      </c>
+      <c r="BL66" s="9">
+        <v>40</v>
+      </c>
+      <c r="BM66" s="9">
+        <v>40</v>
+      </c>
+      <c r="BN66" s="9">
+        <v>40</v>
+      </c>
+      <c r="BO66" s="9">
+        <v>40</v>
+      </c>
+      <c r="BP66" s="9">
+        <v>40</v>
+      </c>
+      <c r="BQ66" s="9">
+        <v>40</v>
+      </c>
+      <c r="BR66" s="9">
+        <v>40</v>
+      </c>
+      <c r="BS66" s="9">
+        <v>40</v>
+      </c>
+      <c r="BT66" s="9">
+        <v>40</v>
+      </c>
+      <c r="BU66" s="9">
+        <v>40</v>
+      </c>
+      <c r="BV66" s="9">
+        <v>40</v>
+      </c>
+      <c r="BW66" s="9">
+        <v>40</v>
+      </c>
+      <c r="BX66" s="9">
+        <v>40</v>
+      </c>
+      <c r="BY66" s="9">
+        <v>40</v>
+      </c>
+      <c r="BZ66" s="9">
+        <v>40</v>
+      </c>
+      <c r="CA66" s="9">
+        <v>40</v>
+      </c>
+      <c r="CB66" s="9">
+        <v>40</v>
+      </c>
+      <c r="CC66" s="9">
+        <v>40</v>
+      </c>
+      <c r="CD66" s="9">
+        <v>40</v>
+      </c>
+      <c r="CE66" s="9">
+        <v>40</v>
+      </c>
+      <c r="CF66" s="9">
+        <v>40</v>
+      </c>
+      <c r="CG66" s="9">
+        <v>40</v>
+      </c>
+      <c r="CH66" s="9">
+        <v>40</v>
+      </c>
+      <c r="CI66" s="9">
+        <v>40</v>
+      </c>
+      <c r="CJ66" s="9">
+        <v>40</v>
+      </c>
+      <c r="CK66" s="9">
+        <v>40</v>
+      </c>
+      <c r="CL66" s="9">
+        <v>40</v>
+      </c>
+      <c r="CM66" s="9">
+        <v>40</v>
+      </c>
+      <c r="CN66" s="1">
+        <v>40</v>
+      </c>
+      <c r="CO66" s="1">
+        <v>40</v>
+      </c>
+      <c r="CP66" s="1">
+        <v>40</v>
+      </c>
+      <c r="CQ66" s="1">
+        <v>40</v>
+      </c>
+      <c r="CR66" s="1">
+        <v>40</v>
+      </c>
+      <c r="CS66" s="1">
+        <v>40</v>
+      </c>
+      <c r="CT66" s="1">
+        <v>40</v>
+      </c>
+      <c r="CU66" s="1">
+        <v>40</v>
+      </c>
+      <c r="CV66" s="1">
+        <v>40</v>
+      </c>
+      <c r="CW66" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="9">
+        <v>0</v>
+      </c>
+      <c r="C67" s="9">
+        <v>1</v>
+      </c>
+      <c r="D67" s="9">
+        <v>2</v>
+      </c>
+      <c r="E67" s="9">
+        <v>3</v>
+      </c>
+      <c r="F67" s="9">
+        <v>5</v>
+      </c>
+      <c r="G67" s="9">
+        <v>6</v>
+      </c>
+      <c r="H67" s="9">
+        <v>7</v>
+      </c>
+      <c r="I67" s="9">
+        <v>8</v>
+      </c>
+      <c r="J67" s="9">
+        <v>9</v>
+      </c>
+      <c r="K67" s="9">
+        <v>10</v>
+      </c>
+      <c r="L67" s="9">
+        <v>11</v>
+      </c>
+      <c r="M67" s="9">
+        <v>12</v>
+      </c>
+      <c r="N67" s="9">
+        <v>13</v>
+      </c>
+      <c r="O67" s="9">
+        <v>14</v>
+      </c>
+      <c r="P67" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q67" s="9">
+        <v>16</v>
+      </c>
+      <c r="R67" s="9">
+        <v>17</v>
+      </c>
+      <c r="S67" s="9">
+        <v>18</v>
+      </c>
+      <c r="T67" s="9">
+        <v>19</v>
+      </c>
+      <c r="U67" s="9">
+        <v>20</v>
+      </c>
+      <c r="V67" s="9">
+        <v>20</v>
+      </c>
+      <c r="W67" s="9">
+        <v>20</v>
+      </c>
+      <c r="X67" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y67" s="9">
+        <v>20</v>
+      </c>
+      <c r="Z67" s="9">
+        <v>20</v>
+      </c>
+      <c r="AA67" s="9">
+        <v>20</v>
+      </c>
+      <c r="AB67" s="9">
+        <v>20</v>
+      </c>
+      <c r="AC67" s="9">
+        <v>20</v>
+      </c>
+      <c r="AD67" s="9">
+        <v>20</v>
+      </c>
+      <c r="AE67" s="9">
+        <v>20</v>
+      </c>
+      <c r="AF67" s="9">
+        <v>20</v>
+      </c>
+      <c r="AG67" s="9">
+        <v>20</v>
+      </c>
+      <c r="AH67" s="9">
+        <v>20</v>
+      </c>
+      <c r="AI67" s="9">
+        <v>20</v>
+      </c>
+      <c r="AJ67" s="9">
+        <v>20</v>
+      </c>
+      <c r="AK67" s="9">
+        <v>20</v>
+      </c>
+      <c r="AL67" s="9">
+        <v>20</v>
+      </c>
+      <c r="AM67" s="9">
+        <v>20</v>
+      </c>
+      <c r="AN67" s="9">
+        <v>20</v>
+      </c>
+      <c r="AO67" s="9">
+        <v>21</v>
+      </c>
+      <c r="AP67" s="9">
+        <v>21</v>
+      </c>
+      <c r="AQ67" s="9">
+        <v>21</v>
+      </c>
+      <c r="AR67" s="9">
+        <v>21</v>
+      </c>
+      <c r="AS67" s="9">
+        <v>22</v>
+      </c>
+      <c r="AT67" s="9">
+        <v>22</v>
+      </c>
+      <c r="AU67" s="9">
+        <v>22</v>
+      </c>
+      <c r="AV67" s="9">
+        <v>22</v>
+      </c>
+      <c r="AW67" s="9">
+        <v>23</v>
+      </c>
+      <c r="AX67" s="9">
+        <v>23</v>
+      </c>
+      <c r="AY67" s="9">
+        <v>23</v>
+      </c>
+      <c r="AZ67" s="9">
+        <v>23</v>
+      </c>
+      <c r="BA67" s="9">
+        <v>24</v>
+      </c>
+      <c r="BB67" s="9">
+        <v>24</v>
+      </c>
+      <c r="BC67" s="9">
+        <v>24</v>
+      </c>
+      <c r="BD67" s="9">
+        <v>25</v>
+      </c>
+      <c r="BE67" s="9">
+        <v>25</v>
+      </c>
+      <c r="BF67" s="9">
+        <v>25</v>
+      </c>
+      <c r="BG67" s="9">
+        <v>25</v>
+      </c>
+      <c r="BH67" s="9">
+        <v>25</v>
+      </c>
+      <c r="BI67" s="9">
+        <v>25</v>
+      </c>
+      <c r="BJ67" s="9">
+        <v>25</v>
+      </c>
+      <c r="BK67" s="9">
+        <v>25</v>
+      </c>
+      <c r="BL67" s="9">
+        <v>25</v>
+      </c>
+      <c r="BM67" s="9">
+        <v>25</v>
+      </c>
+      <c r="BN67" s="9">
+        <v>25</v>
+      </c>
+      <c r="BO67" s="9">
+        <v>25</v>
+      </c>
+      <c r="BP67" s="9">
+        <v>25</v>
+      </c>
+      <c r="BQ67" s="9">
+        <v>25</v>
+      </c>
+      <c r="BR67" s="9">
+        <v>25</v>
+      </c>
+      <c r="BS67" s="9">
+        <v>25</v>
+      </c>
+      <c r="BT67" s="9">
+        <v>25</v>
+      </c>
+      <c r="BU67" s="9">
+        <v>25</v>
+      </c>
+      <c r="BV67" s="9">
+        <v>25</v>
+      </c>
+      <c r="BW67" s="9">
+        <v>25</v>
+      </c>
+      <c r="BX67" s="9">
+        <v>25</v>
+      </c>
+      <c r="BY67" s="9">
+        <v>25</v>
+      </c>
+      <c r="BZ67" s="9">
+        <v>25</v>
+      </c>
+      <c r="CA67" s="9">
+        <v>25</v>
+      </c>
+      <c r="CB67" s="9">
+        <v>25</v>
+      </c>
+      <c r="CC67" s="9">
+        <v>25</v>
+      </c>
+      <c r="CD67" s="9">
+        <v>25</v>
+      </c>
+      <c r="CE67" s="9">
+        <v>25</v>
+      </c>
+      <c r="CF67" s="9">
+        <v>25</v>
+      </c>
+      <c r="CG67" s="9">
+        <v>25</v>
+      </c>
+      <c r="CH67" s="9">
+        <v>25</v>
+      </c>
+      <c r="CI67" s="9">
+        <v>25</v>
+      </c>
+      <c r="CJ67" s="9">
+        <v>25</v>
+      </c>
+      <c r="CK67" s="9">
+        <v>25</v>
+      </c>
+      <c r="CL67" s="9">
+        <v>25</v>
+      </c>
+      <c r="CM67" s="9">
+        <v>25</v>
+      </c>
+      <c r="CN67" s="1">
+        <v>25</v>
+      </c>
+      <c r="CO67" s="1">
+        <v>25</v>
+      </c>
+      <c r="CP67" s="1">
+        <v>25</v>
+      </c>
+      <c r="CQ67" s="1">
+        <v>25</v>
+      </c>
+      <c r="CR67" s="1">
+        <v>25</v>
+      </c>
+      <c r="CS67" s="1">
+        <v>25</v>
+      </c>
+      <c r="CT67" s="1">
+        <v>25</v>
+      </c>
+      <c r="CU67" s="1">
+        <v>25</v>
+      </c>
+      <c r="CV67" s="1">
+        <v>25</v>
+      </c>
+      <c r="CW67" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" s="9">
+        <v>0</v>
+      </c>
+      <c r="C68" s="9">
+        <v>1</v>
+      </c>
+      <c r="D68" s="9">
+        <v>2</v>
+      </c>
+      <c r="E68" s="9">
+        <v>3</v>
+      </c>
+      <c r="F68" s="9">
+        <v>4</v>
+      </c>
+      <c r="G68" s="9">
+        <v>5</v>
+      </c>
+      <c r="H68" s="9">
+        <v>6</v>
+      </c>
+      <c r="I68" s="9">
+        <v>7</v>
+      </c>
+      <c r="J68" s="9">
+        <v>8</v>
+      </c>
+      <c r="K68" s="9">
+        <v>9</v>
+      </c>
+      <c r="L68" s="9">
+        <v>10</v>
+      </c>
+      <c r="M68" s="9">
+        <v>11</v>
+      </c>
+      <c r="N68" s="9">
+        <v>12</v>
+      </c>
+      <c r="O68" s="9">
+        <v>13</v>
+      </c>
+      <c r="P68" s="9">
+        <v>14</v>
+      </c>
+      <c r="Q68" s="9">
+        <v>15</v>
+      </c>
+      <c r="R68" s="9">
+        <v>16</v>
+      </c>
+      <c r="S68" s="9">
+        <v>17</v>
+      </c>
+      <c r="T68" s="9">
+        <v>18</v>
+      </c>
+      <c r="U68" s="9">
+        <v>20</v>
+      </c>
+      <c r="V68" s="9">
+        <v>20</v>
+      </c>
+      <c r="W68" s="9">
+        <v>20</v>
+      </c>
+      <c r="X68" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y68" s="9">
+        <v>20</v>
+      </c>
+      <c r="Z68" s="9">
+        <v>20</v>
+      </c>
+      <c r="AA68" s="9">
+        <v>20</v>
+      </c>
+      <c r="AB68" s="9">
+        <v>20</v>
+      </c>
+      <c r="AC68" s="9">
+        <v>20</v>
+      </c>
+      <c r="AD68" s="9">
+        <v>20</v>
+      </c>
+      <c r="AE68" s="9">
+        <v>20</v>
+      </c>
+      <c r="AF68" s="9">
+        <v>20</v>
+      </c>
+      <c r="AG68" s="9">
+        <v>20</v>
+      </c>
+      <c r="AH68" s="9">
+        <v>20</v>
+      </c>
+      <c r="AI68" s="9">
+        <v>20</v>
+      </c>
+      <c r="AJ68" s="9">
+        <v>20</v>
+      </c>
+      <c r="AK68" s="9">
+        <v>20</v>
+      </c>
+      <c r="AL68" s="9">
+        <v>20</v>
+      </c>
+      <c r="AM68" s="9">
+        <v>20</v>
+      </c>
+      <c r="AN68" s="9">
+        <v>21</v>
+      </c>
+      <c r="AO68" s="9">
+        <v>21</v>
+      </c>
+      <c r="AP68" s="9">
+        <v>21</v>
+      </c>
+      <c r="AQ68" s="9">
+        <v>21</v>
+      </c>
+      <c r="AR68" s="9">
+        <v>22</v>
+      </c>
+      <c r="AS68" s="9">
+        <v>22</v>
+      </c>
+      <c r="AT68" s="9">
+        <v>22</v>
+      </c>
+      <c r="AU68" s="9">
+        <v>22</v>
+      </c>
+      <c r="AV68" s="9">
+        <v>23</v>
+      </c>
+      <c r="AW68" s="9">
+        <v>23</v>
+      </c>
+      <c r="AX68" s="9">
+        <v>23</v>
+      </c>
+      <c r="AY68" s="9">
+        <v>23</v>
+      </c>
+      <c r="AZ68" s="9">
+        <v>24</v>
+      </c>
+      <c r="BA68" s="9">
+        <v>24</v>
+      </c>
+      <c r="BB68" s="9">
+        <v>24</v>
+      </c>
+      <c r="BC68" s="9">
+        <v>24</v>
+      </c>
+      <c r="BD68" s="9">
+        <v>25</v>
+      </c>
+      <c r="BE68" s="9">
+        <v>25</v>
+      </c>
+      <c r="BF68" s="9">
+        <v>25</v>
+      </c>
+      <c r="BG68" s="9">
+        <v>25</v>
+      </c>
+      <c r="BH68" s="9">
+        <v>25</v>
+      </c>
+      <c r="BI68" s="9">
+        <v>25</v>
+      </c>
+      <c r="BJ68" s="9">
+        <v>25</v>
+      </c>
+      <c r="BK68" s="9">
+        <v>25</v>
+      </c>
+      <c r="BL68" s="9">
+        <v>25</v>
+      </c>
+      <c r="BM68" s="9">
+        <v>25</v>
+      </c>
+      <c r="BN68" s="9">
+        <v>25</v>
+      </c>
+      <c r="BO68" s="9">
+        <v>25</v>
+      </c>
+      <c r="BP68" s="9">
+        <v>25</v>
+      </c>
+      <c r="BQ68" s="9">
+        <v>25</v>
+      </c>
+      <c r="BR68" s="9">
+        <v>25</v>
+      </c>
+      <c r="BS68" s="9">
+        <v>25</v>
+      </c>
+      <c r="BT68" s="9">
+        <v>25</v>
+      </c>
+      <c r="BU68" s="9">
+        <v>25</v>
+      </c>
+      <c r="BV68" s="9">
+        <v>25</v>
+      </c>
+      <c r="BW68" s="9">
+        <v>25</v>
+      </c>
+      <c r="BX68" s="9">
+        <v>25</v>
+      </c>
+      <c r="BY68" s="9">
+        <v>25</v>
+      </c>
+      <c r="BZ68" s="9">
+        <v>25</v>
+      </c>
+      <c r="CA68" s="9">
+        <v>25</v>
+      </c>
+      <c r="CB68" s="9">
+        <v>25</v>
+      </c>
+      <c r="CC68" s="9">
+        <v>25</v>
+      </c>
+      <c r="CD68" s="9">
+        <v>25</v>
+      </c>
+      <c r="CE68" s="9">
+        <v>25</v>
+      </c>
+      <c r="CF68" s="9">
+        <v>25</v>
+      </c>
+      <c r="CG68" s="9">
+        <v>25</v>
+      </c>
+      <c r="CH68" s="9">
+        <v>25</v>
+      </c>
+      <c r="CI68" s="9">
+        <v>25</v>
+      </c>
+      <c r="CJ68" s="9">
+        <v>25</v>
+      </c>
+      <c r="CK68" s="9">
+        <v>25</v>
+      </c>
+      <c r="CL68" s="9">
+        <v>25</v>
+      </c>
+      <c r="CM68" s="9">
+        <v>25</v>
+      </c>
+      <c r="CN68" s="1">
+        <v>25</v>
+      </c>
+      <c r="CO68" s="1">
+        <v>25</v>
+      </c>
+      <c r="CP68" s="1">
+        <v>25</v>
+      </c>
+      <c r="CQ68" s="1">
+        <v>25</v>
+      </c>
+      <c r="CR68" s="1">
+        <v>25</v>
+      </c>
+      <c r="CS68" s="1">
+        <v>25</v>
+      </c>
+      <c r="CT68" s="1">
+        <v>25</v>
+      </c>
+      <c r="CU68" s="1">
+        <v>25</v>
+      </c>
+      <c r="CV68" s="1">
+        <v>25</v>
+      </c>
+      <c r="CW68" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="10">
+        <v>0</v>
+      </c>
+      <c r="C69" s="10">
+        <v>0</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0</v>
+      </c>
+      <c r="E69" s="10">
+        <v>0</v>
+      </c>
+      <c r="F69" s="10">
+        <v>1</v>
+      </c>
+      <c r="G69" s="10">
+        <v>1</v>
+      </c>
+      <c r="H69" s="10">
+        <v>1</v>
+      </c>
+      <c r="I69" s="10">
+        <v>1</v>
+      </c>
+      <c r="J69" s="10">
+        <v>1</v>
+      </c>
+      <c r="K69" s="10">
+        <v>2</v>
+      </c>
+      <c r="L69" s="10">
+        <v>2</v>
+      </c>
+      <c r="M69" s="10">
+        <v>2</v>
+      </c>
+      <c r="N69" s="10">
+        <v>3</v>
+      </c>
+      <c r="O69" s="10">
+        <v>3</v>
+      </c>
+      <c r="P69" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q69" s="10">
+        <v>4</v>
+      </c>
+      <c r="R69" s="10">
+        <v>4</v>
+      </c>
+      <c r="S69" s="10">
+        <v>4</v>
+      </c>
+      <c r="T69" s="10">
+        <v>4</v>
+      </c>
+      <c r="U69" s="10">
+        <v>5</v>
+      </c>
+      <c r="V69" s="10">
+        <v>5</v>
+      </c>
+      <c r="W69" s="10">
+        <v>5</v>
+      </c>
+      <c r="X69" s="10">
+        <v>5</v>
+      </c>
+      <c r="Y69" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z69" s="10">
+        <v>5</v>
+      </c>
+      <c r="AA69" s="10">
+        <v>5</v>
+      </c>
+      <c r="AB69" s="10">
+        <v>5</v>
+      </c>
+      <c r="AC69" s="10">
+        <v>5</v>
+      </c>
+      <c r="AD69" s="10">
+        <v>5</v>
+      </c>
+      <c r="AE69" s="10">
+        <v>5</v>
+      </c>
+      <c r="AF69" s="10">
+        <v>5</v>
+      </c>
+      <c r="AG69" s="10">
+        <v>5</v>
+      </c>
+      <c r="AH69" s="10">
+        <v>5</v>
+      </c>
+      <c r="AI69" s="10">
+        <v>5</v>
+      </c>
+      <c r="AJ69" s="10">
+        <v>5</v>
+      </c>
+      <c r="AK69" s="10">
+        <v>5</v>
+      </c>
+      <c r="AL69" s="10">
+        <v>5</v>
+      </c>
+      <c r="AM69" s="10">
+        <v>5</v>
+      </c>
+      <c r="AN69" s="10">
+        <v>5</v>
+      </c>
+      <c r="AO69" s="10">
+        <v>5</v>
+      </c>
+      <c r="AP69" s="10">
+        <v>6</v>
+      </c>
+      <c r="AQ69" s="10">
+        <v>6</v>
+      </c>
+      <c r="AR69" s="10">
+        <v>6</v>
+      </c>
+      <c r="AS69" s="10">
+        <v>6</v>
+      </c>
+      <c r="AT69" s="10">
+        <v>7</v>
+      </c>
+      <c r="AU69" s="10">
+        <v>7</v>
+      </c>
+      <c r="AV69" s="10">
+        <v>7</v>
+      </c>
+      <c r="AW69" s="10">
+        <v>7</v>
+      </c>
+      <c r="AX69" s="10">
+        <v>8</v>
+      </c>
+      <c r="AY69" s="10">
+        <v>8</v>
+      </c>
+      <c r="AZ69" s="10">
+        <v>8</v>
+      </c>
+      <c r="BA69" s="10">
+        <v>8</v>
+      </c>
+      <c r="BB69" s="10">
+        <v>9</v>
+      </c>
+      <c r="BC69" s="10">
+        <v>9</v>
+      </c>
+      <c r="BD69" s="10">
+        <v>10</v>
+      </c>
+      <c r="BE69" s="10">
+        <v>10</v>
+      </c>
+      <c r="BF69" s="10">
+        <v>10</v>
+      </c>
+      <c r="BG69" s="10">
+        <v>10</v>
+      </c>
+      <c r="BH69" s="10">
+        <v>10</v>
+      </c>
+      <c r="BI69" s="10">
+        <v>10</v>
+      </c>
+      <c r="BJ69" s="10">
+        <v>10</v>
+      </c>
+      <c r="BK69" s="10">
+        <v>10</v>
+      </c>
+      <c r="BL69" s="10">
+        <v>10</v>
+      </c>
+      <c r="BM69" s="10">
+        <v>10</v>
+      </c>
+      <c r="BN69" s="10">
+        <v>10</v>
+      </c>
+      <c r="BO69" s="10">
+        <v>10</v>
+      </c>
+      <c r="BP69" s="10">
+        <v>10</v>
+      </c>
+      <c r="BQ69" s="10">
+        <v>10</v>
+      </c>
+      <c r="BR69" s="10">
+        <v>10</v>
+      </c>
+      <c r="BS69" s="10">
+        <v>10</v>
+      </c>
+      <c r="BT69" s="10">
+        <v>10</v>
+      </c>
+      <c r="BU69" s="10">
+        <v>10</v>
+      </c>
+      <c r="BV69" s="10">
+        <v>10</v>
+      </c>
+      <c r="BW69" s="10">
+        <v>10</v>
+      </c>
+      <c r="BX69" s="10">
+        <v>10</v>
+      </c>
+      <c r="BY69" s="10">
+        <v>10</v>
+      </c>
+      <c r="BZ69" s="10">
+        <v>10</v>
+      </c>
+      <c r="CA69" s="10">
+        <v>10</v>
+      </c>
+      <c r="CB69" s="10">
+        <v>10</v>
+      </c>
+      <c r="CC69" s="10">
+        <v>10</v>
+      </c>
+      <c r="CD69" s="10">
+        <v>10</v>
+      </c>
+      <c r="CE69" s="10">
+        <v>10</v>
+      </c>
+      <c r="CF69" s="10">
+        <v>10</v>
+      </c>
+      <c r="CG69" s="10">
+        <v>10</v>
+      </c>
+      <c r="CH69" s="10">
+        <v>10</v>
+      </c>
+      <c r="CI69" s="10">
+        <v>10</v>
+      </c>
+      <c r="CJ69" s="10">
+        <v>10</v>
+      </c>
+      <c r="CK69" s="10">
+        <v>10</v>
+      </c>
+      <c r="CL69" s="10">
+        <v>10</v>
+      </c>
+      <c r="CM69" s="10">
+        <v>10</v>
+      </c>
+      <c r="CN69" s="11">
+        <v>10</v>
+      </c>
+      <c r="CO69" s="11">
+        <v>10</v>
+      </c>
+      <c r="CP69" s="11">
+        <v>10</v>
+      </c>
+      <c r="CQ69" s="11">
+        <v>10</v>
+      </c>
+      <c r="CR69" s="11">
+        <v>10</v>
+      </c>
+      <c r="CS69" s="11">
+        <v>10</v>
+      </c>
+      <c r="CT69" s="11">
+        <v>10</v>
+      </c>
+      <c r="CU69" s="11">
+        <v>10</v>
+      </c>
+      <c r="CV69" s="11">
+        <v>10</v>
+      </c>
+      <c r="CW69" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="B70" s="9">
+        <f>SUM(B62:B69)</f>
+        <v>5</v>
+      </c>
+      <c r="C70" s="9">
+        <f t="shared" ref="C70:BN70" si="46">SUM(C62:C69)</f>
+        <v>10</v>
+      </c>
+      <c r="D70" s="9">
+        <f t="shared" si="46"/>
+        <v>15</v>
+      </c>
+      <c r="E70" s="9">
+        <f t="shared" si="46"/>
+        <v>20</v>
+      </c>
+      <c r="F70" s="9">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="G70" s="9">
+        <f t="shared" si="46"/>
+        <v>30</v>
+      </c>
+      <c r="H70" s="9">
+        <f t="shared" si="46"/>
+        <v>35</v>
+      </c>
+      <c r="I70" s="9">
+        <f t="shared" si="46"/>
+        <v>40</v>
+      </c>
+      <c r="J70" s="9">
+        <f t="shared" si="46"/>
+        <v>45</v>
+      </c>
+      <c r="K70" s="9">
+        <f t="shared" si="46"/>
+        <v>50</v>
+      </c>
+      <c r="L70" s="9">
+        <f t="shared" si="46"/>
+        <v>55</v>
+      </c>
+      <c r="M70" s="9">
+        <f t="shared" si="46"/>
+        <v>60</v>
+      </c>
+      <c r="N70" s="9">
+        <f t="shared" si="46"/>
+        <v>65</v>
+      </c>
+      <c r="O70" s="9">
+        <f t="shared" si="46"/>
+        <v>70</v>
+      </c>
+      <c r="P70" s="9">
+        <f t="shared" si="46"/>
+        <v>75</v>
+      </c>
+      <c r="Q70" s="9">
+        <f t="shared" si="46"/>
+        <v>80</v>
+      </c>
+      <c r="R70" s="9">
+        <f t="shared" si="46"/>
+        <v>85</v>
+      </c>
+      <c r="S70" s="9">
+        <f t="shared" si="46"/>
+        <v>90</v>
+      </c>
+      <c r="T70" s="9">
+        <f t="shared" si="46"/>
+        <v>95</v>
+      </c>
+      <c r="U70" s="9">
+        <f t="shared" si="46"/>
+        <v>100</v>
+      </c>
+      <c r="V70" s="9">
+        <f t="shared" si="46"/>
+        <v>105</v>
+      </c>
+      <c r="W70" s="9">
+        <f t="shared" si="46"/>
+        <v>110</v>
+      </c>
+      <c r="X70" s="9">
+        <f t="shared" si="46"/>
+        <v>115</v>
+      </c>
+      <c r="Y70" s="9">
+        <f t="shared" si="46"/>
+        <v>120</v>
+      </c>
+      <c r="Z70" s="9">
+        <f t="shared" si="46"/>
+        <v>125</v>
+      </c>
+      <c r="AA70" s="9">
+        <f t="shared" si="46"/>
+        <v>130</v>
+      </c>
+      <c r="AB70" s="9">
+        <f t="shared" si="46"/>
+        <v>135</v>
+      </c>
+      <c r="AC70" s="9">
+        <f t="shared" si="46"/>
+        <v>140</v>
+      </c>
+      <c r="AD70" s="9">
+        <f t="shared" si="46"/>
+        <v>145</v>
+      </c>
+      <c r="AE70" s="9">
+        <f t="shared" si="46"/>
+        <v>150</v>
+      </c>
+      <c r="AF70" s="9">
+        <f t="shared" si="46"/>
+        <v>155</v>
+      </c>
+      <c r="AG70" s="9">
+        <f t="shared" si="46"/>
+        <v>160</v>
+      </c>
+      <c r="AH70" s="9">
+        <f t="shared" si="46"/>
+        <v>165</v>
+      </c>
+      <c r="AI70" s="9">
+        <f t="shared" si="46"/>
+        <v>170</v>
+      </c>
+      <c r="AJ70" s="9">
+        <f t="shared" si="46"/>
+        <v>175</v>
+      </c>
+      <c r="AK70" s="9">
+        <f t="shared" si="46"/>
+        <v>180</v>
+      </c>
+      <c r="AL70" s="9">
+        <f t="shared" si="46"/>
+        <v>185</v>
+      </c>
+      <c r="AM70" s="9">
+        <f t="shared" si="46"/>
+        <v>190</v>
+      </c>
+      <c r="AN70" s="9">
+        <f t="shared" si="46"/>
+        <v>195</v>
+      </c>
+      <c r="AO70" s="9">
+        <f t="shared" si="46"/>
+        <v>200</v>
+      </c>
+      <c r="AP70" s="9">
+        <f t="shared" si="46"/>
+        <v>205</v>
+      </c>
+      <c r="AQ70" s="9">
+        <f t="shared" si="46"/>
+        <v>210</v>
+      </c>
+      <c r="AR70" s="9">
+        <f t="shared" si="46"/>
+        <v>215</v>
+      </c>
+      <c r="AS70" s="9">
+        <f t="shared" si="46"/>
+        <v>220</v>
+      </c>
+      <c r="AT70" s="9">
+        <f t="shared" si="46"/>
+        <v>225</v>
+      </c>
+      <c r="AU70" s="9">
+        <f t="shared" si="46"/>
+        <v>230</v>
+      </c>
+      <c r="AV70" s="9">
+        <f t="shared" si="46"/>
+        <v>235</v>
+      </c>
+      <c r="AW70" s="9">
+        <f t="shared" si="46"/>
+        <v>240</v>
+      </c>
+      <c r="AX70" s="9">
+        <f t="shared" si="46"/>
+        <v>245</v>
+      </c>
+      <c r="AY70" s="9">
+        <f t="shared" si="46"/>
+        <v>250</v>
+      </c>
+      <c r="AZ70" s="9">
+        <f t="shared" si="46"/>
+        <v>255</v>
+      </c>
+      <c r="BA70" s="9">
+        <f t="shared" si="46"/>
+        <v>260</v>
+      </c>
+      <c r="BB70" s="9">
+        <f t="shared" si="46"/>
+        <v>265</v>
+      </c>
+      <c r="BC70" s="9">
+        <f t="shared" si="46"/>
+        <v>270</v>
+      </c>
+      <c r="BD70" s="9">
+        <f t="shared" si="46"/>
+        <v>275</v>
+      </c>
+      <c r="BE70" s="9">
+        <f t="shared" si="46"/>
+        <v>280</v>
+      </c>
+      <c r="BF70" s="9">
+        <f t="shared" si="46"/>
+        <v>285</v>
+      </c>
+      <c r="BG70" s="9">
+        <f t="shared" si="46"/>
+        <v>290</v>
+      </c>
+      <c r="BH70" s="9">
+        <f t="shared" si="46"/>
+        <v>295</v>
+      </c>
+      <c r="BI70" s="9">
+        <f t="shared" si="46"/>
+        <v>300</v>
+      </c>
+      <c r="BJ70" s="9">
+        <f t="shared" si="46"/>
+        <v>305</v>
+      </c>
+      <c r="BK70" s="9">
+        <f t="shared" si="46"/>
+        <v>310</v>
+      </c>
+      <c r="BL70" s="9">
+        <f t="shared" si="46"/>
+        <v>315</v>
+      </c>
+      <c r="BM70" s="9">
+        <f t="shared" si="46"/>
+        <v>320</v>
+      </c>
+      <c r="BN70" s="9">
+        <f t="shared" si="46"/>
+        <v>325</v>
+      </c>
+      <c r="BO70" s="9">
+        <f t="shared" ref="BO70:CW70" si="47">SUM(BO62:BO69)</f>
+        <v>330</v>
+      </c>
+      <c r="BP70" s="9">
+        <f t="shared" si="47"/>
+        <v>335</v>
+      </c>
+      <c r="BQ70" s="9">
+        <f t="shared" si="47"/>
+        <v>340</v>
+      </c>
+      <c r="BR70" s="9">
+        <f t="shared" si="47"/>
+        <v>345</v>
+      </c>
+      <c r="BS70" s="9">
+        <f t="shared" si="47"/>
+        <v>350</v>
+      </c>
+      <c r="BT70" s="9">
+        <f t="shared" si="47"/>
+        <v>355</v>
+      </c>
+      <c r="BU70" s="9">
+        <f t="shared" si="47"/>
+        <v>360</v>
+      </c>
+      <c r="BV70" s="9">
+        <f t="shared" si="47"/>
+        <v>365</v>
+      </c>
+      <c r="BW70" s="9">
+        <f t="shared" si="47"/>
+        <v>370</v>
+      </c>
+      <c r="BX70" s="9">
+        <f t="shared" si="47"/>
+        <v>375</v>
+      </c>
+      <c r="BY70" s="9">
+        <f t="shared" si="47"/>
+        <v>380</v>
+      </c>
+      <c r="BZ70" s="9">
+        <f t="shared" si="47"/>
+        <v>385</v>
+      </c>
+      <c r="CA70" s="9">
+        <f t="shared" si="47"/>
+        <v>390</v>
+      </c>
+      <c r="CB70" s="9">
+        <f t="shared" si="47"/>
+        <v>395</v>
+      </c>
+      <c r="CC70" s="9">
+        <f t="shared" si="47"/>
+        <v>400</v>
+      </c>
+      <c r="CD70" s="9">
+        <f t="shared" si="47"/>
+        <v>405</v>
+      </c>
+      <c r="CE70" s="9">
+        <f t="shared" si="47"/>
+        <v>410</v>
+      </c>
+      <c r="CF70" s="9">
+        <f t="shared" si="47"/>
+        <v>415</v>
+      </c>
+      <c r="CG70" s="9">
+        <f t="shared" si="47"/>
+        <v>420</v>
+      </c>
+      <c r="CH70" s="9">
+        <f t="shared" si="47"/>
+        <v>425</v>
+      </c>
+      <c r="CI70" s="9">
+        <f t="shared" si="47"/>
+        <v>430</v>
+      </c>
+      <c r="CJ70" s="9">
+        <f t="shared" si="47"/>
+        <v>435</v>
+      </c>
+      <c r="CK70" s="9">
+        <f t="shared" si="47"/>
+        <v>440</v>
+      </c>
+      <c r="CL70" s="9">
+        <f t="shared" si="47"/>
+        <v>445</v>
+      </c>
+      <c r="CM70" s="9">
+        <f t="shared" si="47"/>
+        <v>450</v>
+      </c>
+      <c r="CN70" s="1">
+        <f>SUM(CN62:CN69)</f>
+        <v>455</v>
+      </c>
+      <c r="CO70" s="1">
+        <f t="shared" si="47"/>
+        <v>460</v>
+      </c>
+      <c r="CP70" s="1">
+        <f t="shared" si="47"/>
+        <v>465</v>
+      </c>
+      <c r="CQ70" s="1">
+        <f t="shared" si="47"/>
+        <v>470</v>
+      </c>
+      <c r="CR70" s="1">
+        <f t="shared" si="47"/>
+        <v>475</v>
+      </c>
+      <c r="CS70" s="1">
+        <f t="shared" si="47"/>
+        <v>480</v>
+      </c>
+      <c r="CT70" s="1">
+        <f t="shared" si="47"/>
+        <v>485</v>
+      </c>
+      <c r="CU70" s="1">
+        <f t="shared" si="47"/>
+        <v>490</v>
+      </c>
+      <c r="CV70" s="1">
+        <f t="shared" si="47"/>
+        <v>495</v>
+      </c>
+      <c r="CW70" s="1">
+        <f t="shared" si="47"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="B73" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U73" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD73" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BH73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BJ73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BM73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BN73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BO73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BP73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BQ73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BR73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BS73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BT73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BU73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BV73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BX73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BY73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="BZ73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CB73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CC73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CE73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CF73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CG73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CH73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CI73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CK73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CL73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CM73" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN73" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO73" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP73" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ73" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR73" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS73" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT73" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU73" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV73" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW73" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74">
+        <v>6</v>
+      </c>
+      <c r="H74">
+        <v>6</v>
+      </c>
+      <c r="I74">
+        <v>6</v>
+      </c>
+      <c r="J74">
+        <v>7</v>
+      </c>
+      <c r="K74">
+        <v>9</v>
+      </c>
+      <c r="L74">
+        <v>10</v>
+      </c>
+      <c r="M74">
+        <v>11</v>
+      </c>
+      <c r="N74">
+        <v>12</v>
+      </c>
+      <c r="O74">
+        <v>14</v>
+      </c>
+      <c r="P74">
+        <v>15</v>
+      </c>
+      <c r="Q74">
+        <v>16</v>
+      </c>
+      <c r="R74">
+        <v>17</v>
+      </c>
+      <c r="S74">
+        <v>18</v>
+      </c>
+      <c r="T74">
+        <v>19</v>
+      </c>
+      <c r="U74">
+        <v>20</v>
+      </c>
+      <c r="V74" s="9">
+        <v>20</v>
+      </c>
+      <c r="W74" s="9">
+        <v>20</v>
+      </c>
+      <c r="X74" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y74" s="9">
+        <v>20</v>
+      </c>
+      <c r="Z74" s="9">
+        <v>21</v>
+      </c>
+      <c r="AA74" s="9">
+        <v>21</v>
+      </c>
+      <c r="AB74" s="9">
+        <v>21</v>
+      </c>
+      <c r="AC74" s="9">
+        <v>22</v>
+      </c>
+      <c r="AD74" s="9">
+        <v>22</v>
+      </c>
+      <c r="AE74" s="9">
+        <v>23</v>
+      </c>
+      <c r="AF74" s="9">
+        <v>24</v>
+      </c>
+      <c r="AG74" s="9">
+        <v>25</v>
+      </c>
+      <c r="AH74" s="9">
+        <v>25</v>
+      </c>
+      <c r="AI74" s="9">
+        <v>26</v>
+      </c>
+      <c r="AJ74" s="9">
+        <v>27</v>
+      </c>
+      <c r="AK74" s="9">
+        <v>27</v>
+      </c>
+      <c r="AL74" s="9">
+        <v>28</v>
+      </c>
+      <c r="AM74" s="9">
+        <v>29</v>
+      </c>
+      <c r="AN74" s="9">
+        <v>29</v>
+      </c>
+      <c r="AO74" s="9">
+        <v>30</v>
+      </c>
+      <c r="AP74" s="9">
+        <v>31</v>
+      </c>
+      <c r="AQ74" s="9">
+        <v>31</v>
+      </c>
+      <c r="AR74" s="9">
+        <v>32</v>
+      </c>
+      <c r="AS74" s="9">
+        <v>33</v>
+      </c>
+      <c r="AT74" s="9">
+        <v>33</v>
+      </c>
+      <c r="AU74" s="9">
+        <v>34</v>
+      </c>
+      <c r="AV74" s="9">
+        <v>35</v>
+      </c>
+      <c r="AW74" s="9">
+        <v>35</v>
+      </c>
+      <c r="AX74" s="9">
+        <v>36</v>
+      </c>
+      <c r="AY74" s="9">
+        <v>37</v>
+      </c>
+      <c r="AZ74" s="9">
+        <v>37</v>
+      </c>
+      <c r="BA74" s="9">
+        <v>38</v>
+      </c>
+      <c r="BB74" s="9">
+        <v>39</v>
+      </c>
+      <c r="BC74" s="9">
+        <v>39</v>
+      </c>
+      <c r="BD74" s="9">
+        <v>40</v>
+      </c>
+      <c r="BE74" s="9">
+        <v>40</v>
+      </c>
+      <c r="BF74" s="9">
+        <v>40</v>
+      </c>
+      <c r="BG74" s="9">
+        <v>40</v>
+      </c>
+      <c r="BH74" s="9">
+        <v>40</v>
+      </c>
+      <c r="BI74" s="9">
+        <v>40</v>
+      </c>
+      <c r="BJ74" s="9">
+        <v>40</v>
+      </c>
+      <c r="BK74" s="9">
+        <v>40</v>
+      </c>
+      <c r="BL74" s="9">
+        <v>40</v>
+      </c>
+      <c r="BM74" s="9">
+        <v>40</v>
+      </c>
+      <c r="BN74" s="9">
+        <v>40</v>
+      </c>
+      <c r="BO74" s="9">
+        <v>40</v>
+      </c>
+      <c r="BP74" s="9">
+        <v>40</v>
+      </c>
+      <c r="BQ74" s="9">
+        <v>40</v>
+      </c>
+      <c r="BR74" s="9">
+        <v>40</v>
+      </c>
+      <c r="BS74" s="9">
+        <v>40</v>
+      </c>
+      <c r="BT74" s="9">
+        <v>40</v>
+      </c>
+      <c r="BU74" s="9">
+        <v>40</v>
+      </c>
+      <c r="BV74" s="9">
+        <v>40</v>
+      </c>
+      <c r="BW74" s="9">
+        <v>40</v>
+      </c>
+      <c r="BX74" s="9">
+        <v>40</v>
+      </c>
+      <c r="BY74" s="9">
+        <v>40</v>
+      </c>
+      <c r="BZ74" s="9">
+        <v>40</v>
+      </c>
+      <c r="CA74" s="9">
+        <v>40</v>
+      </c>
+      <c r="CB74" s="9">
+        <v>40</v>
+      </c>
+      <c r="CC74" s="9">
+        <v>40</v>
+      </c>
+      <c r="CD74" s="9">
+        <v>40</v>
+      </c>
+      <c r="CE74" s="9">
+        <v>40</v>
+      </c>
+      <c r="CF74" s="9">
+        <v>40</v>
+      </c>
+      <c r="CG74" s="9">
+        <v>40</v>
+      </c>
+      <c r="CH74" s="9">
+        <v>40</v>
+      </c>
+      <c r="CI74" s="9">
+        <v>40</v>
+      </c>
+      <c r="CJ74" s="9">
+        <v>40</v>
+      </c>
+      <c r="CK74" s="9">
+        <v>40</v>
+      </c>
+      <c r="CL74" s="9">
+        <v>40</v>
+      </c>
+      <c r="CM74" s="9">
+        <v>40</v>
+      </c>
+      <c r="CN74" s="1">
+        <v>40</v>
+      </c>
+      <c r="CO74" s="1">
+        <v>40</v>
+      </c>
+      <c r="CP74" s="1">
+        <v>40</v>
+      </c>
+      <c r="CQ74" s="1">
+        <v>40</v>
+      </c>
+      <c r="CR74" s="1">
+        <v>40</v>
+      </c>
+      <c r="CS74" s="1">
+        <v>40</v>
+      </c>
+      <c r="CT74" s="1">
+        <v>40</v>
+      </c>
+      <c r="CU74" s="1">
+        <v>40</v>
+      </c>
+      <c r="CV74" s="1">
+        <v>40</v>
+      </c>
+      <c r="CW74" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+      <c r="G75">
+        <v>6</v>
+      </c>
+      <c r="H75">
+        <v>8</v>
+      </c>
+      <c r="I75">
+        <v>10</v>
+      </c>
+      <c r="J75">
+        <v>11</v>
+      </c>
+      <c r="K75">
+        <v>12</v>
+      </c>
+      <c r="L75">
+        <v>13</v>
+      </c>
+      <c r="M75">
+        <v>14</v>
+      </c>
+      <c r="N75">
+        <v>15</v>
+      </c>
+      <c r="O75">
+        <v>16</v>
+      </c>
+      <c r="P75">
+        <v>17</v>
+      </c>
+      <c r="Q75">
+        <v>18</v>
+      </c>
+      <c r="R75">
+        <v>19</v>
+      </c>
+      <c r="S75">
+        <v>20</v>
+      </c>
+      <c r="T75">
+        <v>20</v>
+      </c>
+      <c r="U75">
+        <v>20</v>
+      </c>
+      <c r="V75" s="9">
+        <v>20</v>
+      </c>
+      <c r="W75" s="9">
+        <v>21</v>
+      </c>
+      <c r="X75" s="9">
+        <v>22</v>
+      </c>
+      <c r="Y75" s="9">
+        <v>23</v>
+      </c>
+      <c r="Z75" s="9">
+        <v>24</v>
+      </c>
+      <c r="AA75" s="9">
+        <v>25</v>
+      </c>
+      <c r="AB75" s="9">
+        <v>26</v>
+      </c>
+      <c r="AC75" s="9">
+        <v>27</v>
+      </c>
+      <c r="AD75" s="9">
+        <v>27</v>
+      </c>
+      <c r="AE75" s="9">
+        <v>28</v>
+      </c>
+      <c r="AF75" s="9">
+        <v>29</v>
+      </c>
+      <c r="AG75" s="9">
+        <v>29</v>
+      </c>
+      <c r="AH75" s="9">
+        <v>30</v>
+      </c>
+      <c r="AI75" s="9">
+        <v>31</v>
+      </c>
+      <c r="AJ75" s="9">
+        <v>32</v>
+      </c>
+      <c r="AK75" s="9">
+        <v>32</v>
+      </c>
+      <c r="AL75" s="9">
+        <v>33</v>
+      </c>
+      <c r="AM75" s="9">
+        <v>34</v>
+      </c>
+      <c r="AN75" s="9">
+        <v>34</v>
+      </c>
+      <c r="AO75" s="9">
+        <v>35</v>
+      </c>
+      <c r="AP75" s="9">
+        <v>36</v>
+      </c>
+      <c r="AQ75" s="9">
+        <v>36</v>
+      </c>
+      <c r="AR75" s="9">
+        <v>37</v>
+      </c>
+      <c r="AS75" s="9">
+        <v>38</v>
+      </c>
+      <c r="AT75" s="9">
+        <v>38</v>
+      </c>
+      <c r="AU75" s="9">
+        <v>39</v>
+      </c>
+      <c r="AV75" s="9">
+        <v>40</v>
+      </c>
+      <c r="AW75" s="9">
+        <v>40</v>
+      </c>
+      <c r="AX75" s="9">
+        <v>41</v>
+      </c>
+      <c r="AY75" s="9">
+        <v>42</v>
+      </c>
+      <c r="AZ75" s="9">
+        <v>42</v>
+      </c>
+      <c r="BA75" s="9">
+        <v>43</v>
+      </c>
+      <c r="BB75" s="9">
+        <v>43</v>
+      </c>
+      <c r="BC75" s="9">
+        <v>44</v>
+      </c>
+      <c r="BD75" s="9">
+        <v>45</v>
+      </c>
+      <c r="BE75" s="9">
+        <v>45</v>
+      </c>
+      <c r="BF75" s="9">
+        <v>45</v>
+      </c>
+      <c r="BG75" s="9">
+        <v>45</v>
+      </c>
+      <c r="BH75" s="9">
+        <v>45</v>
+      </c>
+      <c r="BI75" s="9">
+        <v>45</v>
+      </c>
+      <c r="BJ75" s="9">
+        <v>45</v>
+      </c>
+      <c r="BK75" s="9">
+        <v>45</v>
+      </c>
+      <c r="BL75" s="9">
+        <v>45</v>
+      </c>
+      <c r="BM75" s="9">
+        <v>45</v>
+      </c>
+      <c r="BN75" s="9">
+        <v>45</v>
+      </c>
+      <c r="BO75" s="9">
+        <v>45</v>
+      </c>
+      <c r="BP75" s="9">
+        <v>45</v>
+      </c>
+      <c r="BQ75" s="9">
+        <v>45</v>
+      </c>
+      <c r="BR75" s="9">
+        <v>45</v>
+      </c>
+      <c r="BS75" s="9">
+        <v>45</v>
+      </c>
+      <c r="BT75" s="9">
+        <v>45</v>
+      </c>
+      <c r="BU75" s="9">
+        <v>45</v>
+      </c>
+      <c r="BV75" s="9">
+        <v>45</v>
+      </c>
+      <c r="BW75" s="9">
+        <v>45</v>
+      </c>
+      <c r="BX75" s="9">
+        <v>45</v>
+      </c>
+      <c r="BY75" s="9">
+        <v>45</v>
+      </c>
+      <c r="BZ75" s="9">
+        <v>45</v>
+      </c>
+      <c r="CA75" s="9">
+        <v>45</v>
+      </c>
+      <c r="CB75" s="9">
+        <v>45</v>
+      </c>
+      <c r="CC75" s="9">
+        <v>45</v>
+      </c>
+      <c r="CD75" s="9">
+        <v>45</v>
+      </c>
+      <c r="CE75" s="9">
+        <v>45</v>
+      </c>
+      <c r="CF75" s="9">
+        <v>45</v>
+      </c>
+      <c r="CG75" s="9">
+        <v>45</v>
+      </c>
+      <c r="CH75" s="9">
+        <v>45</v>
+      </c>
+      <c r="CI75" s="9">
+        <v>45</v>
+      </c>
+      <c r="CJ75" s="9">
+        <v>45</v>
+      </c>
+      <c r="CK75" s="9">
+        <v>45</v>
+      </c>
+      <c r="CL75" s="9">
+        <v>45</v>
+      </c>
+      <c r="CM75" s="9">
+        <v>45</v>
+      </c>
+      <c r="CN75" s="1">
+        <v>45</v>
+      </c>
+      <c r="CO75" s="1">
+        <v>45</v>
+      </c>
+      <c r="CP75" s="1">
+        <v>45</v>
+      </c>
+      <c r="CQ75" s="1">
+        <v>45</v>
+      </c>
+      <c r="CR75" s="1">
+        <v>45</v>
+      </c>
+      <c r="CS75" s="1">
+        <v>45</v>
+      </c>
+      <c r="CT75" s="1">
+        <v>45</v>
+      </c>
+      <c r="CU75" s="1">
+        <v>45</v>
+      </c>
+      <c r="CV75" s="1">
+        <v>45</v>
+      </c>
+      <c r="CW75" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+      <c r="G76">
+        <v>7</v>
+      </c>
+      <c r="H76">
+        <v>7</v>
+      </c>
+      <c r="I76">
+        <v>7</v>
+      </c>
+      <c r="J76">
+        <v>8</v>
+      </c>
+      <c r="K76">
+        <v>9</v>
+      </c>
+      <c r="L76">
+        <v>10</v>
+      </c>
+      <c r="M76">
+        <v>12</v>
+      </c>
+      <c r="N76">
+        <v>13</v>
+      </c>
+      <c r="O76">
+        <v>14</v>
+      </c>
+      <c r="P76">
+        <v>15</v>
+      </c>
+      <c r="Q76">
+        <v>17</v>
+      </c>
+      <c r="R76">
+        <v>18</v>
+      </c>
+      <c r="S76">
+        <v>19</v>
+      </c>
+      <c r="T76">
+        <v>20</v>
+      </c>
+      <c r="U76">
+        <v>20</v>
+      </c>
+      <c r="V76" s="9">
+        <v>20</v>
+      </c>
+      <c r="W76" s="9">
+        <v>21</v>
+      </c>
+      <c r="X76" s="9">
+        <v>22</v>
+      </c>
+      <c r="Y76" s="9">
+        <v>23</v>
+      </c>
+      <c r="Z76" s="9">
+        <v>24</v>
+      </c>
+      <c r="AA76" s="9">
+        <v>25</v>
+      </c>
+      <c r="AB76" s="9">
+        <v>26</v>
+      </c>
+      <c r="AC76" s="9">
+        <v>27</v>
+      </c>
+      <c r="AD76" s="9">
+        <v>28</v>
+      </c>
+      <c r="AE76" s="9">
+        <v>28</v>
+      </c>
+      <c r="AF76" s="9">
+        <v>29</v>
+      </c>
+      <c r="AG76" s="9">
+        <v>30</v>
+      </c>
+      <c r="AH76" s="9">
+        <v>30</v>
+      </c>
+      <c r="AI76" s="9">
+        <v>31</v>
+      </c>
+      <c r="AJ76" s="9">
+        <v>32</v>
+      </c>
+      <c r="AK76" s="9">
+        <v>33</v>
+      </c>
+      <c r="AL76" s="9">
+        <v>33</v>
+      </c>
+      <c r="AM76" s="9">
+        <v>34</v>
+      </c>
+      <c r="AN76" s="9">
+        <v>35</v>
+      </c>
+      <c r="AO76" s="9">
+        <v>35</v>
+      </c>
+      <c r="AP76" s="9">
+        <v>36</v>
+      </c>
+      <c r="AQ76" s="9">
+        <v>37</v>
+      </c>
+      <c r="AR76" s="9">
+        <v>37</v>
+      </c>
+      <c r="AS76" s="9">
+        <v>38</v>
+      </c>
+      <c r="AT76" s="9">
+        <v>39</v>
+      </c>
+      <c r="AU76" s="9">
+        <v>39</v>
+      </c>
+      <c r="AV76" s="9">
+        <v>40</v>
+      </c>
+      <c r="AW76" s="9">
+        <v>41</v>
+      </c>
+      <c r="AX76" s="9">
+        <v>41</v>
+      </c>
+      <c r="AY76" s="9">
+        <v>42</v>
+      </c>
+      <c r="AZ76" s="9">
+        <v>43</v>
+      </c>
+      <c r="BA76" s="9">
+        <v>43</v>
+      </c>
+      <c r="BB76" s="9">
+        <v>44</v>
+      </c>
+      <c r="BC76" s="9">
+        <v>45</v>
+      </c>
+      <c r="BD76" s="9">
+        <v>45</v>
+      </c>
+      <c r="BE76" s="9">
+        <v>45</v>
+      </c>
+      <c r="BF76" s="9">
+        <v>45</v>
+      </c>
+      <c r="BG76" s="9">
+        <v>45</v>
+      </c>
+      <c r="BH76" s="9">
+        <v>45</v>
+      </c>
+      <c r="BI76" s="9">
+        <v>45</v>
+      </c>
+      <c r="BJ76" s="9">
+        <v>45</v>
+      </c>
+      <c r="BK76" s="9">
+        <v>45</v>
+      </c>
+      <c r="BL76" s="9">
+        <v>45</v>
+      </c>
+      <c r="BM76" s="9">
+        <v>45</v>
+      </c>
+      <c r="BN76" s="9">
+        <v>45</v>
+      </c>
+      <c r="BO76" s="9">
+        <v>45</v>
+      </c>
+      <c r="BP76" s="9">
+        <v>45</v>
+      </c>
+      <c r="BQ76" s="9">
+        <v>45</v>
+      </c>
+      <c r="BR76" s="9">
+        <v>45</v>
+      </c>
+      <c r="BS76" s="9">
+        <v>45</v>
+      </c>
+      <c r="BT76" s="9">
+        <v>45</v>
+      </c>
+      <c r="BU76" s="9">
+        <v>45</v>
+      </c>
+      <c r="BV76" s="9">
+        <v>45</v>
+      </c>
+      <c r="BW76" s="9">
+        <v>45</v>
+      </c>
+      <c r="BX76" s="9">
+        <v>45</v>
+      </c>
+      <c r="BY76" s="9">
+        <v>45</v>
+      </c>
+      <c r="BZ76" s="9">
+        <v>45</v>
+      </c>
+      <c r="CA76" s="9">
+        <v>45</v>
+      </c>
+      <c r="CB76" s="9">
+        <v>45</v>
+      </c>
+      <c r="CC76" s="9">
+        <v>45</v>
+      </c>
+      <c r="CD76" s="9">
+        <v>45</v>
+      </c>
+      <c r="CE76" s="9">
+        <v>45</v>
+      </c>
+      <c r="CF76" s="9">
+        <v>45</v>
+      </c>
+      <c r="CG76" s="9">
+        <v>45</v>
+      </c>
+      <c r="CH76" s="9">
+        <v>45</v>
+      </c>
+      <c r="CI76" s="9">
+        <v>45</v>
+      </c>
+      <c r="CJ76" s="9">
+        <v>45</v>
+      </c>
+      <c r="CK76" s="9">
+        <v>45</v>
+      </c>
+      <c r="CL76" s="9">
+        <v>45</v>
+      </c>
+      <c r="CM76" s="9">
+        <v>45</v>
+      </c>
+      <c r="CN76" s="1">
+        <v>45</v>
+      </c>
+      <c r="CO76" s="1">
+        <v>45</v>
+      </c>
+      <c r="CP76" s="1">
+        <v>45</v>
+      </c>
+      <c r="CQ76" s="1">
+        <v>45</v>
+      </c>
+      <c r="CR76" s="1">
+        <v>45</v>
+      </c>
+      <c r="CS76" s="1">
+        <v>45</v>
+      </c>
+      <c r="CT76" s="1">
+        <v>45</v>
+      </c>
+      <c r="CU76" s="1">
+        <v>45</v>
+      </c>
+      <c r="CV76" s="1">
+        <v>45</v>
+      </c>
+      <c r="CW76" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="G77">
+        <v>6</v>
+      </c>
+      <c r="H77">
+        <v>8</v>
+      </c>
+      <c r="I77">
+        <v>10</v>
+      </c>
+      <c r="J77">
+        <v>11</v>
+      </c>
+      <c r="K77">
+        <v>12</v>
+      </c>
+      <c r="L77">
+        <v>13</v>
+      </c>
+      <c r="M77">
+        <v>14</v>
+      </c>
+      <c r="N77">
+        <v>15</v>
+      </c>
+      <c r="O77">
+        <v>16</v>
+      </c>
+      <c r="P77">
+        <v>17</v>
+      </c>
+      <c r="Q77">
+        <v>18</v>
+      </c>
+      <c r="R77">
+        <v>19</v>
+      </c>
+      <c r="S77">
+        <v>20</v>
+      </c>
+      <c r="T77">
+        <v>20</v>
+      </c>
+      <c r="U77">
+        <v>20</v>
+      </c>
+      <c r="V77" s="9">
+        <v>20</v>
+      </c>
+      <c r="W77" s="9">
+        <v>20</v>
+      </c>
+      <c r="X77" s="9">
+        <v>21</v>
+      </c>
+      <c r="Y77" s="9">
+        <v>23</v>
+      </c>
+      <c r="Z77" s="9">
+        <v>24</v>
+      </c>
+      <c r="AA77" s="9">
+        <v>25</v>
+      </c>
+      <c r="AB77" s="9">
+        <v>26</v>
+      </c>
+      <c r="AC77" s="9">
+        <v>26</v>
+      </c>
+      <c r="AD77" s="9">
+        <v>27</v>
+      </c>
+      <c r="AE77" s="9">
+        <v>28</v>
+      </c>
+      <c r="AF77" s="9">
+        <v>29</v>
+      </c>
+      <c r="AG77" s="9">
+        <v>29</v>
+      </c>
+      <c r="AH77" s="9">
+        <v>30</v>
+      </c>
+      <c r="AI77" s="9">
+        <v>31</v>
+      </c>
+      <c r="AJ77" s="9">
+        <v>31</v>
+      </c>
+      <c r="AK77" s="9">
+        <v>32</v>
+      </c>
+      <c r="AL77" s="9">
+        <v>33</v>
+      </c>
+      <c r="AM77" s="9">
+        <v>34</v>
+      </c>
+      <c r="AN77" s="9">
+        <v>34</v>
+      </c>
+      <c r="AO77" s="9">
+        <v>35</v>
+      </c>
+      <c r="AP77" s="9">
+        <v>36</v>
+      </c>
+      <c r="AQ77" s="9">
+        <v>36</v>
+      </c>
+      <c r="AR77" s="9">
+        <v>37</v>
+      </c>
+      <c r="AS77" s="9">
+        <v>38</v>
+      </c>
+      <c r="AT77" s="9">
+        <v>38</v>
+      </c>
+      <c r="AU77" s="9">
+        <v>39</v>
+      </c>
+      <c r="AV77" s="9">
+        <v>40</v>
+      </c>
+      <c r="AW77" s="9">
+        <v>40</v>
+      </c>
+      <c r="AX77" s="9">
+        <v>41</v>
+      </c>
+      <c r="AY77" s="9">
+        <v>42</v>
+      </c>
+      <c r="AZ77" s="9">
+        <v>42</v>
+      </c>
+      <c r="BA77" s="9">
+        <v>43</v>
+      </c>
+      <c r="BB77" s="9">
+        <v>43</v>
+      </c>
+      <c r="BC77" s="9">
+        <v>44</v>
+      </c>
+      <c r="BD77" s="9">
+        <v>45</v>
+      </c>
+      <c r="BE77" s="9">
+        <v>45</v>
+      </c>
+      <c r="BF77" s="9">
+        <v>45</v>
+      </c>
+      <c r="BG77" s="9">
+        <v>45</v>
+      </c>
+      <c r="BH77" s="9">
+        <v>45</v>
+      </c>
+      <c r="BI77" s="9">
+        <v>45</v>
+      </c>
+      <c r="BJ77" s="9">
+        <v>45</v>
+      </c>
+      <c r="BK77" s="9">
+        <v>45</v>
+      </c>
+      <c r="BL77" s="9">
+        <v>45</v>
+      </c>
+      <c r="BM77" s="9">
+        <v>45</v>
+      </c>
+      <c r="BN77" s="9">
+        <v>45</v>
+      </c>
+      <c r="BO77" s="9">
+        <v>45</v>
+      </c>
+      <c r="BP77" s="9">
+        <v>45</v>
+      </c>
+      <c r="BQ77" s="9">
+        <v>45</v>
+      </c>
+      <c r="BR77" s="9">
+        <v>45</v>
+      </c>
+      <c r="BS77" s="9">
+        <v>45</v>
+      </c>
+      <c r="BT77" s="9">
+        <v>45</v>
+      </c>
+      <c r="BU77" s="9">
+        <v>45</v>
+      </c>
+      <c r="BV77" s="9">
+        <v>45</v>
+      </c>
+      <c r="BW77" s="9">
+        <v>45</v>
+      </c>
+      <c r="BX77" s="9">
+        <v>45</v>
+      </c>
+      <c r="BY77" s="9">
+        <v>45</v>
+      </c>
+      <c r="BZ77" s="9">
+        <v>45</v>
+      </c>
+      <c r="CA77" s="9">
+        <v>45</v>
+      </c>
+      <c r="CB77" s="9">
+        <v>45</v>
+      </c>
+      <c r="CC77" s="9">
+        <v>45</v>
+      </c>
+      <c r="CD77" s="9">
+        <v>45</v>
+      </c>
+      <c r="CE77" s="9">
+        <v>45</v>
+      </c>
+      <c r="CF77" s="9">
+        <v>45</v>
+      </c>
+      <c r="CG77" s="9">
+        <v>45</v>
+      </c>
+      <c r="CH77" s="9">
+        <v>45</v>
+      </c>
+      <c r="CI77" s="9">
+        <v>45</v>
+      </c>
+      <c r="CJ77" s="9">
+        <v>45</v>
+      </c>
+      <c r="CK77" s="9">
+        <v>45</v>
+      </c>
+      <c r="CL77" s="9">
+        <v>45</v>
+      </c>
+      <c r="CM77" s="9">
+        <v>45</v>
+      </c>
+      <c r="CN77" s="1">
+        <v>45</v>
+      </c>
+      <c r="CO77" s="1">
+        <v>45</v>
+      </c>
+      <c r="CP77" s="1">
+        <v>45</v>
+      </c>
+      <c r="CQ77" s="1">
+        <v>45</v>
+      </c>
+      <c r="CR77" s="1">
+        <v>45</v>
+      </c>
+      <c r="CS77" s="1">
+        <v>45</v>
+      </c>
+      <c r="CT77" s="1">
+        <v>45</v>
+      </c>
+      <c r="CU77" s="1">
+        <v>45</v>
+      </c>
+      <c r="CV77" s="1">
+        <v>45</v>
+      </c>
+      <c r="CW77" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>3</v>
+      </c>
+      <c r="K78">
+        <v>3</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <v>4</v>
+      </c>
+      <c r="O78">
+        <v>4</v>
+      </c>
+      <c r="P78">
+        <v>4</v>
+      </c>
+      <c r="Q78">
+        <v>4</v>
+      </c>
+      <c r="R78">
+        <v>4</v>
+      </c>
+      <c r="S78">
+        <v>5</v>
+      </c>
+      <c r="T78">
+        <v>6</v>
+      </c>
+      <c r="U78">
+        <v>7</v>
+      </c>
+      <c r="V78" s="9">
+        <v>12</v>
+      </c>
+      <c r="W78" s="9">
+        <v>15</v>
+      </c>
+      <c r="X78" s="9">
+        <v>17</v>
+      </c>
+      <c r="Y78" s="9">
+        <v>18</v>
+      </c>
+      <c r="Z78" s="9">
+        <v>19</v>
+      </c>
+      <c r="AA78" s="9">
+        <v>20</v>
+      </c>
+      <c r="AB78" s="9">
+        <v>21</v>
+      </c>
+      <c r="AC78" s="9">
+        <v>22</v>
+      </c>
+      <c r="AD78" s="9">
+        <v>23</v>
+      </c>
+      <c r="AE78" s="9">
+        <v>24</v>
+      </c>
+      <c r="AF78" s="9">
+        <v>24</v>
+      </c>
+      <c r="AG78" s="9">
+        <v>25</v>
+      </c>
+      <c r="AH78" s="9">
+        <v>26</v>
+      </c>
+      <c r="AI78" s="9">
+        <v>26</v>
+      </c>
+      <c r="AJ78" s="9">
+        <v>27</v>
+      </c>
+      <c r="AK78" s="9">
+        <v>28</v>
+      </c>
+      <c r="AL78" s="9">
+        <v>29</v>
+      </c>
+      <c r="AM78" s="9">
+        <v>29</v>
+      </c>
+      <c r="AN78" s="9">
+        <v>30</v>
+      </c>
+      <c r="AO78" s="9">
+        <v>31</v>
+      </c>
+      <c r="AP78" s="9">
+        <v>31</v>
+      </c>
+      <c r="AQ78" s="9">
+        <v>32</v>
+      </c>
+      <c r="AR78" s="9">
+        <v>33</v>
+      </c>
+      <c r="AS78" s="9">
+        <v>33</v>
+      </c>
+      <c r="AT78" s="9">
+        <v>34</v>
+      </c>
+      <c r="AU78" s="9">
+        <v>35</v>
+      </c>
+      <c r="AV78" s="9">
+        <v>35</v>
+      </c>
+      <c r="AW78" s="9">
+        <v>36</v>
+      </c>
+      <c r="AX78" s="9">
+        <v>37</v>
+      </c>
+      <c r="AY78" s="9">
+        <v>37</v>
+      </c>
+      <c r="AZ78" s="9">
+        <v>38</v>
+      </c>
+      <c r="BA78" s="9">
+        <v>38</v>
+      </c>
+      <c r="BB78" s="9">
+        <v>39</v>
+      </c>
+      <c r="BC78" s="9">
+        <v>40</v>
+      </c>
+      <c r="BD78" s="9">
+        <v>40</v>
+      </c>
+      <c r="BE78" s="9">
+        <v>40</v>
+      </c>
+      <c r="BF78" s="9">
+        <v>40</v>
+      </c>
+      <c r="BG78" s="9">
+        <v>40</v>
+      </c>
+      <c r="BH78" s="9">
+        <v>40</v>
+      </c>
+      <c r="BI78" s="9">
+        <v>40</v>
+      </c>
+      <c r="BJ78" s="9">
+        <v>40</v>
+      </c>
+      <c r="BK78" s="9">
+        <v>40</v>
+      </c>
+      <c r="BL78" s="9">
+        <v>45</v>
+      </c>
+      <c r="BM78" s="9">
+        <v>45</v>
+      </c>
+      <c r="BN78" s="9">
+        <v>45</v>
+      </c>
+      <c r="BO78" s="9">
+        <v>50</v>
+      </c>
+      <c r="BP78" s="9">
+        <v>50</v>
+      </c>
+      <c r="BQ78" s="9">
+        <v>50</v>
+      </c>
+      <c r="BR78" s="9">
+        <v>55</v>
+      </c>
+      <c r="BS78" s="9">
+        <v>55</v>
+      </c>
+      <c r="BT78" s="9">
+        <v>55</v>
+      </c>
+      <c r="BU78" s="9">
+        <v>60</v>
+      </c>
+      <c r="BV78" s="9">
+        <v>60</v>
+      </c>
+      <c r="BW78" s="9">
+        <v>60</v>
+      </c>
+      <c r="BX78" s="9">
+        <v>65</v>
+      </c>
+      <c r="BY78" s="9">
+        <v>65</v>
+      </c>
+      <c r="BZ78" s="9">
+        <v>65</v>
+      </c>
+      <c r="CA78" s="9">
+        <v>70</v>
+      </c>
+      <c r="CB78" s="9">
+        <v>70</v>
+      </c>
+      <c r="CC78" s="9">
+        <v>70</v>
+      </c>
+      <c r="CD78" s="9">
+        <v>75</v>
+      </c>
+      <c r="CE78" s="9">
+        <v>75</v>
+      </c>
+      <c r="CF78" s="9">
+        <v>75</v>
+      </c>
+      <c r="CG78" s="9">
+        <v>80</v>
+      </c>
+      <c r="CH78" s="9">
+        <v>80</v>
+      </c>
+      <c r="CI78" s="9">
+        <v>80</v>
+      </c>
+      <c r="CJ78" s="9">
+        <v>85</v>
+      </c>
+      <c r="CK78" s="9">
+        <v>85</v>
+      </c>
+      <c r="CL78" s="9">
+        <v>85</v>
+      </c>
+      <c r="CM78" s="9">
+        <v>90</v>
+      </c>
+      <c r="CN78" s="1">
+        <v>90</v>
+      </c>
+      <c r="CO78" s="1">
+        <v>90</v>
+      </c>
+      <c r="CP78" s="1">
+        <v>95</v>
+      </c>
+      <c r="CQ78" s="1">
+        <v>95</v>
+      </c>
+      <c r="CR78" s="1">
+        <v>95</v>
+      </c>
+      <c r="CS78" s="1">
+        <v>100</v>
+      </c>
+      <c r="CT78" s="1">
+        <v>100</v>
+      </c>
+      <c r="CU78" s="1">
+        <v>100</v>
+      </c>
+      <c r="CV78" s="1">
+        <v>100</v>
+      </c>
+      <c r="CW78" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>2</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>3</v>
+      </c>
+      <c r="M79">
+        <v>3</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79">
+        <v>3</v>
+      </c>
+      <c r="P79">
+        <v>4</v>
+      </c>
+      <c r="Q79">
+        <v>4</v>
+      </c>
+      <c r="R79">
+        <v>4</v>
+      </c>
+      <c r="S79">
+        <v>4</v>
+      </c>
+      <c r="T79">
+        <v>5</v>
+      </c>
+      <c r="U79">
+        <v>6</v>
+      </c>
+      <c r="V79" s="9">
+        <v>6</v>
+      </c>
+      <c r="W79" s="9">
+        <v>6</v>
+      </c>
+      <c r="X79" s="9">
+        <v>6</v>
+      </c>
+      <c r="Y79" s="9">
+        <v>6</v>
+      </c>
+      <c r="Z79" s="9">
+        <v>6</v>
+      </c>
+      <c r="AA79" s="9">
+        <v>6</v>
+      </c>
+      <c r="AB79" s="9">
+        <v>6</v>
+      </c>
+      <c r="AC79" s="9">
+        <v>7</v>
+      </c>
+      <c r="AD79" s="9">
+        <v>8</v>
+      </c>
+      <c r="AE79" s="9">
+        <v>8</v>
+      </c>
+      <c r="AF79" s="9">
+        <v>9</v>
+      </c>
+      <c r="AG79" s="9">
+        <v>10</v>
+      </c>
+      <c r="AH79" s="9">
+        <v>11</v>
+      </c>
+      <c r="AI79" s="9">
+        <v>11</v>
+      </c>
+      <c r="AJ79" s="9">
+        <v>12</v>
+      </c>
+      <c r="AK79" s="9">
+        <v>13</v>
+      </c>
+      <c r="AL79" s="9">
+        <v>13</v>
+      </c>
+      <c r="AM79" s="9">
+        <v>14</v>
+      </c>
+      <c r="AN79" s="9">
+        <v>15</v>
+      </c>
+      <c r="AO79" s="9">
+        <v>15</v>
+      </c>
+      <c r="AP79" s="9">
+        <v>16</v>
+      </c>
+      <c r="AQ79" s="9">
+        <v>17</v>
+      </c>
+      <c r="AR79" s="9">
+        <v>17</v>
+      </c>
+      <c r="AS79" s="9">
+        <v>18</v>
+      </c>
+      <c r="AT79" s="9">
+        <v>19</v>
+      </c>
+      <c r="AU79" s="9">
+        <v>19</v>
+      </c>
+      <c r="AV79" s="9">
+        <v>20</v>
+      </c>
+      <c r="AW79" s="9">
+        <v>21</v>
+      </c>
+      <c r="AX79" s="9">
+        <v>21</v>
+      </c>
+      <c r="AY79" s="9">
+        <v>22</v>
+      </c>
+      <c r="AZ79" s="9">
+        <v>23</v>
+      </c>
+      <c r="BA79" s="9">
+        <v>23</v>
+      </c>
+      <c r="BB79" s="9">
+        <v>24</v>
+      </c>
+      <c r="BC79" s="9">
+        <v>24</v>
+      </c>
+      <c r="BD79" s="9">
+        <v>25</v>
+      </c>
+      <c r="BE79" s="9">
+        <v>25</v>
+      </c>
+      <c r="BF79" s="9">
+        <v>30</v>
+      </c>
+      <c r="BG79" s="9">
+        <v>30</v>
+      </c>
+      <c r="BH79" s="9">
+        <v>35</v>
+      </c>
+      <c r="BI79" s="9">
+        <v>35</v>
+      </c>
+      <c r="BJ79" s="9">
+        <v>40</v>
+      </c>
+      <c r="BK79" s="9">
+        <v>40</v>
+      </c>
+      <c r="BL79" s="9">
+        <v>40</v>
+      </c>
+      <c r="BM79" s="9">
+        <v>45</v>
+      </c>
+      <c r="BN79" s="9">
+        <v>45</v>
+      </c>
+      <c r="BO79" s="9">
+        <v>45</v>
+      </c>
+      <c r="BP79" s="9">
+        <v>50</v>
+      </c>
+      <c r="BQ79" s="9">
+        <v>50</v>
+      </c>
+      <c r="BR79" s="9">
+        <v>50</v>
+      </c>
+      <c r="BS79" s="9">
+        <v>55</v>
+      </c>
+      <c r="BT79" s="9">
+        <v>55</v>
+      </c>
+      <c r="BU79" s="9">
+        <v>55</v>
+      </c>
+      <c r="BV79" s="9">
+        <v>60</v>
+      </c>
+      <c r="BW79" s="9">
+        <v>60</v>
+      </c>
+      <c r="BX79" s="9">
+        <v>60</v>
+      </c>
+      <c r="BY79" s="9">
+        <v>65</v>
+      </c>
+      <c r="BZ79" s="9">
+        <v>65</v>
+      </c>
+      <c r="CA79" s="9">
+        <v>65</v>
+      </c>
+      <c r="CB79" s="9">
+        <v>70</v>
+      </c>
+      <c r="CC79" s="9">
+        <v>70</v>
+      </c>
+      <c r="CD79" s="9">
+        <v>70</v>
+      </c>
+      <c r="CE79" s="9">
+        <v>75</v>
+      </c>
+      <c r="CF79" s="9">
+        <v>75</v>
+      </c>
+      <c r="CG79" s="9">
+        <v>75</v>
+      </c>
+      <c r="CH79" s="9">
+        <v>80</v>
+      </c>
+      <c r="CI79" s="9">
+        <v>80</v>
+      </c>
+      <c r="CJ79" s="9">
+        <v>80</v>
+      </c>
+      <c r="CK79" s="9">
+        <v>85</v>
+      </c>
+      <c r="CL79" s="9">
+        <v>85</v>
+      </c>
+      <c r="CM79" s="9">
+        <v>85</v>
+      </c>
+      <c r="CN79" s="1">
+        <v>90</v>
+      </c>
+      <c r="CO79" s="1">
+        <v>90</v>
+      </c>
+      <c r="CP79" s="1">
+        <v>90</v>
+      </c>
+      <c r="CQ79" s="1">
+        <v>95</v>
+      </c>
+      <c r="CR79" s="1">
+        <v>95</v>
+      </c>
+      <c r="CS79" s="1">
+        <v>95</v>
+      </c>
+      <c r="CT79" s="1">
+        <v>100</v>
+      </c>
+      <c r="CU79" s="1">
+        <v>100</v>
+      </c>
+      <c r="CV79" s="1">
+        <v>100</v>
+      </c>
+      <c r="CW79" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>2</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80">
+        <v>2</v>
+      </c>
+      <c r="P80">
+        <v>2</v>
+      </c>
+      <c r="Q80">
+        <v>2</v>
+      </c>
+      <c r="R80">
+        <v>3</v>
+      </c>
+      <c r="S80">
+        <v>3</v>
+      </c>
+      <c r="T80">
+        <v>4</v>
+      </c>
+      <c r="U80">
+        <v>5</v>
+      </c>
+      <c r="V80" s="9">
+        <v>5</v>
+      </c>
+      <c r="W80" s="9">
+        <v>5</v>
+      </c>
+      <c r="X80" s="9">
+        <v>5</v>
+      </c>
+      <c r="Y80" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z80" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA80" s="9">
+        <v>6</v>
+      </c>
+      <c r="AB80" s="9">
+        <v>7</v>
+      </c>
+      <c r="AC80" s="9">
+        <v>7</v>
+      </c>
+      <c r="AD80" s="9">
+        <v>8</v>
+      </c>
+      <c r="AE80" s="9">
+        <v>9</v>
+      </c>
+      <c r="AF80" s="9">
+        <v>9</v>
+      </c>
+      <c r="AG80" s="9">
+        <v>10</v>
+      </c>
+      <c r="AH80" s="9">
+        <v>11</v>
+      </c>
+      <c r="AI80" s="9">
+        <v>12</v>
+      </c>
+      <c r="AJ80" s="9">
+        <v>12</v>
+      </c>
+      <c r="AK80" s="9">
+        <v>13</v>
+      </c>
+      <c r="AL80" s="9">
+        <v>14</v>
+      </c>
+      <c r="AM80" s="9">
+        <v>14</v>
+      </c>
+      <c r="AN80" s="9">
+        <v>15</v>
+      </c>
+      <c r="AO80" s="9">
+        <v>16</v>
+      </c>
+      <c r="AP80" s="9">
+        <v>16</v>
+      </c>
+      <c r="AQ80" s="9">
+        <v>17</v>
+      </c>
+      <c r="AR80" s="9">
+        <v>18</v>
+      </c>
+      <c r="AS80" s="9">
+        <v>18</v>
+      </c>
+      <c r="AT80" s="9">
+        <v>19</v>
+      </c>
+      <c r="AU80" s="9">
+        <v>20</v>
+      </c>
+      <c r="AV80" s="9">
+        <v>20</v>
+      </c>
+      <c r="AW80" s="9">
+        <v>21</v>
+      </c>
+      <c r="AX80" s="9">
+        <v>22</v>
+      </c>
+      <c r="AY80" s="9">
+        <v>22</v>
+      </c>
+      <c r="AZ80" s="9">
+        <v>23</v>
+      </c>
+      <c r="BA80" s="9">
+        <v>24</v>
+      </c>
+      <c r="BB80" s="9">
+        <v>24</v>
+      </c>
+      <c r="BC80" s="9">
+        <v>25</v>
+      </c>
+      <c r="BD80" s="9">
+        <v>25</v>
+      </c>
+      <c r="BE80" s="9">
+        <v>30</v>
+      </c>
+      <c r="BF80" s="9">
+        <v>30</v>
+      </c>
+      <c r="BG80" s="9">
+        <v>35</v>
+      </c>
+      <c r="BH80" s="9">
+        <v>35</v>
+      </c>
+      <c r="BI80" s="9">
+        <v>40</v>
+      </c>
+      <c r="BJ80" s="9">
+        <v>40</v>
+      </c>
+      <c r="BK80" s="9">
+        <v>45</v>
+      </c>
+      <c r="BL80" s="9">
+        <v>45</v>
+      </c>
+      <c r="BM80" s="9">
+        <v>45</v>
+      </c>
+      <c r="BN80" s="9">
+        <v>50</v>
+      </c>
+      <c r="BO80" s="9">
+        <v>50</v>
+      </c>
+      <c r="BP80" s="9">
+        <v>50</v>
+      </c>
+      <c r="BQ80" s="9">
+        <v>55</v>
+      </c>
+      <c r="BR80" s="9">
+        <v>55</v>
+      </c>
+      <c r="BS80" s="9">
+        <v>55</v>
+      </c>
+      <c r="BT80" s="9">
+        <v>60</v>
+      </c>
+      <c r="BU80" s="9">
+        <v>60</v>
+      </c>
+      <c r="BV80" s="9">
+        <v>60</v>
+      </c>
+      <c r="BW80" s="9">
+        <v>65</v>
+      </c>
+      <c r="BX80" s="9">
+        <v>65</v>
+      </c>
+      <c r="BY80" s="9">
+        <v>65</v>
+      </c>
+      <c r="BZ80" s="9">
+        <v>70</v>
+      </c>
+      <c r="CA80" s="9">
+        <v>70</v>
+      </c>
+      <c r="CB80" s="9">
+        <v>70</v>
+      </c>
+      <c r="CC80" s="9">
+        <v>75</v>
+      </c>
+      <c r="CD80" s="9">
+        <v>75</v>
+      </c>
+      <c r="CE80" s="9">
+        <v>75</v>
+      </c>
+      <c r="CF80" s="9">
+        <v>80</v>
+      </c>
+      <c r="CG80" s="9">
+        <v>80</v>
+      </c>
+      <c r="CH80" s="9">
+        <v>80</v>
+      </c>
+      <c r="CI80" s="9">
+        <v>85</v>
+      </c>
+      <c r="CJ80" s="9">
+        <v>85</v>
+      </c>
+      <c r="CK80" s="9">
+        <v>85</v>
+      </c>
+      <c r="CL80" s="9">
+        <v>90</v>
+      </c>
+      <c r="CM80" s="9">
+        <v>90</v>
+      </c>
+      <c r="CN80" s="1">
+        <v>90</v>
+      </c>
+      <c r="CO80" s="1">
+        <v>95</v>
+      </c>
+      <c r="CP80" s="1">
+        <v>95</v>
+      </c>
+      <c r="CQ80" s="1">
+        <v>95</v>
+      </c>
+      <c r="CR80" s="1">
+        <v>100</v>
+      </c>
+      <c r="CS80" s="1">
+        <v>100</v>
+      </c>
+      <c r="CT80" s="1">
+        <v>100</v>
+      </c>
+      <c r="CU80" s="1">
+        <v>100</v>
+      </c>
+      <c r="CV80" s="1">
+        <v>100</v>
+      </c>
+      <c r="CW80" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+      <c r="F81" s="2">
+        <v>1</v>
+      </c>
+      <c r="G81" s="2">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2">
+        <v>1</v>
+      </c>
+      <c r="I81" s="2">
+        <v>1</v>
+      </c>
+      <c r="J81" s="2">
+        <v>1</v>
+      </c>
+      <c r="K81" s="2">
+        <v>1</v>
+      </c>
+      <c r="L81" s="2">
+        <v>1</v>
+      </c>
+      <c r="M81" s="2">
+        <v>1</v>
+      </c>
+      <c r="N81" s="2">
+        <v>1</v>
+      </c>
+      <c r="O81" s="2">
+        <v>1</v>
+      </c>
+      <c r="P81" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>1</v>
+      </c>
+      <c r="R81" s="2">
+        <v>1</v>
+      </c>
+      <c r="S81" s="2">
+        <v>1</v>
+      </c>
+      <c r="T81" s="2">
+        <v>1</v>
+      </c>
+      <c r="U81" s="2">
+        <v>2</v>
+      </c>
+      <c r="V81" s="10">
+        <v>2</v>
+      </c>
+      <c r="W81" s="10">
+        <v>2</v>
+      </c>
+      <c r="X81" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y81" s="10">
+        <v>2</v>
+      </c>
+      <c r="Z81" s="10">
+        <v>2</v>
+      </c>
+      <c r="AA81" s="10">
+        <v>2</v>
+      </c>
+      <c r="AB81" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC81" s="10">
+        <v>2</v>
+      </c>
+      <c r="AD81" s="10">
+        <v>2</v>
+      </c>
+      <c r="AE81" s="10">
+        <v>2</v>
+      </c>
+      <c r="AF81" s="10">
+        <v>2</v>
+      </c>
+      <c r="AG81" s="10">
+        <v>2</v>
+      </c>
+      <c r="AH81" s="10">
+        <v>2</v>
+      </c>
+      <c r="AI81" s="10">
+        <v>2</v>
+      </c>
+      <c r="AJ81" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK81" s="10">
+        <v>2</v>
+      </c>
+      <c r="AL81" s="10">
+        <v>2</v>
+      </c>
+      <c r="AM81" s="10">
+        <v>2</v>
+      </c>
+      <c r="AN81" s="10">
+        <v>3</v>
+      </c>
+      <c r="AO81" s="10">
+        <v>3</v>
+      </c>
+      <c r="AP81" s="10">
+        <v>3</v>
+      </c>
+      <c r="AQ81" s="10">
+        <v>4</v>
+      </c>
+      <c r="AR81" s="10">
+        <v>4</v>
+      </c>
+      <c r="AS81" s="10">
+        <v>4</v>
+      </c>
+      <c r="AT81" s="10">
+        <v>5</v>
+      </c>
+      <c r="AU81" s="10">
+        <v>5</v>
+      </c>
+      <c r="AV81" s="10">
+        <v>5</v>
+      </c>
+      <c r="AW81" s="10">
+        <v>6</v>
+      </c>
+      <c r="AX81" s="10">
+        <v>6</v>
+      </c>
+      <c r="AY81" s="10">
+        <v>6</v>
+      </c>
+      <c r="AZ81" s="10">
+        <v>7</v>
+      </c>
+      <c r="BA81" s="10">
+        <v>8</v>
+      </c>
+      <c r="BB81" s="10">
+        <v>9</v>
+      </c>
+      <c r="BC81" s="10">
+        <v>9</v>
+      </c>
+      <c r="BD81" s="10">
+        <v>10</v>
+      </c>
+      <c r="BE81" s="10">
+        <v>10</v>
+      </c>
+      <c r="BF81" s="10">
+        <v>10</v>
+      </c>
+      <c r="BG81" s="10">
+        <v>10</v>
+      </c>
+      <c r="BH81" s="10">
+        <v>10</v>
+      </c>
+      <c r="BI81" s="10">
+        <v>10</v>
+      </c>
+      <c r="BJ81" s="10">
+        <v>10</v>
+      </c>
+      <c r="BK81" s="10">
+        <v>10</v>
+      </c>
+      <c r="BL81" s="10">
+        <v>10</v>
+      </c>
+      <c r="BM81" s="10">
+        <v>10</v>
+      </c>
+      <c r="BN81" s="10">
+        <v>10</v>
+      </c>
+      <c r="BO81" s="10">
+        <v>10</v>
+      </c>
+      <c r="BP81" s="10">
+        <v>10</v>
+      </c>
+      <c r="BQ81" s="10">
+        <v>10</v>
+      </c>
+      <c r="BR81" s="10">
+        <v>10</v>
+      </c>
+      <c r="BS81" s="10">
+        <v>10</v>
+      </c>
+      <c r="BT81" s="10">
+        <v>10</v>
+      </c>
+      <c r="BU81" s="10">
+        <v>10</v>
+      </c>
+      <c r="BV81" s="10">
+        <v>10</v>
+      </c>
+      <c r="BW81" s="10">
+        <v>10</v>
+      </c>
+      <c r="BX81" s="10">
+        <v>10</v>
+      </c>
+      <c r="BY81" s="10">
+        <v>10</v>
+      </c>
+      <c r="BZ81" s="10">
+        <v>10</v>
+      </c>
+      <c r="CA81" s="10">
+        <v>10</v>
+      </c>
+      <c r="CB81" s="10">
+        <v>10</v>
+      </c>
+      <c r="CC81" s="10">
+        <v>10</v>
+      </c>
+      <c r="CD81" s="10">
+        <v>10</v>
+      </c>
+      <c r="CE81" s="10">
+        <v>10</v>
+      </c>
+      <c r="CF81" s="10">
+        <v>10</v>
+      </c>
+      <c r="CG81" s="10">
+        <v>10</v>
+      </c>
+      <c r="CH81" s="10">
+        <v>10</v>
+      </c>
+      <c r="CI81" s="10">
+        <v>10</v>
+      </c>
+      <c r="CJ81" s="10">
+        <v>10</v>
+      </c>
+      <c r="CK81" s="10">
+        <v>10</v>
+      </c>
+      <c r="CL81" s="10">
+        <v>10</v>
+      </c>
+      <c r="CM81" s="10">
+        <v>10</v>
+      </c>
+      <c r="CN81" s="11">
+        <v>10</v>
+      </c>
+      <c r="CO81" s="11">
+        <v>10</v>
+      </c>
+      <c r="CP81" s="11">
+        <v>10</v>
+      </c>
+      <c r="CQ81" s="11">
+        <v>10</v>
+      </c>
+      <c r="CR81" s="11">
+        <v>10</v>
+      </c>
+      <c r="CS81" s="11">
+        <v>10</v>
+      </c>
+      <c r="CT81" s="11">
+        <v>10</v>
+      </c>
+      <c r="CU81" s="11">
+        <v>15</v>
+      </c>
+      <c r="CV81" s="11">
+        <v>20</v>
+      </c>
+      <c r="CW81" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <f>SUM(B74:B81)</f>
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ref="C82:BN82" si="48">SUM(C74:C81)</f>
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="48"/>
+        <v>15</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="48"/>
+        <v>20</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="48"/>
+        <v>25</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="48"/>
+        <v>30</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="48"/>
+        <v>35</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="48"/>
+        <v>40</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="48"/>
+        <v>45</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="48"/>
+        <v>50</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="48"/>
+        <v>55</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="48"/>
+        <v>60</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="48"/>
+        <v>65</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="48"/>
+        <v>70</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="48"/>
+        <v>75</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="48"/>
+        <v>80</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="48"/>
+        <v>85</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="48"/>
+        <v>90</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="48"/>
+        <v>95</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="48"/>
+        <v>100</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="48"/>
+        <v>105</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="48"/>
+        <v>110</v>
+      </c>
+      <c r="X82">
+        <f t="shared" si="48"/>
+        <v>115</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="48"/>
+        <v>120</v>
+      </c>
+      <c r="Z82">
+        <f t="shared" si="48"/>
+        <v>125</v>
+      </c>
+      <c r="AA82">
+        <f t="shared" si="48"/>
+        <v>130</v>
+      </c>
+      <c r="AB82">
+        <f t="shared" si="48"/>
+        <v>135</v>
+      </c>
+      <c r="AC82">
+        <f t="shared" si="48"/>
+        <v>140</v>
+      </c>
+      <c r="AD82">
+        <f t="shared" si="48"/>
+        <v>145</v>
+      </c>
+      <c r="AE82">
+        <f t="shared" si="48"/>
+        <v>150</v>
+      </c>
+      <c r="AF82">
+        <f t="shared" si="48"/>
+        <v>155</v>
+      </c>
+      <c r="AG82">
+        <f t="shared" si="48"/>
+        <v>160</v>
+      </c>
+      <c r="AH82">
+        <f t="shared" si="48"/>
+        <v>165</v>
+      </c>
+      <c r="AI82">
+        <f t="shared" si="48"/>
+        <v>170</v>
+      </c>
+      <c r="AJ82">
+        <f t="shared" si="48"/>
+        <v>175</v>
+      </c>
+      <c r="AK82">
+        <f t="shared" si="48"/>
+        <v>180</v>
+      </c>
+      <c r="AL82">
+        <f t="shared" si="48"/>
+        <v>185</v>
+      </c>
+      <c r="AM82">
+        <f t="shared" si="48"/>
+        <v>190</v>
+      </c>
+      <c r="AN82">
+        <f t="shared" si="48"/>
+        <v>195</v>
+      </c>
+      <c r="AO82">
+        <f t="shared" si="48"/>
+        <v>200</v>
+      </c>
+      <c r="AP82">
+        <f t="shared" si="48"/>
+        <v>205</v>
+      </c>
+      <c r="AQ82">
+        <f t="shared" si="48"/>
+        <v>210</v>
+      </c>
+      <c r="AR82">
+        <f t="shared" si="48"/>
+        <v>215</v>
+      </c>
+      <c r="AS82">
+        <f t="shared" si="48"/>
+        <v>220</v>
+      </c>
+      <c r="AT82">
+        <f t="shared" si="48"/>
+        <v>225</v>
+      </c>
+      <c r="AU82">
+        <f t="shared" si="48"/>
+        <v>230</v>
+      </c>
+      <c r="AV82">
+        <f t="shared" si="48"/>
+        <v>235</v>
+      </c>
+      <c r="AW82">
+        <f t="shared" si="48"/>
+        <v>240</v>
+      </c>
+      <c r="AX82">
+        <f t="shared" si="48"/>
+        <v>245</v>
+      </c>
+      <c r="AY82">
+        <f t="shared" si="48"/>
+        <v>250</v>
+      </c>
+      <c r="AZ82">
+        <f t="shared" si="48"/>
+        <v>255</v>
+      </c>
+      <c r="BA82">
+        <f t="shared" si="48"/>
+        <v>260</v>
+      </c>
+      <c r="BB82">
+        <f t="shared" si="48"/>
+        <v>265</v>
+      </c>
+      <c r="BC82">
+        <f t="shared" si="48"/>
+        <v>270</v>
+      </c>
+      <c r="BD82">
+        <f t="shared" si="48"/>
+        <v>275</v>
+      </c>
+      <c r="BE82">
+        <f t="shared" si="48"/>
+        <v>280</v>
+      </c>
+      <c r="BF82">
+        <f t="shared" si="48"/>
+        <v>285</v>
+      </c>
+      <c r="BG82">
+        <f t="shared" si="48"/>
+        <v>290</v>
+      </c>
+      <c r="BH82">
+        <f t="shared" si="48"/>
+        <v>295</v>
+      </c>
+      <c r="BI82">
+        <f t="shared" si="48"/>
+        <v>300</v>
+      </c>
+      <c r="BJ82">
+        <f t="shared" si="48"/>
+        <v>305</v>
+      </c>
+      <c r="BK82">
+        <f t="shared" si="48"/>
+        <v>310</v>
+      </c>
+      <c r="BL82">
+        <f t="shared" si="48"/>
+        <v>315</v>
+      </c>
+      <c r="BM82">
+        <f t="shared" si="48"/>
+        <v>320</v>
+      </c>
+      <c r="BN82">
+        <f t="shared" si="48"/>
+        <v>325</v>
+      </c>
+      <c r="BO82">
+        <f t="shared" ref="BO82:CW82" si="49">SUM(BO74:BO81)</f>
+        <v>330</v>
+      </c>
+      <c r="BP82">
+        <f t="shared" si="49"/>
+        <v>335</v>
+      </c>
+      <c r="BQ82">
+        <f t="shared" si="49"/>
+        <v>340</v>
+      </c>
+      <c r="BR82">
+        <f t="shared" si="49"/>
+        <v>345</v>
+      </c>
+      <c r="BS82">
+        <f t="shared" si="49"/>
+        <v>350</v>
+      </c>
+      <c r="BT82">
+        <f t="shared" si="49"/>
+        <v>355</v>
+      </c>
+      <c r="BU82">
+        <f t="shared" si="49"/>
+        <v>360</v>
+      </c>
+      <c r="BV82">
+        <f t="shared" si="49"/>
+        <v>365</v>
+      </c>
+      <c r="BW82">
+        <f t="shared" si="49"/>
+        <v>370</v>
+      </c>
+      <c r="BX82">
+        <f t="shared" si="49"/>
+        <v>375</v>
+      </c>
+      <c r="BY82">
+        <f t="shared" si="49"/>
+        <v>380</v>
+      </c>
+      <c r="BZ82">
+        <f t="shared" si="49"/>
+        <v>385</v>
+      </c>
+      <c r="CA82">
+        <f t="shared" si="49"/>
+        <v>390</v>
+      </c>
+      <c r="CB82">
+        <f t="shared" si="49"/>
+        <v>395</v>
+      </c>
+      <c r="CC82">
+        <f t="shared" si="49"/>
+        <v>400</v>
+      </c>
+      <c r="CD82">
+        <f t="shared" si="49"/>
+        <v>405</v>
+      </c>
+      <c r="CE82">
+        <f t="shared" si="49"/>
+        <v>410</v>
+      </c>
+      <c r="CF82">
+        <f t="shared" si="49"/>
+        <v>415</v>
+      </c>
+      <c r="CG82">
+        <f t="shared" si="49"/>
+        <v>420</v>
+      </c>
+      <c r="CH82">
+        <f t="shared" si="49"/>
+        <v>425</v>
+      </c>
+      <c r="CI82">
+        <f t="shared" si="49"/>
+        <v>430</v>
+      </c>
+      <c r="CJ82">
+        <f t="shared" si="49"/>
+        <v>435</v>
+      </c>
+      <c r="CK82">
+        <f t="shared" si="49"/>
+        <v>440</v>
+      </c>
+      <c r="CL82">
+        <f t="shared" si="49"/>
+        <v>445</v>
+      </c>
+      <c r="CM82">
+        <f t="shared" si="49"/>
+        <v>450</v>
+      </c>
+      <c r="CN82" s="1">
+        <f t="shared" si="49"/>
+        <v>455</v>
+      </c>
+      <c r="CO82" s="1">
+        <f t="shared" si="49"/>
+        <v>460</v>
+      </c>
+      <c r="CP82" s="1">
+        <f t="shared" si="49"/>
+        <v>465</v>
+      </c>
+      <c r="CQ82" s="1">
+        <f t="shared" si="49"/>
+        <v>470</v>
+      </c>
+      <c r="CR82" s="1">
+        <f t="shared" si="49"/>
+        <v>475</v>
+      </c>
+      <c r="CS82" s="1">
+        <f t="shared" si="49"/>
+        <v>480</v>
+      </c>
+      <c r="CT82" s="1">
+        <f t="shared" si="49"/>
+        <v>485</v>
+      </c>
+      <c r="CU82" s="1">
+        <f t="shared" si="49"/>
+        <v>490</v>
+      </c>
+      <c r="CV82" s="1">
+        <f t="shared" si="49"/>
+        <v>495</v>
+      </c>
+      <c r="CW82" s="1">
+        <f t="shared" si="49"/>
         <v>500</v>
       </c>
     </row>

--- a/doc/caste_system.xlsx
+++ b/doc/caste_system.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/349dfb9748b30a92/Asztali gép/ataliasflame_2.0/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11820" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C38DF748-EEAA-48DE-B042-A6B3A3ED25FE}"/>
+  <xr:revisionPtr revIDLastSave="12953" documentId="8_{652F4476-B36F-42CD-831D-0D71B9923ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4B2A6C3-A468-46A2-B476-98E8A23D6807}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="696" activeTab="1" xr2:uid="{CAF51EC3-63EC-48CD-AA7B-C21B3D5D222B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="39">
   <si>
     <t>csavargó</t>
   </si>
@@ -152,6 +152,9 @@
   <si>
     <t>bajnok</t>
   </si>
+  <si>
+    <t>nomád</t>
+  </si>
 </sst>
 </file>
 
@@ -236,6 +239,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1556,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD573711-C846-40DC-8629-19A685998D3E}">
-  <dimension ref="A1:CW106"/>
+  <dimension ref="A1:CW130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="CJ96" sqref="CJ96"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1576,7 +1583,7 @@
     <col min="52" max="53" width="4" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="4" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="57" max="100" width="4" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -23955,214 +23962,214 @@
       <c r="U86">
         <v>20</v>
       </c>
-      <c r="V86" s="8">
+      <c r="V86">
         <v>21</v>
       </c>
-      <c r="W86" s="8">
+      <c r="W86">
         <v>22</v>
       </c>
-      <c r="X86" s="8">
+      <c r="X86">
         <v>23</v>
       </c>
-      <c r="Y86" s="8">
+      <c r="Y86">
         <v>24</v>
       </c>
-      <c r="Z86" s="8">
+      <c r="Z86">
         <v>25</v>
       </c>
-      <c r="AA86" s="8">
+      <c r="AA86">
         <v>26</v>
       </c>
-      <c r="AB86" s="8">
+      <c r="AB86">
         <v>27</v>
       </c>
-      <c r="AC86" s="8">
+      <c r="AC86">
         <v>28</v>
       </c>
-      <c r="AD86" s="8">
+      <c r="AD86">
         <v>29</v>
       </c>
-      <c r="AE86" s="8">
+      <c r="AE86">
         <v>30</v>
       </c>
-      <c r="AF86" s="8">
+      <c r="AF86">
         <v>31</v>
       </c>
-      <c r="AG86" s="8">
+      <c r="AG86">
         <v>32</v>
       </c>
-      <c r="AH86" s="8">
-        <v>33</v>
-      </c>
-      <c r="AI86" s="8">
+      <c r="AH86">
+        <v>33</v>
+      </c>
+      <c r="AI86">
         <v>34</v>
       </c>
-      <c r="AJ86" s="8">
+      <c r="AJ86">
         <v>35</v>
       </c>
-      <c r="AK86" s="8">
+      <c r="AK86">
         <v>36</v>
       </c>
-      <c r="AL86" s="8">
+      <c r="AL86">
         <v>37</v>
       </c>
-      <c r="AM86" s="8">
+      <c r="AM86">
         <v>38</v>
       </c>
-      <c r="AN86" s="8">
+      <c r="AN86">
         <v>39</v>
       </c>
-      <c r="AO86" s="8">
+      <c r="AO86">
         <v>40</v>
       </c>
-      <c r="AP86" s="8">
+      <c r="AP86">
         <v>41</v>
       </c>
-      <c r="AQ86" s="8">
+      <c r="AQ86">
         <v>42</v>
       </c>
-      <c r="AR86" s="8">
+      <c r="AR86">
         <v>43</v>
       </c>
-      <c r="AS86" s="8">
+      <c r="AS86">
         <v>44</v>
       </c>
-      <c r="AT86" s="8">
+      <c r="AT86">
         <v>45</v>
       </c>
-      <c r="AU86" s="8">
+      <c r="AU86">
         <v>46</v>
       </c>
-      <c r="AV86" s="8">
+      <c r="AV86">
         <v>47</v>
       </c>
-      <c r="AW86" s="8">
+      <c r="AW86">
         <v>48</v>
       </c>
-      <c r="AX86" s="8">
+      <c r="AX86">
         <v>49</v>
       </c>
-      <c r="AY86" s="8">
+      <c r="AY86">
         <v>49</v>
       </c>
-      <c r="AZ86" s="8">
+      <c r="AZ86">
         <v>50</v>
       </c>
-      <c r="BA86" s="8">
+      <c r="BA86">
         <v>50</v>
       </c>
-      <c r="BB86" s="8">
+      <c r="BB86">
         <v>50</v>
       </c>
-      <c r="BC86" s="8">
+      <c r="BC86">
         <v>51</v>
       </c>
-      <c r="BD86" s="8">
+      <c r="BD86">
         <v>52</v>
       </c>
-      <c r="BE86" s="8">
+      <c r="BE86">
         <v>53</v>
       </c>
-      <c r="BF86" s="8">
+      <c r="BF86">
         <v>54</v>
       </c>
-      <c r="BG86" s="8">
+      <c r="BG86">
         <v>55</v>
       </c>
-      <c r="BH86" s="8">
+      <c r="BH86">
         <v>56</v>
       </c>
-      <c r="BI86" s="8">
+      <c r="BI86">
         <v>57</v>
       </c>
-      <c r="BJ86" s="8">
+      <c r="BJ86">
         <v>58</v>
       </c>
-      <c r="BK86" s="8">
+      <c r="BK86">
         <v>59</v>
       </c>
-      <c r="BL86" s="8">
+      <c r="BL86">
         <v>60</v>
       </c>
-      <c r="BM86" s="8">
+      <c r="BM86">
         <v>61</v>
       </c>
-      <c r="BN86" s="8">
+      <c r="BN86">
         <v>62</v>
       </c>
-      <c r="BO86" s="8">
+      <c r="BO86">
         <v>63</v>
       </c>
-      <c r="BP86" s="8">
+      <c r="BP86">
         <v>64</v>
       </c>
-      <c r="BQ86" s="8">
+      <c r="BQ86">
         <v>64</v>
       </c>
-      <c r="BR86" s="8">
+      <c r="BR86">
         <v>65</v>
       </c>
-      <c r="BS86" s="8">
+      <c r="BS86">
         <v>65</v>
       </c>
-      <c r="BT86" s="8">
+      <c r="BT86">
         <v>66</v>
       </c>
-      <c r="BU86" s="8">
+      <c r="BU86">
         <v>66</v>
       </c>
-      <c r="BV86" s="8">
+      <c r="BV86">
         <v>67</v>
       </c>
-      <c r="BW86" s="8">
+      <c r="BW86">
         <v>67</v>
       </c>
-      <c r="BX86" s="8">
+      <c r="BX86">
         <v>68</v>
       </c>
-      <c r="BY86" s="8">
+      <c r="BY86">
         <v>68</v>
       </c>
-      <c r="BZ86" s="8">
+      <c r="BZ86">
         <v>69</v>
       </c>
-      <c r="CA86" s="8">
+      <c r="CA86">
         <v>69</v>
       </c>
-      <c r="CB86" s="8">
+      <c r="CB86">
         <v>70</v>
       </c>
-      <c r="CC86" s="8">
+      <c r="CC86">
         <v>70</v>
       </c>
-      <c r="CD86" s="8">
+      <c r="CD86">
         <v>71</v>
       </c>
-      <c r="CE86" s="8">
+      <c r="CE86">
         <v>71</v>
       </c>
-      <c r="CF86" s="8">
+      <c r="CF86">
         <v>72</v>
       </c>
-      <c r="CG86" s="8">
+      <c r="CG86">
         <v>72</v>
       </c>
-      <c r="CH86" s="8">
+      <c r="CH86">
         <v>73</v>
       </c>
-      <c r="CI86" s="8">
+      <c r="CI86">
         <v>73</v>
       </c>
-      <c r="CJ86" s="8">
+      <c r="CJ86">
         <v>74</v>
       </c>
-      <c r="CK86" s="8">
+      <c r="CK86">
         <v>74</v>
       </c>
-      <c r="CL86" s="8">
+      <c r="CL86">
         <v>75</v>
       </c>
-      <c r="CM86" s="8">
+      <c r="CM86">
         <v>75</v>
       </c>
       <c r="CN86" s="1">
@@ -24260,214 +24267,214 @@
       <c r="U87">
         <v>20</v>
       </c>
-      <c r="V87" s="8">
+      <c r="V87">
         <v>21</v>
       </c>
-      <c r="W87" s="8">
+      <c r="W87">
         <v>22</v>
       </c>
-      <c r="X87" s="8">
+      <c r="X87">
         <v>23</v>
       </c>
-      <c r="Y87" s="8">
+      <c r="Y87">
         <v>24</v>
       </c>
-      <c r="Z87" s="8">
+      <c r="Z87">
         <v>25</v>
       </c>
-      <c r="AA87" s="8">
+      <c r="AA87">
         <v>26</v>
       </c>
-      <c r="AB87" s="8">
+      <c r="AB87">
         <v>27</v>
       </c>
-      <c r="AC87" s="8">
+      <c r="AC87">
         <v>28</v>
       </c>
-      <c r="AD87" s="8">
+      <c r="AD87">
         <v>29</v>
       </c>
-      <c r="AE87" s="8">
+      <c r="AE87">
         <v>30</v>
       </c>
-      <c r="AF87" s="8">
+      <c r="AF87">
         <v>31</v>
       </c>
-      <c r="AG87" s="8">
+      <c r="AG87">
         <v>32</v>
       </c>
-      <c r="AH87" s="8">
-        <v>33</v>
-      </c>
-      <c r="AI87" s="8">
+      <c r="AH87">
+        <v>33</v>
+      </c>
+      <c r="AI87">
         <v>34</v>
       </c>
-      <c r="AJ87" s="8">
+      <c r="AJ87">
         <v>35</v>
       </c>
-      <c r="AK87" s="8">
+      <c r="AK87">
         <v>36</v>
       </c>
-      <c r="AL87" s="8">
+      <c r="AL87">
         <v>37</v>
       </c>
-      <c r="AM87" s="8">
+      <c r="AM87">
         <v>38</v>
       </c>
-      <c r="AN87" s="8">
+      <c r="AN87">
         <v>39</v>
       </c>
-      <c r="AO87" s="8">
+      <c r="AO87">
         <v>40</v>
       </c>
-      <c r="AP87" s="8">
+      <c r="AP87">
         <v>41</v>
       </c>
-      <c r="AQ87" s="8">
+      <c r="AQ87">
         <v>42</v>
       </c>
-      <c r="AR87" s="8">
+      <c r="AR87">
         <v>43</v>
       </c>
-      <c r="AS87" s="8">
+      <c r="AS87">
         <v>44</v>
       </c>
-      <c r="AT87" s="8">
+      <c r="AT87">
         <v>45</v>
       </c>
-      <c r="AU87" s="8">
+      <c r="AU87">
         <v>46</v>
       </c>
-      <c r="AV87" s="8">
+      <c r="AV87">
         <v>47</v>
       </c>
-      <c r="AW87" s="8">
+      <c r="AW87">
         <v>48</v>
       </c>
-      <c r="AX87" s="8">
+      <c r="AX87">
         <v>49</v>
       </c>
-      <c r="AY87" s="8">
+      <c r="AY87">
         <v>49</v>
       </c>
-      <c r="AZ87" s="8">
+      <c r="AZ87">
         <v>49</v>
       </c>
-      <c r="BA87" s="8">
+      <c r="BA87">
         <v>50</v>
       </c>
-      <c r="BB87" s="8">
+      <c r="BB87">
         <v>50</v>
       </c>
-      <c r="BC87" s="8">
+      <c r="BC87">
         <v>51</v>
       </c>
-      <c r="BD87" s="8">
+      <c r="BD87">
         <v>52</v>
       </c>
-      <c r="BE87" s="8">
+      <c r="BE87">
         <v>53</v>
       </c>
-      <c r="BF87" s="8">
+      <c r="BF87">
         <v>54</v>
       </c>
-      <c r="BG87" s="8">
+      <c r="BG87">
         <v>55</v>
       </c>
-      <c r="BH87" s="8">
+      <c r="BH87">
         <v>56</v>
       </c>
-      <c r="BI87" s="8">
+      <c r="BI87">
         <v>57</v>
       </c>
-      <c r="BJ87" s="8">
+      <c r="BJ87">
         <v>58</v>
       </c>
-      <c r="BK87" s="8">
+      <c r="BK87">
         <v>59</v>
       </c>
-      <c r="BL87" s="8">
+      <c r="BL87">
         <v>60</v>
       </c>
-      <c r="BM87" s="8">
+      <c r="BM87">
         <v>61</v>
       </c>
-      <c r="BN87" s="8">
+      <c r="BN87">
         <v>62</v>
       </c>
-      <c r="BO87" s="8">
+      <c r="BO87">
         <v>63</v>
       </c>
-      <c r="BP87" s="8">
+      <c r="BP87">
         <v>64</v>
       </c>
-      <c r="BQ87" s="8">
+      <c r="BQ87">
         <v>65</v>
       </c>
-      <c r="BR87" s="8">
+      <c r="BR87">
         <v>65</v>
       </c>
-      <c r="BS87" s="8">
+      <c r="BS87">
         <v>66</v>
       </c>
-      <c r="BT87" s="8">
+      <c r="BT87">
         <v>66</v>
       </c>
-      <c r="BU87" s="8">
+      <c r="BU87">
         <v>67</v>
       </c>
-      <c r="BV87" s="8">
+      <c r="BV87">
         <v>67</v>
       </c>
-      <c r="BW87" s="8">
+      <c r="BW87">
         <v>68</v>
       </c>
-      <c r="BX87" s="8">
+      <c r="BX87">
         <v>68</v>
       </c>
-      <c r="BY87" s="8">
+      <c r="BY87">
         <v>69</v>
       </c>
-      <c r="BZ87" s="8">
+      <c r="BZ87">
         <v>69</v>
       </c>
-      <c r="CA87" s="8">
+      <c r="CA87">
         <v>70</v>
       </c>
-      <c r="CB87" s="8">
+      <c r="CB87">
         <v>70</v>
       </c>
-      <c r="CC87" s="8">
+      <c r="CC87">
         <v>71</v>
       </c>
-      <c r="CD87" s="8">
+      <c r="CD87">
         <v>71</v>
       </c>
-      <c r="CE87" s="8">
+      <c r="CE87">
         <v>72</v>
       </c>
-      <c r="CF87" s="8">
+      <c r="CF87">
         <v>73</v>
       </c>
-      <c r="CG87" s="8">
+      <c r="CG87">
         <v>74</v>
       </c>
-      <c r="CH87" s="8">
+      <c r="CH87">
         <v>75</v>
       </c>
-      <c r="CI87" s="8">
+      <c r="CI87">
         <v>76</v>
       </c>
-      <c r="CJ87" s="8">
+      <c r="CJ87">
         <v>77</v>
       </c>
-      <c r="CK87" s="8">
+      <c r="CK87">
         <v>78</v>
       </c>
-      <c r="CL87" s="8">
+      <c r="CL87">
         <v>79</v>
       </c>
-      <c r="CM87" s="8">
+      <c r="CM87">
         <v>80</v>
       </c>
       <c r="CN87" s="1">
@@ -24565,214 +24572,214 @@
       <c r="U88">
         <v>20</v>
       </c>
-      <c r="V88" s="8">
+      <c r="V88">
         <v>21</v>
       </c>
-      <c r="W88" s="8">
+      <c r="W88">
         <v>22</v>
       </c>
-      <c r="X88" s="8">
+      <c r="X88">
         <v>23</v>
       </c>
-      <c r="Y88" s="8">
+      <c r="Y88">
         <v>24</v>
       </c>
-      <c r="Z88" s="8">
+      <c r="Z88">
         <v>25</v>
       </c>
-      <c r="AA88" s="8">
+      <c r="AA88">
         <v>26</v>
       </c>
-      <c r="AB88" s="8">
+      <c r="AB88">
         <v>27</v>
       </c>
-      <c r="AC88" s="8">
+      <c r="AC88">
         <v>28</v>
       </c>
-      <c r="AD88" s="8">
+      <c r="AD88">
         <v>29</v>
       </c>
-      <c r="AE88" s="8">
+      <c r="AE88">
         <v>30</v>
       </c>
-      <c r="AF88" s="8">
+      <c r="AF88">
         <v>31</v>
       </c>
-      <c r="AG88" s="8">
+      <c r="AG88">
         <v>32</v>
       </c>
-      <c r="AH88" s="8">
-        <v>33</v>
-      </c>
-      <c r="AI88" s="8">
+      <c r="AH88">
+        <v>33</v>
+      </c>
+      <c r="AI88">
         <v>34</v>
       </c>
-      <c r="AJ88" s="8">
+      <c r="AJ88">
         <v>35</v>
       </c>
-      <c r="AK88" s="8">
+      <c r="AK88">
         <v>36</v>
       </c>
-      <c r="AL88" s="8">
+      <c r="AL88">
         <v>37</v>
       </c>
-      <c r="AM88" s="8">
+      <c r="AM88">
         <v>38</v>
       </c>
-      <c r="AN88" s="8">
+      <c r="AN88">
         <v>39</v>
       </c>
-      <c r="AO88" s="8">
+      <c r="AO88">
         <v>40</v>
       </c>
-      <c r="AP88" s="8">
+      <c r="AP88">
         <v>41</v>
       </c>
-      <c r="AQ88" s="8">
+      <c r="AQ88">
         <v>42</v>
       </c>
-      <c r="AR88" s="8">
+      <c r="AR88">
         <v>43</v>
       </c>
-      <c r="AS88" s="8">
+      <c r="AS88">
         <v>44</v>
       </c>
-      <c r="AT88" s="8">
+      <c r="AT88">
         <v>45</v>
       </c>
-      <c r="AU88" s="8">
+      <c r="AU88">
         <v>46</v>
       </c>
-      <c r="AV88" s="8">
+      <c r="AV88">
         <v>47</v>
       </c>
-      <c r="AW88" s="8">
+      <c r="AW88">
         <v>48</v>
       </c>
-      <c r="AX88" s="8">
+      <c r="AX88">
         <v>49</v>
       </c>
-      <c r="AY88" s="8">
+      <c r="AY88">
         <v>50</v>
       </c>
-      <c r="AZ88" s="8">
+      <c r="AZ88">
         <v>50</v>
       </c>
-      <c r="BA88" s="8">
+      <c r="BA88">
         <v>50</v>
       </c>
-      <c r="BB88" s="8">
+      <c r="BB88">
         <v>50</v>
       </c>
-      <c r="BC88" s="8">
+      <c r="BC88">
         <v>51</v>
       </c>
-      <c r="BD88" s="8">
+      <c r="BD88">
         <v>52</v>
       </c>
-      <c r="BE88" s="8">
+      <c r="BE88">
         <v>53</v>
       </c>
-      <c r="BF88" s="8">
+      <c r="BF88">
         <v>54</v>
       </c>
-      <c r="BG88" s="8">
+      <c r="BG88">
         <v>55</v>
       </c>
-      <c r="BH88" s="8">
+      <c r="BH88">
         <v>56</v>
       </c>
-      <c r="BI88" s="8">
+      <c r="BI88">
         <v>57</v>
       </c>
-      <c r="BJ88" s="8">
+      <c r="BJ88">
         <v>58</v>
       </c>
-      <c r="BK88" s="8">
+      <c r="BK88">
         <v>59</v>
       </c>
-      <c r="BL88" s="8">
+      <c r="BL88">
         <v>60</v>
       </c>
-      <c r="BM88" s="8">
+      <c r="BM88">
         <v>61</v>
       </c>
-      <c r="BN88" s="8">
+      <c r="BN88">
         <v>62</v>
       </c>
-      <c r="BO88" s="8">
+      <c r="BO88">
         <v>63</v>
       </c>
-      <c r="BP88" s="8">
+      <c r="BP88">
         <v>64</v>
       </c>
-      <c r="BQ88" s="8">
+      <c r="BQ88">
         <v>65</v>
       </c>
-      <c r="BR88" s="8">
+      <c r="BR88">
         <v>66</v>
       </c>
-      <c r="BS88" s="8">
+      <c r="BS88">
         <v>67</v>
       </c>
-      <c r="BT88" s="8">
+      <c r="BT88">
         <v>68</v>
       </c>
-      <c r="BU88" s="8">
+      <c r="BU88">
         <v>69</v>
       </c>
-      <c r="BV88" s="8">
+      <c r="BV88">
         <v>70</v>
       </c>
-      <c r="BW88" s="8">
+      <c r="BW88">
         <v>71</v>
       </c>
-      <c r="BX88" s="8">
+      <c r="BX88">
         <v>72</v>
       </c>
-      <c r="BY88" s="8">
+      <c r="BY88">
         <v>73</v>
       </c>
-      <c r="BZ88" s="8">
+      <c r="BZ88">
         <v>74</v>
       </c>
-      <c r="CA88" s="8">
+      <c r="CA88">
         <v>75</v>
       </c>
-      <c r="CB88" s="8">
+      <c r="CB88">
         <v>76</v>
       </c>
-      <c r="CC88" s="8">
+      <c r="CC88">
         <v>77</v>
       </c>
-      <c r="CD88" s="8">
+      <c r="CD88">
         <v>78</v>
       </c>
-      <c r="CE88" s="8">
+      <c r="CE88">
         <v>79</v>
       </c>
-      <c r="CF88" s="8">
+      <c r="CF88">
         <v>80</v>
       </c>
-      <c r="CG88" s="8">
+      <c r="CG88">
         <v>81</v>
       </c>
-      <c r="CH88" s="8">
+      <c r="CH88">
         <v>81</v>
       </c>
-      <c r="CI88" s="8">
+      <c r="CI88">
         <v>82</v>
       </c>
-      <c r="CJ88" s="8">
+      <c r="CJ88">
         <v>83</v>
       </c>
-      <c r="CK88" s="8">
+      <c r="CK88">
         <v>84</v>
       </c>
-      <c r="CL88" s="8">
+      <c r="CL88">
         <v>84</v>
       </c>
-      <c r="CM88" s="8">
+      <c r="CM88">
         <v>85</v>
       </c>
       <c r="CN88" s="1">
@@ -24870,214 +24877,214 @@
       <c r="U89">
         <v>20</v>
       </c>
-      <c r="V89" s="8">
+      <c r="V89">
         <v>21</v>
       </c>
-      <c r="W89" s="8">
+      <c r="W89">
         <v>22</v>
       </c>
-      <c r="X89" s="8">
+      <c r="X89">
         <v>23</v>
       </c>
-      <c r="Y89" s="8">
+      <c r="Y89">
         <v>24</v>
       </c>
-      <c r="Z89" s="8">
+      <c r="Z89">
         <v>25</v>
       </c>
-      <c r="AA89" s="8">
+      <c r="AA89">
         <v>26</v>
       </c>
-      <c r="AB89" s="8">
+      <c r="AB89">
         <v>27</v>
       </c>
-      <c r="AC89" s="8">
+      <c r="AC89">
         <v>28</v>
       </c>
-      <c r="AD89" s="8">
+      <c r="AD89">
         <v>29</v>
       </c>
-      <c r="AE89" s="8">
+      <c r="AE89">
         <v>30</v>
       </c>
-      <c r="AF89" s="8">
+      <c r="AF89">
         <v>31</v>
       </c>
-      <c r="AG89" s="8">
+      <c r="AG89">
         <v>32</v>
       </c>
-      <c r="AH89" s="8">
-        <v>33</v>
-      </c>
-      <c r="AI89" s="8">
+      <c r="AH89">
+        <v>33</v>
+      </c>
+      <c r="AI89">
         <v>34</v>
       </c>
-      <c r="AJ89" s="8">
+      <c r="AJ89">
         <v>35</v>
       </c>
-      <c r="AK89" s="8">
+      <c r="AK89">
         <v>36</v>
       </c>
-      <c r="AL89" s="8">
+      <c r="AL89">
         <v>37</v>
       </c>
-      <c r="AM89" s="8">
+      <c r="AM89">
         <v>38</v>
       </c>
-      <c r="AN89" s="8">
+      <c r="AN89">
         <v>39</v>
       </c>
-      <c r="AO89" s="8">
+      <c r="AO89">
         <v>40</v>
       </c>
-      <c r="AP89" s="8">
+      <c r="AP89">
         <v>41</v>
       </c>
-      <c r="AQ89" s="8">
+      <c r="AQ89">
         <v>42</v>
       </c>
-      <c r="AR89" s="8">
+      <c r="AR89">
         <v>43</v>
       </c>
-      <c r="AS89" s="8">
+      <c r="AS89">
         <v>44</v>
       </c>
-      <c r="AT89" s="8">
+      <c r="AT89">
         <v>45</v>
       </c>
-      <c r="AU89" s="8">
+      <c r="AU89">
         <v>46</v>
       </c>
-      <c r="AV89" s="8">
+      <c r="AV89">
         <v>47</v>
       </c>
-      <c r="AW89" s="8">
+      <c r="AW89">
         <v>48</v>
       </c>
-      <c r="AX89" s="8">
+      <c r="AX89">
         <v>49</v>
       </c>
-      <c r="AY89" s="8">
+      <c r="AY89">
         <v>49</v>
       </c>
-      <c r="AZ89" s="8">
+      <c r="AZ89">
         <v>49</v>
       </c>
-      <c r="BA89" s="8">
+      <c r="BA89">
         <v>49</v>
       </c>
-      <c r="BB89" s="8">
+      <c r="BB89">
         <v>50</v>
       </c>
-      <c r="BC89" s="8">
+      <c r="BC89">
         <v>51</v>
       </c>
-      <c r="BD89" s="8">
+      <c r="BD89">
         <v>52</v>
       </c>
-      <c r="BE89" s="8">
+      <c r="BE89">
         <v>53</v>
       </c>
-      <c r="BF89" s="8">
+      <c r="BF89">
         <v>54</v>
       </c>
-      <c r="BG89" s="8">
+      <c r="BG89">
         <v>55</v>
       </c>
-      <c r="BH89" s="8">
+      <c r="BH89">
         <v>56</v>
       </c>
-      <c r="BI89" s="8">
+      <c r="BI89">
         <v>57</v>
       </c>
-      <c r="BJ89" s="8">
+      <c r="BJ89">
         <v>58</v>
       </c>
-      <c r="BK89" s="8">
+      <c r="BK89">
         <v>59</v>
       </c>
-      <c r="BL89" s="8">
+      <c r="BL89">
         <v>60</v>
       </c>
-      <c r="BM89" s="8">
+      <c r="BM89">
         <v>61</v>
       </c>
-      <c r="BN89" s="8">
+      <c r="BN89">
         <v>62</v>
       </c>
-      <c r="BO89" s="8">
+      <c r="BO89">
         <v>63</v>
       </c>
-      <c r="BP89" s="8">
+      <c r="BP89">
         <v>64</v>
       </c>
-      <c r="BQ89" s="8">
+      <c r="BQ89">
         <v>65</v>
       </c>
-      <c r="BR89" s="8">
+      <c r="BR89">
         <v>66</v>
       </c>
-      <c r="BS89" s="8">
+      <c r="BS89">
         <v>67</v>
       </c>
-      <c r="BT89" s="8">
+      <c r="BT89">
         <v>68</v>
       </c>
-      <c r="BU89" s="8">
+      <c r="BU89">
         <v>69</v>
       </c>
-      <c r="BV89" s="8">
+      <c r="BV89">
         <v>70</v>
       </c>
-      <c r="BW89" s="8">
+      <c r="BW89">
         <v>71</v>
       </c>
-      <c r="BX89" s="8">
+      <c r="BX89">
         <v>72</v>
       </c>
-      <c r="BY89" s="8">
+      <c r="BY89">
         <v>73</v>
       </c>
-      <c r="BZ89" s="8">
+      <c r="BZ89">
         <v>74</v>
       </c>
-      <c r="CA89" s="8">
+      <c r="CA89">
         <v>75</v>
       </c>
-      <c r="CB89" s="8">
+      <c r="CB89">
         <v>76</v>
       </c>
-      <c r="CC89" s="8">
+      <c r="CC89">
         <v>77</v>
       </c>
-      <c r="CD89" s="8">
+      <c r="CD89">
         <v>78</v>
       </c>
-      <c r="CE89" s="8">
+      <c r="CE89">
         <v>79</v>
       </c>
-      <c r="CF89" s="8">
+      <c r="CF89">
         <v>79</v>
       </c>
-      <c r="CG89" s="8">
+      <c r="CG89">
         <v>80</v>
       </c>
-      <c r="CH89" s="8">
+      <c r="CH89">
         <v>81</v>
       </c>
-      <c r="CI89" s="8">
+      <c r="CI89">
         <v>82</v>
       </c>
-      <c r="CJ89" s="8">
+      <c r="CJ89">
         <v>82</v>
       </c>
-      <c r="CK89" s="8">
+      <c r="CK89">
         <v>83</v>
       </c>
-      <c r="CL89" s="8">
+      <c r="CL89">
         <v>84</v>
       </c>
-      <c r="CM89" s="8">
+      <c r="CM89">
         <v>85</v>
       </c>
       <c r="CN89" s="1">
@@ -25175,214 +25182,214 @@
       <c r="U90">
         <v>7</v>
       </c>
-      <c r="V90" s="8">
+      <c r="V90">
         <v>7</v>
       </c>
-      <c r="W90" s="8">
+      <c r="W90">
         <v>8</v>
       </c>
-      <c r="X90" s="8">
+      <c r="X90">
         <v>8</v>
       </c>
-      <c r="Y90" s="8">
+      <c r="Y90">
         <v>8</v>
       </c>
-      <c r="Z90" s="8">
+      <c r="Z90">
         <v>9</v>
       </c>
-      <c r="AA90" s="8">
+      <c r="AA90">
         <v>9</v>
       </c>
-      <c r="AB90" s="8">
+      <c r="AB90">
         <v>9</v>
       </c>
-      <c r="AC90" s="8">
-        <v>10</v>
-      </c>
-      <c r="AD90" s="8">
-        <v>10</v>
-      </c>
-      <c r="AE90" s="8">
-        <v>10</v>
-      </c>
-      <c r="AF90" s="8">
+      <c r="AC90">
+        <v>10</v>
+      </c>
+      <c r="AD90">
+        <v>10</v>
+      </c>
+      <c r="AE90">
+        <v>10</v>
+      </c>
+      <c r="AF90">
         <v>11</v>
       </c>
-      <c r="AG90" s="8">
+      <c r="AG90">
         <v>11</v>
       </c>
-      <c r="AH90" s="8">
+      <c r="AH90">
         <v>11</v>
       </c>
-      <c r="AI90" s="8">
+      <c r="AI90">
         <v>12</v>
       </c>
-      <c r="AJ90" s="8">
+      <c r="AJ90">
         <v>12</v>
       </c>
-      <c r="AK90" s="8">
+      <c r="AK90">
         <v>12</v>
       </c>
-      <c r="AL90" s="8">
+      <c r="AL90">
         <v>13</v>
       </c>
-      <c r="AM90" s="8">
+      <c r="AM90">
         <v>13</v>
       </c>
-      <c r="AN90" s="8">
+      <c r="AN90">
         <v>13</v>
       </c>
-      <c r="AO90" s="8">
+      <c r="AO90">
         <v>14</v>
       </c>
-      <c r="AP90" s="8">
+      <c r="AP90">
         <v>14</v>
       </c>
-      <c r="AQ90" s="8">
+      <c r="AQ90">
         <v>14</v>
       </c>
-      <c r="AR90" s="8">
+      <c r="AR90">
         <v>15</v>
       </c>
-      <c r="AS90" s="8">
+      <c r="AS90">
         <v>15</v>
       </c>
-      <c r="AT90" s="8">
+      <c r="AT90">
         <v>15</v>
       </c>
-      <c r="AU90" s="8">
+      <c r="AU90">
         <v>15</v>
       </c>
-      <c r="AV90" s="8">
+      <c r="AV90">
         <v>16</v>
       </c>
-      <c r="AW90" s="8">
+      <c r="AW90">
         <v>16</v>
       </c>
-      <c r="AX90" s="8">
+      <c r="AX90">
         <v>16</v>
       </c>
-      <c r="AY90" s="8">
+      <c r="AY90">
         <v>17</v>
       </c>
-      <c r="AZ90" s="8">
+      <c r="AZ90">
         <v>18</v>
       </c>
-      <c r="BA90" s="8">
+      <c r="BA90">
         <v>19</v>
       </c>
-      <c r="BB90" s="8">
-        <v>20</v>
-      </c>
-      <c r="BC90" s="8">
-        <v>20</v>
-      </c>
-      <c r="BD90" s="8">
-        <v>20</v>
-      </c>
-      <c r="BE90" s="8">
-        <v>20</v>
-      </c>
-      <c r="BF90" s="8">
-        <v>20</v>
-      </c>
-      <c r="BG90" s="8">
-        <v>20</v>
-      </c>
-      <c r="BH90" s="8">
-        <v>20</v>
-      </c>
-      <c r="BI90" s="8">
-        <v>20</v>
-      </c>
-      <c r="BJ90" s="8">
-        <v>20</v>
-      </c>
-      <c r="BK90" s="8">
-        <v>20</v>
-      </c>
-      <c r="BL90" s="8">
-        <v>20</v>
-      </c>
-      <c r="BM90" s="8">
-        <v>20</v>
-      </c>
-      <c r="BN90" s="8">
-        <v>20</v>
-      </c>
-      <c r="BO90" s="8">
-        <v>20</v>
-      </c>
-      <c r="BP90" s="8">
-        <v>20</v>
-      </c>
-      <c r="BQ90" s="8">
-        <v>20</v>
-      </c>
-      <c r="BR90" s="8">
-        <v>20</v>
-      </c>
-      <c r="BS90" s="8">
-        <v>20</v>
-      </c>
-      <c r="BT90" s="8">
-        <v>20</v>
-      </c>
-      <c r="BU90" s="8">
-        <v>20</v>
-      </c>
-      <c r="BV90" s="8">
-        <v>20</v>
-      </c>
-      <c r="BW90" s="8">
-        <v>20</v>
-      </c>
-      <c r="BX90" s="8">
-        <v>20</v>
-      </c>
-      <c r="BY90" s="8">
-        <v>20</v>
-      </c>
-      <c r="BZ90" s="8">
-        <v>20</v>
-      </c>
-      <c r="CA90" s="8">
-        <v>20</v>
-      </c>
-      <c r="CB90" s="8">
-        <v>20</v>
-      </c>
-      <c r="CC90" s="8">
-        <v>20</v>
-      </c>
-      <c r="CD90" s="8">
-        <v>20</v>
-      </c>
-      <c r="CE90" s="8">
-        <v>20</v>
-      </c>
-      <c r="CF90" s="8">
-        <v>20</v>
-      </c>
-      <c r="CG90" s="8">
-        <v>20</v>
-      </c>
-      <c r="CH90" s="8">
-        <v>20</v>
-      </c>
-      <c r="CI90" s="8">
-        <v>20</v>
-      </c>
-      <c r="CJ90" s="8">
-        <v>20</v>
-      </c>
-      <c r="CK90" s="8">
-        <v>20</v>
-      </c>
-      <c r="CL90" s="8">
-        <v>20</v>
-      </c>
-      <c r="CM90" s="8">
+      <c r="BB90">
+        <v>20</v>
+      </c>
+      <c r="BC90">
+        <v>20</v>
+      </c>
+      <c r="BD90">
+        <v>20</v>
+      </c>
+      <c r="BE90">
+        <v>20</v>
+      </c>
+      <c r="BF90">
+        <v>20</v>
+      </c>
+      <c r="BG90">
+        <v>20</v>
+      </c>
+      <c r="BH90">
+        <v>20</v>
+      </c>
+      <c r="BI90">
+        <v>20</v>
+      </c>
+      <c r="BJ90">
+        <v>20</v>
+      </c>
+      <c r="BK90">
+        <v>20</v>
+      </c>
+      <c r="BL90">
+        <v>20</v>
+      </c>
+      <c r="BM90">
+        <v>20</v>
+      </c>
+      <c r="BN90">
+        <v>20</v>
+      </c>
+      <c r="BO90">
+        <v>20</v>
+      </c>
+      <c r="BP90">
+        <v>20</v>
+      </c>
+      <c r="BQ90">
+        <v>20</v>
+      </c>
+      <c r="BR90">
+        <v>20</v>
+      </c>
+      <c r="BS90">
+        <v>20</v>
+      </c>
+      <c r="BT90">
+        <v>20</v>
+      </c>
+      <c r="BU90">
+        <v>20</v>
+      </c>
+      <c r="BV90">
+        <v>20</v>
+      </c>
+      <c r="BW90">
+        <v>20</v>
+      </c>
+      <c r="BX90">
+        <v>20</v>
+      </c>
+      <c r="BY90">
+        <v>20</v>
+      </c>
+      <c r="BZ90">
+        <v>20</v>
+      </c>
+      <c r="CA90">
+        <v>20</v>
+      </c>
+      <c r="CB90">
+        <v>20</v>
+      </c>
+      <c r="CC90">
+        <v>20</v>
+      </c>
+      <c r="CD90">
+        <v>20</v>
+      </c>
+      <c r="CE90">
+        <v>20</v>
+      </c>
+      <c r="CF90">
+        <v>20</v>
+      </c>
+      <c r="CG90">
+        <v>20</v>
+      </c>
+      <c r="CH90">
+        <v>20</v>
+      </c>
+      <c r="CI90">
+        <v>20</v>
+      </c>
+      <c r="CJ90">
+        <v>20</v>
+      </c>
+      <c r="CK90">
+        <v>20</v>
+      </c>
+      <c r="CL90">
+        <v>20</v>
+      </c>
+      <c r="CM90">
         <v>20</v>
       </c>
       <c r="CN90" s="1">
@@ -25480,214 +25487,214 @@
       <c r="U91">
         <v>6</v>
       </c>
-      <c r="V91" s="8">
+      <c r="V91">
         <v>7</v>
       </c>
-      <c r="W91" s="8">
+      <c r="W91">
         <v>7</v>
       </c>
-      <c r="X91" s="8">
+      <c r="X91">
         <v>8</v>
       </c>
-      <c r="Y91" s="8">
+      <c r="Y91">
         <v>8</v>
       </c>
-      <c r="Z91" s="8">
+      <c r="Z91">
         <v>8</v>
       </c>
-      <c r="AA91" s="8">
+      <c r="AA91">
         <v>9</v>
       </c>
-      <c r="AB91" s="8">
+      <c r="AB91">
         <v>9</v>
       </c>
-      <c r="AC91" s="8">
+      <c r="AC91">
         <v>9</v>
       </c>
-      <c r="AD91" s="8">
-        <v>10</v>
-      </c>
-      <c r="AE91" s="8">
-        <v>10</v>
-      </c>
-      <c r="AF91" s="8">
-        <v>10</v>
-      </c>
-      <c r="AG91" s="8">
+      <c r="AD91">
+        <v>10</v>
+      </c>
+      <c r="AE91">
+        <v>10</v>
+      </c>
+      <c r="AF91">
+        <v>10</v>
+      </c>
+      <c r="AG91">
         <v>11</v>
       </c>
-      <c r="AH91" s="8">
+      <c r="AH91">
         <v>11</v>
       </c>
-      <c r="AI91" s="8">
+      <c r="AI91">
         <v>11</v>
       </c>
-      <c r="AJ91" s="8">
+      <c r="AJ91">
         <v>12</v>
       </c>
-      <c r="AK91" s="8">
+      <c r="AK91">
         <v>12</v>
       </c>
-      <c r="AL91" s="8">
+      <c r="AL91">
         <v>12</v>
       </c>
-      <c r="AM91" s="8">
+      <c r="AM91">
         <v>13</v>
       </c>
-      <c r="AN91" s="8">
+      <c r="AN91">
         <v>13</v>
       </c>
-      <c r="AO91" s="8">
+      <c r="AO91">
         <v>13</v>
       </c>
-      <c r="AP91" s="8">
+      <c r="AP91">
         <v>14</v>
       </c>
-      <c r="AQ91" s="8">
+      <c r="AQ91">
         <v>14</v>
       </c>
-      <c r="AR91" s="8">
+      <c r="AR91">
         <v>14</v>
       </c>
-      <c r="AS91" s="8">
+      <c r="AS91">
         <v>15</v>
       </c>
-      <c r="AT91" s="8">
+      <c r="AT91">
         <v>15</v>
       </c>
-      <c r="AU91" s="8">
+      <c r="AU91">
         <v>15</v>
       </c>
-      <c r="AV91" s="8">
+      <c r="AV91">
         <v>15</v>
       </c>
-      <c r="AW91" s="8">
+      <c r="AW91">
         <v>16</v>
       </c>
-      <c r="AX91" s="8">
+      <c r="AX91">
         <v>16</v>
       </c>
-      <c r="AY91" s="8">
+      <c r="AY91">
         <v>17</v>
       </c>
-      <c r="AZ91" s="8">
+      <c r="AZ91">
         <v>18</v>
       </c>
-      <c r="BA91" s="8">
+      <c r="BA91">
         <v>19</v>
       </c>
-      <c r="BB91" s="8">
-        <v>20</v>
-      </c>
-      <c r="BC91" s="8">
-        <v>20</v>
-      </c>
-      <c r="BD91" s="8">
-        <v>20</v>
-      </c>
-      <c r="BE91" s="8">
-        <v>20</v>
-      </c>
-      <c r="BF91" s="8">
-        <v>20</v>
-      </c>
-      <c r="BG91" s="8">
-        <v>20</v>
-      </c>
-      <c r="BH91" s="8">
-        <v>20</v>
-      </c>
-      <c r="BI91" s="8">
-        <v>20</v>
-      </c>
-      <c r="BJ91" s="8">
-        <v>20</v>
-      </c>
-      <c r="BK91" s="8">
-        <v>20</v>
-      </c>
-      <c r="BL91" s="8">
-        <v>20</v>
-      </c>
-      <c r="BM91" s="8">
-        <v>20</v>
-      </c>
-      <c r="BN91" s="8">
-        <v>20</v>
-      </c>
-      <c r="BO91" s="8">
-        <v>20</v>
-      </c>
-      <c r="BP91" s="8">
-        <v>20</v>
-      </c>
-      <c r="BQ91" s="8">
-        <v>20</v>
-      </c>
-      <c r="BR91" s="8">
-        <v>20</v>
-      </c>
-      <c r="BS91" s="8">
-        <v>20</v>
-      </c>
-      <c r="BT91" s="8">
-        <v>20</v>
-      </c>
-      <c r="BU91" s="8">
-        <v>20</v>
-      </c>
-      <c r="BV91" s="8">
-        <v>20</v>
-      </c>
-      <c r="BW91" s="8">
-        <v>20</v>
-      </c>
-      <c r="BX91" s="8">
-        <v>20</v>
-      </c>
-      <c r="BY91" s="8">
-        <v>20</v>
-      </c>
-      <c r="BZ91" s="8">
-        <v>20</v>
-      </c>
-      <c r="CA91" s="8">
-        <v>20</v>
-      </c>
-      <c r="CB91" s="8">
-        <v>20</v>
-      </c>
-      <c r="CC91" s="8">
-        <v>20</v>
-      </c>
-      <c r="CD91" s="8">
-        <v>20</v>
-      </c>
-      <c r="CE91" s="8">
-        <v>20</v>
-      </c>
-      <c r="CF91" s="8">
-        <v>20</v>
-      </c>
-      <c r="CG91" s="8">
-        <v>20</v>
-      </c>
-      <c r="CH91" s="8">
-        <v>20</v>
-      </c>
-      <c r="CI91" s="8">
-        <v>20</v>
-      </c>
-      <c r="CJ91" s="8">
-        <v>20</v>
-      </c>
-      <c r="CK91" s="8">
-        <v>20</v>
-      </c>
-      <c r="CL91" s="8">
-        <v>20</v>
-      </c>
-      <c r="CM91" s="8">
+      <c r="BB91">
+        <v>20</v>
+      </c>
+      <c r="BC91">
+        <v>20</v>
+      </c>
+      <c r="BD91">
+        <v>20</v>
+      </c>
+      <c r="BE91">
+        <v>20</v>
+      </c>
+      <c r="BF91">
+        <v>20</v>
+      </c>
+      <c r="BG91">
+        <v>20</v>
+      </c>
+      <c r="BH91">
+        <v>20</v>
+      </c>
+      <c r="BI91">
+        <v>20</v>
+      </c>
+      <c r="BJ91">
+        <v>20</v>
+      </c>
+      <c r="BK91">
+        <v>20</v>
+      </c>
+      <c r="BL91">
+        <v>20</v>
+      </c>
+      <c r="BM91">
+        <v>20</v>
+      </c>
+      <c r="BN91">
+        <v>20</v>
+      </c>
+      <c r="BO91">
+        <v>20</v>
+      </c>
+      <c r="BP91">
+        <v>20</v>
+      </c>
+      <c r="BQ91">
+        <v>20</v>
+      </c>
+      <c r="BR91">
+        <v>20</v>
+      </c>
+      <c r="BS91">
+        <v>20</v>
+      </c>
+      <c r="BT91">
+        <v>20</v>
+      </c>
+      <c r="BU91">
+        <v>20</v>
+      </c>
+      <c r="BV91">
+        <v>20</v>
+      </c>
+      <c r="BW91">
+        <v>20</v>
+      </c>
+      <c r="BX91">
+        <v>20</v>
+      </c>
+      <c r="BY91">
+        <v>20</v>
+      </c>
+      <c r="BZ91">
+        <v>20</v>
+      </c>
+      <c r="CA91">
+        <v>20</v>
+      </c>
+      <c r="CB91">
+        <v>20</v>
+      </c>
+      <c r="CC91">
+        <v>20</v>
+      </c>
+      <c r="CD91">
+        <v>20</v>
+      </c>
+      <c r="CE91">
+        <v>20</v>
+      </c>
+      <c r="CF91">
+        <v>20</v>
+      </c>
+      <c r="CG91">
+        <v>20</v>
+      </c>
+      <c r="CH91">
+        <v>20</v>
+      </c>
+      <c r="CI91">
+        <v>20</v>
+      </c>
+      <c r="CJ91">
+        <v>20</v>
+      </c>
+      <c r="CK91">
+        <v>20</v>
+      </c>
+      <c r="CL91">
+        <v>20</v>
+      </c>
+      <c r="CM91">
         <v>20</v>
       </c>
       <c r="CN91" s="1">
@@ -25785,214 +25792,214 @@
       <c r="U92">
         <v>5</v>
       </c>
-      <c r="V92" s="8">
+      <c r="V92">
         <v>5</v>
       </c>
-      <c r="W92" s="8">
+      <c r="W92">
         <v>5</v>
       </c>
-      <c r="X92" s="8">
+      <c r="X92">
         <v>5</v>
       </c>
-      <c r="Y92" s="8">
+      <c r="Y92">
         <v>5</v>
       </c>
-      <c r="Z92" s="8">
+      <c r="Z92">
         <v>5</v>
       </c>
-      <c r="AA92" s="8">
+      <c r="AA92">
         <v>5</v>
       </c>
-      <c r="AB92" s="8">
+      <c r="AB92">
         <v>5</v>
       </c>
-      <c r="AC92" s="8">
+      <c r="AC92">
         <v>5</v>
       </c>
-      <c r="AD92" s="8">
+      <c r="AD92">
         <v>5</v>
       </c>
-      <c r="AE92" s="8">
+      <c r="AE92">
         <v>5</v>
       </c>
-      <c r="AF92" s="8">
+      <c r="AF92">
         <v>5</v>
       </c>
-      <c r="AG92" s="8">
+      <c r="AG92">
         <v>5</v>
       </c>
-      <c r="AH92" s="8">
+      <c r="AH92">
         <v>5</v>
       </c>
-      <c r="AI92" s="8">
+      <c r="AI92">
         <v>5</v>
       </c>
-      <c r="AJ92" s="8">
+      <c r="AJ92">
         <v>5</v>
       </c>
-      <c r="AK92" s="8">
+      <c r="AK92">
         <v>5</v>
       </c>
-      <c r="AL92" s="8">
+      <c r="AL92">
         <v>5</v>
       </c>
-      <c r="AM92" s="8">
+      <c r="AM92">
         <v>5</v>
       </c>
-      <c r="AN92" s="8">
+      <c r="AN92">
         <v>5</v>
       </c>
-      <c r="AO92" s="8">
+      <c r="AO92">
         <v>5</v>
       </c>
-      <c r="AP92" s="8">
+      <c r="AP92">
         <v>5</v>
       </c>
-      <c r="AQ92" s="8">
+      <c r="AQ92">
         <v>5</v>
       </c>
-      <c r="AR92" s="8">
+      <c r="AR92">
         <v>5</v>
       </c>
-      <c r="AS92" s="8">
+      <c r="AS92">
         <v>5</v>
       </c>
-      <c r="AT92" s="8">
+      <c r="AT92">
         <v>5</v>
       </c>
-      <c r="AU92" s="8">
+      <c r="AU92">
         <v>6</v>
       </c>
-      <c r="AV92" s="8">
+      <c r="AV92">
         <v>6</v>
       </c>
-      <c r="AW92" s="8">
+      <c r="AW92">
         <v>6</v>
       </c>
-      <c r="AX92" s="8">
+      <c r="AX92">
         <v>6</v>
       </c>
-      <c r="AY92" s="8">
+      <c r="AY92">
         <v>7</v>
       </c>
-      <c r="AZ92" s="8">
+      <c r="AZ92">
         <v>8</v>
       </c>
-      <c r="BA92" s="8">
+      <c r="BA92">
         <v>9</v>
       </c>
-      <c r="BB92" s="8">
-        <v>10</v>
-      </c>
-      <c r="BC92" s="8">
-        <v>10</v>
-      </c>
-      <c r="BD92" s="8">
-        <v>10</v>
-      </c>
-      <c r="BE92" s="8">
-        <v>10</v>
-      </c>
-      <c r="BF92" s="8">
-        <v>10</v>
-      </c>
-      <c r="BG92" s="8">
-        <v>10</v>
-      </c>
-      <c r="BH92" s="8">
-        <v>10</v>
-      </c>
-      <c r="BI92" s="8">
-        <v>10</v>
-      </c>
-      <c r="BJ92" s="8">
-        <v>10</v>
-      </c>
-      <c r="BK92" s="8">
-        <v>10</v>
-      </c>
-      <c r="BL92" s="8">
-        <v>10</v>
-      </c>
-      <c r="BM92" s="8">
-        <v>10</v>
-      </c>
-      <c r="BN92" s="8">
-        <v>10</v>
-      </c>
-      <c r="BO92" s="8">
-        <v>10</v>
-      </c>
-      <c r="BP92" s="8">
-        <v>10</v>
-      </c>
-      <c r="BQ92" s="8">
-        <v>10</v>
-      </c>
-      <c r="BR92" s="8">
-        <v>10</v>
-      </c>
-      <c r="BS92" s="8">
-        <v>10</v>
-      </c>
-      <c r="BT92" s="8">
-        <v>10</v>
-      </c>
-      <c r="BU92" s="8">
-        <v>10</v>
-      </c>
-      <c r="BV92" s="8">
-        <v>10</v>
-      </c>
-      <c r="BW92" s="8">
-        <v>10</v>
-      </c>
-      <c r="BX92" s="8">
-        <v>10</v>
-      </c>
-      <c r="BY92" s="8">
-        <v>10</v>
-      </c>
-      <c r="BZ92" s="8">
-        <v>10</v>
-      </c>
-      <c r="CA92" s="8">
-        <v>10</v>
-      </c>
-      <c r="CB92" s="8">
-        <v>10</v>
-      </c>
-      <c r="CC92" s="8">
-        <v>10</v>
-      </c>
-      <c r="CD92" s="8">
-        <v>10</v>
-      </c>
-      <c r="CE92" s="8">
-        <v>10</v>
-      </c>
-      <c r="CF92" s="8">
-        <v>10</v>
-      </c>
-      <c r="CG92" s="8">
-        <v>10</v>
-      </c>
-      <c r="CH92" s="8">
-        <v>10</v>
-      </c>
-      <c r="CI92" s="8">
-        <v>10</v>
-      </c>
-      <c r="CJ92" s="8">
-        <v>10</v>
-      </c>
-      <c r="CK92" s="8">
-        <v>10</v>
-      </c>
-      <c r="CL92" s="8">
-        <v>10</v>
-      </c>
-      <c r="CM92" s="8">
+      <c r="BB92">
+        <v>10</v>
+      </c>
+      <c r="BC92">
+        <v>10</v>
+      </c>
+      <c r="BD92">
+        <v>10</v>
+      </c>
+      <c r="BE92">
+        <v>10</v>
+      </c>
+      <c r="BF92">
+        <v>10</v>
+      </c>
+      <c r="BG92">
+        <v>10</v>
+      </c>
+      <c r="BH92">
+        <v>10</v>
+      </c>
+      <c r="BI92">
+        <v>10</v>
+      </c>
+      <c r="BJ92">
+        <v>10</v>
+      </c>
+      <c r="BK92">
+        <v>10</v>
+      </c>
+      <c r="BL92">
+        <v>10</v>
+      </c>
+      <c r="BM92">
+        <v>10</v>
+      </c>
+      <c r="BN92">
+        <v>10</v>
+      </c>
+      <c r="BO92">
+        <v>10</v>
+      </c>
+      <c r="BP92">
+        <v>10</v>
+      </c>
+      <c r="BQ92">
+        <v>10</v>
+      </c>
+      <c r="BR92">
+        <v>10</v>
+      </c>
+      <c r="BS92">
+        <v>10</v>
+      </c>
+      <c r="BT92">
+        <v>10</v>
+      </c>
+      <c r="BU92">
+        <v>10</v>
+      </c>
+      <c r="BV92">
+        <v>10</v>
+      </c>
+      <c r="BW92">
+        <v>10</v>
+      </c>
+      <c r="BX92">
+        <v>10</v>
+      </c>
+      <c r="BY92">
+        <v>10</v>
+      </c>
+      <c r="BZ92">
+        <v>10</v>
+      </c>
+      <c r="CA92">
+        <v>10</v>
+      </c>
+      <c r="CB92">
+        <v>10</v>
+      </c>
+      <c r="CC92">
+        <v>10</v>
+      </c>
+      <c r="CD92">
+        <v>10</v>
+      </c>
+      <c r="CE92">
+        <v>10</v>
+      </c>
+      <c r="CF92">
+        <v>10</v>
+      </c>
+      <c r="CG92">
+        <v>10</v>
+      </c>
+      <c r="CH92">
+        <v>10</v>
+      </c>
+      <c r="CI92">
+        <v>10</v>
+      </c>
+      <c r="CJ92">
+        <v>10</v>
+      </c>
+      <c r="CK92">
+        <v>10</v>
+      </c>
+      <c r="CL92">
+        <v>10</v>
+      </c>
+      <c r="CM92">
         <v>10</v>
       </c>
       <c r="CN92" s="1">
@@ -26090,214 +26097,214 @@
       <c r="U93" s="2">
         <v>2</v>
       </c>
-      <c r="V93" s="9">
+      <c r="V93" s="2">
         <v>2</v>
       </c>
-      <c r="W93" s="9">
+      <c r="W93" s="2">
         <v>2</v>
       </c>
-      <c r="X93" s="9">
+      <c r="X93" s="2">
         <v>2</v>
       </c>
-      <c r="Y93" s="9">
+      <c r="Y93" s="2">
         <v>3</v>
       </c>
-      <c r="Z93" s="9">
+      <c r="Z93" s="2">
         <v>3</v>
       </c>
-      <c r="AA93" s="9">
+      <c r="AA93" s="2">
         <v>3</v>
       </c>
-      <c r="AB93" s="9">
+      <c r="AB93" s="2">
         <v>4</v>
       </c>
-      <c r="AC93" s="9">
+      <c r="AC93" s="2">
         <v>4</v>
       </c>
-      <c r="AD93" s="9">
+      <c r="AD93" s="2">
         <v>4</v>
       </c>
-      <c r="AE93" s="9">
+      <c r="AE93" s="2">
         <v>5</v>
       </c>
-      <c r="AF93" s="9">
+      <c r="AF93" s="2">
         <v>5</v>
       </c>
-      <c r="AG93" s="9">
+      <c r="AG93" s="2">
         <v>5</v>
       </c>
-      <c r="AH93" s="9">
+      <c r="AH93" s="2">
         <v>6</v>
       </c>
-      <c r="AI93" s="9">
+      <c r="AI93" s="2">
         <v>6</v>
       </c>
-      <c r="AJ93" s="9">
+      <c r="AJ93" s="2">
         <v>6</v>
       </c>
-      <c r="AK93" s="9">
+      <c r="AK93" s="2">
         <v>7</v>
       </c>
-      <c r="AL93" s="9">
+      <c r="AL93" s="2">
         <v>7</v>
       </c>
-      <c r="AM93" s="9">
+      <c r="AM93" s="2">
         <v>7</v>
       </c>
-      <c r="AN93" s="9">
+      <c r="AN93" s="2">
         <v>8</v>
       </c>
-      <c r="AO93" s="9">
+      <c r="AO93" s="2">
         <v>8</v>
       </c>
-      <c r="AP93" s="9">
+      <c r="AP93" s="2">
         <v>8</v>
       </c>
-      <c r="AQ93" s="9">
+      <c r="AQ93" s="2">
         <v>9</v>
       </c>
-      <c r="AR93" s="9">
+      <c r="AR93" s="2">
         <v>9</v>
       </c>
-      <c r="AS93" s="9">
+      <c r="AS93" s="2">
         <v>9</v>
       </c>
-      <c r="AT93" s="9">
-        <v>10</v>
-      </c>
-      <c r="AU93" s="9">
-        <v>10</v>
-      </c>
-      <c r="AV93" s="9">
-        <v>10</v>
-      </c>
-      <c r="AW93" s="9">
-        <v>10</v>
-      </c>
-      <c r="AX93" s="9">
+      <c r="AT93" s="2">
+        <v>10</v>
+      </c>
+      <c r="AU93" s="2">
+        <v>10</v>
+      </c>
+      <c r="AV93" s="2">
+        <v>10</v>
+      </c>
+      <c r="AW93" s="2">
+        <v>10</v>
+      </c>
+      <c r="AX93" s="2">
         <v>11</v>
       </c>
-      <c r="AY93" s="9">
+      <c r="AY93" s="2">
         <v>12</v>
       </c>
-      <c r="AZ93" s="9">
+      <c r="AZ93" s="2">
         <v>13</v>
       </c>
-      <c r="BA93" s="9">
+      <c r="BA93" s="2">
         <v>14</v>
       </c>
-      <c r="BB93" s="9">
+      <c r="BB93" s="2">
         <v>15</v>
       </c>
-      <c r="BC93" s="9">
+      <c r="BC93" s="2">
         <v>16</v>
       </c>
-      <c r="BD93" s="9">
+      <c r="BD93" s="2">
         <v>17</v>
       </c>
-      <c r="BE93" s="9">
+      <c r="BE93" s="2">
         <v>18</v>
       </c>
-      <c r="BF93" s="9">
+      <c r="BF93" s="2">
         <v>19</v>
       </c>
-      <c r="BG93" s="9">
-        <v>20</v>
-      </c>
-      <c r="BH93" s="9">
+      <c r="BG93" s="2">
+        <v>20</v>
+      </c>
+      <c r="BH93" s="2">
         <v>21</v>
       </c>
-      <c r="BI93" s="9">
+      <c r="BI93" s="2">
         <v>22</v>
       </c>
-      <c r="BJ93" s="9">
+      <c r="BJ93" s="2">
         <v>23</v>
       </c>
-      <c r="BK93" s="9">
+      <c r="BK93" s="2">
         <v>24</v>
       </c>
-      <c r="BL93" s="9">
+      <c r="BL93" s="2">
         <v>25</v>
       </c>
-      <c r="BM93" s="9">
+      <c r="BM93" s="2">
         <v>26</v>
       </c>
-      <c r="BN93" s="9">
+      <c r="BN93" s="2">
         <v>27</v>
       </c>
-      <c r="BO93" s="9">
+      <c r="BO93" s="2">
         <v>28</v>
       </c>
-      <c r="BP93" s="9">
+      <c r="BP93" s="2">
         <v>29</v>
       </c>
-      <c r="BQ93" s="9">
+      <c r="BQ93" s="2">
         <v>31</v>
       </c>
-      <c r="BR93" s="9">
-        <v>33</v>
-      </c>
-      <c r="BS93" s="9">
+      <c r="BR93" s="2">
+        <v>33</v>
+      </c>
+      <c r="BS93" s="2">
         <v>35</v>
       </c>
-      <c r="BT93" s="9">
+      <c r="BT93" s="2">
         <v>37</v>
       </c>
-      <c r="BU93" s="9">
+      <c r="BU93" s="2">
         <v>39</v>
       </c>
-      <c r="BV93" s="9">
+      <c r="BV93" s="2">
         <v>41</v>
       </c>
-      <c r="BW93" s="9">
+      <c r="BW93" s="2">
         <v>43</v>
       </c>
-      <c r="BX93" s="9">
+      <c r="BX93" s="2">
         <v>45</v>
       </c>
-      <c r="BY93" s="9">
+      <c r="BY93" s="2">
         <v>47</v>
       </c>
-      <c r="BZ93" s="9">
+      <c r="BZ93" s="2">
         <v>49</v>
       </c>
-      <c r="CA93" s="9">
+      <c r="CA93" s="2">
         <v>51</v>
       </c>
-      <c r="CB93" s="9">
+      <c r="CB93" s="2">
         <v>53</v>
       </c>
-      <c r="CC93" s="9">
+      <c r="CC93" s="2">
         <v>55</v>
       </c>
-      <c r="CD93" s="9">
+      <c r="CD93" s="2">
         <v>57</v>
       </c>
-      <c r="CE93" s="9">
+      <c r="CE93" s="2">
         <v>59</v>
       </c>
-      <c r="CF93" s="9">
+      <c r="CF93" s="2">
         <v>61</v>
       </c>
-      <c r="CG93" s="9">
+      <c r="CG93" s="2">
         <v>63</v>
       </c>
-      <c r="CH93" s="9">
+      <c r="CH93" s="2">
         <v>65</v>
       </c>
-      <c r="CI93" s="9">
+      <c r="CI93" s="2">
         <v>67</v>
       </c>
-      <c r="CJ93" s="9">
+      <c r="CJ93" s="2">
         <v>69</v>
       </c>
-      <c r="CK93" s="9">
+      <c r="CK93" s="2">
         <v>71</v>
       </c>
-      <c r="CL93" s="9">
+      <c r="CL93" s="2">
         <v>73</v>
       </c>
-      <c r="CM93" s="9">
+      <c r="CM93" s="2">
         <v>75</v>
       </c>
       <c r="CN93" s="7">
@@ -29874,6 +29881,6294 @@
       </c>
       <c r="CW106" s="1">
         <f t="shared" si="52"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="B109" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T109" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U109" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="V109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD109" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BH109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BJ109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BM109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BN109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BO109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BP109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BQ109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BR109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BS109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BT109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BU109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BV109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BX109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BY109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BZ109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CB109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CC109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CE109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CF109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CG109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CH109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CI109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CK109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CL109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CM109" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN109" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO109" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP109" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ109" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR109" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS109" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT109" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU109" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV109" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW109" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+      <c r="F110">
+        <v>4</v>
+      </c>
+      <c r="G110">
+        <v>5</v>
+      </c>
+      <c r="H110">
+        <v>5</v>
+      </c>
+      <c r="I110">
+        <v>6</v>
+      </c>
+      <c r="J110">
+        <v>6</v>
+      </c>
+      <c r="K110">
+        <v>7</v>
+      </c>
+      <c r="L110">
+        <v>8</v>
+      </c>
+      <c r="M110">
+        <v>8</v>
+      </c>
+      <c r="N110">
+        <v>9</v>
+      </c>
+      <c r="O110">
+        <v>10</v>
+      </c>
+      <c r="P110">
+        <v>11</v>
+      </c>
+      <c r="Q110">
+        <v>12</v>
+      </c>
+      <c r="R110">
+        <v>13</v>
+      </c>
+      <c r="S110">
+        <v>14</v>
+      </c>
+      <c r="T110">
+        <v>15</v>
+      </c>
+      <c r="U110">
+        <v>16</v>
+      </c>
+      <c r="V110" s="8">
+        <v>16</v>
+      </c>
+      <c r="W110" s="8">
+        <v>16</v>
+      </c>
+      <c r="X110" s="8">
+        <v>16</v>
+      </c>
+      <c r="Y110" s="8">
+        <v>16</v>
+      </c>
+      <c r="Z110" s="8">
+        <v>17</v>
+      </c>
+      <c r="AA110" s="8">
+        <v>18</v>
+      </c>
+      <c r="AB110" s="8">
+        <v>18</v>
+      </c>
+      <c r="AC110" s="8">
+        <v>19</v>
+      </c>
+      <c r="AD110" s="8">
+        <v>19</v>
+      </c>
+      <c r="AE110" s="8">
+        <v>20</v>
+      </c>
+      <c r="AF110" s="8">
+        <v>20</v>
+      </c>
+      <c r="AG110" s="8">
+        <v>21</v>
+      </c>
+      <c r="AH110" s="8">
+        <v>21</v>
+      </c>
+      <c r="AI110" s="8">
+        <v>22</v>
+      </c>
+      <c r="AJ110" s="8">
+        <v>23</v>
+      </c>
+      <c r="AK110" s="8">
+        <v>23</v>
+      </c>
+      <c r="AL110" s="8">
+        <v>24</v>
+      </c>
+      <c r="AM110" s="8">
+        <v>25</v>
+      </c>
+      <c r="AN110" s="8">
+        <v>25</v>
+      </c>
+      <c r="AO110" s="8">
+        <v>26</v>
+      </c>
+      <c r="AP110" s="8">
+        <v>27</v>
+      </c>
+      <c r="AQ110" s="8">
+        <v>27</v>
+      </c>
+      <c r="AR110" s="8">
+        <v>28</v>
+      </c>
+      <c r="AS110" s="8">
+        <v>28</v>
+      </c>
+      <c r="AT110" s="8">
+        <v>29</v>
+      </c>
+      <c r="AU110" s="8">
+        <v>30</v>
+      </c>
+      <c r="AV110" s="8">
+        <v>30</v>
+      </c>
+      <c r="AW110" s="8">
+        <v>31</v>
+      </c>
+      <c r="AX110" s="8">
+        <v>32</v>
+      </c>
+      <c r="AY110" s="8">
+        <v>32</v>
+      </c>
+      <c r="AZ110" s="8">
+        <v>33</v>
+      </c>
+      <c r="BA110" s="8">
+        <v>33</v>
+      </c>
+      <c r="BB110" s="8">
+        <v>34</v>
+      </c>
+      <c r="BC110" s="8">
+        <v>35</v>
+      </c>
+      <c r="BD110" s="8">
+        <v>35</v>
+      </c>
+      <c r="BE110" s="8">
+        <v>36</v>
+      </c>
+      <c r="BF110" s="8">
+        <v>37</v>
+      </c>
+      <c r="BG110" s="8">
+        <v>38</v>
+      </c>
+      <c r="BH110" s="8">
+        <v>39</v>
+      </c>
+      <c r="BI110" s="8">
+        <v>40</v>
+      </c>
+      <c r="BJ110" s="8">
+        <v>41</v>
+      </c>
+      <c r="BK110" s="8">
+        <v>42</v>
+      </c>
+      <c r="BL110" s="8">
+        <v>43</v>
+      </c>
+      <c r="BM110" s="8">
+        <v>44</v>
+      </c>
+      <c r="BN110" s="8">
+        <v>45</v>
+      </c>
+      <c r="BO110" s="8">
+        <v>45</v>
+      </c>
+      <c r="BP110" s="8">
+        <v>45</v>
+      </c>
+      <c r="BQ110" s="8">
+        <v>45</v>
+      </c>
+      <c r="BR110" s="8">
+        <v>45</v>
+      </c>
+      <c r="BS110" s="8">
+        <v>45</v>
+      </c>
+      <c r="BT110" s="8">
+        <v>45</v>
+      </c>
+      <c r="BU110" s="8">
+        <v>45</v>
+      </c>
+      <c r="BV110" s="8">
+        <v>45</v>
+      </c>
+      <c r="BW110" s="8">
+        <v>45</v>
+      </c>
+      <c r="BX110" s="8">
+        <v>45</v>
+      </c>
+      <c r="BY110" s="8">
+        <v>45</v>
+      </c>
+      <c r="BZ110" s="8">
+        <v>45</v>
+      </c>
+      <c r="CA110" s="8">
+        <v>45</v>
+      </c>
+      <c r="CB110" s="8">
+        <v>45</v>
+      </c>
+      <c r="CC110" s="8">
+        <v>45</v>
+      </c>
+      <c r="CD110" s="8">
+        <v>45</v>
+      </c>
+      <c r="CE110" s="8">
+        <v>45</v>
+      </c>
+      <c r="CF110" s="8">
+        <v>45</v>
+      </c>
+      <c r="CG110" s="8">
+        <v>45</v>
+      </c>
+      <c r="CH110" s="8">
+        <v>45</v>
+      </c>
+      <c r="CI110" s="8">
+        <v>45</v>
+      </c>
+      <c r="CJ110" s="8">
+        <v>45</v>
+      </c>
+      <c r="CK110" s="8">
+        <v>45</v>
+      </c>
+      <c r="CL110" s="8">
+        <v>45</v>
+      </c>
+      <c r="CM110" s="8">
+        <v>45</v>
+      </c>
+      <c r="CN110" s="1">
+        <v>45</v>
+      </c>
+      <c r="CO110" s="1">
+        <v>45</v>
+      </c>
+      <c r="CP110" s="1">
+        <v>45</v>
+      </c>
+      <c r="CQ110" s="1">
+        <v>45</v>
+      </c>
+      <c r="CR110" s="1">
+        <v>45</v>
+      </c>
+      <c r="CS110" s="1">
+        <v>45</v>
+      </c>
+      <c r="CT110" s="1">
+        <v>45</v>
+      </c>
+      <c r="CU110" s="1">
+        <v>45</v>
+      </c>
+      <c r="CV110" s="1">
+        <v>45</v>
+      </c>
+      <c r="CW110" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>25</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+      <c r="E111">
+        <v>5</v>
+      </c>
+      <c r="F111">
+        <v>5</v>
+      </c>
+      <c r="G111">
+        <v>6</v>
+      </c>
+      <c r="H111">
+        <v>7</v>
+      </c>
+      <c r="I111">
+        <v>8</v>
+      </c>
+      <c r="J111">
+        <v>9</v>
+      </c>
+      <c r="K111">
+        <v>10</v>
+      </c>
+      <c r="L111">
+        <v>11</v>
+      </c>
+      <c r="M111">
+        <v>12</v>
+      </c>
+      <c r="N111">
+        <v>13</v>
+      </c>
+      <c r="O111">
+        <v>14</v>
+      </c>
+      <c r="P111">
+        <v>15</v>
+      </c>
+      <c r="Q111">
+        <v>16</v>
+      </c>
+      <c r="R111">
+        <v>17</v>
+      </c>
+      <c r="S111">
+        <v>18</v>
+      </c>
+      <c r="T111">
+        <v>18</v>
+      </c>
+      <c r="U111">
+        <v>18</v>
+      </c>
+      <c r="V111" s="8">
+        <v>19</v>
+      </c>
+      <c r="W111" s="8">
+        <v>20</v>
+      </c>
+      <c r="X111" s="8">
+        <v>21</v>
+      </c>
+      <c r="Y111" s="8">
+        <v>22</v>
+      </c>
+      <c r="Z111" s="8">
+        <v>23</v>
+      </c>
+      <c r="AA111" s="8">
+        <v>24</v>
+      </c>
+      <c r="AB111" s="8">
+        <v>25</v>
+      </c>
+      <c r="AC111" s="8">
+        <v>26</v>
+      </c>
+      <c r="AD111" s="8">
+        <v>27</v>
+      </c>
+      <c r="AE111" s="8">
+        <v>28</v>
+      </c>
+      <c r="AF111" s="8">
+        <v>29</v>
+      </c>
+      <c r="AG111" s="8">
+        <v>30</v>
+      </c>
+      <c r="AH111" s="8">
+        <v>31</v>
+      </c>
+      <c r="AI111" s="8">
+        <v>32</v>
+      </c>
+      <c r="AJ111" s="8">
+        <v>33</v>
+      </c>
+      <c r="AK111" s="8">
+        <v>33</v>
+      </c>
+      <c r="AL111" s="8">
+        <v>34</v>
+      </c>
+      <c r="AM111" s="8">
+        <v>35</v>
+      </c>
+      <c r="AN111" s="8">
+        <v>35</v>
+      </c>
+      <c r="AO111" s="8">
+        <v>36</v>
+      </c>
+      <c r="AP111" s="8">
+        <v>36</v>
+      </c>
+      <c r="AQ111" s="8">
+        <v>37</v>
+      </c>
+      <c r="AR111" s="8">
+        <v>38</v>
+      </c>
+      <c r="AS111" s="8">
+        <v>38</v>
+      </c>
+      <c r="AT111" s="8">
+        <v>39</v>
+      </c>
+      <c r="AU111" s="8">
+        <v>40</v>
+      </c>
+      <c r="AV111" s="8">
+        <v>40</v>
+      </c>
+      <c r="AW111" s="8">
+        <v>41</v>
+      </c>
+      <c r="AX111" s="8">
+        <v>41</v>
+      </c>
+      <c r="AY111" s="8">
+        <v>42</v>
+      </c>
+      <c r="AZ111" s="8">
+        <v>43</v>
+      </c>
+      <c r="BA111" s="8">
+        <v>43</v>
+      </c>
+      <c r="BB111" s="8">
+        <v>44</v>
+      </c>
+      <c r="BC111" s="8">
+        <v>45</v>
+      </c>
+      <c r="BD111" s="8">
+        <v>45</v>
+      </c>
+      <c r="BE111" s="8">
+        <v>46</v>
+      </c>
+      <c r="BF111" s="8">
+        <v>47</v>
+      </c>
+      <c r="BG111" s="8">
+        <v>48</v>
+      </c>
+      <c r="BH111" s="8">
+        <v>49</v>
+      </c>
+      <c r="BI111" s="8">
+        <v>50</v>
+      </c>
+      <c r="BJ111" s="8">
+        <v>50</v>
+      </c>
+      <c r="BK111" s="8">
+        <v>50</v>
+      </c>
+      <c r="BL111" s="8">
+        <v>50</v>
+      </c>
+      <c r="BM111" s="8">
+        <v>50</v>
+      </c>
+      <c r="BN111" s="8">
+        <v>50</v>
+      </c>
+      <c r="BO111" s="8">
+        <v>50</v>
+      </c>
+      <c r="BP111" s="8">
+        <v>50</v>
+      </c>
+      <c r="BQ111" s="8">
+        <v>50</v>
+      </c>
+      <c r="BR111" s="8">
+        <v>50</v>
+      </c>
+      <c r="BS111" s="8">
+        <v>50</v>
+      </c>
+      <c r="BT111" s="8">
+        <v>50</v>
+      </c>
+      <c r="BU111" s="8">
+        <v>50</v>
+      </c>
+      <c r="BV111" s="8">
+        <v>50</v>
+      </c>
+      <c r="BW111" s="8">
+        <v>50</v>
+      </c>
+      <c r="BX111" s="8">
+        <v>50</v>
+      </c>
+      <c r="BY111" s="8">
+        <v>50</v>
+      </c>
+      <c r="BZ111" s="8">
+        <v>50</v>
+      </c>
+      <c r="CA111" s="8">
+        <v>50</v>
+      </c>
+      <c r="CB111" s="8">
+        <v>50</v>
+      </c>
+      <c r="CC111" s="8">
+        <v>50</v>
+      </c>
+      <c r="CD111" s="8">
+        <v>50</v>
+      </c>
+      <c r="CE111" s="8">
+        <v>50</v>
+      </c>
+      <c r="CF111" s="8">
+        <v>50</v>
+      </c>
+      <c r="CG111" s="8">
+        <v>50</v>
+      </c>
+      <c r="CH111" s="8">
+        <v>50</v>
+      </c>
+      <c r="CI111" s="8">
+        <v>50</v>
+      </c>
+      <c r="CJ111" s="8">
+        <v>50</v>
+      </c>
+      <c r="CK111" s="8">
+        <v>50</v>
+      </c>
+      <c r="CL111" s="8">
+        <v>50</v>
+      </c>
+      <c r="CM111" s="8">
+        <v>50</v>
+      </c>
+      <c r="CN111" s="1">
+        <v>50</v>
+      </c>
+      <c r="CO111" s="1">
+        <v>50</v>
+      </c>
+      <c r="CP111" s="1">
+        <v>50</v>
+      </c>
+      <c r="CQ111" s="1">
+        <v>50</v>
+      </c>
+      <c r="CR111" s="1">
+        <v>50</v>
+      </c>
+      <c r="CS111" s="1">
+        <v>50</v>
+      </c>
+      <c r="CT111" s="1">
+        <v>50</v>
+      </c>
+      <c r="CU111" s="1">
+        <v>50</v>
+      </c>
+      <c r="CV111" s="1">
+        <v>50</v>
+      </c>
+      <c r="CW111" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>22</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112">
+        <v>5</v>
+      </c>
+      <c r="F112">
+        <v>5</v>
+      </c>
+      <c r="G112">
+        <v>6</v>
+      </c>
+      <c r="H112">
+        <v>7</v>
+      </c>
+      <c r="I112">
+        <v>8</v>
+      </c>
+      <c r="J112">
+        <v>9</v>
+      </c>
+      <c r="K112">
+        <v>10</v>
+      </c>
+      <c r="L112">
+        <v>11</v>
+      </c>
+      <c r="M112">
+        <v>12</v>
+      </c>
+      <c r="N112">
+        <v>13</v>
+      </c>
+      <c r="O112">
+        <v>14</v>
+      </c>
+      <c r="P112">
+        <v>15</v>
+      </c>
+      <c r="Q112">
+        <v>16</v>
+      </c>
+      <c r="R112">
+        <v>17</v>
+      </c>
+      <c r="S112">
+        <v>18</v>
+      </c>
+      <c r="T112">
+        <v>19</v>
+      </c>
+      <c r="U112">
+        <v>20</v>
+      </c>
+      <c r="V112" s="8">
+        <v>20</v>
+      </c>
+      <c r="W112" s="8">
+        <v>20</v>
+      </c>
+      <c r="X112" s="8">
+        <v>21</v>
+      </c>
+      <c r="Y112" s="8">
+        <v>22</v>
+      </c>
+      <c r="Z112" s="8">
+        <v>23</v>
+      </c>
+      <c r="AA112" s="8">
+        <v>24</v>
+      </c>
+      <c r="AB112" s="8">
+        <v>25</v>
+      </c>
+      <c r="AC112" s="8">
+        <v>26</v>
+      </c>
+      <c r="AD112" s="8">
+        <v>27</v>
+      </c>
+      <c r="AE112" s="8">
+        <v>28</v>
+      </c>
+      <c r="AF112" s="8">
+        <v>29</v>
+      </c>
+      <c r="AG112" s="8">
+        <v>30</v>
+      </c>
+      <c r="AH112" s="8">
+        <v>31</v>
+      </c>
+      <c r="AI112" s="8">
+        <v>32</v>
+      </c>
+      <c r="AJ112" s="8">
+        <v>33</v>
+      </c>
+      <c r="AK112" s="8">
+        <v>34</v>
+      </c>
+      <c r="AL112" s="8">
+        <v>34</v>
+      </c>
+      <c r="AM112" s="8">
+        <v>35</v>
+      </c>
+      <c r="AN112" s="8">
+        <v>35</v>
+      </c>
+      <c r="AO112" s="8">
+        <v>36</v>
+      </c>
+      <c r="AP112" s="8">
+        <v>37</v>
+      </c>
+      <c r="AQ112" s="8">
+        <v>37</v>
+      </c>
+      <c r="AR112" s="8">
+        <v>38</v>
+      </c>
+      <c r="AS112" s="8">
+        <v>39</v>
+      </c>
+      <c r="AT112" s="8">
+        <v>39</v>
+      </c>
+      <c r="AU112" s="8">
+        <v>40</v>
+      </c>
+      <c r="AV112" s="8">
+        <v>40</v>
+      </c>
+      <c r="AW112" s="8">
+        <v>41</v>
+      </c>
+      <c r="AX112" s="8">
+        <v>42</v>
+      </c>
+      <c r="AY112" s="8">
+        <v>42</v>
+      </c>
+      <c r="AZ112" s="8">
+        <v>43</v>
+      </c>
+      <c r="BA112" s="8">
+        <v>44</v>
+      </c>
+      <c r="BB112" s="8">
+        <v>44</v>
+      </c>
+      <c r="BC112" s="8">
+        <v>45</v>
+      </c>
+      <c r="BD112" s="8">
+        <v>45</v>
+      </c>
+      <c r="BE112" s="8">
+        <v>46</v>
+      </c>
+      <c r="BF112" s="8">
+        <v>47</v>
+      </c>
+      <c r="BG112" s="8">
+        <v>48</v>
+      </c>
+      <c r="BH112" s="8">
+        <v>49</v>
+      </c>
+      <c r="BI112" s="8">
+        <v>50</v>
+      </c>
+      <c r="BJ112" s="8">
+        <v>51</v>
+      </c>
+      <c r="BK112" s="8">
+        <v>52</v>
+      </c>
+      <c r="BL112" s="8">
+        <v>53</v>
+      </c>
+      <c r="BM112" s="8">
+        <v>54</v>
+      </c>
+      <c r="BN112" s="8">
+        <v>55</v>
+      </c>
+      <c r="BO112" s="8">
+        <v>56</v>
+      </c>
+      <c r="BP112" s="8">
+        <v>57</v>
+      </c>
+      <c r="BQ112" s="8">
+        <v>58</v>
+      </c>
+      <c r="BR112" s="8">
+        <v>59</v>
+      </c>
+      <c r="BS112" s="8">
+        <v>60</v>
+      </c>
+      <c r="BT112" s="8">
+        <v>61</v>
+      </c>
+      <c r="BU112" s="8">
+        <v>62</v>
+      </c>
+      <c r="BV112" s="8">
+        <v>63</v>
+      </c>
+      <c r="BW112" s="8">
+        <v>64</v>
+      </c>
+      <c r="BX112" s="8">
+        <v>65</v>
+      </c>
+      <c r="BY112" s="8">
+        <v>66</v>
+      </c>
+      <c r="BZ112" s="8">
+        <v>67</v>
+      </c>
+      <c r="CA112" s="8">
+        <v>68</v>
+      </c>
+      <c r="CB112" s="8">
+        <v>69</v>
+      </c>
+      <c r="CC112" s="8">
+        <v>70</v>
+      </c>
+      <c r="CD112" s="8">
+        <v>70</v>
+      </c>
+      <c r="CE112" s="8">
+        <v>70</v>
+      </c>
+      <c r="CF112" s="8">
+        <v>70</v>
+      </c>
+      <c r="CG112" s="8">
+        <v>70</v>
+      </c>
+      <c r="CH112" s="8">
+        <v>70</v>
+      </c>
+      <c r="CI112" s="8">
+        <v>70</v>
+      </c>
+      <c r="CJ112" s="8">
+        <v>70</v>
+      </c>
+      <c r="CK112" s="8">
+        <v>70</v>
+      </c>
+      <c r="CL112" s="8">
+        <v>70</v>
+      </c>
+      <c r="CM112" s="8">
+        <v>70</v>
+      </c>
+      <c r="CN112" s="1">
+        <v>70</v>
+      </c>
+      <c r="CO112" s="1">
+        <v>70</v>
+      </c>
+      <c r="CP112" s="1">
+        <v>70</v>
+      </c>
+      <c r="CQ112" s="1">
+        <v>70</v>
+      </c>
+      <c r="CR112" s="1">
+        <v>70</v>
+      </c>
+      <c r="CS112" s="1">
+        <v>70</v>
+      </c>
+      <c r="CT112" s="1">
+        <v>70</v>
+      </c>
+      <c r="CU112" s="1">
+        <v>70</v>
+      </c>
+      <c r="CV112" s="1">
+        <v>70</v>
+      </c>
+      <c r="CW112" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>27</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+      <c r="E113">
+        <v>5</v>
+      </c>
+      <c r="F113">
+        <v>5</v>
+      </c>
+      <c r="G113">
+        <v>6</v>
+      </c>
+      <c r="H113">
+        <v>7</v>
+      </c>
+      <c r="I113">
+        <v>8</v>
+      </c>
+      <c r="J113">
+        <v>9</v>
+      </c>
+      <c r="K113">
+        <v>10</v>
+      </c>
+      <c r="L113">
+        <v>11</v>
+      </c>
+      <c r="M113">
+        <v>12</v>
+      </c>
+      <c r="N113">
+        <v>13</v>
+      </c>
+      <c r="O113">
+        <v>14</v>
+      </c>
+      <c r="P113">
+        <v>15</v>
+      </c>
+      <c r="Q113">
+        <v>16</v>
+      </c>
+      <c r="R113">
+        <v>17</v>
+      </c>
+      <c r="S113">
+        <v>17</v>
+      </c>
+      <c r="T113">
+        <v>18</v>
+      </c>
+      <c r="U113">
+        <v>18</v>
+      </c>
+      <c r="V113" s="8">
+        <v>19</v>
+      </c>
+      <c r="W113" s="8">
+        <v>20</v>
+      </c>
+      <c r="X113" s="8">
+        <v>21</v>
+      </c>
+      <c r="Y113" s="8">
+        <v>22</v>
+      </c>
+      <c r="Z113" s="8">
+        <v>23</v>
+      </c>
+      <c r="AA113" s="8">
+        <v>24</v>
+      </c>
+      <c r="AB113" s="8">
+        <v>25</v>
+      </c>
+      <c r="AC113" s="8">
+        <v>26</v>
+      </c>
+      <c r="AD113" s="8">
+        <v>27</v>
+      </c>
+      <c r="AE113" s="8">
+        <v>28</v>
+      </c>
+      <c r="AF113" s="8">
+        <v>29</v>
+      </c>
+      <c r="AG113" s="8">
+        <v>30</v>
+      </c>
+      <c r="AH113" s="8">
+        <v>31</v>
+      </c>
+      <c r="AI113" s="8">
+        <v>32</v>
+      </c>
+      <c r="AJ113" s="8">
+        <v>33</v>
+      </c>
+      <c r="AK113" s="8">
+        <v>33</v>
+      </c>
+      <c r="AL113" s="8">
+        <v>34</v>
+      </c>
+      <c r="AM113" s="8">
+        <v>34</v>
+      </c>
+      <c r="AN113" s="8">
+        <v>35</v>
+      </c>
+      <c r="AO113" s="8">
+        <v>36</v>
+      </c>
+      <c r="AP113" s="8">
+        <v>36</v>
+      </c>
+      <c r="AQ113" s="8">
+        <v>37</v>
+      </c>
+      <c r="AR113" s="8">
+        <v>38</v>
+      </c>
+      <c r="AS113" s="8">
+        <v>38</v>
+      </c>
+      <c r="AT113" s="8">
+        <v>39</v>
+      </c>
+      <c r="AU113" s="8">
+        <v>39</v>
+      </c>
+      <c r="AV113" s="8">
+        <v>40</v>
+      </c>
+      <c r="AW113" s="8">
+        <v>41</v>
+      </c>
+      <c r="AX113" s="8">
+        <v>41</v>
+      </c>
+      <c r="AY113" s="8">
+        <v>42</v>
+      </c>
+      <c r="AZ113" s="8">
+        <v>43</v>
+      </c>
+      <c r="BA113" s="8">
+        <v>43</v>
+      </c>
+      <c r="BB113" s="8">
+        <v>44</v>
+      </c>
+      <c r="BC113" s="8">
+        <v>44</v>
+      </c>
+      <c r="BD113" s="8">
+        <v>45</v>
+      </c>
+      <c r="BE113" s="8">
+        <v>46</v>
+      </c>
+      <c r="BF113" s="8">
+        <v>47</v>
+      </c>
+      <c r="BG113" s="8">
+        <v>48</v>
+      </c>
+      <c r="BH113" s="8">
+        <v>49</v>
+      </c>
+      <c r="BI113" s="8">
+        <v>50</v>
+      </c>
+      <c r="BJ113" s="8">
+        <v>50</v>
+      </c>
+      <c r="BK113" s="8">
+        <v>50</v>
+      </c>
+      <c r="BL113" s="8">
+        <v>50</v>
+      </c>
+      <c r="BM113" s="8">
+        <v>50</v>
+      </c>
+      <c r="BN113" s="8">
+        <v>50</v>
+      </c>
+      <c r="BO113" s="8">
+        <v>50</v>
+      </c>
+      <c r="BP113" s="8">
+        <v>50</v>
+      </c>
+      <c r="BQ113" s="8">
+        <v>50</v>
+      </c>
+      <c r="BR113" s="8">
+        <v>50</v>
+      </c>
+      <c r="BS113" s="8">
+        <v>50</v>
+      </c>
+      <c r="BT113" s="8">
+        <v>50</v>
+      </c>
+      <c r="BU113" s="8">
+        <v>50</v>
+      </c>
+      <c r="BV113" s="8">
+        <v>50</v>
+      </c>
+      <c r="BW113" s="8">
+        <v>50</v>
+      </c>
+      <c r="BX113" s="8">
+        <v>50</v>
+      </c>
+      <c r="BY113" s="8">
+        <v>50</v>
+      </c>
+      <c r="BZ113" s="8">
+        <v>50</v>
+      </c>
+      <c r="CA113" s="8">
+        <v>50</v>
+      </c>
+      <c r="CB113" s="8">
+        <v>50</v>
+      </c>
+      <c r="CC113" s="8">
+        <v>50</v>
+      </c>
+      <c r="CD113" s="8">
+        <v>50</v>
+      </c>
+      <c r="CE113" s="8">
+        <v>50</v>
+      </c>
+      <c r="CF113" s="8">
+        <v>50</v>
+      </c>
+      <c r="CG113" s="8">
+        <v>50</v>
+      </c>
+      <c r="CH113" s="8">
+        <v>50</v>
+      </c>
+      <c r="CI113" s="8">
+        <v>50</v>
+      </c>
+      <c r="CJ113" s="8">
+        <v>50</v>
+      </c>
+      <c r="CK113" s="8">
+        <v>50</v>
+      </c>
+      <c r="CL113" s="8">
+        <v>50</v>
+      </c>
+      <c r="CM113" s="8">
+        <v>50</v>
+      </c>
+      <c r="CN113" s="1">
+        <v>50</v>
+      </c>
+      <c r="CO113" s="1">
+        <v>50</v>
+      </c>
+      <c r="CP113" s="1">
+        <v>50</v>
+      </c>
+      <c r="CQ113" s="1">
+        <v>50</v>
+      </c>
+      <c r="CR113" s="1">
+        <v>50</v>
+      </c>
+      <c r="CS113" s="1">
+        <v>50</v>
+      </c>
+      <c r="CT113" s="1">
+        <v>50</v>
+      </c>
+      <c r="CU113" s="1">
+        <v>50</v>
+      </c>
+      <c r="CV113" s="1">
+        <v>50</v>
+      </c>
+      <c r="CW113" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>24</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114">
+        <v>2</v>
+      </c>
+      <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114">
+        <v>3</v>
+      </c>
+      <c r="K114">
+        <v>3</v>
+      </c>
+      <c r="L114">
+        <v>3</v>
+      </c>
+      <c r="M114">
+        <v>4</v>
+      </c>
+      <c r="N114">
+        <v>4</v>
+      </c>
+      <c r="O114">
+        <v>4</v>
+      </c>
+      <c r="P114">
+        <v>5</v>
+      </c>
+      <c r="Q114">
+        <v>5</v>
+      </c>
+      <c r="R114">
+        <v>5</v>
+      </c>
+      <c r="S114">
+        <v>5</v>
+      </c>
+      <c r="T114">
+        <v>6</v>
+      </c>
+      <c r="U114">
+        <v>7</v>
+      </c>
+      <c r="V114" s="8">
+        <v>10</v>
+      </c>
+      <c r="W114" s="8">
+        <v>13</v>
+      </c>
+      <c r="X114" s="8">
+        <v>15</v>
+      </c>
+      <c r="Y114" s="8">
+        <v>17</v>
+      </c>
+      <c r="Z114" s="8">
+        <v>18</v>
+      </c>
+      <c r="AA114" s="8">
+        <v>19</v>
+      </c>
+      <c r="AB114" s="8">
+        <v>20</v>
+      </c>
+      <c r="AC114" s="8">
+        <v>21</v>
+      </c>
+      <c r="AD114" s="8">
+        <v>22</v>
+      </c>
+      <c r="AE114" s="8">
+        <v>23</v>
+      </c>
+      <c r="AF114" s="8">
+        <v>24</v>
+      </c>
+      <c r="AG114" s="8">
+        <v>25</v>
+      </c>
+      <c r="AH114" s="8">
+        <v>26</v>
+      </c>
+      <c r="AI114" s="8">
+        <v>27</v>
+      </c>
+      <c r="AJ114" s="8">
+        <v>27</v>
+      </c>
+      <c r="AK114" s="8">
+        <v>28</v>
+      </c>
+      <c r="AL114" s="8">
+        <v>29</v>
+      </c>
+      <c r="AM114" s="8">
+        <v>29</v>
+      </c>
+      <c r="AN114" s="8">
+        <v>30</v>
+      </c>
+      <c r="AO114" s="8">
+        <v>30</v>
+      </c>
+      <c r="AP114" s="8">
+        <v>31</v>
+      </c>
+      <c r="AQ114" s="8">
+        <v>32</v>
+      </c>
+      <c r="AR114" s="8">
+        <v>32</v>
+      </c>
+      <c r="AS114" s="8">
+        <v>33</v>
+      </c>
+      <c r="AT114" s="8">
+        <v>34</v>
+      </c>
+      <c r="AU114" s="8">
+        <v>34</v>
+      </c>
+      <c r="AV114" s="8">
+        <v>35</v>
+      </c>
+      <c r="AW114" s="8">
+        <v>35</v>
+      </c>
+      <c r="AX114" s="8">
+        <v>36</v>
+      </c>
+      <c r="AY114" s="8">
+        <v>37</v>
+      </c>
+      <c r="AZ114" s="8">
+        <v>37</v>
+      </c>
+      <c r="BA114" s="8">
+        <v>38</v>
+      </c>
+      <c r="BB114" s="8">
+        <v>39</v>
+      </c>
+      <c r="BC114" s="8">
+        <v>39</v>
+      </c>
+      <c r="BD114" s="8">
+        <v>40</v>
+      </c>
+      <c r="BE114" s="8">
+        <v>40</v>
+      </c>
+      <c r="BF114" s="8">
+        <v>40</v>
+      </c>
+      <c r="BG114" s="8">
+        <v>40</v>
+      </c>
+      <c r="BH114" s="8">
+        <v>40</v>
+      </c>
+      <c r="BI114" s="8">
+        <v>40</v>
+      </c>
+      <c r="BJ114" s="8">
+        <v>41</v>
+      </c>
+      <c r="BK114" s="8">
+        <v>42</v>
+      </c>
+      <c r="BL114" s="8">
+        <v>43</v>
+      </c>
+      <c r="BM114" s="8">
+        <v>44</v>
+      </c>
+      <c r="BN114" s="8">
+        <v>45</v>
+      </c>
+      <c r="BO114" s="8">
+        <v>46</v>
+      </c>
+      <c r="BP114" s="8">
+        <v>47</v>
+      </c>
+      <c r="BQ114" s="8">
+        <v>48</v>
+      </c>
+      <c r="BR114" s="8">
+        <v>49</v>
+      </c>
+      <c r="BS114" s="8">
+        <v>50</v>
+      </c>
+      <c r="BT114" s="8">
+        <v>51</v>
+      </c>
+      <c r="BU114" s="8">
+        <v>52</v>
+      </c>
+      <c r="BV114" s="8">
+        <v>53</v>
+      </c>
+      <c r="BW114" s="8">
+        <v>54</v>
+      </c>
+      <c r="BX114" s="8">
+        <v>55</v>
+      </c>
+      <c r="BY114" s="8">
+        <v>56</v>
+      </c>
+      <c r="BZ114" s="8">
+        <v>57</v>
+      </c>
+      <c r="CA114" s="8">
+        <v>58</v>
+      </c>
+      <c r="CB114" s="8">
+        <v>59</v>
+      </c>
+      <c r="CC114" s="8">
+        <v>60</v>
+      </c>
+      <c r="CD114" s="8">
+        <v>61</v>
+      </c>
+      <c r="CE114" s="8">
+        <v>62</v>
+      </c>
+      <c r="CF114" s="8">
+        <v>63</v>
+      </c>
+      <c r="CG114" s="8">
+        <v>64</v>
+      </c>
+      <c r="CH114" s="8">
+        <v>65</v>
+      </c>
+      <c r="CI114" s="8">
+        <v>66</v>
+      </c>
+      <c r="CJ114" s="8">
+        <v>67</v>
+      </c>
+      <c r="CK114" s="8">
+        <v>68</v>
+      </c>
+      <c r="CL114" s="8">
+        <v>69</v>
+      </c>
+      <c r="CM114" s="8">
+        <v>70</v>
+      </c>
+      <c r="CN114" s="1">
+        <v>71</v>
+      </c>
+      <c r="CO114" s="1">
+        <v>72</v>
+      </c>
+      <c r="CP114" s="1">
+        <v>73</v>
+      </c>
+      <c r="CQ114" s="1">
+        <v>74</v>
+      </c>
+      <c r="CR114" s="1">
+        <v>75</v>
+      </c>
+      <c r="CS114" s="1">
+        <v>76</v>
+      </c>
+      <c r="CT114" s="1">
+        <v>77</v>
+      </c>
+      <c r="CU114" s="1">
+        <v>78</v>
+      </c>
+      <c r="CV114" s="1">
+        <v>79</v>
+      </c>
+      <c r="CW114" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>2</v>
+      </c>
+      <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
+        <v>3</v>
+      </c>
+      <c r="J115">
+        <v>3</v>
+      </c>
+      <c r="K115">
+        <v>3</v>
+      </c>
+      <c r="L115">
+        <v>4</v>
+      </c>
+      <c r="M115">
+        <v>4</v>
+      </c>
+      <c r="N115">
+        <v>4</v>
+      </c>
+      <c r="O115">
+        <v>5</v>
+      </c>
+      <c r="P115">
+        <v>5</v>
+      </c>
+      <c r="Q115">
+        <v>5</v>
+      </c>
+      <c r="R115">
+        <v>5</v>
+      </c>
+      <c r="S115">
+        <v>6</v>
+      </c>
+      <c r="T115">
+        <v>6</v>
+      </c>
+      <c r="U115">
+        <v>7</v>
+      </c>
+      <c r="V115" s="8">
+        <v>7</v>
+      </c>
+      <c r="W115" s="8">
+        <v>7</v>
+      </c>
+      <c r="X115" s="8">
+        <v>7</v>
+      </c>
+      <c r="Y115" s="8">
+        <v>7</v>
+      </c>
+      <c r="Z115" s="8">
+        <v>7</v>
+      </c>
+      <c r="AA115" s="8">
+        <v>7</v>
+      </c>
+      <c r="AB115" s="8">
+        <v>8</v>
+      </c>
+      <c r="AC115" s="8">
+        <v>8</v>
+      </c>
+      <c r="AD115" s="8">
+        <v>9</v>
+      </c>
+      <c r="AE115" s="8">
+        <v>9</v>
+      </c>
+      <c r="AF115" s="8">
+        <v>10</v>
+      </c>
+      <c r="AG115" s="8">
+        <v>10</v>
+      </c>
+      <c r="AH115" s="8">
+        <v>11</v>
+      </c>
+      <c r="AI115" s="8">
+        <v>11</v>
+      </c>
+      <c r="AJ115" s="8">
+        <v>12</v>
+      </c>
+      <c r="AK115" s="8">
+        <v>13</v>
+      </c>
+      <c r="AL115" s="8">
+        <v>13</v>
+      </c>
+      <c r="AM115" s="8">
+        <v>14</v>
+      </c>
+      <c r="AN115" s="8">
+        <v>15</v>
+      </c>
+      <c r="AO115" s="8">
+        <v>15</v>
+      </c>
+      <c r="AP115" s="8">
+        <v>16</v>
+      </c>
+      <c r="AQ115" s="8">
+        <v>17</v>
+      </c>
+      <c r="AR115" s="8">
+        <v>17</v>
+      </c>
+      <c r="AS115" s="8">
+        <v>18</v>
+      </c>
+      <c r="AT115" s="8">
+        <v>18</v>
+      </c>
+      <c r="AU115" s="8">
+        <v>19</v>
+      </c>
+      <c r="AV115" s="8">
+        <v>20</v>
+      </c>
+      <c r="AW115" s="8">
+        <v>20</v>
+      </c>
+      <c r="AX115" s="8">
+        <v>21</v>
+      </c>
+      <c r="AY115" s="8">
+        <v>22</v>
+      </c>
+      <c r="AZ115" s="8">
+        <v>22</v>
+      </c>
+      <c r="BA115" s="8">
+        <v>23</v>
+      </c>
+      <c r="BB115" s="8">
+        <v>23</v>
+      </c>
+      <c r="BC115" s="8">
+        <v>24</v>
+      </c>
+      <c r="BD115" s="8">
+        <v>25</v>
+      </c>
+      <c r="BE115" s="8">
+        <v>25</v>
+      </c>
+      <c r="BF115" s="8">
+        <v>25</v>
+      </c>
+      <c r="BG115" s="8">
+        <v>25</v>
+      </c>
+      <c r="BH115" s="8">
+        <v>25</v>
+      </c>
+      <c r="BI115" s="8">
+        <v>25</v>
+      </c>
+      <c r="BJ115" s="8">
+        <v>26</v>
+      </c>
+      <c r="BK115" s="8">
+        <v>27</v>
+      </c>
+      <c r="BL115" s="8">
+        <v>28</v>
+      </c>
+      <c r="BM115" s="8">
+        <v>29</v>
+      </c>
+      <c r="BN115" s="8">
+        <v>30</v>
+      </c>
+      <c r="BO115" s="8">
+        <v>31</v>
+      </c>
+      <c r="BP115" s="8">
+        <v>32</v>
+      </c>
+      <c r="BQ115" s="8">
+        <v>33</v>
+      </c>
+      <c r="BR115" s="8">
+        <v>34</v>
+      </c>
+      <c r="BS115" s="8">
+        <v>35</v>
+      </c>
+      <c r="BT115" s="8">
+        <v>36</v>
+      </c>
+      <c r="BU115" s="8">
+        <v>37</v>
+      </c>
+      <c r="BV115" s="8">
+        <v>38</v>
+      </c>
+      <c r="BW115" s="8">
+        <v>39</v>
+      </c>
+      <c r="BX115" s="8">
+        <v>40</v>
+      </c>
+      <c r="BY115" s="8">
+        <v>41</v>
+      </c>
+      <c r="BZ115" s="8">
+        <v>42</v>
+      </c>
+      <c r="CA115" s="8">
+        <v>43</v>
+      </c>
+      <c r="CB115" s="8">
+        <v>44</v>
+      </c>
+      <c r="CC115" s="8">
+        <v>45</v>
+      </c>
+      <c r="CD115" s="8">
+        <v>47</v>
+      </c>
+      <c r="CE115" s="8">
+        <v>49</v>
+      </c>
+      <c r="CF115" s="8">
+        <v>51</v>
+      </c>
+      <c r="CG115" s="8">
+        <v>53</v>
+      </c>
+      <c r="CH115" s="8">
+        <v>55</v>
+      </c>
+      <c r="CI115" s="8">
+        <v>57</v>
+      </c>
+      <c r="CJ115" s="8">
+        <v>59</v>
+      </c>
+      <c r="CK115" s="8">
+        <v>61</v>
+      </c>
+      <c r="CL115" s="8">
+        <v>63</v>
+      </c>
+      <c r="CM115" s="8">
+        <v>65</v>
+      </c>
+      <c r="CN115" s="1">
+        <v>67</v>
+      </c>
+      <c r="CO115" s="1">
+        <v>70</v>
+      </c>
+      <c r="CP115" s="1">
+        <v>72</v>
+      </c>
+      <c r="CQ115" s="1">
+        <v>75</v>
+      </c>
+      <c r="CR115" s="1">
+        <v>77</v>
+      </c>
+      <c r="CS115" s="1">
+        <v>80</v>
+      </c>
+      <c r="CT115" s="1">
+        <v>82</v>
+      </c>
+      <c r="CU115" s="1">
+        <v>85</v>
+      </c>
+      <c r="CV115" s="1">
+        <v>87</v>
+      </c>
+      <c r="CW115" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>26</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116">
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <v>1</v>
+      </c>
+      <c r="R116">
+        <v>1</v>
+      </c>
+      <c r="S116">
+        <v>1</v>
+      </c>
+      <c r="T116">
+        <v>1</v>
+      </c>
+      <c r="U116">
+        <v>2</v>
+      </c>
+      <c r="V116" s="8">
+        <v>2</v>
+      </c>
+      <c r="W116" s="8">
+        <v>2</v>
+      </c>
+      <c r="X116" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y116" s="8">
+        <v>2</v>
+      </c>
+      <c r="Z116" s="8">
+        <v>2</v>
+      </c>
+      <c r="AA116" s="8">
+        <v>2</v>
+      </c>
+      <c r="AB116" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC116" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD116" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE116" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF116" s="8">
+        <v>2</v>
+      </c>
+      <c r="AG116" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH116" s="8">
+        <v>2</v>
+      </c>
+      <c r="AI116" s="8">
+        <v>2</v>
+      </c>
+      <c r="AJ116" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK116" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL116" s="8">
+        <v>4</v>
+      </c>
+      <c r="AM116" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN116" s="8">
+        <v>5</v>
+      </c>
+      <c r="AO116" s="8">
+        <v>6</v>
+      </c>
+      <c r="AP116" s="8">
+        <v>6</v>
+      </c>
+      <c r="AQ116" s="8">
+        <v>7</v>
+      </c>
+      <c r="AR116" s="8">
+        <v>7</v>
+      </c>
+      <c r="AS116" s="8">
+        <v>8</v>
+      </c>
+      <c r="AT116" s="8">
+        <v>9</v>
+      </c>
+      <c r="AU116" s="8">
+        <v>9</v>
+      </c>
+      <c r="AV116" s="8">
+        <v>10</v>
+      </c>
+      <c r="AW116" s="8">
+        <v>11</v>
+      </c>
+      <c r="AX116" s="8">
+        <v>11</v>
+      </c>
+      <c r="AY116" s="8">
+        <v>12</v>
+      </c>
+      <c r="AZ116" s="8">
+        <v>12</v>
+      </c>
+      <c r="BA116" s="8">
+        <v>13</v>
+      </c>
+      <c r="BB116" s="8">
+        <v>14</v>
+      </c>
+      <c r="BC116" s="8">
+        <v>14</v>
+      </c>
+      <c r="BD116" s="8">
+        <v>15</v>
+      </c>
+      <c r="BE116" s="8">
+        <v>16</v>
+      </c>
+      <c r="BF116" s="8">
+        <v>17</v>
+      </c>
+      <c r="BG116" s="8">
+        <v>18</v>
+      </c>
+      <c r="BH116" s="8">
+        <v>19</v>
+      </c>
+      <c r="BI116" s="8">
+        <v>20</v>
+      </c>
+      <c r="BJ116" s="8">
+        <v>21</v>
+      </c>
+      <c r="BK116" s="8">
+        <v>22</v>
+      </c>
+      <c r="BL116" s="8">
+        <v>23</v>
+      </c>
+      <c r="BM116" s="8">
+        <v>24</v>
+      </c>
+      <c r="BN116" s="8">
+        <v>25</v>
+      </c>
+      <c r="BO116" s="8">
+        <v>27</v>
+      </c>
+      <c r="BP116" s="8">
+        <v>29</v>
+      </c>
+      <c r="BQ116" s="8">
+        <v>31</v>
+      </c>
+      <c r="BR116" s="8">
+        <v>33</v>
+      </c>
+      <c r="BS116" s="8">
+        <v>35</v>
+      </c>
+      <c r="BT116" s="8">
+        <v>37</v>
+      </c>
+      <c r="BU116" s="8">
+        <v>39</v>
+      </c>
+      <c r="BV116" s="8">
+        <v>41</v>
+      </c>
+      <c r="BW116" s="8">
+        <v>43</v>
+      </c>
+      <c r="BX116" s="8">
+        <v>45</v>
+      </c>
+      <c r="BY116" s="8">
+        <v>47</v>
+      </c>
+      <c r="BZ116" s="8">
+        <v>49</v>
+      </c>
+      <c r="CA116" s="8">
+        <v>51</v>
+      </c>
+      <c r="CB116" s="8">
+        <v>53</v>
+      </c>
+      <c r="CC116" s="8">
+        <v>55</v>
+      </c>
+      <c r="CD116" s="8">
+        <v>57</v>
+      </c>
+      <c r="CE116" s="8">
+        <v>59</v>
+      </c>
+      <c r="CF116" s="8">
+        <v>61</v>
+      </c>
+      <c r="CG116" s="8">
+        <v>63</v>
+      </c>
+      <c r="CH116" s="8">
+        <v>65</v>
+      </c>
+      <c r="CI116" s="8">
+        <v>67</v>
+      </c>
+      <c r="CJ116" s="8">
+        <v>69</v>
+      </c>
+      <c r="CK116" s="8">
+        <v>71</v>
+      </c>
+      <c r="CL116" s="8">
+        <v>73</v>
+      </c>
+      <c r="CM116" s="8">
+        <v>75</v>
+      </c>
+      <c r="CN116" s="1">
+        <v>77</v>
+      </c>
+      <c r="CO116" s="1">
+        <v>78</v>
+      </c>
+      <c r="CP116" s="1">
+        <v>80</v>
+      </c>
+      <c r="CQ116" s="1">
+        <v>81</v>
+      </c>
+      <c r="CR116" s="1">
+        <v>83</v>
+      </c>
+      <c r="CS116" s="1">
+        <v>84</v>
+      </c>
+      <c r="CT116" s="1">
+        <v>86</v>
+      </c>
+      <c r="CU116" s="1">
+        <v>87</v>
+      </c>
+      <c r="CV116" s="1">
+        <v>89</v>
+      </c>
+      <c r="CW116" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B117" s="2">
+        <v>0</v>
+      </c>
+      <c r="C117" s="2">
+        <v>0</v>
+      </c>
+      <c r="D117" s="2">
+        <v>0</v>
+      </c>
+      <c r="E117" s="2">
+        <v>0</v>
+      </c>
+      <c r="F117" s="2">
+        <v>2</v>
+      </c>
+      <c r="G117" s="2">
+        <v>2</v>
+      </c>
+      <c r="H117" s="2">
+        <v>3</v>
+      </c>
+      <c r="I117" s="2">
+        <v>4</v>
+      </c>
+      <c r="J117" s="2">
+        <v>5</v>
+      </c>
+      <c r="K117" s="2">
+        <v>6</v>
+      </c>
+      <c r="L117" s="2">
+        <v>6</v>
+      </c>
+      <c r="M117" s="2">
+        <v>7</v>
+      </c>
+      <c r="N117" s="2">
+        <v>8</v>
+      </c>
+      <c r="O117" s="2">
+        <v>8</v>
+      </c>
+      <c r="P117" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q117" s="2">
+        <v>9</v>
+      </c>
+      <c r="R117" s="2">
+        <v>10</v>
+      </c>
+      <c r="S117" s="2">
+        <v>11</v>
+      </c>
+      <c r="T117" s="2">
+        <v>12</v>
+      </c>
+      <c r="U117" s="2">
+        <v>12</v>
+      </c>
+      <c r="V117" s="9">
+        <v>12</v>
+      </c>
+      <c r="W117" s="9">
+        <v>12</v>
+      </c>
+      <c r="X117" s="9">
+        <v>12</v>
+      </c>
+      <c r="Y117" s="9">
+        <v>12</v>
+      </c>
+      <c r="Z117" s="9">
+        <v>12</v>
+      </c>
+      <c r="AA117" s="9">
+        <v>12</v>
+      </c>
+      <c r="AB117" s="9">
+        <v>12</v>
+      </c>
+      <c r="AC117" s="9">
+        <v>12</v>
+      </c>
+      <c r="AD117" s="9">
+        <v>12</v>
+      </c>
+      <c r="AE117" s="9">
+        <v>12</v>
+      </c>
+      <c r="AF117" s="9">
+        <v>12</v>
+      </c>
+      <c r="AG117" s="9">
+        <v>12</v>
+      </c>
+      <c r="AH117" s="9">
+        <v>12</v>
+      </c>
+      <c r="AI117" s="9">
+        <v>12</v>
+      </c>
+      <c r="AJ117" s="9">
+        <v>12</v>
+      </c>
+      <c r="AK117" s="9">
+        <v>13</v>
+      </c>
+      <c r="AL117" s="9">
+        <v>13</v>
+      </c>
+      <c r="AM117" s="9">
+        <v>14</v>
+      </c>
+      <c r="AN117" s="9">
+        <v>15</v>
+      </c>
+      <c r="AO117" s="9">
+        <v>15</v>
+      </c>
+      <c r="AP117" s="9">
+        <v>16</v>
+      </c>
+      <c r="AQ117" s="9">
+        <v>16</v>
+      </c>
+      <c r="AR117" s="9">
+        <v>17</v>
+      </c>
+      <c r="AS117" s="9">
+        <v>18</v>
+      </c>
+      <c r="AT117" s="9">
+        <v>18</v>
+      </c>
+      <c r="AU117" s="9">
+        <v>19</v>
+      </c>
+      <c r="AV117" s="9">
+        <v>20</v>
+      </c>
+      <c r="AW117" s="9">
+        <v>20</v>
+      </c>
+      <c r="AX117" s="9">
+        <v>21</v>
+      </c>
+      <c r="AY117" s="9">
+        <v>21</v>
+      </c>
+      <c r="AZ117" s="9">
+        <v>22</v>
+      </c>
+      <c r="BA117" s="9">
+        <v>23</v>
+      </c>
+      <c r="BB117" s="9">
+        <v>23</v>
+      </c>
+      <c r="BC117" s="9">
+        <v>24</v>
+      </c>
+      <c r="BD117" s="9">
+        <v>25</v>
+      </c>
+      <c r="BE117" s="9">
+        <v>25</v>
+      </c>
+      <c r="BF117" s="9">
+        <v>25</v>
+      </c>
+      <c r="BG117" s="9">
+        <v>25</v>
+      </c>
+      <c r="BH117" s="9">
+        <v>25</v>
+      </c>
+      <c r="BI117" s="9">
+        <v>25</v>
+      </c>
+      <c r="BJ117" s="9">
+        <v>25</v>
+      </c>
+      <c r="BK117" s="9">
+        <v>25</v>
+      </c>
+      <c r="BL117" s="9">
+        <v>25</v>
+      </c>
+      <c r="BM117" s="9">
+        <v>25</v>
+      </c>
+      <c r="BN117" s="9">
+        <v>25</v>
+      </c>
+      <c r="BO117" s="9">
+        <v>25</v>
+      </c>
+      <c r="BP117" s="9">
+        <v>25</v>
+      </c>
+      <c r="BQ117" s="9">
+        <v>25</v>
+      </c>
+      <c r="BR117" s="9">
+        <v>25</v>
+      </c>
+      <c r="BS117" s="9">
+        <v>25</v>
+      </c>
+      <c r="BT117" s="9">
+        <v>25</v>
+      </c>
+      <c r="BU117" s="9">
+        <v>25</v>
+      </c>
+      <c r="BV117" s="9">
+        <v>25</v>
+      </c>
+      <c r="BW117" s="9">
+        <v>25</v>
+      </c>
+      <c r="BX117" s="9">
+        <v>25</v>
+      </c>
+      <c r="BY117" s="9">
+        <v>25</v>
+      </c>
+      <c r="BZ117" s="9">
+        <v>25</v>
+      </c>
+      <c r="CA117" s="9">
+        <v>25</v>
+      </c>
+      <c r="CB117" s="9">
+        <v>25</v>
+      </c>
+      <c r="CC117" s="9">
+        <v>25</v>
+      </c>
+      <c r="CD117" s="9">
+        <v>25</v>
+      </c>
+      <c r="CE117" s="9">
+        <v>25</v>
+      </c>
+      <c r="CF117" s="9">
+        <v>25</v>
+      </c>
+      <c r="CG117" s="9">
+        <v>25</v>
+      </c>
+      <c r="CH117" s="9">
+        <v>25</v>
+      </c>
+      <c r="CI117" s="9">
+        <v>25</v>
+      </c>
+      <c r="CJ117" s="9">
+        <v>25</v>
+      </c>
+      <c r="CK117" s="9">
+        <v>25</v>
+      </c>
+      <c r="CL117" s="9">
+        <v>25</v>
+      </c>
+      <c r="CM117" s="9">
+        <v>25</v>
+      </c>
+      <c r="CN117" s="7">
+        <v>25</v>
+      </c>
+      <c r="CO117" s="7">
+        <v>25</v>
+      </c>
+      <c r="CP117" s="7">
+        <v>25</v>
+      </c>
+      <c r="CQ117" s="7">
+        <v>25</v>
+      </c>
+      <c r="CR117" s="7">
+        <v>25</v>
+      </c>
+      <c r="CS117" s="7">
+        <v>25</v>
+      </c>
+      <c r="CT117" s="7">
+        <v>25</v>
+      </c>
+      <c r="CU117" s="7">
+        <v>25</v>
+      </c>
+      <c r="CV117" s="7">
+        <v>25</v>
+      </c>
+      <c r="CW117" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <f>SUM(B110:B117)</f>
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <f t="shared" ref="C118:BN118" si="53">SUM(C110:C117)</f>
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="53"/>
+        <v>15</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="53"/>
+        <v>20</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="53"/>
+        <v>25</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="53"/>
+        <v>30</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="53"/>
+        <v>35</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="53"/>
+        <v>40</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="53"/>
+        <v>45</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="53"/>
+        <v>50</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="53"/>
+        <v>55</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="53"/>
+        <v>60</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="53"/>
+        <v>65</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="53"/>
+        <v>70</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="53"/>
+        <v>75</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="53"/>
+        <v>80</v>
+      </c>
+      <c r="R118">
+        <f t="shared" si="53"/>
+        <v>85</v>
+      </c>
+      <c r="S118">
+        <f t="shared" si="53"/>
+        <v>90</v>
+      </c>
+      <c r="T118">
+        <f t="shared" si="53"/>
+        <v>95</v>
+      </c>
+      <c r="U118">
+        <f t="shared" si="53"/>
+        <v>100</v>
+      </c>
+      <c r="V118">
+        <f t="shared" si="53"/>
+        <v>105</v>
+      </c>
+      <c r="W118">
+        <f t="shared" si="53"/>
+        <v>110</v>
+      </c>
+      <c r="X118">
+        <f t="shared" si="53"/>
+        <v>115</v>
+      </c>
+      <c r="Y118">
+        <f t="shared" si="53"/>
+        <v>120</v>
+      </c>
+      <c r="Z118">
+        <f t="shared" si="53"/>
+        <v>125</v>
+      </c>
+      <c r="AA118">
+        <f t="shared" si="53"/>
+        <v>130</v>
+      </c>
+      <c r="AB118">
+        <f t="shared" si="53"/>
+        <v>135</v>
+      </c>
+      <c r="AC118">
+        <f t="shared" si="53"/>
+        <v>140</v>
+      </c>
+      <c r="AD118">
+        <f t="shared" si="53"/>
+        <v>145</v>
+      </c>
+      <c r="AE118">
+        <f t="shared" si="53"/>
+        <v>150</v>
+      </c>
+      <c r="AF118">
+        <f t="shared" si="53"/>
+        <v>155</v>
+      </c>
+      <c r="AG118">
+        <f t="shared" si="53"/>
+        <v>160</v>
+      </c>
+      <c r="AH118">
+        <f t="shared" si="53"/>
+        <v>165</v>
+      </c>
+      <c r="AI118">
+        <f t="shared" si="53"/>
+        <v>170</v>
+      </c>
+      <c r="AJ118">
+        <f t="shared" si="53"/>
+        <v>175</v>
+      </c>
+      <c r="AK118">
+        <f t="shared" si="53"/>
+        <v>180</v>
+      </c>
+      <c r="AL118">
+        <f t="shared" si="53"/>
+        <v>185</v>
+      </c>
+      <c r="AM118">
+        <f t="shared" si="53"/>
+        <v>190</v>
+      </c>
+      <c r="AN118">
+        <f t="shared" si="53"/>
+        <v>195</v>
+      </c>
+      <c r="AO118">
+        <f t="shared" si="53"/>
+        <v>200</v>
+      </c>
+      <c r="AP118">
+        <f t="shared" si="53"/>
+        <v>205</v>
+      </c>
+      <c r="AQ118">
+        <f t="shared" si="53"/>
+        <v>210</v>
+      </c>
+      <c r="AR118">
+        <f t="shared" si="53"/>
+        <v>215</v>
+      </c>
+      <c r="AS118">
+        <f t="shared" si="53"/>
+        <v>220</v>
+      </c>
+      <c r="AT118">
+        <f t="shared" si="53"/>
+        <v>225</v>
+      </c>
+      <c r="AU118">
+        <f t="shared" si="53"/>
+        <v>230</v>
+      </c>
+      <c r="AV118">
+        <f t="shared" si="53"/>
+        <v>235</v>
+      </c>
+      <c r="AW118">
+        <f t="shared" si="53"/>
+        <v>240</v>
+      </c>
+      <c r="AX118">
+        <f t="shared" si="53"/>
+        <v>245</v>
+      </c>
+      <c r="AY118">
+        <f t="shared" si="53"/>
+        <v>250</v>
+      </c>
+      <c r="AZ118">
+        <f t="shared" si="53"/>
+        <v>255</v>
+      </c>
+      <c r="BA118">
+        <f t="shared" si="53"/>
+        <v>260</v>
+      </c>
+      <c r="BB118">
+        <f t="shared" si="53"/>
+        <v>265</v>
+      </c>
+      <c r="BC118">
+        <f t="shared" si="53"/>
+        <v>270</v>
+      </c>
+      <c r="BD118">
+        <f t="shared" si="53"/>
+        <v>275</v>
+      </c>
+      <c r="BE118">
+        <f t="shared" si="53"/>
+        <v>280</v>
+      </c>
+      <c r="BF118">
+        <f t="shared" si="53"/>
+        <v>285</v>
+      </c>
+      <c r="BG118">
+        <f t="shared" si="53"/>
+        <v>290</v>
+      </c>
+      <c r="BH118">
+        <f t="shared" si="53"/>
+        <v>295</v>
+      </c>
+      <c r="BI118">
+        <f t="shared" si="53"/>
+        <v>300</v>
+      </c>
+      <c r="BJ118">
+        <f t="shared" si="53"/>
+        <v>305</v>
+      </c>
+      <c r="BK118">
+        <f t="shared" si="53"/>
+        <v>310</v>
+      </c>
+      <c r="BL118">
+        <f t="shared" si="53"/>
+        <v>315</v>
+      </c>
+      <c r="BM118">
+        <f t="shared" si="53"/>
+        <v>320</v>
+      </c>
+      <c r="BN118">
+        <f t="shared" si="53"/>
+        <v>325</v>
+      </c>
+      <c r="BO118">
+        <f t="shared" ref="BO118:CW118" si="54">SUM(BO110:BO117)</f>
+        <v>330</v>
+      </c>
+      <c r="BP118">
+        <f t="shared" si="54"/>
+        <v>335</v>
+      </c>
+      <c r="BQ118">
+        <f t="shared" si="54"/>
+        <v>340</v>
+      </c>
+      <c r="BR118">
+        <f t="shared" si="54"/>
+        <v>345</v>
+      </c>
+      <c r="BS118">
+        <f t="shared" si="54"/>
+        <v>350</v>
+      </c>
+      <c r="BT118">
+        <f t="shared" si="54"/>
+        <v>355</v>
+      </c>
+      <c r="BU118">
+        <f t="shared" si="54"/>
+        <v>360</v>
+      </c>
+      <c r="BV118">
+        <f t="shared" si="54"/>
+        <v>365</v>
+      </c>
+      <c r="BW118">
+        <f t="shared" si="54"/>
+        <v>370</v>
+      </c>
+      <c r="BX118">
+        <f t="shared" si="54"/>
+        <v>375</v>
+      </c>
+      <c r="BY118">
+        <f t="shared" si="54"/>
+        <v>380</v>
+      </c>
+      <c r="BZ118">
+        <f t="shared" si="54"/>
+        <v>385</v>
+      </c>
+      <c r="CA118">
+        <f t="shared" si="54"/>
+        <v>390</v>
+      </c>
+      <c r="CB118">
+        <f t="shared" si="54"/>
+        <v>395</v>
+      </c>
+      <c r="CC118">
+        <f t="shared" si="54"/>
+        <v>400</v>
+      </c>
+      <c r="CD118">
+        <f t="shared" si="54"/>
+        <v>405</v>
+      </c>
+      <c r="CE118">
+        <f t="shared" si="54"/>
+        <v>410</v>
+      </c>
+      <c r="CF118">
+        <f t="shared" si="54"/>
+        <v>415</v>
+      </c>
+      <c r="CG118">
+        <f t="shared" si="54"/>
+        <v>420</v>
+      </c>
+      <c r="CH118">
+        <f t="shared" si="54"/>
+        <v>425</v>
+      </c>
+      <c r="CI118">
+        <f t="shared" si="54"/>
+        <v>430</v>
+      </c>
+      <c r="CJ118">
+        <f t="shared" si="54"/>
+        <v>435</v>
+      </c>
+      <c r="CK118">
+        <f t="shared" si="54"/>
+        <v>440</v>
+      </c>
+      <c r="CL118">
+        <f t="shared" si="54"/>
+        <v>445</v>
+      </c>
+      <c r="CM118">
+        <f t="shared" si="54"/>
+        <v>450</v>
+      </c>
+      <c r="CN118" s="1">
+        <f t="shared" si="54"/>
+        <v>455</v>
+      </c>
+      <c r="CO118" s="1">
+        <f t="shared" si="54"/>
+        <v>460</v>
+      </c>
+      <c r="CP118" s="1">
+        <f t="shared" si="54"/>
+        <v>465</v>
+      </c>
+      <c r="CQ118" s="1">
+        <f t="shared" si="54"/>
+        <v>470</v>
+      </c>
+      <c r="CR118" s="1">
+        <f t="shared" si="54"/>
+        <v>475</v>
+      </c>
+      <c r="CS118" s="1">
+        <f t="shared" si="54"/>
+        <v>480</v>
+      </c>
+      <c r="CT118" s="1">
+        <f t="shared" si="54"/>
+        <v>485</v>
+      </c>
+      <c r="CU118" s="1">
+        <f t="shared" si="54"/>
+        <v>490</v>
+      </c>
+      <c r="CV118" s="1">
+        <f t="shared" si="54"/>
+        <v>495</v>
+      </c>
+      <c r="CW118" s="1">
+        <f t="shared" si="54"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="B121" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M121" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N121" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O121" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P121" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q121" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R121" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S121" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T121" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U121" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="V121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="W121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD121" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BH121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BJ121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BL121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BM121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BN121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BO121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BP121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BQ121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BR121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BS121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BT121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BU121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BV121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BX121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BY121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BZ121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CB121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CC121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CD121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CE121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CF121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CG121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CH121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CI121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CK121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CL121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="CM121" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN121" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO121" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP121" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ121" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR121" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS121" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT121" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU121" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV121" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW121" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
+      <c r="F122">
+        <v>3</v>
+      </c>
+      <c r="G122">
+        <v>4</v>
+      </c>
+      <c r="H122">
+        <v>5</v>
+      </c>
+      <c r="I122">
+        <v>6</v>
+      </c>
+      <c r="J122">
+        <v>7</v>
+      </c>
+      <c r="K122">
+        <v>7</v>
+      </c>
+      <c r="L122">
+        <v>7</v>
+      </c>
+      <c r="M122">
+        <v>7</v>
+      </c>
+      <c r="N122">
+        <v>8</v>
+      </c>
+      <c r="O122">
+        <v>8</v>
+      </c>
+      <c r="P122">
+        <v>8</v>
+      </c>
+      <c r="Q122">
+        <v>8</v>
+      </c>
+      <c r="R122">
+        <v>8</v>
+      </c>
+      <c r="S122">
+        <v>8</v>
+      </c>
+      <c r="T122">
+        <v>8</v>
+      </c>
+      <c r="U122">
+        <v>8</v>
+      </c>
+      <c r="V122" s="8">
+        <v>8</v>
+      </c>
+      <c r="W122" s="8">
+        <v>8</v>
+      </c>
+      <c r="X122" s="8">
+        <v>9</v>
+      </c>
+      <c r="Y122" s="8">
+        <v>9</v>
+      </c>
+      <c r="Z122" s="8">
+        <v>10</v>
+      </c>
+      <c r="AA122" s="8">
+        <v>11</v>
+      </c>
+      <c r="AB122" s="8">
+        <v>12</v>
+      </c>
+      <c r="AC122" s="8">
+        <v>13</v>
+      </c>
+      <c r="AD122" s="8">
+        <v>14</v>
+      </c>
+      <c r="AE122" s="8">
+        <v>15</v>
+      </c>
+      <c r="AF122" s="8">
+        <v>16</v>
+      </c>
+      <c r="AG122" s="8">
+        <v>17</v>
+      </c>
+      <c r="AH122" s="8">
+        <v>18</v>
+      </c>
+      <c r="AI122" s="8">
+        <v>19</v>
+      </c>
+      <c r="AJ122" s="8">
+        <v>20</v>
+      </c>
+      <c r="AK122" s="8">
+        <v>21</v>
+      </c>
+      <c r="AL122" s="8">
+        <v>22</v>
+      </c>
+      <c r="AM122" s="8">
+        <v>23</v>
+      </c>
+      <c r="AN122" s="8">
+        <v>24</v>
+      </c>
+      <c r="AO122" s="8">
+        <v>25</v>
+      </c>
+      <c r="AP122" s="8">
+        <v>26</v>
+      </c>
+      <c r="AQ122" s="8">
+        <v>27</v>
+      </c>
+      <c r="AR122" s="8">
+        <v>28</v>
+      </c>
+      <c r="AS122" s="8">
+        <v>29</v>
+      </c>
+      <c r="AT122" s="8">
+        <v>30</v>
+      </c>
+      <c r="AU122" s="8">
+        <v>31</v>
+      </c>
+      <c r="AV122" s="8">
+        <v>32</v>
+      </c>
+      <c r="AW122" s="8">
+        <v>33</v>
+      </c>
+      <c r="AX122" s="8">
+        <v>34</v>
+      </c>
+      <c r="AY122" s="8">
+        <v>35</v>
+      </c>
+      <c r="AZ122" s="8">
+        <v>35</v>
+      </c>
+      <c r="BA122" s="8">
+        <v>35</v>
+      </c>
+      <c r="BB122" s="8">
+        <v>35</v>
+      </c>
+      <c r="BC122" s="8">
+        <v>35</v>
+      </c>
+      <c r="BD122" s="8">
+        <v>35</v>
+      </c>
+      <c r="BE122" s="8">
+        <v>37</v>
+      </c>
+      <c r="BF122" s="8">
+        <v>39</v>
+      </c>
+      <c r="BG122" s="8">
+        <v>41</v>
+      </c>
+      <c r="BH122" s="8">
+        <v>43</v>
+      </c>
+      <c r="BI122" s="8">
+        <v>45</v>
+      </c>
+      <c r="BJ122" s="8">
+        <v>47</v>
+      </c>
+      <c r="BK122" s="8">
+        <v>49</v>
+      </c>
+      <c r="BL122" s="8">
+        <v>51</v>
+      </c>
+      <c r="BM122" s="8">
+        <v>53</v>
+      </c>
+      <c r="BN122" s="8">
+        <v>55</v>
+      </c>
+      <c r="BO122" s="8">
+        <v>57</v>
+      </c>
+      <c r="BP122" s="8">
+        <v>59</v>
+      </c>
+      <c r="BQ122" s="8">
+        <v>61</v>
+      </c>
+      <c r="BR122" s="8">
+        <v>63</v>
+      </c>
+      <c r="BS122" s="8">
+        <v>65</v>
+      </c>
+      <c r="BT122" s="8">
+        <v>67</v>
+      </c>
+      <c r="BU122" s="8">
+        <v>69</v>
+      </c>
+      <c r="BV122" s="8">
+        <v>71</v>
+      </c>
+      <c r="BW122" s="8">
+        <v>73</v>
+      </c>
+      <c r="BX122" s="8">
+        <v>75</v>
+      </c>
+      <c r="BY122" s="8">
+        <v>75</v>
+      </c>
+      <c r="BZ122" s="8">
+        <v>75</v>
+      </c>
+      <c r="CA122" s="8">
+        <v>75</v>
+      </c>
+      <c r="CB122" s="8">
+        <v>75</v>
+      </c>
+      <c r="CC122" s="8">
+        <v>75</v>
+      </c>
+      <c r="CD122" s="8">
+        <v>75</v>
+      </c>
+      <c r="CE122" s="8">
+        <v>75</v>
+      </c>
+      <c r="CF122" s="8">
+        <v>75</v>
+      </c>
+      <c r="CG122" s="8">
+        <v>75</v>
+      </c>
+      <c r="CH122" s="8">
+        <v>75</v>
+      </c>
+      <c r="CI122" s="8">
+        <v>75</v>
+      </c>
+      <c r="CJ122" s="8">
+        <v>75</v>
+      </c>
+      <c r="CK122" s="8">
+        <v>75</v>
+      </c>
+      <c r="CL122" s="8">
+        <v>75</v>
+      </c>
+      <c r="CM122" s="8">
+        <v>75</v>
+      </c>
+      <c r="CN122" s="1">
+        <v>75</v>
+      </c>
+      <c r="CO122" s="1">
+        <v>75</v>
+      </c>
+      <c r="CP122" s="1">
+        <v>75</v>
+      </c>
+      <c r="CQ122" s="1">
+        <v>75</v>
+      </c>
+      <c r="CR122" s="1">
+        <v>75</v>
+      </c>
+      <c r="CS122" s="1">
+        <v>75</v>
+      </c>
+      <c r="CT122" s="1">
+        <v>75</v>
+      </c>
+      <c r="CU122" s="1">
+        <v>75</v>
+      </c>
+      <c r="CV122" s="1">
+        <v>75</v>
+      </c>
+      <c r="CW122" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+      <c r="F123">
+        <v>3</v>
+      </c>
+      <c r="G123">
+        <v>4</v>
+      </c>
+      <c r="H123">
+        <v>5</v>
+      </c>
+      <c r="I123">
+        <v>6</v>
+      </c>
+      <c r="J123">
+        <v>7</v>
+      </c>
+      <c r="K123">
+        <v>8</v>
+      </c>
+      <c r="L123">
+        <v>8</v>
+      </c>
+      <c r="M123">
+        <v>8</v>
+      </c>
+      <c r="N123">
+        <v>9</v>
+      </c>
+      <c r="O123">
+        <v>9</v>
+      </c>
+      <c r="P123">
+        <v>10</v>
+      </c>
+      <c r="Q123">
+        <v>10</v>
+      </c>
+      <c r="R123">
+        <v>11</v>
+      </c>
+      <c r="S123">
+        <v>12</v>
+      </c>
+      <c r="T123">
+        <v>12</v>
+      </c>
+      <c r="U123">
+        <v>12</v>
+      </c>
+      <c r="V123" s="8">
+        <v>14</v>
+      </c>
+      <c r="W123" s="8">
+        <v>16</v>
+      </c>
+      <c r="X123" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y123" s="8">
+        <v>20</v>
+      </c>
+      <c r="Z123" s="8">
+        <v>21</v>
+      </c>
+      <c r="AA123" s="8">
+        <v>22</v>
+      </c>
+      <c r="AB123" s="8">
+        <v>23</v>
+      </c>
+      <c r="AC123" s="8">
+        <v>24</v>
+      </c>
+      <c r="AD123" s="8">
+        <v>25</v>
+      </c>
+      <c r="AE123" s="8">
+        <v>26</v>
+      </c>
+      <c r="AF123" s="8">
+        <v>27</v>
+      </c>
+      <c r="AG123" s="8">
+        <v>28</v>
+      </c>
+      <c r="AH123" s="8">
+        <v>29</v>
+      </c>
+      <c r="AI123" s="8">
+        <v>30</v>
+      </c>
+      <c r="AJ123" s="8">
+        <v>31</v>
+      </c>
+      <c r="AK123" s="8">
+        <v>32</v>
+      </c>
+      <c r="AL123" s="8">
+        <v>33</v>
+      </c>
+      <c r="AM123" s="8">
+        <v>34</v>
+      </c>
+      <c r="AN123" s="8">
+        <v>35</v>
+      </c>
+      <c r="AO123" s="8">
+        <v>36</v>
+      </c>
+      <c r="AP123" s="8">
+        <v>37</v>
+      </c>
+      <c r="AQ123" s="8">
+        <v>38</v>
+      </c>
+      <c r="AR123" s="8">
+        <v>39</v>
+      </c>
+      <c r="AS123" s="8">
+        <v>40</v>
+      </c>
+      <c r="AT123" s="8">
+        <v>41</v>
+      </c>
+      <c r="AU123" s="8">
+        <v>42</v>
+      </c>
+      <c r="AV123" s="8">
+        <v>43</v>
+      </c>
+      <c r="AW123" s="8">
+        <v>44</v>
+      </c>
+      <c r="AX123" s="8">
+        <v>45</v>
+      </c>
+      <c r="AY123" s="8">
+        <v>45</v>
+      </c>
+      <c r="AZ123" s="8">
+        <v>45</v>
+      </c>
+      <c r="BA123" s="8">
+        <v>45</v>
+      </c>
+      <c r="BB123" s="8">
+        <v>45</v>
+      </c>
+      <c r="BC123" s="8">
+        <v>45</v>
+      </c>
+      <c r="BD123" s="8">
+        <v>45</v>
+      </c>
+      <c r="BE123" s="8">
+        <v>46</v>
+      </c>
+      <c r="BF123" s="8">
+        <v>47</v>
+      </c>
+      <c r="BG123" s="8">
+        <v>48</v>
+      </c>
+      <c r="BH123" s="8">
+        <v>49</v>
+      </c>
+      <c r="BI123" s="8">
+        <v>50</v>
+      </c>
+      <c r="BJ123" s="8">
+        <v>51</v>
+      </c>
+      <c r="BK123" s="8">
+        <v>52</v>
+      </c>
+      <c r="BL123" s="8">
+        <v>53</v>
+      </c>
+      <c r="BM123" s="8">
+        <v>54</v>
+      </c>
+      <c r="BN123" s="8">
+        <v>55</v>
+      </c>
+      <c r="BO123" s="8">
+        <v>56</v>
+      </c>
+      <c r="BP123" s="8">
+        <v>57</v>
+      </c>
+      <c r="BQ123" s="8">
+        <v>58</v>
+      </c>
+      <c r="BR123" s="8">
+        <v>59</v>
+      </c>
+      <c r="BS123" s="8">
+        <v>60</v>
+      </c>
+      <c r="BT123" s="8">
+        <v>61</v>
+      </c>
+      <c r="BU123" s="8">
+        <v>62</v>
+      </c>
+      <c r="BV123" s="8">
+        <v>63</v>
+      </c>
+      <c r="BW123" s="8">
+        <v>64</v>
+      </c>
+      <c r="BX123" s="8">
+        <v>65</v>
+      </c>
+      <c r="BY123" s="8">
+        <v>66</v>
+      </c>
+      <c r="BZ123" s="8">
+        <v>67</v>
+      </c>
+      <c r="CA123" s="8">
+        <v>68</v>
+      </c>
+      <c r="CB123" s="8">
+        <v>69</v>
+      </c>
+      <c r="CC123" s="8">
+        <v>70</v>
+      </c>
+      <c r="CD123" s="8">
+        <v>71</v>
+      </c>
+      <c r="CE123" s="8">
+        <v>72</v>
+      </c>
+      <c r="CF123" s="8">
+        <v>73</v>
+      </c>
+      <c r="CG123" s="8">
+        <v>74</v>
+      </c>
+      <c r="CH123" s="8">
+        <v>75</v>
+      </c>
+      <c r="CI123" s="8">
+        <v>76</v>
+      </c>
+      <c r="CJ123" s="8">
+        <v>77</v>
+      </c>
+      <c r="CK123" s="8">
+        <v>78</v>
+      </c>
+      <c r="CL123" s="8">
+        <v>79</v>
+      </c>
+      <c r="CM123" s="8">
+        <v>80</v>
+      </c>
+      <c r="CN123" s="1">
+        <v>80</v>
+      </c>
+      <c r="CO123" s="1">
+        <v>80</v>
+      </c>
+      <c r="CP123" s="1">
+        <v>80</v>
+      </c>
+      <c r="CQ123" s="1">
+        <v>80</v>
+      </c>
+      <c r="CR123" s="1">
+        <v>80</v>
+      </c>
+      <c r="CS123" s="1">
+        <v>80</v>
+      </c>
+      <c r="CT123" s="1">
+        <v>80</v>
+      </c>
+      <c r="CU123" s="1">
+        <v>80</v>
+      </c>
+      <c r="CV123" s="1">
+        <v>80</v>
+      </c>
+      <c r="CW123" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>22</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124">
+        <v>4</v>
+      </c>
+      <c r="G124">
+        <v>5</v>
+      </c>
+      <c r="H124">
+        <v>5</v>
+      </c>
+      <c r="I124">
+        <v>6</v>
+      </c>
+      <c r="J124">
+        <v>7</v>
+      </c>
+      <c r="K124">
+        <v>8</v>
+      </c>
+      <c r="L124">
+        <v>9</v>
+      </c>
+      <c r="M124">
+        <v>10</v>
+      </c>
+      <c r="N124">
+        <v>11</v>
+      </c>
+      <c r="O124">
+        <v>12</v>
+      </c>
+      <c r="P124">
+        <v>13</v>
+      </c>
+      <c r="Q124">
+        <v>14</v>
+      </c>
+      <c r="R124">
+        <v>15</v>
+      </c>
+      <c r="S124">
+        <v>16</v>
+      </c>
+      <c r="T124">
+        <v>16</v>
+      </c>
+      <c r="U124">
+        <v>17</v>
+      </c>
+      <c r="V124" s="8">
+        <v>18</v>
+      </c>
+      <c r="W124" s="8">
+        <v>19</v>
+      </c>
+      <c r="X124" s="8">
+        <v>19</v>
+      </c>
+      <c r="Y124" s="8">
+        <v>20</v>
+      </c>
+      <c r="Z124" s="8">
+        <v>21</v>
+      </c>
+      <c r="AA124" s="8">
+        <v>22</v>
+      </c>
+      <c r="AB124" s="8">
+        <v>23</v>
+      </c>
+      <c r="AC124" s="8">
+        <v>24</v>
+      </c>
+      <c r="AD124" s="8">
+        <v>25</v>
+      </c>
+      <c r="AE124" s="8">
+        <v>26</v>
+      </c>
+      <c r="AF124" s="8">
+        <v>27</v>
+      </c>
+      <c r="AG124" s="8">
+        <v>28</v>
+      </c>
+      <c r="AH124" s="8">
+        <v>29</v>
+      </c>
+      <c r="AI124" s="8">
+        <v>30</v>
+      </c>
+      <c r="AJ124" s="8">
+        <v>31</v>
+      </c>
+      <c r="AK124" s="8">
+        <v>32</v>
+      </c>
+      <c r="AL124" s="8">
+        <v>33</v>
+      </c>
+      <c r="AM124" s="8">
+        <v>34</v>
+      </c>
+      <c r="AN124" s="8">
+        <v>35</v>
+      </c>
+      <c r="AO124" s="8">
+        <v>36</v>
+      </c>
+      <c r="AP124" s="8">
+        <v>37</v>
+      </c>
+      <c r="AQ124" s="8">
+        <v>38</v>
+      </c>
+      <c r="AR124" s="8">
+        <v>39</v>
+      </c>
+      <c r="AS124" s="8">
+        <v>40</v>
+      </c>
+      <c r="AT124" s="8">
+        <v>41</v>
+      </c>
+      <c r="AU124" s="8">
+        <v>42</v>
+      </c>
+      <c r="AV124" s="8">
+        <v>43</v>
+      </c>
+      <c r="AW124" s="8">
+        <v>44</v>
+      </c>
+      <c r="AX124" s="8">
+        <v>45</v>
+      </c>
+      <c r="AY124" s="8">
+        <v>45</v>
+      </c>
+      <c r="AZ124" s="8">
+        <v>45</v>
+      </c>
+      <c r="BA124" s="8">
+        <v>45</v>
+      </c>
+      <c r="BB124" s="8">
+        <v>45</v>
+      </c>
+      <c r="BC124" s="8">
+        <v>45</v>
+      </c>
+      <c r="BD124" s="8">
+        <v>45</v>
+      </c>
+      <c r="BE124" s="8">
+        <v>46</v>
+      </c>
+      <c r="BF124" s="8">
+        <v>47</v>
+      </c>
+      <c r="BG124" s="8">
+        <v>48</v>
+      </c>
+      <c r="BH124" s="8">
+        <v>50</v>
+      </c>
+      <c r="BI124" s="8">
+        <v>51</v>
+      </c>
+      <c r="BJ124" s="8">
+        <v>52</v>
+      </c>
+      <c r="BK124" s="8">
+        <v>53</v>
+      </c>
+      <c r="BL124" s="8">
+        <v>55</v>
+      </c>
+      <c r="BM124" s="8">
+        <v>56</v>
+      </c>
+      <c r="BN124" s="8">
+        <v>57</v>
+      </c>
+      <c r="BO124" s="8">
+        <v>58</v>
+      </c>
+      <c r="BP124" s="8">
+        <v>60</v>
+      </c>
+      <c r="BQ124" s="8">
+        <v>61</v>
+      </c>
+      <c r="BR124" s="8">
+        <v>62</v>
+      </c>
+      <c r="BS124" s="8">
+        <v>63</v>
+      </c>
+      <c r="BT124" s="8">
+        <v>65</v>
+      </c>
+      <c r="BU124" s="8">
+        <v>66</v>
+      </c>
+      <c r="BV124" s="8">
+        <v>67</v>
+      </c>
+      <c r="BW124" s="8">
+        <v>68</v>
+      </c>
+      <c r="BX124" s="8">
+        <v>70</v>
+      </c>
+      <c r="BY124" s="8">
+        <v>71</v>
+      </c>
+      <c r="BZ124" s="8">
+        <v>72</v>
+      </c>
+      <c r="CA124" s="8">
+        <v>73</v>
+      </c>
+      <c r="CB124" s="8">
+        <v>75</v>
+      </c>
+      <c r="CC124" s="8">
+        <v>76</v>
+      </c>
+      <c r="CD124" s="8">
+        <v>77</v>
+      </c>
+      <c r="CE124" s="8">
+        <v>78</v>
+      </c>
+      <c r="CF124" s="8">
+        <v>80</v>
+      </c>
+      <c r="CG124" s="8">
+        <v>81</v>
+      </c>
+      <c r="CH124" s="8">
+        <v>82</v>
+      </c>
+      <c r="CI124" s="8">
+        <v>83</v>
+      </c>
+      <c r="CJ124" s="8">
+        <v>85</v>
+      </c>
+      <c r="CK124" s="8">
+        <v>85</v>
+      </c>
+      <c r="CL124" s="8">
+        <v>85</v>
+      </c>
+      <c r="CM124" s="8">
+        <v>85</v>
+      </c>
+      <c r="CN124" s="1">
+        <v>85</v>
+      </c>
+      <c r="CO124" s="1">
+        <v>85</v>
+      </c>
+      <c r="CP124" s="1">
+        <v>85</v>
+      </c>
+      <c r="CQ124" s="1">
+        <v>85</v>
+      </c>
+      <c r="CR124" s="1">
+        <v>85</v>
+      </c>
+      <c r="CS124" s="1">
+        <v>85</v>
+      </c>
+      <c r="CT124" s="1">
+        <v>85</v>
+      </c>
+      <c r="CU124" s="1">
+        <v>85</v>
+      </c>
+      <c r="CV124" s="1">
+        <v>85</v>
+      </c>
+      <c r="CW124" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>27</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+      <c r="F125">
+        <v>3</v>
+      </c>
+      <c r="G125">
+        <v>4</v>
+      </c>
+      <c r="H125">
+        <v>5</v>
+      </c>
+      <c r="I125">
+        <v>6</v>
+      </c>
+      <c r="J125">
+        <v>6</v>
+      </c>
+      <c r="K125">
+        <v>7</v>
+      </c>
+      <c r="L125">
+        <v>8</v>
+      </c>
+      <c r="M125">
+        <v>8</v>
+      </c>
+      <c r="N125">
+        <v>8</v>
+      </c>
+      <c r="O125">
+        <v>9</v>
+      </c>
+      <c r="P125">
+        <v>9</v>
+      </c>
+      <c r="Q125">
+        <v>10</v>
+      </c>
+      <c r="R125">
+        <v>11</v>
+      </c>
+      <c r="S125">
+        <v>12</v>
+      </c>
+      <c r="T125">
+        <v>12</v>
+      </c>
+      <c r="U125">
+        <v>12</v>
+      </c>
+      <c r="V125" s="8">
+        <v>14</v>
+      </c>
+      <c r="W125" s="8">
+        <v>16</v>
+      </c>
+      <c r="X125" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y125" s="8">
+        <v>20</v>
+      </c>
+      <c r="Z125" s="8">
+        <v>21</v>
+      </c>
+      <c r="AA125" s="8">
+        <v>22</v>
+      </c>
+      <c r="AB125" s="8">
+        <v>23</v>
+      </c>
+      <c r="AC125" s="8">
+        <v>24</v>
+      </c>
+      <c r="AD125" s="8">
+        <v>25</v>
+      </c>
+      <c r="AE125" s="8">
+        <v>26</v>
+      </c>
+      <c r="AF125" s="8">
+        <v>27</v>
+      </c>
+      <c r="AG125" s="8">
+        <v>28</v>
+      </c>
+      <c r="AH125" s="8">
+        <v>29</v>
+      </c>
+      <c r="AI125" s="8">
+        <v>30</v>
+      </c>
+      <c r="AJ125" s="8">
+        <v>31</v>
+      </c>
+      <c r="AK125" s="8">
+        <v>32</v>
+      </c>
+      <c r="AL125" s="8">
+        <v>33</v>
+      </c>
+      <c r="AM125" s="8">
+        <v>34</v>
+      </c>
+      <c r="AN125" s="8">
+        <v>35</v>
+      </c>
+      <c r="AO125" s="8">
+        <v>36</v>
+      </c>
+      <c r="AP125" s="8">
+        <v>37</v>
+      </c>
+      <c r="AQ125" s="8">
+        <v>38</v>
+      </c>
+      <c r="AR125" s="8">
+        <v>39</v>
+      </c>
+      <c r="AS125" s="8">
+        <v>40</v>
+      </c>
+      <c r="AT125" s="8">
+        <v>41</v>
+      </c>
+      <c r="AU125" s="8">
+        <v>42</v>
+      </c>
+      <c r="AV125" s="8">
+        <v>43</v>
+      </c>
+      <c r="AW125" s="8">
+        <v>44</v>
+      </c>
+      <c r="AX125" s="8">
+        <v>45</v>
+      </c>
+      <c r="AY125" s="8">
+        <v>45</v>
+      </c>
+      <c r="AZ125" s="8">
+        <v>45</v>
+      </c>
+      <c r="BA125" s="8">
+        <v>45</v>
+      </c>
+      <c r="BB125" s="8">
+        <v>45</v>
+      </c>
+      <c r="BC125" s="8">
+        <v>45</v>
+      </c>
+      <c r="BD125" s="8">
+        <v>45</v>
+      </c>
+      <c r="BE125" s="8">
+        <v>46</v>
+      </c>
+      <c r="BF125" s="8">
+        <v>47</v>
+      </c>
+      <c r="BG125" s="8">
+        <v>48</v>
+      </c>
+      <c r="BH125" s="8">
+        <v>48</v>
+      </c>
+      <c r="BI125" s="8">
+        <v>49</v>
+      </c>
+      <c r="BJ125" s="8">
+        <v>50</v>
+      </c>
+      <c r="BK125" s="8">
+        <v>51</v>
+      </c>
+      <c r="BL125" s="8">
+        <v>51</v>
+      </c>
+      <c r="BM125" s="8">
+        <v>52</v>
+      </c>
+      <c r="BN125" s="8">
+        <v>53</v>
+      </c>
+      <c r="BO125" s="8">
+        <v>54</v>
+      </c>
+      <c r="BP125" s="8">
+        <v>54</v>
+      </c>
+      <c r="BQ125" s="8">
+        <v>55</v>
+      </c>
+      <c r="BR125" s="8">
+        <v>56</v>
+      </c>
+      <c r="BS125" s="8">
+        <v>57</v>
+      </c>
+      <c r="BT125" s="8">
+        <v>57</v>
+      </c>
+      <c r="BU125" s="8">
+        <v>58</v>
+      </c>
+      <c r="BV125" s="8">
+        <v>59</v>
+      </c>
+      <c r="BW125" s="8">
+        <v>60</v>
+      </c>
+      <c r="BX125" s="8">
+        <v>60</v>
+      </c>
+      <c r="BY125" s="8">
+        <v>62</v>
+      </c>
+      <c r="BZ125" s="8">
+        <v>64</v>
+      </c>
+      <c r="CA125" s="8">
+        <v>66</v>
+      </c>
+      <c r="CB125" s="8">
+        <v>68</v>
+      </c>
+      <c r="CC125" s="8">
+        <v>70</v>
+      </c>
+      <c r="CD125" s="8">
+        <v>72</v>
+      </c>
+      <c r="CE125" s="8">
+        <v>74</v>
+      </c>
+      <c r="CF125" s="8">
+        <v>76</v>
+      </c>
+      <c r="CG125" s="8">
+        <v>78</v>
+      </c>
+      <c r="CH125" s="8">
+        <v>80</v>
+      </c>
+      <c r="CI125" s="8">
+        <v>81</v>
+      </c>
+      <c r="CJ125" s="8">
+        <v>82</v>
+      </c>
+      <c r="CK125" s="8">
+        <v>83</v>
+      </c>
+      <c r="CL125" s="8">
+        <v>84</v>
+      </c>
+      <c r="CM125" s="8">
+        <v>85</v>
+      </c>
+      <c r="CN125" s="1">
+        <v>85</v>
+      </c>
+      <c r="CO125" s="1">
+        <v>85</v>
+      </c>
+      <c r="CP125" s="1">
+        <v>85</v>
+      </c>
+      <c r="CQ125" s="1">
+        <v>85</v>
+      </c>
+      <c r="CR125" s="1">
+        <v>85</v>
+      </c>
+      <c r="CS125" s="1">
+        <v>85</v>
+      </c>
+      <c r="CT125" s="1">
+        <v>85</v>
+      </c>
+      <c r="CU125" s="1">
+        <v>85</v>
+      </c>
+      <c r="CV125" s="1">
+        <v>85</v>
+      </c>
+      <c r="CW125" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="126" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>24</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
+      <c r="F126">
+        <v>4</v>
+      </c>
+      <c r="G126">
+        <v>4</v>
+      </c>
+      <c r="H126">
+        <v>5</v>
+      </c>
+      <c r="I126">
+        <v>6</v>
+      </c>
+      <c r="J126">
+        <v>7</v>
+      </c>
+      <c r="K126">
+        <v>8</v>
+      </c>
+      <c r="L126">
+        <v>9</v>
+      </c>
+      <c r="M126">
+        <v>10</v>
+      </c>
+      <c r="N126">
+        <v>10</v>
+      </c>
+      <c r="O126">
+        <v>11</v>
+      </c>
+      <c r="P126">
+        <v>12</v>
+      </c>
+      <c r="Q126">
+        <v>13</v>
+      </c>
+      <c r="R126">
+        <v>14</v>
+      </c>
+      <c r="S126">
+        <v>15</v>
+      </c>
+      <c r="T126">
+        <v>17</v>
+      </c>
+      <c r="U126">
+        <v>18</v>
+      </c>
+      <c r="V126" s="8">
+        <v>18</v>
+      </c>
+      <c r="W126" s="8">
+        <v>18</v>
+      </c>
+      <c r="X126" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y126" s="8">
+        <v>18</v>
+      </c>
+      <c r="Z126" s="8">
+        <v>19</v>
+      </c>
+      <c r="AA126" s="8">
+        <v>19</v>
+      </c>
+      <c r="AB126" s="8">
+        <v>20</v>
+      </c>
+      <c r="AC126" s="8">
+        <v>20</v>
+      </c>
+      <c r="AD126" s="8">
+        <v>21</v>
+      </c>
+      <c r="AE126" s="8">
+        <v>21</v>
+      </c>
+      <c r="AF126" s="8">
+        <v>22</v>
+      </c>
+      <c r="AG126" s="8">
+        <v>22</v>
+      </c>
+      <c r="AH126" s="8">
+        <v>23</v>
+      </c>
+      <c r="AI126" s="8">
+        <v>23</v>
+      </c>
+      <c r="AJ126" s="8">
+        <v>24</v>
+      </c>
+      <c r="AK126" s="8">
+        <v>24</v>
+      </c>
+      <c r="AL